--- a/Documentação/Planilhas/Conferencia_CAR.xlsx
+++ b/Documentação/Planilhas/Conferencia_CAR.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" tabRatio="812" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" tabRatio="812" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Resumo" sheetId="93" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1007" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1080" uniqueCount="301">
   <si>
     <t>1</t>
   </si>
@@ -266,18 +266,12 @@
     <t>CD_METODO_RECEBIMENTO</t>
   </si>
   <si>
-    <t>10077</t>
-  </si>
-  <si>
     <t>CAR</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>000000001</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
@@ -287,57 +281,15 @@
     <t>botelho</t>
   </si>
   <si>
-    <t>DEV1</t>
-  </si>
-  <si>
     <t>DEV</t>
   </si>
   <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>J1</t>
-  </si>
-  <si>
-    <t>2013-11-18 00:00:00.000</t>
-  </si>
-  <si>
-    <t>2013-11-25 00:00:00.000</t>
-  </si>
-  <si>
-    <t>-100.0000</t>
-  </si>
-  <si>
-    <t>janaina</t>
-  </si>
-  <si>
-    <t>2013-11-18 09:55:56.000</t>
-  </si>
-  <si>
-    <t>DEV11</t>
-  </si>
-  <si>
-    <t>000000025</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
     <t>2014-06-14 00:00:00.000</t>
   </si>
   <si>
     <t>2014-07-14 00:00:00.000</t>
   </si>
   <si>
-    <t>-2000.0000</t>
-  </si>
-  <si>
-    <t>jsobrinh</t>
-  </si>
-  <si>
-    <t>2014-06-14 13:03:54.000</t>
-  </si>
-  <si>
     <t>DEV12</t>
   </si>
   <si>
@@ -380,27 +332,9 @@
     <t>2014-06-25 20:44:34.000</t>
   </si>
   <si>
-    <t>DEV14</t>
-  </si>
-  <si>
-    <t>000002700</t>
-  </si>
-  <si>
     <t>14</t>
   </si>
   <si>
-    <t>2014-06-26 00:00:00.000</t>
-  </si>
-  <si>
-    <t>-70.8900</t>
-  </si>
-  <si>
-    <t>2014-06-30 19:31:51.000</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
     <t>dbo.stg_car_titulo_mvmto</t>
   </si>
   <si>
@@ -458,9 +392,6 @@
     <t>RG414</t>
   </si>
   <si>
-    <t>CR</t>
-  </si>
-  <si>
     <t>RG4</t>
   </si>
   <si>
@@ -503,24 +434,9 @@
     <t>2013-09-10 00:00:00.000</t>
   </si>
   <si>
-    <t>NCV35</t>
-  </si>
-  <si>
     <t>NCV</t>
   </si>
   <si>
-    <t>2000.0000</t>
-  </si>
-  <si>
-    <t>2014-06-17 10:46:13.000</t>
-  </si>
-  <si>
-    <t>RE44</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
     <t>LKC</t>
   </si>
   <si>
@@ -545,63 +461,18 @@
     <t>RRK</t>
   </si>
   <si>
-    <t>RGN1</t>
-  </si>
-  <si>
-    <t>RGN</t>
-  </si>
-  <si>
     <t>10000.0000</t>
   </si>
   <si>
-    <t>2014-06-07 13:22:19.000</t>
-  </si>
-  <si>
-    <t>RE41</t>
-  </si>
-  <si>
     <t>RGL</t>
   </si>
   <si>
-    <t>VAL45</t>
-  </si>
-  <si>
-    <t>VAL</t>
-  </si>
-  <si>
-    <t>2014-05-31 00:00:00.000</t>
-  </si>
-  <si>
-    <t>88.5500</t>
-  </si>
-  <si>
-    <t>2014-06-02 14:34:54.000</t>
-  </si>
-  <si>
-    <t>VAL48</t>
-  </si>
-  <si>
-    <t>RLP</t>
-  </si>
-  <si>
-    <t>2014-06-01 00:00:00.000</t>
-  </si>
-  <si>
-    <t>RE4</t>
-  </si>
-  <si>
     <t>-10000.0000</t>
   </si>
   <si>
     <t>RG41</t>
   </si>
   <si>
-    <t>2014-06-29 00:00:00.000</t>
-  </si>
-  <si>
-    <t>-5000.0000</t>
-  </si>
-  <si>
     <t>2014-06-18 00:00:00.000</t>
   </si>
   <si>
@@ -614,34 +485,7 @@
     <t>00005574</t>
   </si>
   <si>
-    <t>2014-06-14 12:46:57.000</t>
-  </si>
-  <si>
-    <t>ENC</t>
-  </si>
-  <si>
     <t>2014-07-07 00:00:00.000</t>
-  </si>
-  <si>
-    <t>341</t>
-  </si>
-  <si>
-    <t>0911</t>
-  </si>
-  <si>
-    <t>RG43</t>
-  </si>
-  <si>
-    <t>2014-06-16 00:00:00.000</t>
-  </si>
-  <si>
-    <t>-88.5500</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>2014-06-30 00:00:00.000</t>
   </si>
   <si>
     <t>dbo.stg_car_titulo_remessa</t>
@@ -746,9 +590,6 @@
     <t>Pedir o detalhamento do documento desejado. Na aba Condições de Pagamento, seção Condições de Pagamento, pegar a Data da Liquidez Prevista</t>
   </si>
   <si>
-    <t>Selecionar o documento desejado e no menu Specific, selecionar "Documentos Relacionados ao Recebimento por Entrada Aberta". Pegar a informação da coluna Data de recebto.</t>
-  </si>
-  <si>
     <t>Pegar a informação da coluna Valor em Moeda da Fatura</t>
   </si>
   <si>
@@ -790,9 +631,6 @@
     <t>Selecionar o documento desejado e com o botão direito do mouse, selecionar Text ==&gt; Texto</t>
   </si>
   <si>
-    <t>Selecionar o documento desejado e no menu Specific, selecionar "Transações GL". Na aba Histórico, pegar a primeira informação da coluna "Ultima modificação por"</t>
-  </si>
-  <si>
     <t>A view está buscando o campo "rcd_utc" da tabela "tfacr200". Este campo não aparece nas telas do LN para podermos realizar a conferência</t>
   </si>
   <si>
@@ -886,9 +724,6 @@
     <t>2014-05-26 17:34:49.000</t>
   </si>
   <si>
-    <t>Este número é o número do Pedido no Site</t>
-  </si>
-  <si>
     <t>stg_car_remessa_cobanca_eletronica</t>
   </si>
   <si>
@@ -902,6 +737,253 @@
   </si>
   <si>
     <t>stg_car_titulo_remessa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sessão znslsc524m000 </t>
+  </si>
+  <si>
+    <t>Selecionar o título desejado ainda na sessão tfacr2520m000 e no menu Specific, selecionar "Fatura - Relações de Origem". Pegar a informação da coluna Ordem.
+Ir para a sessão znslsc524m000 e pesquisar a ordem em questão no campo Ordem de Venda, em todas as unidades de negócios disponíveeis [usar as setinhas "Next Group" para selecionar a unidade]
+Caso encontre a Ordem, pegar a informação da coluna "Pedido do Cliente"</t>
+  </si>
+  <si>
+    <t>Pegar a informação do NR_BANCARIO existente na tabela e seleciona-lo no campo  "Código da Agência Bancária". Pegar a informação do campo "Banco Oficial"</t>
+  </si>
+  <si>
+    <t>Pegar a informação do NR_BANCARIO existente na tabela e seleciona-lo no campo  "Código da Agência Bancária". Pegar a informação do campo "Agência"</t>
+  </si>
+  <si>
+    <t>Sessão tfcmg0511m000</t>
+  </si>
+  <si>
+    <t>Sessão tfcmg0510m000</t>
+  </si>
+  <si>
+    <t>Pegar a informação do CD_BANCO existente na tabela e seleciona-lo no campo  "Banco". Pegar a informação do campo "Conta Bancária"</t>
+  </si>
+  <si>
+    <t>59067</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>000000002</t>
+  </si>
+  <si>
+    <t>2013-09-09 00:00:00.000</t>
+  </si>
+  <si>
+    <t>22.7000</t>
+  </si>
+  <si>
+    <t>7.7000</t>
+  </si>
+  <si>
+    <t>2013-10-04 15:11:50.000</t>
+  </si>
+  <si>
+    <t>Se o Valor Saldo for zero, selecionar o documento desejado e no menu Specific, selecionar "Documentos Relacionados ao Recebimento por Entrada Aberta". Pegar a informação da coluna Data de recebto.</t>
+  </si>
+  <si>
+    <t>RB361</t>
+  </si>
+  <si>
+    <t>RB3</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>000000020</t>
+  </si>
+  <si>
+    <t>5000.0000</t>
+  </si>
+  <si>
+    <t>2014-08-17 00:00:00.000</t>
+  </si>
+  <si>
+    <t>amesquit</t>
+  </si>
+  <si>
+    <t>2014-06-18 16:51:51.000</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>444444444</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>000000012</t>
+  </si>
+  <si>
+    <t>3000.0000</t>
+  </si>
+  <si>
+    <t>2014-10-16 00:00:00.000</t>
+  </si>
+  <si>
+    <t>lisilva</t>
+  </si>
+  <si>
+    <t>2014-06-18 17:17:53.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> selecionar o documento desejado e no menu Specific, selecionar "Documentos Relacionados ao Recebimento por Entrada Aberta". Pegar a informação da coluna Data de recebto [Data mais antiga]</t>
+  </si>
+  <si>
+    <t>Selecionar o documento desejado e no menu Specific, selecionar "Transações GL". Na aba Histórico, pegar a primeira informação da coluna "Finalizado por"</t>
+  </si>
+  <si>
+    <t>Sessão tfcmgl504m00l</t>
+  </si>
+  <si>
+    <t>Informar  a transação e o título na coluna "Documento". Pegar a informação da coluna "Status do Arquivo"</t>
+  </si>
+  <si>
+    <t>está retornando nulos porque não está sendo preenchido o código da Filial (dimensão 2) no título</t>
+  </si>
+  <si>
+    <t>Se o Tipo de Venda for "BL ATC" recebe 2. Caso contrário recebe 3</t>
+  </si>
+  <si>
+    <t>tfacr2520m000, znslsc524m000, tfcmg0511m000, tfcmg0510m000 e tfcmgl504m00l</t>
+  </si>
+  <si>
+    <t>750.0000</t>
+  </si>
+  <si>
+    <t>2014-06-13 16:45:26.000</t>
+  </si>
+  <si>
+    <t>RE125</t>
+  </si>
+  <si>
+    <t>375.0000</t>
+  </si>
+  <si>
+    <t>2014-06-13 17:14:45.000</t>
+  </si>
+  <si>
+    <t>RB312</t>
+  </si>
+  <si>
+    <t>2014-06-13 17:35:01.000</t>
+  </si>
+  <si>
+    <t>RG310</t>
+  </si>
+  <si>
+    <t>2014-07-21 00:00:00.000</t>
+  </si>
+  <si>
+    <t>2014-06-13 16:54:05.000</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>-18864.2000</t>
+  </si>
+  <si>
+    <t>2014-06-11 16:21:42.000</t>
+  </si>
+  <si>
+    <t>2014-09-05 00:00:00.000</t>
+  </si>
+  <si>
+    <t>2014-10-05 00:00:00.000</t>
+  </si>
+  <si>
+    <t>selecionar o documento desejado e no menu Specific, selecionar "Documentos Relacionados ao Recebimento por Entrada Aberta". Pegar a informação da coluna Número da Progamação</t>
+  </si>
+  <si>
+    <t>1-Fatura de venda
+2-Recebimento normal
+3-Fatura de compra
+4-Nota de crédito
+5-Correção
+6-Variação cambial
+7-Diferença de pagamento
+8-Recebimento previsto
+9-Recebimento adiantado
+10-Recebimento não-alocado
+11-Adiantamento previsto
+12-Adiantamento não-alocado
+13-Atribuição
+14-Nota de débito
+15-Nota promissória
+16-Lançamento em banco</t>
+  </si>
+  <si>
+    <t>Pegar a informação da coluna Tipo docum.</t>
+  </si>
+  <si>
+    <t>Pegar a informação da coluna Data Documento</t>
+  </si>
+  <si>
+    <t>selecionar o documento desejado e no menu Specific, selecionar "Documentos Relacionados ao Recebimento por Entrada Aberta". Pegar a informação da coluna Valor Recebido</t>
+  </si>
+  <si>
+    <t>Quando VL_TRANSACAO for maio ou igual a 0, então retorna "+". Caso contrário retorna "-"</t>
+  </si>
+  <si>
+    <t>selecionar o documento desejado e no menu Specific, selecionar "Programações de Recebimento". Pegar a informação da coluna Status Recebimento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-Aberto
+2-Selecionado
+3-Parciamente pago
+4-Pago
+5-Descontado
+6-Protestado
+7-Não aplicável
+8-Caucionado
+9-Jurídico
+</t>
+  </si>
+  <si>
+    <t>Se CD_TRANSACAO_DOCUMENTO:
+ENC = 5
+RGL = 1
+LKC = 2
+RLA = 2
+ RRK = 4
+RRL= 4
+Se a categoria retornar 10 de acordo com o CD_TRANSACAO_DOCUMENTO, então virá 3
+Caso contrário = 0</t>
+  </si>
+  <si>
+    <t>selecionar o documento desejado e no menu Specific, selecionar "Programações de Recebimento". Pegar a informação da coluna Data Venc.</t>
+  </si>
+  <si>
+    <t>selecionar o documento desejado e no menu Specific, selecionar "Programações de Recebimento". Pegar a informação da coluna Data Vencimento Original</t>
+  </si>
+  <si>
+    <t>selecionar o documento desejado e no menu Specific, selecionar "Programações de Recebimento". Pegar a informação da coluna Data Prevista de Recebto</t>
+  </si>
+  <si>
+    <t>Pedir o detalhamento do documento desejado na sessão tfacr2520m000 . Na aba Condições de Pagamento, seção Condições de Pagamento, pegar Código da Conta Bancária para parceiros de negócios. Ir para a sessão tfcmg0511m000 e informar esse código no campo  "Código da Agência Bancária". Pegar a informação do campo "Banco Oficial"</t>
+  </si>
+  <si>
+    <t>Pedir o detalhamento do documento desejado na sessão tfacr2520m000 . Na aba Condições de Pagamento, seção Condições de Pagamento, pegar Código da Conta Bancária para parceiros de negócios. Ir para a sessão tfcmg0511m000 e informar esse código no campo  "Código da Agência Bancária". Pegar a informação do campo "Agência"</t>
+  </si>
+  <si>
+    <t>selecionar o documento desejado e no menu Specific, selecionar "Documentos Relacionados ao Recebimento por Entrada Aberta". Pegar a primeira informação da coluna Nº Doc Recebimento</t>
+  </si>
+  <si>
+    <t>selecionar o documento desejado e no menu Specific, selecionar "Documentos Relacionados ao Recebimento por Entrada Aberta". Pegar a segunda informação da coluna Nº Doc Recebimento</t>
+  </si>
+  <si>
+    <t>selecionar o documento desejado e no menu Specific, selecionar "Documentos Relacionados ao Recebimento por Entrada Aberta". Pegar a terceira informação da coluna Nº Doc Recebimento</t>
   </si>
 </sst>
 </file>
@@ -981,7 +1063,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -1211,6 +1293,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1219,7 +1314,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1241,18 +1336,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1275,15 +1358,51 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1312,6 +1431,51 @@
     <xf numFmtId="49" fontId="5" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1321,8 +1485,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFFFCC"/>
       <color rgb="FFFA7E7E"/>
-      <color rgb="FFFFFFCC"/>
       <color rgb="FFCCECFF"/>
       <color rgb="FFFF5050"/>
     </mruColors>
@@ -1643,31 +1807,31 @@
     </row>
     <row r="3" spans="2:3">
       <c r="B3" s="8" t="s">
-        <v>280</v>
+        <v>225</v>
       </c>
       <c r="C3" s="7"/>
     </row>
     <row r="4" spans="2:3">
       <c r="B4" s="8" t="s">
-        <v>281</v>
+        <v>226</v>
       </c>
       <c r="C4" s="7"/>
     </row>
     <row r="5" spans="2:3">
       <c r="B5" s="8" t="s">
-        <v>282</v>
+        <v>227</v>
       </c>
       <c r="C5" s="7"/>
     </row>
     <row r="6" spans="2:3">
       <c r="B6" s="8" t="s">
-        <v>283</v>
+        <v>228</v>
       </c>
       <c r="C6" s="7"/>
     </row>
     <row r="7" spans="2:3">
       <c r="B7" s="10" t="s">
-        <v>284</v>
+        <v>229</v>
       </c>
       <c r="C7" s="9"/>
     </row>
@@ -1734,19 +1898,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="21">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="14"/>
+      <c r="B2" s="30"/>
       <c r="C2" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="21">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="14"/>
+      <c r="B3" s="30"/>
       <c r="C3" s="3" t="s">
         <v>38</v>
       </c>
@@ -2071,50 +2235,50 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="12"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
+      <c r="A20" s="28"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="12"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
+      <c r="A21" s="28"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="13"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
+      <c r="A22" s="29"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -2169,19 +2333,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" ht="21">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="14"/>
+      <c r="B2" s="30"/>
       <c r="C2" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="21">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="14"/>
+      <c r="B3" s="30"/>
       <c r="C3" s="3"/>
     </row>
     <row r="6" spans="1:7">
@@ -2438,53 +2602,53 @@
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="G19" s="11"/>
+      <c r="A19" s="27" t="s">
+        <v>168</v>
+      </c>
+      <c r="B19" s="27"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27" t="s">
+        <v>169</v>
+      </c>
+      <c r="G19" s="27"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="12"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
+      <c r="A20" s="28"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="12"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
+      <c r="A21" s="28"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="13"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
+      <c r="A22" s="29"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="F24" s="21" t="s">
-        <v>222</v>
+      <c r="F24" s="17" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="101.25">
-      <c r="F25" s="22" t="s">
-        <v>223</v>
+      <c r="F25" s="18" t="s">
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -2538,75 +2702,75 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:17" ht="21">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="14"/>
+      <c r="B2" s="30"/>
       <c r="C2" s="3" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="21">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="14"/>
+      <c r="B3" s="30"/>
       <c r="C3" s="3"/>
     </row>
-    <row r="6" spans="1:17" s="17" customFormat="1">
-      <c r="A6" s="15"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="16"/>
+    <row r="6" spans="1:17" s="13" customFormat="1">
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
+      <c r="A19" s="27"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="12"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
+      <c r="A20" s="28"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="12"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
+      <c r="A21" s="28"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="13"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
+      <c r="A22" s="29"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -2628,18 +2792,20 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
-    <tabColor rgb="FFFA7E7E"/>
+    <tabColor rgb="FF92D050"/>
   </sheetPr>
   <dimension ref="A2:AE29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E23" sqref="E23:E26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
     <col min="1" max="1" width="20.42578125" style="2" customWidth="1"/>
     <col min="2" max="2" width="22" style="2" customWidth="1"/>
     <col min="3" max="3" width="21.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="22.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="28.140625" style="2" customWidth="1"/>
     <col min="5" max="5" width="23.28515625" style="2" customWidth="1"/>
     <col min="6" max="6" width="21.5703125" style="2" customWidth="1"/>
     <col min="7" max="7" width="18.7109375" style="2" customWidth="1"/>
@@ -2651,145 +2817,147 @@
     <col min="13" max="14" width="29.7109375" style="2" customWidth="1"/>
     <col min="15" max="15" width="33.140625" style="1" customWidth="1"/>
     <col min="16" max="16" width="30.140625" style="2" customWidth="1"/>
-    <col min="17" max="17" width="29.28515625" style="2" customWidth="1"/>
-    <col min="18" max="18" width="29.42578125" style="2" customWidth="1"/>
-    <col min="19" max="19" width="29.85546875" style="1" customWidth="1"/>
-    <col min="20" max="20" width="36" style="1" customWidth="1"/>
-    <col min="21" max="21" width="33.7109375" style="1" customWidth="1"/>
-    <col min="22" max="22" width="22.5703125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="34.28515625" style="2" customWidth="1"/>
+    <col min="18" max="18" width="32.5703125" style="2" customWidth="1"/>
+    <col min="19" max="19" width="33.42578125" style="1" customWidth="1"/>
+    <col min="20" max="20" width="36.5703125" style="1" customWidth="1"/>
+    <col min="21" max="21" width="38.5703125" style="1" customWidth="1"/>
+    <col min="22" max="22" width="34.5703125" style="1" customWidth="1"/>
     <col min="23" max="23" width="31.85546875" style="1" customWidth="1"/>
-    <col min="24" max="24" width="30.42578125" style="1" customWidth="1"/>
-    <col min="25" max="25" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="41.7109375" style="1" customWidth="1"/>
+    <col min="25" max="25" width="26.7109375" style="1" customWidth="1"/>
+    <col min="26" max="26" width="23.5703125" style="1" customWidth="1"/>
+    <col min="27" max="27" width="27" style="1" customWidth="1"/>
     <col min="28" max="28" width="29.5703125" style="1" customWidth="1"/>
-    <col min="29" max="29" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="28.85546875" style="1" customWidth="1"/>
+    <col min="30" max="30" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="21.42578125" style="1" customWidth="1"/>
     <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:31" ht="21">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="14"/>
+      <c r="B2" s="30"/>
       <c r="C2" s="3" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:31" ht="21">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="14"/>
+      <c r="B3" s="30"/>
       <c r="C3" s="3" t="s">
-        <v>224</v>
+        <v>268</v>
       </c>
     </row>
     <row r="4" spans="1:31" ht="21">
-      <c r="A4" s="23" t="s">
-        <v>238</v>
-      </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
+      <c r="A4" s="44" t="s">
+        <v>185</v>
+      </c>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
       <c r="G4" s="1"/>
-      <c r="P4" s="24"/>
+      <c r="P4" s="19"/>
       <c r="AB4" s="2"/>
     </row>
-    <row r="7" spans="1:31" s="17" customFormat="1">
-      <c r="A7" s="18" t="s">
+    <row r="7" spans="1:31" s="13" customFormat="1">
+      <c r="A7" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="F7" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="G7" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="F7" s="19" t="s">
+      <c r="H7" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="G7" s="18" t="s">
+      <c r="I7" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="H7" s="19" t="s">
+      <c r="J7" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="I7" s="19" t="s">
+      <c r="K7" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="J7" s="18" t="s">
+      <c r="L7" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="K7" s="19" t="s">
+      <c r="M7" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="L7" s="19" t="s">
+      <c r="N7" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="M7" s="19" t="s">
+      <c r="O7" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="N7" s="19" t="s">
+      <c r="P7" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="O7" s="19" t="s">
+      <c r="Q7" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="P7" s="19" t="s">
+      <c r="R7" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="Q7" s="19" t="s">
+      <c r="S7" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="R7" s="19" t="s">
+      <c r="T7" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="S7" s="19" t="s">
+      <c r="U7" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="T7" s="19" t="s">
+      <c r="V7" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="U7" s="19" t="s">
+      <c r="W7" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="X7" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="V7" s="19" t="s">
+      <c r="Y7" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="W7" s="19" t="s">
+      <c r="Z7" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="X7" s="19" t="s">
+      <c r="AA7" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="Y7" s="19" t="s">
+      <c r="AB7" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="Z7" s="19" t="s">
+      <c r="AC7" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="AA7" s="19" t="s">
+      <c r="AD7" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="AB7" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="AC7" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD7" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="AE7" s="19" t="s">
+      <c r="AE7" s="14" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2798,93 +2966,93 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E8" s="2" t="s">
+      <c r="D8" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="F8" s="20" t="s">
+      <c r="G8" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="M8" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="N8" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="O8" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="P8" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q8" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="R8" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="S8" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="T8" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="U8" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="V8" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="W8" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="X8" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="K8" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="L8" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="M8" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="N8" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="O8" s="20" t="s">
+      <c r="Y8" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z8" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="P8" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q8" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="R8" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="S8" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="T8" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="U8" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="V8" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="W8" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="X8" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y8" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z8" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA8" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB8" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC8" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="AD8" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="AE8" s="20" t="s">
+      <c r="AA8" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB8" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC8" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD8" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE8" s="16" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2893,93 +3061,93 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F9" s="20" t="s">
-        <v>6</v>
-      </c>
       <c r="G9" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H9" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H9" s="16" t="s">
         <v>99</v>
       </c>
       <c r="I9" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="M9" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="N9" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="O9" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="P9" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q9" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="R9" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="S9" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="T9" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="U9" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="V9" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="W9" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="X9" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z9" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="J9" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="K9" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="L9" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="M9" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="N9" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="O9" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="P9" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q9" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="R9" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="S9" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="T9" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="U9" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="V9" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="W9" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="X9" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y9" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z9" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA9" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB9" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC9" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="AD9" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="AE9" s="20" t="s">
+      <c r="AA9" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB9" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC9" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD9" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE9" s="16" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2988,93 +3156,93 @@
         <v>7</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F10" s="20" t="s">
-        <v>108</v>
+      <c r="D10" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>197</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>108</v>
+        <v>130</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>198</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>89</v>
+        <v>1</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="K10" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="L10" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="M10" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="N10" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="O10" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="P10" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q10" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="R10" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="S10" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="T10" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="U10" s="20" t="s">
+        <v>199</v>
+      </c>
+      <c r="K10" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="V10" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="W10" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="X10" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y10" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z10" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA10" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB10" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC10" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="AD10" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="AE10" s="20" t="s">
+      <c r="L10" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="M10" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="N10" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="O10" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="P10" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q10" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="R10" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="S10" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="T10" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="U10" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="V10" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="W10" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="X10" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z10" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="AA10" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB10" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC10" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD10" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE10" s="16" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3083,93 +3251,93 @@
         <v>7</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F11" s="20" t="s">
-        <v>115</v>
+      <c r="D11" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>205</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>115</v>
+        <v>130</v>
+      </c>
+      <c r="H11" s="16" t="s">
+        <v>206</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>89</v>
+        <v>1</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="K11" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="L11" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="M11" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="N11" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="O11" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="P11" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q11" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="R11" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="S11" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="T11" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="U11" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="K11" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="V11" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="W11" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="X11" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y11" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z11" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA11" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB11" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC11" s="20" t="s">
-        <v>118</v>
-      </c>
-      <c r="AD11" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="AE11" s="20" t="s">
+      <c r="L11" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="M11" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="N11" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="O11" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="P11" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q11" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="R11" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="S11" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="T11" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="U11" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="V11" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="W11" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="X11" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z11" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="AA11" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB11" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC11" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD11" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE11" s="16" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3178,188 +3346,188 @@
         <v>7</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F12" s="20" t="s">
-        <v>121</v>
+      <c r="D12" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>209</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>121</v>
+        <v>130</v>
+      </c>
+      <c r="H12" s="16" t="s">
+        <v>210</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>89</v>
+        <v>1</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="K12" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="L12" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="M12" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="N12" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="O12" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="P12" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q12" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="R12" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="S12" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="T12" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="U12" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="K12" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="V12" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="W12" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="X12" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y12" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z12" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA12" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB12" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC12" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="AD12" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="AE12" s="20" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:31">
-      <c r="A13" s="2" t="s">
+      <c r="L12" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="M12" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="N12" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="O12" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="P12" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q12" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="R12" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="S12" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="T12" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="U12" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="V12" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="W12" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="X12" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z12" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="AA12" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB12" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC12" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD12" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE12" s="16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" s="13" customFormat="1">
+      <c r="A13" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C13" s="2" t="s">
+      <c r="B13" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C13" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="F13" s="20" t="s">
-        <v>252</v>
-      </c>
-      <c r="G13" s="2" t="s">
+      <c r="D13" s="25" t="s">
+        <v>214</v>
+      </c>
+      <c r="E13" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="H13" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="I13" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="H13" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="I13" s="2" t="s">
+      <c r="J13" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="K13" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="J13" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="K13" s="20" t="s">
-        <v>255</v>
-      </c>
-      <c r="L13" s="20" t="s">
-        <v>256</v>
-      </c>
-      <c r="M13" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="N13" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="O13" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="P13" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q13" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="R13" s="20" t="s">
-        <v>256</v>
-      </c>
-      <c r="S13" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="T13" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="U13" s="20" t="s">
+      <c r="L13" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="M13" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="N13" s="25" t="s">
+        <v>219</v>
+      </c>
+      <c r="O13" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="P13" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q13" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="R13" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="S13" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="T13" s="25" t="s">
+        <v>219</v>
+      </c>
+      <c r="U13" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="V13" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="W13" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="X13" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="V13" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="W13" s="20" t="s">
-        <v>257</v>
-      </c>
-      <c r="X13" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y13" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z13" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA13" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB13" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC13" s="20" t="s">
-        <v>258</v>
-      </c>
-      <c r="AD13" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="AE13" s="20" t="s">
+      <c r="Y13" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z13" s="25" t="s">
+        <v>203</v>
+      </c>
+      <c r="AA13" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB13" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC13" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD13" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE13" s="25" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3368,93 +3536,93 @@
         <v>7</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="F14" s="20" t="s">
-        <v>260</v>
+      <c r="D14" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>220</v>
       </c>
       <c r="G14" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="H14" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="I14" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H14" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="I14" s="2" t="s">
+      <c r="J14" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="K14" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="J14" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="K14" s="20" t="s">
-        <v>255</v>
-      </c>
-      <c r="L14" s="20" t="s">
-        <v>256</v>
-      </c>
-      <c r="M14" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="N14" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="O14" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="P14" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q14" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="R14" s="20" t="s">
-        <v>256</v>
-      </c>
-      <c r="S14" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="T14" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="U14" s="20" t="s">
+      <c r="L14" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="M14" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="N14" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="O14" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="P14" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q14" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="R14" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="S14" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="T14" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="U14" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="V14" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="W14" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="X14" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="V14" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="W14" s="20" t="s">
-        <v>257</v>
-      </c>
-      <c r="X14" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y14" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z14" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA14" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB14" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC14" s="20" t="s">
-        <v>258</v>
-      </c>
-      <c r="AD14" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="AE14" s="20" t="s">
+      <c r="Y14" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z14" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="AA14" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB14" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC14" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD14" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE14" s="16" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3463,93 +3631,93 @@
         <v>7</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="F15" s="20" t="s">
-        <v>264</v>
+      <c r="D15" s="16" t="s">
+        <v>243</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>129</v>
       </c>
       <c r="G15" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="H15" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="I15" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H15" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>0</v>
-      </c>
       <c r="J15" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="K15" s="20" t="s">
-        <v>255</v>
-      </c>
-      <c r="L15" s="20" t="s">
-        <v>267</v>
-      </c>
-      <c r="M15" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="N15" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="O15" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="P15" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q15" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="R15" s="20" t="s">
-        <v>267</v>
-      </c>
-      <c r="S15" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="T15" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="U15" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="V15" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="W15" s="20" t="s">
-        <v>257</v>
-      </c>
-      <c r="X15" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y15" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z15" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA15" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB15" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC15" s="20" t="s">
-        <v>268</v>
-      </c>
-      <c r="AD15" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="AE15" s="20" t="s">
+        <v>237</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="M15" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="N15" s="16" t="s">
+        <v>241</v>
+      </c>
+      <c r="O15" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="P15" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q15" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="R15" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="S15" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="T15" s="16" t="s">
+        <v>242</v>
+      </c>
+      <c r="U15" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="V15" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="W15" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="X15" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y15" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z15" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="AA15" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB15" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC15" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD15" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE15" s="16" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3558,94 +3726,94 @@
         <v>7</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="F16" s="20" t="s">
-        <v>270</v>
+      <c r="D16" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>245</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>271</v>
+        <v>246</v>
+      </c>
+      <c r="H16" s="16" t="s">
+        <v>247</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>0</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="K16" s="20" t="s">
-        <v>255</v>
-      </c>
-      <c r="L16" s="20" t="s">
-        <v>273</v>
-      </c>
-      <c r="M16" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="N16" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="O16" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="P16" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q16" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="R16" s="20" t="s">
-        <v>273</v>
-      </c>
-      <c r="S16" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="T16" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="U16" s="20" t="s">
+        <v>248</v>
+      </c>
+      <c r="K16" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="V16" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="W16" s="20" t="s">
-        <v>257</v>
-      </c>
-      <c r="X16" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y16" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z16" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA16" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB16" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC16" s="20" t="s">
-        <v>268</v>
-      </c>
-      <c r="AD16" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="AE16" s="20" t="s">
-        <v>9</v>
+      <c r="L16" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="M16" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="N16" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="O16" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="P16" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q16" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="R16" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="S16" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="T16" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="U16" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="V16" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="W16" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="X16" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y16" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z16" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA16" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB16" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC16" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD16" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE16" s="16" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:31">
@@ -3653,435 +3821,524 @@
         <v>7</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="F17" s="20" t="s">
-        <v>275</v>
+      <c r="D17" s="16" t="s">
+        <v>261</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="G17" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="H17" s="16" t="s">
+        <v>254</v>
+      </c>
+      <c r="I17" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H17" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>0</v>
-      </c>
       <c r="J17" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="K17" s="20" t="s">
         <v>255</v>
       </c>
-      <c r="L17" s="20" t="s">
+      <c r="K17" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="M17" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="N17" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="O17" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="P17" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q17" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="R17" s="20" t="s">
-        <v>256</v>
-      </c>
-      <c r="S17" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="T17" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="U17" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="V17" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="W17" s="20" t="s">
+      <c r="L17" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="X17" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y17" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z17" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA17" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB17" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC17" s="20" t="s">
-        <v>278</v>
-      </c>
-      <c r="AD17" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="AE17" s="20" t="s">
-        <v>9</v>
+      <c r="M17" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="N17" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="O17" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="P17" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q17" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="R17" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="S17" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="T17" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="U17" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="V17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="W17" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="X17" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y17" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z17" s="16" t="s">
+        <v>260</v>
+      </c>
+      <c r="AA17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE17" s="16" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:31">
-      <c r="F18" s="1"/>
-      <c r="N18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="O18" s="2"/>
       <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
-      <c r="T18" s="2"/>
-      <c r="Y18" s="2"/>
-      <c r="Z18" s="2"/>
-      <c r="AA18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="V18" s="2"/>
+      <c r="AB18" s="2"/>
+      <c r="AC18" s="2"/>
+      <c r="AD18" s="2"/>
     </row>
     <row r="19" spans="1:31">
-      <c r="F19" s="1"/>
-      <c r="N19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="O19" s="2"/>
       <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
-      <c r="T19" s="2"/>
-      <c r="Y19" s="2"/>
-      <c r="Z19" s="2"/>
-      <c r="AA19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="V19" s="2"/>
+      <c r="AB19" s="2"/>
+      <c r="AC19" s="2"/>
+      <c r="AD19" s="2"/>
     </row>
     <row r="20" spans="1:31" ht="11.25" customHeight="1">
-      <c r="D20" s="27" t="s">
-        <v>250</v>
-      </c>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="28"/>
-      <c r="K20" s="28"/>
-      <c r="L20" s="28"/>
-      <c r="M20" s="28"/>
-      <c r="N20" s="28"/>
-      <c r="O20" s="28"/>
-      <c r="P20" s="28"/>
-      <c r="Q20" s="28"/>
-      <c r="R20" s="28"/>
-      <c r="S20" s="28"/>
-      <c r="T20" s="28"/>
-      <c r="U20" s="28"/>
-      <c r="V20" s="28"/>
-      <c r="W20" s="29"/>
-      <c r="Y20" s="2"/>
-      <c r="Z20" s="2"/>
-      <c r="AA20" s="2"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="35" t="s">
+        <v>196</v>
+      </c>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="36"/>
+      <c r="M20" s="36"/>
+      <c r="N20" s="36"/>
+      <c r="O20" s="36"/>
+      <c r="P20" s="36"/>
+      <c r="Q20" s="36"/>
+      <c r="R20" s="36"/>
+      <c r="S20" s="36"/>
+      <c r="T20" s="36"/>
+      <c r="U20" s="36"/>
+      <c r="V20" s="36"/>
+      <c r="W20" s="36"/>
+      <c r="X20" s="36"/>
+      <c r="Y20" s="36"/>
+      <c r="Z20" s="37"/>
+      <c r="AA20" s="33" t="s">
+        <v>230</v>
+      </c>
+      <c r="AB20" s="33" t="s">
+        <v>234</v>
+      </c>
+      <c r="AC20" s="34"/>
+      <c r="AD20" s="33" t="s">
+        <v>235</v>
+      </c>
+      <c r="AE20" s="33" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="21" spans="1:31" ht="11.25" customHeight="1">
-      <c r="D21" s="30"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="31"/>
-      <c r="J21" s="31"/>
-      <c r="K21" s="31"/>
-      <c r="L21" s="31"/>
-      <c r="M21" s="31"/>
-      <c r="N21" s="31"/>
-      <c r="O21" s="31"/>
-      <c r="P21" s="31"/>
-      <c r="Q21" s="31"/>
-      <c r="R21" s="31"/>
-      <c r="S21" s="31"/>
-      <c r="T21" s="31"/>
-      <c r="U21" s="31"/>
-      <c r="V21" s="31"/>
-      <c r="W21" s="32"/>
-      <c r="Y21" s="2"/>
-      <c r="Z21" s="2"/>
-      <c r="AA21" s="2"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="39"/>
+      <c r="K21" s="39"/>
+      <c r="L21" s="39"/>
+      <c r="M21" s="39"/>
+      <c r="N21" s="39"/>
+      <c r="O21" s="39"/>
+      <c r="P21" s="39"/>
+      <c r="Q21" s="39"/>
+      <c r="R21" s="39"/>
+      <c r="S21" s="39"/>
+      <c r="T21" s="39"/>
+      <c r="U21" s="39"/>
+      <c r="V21" s="39"/>
+      <c r="W21" s="39"/>
+      <c r="X21" s="39"/>
+      <c r="Y21" s="39"/>
+      <c r="Z21" s="40"/>
+      <c r="AA21" s="33"/>
+      <c r="AB21" s="34"/>
+      <c r="AC21" s="34"/>
+      <c r="AD21" s="33"/>
+      <c r="AE21" s="33"/>
     </row>
     <row r="22" spans="1:31" ht="11.25" customHeight="1">
-      <c r="D22" s="33"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="34"/>
-      <c r="H22" s="34"/>
-      <c r="I22" s="34"/>
-      <c r="J22" s="34"/>
-      <c r="K22" s="34"/>
-      <c r="L22" s="34"/>
-      <c r="M22" s="34"/>
-      <c r="N22" s="34"/>
-      <c r="O22" s="34"/>
-      <c r="P22" s="34"/>
-      <c r="Q22" s="34"/>
-      <c r="R22" s="34"/>
-      <c r="S22" s="34"/>
-      <c r="T22" s="34"/>
-      <c r="U22" s="34"/>
-      <c r="V22" s="34"/>
-      <c r="W22" s="35"/>
-      <c r="Y22" s="2"/>
-      <c r="Z22" s="2"/>
-      <c r="AA22" s="2"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="42"/>
+      <c r="H22" s="42"/>
+      <c r="I22" s="42"/>
+      <c r="J22" s="42"/>
+      <c r="K22" s="42"/>
+      <c r="L22" s="42"/>
+      <c r="M22" s="42"/>
+      <c r="N22" s="42"/>
+      <c r="O22" s="42"/>
+      <c r="P22" s="42"/>
+      <c r="Q22" s="42"/>
+      <c r="R22" s="42"/>
+      <c r="S22" s="42"/>
+      <c r="T22" s="42"/>
+      <c r="U22" s="42"/>
+      <c r="V22" s="42"/>
+      <c r="W22" s="42"/>
+      <c r="X22" s="42"/>
+      <c r="Y22" s="42"/>
+      <c r="Z22" s="43"/>
+      <c r="AA22" s="33"/>
+      <c r="AB22" s="34"/>
+      <c r="AC22" s="34"/>
+      <c r="AD22" s="33"/>
+      <c r="AE22" s="33"/>
     </row>
     <row r="23" spans="1:31" ht="11.25" customHeight="1">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="11" t="s">
-        <v>227</v>
-      </c>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11" t="s">
-        <v>225</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>226</v>
-      </c>
-      <c r="F23" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="G23" s="11" t="s">
-        <v>228</v>
-      </c>
-      <c r="H23" s="11" t="s">
+      <c r="B23" s="27" t="s">
+        <v>175</v>
+      </c>
+      <c r="C23" s="27" t="s">
+        <v>267</v>
+      </c>
+      <c r="D23" s="27" t="s">
+        <v>194</v>
+      </c>
+      <c r="E23" s="27" t="s">
+        <v>266</v>
+      </c>
+      <c r="F23" s="27" t="s">
+        <v>173</v>
+      </c>
+      <c r="G23" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="H23" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="I23" s="27" t="s">
+        <v>176</v>
+      </c>
+      <c r="J23" s="27" t="s">
+        <v>179</v>
+      </c>
+      <c r="K23" s="27" t="s">
+        <v>180</v>
+      </c>
+      <c r="L23" s="27" t="s">
+        <v>178</v>
+      </c>
+      <c r="M23" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="N23" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="O23" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="P23" s="27" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q23" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="R23" s="27" t="s">
+        <v>195</v>
+      </c>
+      <c r="S23" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="T23" s="27" t="s">
+        <v>190</v>
+      </c>
+      <c r="U23" s="27" t="s">
+        <v>191</v>
+      </c>
+      <c r="V23" s="27" t="s">
+        <v>244</v>
+      </c>
+      <c r="W23" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="X23" s="27" t="s">
+        <v>186</v>
+      </c>
+      <c r="Y23" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="Z23" s="45" t="s">
+        <v>263</v>
+      </c>
+      <c r="AA23" s="48" t="s">
         <v>231</v>
       </c>
-      <c r="I23" s="11" t="s">
+      <c r="AB23" s="31" t="s">
         <v>232</v>
       </c>
-      <c r="J23" s="11" t="s">
-        <v>230</v>
-      </c>
-      <c r="K23" s="11" t="s">
+      <c r="AC23" s="31" t="s">
         <v>233</v>
       </c>
-      <c r="L23" s="11" t="s">
+      <c r="AD23" s="31" t="s">
         <v>236</v>
       </c>
-      <c r="M23" s="11" t="s">
-        <v>234</v>
-      </c>
-      <c r="N23" s="11" t="s">
-        <v>241</v>
-      </c>
-      <c r="O23" s="11" t="s">
-        <v>242</v>
-      </c>
-      <c r="P23" s="11" t="s">
-        <v>249</v>
-      </c>
-      <c r="Q23" s="11" t="s">
-        <v>237</v>
-      </c>
-      <c r="R23" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="S23" s="11" t="s">
-        <v>244</v>
-      </c>
-      <c r="T23" s="11" t="s">
-        <v>235</v>
-      </c>
-      <c r="U23" s="11" t="s">
-        <v>239</v>
-      </c>
-      <c r="V23" s="11" t="s">
-        <v>246</v>
-      </c>
-      <c r="W23" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="X23" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="Y23" s="2"/>
-      <c r="Z23" s="2"/>
-      <c r="AA23" s="2"/>
-      <c r="AC23" s="11" t="s">
-        <v>248</v>
+      <c r="AE23" s="31" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="24" spans="1:31">
-      <c r="A24" s="12"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="12"/>
-      <c r="M24" s="12"/>
-      <c r="N24" s="12"/>
-      <c r="O24" s="12"/>
-      <c r="P24" s="12"/>
-      <c r="Q24" s="12"/>
-      <c r="R24" s="12"/>
-      <c r="S24" s="12"/>
-      <c r="T24" s="12"/>
-      <c r="U24" s="12"/>
-      <c r="V24" s="12"/>
-      <c r="W24" s="12"/>
-      <c r="X24" s="12"/>
-      <c r="Y24" s="2"/>
-      <c r="Z24" s="2"/>
-      <c r="AA24" s="2"/>
-      <c r="AC24" s="12"/>
+      <c r="A24" s="28"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="28"/>
+      <c r="K24" s="28"/>
+      <c r="L24" s="28"/>
+      <c r="M24" s="28"/>
+      <c r="N24" s="28"/>
+      <c r="O24" s="28"/>
+      <c r="P24" s="28"/>
+      <c r="Q24" s="28"/>
+      <c r="R24" s="28"/>
+      <c r="S24" s="28"/>
+      <c r="T24" s="28"/>
+      <c r="U24" s="28"/>
+      <c r="V24" s="28"/>
+      <c r="W24" s="28"/>
+      <c r="X24" s="28"/>
+      <c r="Y24" s="28"/>
+      <c r="Z24" s="46"/>
+      <c r="AA24" s="48"/>
+      <c r="AB24" s="31"/>
+      <c r="AC24" s="31"/>
+      <c r="AD24" s="31"/>
+      <c r="AE24" s="31"/>
     </row>
     <row r="25" spans="1:31">
-      <c r="A25" s="12"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="12"/>
-      <c r="L25" s="12"/>
-      <c r="M25" s="12"/>
-      <c r="N25" s="12"/>
-      <c r="O25" s="12"/>
-      <c r="P25" s="12"/>
-      <c r="Q25" s="12"/>
-      <c r="R25" s="12"/>
-      <c r="S25" s="12"/>
-      <c r="T25" s="12"/>
-      <c r="U25" s="12"/>
-      <c r="V25" s="12"/>
-      <c r="W25" s="12"/>
-      <c r="X25" s="12"/>
-      <c r="Y25" s="2"/>
-      <c r="Z25" s="2"/>
-      <c r="AA25" s="2"/>
-      <c r="AC25" s="12"/>
+      <c r="A25" s="28"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="28"/>
+      <c r="L25" s="28"/>
+      <c r="M25" s="28"/>
+      <c r="N25" s="28"/>
+      <c r="O25" s="28"/>
+      <c r="P25" s="28"/>
+      <c r="Q25" s="28"/>
+      <c r="R25" s="28"/>
+      <c r="S25" s="28"/>
+      <c r="T25" s="28"/>
+      <c r="U25" s="28"/>
+      <c r="V25" s="28"/>
+      <c r="W25" s="28"/>
+      <c r="X25" s="28"/>
+      <c r="Y25" s="28"/>
+      <c r="Z25" s="46"/>
+      <c r="AA25" s="48"/>
+      <c r="AB25" s="31"/>
+      <c r="AC25" s="31"/>
+      <c r="AD25" s="31"/>
+      <c r="AE25" s="31"/>
     </row>
     <row r="26" spans="1:31">
-      <c r="A26" s="13"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="13"/>
-      <c r="L26" s="13"/>
-      <c r="M26" s="13"/>
-      <c r="N26" s="13"/>
-      <c r="O26" s="13"/>
-      <c r="P26" s="13"/>
-      <c r="Q26" s="13"/>
-      <c r="R26" s="13"/>
-      <c r="S26" s="13"/>
-      <c r="T26" s="13"/>
-      <c r="U26" s="13"/>
-      <c r="V26" s="13"/>
-      <c r="W26" s="13"/>
-      <c r="X26" s="13"/>
-      <c r="Y26" s="2"/>
-      <c r="Z26" s="2"/>
-      <c r="AA26" s="2"/>
-      <c r="AC26" s="13"/>
+      <c r="A26" s="29"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="29"/>
+      <c r="M26" s="29"/>
+      <c r="N26" s="29"/>
+      <c r="O26" s="29"/>
+      <c r="P26" s="29"/>
+      <c r="Q26" s="29"/>
+      <c r="R26" s="29"/>
+      <c r="S26" s="29"/>
+      <c r="T26" s="29"/>
+      <c r="U26" s="29"/>
+      <c r="V26" s="29"/>
+      <c r="W26" s="29"/>
+      <c r="X26" s="29"/>
+      <c r="Y26" s="29"/>
+      <c r="Z26" s="47"/>
+      <c r="AA26" s="48"/>
+      <c r="AB26" s="31"/>
+      <c r="AC26" s="31"/>
+      <c r="AD26" s="31"/>
+      <c r="AE26" s="31"/>
     </row>
     <row r="27" spans="1:31">
-      <c r="F27" s="1"/>
-      <c r="N27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="O27" s="2"/>
       <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
-      <c r="T27" s="2"/>
-      <c r="Y27" s="2"/>
-      <c r="Z27" s="2"/>
-      <c r="AA27" s="2"/>
+      <c r="S27" s="2"/>
+      <c r="V27" s="2"/>
+      <c r="AA27" s="48"/>
+      <c r="AB27" s="31"/>
+      <c r="AC27" s="31"/>
+      <c r="AD27" s="31"/>
     </row>
     <row r="28" spans="1:31">
-      <c r="F28" s="1"/>
-      <c r="G28" s="21" t="s">
-        <v>222</v>
-      </c>
-      <c r="N28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="O28" s="2"/>
       <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
-      <c r="T28" s="2"/>
-      <c r="U28" s="21" t="s">
-        <v>222</v>
-      </c>
-      <c r="Y28" s="2"/>
-      <c r="Z28" s="2"/>
-      <c r="AA28" s="2"/>
+      <c r="S28" s="2"/>
+      <c r="V28" s="2"/>
+      <c r="X28" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="AA28" s="48"/>
+      <c r="AB28" s="31"/>
+      <c r="AC28" s="31"/>
+      <c r="AD28" s="32"/>
+      <c r="AE28" s="17" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="29" spans="1:31" ht="123.75">
-      <c r="F29" s="1"/>
-      <c r="G29" s="22" t="s">
-        <v>229</v>
-      </c>
-      <c r="N29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="O29" s="2"/>
       <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
-      <c r="T29" s="2"/>
-      <c r="U29" s="25" t="s">
-        <v>240</v>
-      </c>
-      <c r="W29" s="26"/>
-      <c r="Y29" s="2"/>
-      <c r="Z29" s="2"/>
-      <c r="AA29" s="2"/>
+      <c r="S29" s="2"/>
+      <c r="V29" s="2"/>
+      <c r="W29" s="2"/>
+      <c r="X29" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z29" s="21"/>
+      <c r="AA29" s="48"/>
+      <c r="AB29" s="22"/>
+      <c r="AC29" s="2"/>
+      <c r="AD29" s="2"/>
+      <c r="AE29" s="20" t="s">
+        <v>171</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="29">
+  <mergeCells count="39">
+    <mergeCell ref="AC23:AC28"/>
+    <mergeCell ref="D23:D26"/>
+    <mergeCell ref="R23:R26"/>
+    <mergeCell ref="O23:O26"/>
     <mergeCell ref="V23:V26"/>
-    <mergeCell ref="W23:W26"/>
-    <mergeCell ref="AC23:AC26"/>
-    <mergeCell ref="P23:P26"/>
-    <mergeCell ref="D20:W22"/>
-    <mergeCell ref="X23:X26"/>
-    <mergeCell ref="M23:M26"/>
-    <mergeCell ref="T23:T26"/>
-    <mergeCell ref="L23:L26"/>
-    <mergeCell ref="Q23:Q26"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="U23:U26"/>
     <mergeCell ref="N23:N26"/>
-    <mergeCell ref="O23:O26"/>
-    <mergeCell ref="R23:R26"/>
     <mergeCell ref="S23:S26"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="G23:G26"/>
-    <mergeCell ref="J23:J26"/>
-    <mergeCell ref="H23:H26"/>
-    <mergeCell ref="I23:I26"/>
-    <mergeCell ref="K23:K26"/>
-    <mergeCell ref="F23:F26"/>
+    <mergeCell ref="AE20:AE22"/>
+    <mergeCell ref="AE23:AE26"/>
+    <mergeCell ref="F20:Z22"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
-    <mergeCell ref="D23:D26"/>
-    <mergeCell ref="E23:E26"/>
+    <mergeCell ref="F23:F26"/>
+    <mergeCell ref="G23:G26"/>
     <mergeCell ref="A23:A26"/>
     <mergeCell ref="C23:C26"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="X23:X26"/>
+    <mergeCell ref="P23:P26"/>
+    <mergeCell ref="Q23:Q26"/>
+    <mergeCell ref="T23:T26"/>
+    <mergeCell ref="U23:U26"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="E23:E26"/>
+    <mergeCell ref="AD23:AD28"/>
+    <mergeCell ref="AB20:AC22"/>
+    <mergeCell ref="AD20:AD22"/>
+    <mergeCell ref="W23:W26"/>
+    <mergeCell ref="I23:I26"/>
+    <mergeCell ref="L23:L26"/>
+    <mergeCell ref="J23:J26"/>
+    <mergeCell ref="K23:K26"/>
+    <mergeCell ref="M23:M26"/>
+    <mergeCell ref="H23:H26"/>
+    <mergeCell ref="Y23:Y26"/>
+    <mergeCell ref="Z23:Z26"/>
+    <mergeCell ref="AA20:AA22"/>
+    <mergeCell ref="AA23:AA29"/>
+    <mergeCell ref="AB23:AB28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -4091,232 +4348,163 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
-    <tabColor rgb="FFFA7E7E"/>
+    <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A2:AB16"/>
+  <dimension ref="A2:AB32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
     <col min="1" max="1" width="20.42578125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="22" style="2" customWidth="1"/>
-    <col min="3" max="3" width="21.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="22.5703125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="23.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="24" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" style="2" customWidth="1"/>
     <col min="6" max="6" width="21.5703125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="18.7109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.85546875" style="2" customWidth="1"/>
-    <col min="14" max="14" width="8.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" customWidth="1"/>
-    <col min="23" max="23" width="15.7109375" style="1" customWidth="1"/>
-    <col min="24" max="24" width="14.28515625" style="1" customWidth="1"/>
-    <col min="25" max="25" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="21.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19" style="2" customWidth="1"/>
+    <col min="8" max="8" width="22.28515625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="19.85546875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="24.28515625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="19.5703125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="36.7109375" style="2" customWidth="1"/>
+    <col min="13" max="13" width="34" style="2" customWidth="1"/>
+    <col min="14" max="14" width="35.140625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="36.42578125" style="2" customWidth="1"/>
+    <col min="16" max="16" width="25.42578125" style="2" customWidth="1"/>
+    <col min="17" max="17" width="33.140625" style="2" customWidth="1"/>
+    <col min="18" max="18" width="28.28515625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="28.7109375" style="1" customWidth="1"/>
+    <col min="20" max="20" width="30.42578125" style="1" customWidth="1"/>
+    <col min="21" max="21" width="31.28515625" style="2" customWidth="1"/>
+    <col min="22" max="22" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="27.28515625" style="1" customWidth="1"/>
+    <col min="24" max="24" width="43.140625" style="1" customWidth="1"/>
+    <col min="25" max="25" width="42.140625" style="1" customWidth="1"/>
+    <col min="26" max="26" width="25.5703125" style="1" customWidth="1"/>
+    <col min="27" max="27" width="21.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="22.42578125" style="1" customWidth="1"/>
     <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:28" ht="21">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="14"/>
+      <c r="B2" s="30"/>
       <c r="C2" s="3" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:28" ht="21">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="3"/>
-    </row>
-    <row r="6" spans="1:28" s="17" customFormat="1">
-      <c r="A6" s="18" t="s">
+      <c r="B3" s="30"/>
+      <c r="C3" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" ht="21">
+      <c r="A4" s="44" t="s">
+        <v>185</v>
+      </c>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="19"/>
+      <c r="V4" s="2"/>
+    </row>
+    <row r="7" spans="1:28" s="13" customFormat="1">
+      <c r="A7" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B7" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="C6" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="F6" s="18" t="s">
+      <c r="C7" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="G6" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="H6" s="19" t="s">
-        <v>130</v>
-      </c>
-      <c r="I6" s="19" t="s">
+      <c r="H7" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="I7" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="J6" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="K6" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="L6" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="M6" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="N6" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="O6" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="P6" s="19" t="s">
+      <c r="J7" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="K7" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="L7" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="M7" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="N7" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="O7" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="P7" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q7" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="R7" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="S7" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="T7" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="U7" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="V7" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="W7" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="X7" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y7" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z7" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="Q6" s="19" t="s">
+      <c r="AA7" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="R6" s="19" t="s">
+      <c r="AB7" s="14" t="s">
         <v>68</v>
-      </c>
-      <c r="S6" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="T6" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="U6" s="19" t="s">
-        <v>137</v>
-      </c>
-      <c r="V6" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="W6" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="X6" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="Y6" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="Z6" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="AA6" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="AB6" s="19" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28">
-      <c r="A7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="J7" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="K7" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="L7" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="M7" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="N7" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="O7" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="P7" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q7" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="R7" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="S7" s="20" t="s">
-        <v>150</v>
-      </c>
-      <c r="T7" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="U7" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="V7" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="W7" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="X7" s="20" t="s">
-        <v>151</v>
-      </c>
-      <c r="Y7" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z7" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA7" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB7" s="20" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:28">
@@ -4327,82 +4515,82 @@
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="M8" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="N8" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="O8" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="P8" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="Q8" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="J8" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="K8" s="20" t="s">
-        <v>154</v>
-      </c>
-      <c r="L8" s="20" t="s">
-        <v>155</v>
-      </c>
-      <c r="M8" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="N8" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="20" t="s">
-        <v>155</v>
-      </c>
-      <c r="P8" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q8" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="R8" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="S8" s="20" t="s">
-        <v>157</v>
-      </c>
-      <c r="T8" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="U8" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="V8" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="W8" s="20" t="s">
-        <v>158</v>
-      </c>
-      <c r="X8" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y8" s="20" t="s">
-        <v>159</v>
-      </c>
-      <c r="Z8" s="20" t="s">
-        <v>159</v>
-      </c>
-      <c r="AA8" s="20" t="s">
-        <v>159</v>
-      </c>
-      <c r="AB8" s="20" t="s">
-        <v>2</v>
+      <c r="R8" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="S8" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="T8" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="U8" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="V8" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="W8" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="X8" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y8" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="Z8" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA8" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB8" s="16" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:28">
@@ -4413,82 +4601,82 @@
         <v>1</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M9" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="N9" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="O9" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="P9" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="Q9" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="R9" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="J9" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="K9" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="L9" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="M9" s="20" t="s">
-        <v>162</v>
-      </c>
-      <c r="N9" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="O9" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="P9" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q9" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="R9" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="S9" s="20" t="s">
-        <v>163</v>
-      </c>
-      <c r="T9" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="U9" s="20" t="s">
-        <v>164</v>
-      </c>
-      <c r="V9" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="W9" s="20" t="s">
-        <v>165</v>
-      </c>
-      <c r="X9" s="20" t="s">
-        <v>166</v>
-      </c>
-      <c r="Y9" s="20" t="s">
-        <v>167</v>
-      </c>
-      <c r="Z9" s="20" t="s">
-        <v>167</v>
-      </c>
-      <c r="AA9" s="20" t="s">
-        <v>167</v>
-      </c>
-      <c r="AB9" s="20" t="s">
-        <v>1</v>
+      <c r="S9" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="T9" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="U9" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="V9" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="W9" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="X9" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y9" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z9" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA9" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB9" s="16" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:28">
@@ -4499,82 +4687,82 @@
         <v>1</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="G10" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="I10" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="J10" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="K10" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="L10" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="N10" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="O10" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="P10" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="Q10" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="R10" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="J10" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="K10" s="20" t="s">
-        <v>154</v>
-      </c>
-      <c r="L10" s="20" t="s">
+      <c r="S10" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="T10" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="U10" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="V10" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="W10" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="X10" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y10" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="M10" s="20" t="s">
-        <v>169</v>
-      </c>
-      <c r="N10" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="O10" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="P10" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q10" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="R10" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="S10" s="20" t="s">
-        <v>170</v>
-      </c>
-      <c r="T10" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="U10" s="20" t="s">
-        <v>171</v>
-      </c>
-      <c r="V10" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="W10" s="20" t="s">
-        <v>172</v>
-      </c>
-      <c r="X10" s="20" t="s">
-        <v>173</v>
-      </c>
-      <c r="Y10" s="20" t="s">
-        <v>167</v>
-      </c>
-      <c r="Z10" s="20" t="s">
-        <v>167</v>
-      </c>
-      <c r="AA10" s="20" t="s">
-        <v>167</v>
-      </c>
-      <c r="AB10" s="20" t="s">
-        <v>3</v>
+      <c r="Z10" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA10" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB10" s="16" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:28">
@@ -4585,82 +4773,82 @@
         <v>1</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="G11" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="H11" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="I11" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="J11" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="K11" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="L11" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="M11" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="N11" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="O11" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="P11" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="Q11" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="R11" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="J11" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="K11" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="L11" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="M11" s="20" t="s">
-        <v>176</v>
-      </c>
-      <c r="N11" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="O11" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="P11" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q11" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="R11" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="S11" s="20" t="s">
-        <v>177</v>
-      </c>
-      <c r="T11" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="U11" s="20" t="s">
-        <v>178</v>
-      </c>
-      <c r="V11" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="W11" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="X11" s="20" t="s">
-        <v>179</v>
-      </c>
-      <c r="Y11" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z11" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA11" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="AB11" s="20" t="s">
-        <v>0</v>
+      <c r="S11" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="T11" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="U11" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="V11" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="W11" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="X11" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y11" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z11" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA11" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB11" s="16" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:28">
@@ -4671,82 +4859,82 @@
         <v>1</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>270</v>
+      </c>
+      <c r="G12" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="H12" s="16" t="s">
+        <v>271</v>
+      </c>
+      <c r="I12" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="J12" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="K12" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="L12" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="N12" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="O12" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="P12" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="R12" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="J12" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="K12" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="L12" s="20" t="s">
-        <v>182</v>
-      </c>
-      <c r="M12" s="20" t="s">
-        <v>183</v>
-      </c>
-      <c r="N12" s="20" t="s">
+      <c r="S12" s="24" t="s">
+        <v>269</v>
+      </c>
+      <c r="T12" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="U12" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="O12" s="20" t="s">
-        <v>182</v>
-      </c>
-      <c r="P12" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q12" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="R12" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="S12" s="20" t="s">
-        <v>184</v>
-      </c>
-      <c r="T12" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="U12" s="20" t="s">
-        <v>185</v>
-      </c>
-      <c r="V12" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="W12" s="20" t="s">
-        <v>158</v>
-      </c>
-      <c r="X12" s="20" t="s">
-        <v>186</v>
-      </c>
-      <c r="Y12" s="20" t="s">
-        <v>187</v>
-      </c>
-      <c r="Z12" s="20" t="s">
-        <v>187</v>
-      </c>
-      <c r="AA12" s="20" t="s">
-        <v>187</v>
-      </c>
-      <c r="AB12" s="20" t="s">
-        <v>83</v>
+      <c r="V12" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="W12" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="X12" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y12" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z12" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA12" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB12" s="16" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:28">
@@ -4757,82 +4945,82 @@
         <v>1</v>
       </c>
       <c r="C13" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>273</v>
+      </c>
+      <c r="G13" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="H13" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="I13" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="J13" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="K13" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="L13" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="M13" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="N13" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="O13" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="P13" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q13" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E13" s="2" t="s">
+      <c r="R13" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="F13" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="J13" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="K13" s="20" t="s">
-        <v>154</v>
-      </c>
-      <c r="L13" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="M13" s="20" t="s">
-        <v>189</v>
-      </c>
-      <c r="N13" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="O13" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="P13" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q13" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="R13" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="S13" s="20" t="s">
-        <v>177</v>
-      </c>
-      <c r="T13" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="U13" s="20" t="s">
-        <v>190</v>
-      </c>
-      <c r="V13" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="W13" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="X13" s="20" t="s">
-        <v>179</v>
-      </c>
-      <c r="Y13" s="20" t="s">
-        <v>191</v>
-      </c>
-      <c r="Z13" s="20" t="s">
-        <v>191</v>
-      </c>
-      <c r="AA13" s="20" t="s">
-        <v>191</v>
-      </c>
-      <c r="AB13" s="20" t="s">
-        <v>0</v>
+      <c r="S13" s="24" t="s">
+        <v>272</v>
+      </c>
+      <c r="T13" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="U13" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="V13" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="W13" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="X13" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y13" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z13" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA13" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB13" s="16" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:28">
@@ -4843,82 +5031,82 @@
         <v>1</v>
       </c>
       <c r="C14" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>273</v>
+      </c>
+      <c r="G14" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="H14" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="I14" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="J14" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="K14" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="L14" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="M14" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="N14" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="O14" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="P14" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q14" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="R14" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="J14" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="K14" s="20" t="s">
-        <v>154</v>
-      </c>
-      <c r="L14" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="M14" s="20" t="s">
-        <v>192</v>
-      </c>
-      <c r="N14" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="O14" s="20" t="s">
-        <v>193</v>
-      </c>
-      <c r="P14" s="20" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q14" s="20" t="s">
-        <v>195</v>
-      </c>
-      <c r="R14" s="20" t="s">
-        <v>196</v>
-      </c>
-      <c r="S14" s="20" t="s">
-        <v>197</v>
-      </c>
-      <c r="T14" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="U14" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="V14" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="W14" s="20" t="s">
+      <c r="S14" s="24" t="s">
+        <v>272</v>
+      </c>
+      <c r="T14" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="X14" s="20" t="s">
-        <v>198</v>
-      </c>
-      <c r="Y14" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="Z14" s="20" t="s">
-        <v>199</v>
-      </c>
-      <c r="AA14" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="AB14" s="20" t="s">
+      <c r="U14" s="24" t="s">
         <v>2</v>
+      </c>
+      <c r="V14" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="W14" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="X14" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y14" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z14" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA14" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB14" s="16" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:28">
@@ -4929,82 +5117,82 @@
         <v>1</v>
       </c>
       <c r="C15" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>275</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="H15" s="16" t="s">
+        <v>276</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M15" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="N15" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="O15" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="P15" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q15" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="R15" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="S15" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="T15" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="U15" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="J15" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="K15" s="20" t="s">
+      <c r="V15" s="16" t="s">
+        <v>277</v>
+      </c>
+      <c r="W15" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="L15" s="20" t="s">
+      <c r="X15" s="16" t="s">
+        <v>277</v>
+      </c>
+      <c r="Y15" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="M15" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="N15" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="O15" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="P15" s="20" t="s">
-        <v>200</v>
-      </c>
-      <c r="Q15" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="R15" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="S15" s="20" t="s">
-        <v>163</v>
-      </c>
-      <c r="T15" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="U15" s="20" t="s">
-        <v>202</v>
-      </c>
-      <c r="V15" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="W15" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="X15" s="20" t="s">
-        <v>166</v>
-      </c>
-      <c r="Y15" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="Z15" s="20" t="s">
-        <v>203</v>
-      </c>
-      <c r="AA15" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="AB15" s="20" t="s">
-        <v>1</v>
+      <c r="Z15" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="AA15" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="AB15" s="16" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="16" spans="1:28">
@@ -5015,88 +5203,607 @@
         <v>1</v>
       </c>
       <c r="C16" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="H16" s="16" t="s">
+        <v>276</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M16" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="N16" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="O16" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="P16" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="R16" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="S16" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="T16" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="U16" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="V16" s="16" t="s">
+        <v>277</v>
+      </c>
+      <c r="W16" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="X16" s="16" t="s">
+        <v>277</v>
+      </c>
+      <c r="Y16" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z16" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="AA16" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="AB16" s="16" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28">
+      <c r="A17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>281</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="H17" s="16" t="s">
+        <v>276</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M17" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="N17" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="O17" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="F16" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="J16" s="20" t="s">
+      <c r="P17" s="16" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="R17" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="S17" s="16" t="s">
+        <v>280</v>
+      </c>
+      <c r="T17" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="U17" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="K16" s="20" t="s">
-        <v>154</v>
-      </c>
-      <c r="L16" s="20" t="s">
-        <v>182</v>
-      </c>
-      <c r="M16" s="20" t="s">
-        <v>204</v>
-      </c>
-      <c r="N16" s="20" t="s">
+      <c r="V17" s="16" t="s">
+        <v>277</v>
+      </c>
+      <c r="W17" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="X17" s="16" t="s">
+        <v>277</v>
+      </c>
+      <c r="Y17" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB17" s="16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" s="2" customFormat="1">
+      <c r="A18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L18" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="O16" s="20" t="s">
-        <v>182</v>
-      </c>
-      <c r="P16" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q16" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="R16" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="S16" s="20" t="s">
-        <v>184</v>
-      </c>
-      <c r="T16" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="U16" s="20" t="s">
-        <v>180</v>
-      </c>
-      <c r="V16" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="W16" s="20" t="s">
-        <v>205</v>
-      </c>
-      <c r="X16" s="20" t="s">
-        <v>186</v>
-      </c>
-      <c r="Y16" s="20" t="s">
-        <v>206</v>
-      </c>
-      <c r="Z16" s="20" t="s">
-        <v>206</v>
-      </c>
-      <c r="AA16" s="20" t="s">
-        <v>206</v>
-      </c>
-      <c r="AB16" s="20" t="s">
-        <v>83</v>
-      </c>
+      <c r="M18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="O18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="R18" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="S18" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="T18" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="U18" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V18" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="W18" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="X18" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="Y18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB18" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" s="2" customFormat="1"/>
+    <row r="20" spans="1:28">
+      <c r="E20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="K20" s="2"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="1"/>
+      <c r="X20" s="2"/>
+      <c r="Y20" s="2"/>
+    </row>
+    <row r="21" spans="1:28" ht="11.25" customHeight="1">
+      <c r="E21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="K21" s="2"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2"/>
+      <c r="U21" s="1"/>
+      <c r="X21" s="2"/>
+      <c r="Z21" s="33" t="s">
+        <v>234</v>
+      </c>
+      <c r="AA21" s="33"/>
+      <c r="AB21" s="33" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28">
+      <c r="E22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="K22" s="2"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+      <c r="U22" s="1"/>
+      <c r="X22" s="2"/>
+      <c r="Z22" s="33"/>
+      <c r="AA22" s="33"/>
+      <c r="AB22" s="33"/>
+    </row>
+    <row r="23" spans="1:28">
+      <c r="E23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="K23" s="2"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
+      <c r="U23" s="1"/>
+      <c r="X23" s="2"/>
+      <c r="Z23" s="33"/>
+      <c r="AA23" s="33"/>
+      <c r="AB23" s="33"/>
+    </row>
+    <row r="24" spans="1:28" ht="11.25" customHeight="1">
+      <c r="A24" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" s="27" t="s">
+        <v>267</v>
+      </c>
+      <c r="C24" s="27" t="s">
+        <v>175</v>
+      </c>
+      <c r="D24" s="27" t="s">
+        <v>175</v>
+      </c>
+      <c r="E24" s="27" t="s">
+        <v>266</v>
+      </c>
+      <c r="F24" s="27" t="s">
+        <v>194</v>
+      </c>
+      <c r="G24" s="27" t="s">
+        <v>173</v>
+      </c>
+      <c r="H24" s="1"/>
+      <c r="I24" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="J24" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="K24" s="27" t="s">
+        <v>176</v>
+      </c>
+      <c r="L24" s="27" t="s">
+        <v>286</v>
+      </c>
+      <c r="M24" s="27" t="s">
+        <v>287</v>
+      </c>
+      <c r="N24" s="31" t="s">
+        <v>298</v>
+      </c>
+      <c r="O24" s="55" t="s">
+        <v>292</v>
+      </c>
+      <c r="P24" s="56" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q24" s="27" t="s">
+        <v>300</v>
+      </c>
+      <c r="R24" s="27" t="s">
+        <v>284</v>
+      </c>
+      <c r="S24" s="27" t="s">
+        <v>288</v>
+      </c>
+      <c r="T24" s="27" t="s">
+        <v>289</v>
+      </c>
+      <c r="U24" s="27" t="s">
+        <v>290</v>
+      </c>
+      <c r="V24" s="27" t="s">
+        <v>293</v>
+      </c>
+      <c r="W24" s="27" t="s">
+        <v>294</v>
+      </c>
+      <c r="X24" s="27" t="s">
+        <v>295</v>
+      </c>
+      <c r="Y24" s="2"/>
+      <c r="Z24" s="49" t="s">
+        <v>296</v>
+      </c>
+      <c r="AA24" s="52" t="s">
+        <v>297</v>
+      </c>
+      <c r="AB24" s="31" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28">
+      <c r="A25" s="28"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="28"/>
+      <c r="L25" s="28"/>
+      <c r="M25" s="28"/>
+      <c r="N25" s="31"/>
+      <c r="O25" s="55"/>
+      <c r="P25" s="57"/>
+      <c r="Q25" s="28"/>
+      <c r="R25" s="28"/>
+      <c r="S25" s="28"/>
+      <c r="T25" s="28"/>
+      <c r="U25" s="28"/>
+      <c r="V25" s="28"/>
+      <c r="W25" s="28"/>
+      <c r="X25" s="28"/>
+      <c r="Y25" s="2"/>
+      <c r="Z25" s="50"/>
+      <c r="AA25" s="53"/>
+      <c r="AB25" s="31"/>
+    </row>
+    <row r="26" spans="1:28">
+      <c r="A26" s="28"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="28"/>
+      <c r="L26" s="28"/>
+      <c r="M26" s="28"/>
+      <c r="N26" s="31"/>
+      <c r="O26" s="55"/>
+      <c r="P26" s="57"/>
+      <c r="Q26" s="28"/>
+      <c r="R26" s="28"/>
+      <c r="S26" s="28"/>
+      <c r="T26" s="28"/>
+      <c r="U26" s="28"/>
+      <c r="V26" s="28"/>
+      <c r="W26" s="28"/>
+      <c r="X26" s="28"/>
+      <c r="Y26" s="2"/>
+      <c r="Z26" s="50"/>
+      <c r="AA26" s="53"/>
+      <c r="AB26" s="31"/>
+    </row>
+    <row r="27" spans="1:28">
+      <c r="A27" s="29"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="29"/>
+      <c r="L27" s="29"/>
+      <c r="M27" s="29"/>
+      <c r="N27" s="31"/>
+      <c r="O27" s="55"/>
+      <c r="P27" s="58"/>
+      <c r="Q27" s="29"/>
+      <c r="R27" s="29"/>
+      <c r="S27" s="29"/>
+      <c r="T27" s="29"/>
+      <c r="U27" s="29"/>
+      <c r="V27" s="29"/>
+      <c r="W27" s="29"/>
+      <c r="X27" s="29"/>
+      <c r="Y27" s="2"/>
+      <c r="Z27" s="50"/>
+      <c r="AA27" s="53"/>
+      <c r="AB27" s="31"/>
+    </row>
+    <row r="28" spans="1:28">
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="K28" s="2"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="55"/>
+      <c r="R28" s="2"/>
+      <c r="S28" s="2"/>
+      <c r="T28" s="2"/>
+      <c r="U28" s="1"/>
+      <c r="X28" s="2"/>
+      <c r="Y28" s="2"/>
+      <c r="Z28" s="50"/>
+      <c r="AA28" s="53"/>
+      <c r="AB28" s="31"/>
+    </row>
+    <row r="29" spans="1:28">
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="K29" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="L29" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="55"/>
+      <c r="R29" s="2"/>
+      <c r="S29" s="2"/>
+      <c r="U29" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="X29" s="2"/>
+      <c r="Y29" s="2"/>
+      <c r="Z29" s="51"/>
+      <c r="AA29" s="54"/>
+      <c r="AB29" s="31"/>
+    </row>
+    <row r="30" spans="1:28" ht="180">
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="K30" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="L30" s="26" t="s">
+        <v>285</v>
+      </c>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="55"/>
+      <c r="R30" s="2"/>
+      <c r="S30" s="2"/>
+      <c r="U30" s="20" t="s">
+        <v>291</v>
+      </c>
+      <c r="X30" s="2"/>
+      <c r="Y30" s="2"/>
+    </row>
+    <row r="31" spans="1:28">
+      <c r="E31" s="1"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="1"/>
+      <c r="R31" s="2"/>
+      <c r="U31" s="1"/>
+      <c r="V31" s="2"/>
+    </row>
+    <row r="32" spans="1:28">
+      <c r="E32" s="1"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="1"/>
+      <c r="R32" s="2"/>
+      <c r="U32" s="1"/>
+      <c r="V32" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="31">
+    <mergeCell ref="E24:E27"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="D24:D27"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="G24:G27"/>
+    <mergeCell ref="I24:I27"/>
+    <mergeCell ref="P24:P27"/>
+    <mergeCell ref="V24:V27"/>
+    <mergeCell ref="W24:W27"/>
+    <mergeCell ref="X24:X27"/>
+    <mergeCell ref="F24:F27"/>
+    <mergeCell ref="J24:J27"/>
+    <mergeCell ref="O24:O30"/>
+    <mergeCell ref="T24:T27"/>
+    <mergeCell ref="U24:U27"/>
+    <mergeCell ref="N24:N27"/>
+    <mergeCell ref="Q24:Q27"/>
+    <mergeCell ref="R24:R27"/>
+    <mergeCell ref="K24:K27"/>
+    <mergeCell ref="L24:L27"/>
+    <mergeCell ref="M24:M27"/>
+    <mergeCell ref="S24:S27"/>
+    <mergeCell ref="Z21:AA23"/>
+    <mergeCell ref="Z24:Z29"/>
+    <mergeCell ref="AA24:AA29"/>
+    <mergeCell ref="AB24:AB29"/>
+    <mergeCell ref="AB21:AB23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -5128,50 +5835,50 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="21">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="14"/>
+      <c r="B2" s="30"/>
       <c r="C2" s="3" t="s">
-        <v>207</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="21">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="14"/>
+      <c r="B3" s="30"/>
       <c r="C3" s="3"/>
     </row>
-    <row r="6" spans="1:8" s="17" customFormat="1">
-      <c r="A6" s="18" t="s">
+    <row r="6" spans="1:8" s="13" customFormat="1">
+      <c r="A6" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>208</v>
-      </c>
-      <c r="F6" s="18" t="s">
+      <c r="D6" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="F6" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="G6" s="18" t="s">
-        <v>209</v>
-      </c>
-      <c r="H6" s="19" t="s">
+      <c r="G6" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="H6" s="15" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="2" t="s">
-        <v>210</v>
+        <v>158</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>2</v>
@@ -5183,250 +5890,250 @@
         <v>0</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>199</v>
+        <v>154</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>211</v>
+        <v>159</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>1</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="2" t="s">
-        <v>212</v>
+        <v>160</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>213</v>
+        <v>161</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>199</v>
+        <v>154</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>211</v>
+        <v>159</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>1</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="2" t="s">
-        <v>190</v>
+        <v>149</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>211</v>
+        <v>159</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>1</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="2" t="s">
-        <v>214</v>
+        <v>162</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>149</v>
+        <v>126</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>211</v>
+        <v>159</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>1</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="2" t="s">
-        <v>215</v>
+        <v>163</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>149</v>
+        <v>126</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>211</v>
+        <v>159</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>1</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="2" t="s">
-        <v>216</v>
+        <v>164</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>149</v>
+        <v>126</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>211</v>
+        <v>159</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>1</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="2" t="s">
-        <v>216</v>
+        <v>164</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>149</v>
+        <v>126</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>211</v>
+        <v>159</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>1</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="2" t="s">
-        <v>217</v>
+        <v>165</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>218</v>
+        <v>166</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>211</v>
+        <v>159</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>1</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="2" t="s">
-        <v>216</v>
+        <v>164</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>149</v>
+        <v>126</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>211</v>
+        <v>159</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>1</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="2" t="s">
-        <v>219</v>
+        <v>167</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>147</v>
+        <v>124</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>149</v>
+        <v>126</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>211</v>
+        <v>159</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>1</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -5443,8 +6150,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C2:E32"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E28" sqref="E2:E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5453,16 +6160,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:5">
-      <c r="C2" s="18" t="s">
-        <v>10</v>
+      <c r="C2" s="14" t="s">
+        <v>58</v>
       </c>
       <c r="E2" t="str">
         <f>CONCATENATE(C2,", ")</f>
-        <v xml:space="preserve">CD_CIA, </v>
+        <v xml:space="preserve">CD_FILIAL, </v>
       </c>
     </row>
     <row r="3" spans="3:5">
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="14" t="s">
         <v>59</v>
       </c>
       <c r="E3" t="str">
@@ -5471,16 +6178,16 @@
       </c>
     </row>
     <row r="4" spans="3:5">
-      <c r="C4" s="18" t="s">
-        <v>58</v>
+      <c r="C4" s="14" t="s">
+        <v>116</v>
       </c>
       <c r="E4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">CD_FILIAL, </v>
+        <v xml:space="preserve">CD_MODULO_TITULO_REFERENCIA, </v>
       </c>
     </row>
     <row r="5" spans="3:5">
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="14" t="s">
         <v>56</v>
       </c>
       <c r="E5" t="str">
@@ -5489,7 +6196,7 @@
       </c>
     </row>
     <row r="6" spans="3:5">
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="14" t="s">
         <v>57</v>
       </c>
       <c r="E6" t="str">
@@ -5498,7 +6205,7 @@
       </c>
     </row>
     <row r="7" spans="3:5">
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="14" t="s">
         <v>41</v>
       </c>
       <c r="E7" t="str">
@@ -5507,228 +6214,220 @@
       </c>
     </row>
     <row r="8" spans="3:5">
-      <c r="C8" s="18" t="s">
-        <v>60</v>
+      <c r="C8" s="14" t="s">
+        <v>105</v>
       </c>
       <c r="E8" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">SQ_DOCUMENTO, </v>
+        <v xml:space="preserve">NR_MOVIMENTO, </v>
       </c>
     </row>
     <row r="9" spans="3:5">
-      <c r="C9" s="19" t="s">
-        <v>62</v>
+      <c r="C9" s="14" t="s">
+        <v>106</v>
       </c>
       <c r="E9" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">NR_NF, </v>
+        <v xml:space="preserve">SQ_MOVIMENTO, </v>
       </c>
     </row>
     <row r="10" spans="3:5">
-      <c r="C10" s="19" t="s">
-        <v>63</v>
+      <c r="C10" s="14" t="s">
+        <v>107</v>
       </c>
       <c r="E10" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">NR_SERIE_NF, </v>
+        <v xml:space="preserve">NR_PROGRAMACAO, </v>
       </c>
     </row>
     <row r="11" spans="3:5">
-      <c r="C11" s="18" t="s">
-        <v>61</v>
+      <c r="C11" s="14" t="s">
+        <v>108</v>
       </c>
       <c r="E11" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">CD_PARCEIRO, </v>
+        <v xml:space="preserve">CD_TIPO_NF, </v>
       </c>
     </row>
     <row r="12" spans="3:5">
-      <c r="C12" s="19" t="s">
-        <v>64</v>
+      <c r="C12" s="14" t="s">
+        <v>109</v>
       </c>
       <c r="E12" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">DT_EMISSAO_TITULO, </v>
+        <v xml:space="preserve">CD_TIPO_DOCUMENTO, </v>
       </c>
     </row>
     <row r="13" spans="3:5">
-      <c r="C13" s="19" t="s">
-        <v>67</v>
+      <c r="C13" s="14" t="s">
+        <v>110</v>
       </c>
       <c r="E13" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">VL_TITULO, </v>
+        <v xml:space="preserve">IN_ENTRADA_SAIDA, </v>
       </c>
     </row>
     <row r="14" spans="3:5">
-      <c r="C14" s="19" t="s">
-        <v>65</v>
+      <c r="C14" s="14" t="s">
+        <v>111</v>
       </c>
       <c r="E14" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">DT_VENCIMENTO, </v>
+        <v xml:space="preserve">DT_TRANSACAO, </v>
       </c>
     </row>
     <row r="15" spans="3:5">
-      <c r="C15" s="19" t="s">
-        <v>72</v>
+      <c r="C15" s="14" t="s">
+        <v>112</v>
       </c>
       <c r="E15" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">DT_VENCIMENTO_ORIGINAL, </v>
+        <v xml:space="preserve">VL_TRANSACAO, </v>
       </c>
     </row>
     <row r="16" spans="3:5">
-      <c r="C16" s="19" t="s">
-        <v>73</v>
+      <c r="C16" s="14" t="s">
+        <v>113</v>
       </c>
       <c r="E16" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">NR_BANCARIO, </v>
+        <v xml:space="preserve">CD_PREPARADO_PAGAMENTO, </v>
       </c>
     </row>
     <row r="17" spans="3:5">
-      <c r="C17" s="19" t="s">
-        <v>80</v>
+      <c r="C17" s="14" t="s">
+        <v>114</v>
       </c>
       <c r="E17" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">CD_METODO_RECEBIMENTO, </v>
+        <v xml:space="preserve">DT_SITUACAO_MOVIMENTO, </v>
       </c>
     </row>
     <row r="18" spans="3:5">
-      <c r="C18" s="19" t="s">
-        <v>69</v>
+      <c r="C18" s="14" t="s">
+        <v>18</v>
       </c>
       <c r="E18" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">CD_CENTRO_CUSTO, </v>
+        <v xml:space="preserve">CD_BANCO, </v>
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="19" t="s">
-        <v>74</v>
+      <c r="C19" s="14" t="s">
+        <v>19</v>
       </c>
       <c r="E19" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">VL_SALDO, </v>
+        <v xml:space="preserve">NR_AGENCIA, </v>
       </c>
     </row>
     <row r="20" spans="3:5">
-      <c r="C20" s="19" t="s">
-        <v>75</v>
+      <c r="C20" s="14" t="s">
+        <v>68</v>
       </c>
       <c r="E20" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">VL_DESCONTO, </v>
+        <v xml:space="preserve">NR_CONTA_CORRENTE, </v>
       </c>
     </row>
     <row r="21" spans="3:5">
-      <c r="C21" s="19" t="s">
-        <v>66</v>
+      <c r="C21" s="14" t="s">
+        <v>8</v>
       </c>
       <c r="E21" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">DT_LIQUIDACAO_TITULO, </v>
+        <v xml:space="preserve">DT_ATUALIZACAO, </v>
       </c>
     </row>
     <row r="22" spans="3:5">
-      <c r="C22" s="19" t="s">
-        <v>70</v>
+      <c r="C22" s="14" t="s">
+        <v>78</v>
       </c>
       <c r="E22" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">CD_SITUACAO_TITULO, </v>
+        <v xml:space="preserve">CD_UNIDADE_EMPRESARIAL, </v>
       </c>
     </row>
     <row r="23" spans="3:5">
-      <c r="C23" s="19" t="s">
-        <v>76</v>
+      <c r="C23" s="14" t="s">
+        <v>115</v>
       </c>
       <c r="E23" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">DS_OBSERVACAO_TITULO, </v>
+        <v xml:space="preserve">NR_TITULO_REFERENCIA, </v>
       </c>
     </row>
     <row r="24" spans="3:5">
-      <c r="C24" s="19" t="s">
-        <v>77</v>
+      <c r="C24" s="14" t="s">
+        <v>117</v>
       </c>
       <c r="E24" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">DS_USUARIO_GERACAO_TITULO, </v>
+        <v xml:space="preserve">CD_TRANSACAO_DOCUMENTO, </v>
       </c>
     </row>
     <row r="25" spans="3:5">
-      <c r="C25" s="19" t="s">
-        <v>79</v>
+      <c r="C25" s="14" t="s">
+        <v>118</v>
       </c>
       <c r="E25" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">NR_PEDIDO, </v>
+        <v xml:space="preserve">DT_VENCTO_PRORROGADO, </v>
       </c>
     </row>
     <row r="26" spans="3:5">
-      <c r="C26" s="19" t="s">
-        <v>18</v>
+      <c r="C26" s="14" t="s">
+        <v>119</v>
       </c>
       <c r="E26" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">CD_BANCO, </v>
+        <v xml:space="preserve">DT_VENCTO_ORIGINAL_PRORROGADO, </v>
       </c>
     </row>
     <row r="27" spans="3:5">
-      <c r="C27" s="19" t="s">
-        <v>19</v>
+      <c r="C27" s="14" t="s">
+        <v>120</v>
       </c>
       <c r="E27" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">NR_AGENCIA, </v>
+        <v xml:space="preserve">DT_LIQUIDEZ_PREVISTA, </v>
       </c>
     </row>
     <row r="28" spans="3:5">
-      <c r="C28" s="19" t="s">
-        <v>68</v>
+      <c r="C28" s="14" t="s">
+        <v>121</v>
       </c>
       <c r="E28" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">NR_CONTA_CORRENTE, </v>
+        <v xml:space="preserve">CD_TIPO_MOVIMENTO, </v>
       </c>
     </row>
     <row r="29" spans="3:5">
-      <c r="C29" s="19" t="s">
-        <v>71</v>
-      </c>
+      <c r="C29" s="15"/>
       <c r="E29" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">DT_SITUACAO_TITULO, </v>
+        <v xml:space="preserve">, </v>
       </c>
     </row>
     <row r="30" spans="3:5">
-      <c r="C30" s="19" t="s">
-        <v>8</v>
-      </c>
+      <c r="C30" s="15"/>
       <c r="E30" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">DT_ATUALIZACAO, </v>
+        <v xml:space="preserve">, </v>
       </c>
     </row>
     <row r="31" spans="3:5">
-      <c r="C31" s="19" t="s">
-        <v>78</v>
-      </c>
+      <c r="C31" s="15"/>
       <c r="E31" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">CD_UNIDADE_EMPRESARIAL, </v>
+        <v xml:space="preserve">, </v>
       </c>
     </row>
     <row r="32" spans="3:5">
-      <c r="C32" s="19" t="s">
-        <v>20</v>
-      </c>
+      <c r="C32" s="15"/>
       <c r="E32" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">CD_SITUACAO_PAGAMENTO, </v>
+        <v xml:space="preserve">, </v>
       </c>
     </row>
   </sheetData>

--- a/Documentação/Planilhas/Conferencia_CAR.xlsx
+++ b/Documentação/Planilhas/Conferencia_CAR.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" tabRatio="812" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" tabRatio="812" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Resumo" sheetId="93" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1080" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1089" uniqueCount="308">
   <si>
     <t>1</t>
   </si>
@@ -545,9 +545,6 @@
 7-Não aplicável
 8-Pagto Cheque
 9-Pagto Cancelado</t>
-  </si>
-  <si>
-    <t>tfacr2520m000</t>
   </si>
   <si>
     <t>Pegar a primeira e segunda informação da coluna Documento</t>
@@ -984,6 +981,33 @@
   </si>
   <si>
     <t>selecionar o documento desejado e no menu Specific, selecionar "Documentos Relacionados ao Recebimento por Entrada Aberta". Pegar a terceira informação da coluna Nº Doc Recebimento</t>
+  </si>
+  <si>
+    <t>tfacr2523m000</t>
+  </si>
+  <si>
+    <t>Sessão tfacr2523m000</t>
+  </si>
+  <si>
+    <t>Informar na primeira e segunda informação da coluna Nº Doc Recebimento os dados de CD_TRANSACAO_DOCUMENTO e NR_MOVIMENTO. Ir com a seta de navegação "Next Group"  para encontrar o Título de Referência [veremos a indicação do título de origem e também a informação do título de Referência]</t>
+  </si>
+  <si>
+    <t>selecionar o documento desejado e no menu Specific, selecionar "Documentos Relacionados ao Recebimento por Entrada Aberta". Pegar a informação da coluna Data de Recebto.</t>
+  </si>
+  <si>
+    <t>Usar a seguinte regra para pegar a data:</t>
+  </si>
+  <si>
+    <t>Utilizar sempre CD_TRANSACAO_TITULO, NR_TITULO e NR_PROGRAMACAO
+Se Saldo = Saldo Previsto, então pegar a maior data da coluna Data do Recebto.
+Se Saldo = Valor, pegar a Data do Recebto
+Caso contrário, pegar a menor data da coluna Data de Recebto.</t>
+  </si>
+  <si>
+    <t>tfacr2520m000, tfcmg0511m000, tfcmg0510m000 e tfacr2523m000</t>
+  </si>
+  <si>
+    <t>tfacr2520m000</t>
   </si>
 </sst>
 </file>
@@ -1037,7 +1061,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1059,6 +1083,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1314,7 +1344,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1368,17 +1398,17 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1392,16 +1422,10 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1434,6 +1458,12 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1445,6 +1475,27 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1463,18 +1514,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1807,31 +1846,31 @@
     </row>
     <row r="3" spans="2:3">
       <c r="B3" s="8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C3" s="7"/>
     </row>
     <row r="4" spans="2:3">
       <c r="B4" s="8" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C4" s="7"/>
     </row>
     <row r="5" spans="2:3">
       <c r="B5" s="8" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C5" s="7"/>
     </row>
     <row r="6" spans="2:3">
       <c r="B6" s="8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C6" s="7"/>
     </row>
     <row r="7" spans="2:3">
       <c r="B7" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C7" s="9"/>
     </row>
@@ -1856,7 +1895,7 @@
   <dimension ref="A2:AG22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -2282,17 +2321,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="C19:C22"/>
     <mergeCell ref="I19:I22"/>
     <mergeCell ref="D19:D22"/>
     <mergeCell ref="E19:E22"/>
     <mergeCell ref="F19:F22"/>
     <mergeCell ref="G19:G22"/>
     <mergeCell ref="H19:H22"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="C19:C22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -2306,8 +2345,8 @@
   </sheetPr>
   <dimension ref="A2:Q25"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -2346,7 +2385,9 @@
         <v>15</v>
       </c>
       <c r="B3" s="30"/>
-      <c r="C3" s="3"/>
+      <c r="C3" s="3" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="4" t="s">
@@ -2418,71 +2459,71 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="26" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" s="26" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" s="26" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2796,9 +2837,7 @@
   </sheetPr>
   <dimension ref="A2:AE29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23:E26"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
@@ -2850,18 +2889,18 @@
       </c>
       <c r="B3" s="30"/>
       <c r="C3" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="4" spans="1:31" ht="21">
-      <c r="A4" s="44" t="s">
-        <v>185</v>
-      </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
+      <c r="A4" s="42" t="s">
+        <v>184</v>
+      </c>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
       <c r="G4" s="1"/>
       <c r="P4" s="19"/>
       <c r="AB4" s="2"/>
@@ -3028,7 +3067,7 @@
       <c r="V8" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="W8" s="25" t="s">
+      <c r="W8" s="23" t="s">
         <v>9</v>
       </c>
       <c r="X8" s="16" t="s">
@@ -3123,7 +3162,7 @@
       <c r="V9" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="W9" s="25" t="s">
+      <c r="W9" s="23" t="s">
         <v>9</v>
       </c>
       <c r="X9" s="16" t="s">
@@ -3162,37 +3201,37 @@
         <v>1</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E10" s="16" t="s">
         <v>9</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>130</v>
       </c>
       <c r="H10" s="16" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>1</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K10" s="2" t="s">
         <v>0</v>
       </c>
       <c r="L10" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="M10" s="16" t="s">
         <v>200</v>
       </c>
-      <c r="M10" s="16" t="s">
+      <c r="N10" s="16" t="s">
         <v>201</v>
-      </c>
-      <c r="N10" s="16" t="s">
-        <v>202</v>
       </c>
       <c r="O10" s="16" t="s">
         <v>126</v>
@@ -3210,7 +3249,7 @@
         <v>83</v>
       </c>
       <c r="T10" s="16" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="U10" s="16" t="s">
         <v>84</v>
@@ -3218,7 +3257,7 @@
       <c r="V10" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="W10" s="25" t="s">
+      <c r="W10" s="23" t="s">
         <v>9</v>
       </c>
       <c r="X10" s="16" t="s">
@@ -3228,7 +3267,7 @@
         <v>83</v>
       </c>
       <c r="Z10" s="16" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AA10" s="16" t="s">
         <v>9</v>
@@ -3257,37 +3296,37 @@
         <v>1</v>
       </c>
       <c r="D11" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>204</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>205</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>130</v>
       </c>
       <c r="H11" s="16" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>1</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>0</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="M11" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="N11" s="16" t="s">
         <v>201</v>
-      </c>
-      <c r="N11" s="16" t="s">
-        <v>202</v>
       </c>
       <c r="O11" s="16" t="s">
         <v>126</v>
@@ -3305,7 +3344,7 @@
         <v>83</v>
       </c>
       <c r="T11" s="16" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="U11" s="16" t="s">
         <v>84</v>
@@ -3313,7 +3352,7 @@
       <c r="V11" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="W11" s="25" t="s">
+      <c r="W11" s="23" t="s">
         <v>9</v>
       </c>
       <c r="X11" s="16" t="s">
@@ -3323,7 +3362,7 @@
         <v>83</v>
       </c>
       <c r="Z11" s="16" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AA11" s="16" t="s">
         <v>9</v>
@@ -3352,37 +3391,37 @@
         <v>1</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E12" s="16" t="s">
         <v>9</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>130</v>
       </c>
       <c r="H12" s="16" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>1</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>0</v>
       </c>
       <c r="L12" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="M12" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="N12" s="16" t="s">
         <v>212</v>
-      </c>
-      <c r="M12" s="16" t="s">
-        <v>201</v>
-      </c>
-      <c r="N12" s="16" t="s">
-        <v>213</v>
       </c>
       <c r="O12" s="16" t="s">
         <v>126</v>
@@ -3400,7 +3439,7 @@
         <v>83</v>
       </c>
       <c r="T12" s="16" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="U12" s="16" t="s">
         <v>84</v>
@@ -3408,7 +3447,7 @@
       <c r="V12" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="W12" s="25" t="s">
+      <c r="W12" s="23" t="s">
         <v>9</v>
       </c>
       <c r="X12" s="16" t="s">
@@ -3418,7 +3457,7 @@
         <v>83</v>
       </c>
       <c r="Z12" s="16" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AA12" s="16" t="s">
         <v>9</v>
@@ -3446,88 +3485,88 @@
       <c r="C13" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="25" t="s">
+      <c r="D13" s="23" t="s">
+        <v>213</v>
+      </c>
+      <c r="E13" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="12" t="s">
         <v>214</v>
-      </c>
-      <c r="E13" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>215</v>
       </c>
       <c r="G13" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="H13" s="25" t="s">
-        <v>216</v>
+      <c r="H13" s="23" t="s">
+        <v>215</v>
       </c>
       <c r="I13" s="12" t="s">
         <v>1</v>
       </c>
       <c r="J13" s="12" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K13" s="12" t="s">
         <v>0</v>
       </c>
       <c r="L13" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="M13" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="N13" s="23" t="s">
         <v>218</v>
       </c>
-      <c r="M13" s="25" t="s">
-        <v>201</v>
-      </c>
-      <c r="N13" s="25" t="s">
-        <v>219</v>
-      </c>
-      <c r="O13" s="25" t="s">
+      <c r="O13" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="P13" s="25" t="s">
+      <c r="P13" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="Q13" s="25" t="s">
+      <c r="Q13" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="R13" s="25" t="s">
+      <c r="R13" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="S13" s="25" t="s">
+      <c r="S13" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="T13" s="25" t="s">
-        <v>219</v>
-      </c>
-      <c r="U13" s="25" t="s">
+      <c r="T13" s="23" t="s">
+        <v>218</v>
+      </c>
+      <c r="U13" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="V13" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="W13" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="X13" s="25" t="s">
+      <c r="V13" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="W13" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="X13" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="Y13" s="25" t="s">
+      <c r="Y13" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="Z13" s="25" t="s">
-        <v>203</v>
-      </c>
-      <c r="AA13" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB13" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC13" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD13" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="AE13" s="25" t="s">
+      <c r="Z13" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="AA13" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB13" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC13" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD13" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE13" s="23" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3542,37 +3581,37 @@
         <v>1</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E14" s="16" t="s">
         <v>9</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>130</v>
       </c>
       <c r="H14" s="16" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>1</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="K14" s="2" t="s">
         <v>0</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="M14" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="N14" s="16" t="s">
         <v>201</v>
-      </c>
-      <c r="N14" s="16" t="s">
-        <v>202</v>
       </c>
       <c r="O14" s="16" t="s">
         <v>126</v>
@@ -3590,7 +3629,7 @@
         <v>83</v>
       </c>
       <c r="T14" s="16" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="U14" s="16" t="s">
         <v>84</v>
@@ -3598,7 +3637,7 @@
       <c r="V14" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="W14" s="25" t="s">
+      <c r="W14" s="23" t="s">
         <v>9</v>
       </c>
       <c r="X14" s="16" t="s">
@@ -3608,7 +3647,7 @@
         <v>83</v>
       </c>
       <c r="Z14" s="16" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AA14" s="16" t="s">
         <v>9</v>
@@ -3637,7 +3676,7 @@
         <v>1</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E15" s="16" t="s">
         <v>9</v>
@@ -3655,19 +3694,19 @@
         <v>1</v>
       </c>
       <c r="J15" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="K15" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="K15" s="2" t="s">
+      <c r="L15" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="L15" s="2" t="s">
+      <c r="M15" s="16" t="s">
         <v>239</v>
       </c>
-      <c r="M15" s="16" t="s">
+      <c r="N15" s="16" t="s">
         <v>240</v>
-      </c>
-      <c r="N15" s="16" t="s">
-        <v>241</v>
       </c>
       <c r="O15" s="16" t="s">
         <v>136</v>
@@ -3685,7 +3724,7 @@
         <v>83</v>
       </c>
       <c r="T15" s="16" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="U15" s="16" t="s">
         <v>84</v>
@@ -3693,7 +3732,7 @@
       <c r="V15" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="W15" s="25" t="s">
+      <c r="W15" s="23" t="s">
         <v>132</v>
       </c>
       <c r="X15" s="16" t="s">
@@ -3703,7 +3742,7 @@
         <v>83</v>
       </c>
       <c r="Z15" s="16" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AA15" s="16" t="s">
         <v>9</v>
@@ -3732,43 +3771,43 @@
         <v>1</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E16" s="16" t="s">
         <v>9</v>
       </c>
       <c r="F16" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="G16" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="H16" s="16" t="s">
         <v>246</v>
-      </c>
-      <c r="H16" s="16" t="s">
-        <v>247</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>0</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>0</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="M16" s="16" t="s">
         <v>150</v>
       </c>
       <c r="N16" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="O16" s="16" t="s">
         <v>250</v>
       </c>
-      <c r="O16" s="16" t="s">
-        <v>251</v>
-      </c>
       <c r="P16" s="16" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="Q16" s="16" t="s">
         <v>83</v>
@@ -3780,7 +3819,7 @@
         <v>83</v>
       </c>
       <c r="T16" s="16" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="U16" s="16" t="s">
         <v>84</v>
@@ -3788,7 +3827,7 @@
       <c r="V16" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="W16" s="25" t="s">
+      <c r="W16" s="23" t="s">
         <v>150</v>
       </c>
       <c r="X16" s="16" t="s">
@@ -3798,7 +3837,7 @@
         <v>83</v>
       </c>
       <c r="Z16" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AA16" s="16" t="s">
         <v>9</v>
@@ -3827,7 +3866,7 @@
         <v>1</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E17" s="16" t="s">
         <v>9</v>
@@ -3836,34 +3875,34 @@
         <v>51</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H17" s="16" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>1</v>
       </c>
       <c r="J17" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="K17" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="K17" s="2" t="s">
+      <c r="L17" s="2" t="s">
         <v>256</v>
-      </c>
-      <c r="L17" s="2" t="s">
-        <v>257</v>
       </c>
       <c r="M17" s="16" t="s">
         <v>150</v>
       </c>
       <c r="N17" s="16" t="s">
+        <v>257</v>
+      </c>
+      <c r="O17" s="16" t="s">
         <v>258</v>
       </c>
-      <c r="O17" s="16" t="s">
-        <v>259</v>
-      </c>
       <c r="P17" s="16" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="Q17" s="16" t="s">
         <v>83</v>
@@ -3875,7 +3914,7 @@
         <v>83</v>
       </c>
       <c r="T17" s="16" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="U17" s="16" t="s">
         <v>84</v>
@@ -3883,7 +3922,7 @@
       <c r="V17" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="W17" s="25" t="s">
+      <c r="W17" s="23" t="s">
         <v>150</v>
       </c>
       <c r="X17" s="16" t="s">
@@ -3893,7 +3932,7 @@
         <v>83</v>
       </c>
       <c r="Z17" s="16" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AA17" s="16" t="s">
         <v>9</v>
@@ -3942,196 +3981,196 @@
     <row r="20" spans="1:31" ht="11.25" customHeight="1">
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
-      <c r="F20" s="35" t="s">
-        <v>196</v>
-      </c>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-      <c r="K20" s="36"/>
-      <c r="L20" s="36"/>
-      <c r="M20" s="36"/>
-      <c r="N20" s="36"/>
-      <c r="O20" s="36"/>
-      <c r="P20" s="36"/>
-      <c r="Q20" s="36"/>
-      <c r="R20" s="36"/>
-      <c r="S20" s="36"/>
-      <c r="T20" s="36"/>
-      <c r="U20" s="36"/>
-      <c r="V20" s="36"/>
-      <c r="W20" s="36"/>
-      <c r="X20" s="36"/>
-      <c r="Y20" s="36"/>
-      <c r="Z20" s="37"/>
-      <c r="AA20" s="33" t="s">
-        <v>230</v>
-      </c>
-      <c r="AB20" s="33" t="s">
+      <c r="F20" s="33" t="s">
+        <v>195</v>
+      </c>
+      <c r="G20" s="34"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="34"/>
+      <c r="K20" s="34"/>
+      <c r="L20" s="34"/>
+      <c r="M20" s="34"/>
+      <c r="N20" s="34"/>
+      <c r="O20" s="34"/>
+      <c r="P20" s="34"/>
+      <c r="Q20" s="34"/>
+      <c r="R20" s="34"/>
+      <c r="S20" s="34"/>
+      <c r="T20" s="34"/>
+      <c r="U20" s="34"/>
+      <c r="V20" s="34"/>
+      <c r="W20" s="34"/>
+      <c r="X20" s="34"/>
+      <c r="Y20" s="34"/>
+      <c r="Z20" s="35"/>
+      <c r="AA20" s="31" t="s">
+        <v>229</v>
+      </c>
+      <c r="AB20" s="31" t="s">
+        <v>233</v>
+      </c>
+      <c r="AC20" s="44"/>
+      <c r="AD20" s="31" t="s">
         <v>234</v>
       </c>
-      <c r="AC20" s="34"/>
-      <c r="AD20" s="33" t="s">
-        <v>235</v>
-      </c>
-      <c r="AE20" s="33" t="s">
-        <v>264</v>
+      <c r="AE20" s="31" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="21" spans="1:31" ht="11.25" customHeight="1">
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="39"/>
-      <c r="I21" s="39"/>
-      <c r="J21" s="39"/>
-      <c r="K21" s="39"/>
-      <c r="L21" s="39"/>
-      <c r="M21" s="39"/>
-      <c r="N21" s="39"/>
-      <c r="O21" s="39"/>
-      <c r="P21" s="39"/>
-      <c r="Q21" s="39"/>
-      <c r="R21" s="39"/>
-      <c r="S21" s="39"/>
-      <c r="T21" s="39"/>
-      <c r="U21" s="39"/>
-      <c r="V21" s="39"/>
-      <c r="W21" s="39"/>
-      <c r="X21" s="39"/>
-      <c r="Y21" s="39"/>
-      <c r="Z21" s="40"/>
-      <c r="AA21" s="33"/>
-      <c r="AB21" s="34"/>
-      <c r="AC21" s="34"/>
-      <c r="AD21" s="33"/>
-      <c r="AE21" s="33"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="37"/>
+      <c r="K21" s="37"/>
+      <c r="L21" s="37"/>
+      <c r="M21" s="37"/>
+      <c r="N21" s="37"/>
+      <c r="O21" s="37"/>
+      <c r="P21" s="37"/>
+      <c r="Q21" s="37"/>
+      <c r="R21" s="37"/>
+      <c r="S21" s="37"/>
+      <c r="T21" s="37"/>
+      <c r="U21" s="37"/>
+      <c r="V21" s="37"/>
+      <c r="W21" s="37"/>
+      <c r="X21" s="37"/>
+      <c r="Y21" s="37"/>
+      <c r="Z21" s="38"/>
+      <c r="AA21" s="31"/>
+      <c r="AB21" s="44"/>
+      <c r="AC21" s="44"/>
+      <c r="AD21" s="31"/>
+      <c r="AE21" s="31"/>
     </row>
     <row r="22" spans="1:31" ht="11.25" customHeight="1">
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="42"/>
-      <c r="H22" s="42"/>
-      <c r="I22" s="42"/>
-      <c r="J22" s="42"/>
-      <c r="K22" s="42"/>
-      <c r="L22" s="42"/>
-      <c r="M22" s="42"/>
-      <c r="N22" s="42"/>
-      <c r="O22" s="42"/>
-      <c r="P22" s="42"/>
-      <c r="Q22" s="42"/>
-      <c r="R22" s="42"/>
-      <c r="S22" s="42"/>
-      <c r="T22" s="42"/>
-      <c r="U22" s="42"/>
-      <c r="V22" s="42"/>
-      <c r="W22" s="42"/>
-      <c r="X22" s="42"/>
-      <c r="Y22" s="42"/>
-      <c r="Z22" s="43"/>
-      <c r="AA22" s="33"/>
-      <c r="AB22" s="34"/>
-      <c r="AC22" s="34"/>
-      <c r="AD22" s="33"/>
-      <c r="AE22" s="33"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="40"/>
+      <c r="K22" s="40"/>
+      <c r="L22" s="40"/>
+      <c r="M22" s="40"/>
+      <c r="N22" s="40"/>
+      <c r="O22" s="40"/>
+      <c r="P22" s="40"/>
+      <c r="Q22" s="40"/>
+      <c r="R22" s="40"/>
+      <c r="S22" s="40"/>
+      <c r="T22" s="40"/>
+      <c r="U22" s="40"/>
+      <c r="V22" s="40"/>
+      <c r="W22" s="40"/>
+      <c r="X22" s="40"/>
+      <c r="Y22" s="40"/>
+      <c r="Z22" s="41"/>
+      <c r="AA22" s="31"/>
+      <c r="AB22" s="44"/>
+      <c r="AC22" s="44"/>
+      <c r="AD22" s="31"/>
+      <c r="AE22" s="31"/>
     </row>
     <row r="23" spans="1:31" ht="11.25" customHeight="1">
       <c r="A23" s="27" t="s">
         <v>17</v>
       </c>
       <c r="B23" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="C23" s="27" t="s">
+        <v>266</v>
+      </c>
+      <c r="D23" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="E23" s="27" t="s">
+        <v>265</v>
+      </c>
+      <c r="F23" s="27" t="s">
+        <v>172</v>
+      </c>
+      <c r="G23" s="27" t="s">
+        <v>173</v>
+      </c>
+      <c r="H23" s="27" t="s">
+        <v>191</v>
+      </c>
+      <c r="I23" s="27" t="s">
         <v>175</v>
       </c>
-      <c r="C23" s="27" t="s">
-        <v>267</v>
-      </c>
-      <c r="D23" s="27" t="s">
+      <c r="J23" s="27" t="s">
+        <v>178</v>
+      </c>
+      <c r="K23" s="27" t="s">
+        <v>179</v>
+      </c>
+      <c r="L23" s="27" t="s">
+        <v>177</v>
+      </c>
+      <c r="M23" s="27" t="s">
+        <v>180</v>
+      </c>
+      <c r="N23" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="O23" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="P23" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q23" s="27" t="s">
+        <v>188</v>
+      </c>
+      <c r="R23" s="27" t="s">
         <v>194</v>
       </c>
-      <c r="E23" s="27" t="s">
-        <v>266</v>
-      </c>
-      <c r="F23" s="27" t="s">
-        <v>173</v>
-      </c>
-      <c r="G23" s="27" t="s">
-        <v>174</v>
-      </c>
-      <c r="H23" s="27" t="s">
+      <c r="S23" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="T23" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="U23" s="27" t="s">
+        <v>190</v>
+      </c>
+      <c r="V23" s="27" t="s">
+        <v>243</v>
+      </c>
+      <c r="W23" s="27" t="s">
+        <v>261</v>
+      </c>
+      <c r="X23" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Y23" s="27" t="s">
         <v>192</v>
       </c>
-      <c r="I23" s="27" t="s">
-        <v>176</v>
-      </c>
-      <c r="J23" s="27" t="s">
-        <v>179</v>
-      </c>
-      <c r="K23" s="27" t="s">
-        <v>180</v>
-      </c>
-      <c r="L23" s="27" t="s">
-        <v>178</v>
-      </c>
-      <c r="M23" s="27" t="s">
-        <v>181</v>
-      </c>
-      <c r="N23" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="O23" s="27" t="s">
-        <v>182</v>
-      </c>
-      <c r="P23" s="27" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q23" s="27" t="s">
-        <v>189</v>
-      </c>
-      <c r="R23" s="27" t="s">
-        <v>195</v>
-      </c>
-      <c r="S23" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="T23" s="27" t="s">
-        <v>190</v>
-      </c>
-      <c r="U23" s="27" t="s">
-        <v>191</v>
-      </c>
-      <c r="V23" s="27" t="s">
-        <v>244</v>
-      </c>
-      <c r="W23" s="27" t="s">
+      <c r="Z23" s="45" t="s">
         <v>262</v>
       </c>
-      <c r="X23" s="27" t="s">
-        <v>186</v>
-      </c>
-      <c r="Y23" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="Z23" s="45" t="s">
-        <v>263</v>
-      </c>
       <c r="AA23" s="48" t="s">
+        <v>230</v>
+      </c>
+      <c r="AB23" s="32" t="s">
         <v>231</v>
       </c>
-      <c r="AB23" s="31" t="s">
+      <c r="AC23" s="32" t="s">
         <v>232</v>
       </c>
-      <c r="AC23" s="31" t="s">
-        <v>233</v>
-      </c>
-      <c r="AD23" s="31" t="s">
-        <v>236</v>
-      </c>
-      <c r="AE23" s="31" t="s">
-        <v>265</v>
+      <c r="AD23" s="32" t="s">
+        <v>235</v>
+      </c>
+      <c r="AE23" s="32" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="24" spans="1:31">
@@ -4162,10 +4201,10 @@
       <c r="Y24" s="28"/>
       <c r="Z24" s="46"/>
       <c r="AA24" s="48"/>
-      <c r="AB24" s="31"/>
-      <c r="AC24" s="31"/>
-      <c r="AD24" s="31"/>
-      <c r="AE24" s="31"/>
+      <c r="AB24" s="32"/>
+      <c r="AC24" s="32"/>
+      <c r="AD24" s="32"/>
+      <c r="AE24" s="32"/>
     </row>
     <row r="25" spans="1:31">
       <c r="A25" s="28"/>
@@ -4195,10 +4234,10 @@
       <c r="Y25" s="28"/>
       <c r="Z25" s="46"/>
       <c r="AA25" s="48"/>
-      <c r="AB25" s="31"/>
-      <c r="AC25" s="31"/>
-      <c r="AD25" s="31"/>
-      <c r="AE25" s="31"/>
+      <c r="AB25" s="32"/>
+      <c r="AC25" s="32"/>
+      <c r="AD25" s="32"/>
+      <c r="AE25" s="32"/>
     </row>
     <row r="26" spans="1:31">
       <c r="A26" s="29"/>
@@ -4228,10 +4267,10 @@
       <c r="Y26" s="29"/>
       <c r="Z26" s="47"/>
       <c r="AA26" s="48"/>
-      <c r="AB26" s="31"/>
-      <c r="AC26" s="31"/>
-      <c r="AD26" s="31"/>
-      <c r="AE26" s="31"/>
+      <c r="AB26" s="32"/>
+      <c r="AC26" s="32"/>
+      <c r="AD26" s="32"/>
+      <c r="AE26" s="32"/>
     </row>
     <row r="27" spans="1:31">
       <c r="D27" s="1"/>
@@ -4244,9 +4283,9 @@
       <c r="S27" s="2"/>
       <c r="V27" s="2"/>
       <c r="AA27" s="48"/>
-      <c r="AB27" s="31"/>
-      <c r="AC27" s="31"/>
-      <c r="AD27" s="31"/>
+      <c r="AB27" s="32"/>
+      <c r="AC27" s="32"/>
+      <c r="AD27" s="32"/>
     </row>
     <row r="28" spans="1:31">
       <c r="D28" s="1"/>
@@ -4265,9 +4304,9 @@
         <v>170</v>
       </c>
       <c r="AA28" s="48"/>
-      <c r="AB28" s="31"/>
-      <c r="AC28" s="31"/>
-      <c r="AD28" s="32"/>
+      <c r="AB28" s="32"/>
+      <c r="AC28" s="32"/>
+      <c r="AD28" s="43"/>
       <c r="AE28" s="17" t="s">
         <v>170</v>
       </c>
@@ -4277,7 +4316,7 @@
       <c r="E29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="18" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" s="1"/>
@@ -4287,7 +4326,7 @@
       <c r="V29" s="2"/>
       <c r="W29" s="2"/>
       <c r="X29" s="20" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Z29" s="21"/>
       <c r="AA29" s="48"/>
@@ -4300,13 +4339,21 @@
     </row>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="AD23:AD28"/>
+    <mergeCell ref="AB20:AC22"/>
+    <mergeCell ref="AD20:AD22"/>
+    <mergeCell ref="W23:W26"/>
+    <mergeCell ref="I23:I26"/>
+    <mergeCell ref="L23:L26"/>
+    <mergeCell ref="J23:J26"/>
+    <mergeCell ref="K23:K26"/>
+    <mergeCell ref="M23:M26"/>
+    <mergeCell ref="Y23:Y26"/>
+    <mergeCell ref="Z23:Z26"/>
+    <mergeCell ref="AA20:AA22"/>
+    <mergeCell ref="AA23:AA29"/>
+    <mergeCell ref="AB23:AB28"/>
     <mergeCell ref="AC23:AC28"/>
-    <mergeCell ref="D23:D26"/>
-    <mergeCell ref="R23:R26"/>
-    <mergeCell ref="O23:O26"/>
-    <mergeCell ref="V23:V26"/>
-    <mergeCell ref="N23:N26"/>
-    <mergeCell ref="S23:S26"/>
     <mergeCell ref="AE20:AE22"/>
     <mergeCell ref="AE23:AE26"/>
     <mergeCell ref="F20:Z22"/>
@@ -4323,22 +4370,14 @@
     <mergeCell ref="T23:T26"/>
     <mergeCell ref="U23:U26"/>
     <mergeCell ref="B23:B26"/>
+    <mergeCell ref="D23:D26"/>
+    <mergeCell ref="R23:R26"/>
+    <mergeCell ref="O23:O26"/>
+    <mergeCell ref="V23:V26"/>
+    <mergeCell ref="N23:N26"/>
+    <mergeCell ref="S23:S26"/>
     <mergeCell ref="E23:E26"/>
-    <mergeCell ref="AD23:AD28"/>
-    <mergeCell ref="AB20:AC22"/>
-    <mergeCell ref="AD20:AD22"/>
-    <mergeCell ref="W23:W26"/>
-    <mergeCell ref="I23:I26"/>
-    <mergeCell ref="L23:L26"/>
-    <mergeCell ref="J23:J26"/>
-    <mergeCell ref="K23:K26"/>
-    <mergeCell ref="M23:M26"/>
     <mergeCell ref="H23:H26"/>
-    <mergeCell ref="Y23:Y26"/>
-    <mergeCell ref="Z23:Z26"/>
-    <mergeCell ref="AA20:AA22"/>
-    <mergeCell ref="AA23:AA29"/>
-    <mergeCell ref="AB23:AB28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -4348,12 +4387,12 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
-    <tabColor rgb="FFFFFF00"/>
+    <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A2:AB32"/>
+  <dimension ref="A2:AB66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C14" sqref="C13:C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -4362,7 +4401,7 @@
     <col min="2" max="2" width="22.5703125" style="2" customWidth="1"/>
     <col min="3" max="3" width="18.7109375" style="2" customWidth="1"/>
     <col min="4" max="4" width="24" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="21.28515625" style="2" customWidth="1"/>
     <col min="6" max="6" width="21.5703125" style="2" customWidth="1"/>
     <col min="7" max="7" width="19" style="2" customWidth="1"/>
     <col min="8" max="8" width="22.28515625" style="2" customWidth="1"/>
@@ -4373,10 +4412,10 @@
     <col min="13" max="13" width="34" style="2" customWidth="1"/>
     <col min="14" max="14" width="35.140625" style="2" customWidth="1"/>
     <col min="15" max="15" width="36.42578125" style="2" customWidth="1"/>
-    <col min="16" max="16" width="25.42578125" style="2" customWidth="1"/>
+    <col min="16" max="16" width="35.28515625" style="2" customWidth="1"/>
     <col min="17" max="17" width="33.140625" style="2" customWidth="1"/>
-    <col min="18" max="18" width="28.28515625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="28.7109375" style="1" customWidth="1"/>
+    <col min="18" max="18" width="36.42578125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="39" style="1" customWidth="1"/>
     <col min="20" max="20" width="30.42578125" style="1" customWidth="1"/>
     <col min="21" max="21" width="31.28515625" style="2" customWidth="1"/>
     <col min="22" max="22" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
@@ -4384,9 +4423,10 @@
     <col min="24" max="24" width="43.140625" style="1" customWidth="1"/>
     <col min="25" max="25" width="42.140625" style="1" customWidth="1"/>
     <col min="26" max="26" width="25.5703125" style="1" customWidth="1"/>
-    <col min="27" max="27" width="21.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="22.42578125" style="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="27" max="27" width="25.28515625" style="1" customWidth="1"/>
+    <col min="28" max="28" width="41.42578125" style="1" customWidth="1"/>
+    <col min="29" max="29" width="26" style="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:28" ht="21">
@@ -4404,18 +4444,18 @@
       </c>
       <c r="B3" s="30"/>
       <c r="C3" s="3" t="s">
-        <v>172</v>
+        <v>306</v>
       </c>
     </row>
     <row r="4" spans="1:28" ht="21">
-      <c r="A4" s="44" t="s">
-        <v>185</v>
-      </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
+      <c r="A4" s="42" t="s">
+        <v>184</v>
+      </c>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
       <c r="G4" s="1"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="19"/>
@@ -4444,40 +4484,40 @@
         <v>56</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>115</v>
+        <v>57</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="J7" s="14" t="s">
-        <v>41</v>
+        <v>108</v>
       </c>
       <c r="K7" s="14" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L7" s="14" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M7" s="14" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="N7" s="14" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="O7" s="14" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="P7" s="14" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Q7" s="14" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="R7" s="14" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="S7" s="14" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="T7" s="14" t="s">
         <v>110</v>
@@ -4495,1111 +4535,1149 @@
         <v>120</v>
       </c>
       <c r="Y7" s="14" t="s">
-        <v>114</v>
+        <v>18</v>
       </c>
       <c r="Z7" s="14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AA7" s="14" t="s">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="AB7" s="14" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="8" spans="1:28">
-      <c r="A8" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" s="13" customFormat="1">
+      <c r="A8" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="E8" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="16" t="s">
+      <c r="E8" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="H8" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="I8" s="2" t="s">
+      <c r="H8" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="I8" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="J8" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="L8" s="2" t="s">
+      <c r="K8" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="M8" s="16" t="s">
+      <c r="L8" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="N8" s="16" t="s">
+      <c r="M8" s="23" t="s">
         <v>128</v>
       </c>
-      <c r="O8" s="16" t="s">
+      <c r="N8" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="P8" s="16" t="s">
+      <c r="O8" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="Q8" s="2" t="s">
+      <c r="P8" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="R8" s="2" t="s">
+      <c r="Q8" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="S8" s="16" t="s">
+      <c r="R8" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="T8" s="16" t="s">
+      <c r="S8" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="T8" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="U8" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="V8" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="W8" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="X8" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y8" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="Z8" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA8" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB8" s="16" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28">
-      <c r="A9" s="2" t="s">
+      <c r="U8" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="V8" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="W8" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="X8" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y8" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z8" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA8" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB8" s="23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" s="13" customFormat="1">
+      <c r="A9" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="E9" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="16" t="s">
+      <c r="E9" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="H9" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="I9" s="2" t="s">
+      <c r="H9" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="I9" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="J9" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="L9" s="2" t="s">
+      <c r="K9" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="M9" s="16" t="s">
+      <c r="L9" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="N9" s="16" t="s">
+      <c r="M9" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="O9" s="16" t="s">
+      <c r="N9" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="P9" s="16" t="s">
+      <c r="O9" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="Q9" s="2" t="s">
+      <c r="P9" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="R9" s="2" t="s">
+      <c r="Q9" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="S9" s="16" t="s">
+      <c r="R9" s="23" t="s">
         <v>133</v>
       </c>
-      <c r="T9" s="16" t="s">
+      <c r="S9" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="T9" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="U9" s="16" t="s">
+      <c r="U9" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="V9" s="16" t="s">
+      <c r="V9" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="W9" s="16" t="s">
+      <c r="W9" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="X9" s="16" t="s">
+      <c r="X9" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="Y9" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="Z9" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA9" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB9" s="16" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28">
-      <c r="A10" s="2" t="s">
+      <c r="Y9" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z9" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA9" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB9" s="23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" s="13" customFormat="1">
+      <c r="A10" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="D10" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="E10" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="16" t="s">
+      <c r="E10" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="G10" s="23" t="s">
+      <c r="G10" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="H10" s="16" t="s">
+      <c r="H10" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="K10" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="L10" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="M10" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="N10" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="O10" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="P10" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="R10" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="S10" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="T10" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="U10" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="V10" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="W10" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="X10" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y10" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z10" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA10" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB10" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="I10" s="23" t="s">
+    </row>
+    <row r="11" spans="1:28" s="13" customFormat="1">
+      <c r="A11" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="H11" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="J10" s="23" t="s">
+      <c r="I11" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="K10" s="23" t="s">
+      <c r="J11" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="L10" s="23" t="s">
+      <c r="K11" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="M10" s="24" t="s">
+      <c r="L11" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="N10" s="24" t="s">
+      <c r="M11" s="23" t="s">
         <v>145</v>
       </c>
-      <c r="O10" s="16" t="s">
+      <c r="N11" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="P10" s="24" t="s">
+      <c r="O11" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="Q10" s="23" t="s">
+      <c r="P11" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q11" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="R10" s="23" t="s">
+      <c r="R11" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="S11" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="T11" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="U11" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="V11" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="W11" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="X11" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y11" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z11" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA11" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB11" s="23" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" s="13" customFormat="1">
+      <c r="A12" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="23" t="s">
+        <v>269</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="I12" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="J12" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="K12" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="L12" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="M12" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="N12" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="O12" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="P12" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="S10" s="24" t="s">
-        <v>141</v>
-      </c>
-      <c r="T10" s="24" t="s">
+      <c r="Q12" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="R12" s="23" t="s">
+        <v>268</v>
+      </c>
+      <c r="S12" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="T12" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="U12" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="V12" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="W12" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="X12" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y12" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z12" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA12" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB12" s="23" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" s="13" customFormat="1">
+      <c r="A13" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="E13" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="23" t="s">
+        <v>272</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="J13" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="K13" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="L13" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="M13" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="N13" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="O13" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="P13" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="R13" s="23" t="s">
+        <v>271</v>
+      </c>
+      <c r="S13" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="T13" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="U13" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="V13" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="W13" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="X13" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y13" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z13" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA13" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB13" s="23" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" s="13" customFormat="1">
+      <c r="A14" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="E14" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="23" t="s">
+        <v>272</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="J14" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="K14" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="L14" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="M14" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="N14" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="O14" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="P14" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q14" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="R14" s="23" t="s">
+        <v>271</v>
+      </c>
+      <c r="S14" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="T14" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="U14" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="V14" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="W14" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="X14" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y14" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z14" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA14" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB14" s="23" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" s="13" customFormat="1">
+      <c r="A15" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="E15" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="23" t="s">
+        <v>274</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="I15" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="J15" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="K15" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="L15" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="M15" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="N15" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="O15" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="P15" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="R15" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="S15" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="T15" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="U15" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="V15" s="23" t="s">
+        <v>276</v>
+      </c>
+      <c r="W15" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="X15" s="23" t="s">
+        <v>276</v>
+      </c>
+      <c r="Y15" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="Z15" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="AA15" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="AB15" s="23" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" s="13" customFormat="1">
+      <c r="A16" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="E16" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="23" t="s">
+        <v>277</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="J16" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="K16" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="L16" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="M16" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="N16" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="O16" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="P16" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="R16" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="S16" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="T16" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="U10" s="24" t="s">
+      <c r="U16" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="V16" s="23" t="s">
+        <v>276</v>
+      </c>
+      <c r="W16" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="X16" s="23" t="s">
+        <v>276</v>
+      </c>
+      <c r="Y16" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="Z16" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="AA16" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="AB16" s="23" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" s="13" customFormat="1">
+      <c r="A17" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="E17" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="23" t="s">
+        <v>280</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="I17" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="J17" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="K17" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="L17" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="M17" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="N17" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="O17" s="23" t="s">
+        <v>278</v>
+      </c>
+      <c r="P17" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q17" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="V10" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="W10" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="X10" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="Y10" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z10" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA10" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB10" s="16" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28">
-      <c r="A11" s="2" t="s">
+      <c r="R17" s="23" t="s">
+        <v>279</v>
+      </c>
+      <c r="S17" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="T17" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="U17" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="V17" s="23" t="s">
+        <v>276</v>
+      </c>
+      <c r="W17" s="23" t="s">
+        <v>281</v>
+      </c>
+      <c r="X17" s="23" t="s">
+        <v>276</v>
+      </c>
+      <c r="Y17" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z17" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA17" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB17" s="23" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" s="12" customFormat="1">
+      <c r="A18" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B18" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C18" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="D11" s="23" t="s">
+      <c r="D18" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="E11" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="G11" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="H11" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="I11" s="23" t="s">
-        <v>137</v>
-      </c>
-      <c r="J11" s="23" t="s">
-        <v>144</v>
-      </c>
-      <c r="K11" s="23" t="s">
+      <c r="E18" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="I18" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="J18" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="K18" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="L11" s="23" t="s">
+      <c r="L18" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="M18" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="N18" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="O18" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="P18" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q18" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="M11" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="N11" s="24" t="s">
-        <v>145</v>
-      </c>
-      <c r="O11" s="16" t="s">
+      <c r="R18" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="S18" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="T18" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="U18" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="P11" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="R11" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="S11" s="24" t="s">
-        <v>141</v>
-      </c>
-      <c r="T11" s="24" t="s">
-        <v>131</v>
-      </c>
-      <c r="U11" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="V11" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="W11" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="X11" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="Y11" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z11" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA11" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB11" s="16" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:28">
-      <c r="A12" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D12" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" s="16" t="s">
-        <v>270</v>
-      </c>
-      <c r="G12" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="H12" s="16" t="s">
-        <v>271</v>
-      </c>
-      <c r="I12" s="23" t="s">
-        <v>137</v>
-      </c>
-      <c r="J12" s="23" t="s">
-        <v>144</v>
-      </c>
-      <c r="K12" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="L12" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="M12" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="N12" s="24" t="s">
-        <v>138</v>
-      </c>
-      <c r="O12" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="P12" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q12" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="R12" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="S12" s="24" t="s">
-        <v>269</v>
-      </c>
-      <c r="T12" s="24" t="s">
-        <v>125</v>
-      </c>
-      <c r="U12" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="V12" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="W12" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="X12" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="Y12" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z12" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA12" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB12" s="16" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:28">
-      <c r="A13" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D13" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" s="16" t="s">
-        <v>273</v>
-      </c>
-      <c r="G13" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="H13" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="I13" s="23" t="s">
-        <v>137</v>
-      </c>
-      <c r="J13" s="23" t="s">
-        <v>144</v>
-      </c>
-      <c r="K13" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="L13" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="M13" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="N13" s="24" t="s">
-        <v>138</v>
-      </c>
-      <c r="O13" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="P13" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q13" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="R13" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="S13" s="24" t="s">
-        <v>272</v>
-      </c>
-      <c r="T13" s="24" t="s">
-        <v>125</v>
-      </c>
-      <c r="U13" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="V13" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="W13" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="X13" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="Y13" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z13" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA13" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB13" s="16" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:28">
-      <c r="A14" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D14" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="E14" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F14" s="16" t="s">
-        <v>273</v>
-      </c>
-      <c r="G14" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="H14" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="I14" s="23" t="s">
-        <v>137</v>
-      </c>
-      <c r="J14" s="23" t="s">
-        <v>144</v>
-      </c>
-      <c r="K14" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="L14" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="M14" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="N14" s="24" t="s">
-        <v>138</v>
-      </c>
-      <c r="O14" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="P14" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q14" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="R14" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="S14" s="24" t="s">
-        <v>272</v>
-      </c>
-      <c r="T14" s="24" t="s">
-        <v>125</v>
-      </c>
-      <c r="U14" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="V14" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="W14" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="X14" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="Y14" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z14" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA14" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB14" s="16" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28">
-      <c r="A15" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E15" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15" s="16" t="s">
+      <c r="V18" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="W18" s="12" t="s">
+        <v>282</v>
+      </c>
+      <c r="X18" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="Y18" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z18" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA18" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB18" s="12" t="s">
         <v>275</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="H15" s="16" t="s">
-        <v>276</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M15" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="N15" s="16" t="s">
-        <v>145</v>
-      </c>
-      <c r="O15" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="P15" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q15" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="R15" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="S15" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="T15" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="U15" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="V15" s="16" t="s">
-        <v>277</v>
-      </c>
-      <c r="W15" s="16" t="s">
-        <v>154</v>
-      </c>
-      <c r="X15" s="16" t="s">
-        <v>277</v>
-      </c>
-      <c r="Y15" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z15" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="AA15" s="16" t="s">
-        <v>152</v>
-      </c>
-      <c r="AB15" s="16" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="16" spans="1:28">
-      <c r="A16" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E16" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F16" s="16" t="s">
-        <v>278</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="H16" s="16" t="s">
-        <v>276</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="L16" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M16" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="N16" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="O16" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="P16" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q16" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="R16" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="S16" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="T16" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="U16" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="V16" s="16" t="s">
-        <v>277</v>
-      </c>
-      <c r="W16" s="16" t="s">
-        <v>154</v>
-      </c>
-      <c r="X16" s="16" t="s">
-        <v>277</v>
-      </c>
-      <c r="Y16" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z16" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="AA16" s="16" t="s">
-        <v>152</v>
-      </c>
-      <c r="AB16" s="16" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="17" spans="1:28">
-      <c r="A17" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F17" s="16" t="s">
-        <v>281</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="H17" s="16" t="s">
-        <v>276</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="L17" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M17" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="N17" s="16" t="s">
-        <v>147</v>
-      </c>
-      <c r="O17" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="P17" s="16" t="s">
-        <v>279</v>
-      </c>
-      <c r="Q17" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="R17" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="S17" s="16" t="s">
-        <v>280</v>
-      </c>
-      <c r="T17" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="U17" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="V17" s="16" t="s">
-        <v>277</v>
-      </c>
-      <c r="W17" s="16" t="s">
-        <v>282</v>
-      </c>
-      <c r="X17" s="16" t="s">
-        <v>277</v>
-      </c>
-      <c r="Y17" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z17" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA17" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB17" s="16" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:28" s="2" customFormat="1">
-      <c r="A18" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="L18" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M18" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="N18" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="O18" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="P18" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="Q18" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="R18" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="S18" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="T18" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="U18" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="V18" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="W18" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="X18" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="Y18" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z18" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA18" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB18" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:28" s="2" customFormat="1"/>
     <row r="20" spans="1:28">
       <c r="E20" s="1"/>
       <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
       <c r="K20" s="2"/>
+      <c r="L20" s="1"/>
       <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
       <c r="R20" s="2"/>
       <c r="S20" s="2"/>
       <c r="T20" s="2"/>
       <c r="U20" s="1"/>
       <c r="X20" s="2"/>
-      <c r="Y20" s="2"/>
     </row>
     <row r="21" spans="1:28" ht="11.25" customHeight="1">
-      <c r="E21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="K21" s="2"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="R21" s="2"/>
-      <c r="S21" s="2"/>
-      <c r="T21" s="2"/>
-      <c r="U21" s="1"/>
-      <c r="X21" s="2"/>
-      <c r="Z21" s="33" t="s">
+      <c r="E21" s="31" t="s">
+        <v>195</v>
+      </c>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="31"/>
+      <c r="L21" s="31"/>
+      <c r="M21" s="31"/>
+      <c r="N21" s="31"/>
+      <c r="O21" s="31"/>
+      <c r="P21" s="31"/>
+      <c r="Q21" s="31"/>
+      <c r="R21" s="31"/>
+      <c r="S21" s="31"/>
+      <c r="T21" s="31"/>
+      <c r="U21" s="31"/>
+      <c r="V21" s="31"/>
+      <c r="W21" s="31"/>
+      <c r="X21" s="31"/>
+      <c r="Y21" s="31" t="s">
+        <v>233</v>
+      </c>
+      <c r="Z21" s="31"/>
+      <c r="AA21" s="31" t="s">
         <v>234</v>
       </c>
-      <c r="AA21" s="33"/>
-      <c r="AB21" s="33" t="s">
-        <v>235</v>
+      <c r="AB21" s="31" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="22" spans="1:28">
-      <c r="E22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="K22" s="2"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-      <c r="R22" s="2"/>
-      <c r="S22" s="2"/>
-      <c r="T22" s="2"/>
-      <c r="U22" s="1"/>
-      <c r="X22" s="2"/>
-      <c r="Z22" s="33"/>
-      <c r="AA22" s="33"/>
-      <c r="AB22" s="33"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="31"/>
+      <c r="L22" s="31"/>
+      <c r="M22" s="31"/>
+      <c r="N22" s="31"/>
+      <c r="O22" s="31"/>
+      <c r="P22" s="31"/>
+      <c r="Q22" s="31"/>
+      <c r="R22" s="31"/>
+      <c r="S22" s="31"/>
+      <c r="T22" s="31"/>
+      <c r="U22" s="31"/>
+      <c r="V22" s="31"/>
+      <c r="W22" s="31"/>
+      <c r="X22" s="31"/>
+      <c r="Y22" s="31"/>
+      <c r="Z22" s="31"/>
+      <c r="AA22" s="31"/>
+      <c r="AB22" s="31" t="s">
+        <v>300</v>
+      </c>
     </row>
     <row r="23" spans="1:28">
-      <c r="E23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="K23" s="2"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-      <c r="R23" s="2"/>
-      <c r="S23" s="2"/>
-      <c r="T23" s="2"/>
-      <c r="U23" s="1"/>
-      <c r="X23" s="2"/>
-      <c r="Z23" s="33"/>
-      <c r="AA23" s="33"/>
-      <c r="AB23" s="33"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="31"/>
+      <c r="J23" s="31"/>
+      <c r="K23" s="31"/>
+      <c r="L23" s="31"/>
+      <c r="M23" s="31"/>
+      <c r="N23" s="31"/>
+      <c r="O23" s="31"/>
+      <c r="P23" s="31"/>
+      <c r="Q23" s="31"/>
+      <c r="R23" s="31"/>
+      <c r="S23" s="31"/>
+      <c r="T23" s="31"/>
+      <c r="U23" s="31"/>
+      <c r="V23" s="31"/>
+      <c r="W23" s="31"/>
+      <c r="X23" s="31"/>
+      <c r="Y23" s="31"/>
+      <c r="Z23" s="31"/>
+      <c r="AA23" s="31"/>
+      <c r="AB23" s="31"/>
     </row>
     <row r="24" spans="1:28" ht="11.25" customHeight="1">
       <c r="A24" s="27" t="s">
         <v>17</v>
       </c>
       <c r="B24" s="27" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C24" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="D24" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="E24" s="27" t="s">
+        <v>265</v>
+      </c>
+      <c r="F24" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="G24" s="27" t="s">
+        <v>172</v>
+      </c>
+      <c r="H24" s="27" t="s">
+        <v>173</v>
+      </c>
+      <c r="I24" s="27" t="s">
+        <v>191</v>
+      </c>
+      <c r="J24" s="27" t="s">
         <v>175</v>
       </c>
-      <c r="D24" s="27" t="s">
-        <v>175</v>
-      </c>
-      <c r="E24" s="27" t="s">
-        <v>266</v>
-      </c>
-      <c r="F24" s="27" t="s">
-        <v>194</v>
-      </c>
-      <c r="G24" s="27" t="s">
-        <v>173</v>
-      </c>
-      <c r="H24" s="1"/>
-      <c r="I24" s="27" t="s">
-        <v>174</v>
-      </c>
-      <c r="J24" s="27" t="s">
-        <v>192</v>
-      </c>
       <c r="K24" s="27" t="s">
-        <v>176</v>
+        <v>285</v>
       </c>
       <c r="L24" s="27" t="s">
         <v>286</v>
       </c>
-      <c r="M24" s="27" t="s">
+      <c r="M24" s="32" t="s">
+        <v>297</v>
+      </c>
+      <c r="N24" s="52" t="s">
+        <v>291</v>
+      </c>
+      <c r="O24" s="53" t="s">
+        <v>298</v>
+      </c>
+      <c r="P24" s="27" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q24" s="27" t="s">
+        <v>283</v>
+      </c>
+      <c r="R24" s="27" t="s">
         <v>287</v>
       </c>
-      <c r="N24" s="31" t="s">
-        <v>298</v>
-      </c>
-      <c r="O24" s="55" t="s">
+      <c r="S24" s="27" t="s">
+        <v>303</v>
+      </c>
+      <c r="T24" s="27" t="s">
+        <v>288</v>
+      </c>
+      <c r="U24" s="27" t="s">
+        <v>289</v>
+      </c>
+      <c r="V24" s="27" t="s">
         <v>292</v>
       </c>
-      <c r="P24" s="56" t="s">
-        <v>299</v>
-      </c>
-      <c r="Q24" s="27" t="s">
-        <v>300</v>
-      </c>
-      <c r="R24" s="27" t="s">
-        <v>284</v>
-      </c>
-      <c r="S24" s="27" t="s">
-        <v>288</v>
-      </c>
-      <c r="T24" s="27" t="s">
-        <v>289</v>
-      </c>
-      <c r="U24" s="27" t="s">
-        <v>290</v>
-      </c>
-      <c r="V24" s="27" t="s">
+      <c r="W24" s="27" t="s">
         <v>293</v>
       </c>
-      <c r="W24" s="27" t="s">
+      <c r="X24" s="27" t="s">
         <v>294</v>
       </c>
-      <c r="X24" s="27" t="s">
+      <c r="Y24" s="56" t="s">
         <v>295</v>
       </c>
-      <c r="Y24" s="2"/>
-      <c r="Z24" s="49" t="s">
+      <c r="Z24" s="59" t="s">
         <v>296</v>
       </c>
-      <c r="AA24" s="52" t="s">
-        <v>297</v>
-      </c>
-      <c r="AB24" s="31" t="s">
-        <v>236</v>
+      <c r="AA24" s="32" t="s">
+        <v>235</v>
+      </c>
+      <c r="AB24" s="49" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="25" spans="1:28">
@@ -5610,15 +5688,15 @@
       <c r="E25" s="28"/>
       <c r="F25" s="28"/>
       <c r="G25" s="28"/>
-      <c r="H25" s="1"/>
+      <c r="H25" s="28"/>
       <c r="I25" s="28"/>
       <c r="J25" s="28"/>
       <c r="K25" s="28"/>
       <c r="L25" s="28"/>
-      <c r="M25" s="28"/>
-      <c r="N25" s="31"/>
-      <c r="O25" s="55"/>
-      <c r="P25" s="57"/>
+      <c r="M25" s="32"/>
+      <c r="N25" s="52"/>
+      <c r="O25" s="54"/>
+      <c r="P25" s="28"/>
       <c r="Q25" s="28"/>
       <c r="R25" s="28"/>
       <c r="S25" s="28"/>
@@ -5627,10 +5705,10 @@
       <c r="V25" s="28"/>
       <c r="W25" s="28"/>
       <c r="X25" s="28"/>
-      <c r="Y25" s="2"/>
-      <c r="Z25" s="50"/>
-      <c r="AA25" s="53"/>
-      <c r="AB25" s="31"/>
+      <c r="Y25" s="57"/>
+      <c r="Z25" s="60"/>
+      <c r="AA25" s="32"/>
+      <c r="AB25" s="50"/>
     </row>
     <row r="26" spans="1:28">
       <c r="A26" s="28"/>
@@ -5640,15 +5718,15 @@
       <c r="E26" s="28"/>
       <c r="F26" s="28"/>
       <c r="G26" s="28"/>
-      <c r="H26" s="1"/>
+      <c r="H26" s="28"/>
       <c r="I26" s="28"/>
       <c r="J26" s="28"/>
       <c r="K26" s="28"/>
       <c r="L26" s="28"/>
-      <c r="M26" s="28"/>
-      <c r="N26" s="31"/>
-      <c r="O26" s="55"/>
-      <c r="P26" s="57"/>
+      <c r="M26" s="32"/>
+      <c r="N26" s="52"/>
+      <c r="O26" s="54"/>
+      <c r="P26" s="28"/>
       <c r="Q26" s="28"/>
       <c r="R26" s="28"/>
       <c r="S26" s="28"/>
@@ -5657,10 +5735,10 @@
       <c r="V26" s="28"/>
       <c r="W26" s="28"/>
       <c r="X26" s="28"/>
-      <c r="Y26" s="2"/>
-      <c r="Z26" s="50"/>
-      <c r="AA26" s="53"/>
-      <c r="AB26" s="31"/>
+      <c r="Y26" s="57"/>
+      <c r="Z26" s="60"/>
+      <c r="AA26" s="32"/>
+      <c r="AB26" s="50"/>
     </row>
     <row r="27" spans="1:28">
       <c r="A27" s="29"/>
@@ -5670,15 +5748,15 @@
       <c r="E27" s="29"/>
       <c r="F27" s="29"/>
       <c r="G27" s="29"/>
-      <c r="H27" s="1"/>
+      <c r="H27" s="29"/>
       <c r="I27" s="29"/>
       <c r="J27" s="29"/>
       <c r="K27" s="29"/>
       <c r="L27" s="29"/>
-      <c r="M27" s="29"/>
-      <c r="N27" s="31"/>
+      <c r="M27" s="32"/>
+      <c r="N27" s="52"/>
       <c r="O27" s="55"/>
-      <c r="P27" s="58"/>
+      <c r="P27" s="29"/>
       <c r="Q27" s="29"/>
       <c r="R27" s="29"/>
       <c r="S27" s="29"/>
@@ -5687,79 +5765,78 @@
       <c r="V27" s="29"/>
       <c r="W27" s="29"/>
       <c r="X27" s="29"/>
-      <c r="Y27" s="2"/>
-      <c r="Z27" s="50"/>
-      <c r="AA27" s="53"/>
-      <c r="AB27" s="31"/>
+      <c r="Y27" s="57"/>
+      <c r="Z27" s="60"/>
+      <c r="AA27" s="32"/>
+      <c r="AB27" s="50"/>
     </row>
     <row r="28" spans="1:28">
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
-      <c r="H28" s="1"/>
       <c r="K28" s="2"/>
+      <c r="L28" s="1"/>
       <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-      <c r="O28" s="55"/>
+      <c r="N28" s="52"/>
       <c r="R28" s="2"/>
       <c r="S28" s="2"/>
       <c r="T28" s="2"/>
       <c r="U28" s="1"/>
       <c r="X28" s="2"/>
-      <c r="Y28" s="2"/>
-      <c r="Z28" s="50"/>
-      <c r="AA28" s="53"/>
-      <c r="AB28" s="31"/>
+      <c r="Y28" s="57"/>
+      <c r="Z28" s="60"/>
+      <c r="AA28" s="32"/>
+      <c r="AB28" s="50"/>
     </row>
     <row r="29" spans="1:28">
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
-      <c r="H29" s="1"/>
+      <c r="J29" s="17" t="s">
+        <v>170</v>
+      </c>
       <c r="K29" s="17" t="s">
         <v>170</v>
       </c>
-      <c r="L29" s="17" t="s">
-        <v>170</v>
-      </c>
+      <c r="L29" s="1"/>
       <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="55"/>
+      <c r="N29" s="52"/>
       <c r="R29" s="2"/>
-      <c r="S29" s="2"/>
+      <c r="S29" s="17" t="s">
+        <v>304</v>
+      </c>
       <c r="U29" s="17" t="s">
         <v>170</v>
       </c>
       <c r="X29" s="2"/>
-      <c r="Y29" s="2"/>
-      <c r="Z29" s="51"/>
-      <c r="AA29" s="54"/>
-      <c r="AB29" s="31"/>
-    </row>
-    <row r="30" spans="1:28" ht="180">
+      <c r="Y29" s="58"/>
+      <c r="Z29" s="61"/>
+      <c r="AA29" s="32"/>
+      <c r="AB29" s="51"/>
+    </row>
+    <row r="30" spans="1:28" ht="202.5">
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="K30" s="20" t="s">
-        <v>177</v>
-      </c>
-      <c r="L30" s="26" t="s">
-        <v>285</v>
-      </c>
+      <c r="J30" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="K30" s="24" t="s">
+        <v>284</v>
+      </c>
+      <c r="L30" s="1"/>
       <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="55"/>
+      <c r="N30" s="52"/>
       <c r="R30" s="2"/>
-      <c r="S30" s="2"/>
+      <c r="S30" s="25" t="s">
+        <v>305</v>
+      </c>
       <c r="U30" s="20" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="X30" s="2"/>
-      <c r="Y30" s="2"/>
     </row>
     <row r="31" spans="1:28">
       <c r="E31" s="1"/>
       <c r="K31" s="2"/>
       <c r="L31" s="1"/>
-      <c r="R31" s="2"/>
       <c r="U31" s="1"/>
       <c r="V31" s="2"/>
     </row>
@@ -5767,43 +5844,214 @@
       <c r="E32" s="1"/>
       <c r="K32" s="2"/>
       <c r="L32" s="1"/>
-      <c r="R32" s="2"/>
-      <c r="U32" s="1"/>
-      <c r="V32" s="2"/>
+    </row>
+    <row r="33" spans="17:21">
+      <c r="Q33" s="1"/>
+      <c r="T33" s="2"/>
+      <c r="U33" s="1"/>
+    </row>
+    <row r="34" spans="17:21">
+      <c r="Q34" s="1"/>
+      <c r="T34" s="2"/>
+      <c r="U34" s="1"/>
+    </row>
+    <row r="35" spans="17:21">
+      <c r="Q35" s="1"/>
+      <c r="T35" s="2"/>
+      <c r="U35" s="1"/>
+    </row>
+    <row r="36" spans="17:21">
+      <c r="Q36" s="1"/>
+      <c r="T36" s="2"/>
+      <c r="U36" s="1"/>
+    </row>
+    <row r="37" spans="17:21">
+      <c r="Q37" s="1"/>
+      <c r="T37" s="2"/>
+      <c r="U37" s="1"/>
+    </row>
+    <row r="38" spans="17:21">
+      <c r="Q38" s="1"/>
+      <c r="T38" s="2"/>
+      <c r="U38" s="1"/>
+    </row>
+    <row r="39" spans="17:21">
+      <c r="Q39" s="1"/>
+      <c r="T39" s="2"/>
+      <c r="U39" s="1"/>
+    </row>
+    <row r="40" spans="17:21">
+      <c r="Q40" s="1"/>
+      <c r="T40" s="2"/>
+      <c r="U40" s="1"/>
+    </row>
+    <row r="41" spans="17:21">
+      <c r="Q41" s="1"/>
+      <c r="T41" s="2"/>
+      <c r="U41" s="1"/>
+    </row>
+    <row r="42" spans="17:21">
+      <c r="Q42" s="1"/>
+      <c r="T42" s="2"/>
+      <c r="U42" s="1"/>
+    </row>
+    <row r="43" spans="17:21">
+      <c r="Q43" s="1"/>
+      <c r="T43" s="2"/>
+      <c r="U43" s="1"/>
+    </row>
+    <row r="44" spans="17:21">
+      <c r="Q44" s="1"/>
+      <c r="T44" s="2"/>
+      <c r="U44" s="1"/>
+    </row>
+    <row r="45" spans="17:21">
+      <c r="Q45" s="1"/>
+      <c r="T45" s="2"/>
+      <c r="U45" s="1"/>
+    </row>
+    <row r="46" spans="17:21">
+      <c r="Q46" s="1"/>
+      <c r="T46" s="2"/>
+      <c r="U46" s="1"/>
+    </row>
+    <row r="47" spans="17:21">
+      <c r="Q47" s="1"/>
+      <c r="T47" s="2"/>
+      <c r="U47" s="1"/>
+    </row>
+    <row r="48" spans="17:21">
+      <c r="Q48" s="1"/>
+      <c r="T48" s="2"/>
+      <c r="U48" s="1"/>
+    </row>
+    <row r="49" spans="17:21">
+      <c r="Q49" s="1"/>
+      <c r="T49" s="2"/>
+      <c r="U49" s="1"/>
+    </row>
+    <row r="50" spans="17:21">
+      <c r="Q50" s="1"/>
+      <c r="T50" s="2"/>
+      <c r="U50" s="1"/>
+    </row>
+    <row r="51" spans="17:21">
+      <c r="Q51" s="1"/>
+      <c r="T51" s="2"/>
+      <c r="U51" s="1"/>
+    </row>
+    <row r="52" spans="17:21">
+      <c r="Q52" s="1"/>
+      <c r="T52" s="2"/>
+      <c r="U52" s="1"/>
+    </row>
+    <row r="53" spans="17:21">
+      <c r="Q53" s="1"/>
+      <c r="T53" s="2"/>
+      <c r="U53" s="1"/>
+    </row>
+    <row r="54" spans="17:21">
+      <c r="Q54" s="1"/>
+      <c r="T54" s="2"/>
+      <c r="U54" s="1"/>
+    </row>
+    <row r="55" spans="17:21">
+      <c r="Q55" s="1"/>
+      <c r="T55" s="2"/>
+      <c r="U55" s="1"/>
+    </row>
+    <row r="56" spans="17:21">
+      <c r="Q56" s="1"/>
+      <c r="T56" s="2"/>
+      <c r="U56" s="1"/>
+    </row>
+    <row r="57" spans="17:21">
+      <c r="Q57" s="1"/>
+      <c r="T57" s="2"/>
+      <c r="U57" s="1"/>
+    </row>
+    <row r="58" spans="17:21">
+      <c r="Q58" s="1"/>
+      <c r="T58" s="2"/>
+      <c r="U58" s="1"/>
+    </row>
+    <row r="59" spans="17:21">
+      <c r="Q59" s="1"/>
+      <c r="T59" s="2"/>
+      <c r="U59" s="1"/>
+    </row>
+    <row r="60" spans="17:21">
+      <c r="Q60" s="1"/>
+      <c r="T60" s="2"/>
+      <c r="U60" s="1"/>
+    </row>
+    <row r="61" spans="17:21">
+      <c r="Q61" s="1"/>
+      <c r="T61" s="2"/>
+      <c r="U61" s="1"/>
+    </row>
+    <row r="62" spans="17:21">
+      <c r="Q62" s="1"/>
+      <c r="T62" s="2"/>
+      <c r="U62" s="1"/>
+    </row>
+    <row r="63" spans="17:21">
+      <c r="Q63" s="1"/>
+      <c r="T63" s="2"/>
+      <c r="U63" s="1"/>
+    </row>
+    <row r="64" spans="17:21">
+      <c r="Q64" s="1"/>
+      <c r="T64" s="2"/>
+      <c r="U64" s="1"/>
+    </row>
+    <row r="65" spans="17:21">
+      <c r="Q65" s="1"/>
+      <c r="T65" s="2"/>
+      <c r="U65" s="1"/>
+    </row>
+    <row r="66" spans="17:21">
+      <c r="Q66" s="1"/>
+      <c r="T66" s="2"/>
+      <c r="U66" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="31">
-    <mergeCell ref="E24:E27"/>
+  <mergeCells count="35">
+    <mergeCell ref="D24:D27"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="X24:X27"/>
+    <mergeCell ref="F24:F27"/>
+    <mergeCell ref="I24:I27"/>
+    <mergeCell ref="N24:N30"/>
+    <mergeCell ref="T24:T27"/>
+    <mergeCell ref="U24:U27"/>
+    <mergeCell ref="M24:M27"/>
+    <mergeCell ref="P24:P27"/>
+    <mergeCell ref="Q24:Q27"/>
+    <mergeCell ref="J24:J27"/>
+    <mergeCell ref="K24:K27"/>
+    <mergeCell ref="L24:L27"/>
+    <mergeCell ref="R24:R27"/>
+    <mergeCell ref="G24:G27"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="B24:B27"/>
     <mergeCell ref="C24:C27"/>
-    <mergeCell ref="D24:D27"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="G24:G27"/>
-    <mergeCell ref="I24:I27"/>
-    <mergeCell ref="P24:P27"/>
+    <mergeCell ref="AB21:AB23"/>
+    <mergeCell ref="AB24:AB29"/>
+    <mergeCell ref="S24:S27"/>
+    <mergeCell ref="E21:X23"/>
     <mergeCell ref="V24:V27"/>
     <mergeCell ref="W24:W27"/>
-    <mergeCell ref="X24:X27"/>
-    <mergeCell ref="F24:F27"/>
-    <mergeCell ref="J24:J27"/>
-    <mergeCell ref="O24:O30"/>
-    <mergeCell ref="T24:T27"/>
-    <mergeCell ref="U24:U27"/>
-    <mergeCell ref="N24:N27"/>
-    <mergeCell ref="Q24:Q27"/>
-    <mergeCell ref="R24:R27"/>
-    <mergeCell ref="K24:K27"/>
-    <mergeCell ref="L24:L27"/>
-    <mergeCell ref="M24:M27"/>
-    <mergeCell ref="S24:S27"/>
-    <mergeCell ref="Z21:AA23"/>
+    <mergeCell ref="E24:E27"/>
+    <mergeCell ref="H24:H27"/>
+    <mergeCell ref="O24:O27"/>
+    <mergeCell ref="Y21:Z23"/>
+    <mergeCell ref="Y24:Y29"/>
     <mergeCell ref="Z24:Z29"/>
     <mergeCell ref="AA24:AA29"/>
-    <mergeCell ref="AB24:AB29"/>
-    <mergeCell ref="AB21:AB23"/>
+    <mergeCell ref="AA21:AA23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -5815,10 +6063,10 @@
   <sheetPr>
     <tabColor rgb="FFFA7E7E"/>
   </sheetPr>
-  <dimension ref="A2:H16"/>
+  <dimension ref="A2:H19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -6134,6 +6382,11 @@
       </c>
       <c r="H16" s="2" t="s">
         <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="5:5">
+      <c r="E19" s="2" t="s">
+        <v>307</v>
       </c>
     </row>
   </sheetData>

--- a/Documentação/Planilhas/Conferencia_CAR.xlsx
+++ b/Documentação/Planilhas/Conferencia_CAR.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" tabRatio="812" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" tabRatio="812" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Resumo" sheetId="93" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1089" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="316">
   <si>
     <t>1</t>
   </si>
@@ -1007,7 +1007,31 @@
     <t>tfacr2520m000, tfcmg0511m000, tfcmg0510m000 e tfacr2523m000</t>
   </si>
   <si>
-    <t>tfacr2520m000</t>
+    <t>No cabeçalho da tela, pegar a informação do Lote de Cobrança</t>
+  </si>
+  <si>
+    <t>Pegar a quarta informação da coluna Documento</t>
+  </si>
+  <si>
+    <t>Digitar a informação na primeira e segunda coluna do campo Documento e ir navegando com a seta "Next Group" até encontrar o registro desejado</t>
+  </si>
+  <si>
+    <t>Pedir o detalhamento do registro desejado. Na aba "Detalhes do Banco" , pegar a informação "Metodo pgto/rec."</t>
+  </si>
+  <si>
+    <t>no menu Specific, selecionar "Programações de Recebimentos". Pegar a informação da coluna "Data Prevista Recebto"</t>
+  </si>
+  <si>
+    <t>no menu Specific, selecionar "Programações de Recebimentos". Pegar a informação da coluna "Status do Recebimento"</t>
+  </si>
+  <si>
+    <t>Sessão tfcmg4501m000</t>
+  </si>
+  <si>
+    <t>Sessão tfacr2520m000 [No menu "Mostrar", selecionar "Incluir totalmente pago"]</t>
+  </si>
+  <si>
+    <t>tfcmg4501m000, tfacr2520m000</t>
   </si>
 </sst>
 </file>
@@ -1485,9 +1509,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1513,6 +1534,9 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5634,10 +5658,10 @@
       <c r="M24" s="32" t="s">
         <v>297</v>
       </c>
-      <c r="N24" s="52" t="s">
+      <c r="N24" s="61" t="s">
         <v>291</v>
       </c>
-      <c r="O24" s="53" t="s">
+      <c r="O24" s="52" t="s">
         <v>298</v>
       </c>
       <c r="P24" s="27" t="s">
@@ -5667,10 +5691,10 @@
       <c r="X24" s="27" t="s">
         <v>294</v>
       </c>
-      <c r="Y24" s="56" t="s">
+      <c r="Y24" s="55" t="s">
         <v>295</v>
       </c>
-      <c r="Z24" s="59" t="s">
+      <c r="Z24" s="58" t="s">
         <v>296</v>
       </c>
       <c r="AA24" s="32" t="s">
@@ -5694,8 +5718,8 @@
       <c r="K25" s="28"/>
       <c r="L25" s="28"/>
       <c r="M25" s="32"/>
-      <c r="N25" s="52"/>
-      <c r="O25" s="54"/>
+      <c r="N25" s="61"/>
+      <c r="O25" s="53"/>
       <c r="P25" s="28"/>
       <c r="Q25" s="28"/>
       <c r="R25" s="28"/>
@@ -5705,8 +5729,8 @@
       <c r="V25" s="28"/>
       <c r="W25" s="28"/>
       <c r="X25" s="28"/>
-      <c r="Y25" s="57"/>
-      <c r="Z25" s="60"/>
+      <c r="Y25" s="56"/>
+      <c r="Z25" s="59"/>
       <c r="AA25" s="32"/>
       <c r="AB25" s="50"/>
     </row>
@@ -5724,8 +5748,8 @@
       <c r="K26" s="28"/>
       <c r="L26" s="28"/>
       <c r="M26" s="32"/>
-      <c r="N26" s="52"/>
-      <c r="O26" s="54"/>
+      <c r="N26" s="61"/>
+      <c r="O26" s="53"/>
       <c r="P26" s="28"/>
       <c r="Q26" s="28"/>
       <c r="R26" s="28"/>
@@ -5735,8 +5759,8 @@
       <c r="V26" s="28"/>
       <c r="W26" s="28"/>
       <c r="X26" s="28"/>
-      <c r="Y26" s="57"/>
-      <c r="Z26" s="60"/>
+      <c r="Y26" s="56"/>
+      <c r="Z26" s="59"/>
       <c r="AA26" s="32"/>
       <c r="AB26" s="50"/>
     </row>
@@ -5754,8 +5778,8 @@
       <c r="K27" s="29"/>
       <c r="L27" s="29"/>
       <c r="M27" s="32"/>
-      <c r="N27" s="52"/>
-      <c r="O27" s="55"/>
+      <c r="N27" s="61"/>
+      <c r="O27" s="54"/>
       <c r="P27" s="29"/>
       <c r="Q27" s="29"/>
       <c r="R27" s="29"/>
@@ -5765,8 +5789,8 @@
       <c r="V27" s="29"/>
       <c r="W27" s="29"/>
       <c r="X27" s="29"/>
-      <c r="Y27" s="57"/>
-      <c r="Z27" s="60"/>
+      <c r="Y27" s="56"/>
+      <c r="Z27" s="59"/>
       <c r="AA27" s="32"/>
       <c r="AB27" s="50"/>
     </row>
@@ -5776,14 +5800,14 @@
       <c r="K28" s="2"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
-      <c r="N28" s="52"/>
+      <c r="N28" s="61"/>
       <c r="R28" s="2"/>
       <c r="S28" s="2"/>
       <c r="T28" s="2"/>
       <c r="U28" s="1"/>
       <c r="X28" s="2"/>
-      <c r="Y28" s="57"/>
-      <c r="Z28" s="60"/>
+      <c r="Y28" s="56"/>
+      <c r="Z28" s="59"/>
       <c r="AA28" s="32"/>
       <c r="AB28" s="50"/>
     </row>
@@ -5798,7 +5822,7 @@
       </c>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
-      <c r="N29" s="52"/>
+      <c r="N29" s="61"/>
       <c r="R29" s="2"/>
       <c r="S29" s="17" t="s">
         <v>304</v>
@@ -5807,8 +5831,8 @@
         <v>170</v>
       </c>
       <c r="X29" s="2"/>
-      <c r="Y29" s="58"/>
-      <c r="Z29" s="61"/>
+      <c r="Y29" s="57"/>
+      <c r="Z29" s="60"/>
       <c r="AA29" s="32"/>
       <c r="AB29" s="51"/>
     </row>
@@ -5823,7 +5847,7 @@
       </c>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
-      <c r="N30" s="52"/>
+      <c r="N30" s="61"/>
       <c r="R30" s="2"/>
       <c r="S30" s="25" t="s">
         <v>305</v>
@@ -6063,22 +6087,22 @@
   <sheetPr>
     <tabColor rgb="FFFA7E7E"/>
   </sheetPr>
-  <dimension ref="A2:H19"/>
+  <dimension ref="A2:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
     <col min="1" max="1" width="20.42578125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="22" style="2" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="21.5703125" style="2" customWidth="1"/>
     <col min="4" max="4" width="22.5703125" style="2" customWidth="1"/>
     <col min="5" max="5" width="23.28515625" style="2" customWidth="1"/>
     <col min="6" max="6" width="21.5703125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="18.7109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="30.140625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="25.28515625" style="2" customWidth="1"/>
     <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -6096,303 +6120,405 @@
         <v>15</v>
       </c>
       <c r="B3" s="30"/>
-      <c r="C3" s="3"/>
+      <c r="C3" s="3" t="s">
+        <v>315</v>
+      </c>
     </row>
     <row r="6" spans="1:8" s="13" customFormat="1">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="C6" s="14" t="s">
         <v>24</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>25</v>
       </c>
       <c r="D6" s="14" t="s">
         <v>107</v>
       </c>
       <c r="E6" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="F6" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="G6" s="14" t="s">
+      <c r="H6" s="14" t="s">
         <v>157</v>
-      </c>
-      <c r="H6" s="15" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E7" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="G7" s="2" t="s">
+      <c r="H7" s="2" t="s">
         <v>1</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>161</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E8" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="G8" s="2" t="s">
+      <c r="H8" s="2" t="s">
         <v>1</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>87</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E9" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="G9" s="2" t="s">
+      <c r="H9" s="2" t="s">
         <v>1</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>87</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E10" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="G10" s="2" t="s">
+      <c r="H10" s="2" t="s">
         <v>1</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>87</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E11" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="G11" s="2" t="s">
+      <c r="H11" s="2" t="s">
         <v>1</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>87</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E12" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="G12" s="2" t="s">
+      <c r="H12" s="2" t="s">
         <v>1</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>87</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E13" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G13" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="F13" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="G13" s="2" t="s">
+      <c r="H13" s="2" t="s">
         <v>1</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>87</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E14" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G14" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="G14" s="2" t="s">
+      <c r="H14" s="2" t="s">
         <v>1</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>87</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E15" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G15" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="F15" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="G15" s="2" t="s">
+      <c r="H15" s="2" t="s">
         <v>1</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>87</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>124</v>
       </c>
       <c r="E16" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G16" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="F16" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="G16" s="2" t="s">
+      <c r="H16" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H16" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="19" spans="5:5">
-      <c r="E19" s="2" t="s">
+    </row>
+    <row r="19" spans="1:8">
+      <c r="B19" s="31" t="s">
+        <v>313</v>
+      </c>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="G19" s="31" t="s">
+        <v>314</v>
+      </c>
+      <c r="H19" s="31"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="B20" s="31"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="B21" s="31"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="31"/>
+    </row>
+    <row r="22" spans="1:8" ht="11.25" customHeight="1">
+      <c r="A22" s="45" t="s">
+        <v>174</v>
+      </c>
+      <c r="B22" s="27" t="s">
+        <v>309</v>
+      </c>
+      <c r="C22" s="27" t="s">
         <v>307</v>
       </c>
+      <c r="D22" s="27" t="s">
+        <v>308</v>
+      </c>
+      <c r="E22" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27" t="s">
+        <v>311</v>
+      </c>
+      <c r="H22" s="27" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="46"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="47"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="B25" s="28"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="29"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="B26" s="29"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="H27" s="17" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="101.25">
+      <c r="G28" s="16"/>
+      <c r="H28" s="18" t="s">
+        <v>186</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="12">
+    <mergeCell ref="H22:H25"/>
+    <mergeCell ref="B19:E21"/>
+    <mergeCell ref="G19:H21"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="F22:F25"/>
+    <mergeCell ref="D22:D25"/>
+    <mergeCell ref="E22:E25"/>
+    <mergeCell ref="G22:G25"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="B22:B26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Documentação/Planilhas/Conferencia_CAR.xlsx
+++ b/Documentação/Planilhas/Conferencia_CAR.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" tabRatio="812" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" tabRatio="812" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Resumo" sheetId="93" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1103" uniqueCount="319">
   <si>
     <t>1</t>
   </si>
@@ -1032,6 +1032,15 @@
   </si>
   <si>
     <t>tfcmg4501m000, tfacr2520m000</t>
+  </si>
+  <si>
+    <t>Sessão tfcmg4521m000</t>
+  </si>
+  <si>
+    <t>Não tenho permissão  de acesso</t>
+  </si>
+  <si>
+    <t>Pegar a informação do Lote Criado em</t>
   </si>
 </sst>
 </file>
@@ -1085,7 +1094,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1113,6 +1122,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFA7E7E"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1368,7 +1383,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1446,11 +1461,29 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1482,22 +1515,7 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1536,8 +1554,17 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1548,8 +1575,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFA7E7E"/>
       <color rgb="FFFFFFCC"/>
-      <color rgb="FFFA7E7E"/>
       <color rgb="FFCCECFF"/>
       <color rgb="FFFF5050"/>
     </mruColors>
@@ -1918,7 +1945,7 @@
   </sheetPr>
   <dimension ref="A2:AG22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
@@ -2345,17 +2372,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="C19:C22"/>
     <mergeCell ref="I19:I22"/>
     <mergeCell ref="D19:D22"/>
     <mergeCell ref="E19:E22"/>
     <mergeCell ref="F19:F22"/>
     <mergeCell ref="G19:G22"/>
     <mergeCell ref="H19:H22"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="C19:C22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -2917,14 +2944,14 @@
       </c>
     </row>
     <row r="4" spans="1:31" ht="21">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="48" t="s">
         <v>184</v>
       </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
       <c r="G4" s="1"/>
       <c r="P4" s="19"/>
       <c r="AB4" s="2"/>
@@ -4005,102 +4032,102 @@
     <row r="20" spans="1:31" ht="11.25" customHeight="1">
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
-      <c r="F20" s="33" t="s">
+      <c r="F20" s="39" t="s">
         <v>195</v>
       </c>
-      <c r="G20" s="34"/>
-      <c r="H20" s="34"/>
-      <c r="I20" s="34"/>
-      <c r="J20" s="34"/>
-      <c r="K20" s="34"/>
-      <c r="L20" s="34"/>
-      <c r="M20" s="34"/>
-      <c r="N20" s="34"/>
-      <c r="O20" s="34"/>
-      <c r="P20" s="34"/>
-      <c r="Q20" s="34"/>
-      <c r="R20" s="34"/>
-      <c r="S20" s="34"/>
-      <c r="T20" s="34"/>
-      <c r="U20" s="34"/>
-      <c r="V20" s="34"/>
-      <c r="W20" s="34"/>
-      <c r="X20" s="34"/>
-      <c r="Y20" s="34"/>
-      <c r="Z20" s="35"/>
-      <c r="AA20" s="31" t="s">
+      <c r="G20" s="40"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="40"/>
+      <c r="L20" s="40"/>
+      <c r="M20" s="40"/>
+      <c r="N20" s="40"/>
+      <c r="O20" s="40"/>
+      <c r="P20" s="40"/>
+      <c r="Q20" s="40"/>
+      <c r="R20" s="40"/>
+      <c r="S20" s="40"/>
+      <c r="T20" s="40"/>
+      <c r="U20" s="40"/>
+      <c r="V20" s="40"/>
+      <c r="W20" s="40"/>
+      <c r="X20" s="40"/>
+      <c r="Y20" s="40"/>
+      <c r="Z20" s="41"/>
+      <c r="AA20" s="33" t="s">
         <v>229</v>
       </c>
-      <c r="AB20" s="31" t="s">
+      <c r="AB20" s="33" t="s">
         <v>233</v>
       </c>
-      <c r="AC20" s="44"/>
-      <c r="AD20" s="31" t="s">
+      <c r="AC20" s="34"/>
+      <c r="AD20" s="33" t="s">
         <v>234</v>
       </c>
-      <c r="AE20" s="31" t="s">
+      <c r="AE20" s="33" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="21" spans="1:31" ht="11.25" customHeight="1">
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="37"/>
-      <c r="J21" s="37"/>
-      <c r="K21" s="37"/>
-      <c r="L21" s="37"/>
-      <c r="M21" s="37"/>
-      <c r="N21" s="37"/>
-      <c r="O21" s="37"/>
-      <c r="P21" s="37"/>
-      <c r="Q21" s="37"/>
-      <c r="R21" s="37"/>
-      <c r="S21" s="37"/>
-      <c r="T21" s="37"/>
-      <c r="U21" s="37"/>
-      <c r="V21" s="37"/>
-      <c r="W21" s="37"/>
-      <c r="X21" s="37"/>
-      <c r="Y21" s="37"/>
-      <c r="Z21" s="38"/>
-      <c r="AA21" s="31"/>
-      <c r="AB21" s="44"/>
-      <c r="AC21" s="44"/>
-      <c r="AD21" s="31"/>
-      <c r="AE21" s="31"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="43"/>
+      <c r="J21" s="43"/>
+      <c r="K21" s="43"/>
+      <c r="L21" s="43"/>
+      <c r="M21" s="43"/>
+      <c r="N21" s="43"/>
+      <c r="O21" s="43"/>
+      <c r="P21" s="43"/>
+      <c r="Q21" s="43"/>
+      <c r="R21" s="43"/>
+      <c r="S21" s="43"/>
+      <c r="T21" s="43"/>
+      <c r="U21" s="43"/>
+      <c r="V21" s="43"/>
+      <c r="W21" s="43"/>
+      <c r="X21" s="43"/>
+      <c r="Y21" s="43"/>
+      <c r="Z21" s="44"/>
+      <c r="AA21" s="33"/>
+      <c r="AB21" s="34"/>
+      <c r="AC21" s="34"/>
+      <c r="AD21" s="33"/>
+      <c r="AE21" s="33"/>
     </row>
     <row r="22" spans="1:31" ht="11.25" customHeight="1">
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="40"/>
-      <c r="H22" s="40"/>
-      <c r="I22" s="40"/>
-      <c r="J22" s="40"/>
-      <c r="K22" s="40"/>
-      <c r="L22" s="40"/>
-      <c r="M22" s="40"/>
-      <c r="N22" s="40"/>
-      <c r="O22" s="40"/>
-      <c r="P22" s="40"/>
-      <c r="Q22" s="40"/>
-      <c r="R22" s="40"/>
-      <c r="S22" s="40"/>
-      <c r="T22" s="40"/>
-      <c r="U22" s="40"/>
-      <c r="V22" s="40"/>
-      <c r="W22" s="40"/>
-      <c r="X22" s="40"/>
-      <c r="Y22" s="40"/>
-      <c r="Z22" s="41"/>
-      <c r="AA22" s="31"/>
-      <c r="AB22" s="44"/>
-      <c r="AC22" s="44"/>
-      <c r="AD22" s="31"/>
-      <c r="AE22" s="31"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="46"/>
+      <c r="H22" s="46"/>
+      <c r="I22" s="46"/>
+      <c r="J22" s="46"/>
+      <c r="K22" s="46"/>
+      <c r="L22" s="46"/>
+      <c r="M22" s="46"/>
+      <c r="N22" s="46"/>
+      <c r="O22" s="46"/>
+      <c r="P22" s="46"/>
+      <c r="Q22" s="46"/>
+      <c r="R22" s="46"/>
+      <c r="S22" s="46"/>
+      <c r="T22" s="46"/>
+      <c r="U22" s="46"/>
+      <c r="V22" s="46"/>
+      <c r="W22" s="46"/>
+      <c r="X22" s="46"/>
+      <c r="Y22" s="46"/>
+      <c r="Z22" s="47"/>
+      <c r="AA22" s="33"/>
+      <c r="AB22" s="34"/>
+      <c r="AC22" s="34"/>
+      <c r="AD22" s="33"/>
+      <c r="AE22" s="33"/>
     </row>
     <row r="23" spans="1:31" ht="11.25" customHeight="1">
       <c r="A23" s="27" t="s">
@@ -4178,22 +4205,22 @@
       <c r="Y23" s="27" t="s">
         <v>192</v>
       </c>
-      <c r="Z23" s="45" t="s">
+      <c r="Z23" s="35" t="s">
         <v>262</v>
       </c>
-      <c r="AA23" s="48" t="s">
+      <c r="AA23" s="38" t="s">
         <v>230</v>
       </c>
-      <c r="AB23" s="32" t="s">
+      <c r="AB23" s="31" t="s">
         <v>231</v>
       </c>
-      <c r="AC23" s="32" t="s">
+      <c r="AC23" s="31" t="s">
         <v>232</v>
       </c>
-      <c r="AD23" s="32" t="s">
+      <c r="AD23" s="31" t="s">
         <v>235</v>
       </c>
-      <c r="AE23" s="32" t="s">
+      <c r="AE23" s="31" t="s">
         <v>264</v>
       </c>
     </row>
@@ -4223,12 +4250,12 @@
       <c r="W24" s="28"/>
       <c r="X24" s="28"/>
       <c r="Y24" s="28"/>
-      <c r="Z24" s="46"/>
-      <c r="AA24" s="48"/>
-      <c r="AB24" s="32"/>
-      <c r="AC24" s="32"/>
-      <c r="AD24" s="32"/>
-      <c r="AE24" s="32"/>
+      <c r="Z24" s="36"/>
+      <c r="AA24" s="38"/>
+      <c r="AB24" s="31"/>
+      <c r="AC24" s="31"/>
+      <c r="AD24" s="31"/>
+      <c r="AE24" s="31"/>
     </row>
     <row r="25" spans="1:31">
       <c r="A25" s="28"/>
@@ -4256,12 +4283,12 @@
       <c r="W25" s="28"/>
       <c r="X25" s="28"/>
       <c r="Y25" s="28"/>
-      <c r="Z25" s="46"/>
-      <c r="AA25" s="48"/>
-      <c r="AB25" s="32"/>
-      <c r="AC25" s="32"/>
-      <c r="AD25" s="32"/>
-      <c r="AE25" s="32"/>
+      <c r="Z25" s="36"/>
+      <c r="AA25" s="38"/>
+      <c r="AB25" s="31"/>
+      <c r="AC25" s="31"/>
+      <c r="AD25" s="31"/>
+      <c r="AE25" s="31"/>
     </row>
     <row r="26" spans="1:31">
       <c r="A26" s="29"/>
@@ -4289,12 +4316,12 @@
       <c r="W26" s="29"/>
       <c r="X26" s="29"/>
       <c r="Y26" s="29"/>
-      <c r="Z26" s="47"/>
-      <c r="AA26" s="48"/>
-      <c r="AB26" s="32"/>
-      <c r="AC26" s="32"/>
-      <c r="AD26" s="32"/>
-      <c r="AE26" s="32"/>
+      <c r="Z26" s="37"/>
+      <c r="AA26" s="38"/>
+      <c r="AB26" s="31"/>
+      <c r="AC26" s="31"/>
+      <c r="AD26" s="31"/>
+      <c r="AE26" s="31"/>
     </row>
     <row r="27" spans="1:31">
       <c r="D27" s="1"/>
@@ -4306,10 +4333,10 @@
       <c r="R27" s="1"/>
       <c r="S27" s="2"/>
       <c r="V27" s="2"/>
-      <c r="AA27" s="48"/>
-      <c r="AB27" s="32"/>
-      <c r="AC27" s="32"/>
-      <c r="AD27" s="32"/>
+      <c r="AA27" s="38"/>
+      <c r="AB27" s="31"/>
+      <c r="AC27" s="31"/>
+      <c r="AD27" s="31"/>
     </row>
     <row r="28" spans="1:31">
       <c r="D28" s="1"/>
@@ -4327,10 +4354,10 @@
       <c r="X28" s="17" t="s">
         <v>170</v>
       </c>
-      <c r="AA28" s="48"/>
-      <c r="AB28" s="32"/>
-      <c r="AC28" s="32"/>
-      <c r="AD28" s="43"/>
+      <c r="AA28" s="38"/>
+      <c r="AB28" s="31"/>
+      <c r="AC28" s="31"/>
+      <c r="AD28" s="32"/>
       <c r="AE28" s="17" t="s">
         <v>170</v>
       </c>
@@ -4353,7 +4380,7 @@
         <v>186</v>
       </c>
       <c r="Z29" s="21"/>
-      <c r="AA29" s="48"/>
+      <c r="AA29" s="38"/>
       <c r="AB29" s="22"/>
       <c r="AC29" s="2"/>
       <c r="AD29" s="2"/>
@@ -4363,21 +4390,14 @@
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="AD23:AD28"/>
-    <mergeCell ref="AB20:AC22"/>
-    <mergeCell ref="AD20:AD22"/>
-    <mergeCell ref="W23:W26"/>
-    <mergeCell ref="I23:I26"/>
-    <mergeCell ref="L23:L26"/>
-    <mergeCell ref="J23:J26"/>
-    <mergeCell ref="K23:K26"/>
-    <mergeCell ref="M23:M26"/>
-    <mergeCell ref="Y23:Y26"/>
-    <mergeCell ref="Z23:Z26"/>
-    <mergeCell ref="AA20:AA22"/>
-    <mergeCell ref="AA23:AA29"/>
-    <mergeCell ref="AB23:AB28"/>
-    <mergeCell ref="AC23:AC28"/>
+    <mergeCell ref="D23:D26"/>
+    <mergeCell ref="R23:R26"/>
+    <mergeCell ref="O23:O26"/>
+    <mergeCell ref="V23:V26"/>
+    <mergeCell ref="N23:N26"/>
+    <mergeCell ref="S23:S26"/>
+    <mergeCell ref="E23:E26"/>
+    <mergeCell ref="H23:H26"/>
     <mergeCell ref="AE20:AE22"/>
     <mergeCell ref="AE23:AE26"/>
     <mergeCell ref="F20:Z22"/>
@@ -4394,14 +4414,21 @@
     <mergeCell ref="T23:T26"/>
     <mergeCell ref="U23:U26"/>
     <mergeCell ref="B23:B26"/>
-    <mergeCell ref="D23:D26"/>
-    <mergeCell ref="R23:R26"/>
-    <mergeCell ref="O23:O26"/>
-    <mergeCell ref="V23:V26"/>
-    <mergeCell ref="N23:N26"/>
-    <mergeCell ref="S23:S26"/>
-    <mergeCell ref="E23:E26"/>
-    <mergeCell ref="H23:H26"/>
+    <mergeCell ref="AD23:AD28"/>
+    <mergeCell ref="AB20:AC22"/>
+    <mergeCell ref="AD20:AD22"/>
+    <mergeCell ref="W23:W26"/>
+    <mergeCell ref="I23:I26"/>
+    <mergeCell ref="L23:L26"/>
+    <mergeCell ref="J23:J26"/>
+    <mergeCell ref="K23:K26"/>
+    <mergeCell ref="M23:M26"/>
+    <mergeCell ref="Y23:Y26"/>
+    <mergeCell ref="Z23:Z26"/>
+    <mergeCell ref="AA20:AA22"/>
+    <mergeCell ref="AA23:AA29"/>
+    <mergeCell ref="AB23:AB28"/>
+    <mergeCell ref="AC23:AC28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -4472,14 +4499,14 @@
       </c>
     </row>
     <row r="4" spans="1:28" ht="21">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="48" t="s">
         <v>184</v>
       </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
       <c r="G4" s="1"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="19"/>
@@ -5531,92 +5558,92 @@
       <c r="X20" s="2"/>
     </row>
     <row r="21" spans="1:28" ht="11.25" customHeight="1">
-      <c r="E21" s="31" t="s">
+      <c r="E21" s="33" t="s">
         <v>195</v>
       </c>
-      <c r="F21" s="31"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="31"/>
-      <c r="J21" s="31"/>
-      <c r="K21" s="31"/>
-      <c r="L21" s="31"/>
-      <c r="M21" s="31"/>
-      <c r="N21" s="31"/>
-      <c r="O21" s="31"/>
-      <c r="P21" s="31"/>
-      <c r="Q21" s="31"/>
-      <c r="R21" s="31"/>
-      <c r="S21" s="31"/>
-      <c r="T21" s="31"/>
-      <c r="U21" s="31"/>
-      <c r="V21" s="31"/>
-      <c r="W21" s="31"/>
-      <c r="X21" s="31"/>
-      <c r="Y21" s="31" t="s">
+      <c r="F21" s="33"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="33"/>
+      <c r="J21" s="33"/>
+      <c r="K21" s="33"/>
+      <c r="L21" s="33"/>
+      <c r="M21" s="33"/>
+      <c r="N21" s="33"/>
+      <c r="O21" s="33"/>
+      <c r="P21" s="33"/>
+      <c r="Q21" s="33"/>
+      <c r="R21" s="33"/>
+      <c r="S21" s="33"/>
+      <c r="T21" s="33"/>
+      <c r="U21" s="33"/>
+      <c r="V21" s="33"/>
+      <c r="W21" s="33"/>
+      <c r="X21" s="33"/>
+      <c r="Y21" s="33" t="s">
         <v>233</v>
       </c>
-      <c r="Z21" s="31"/>
-      <c r="AA21" s="31" t="s">
+      <c r="Z21" s="33"/>
+      <c r="AA21" s="33" t="s">
         <v>234</v>
       </c>
-      <c r="AB21" s="31" t="s">
+      <c r="AB21" s="33" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="22" spans="1:28">
-      <c r="E22" s="31"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="31"/>
-      <c r="J22" s="31"/>
-      <c r="K22" s="31"/>
-      <c r="L22" s="31"/>
-      <c r="M22" s="31"/>
-      <c r="N22" s="31"/>
-      <c r="O22" s="31"/>
-      <c r="P22" s="31"/>
-      <c r="Q22" s="31"/>
-      <c r="R22" s="31"/>
-      <c r="S22" s="31"/>
-      <c r="T22" s="31"/>
-      <c r="U22" s="31"/>
-      <c r="V22" s="31"/>
-      <c r="W22" s="31"/>
-      <c r="X22" s="31"/>
-      <c r="Y22" s="31"/>
-      <c r="Z22" s="31"/>
-      <c r="AA22" s="31"/>
-      <c r="AB22" s="31" t="s">
+      <c r="E22" s="33"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="33"/>
+      <c r="J22" s="33"/>
+      <c r="K22" s="33"/>
+      <c r="L22" s="33"/>
+      <c r="M22" s="33"/>
+      <c r="N22" s="33"/>
+      <c r="O22" s="33"/>
+      <c r="P22" s="33"/>
+      <c r="Q22" s="33"/>
+      <c r="R22" s="33"/>
+      <c r="S22" s="33"/>
+      <c r="T22" s="33"/>
+      <c r="U22" s="33"/>
+      <c r="V22" s="33"/>
+      <c r="W22" s="33"/>
+      <c r="X22" s="33"/>
+      <c r="Y22" s="33"/>
+      <c r="Z22" s="33"/>
+      <c r="AA22" s="33"/>
+      <c r="AB22" s="33" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="23" spans="1:28">
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="31"/>
-      <c r="I23" s="31"/>
-      <c r="J23" s="31"/>
-      <c r="K23" s="31"/>
-      <c r="L23" s="31"/>
-      <c r="M23" s="31"/>
-      <c r="N23" s="31"/>
-      <c r="O23" s="31"/>
-      <c r="P23" s="31"/>
-      <c r="Q23" s="31"/>
-      <c r="R23" s="31"/>
-      <c r="S23" s="31"/>
-      <c r="T23" s="31"/>
-      <c r="U23" s="31"/>
-      <c r="V23" s="31"/>
-      <c r="W23" s="31"/>
-      <c r="X23" s="31"/>
-      <c r="Y23" s="31"/>
-      <c r="Z23" s="31"/>
-      <c r="AA23" s="31"/>
-      <c r="AB23" s="31"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="33"/>
+      <c r="J23" s="33"/>
+      <c r="K23" s="33"/>
+      <c r="L23" s="33"/>
+      <c r="M23" s="33"/>
+      <c r="N23" s="33"/>
+      <c r="O23" s="33"/>
+      <c r="P23" s="33"/>
+      <c r="Q23" s="33"/>
+      <c r="R23" s="33"/>
+      <c r="S23" s="33"/>
+      <c r="T23" s="33"/>
+      <c r="U23" s="33"/>
+      <c r="V23" s="33"/>
+      <c r="W23" s="33"/>
+      <c r="X23" s="33"/>
+      <c r="Y23" s="33"/>
+      <c r="Z23" s="33"/>
+      <c r="AA23" s="33"/>
+      <c r="AB23" s="33"/>
     </row>
     <row r="24" spans="1:28" ht="11.25" customHeight="1">
       <c r="A24" s="27" t="s">
@@ -5655,13 +5682,13 @@
       <c r="L24" s="27" t="s">
         <v>286</v>
       </c>
-      <c r="M24" s="32" t="s">
+      <c r="M24" s="31" t="s">
         <v>297</v>
       </c>
-      <c r="N24" s="61" t="s">
+      <c r="N24" s="49" t="s">
         <v>291</v>
       </c>
-      <c r="O24" s="52" t="s">
+      <c r="O24" s="53" t="s">
         <v>298</v>
       </c>
       <c r="P24" s="27" t="s">
@@ -5691,16 +5718,16 @@
       <c r="X24" s="27" t="s">
         <v>294</v>
       </c>
-      <c r="Y24" s="55" t="s">
+      <c r="Y24" s="56" t="s">
         <v>295</v>
       </c>
-      <c r="Z24" s="58" t="s">
+      <c r="Z24" s="59" t="s">
         <v>296</v>
       </c>
-      <c r="AA24" s="32" t="s">
+      <c r="AA24" s="31" t="s">
         <v>235</v>
       </c>
-      <c r="AB24" s="49" t="s">
+      <c r="AB24" s="50" t="s">
         <v>302</v>
       </c>
     </row>
@@ -5717,9 +5744,9 @@
       <c r="J25" s="28"/>
       <c r="K25" s="28"/>
       <c r="L25" s="28"/>
-      <c r="M25" s="32"/>
-      <c r="N25" s="61"/>
-      <c r="O25" s="53"/>
+      <c r="M25" s="31"/>
+      <c r="N25" s="49"/>
+      <c r="O25" s="54"/>
       <c r="P25" s="28"/>
       <c r="Q25" s="28"/>
       <c r="R25" s="28"/>
@@ -5729,10 +5756,10 @@
       <c r="V25" s="28"/>
       <c r="W25" s="28"/>
       <c r="X25" s="28"/>
-      <c r="Y25" s="56"/>
-      <c r="Z25" s="59"/>
-      <c r="AA25" s="32"/>
-      <c r="AB25" s="50"/>
+      <c r="Y25" s="57"/>
+      <c r="Z25" s="60"/>
+      <c r="AA25" s="31"/>
+      <c r="AB25" s="51"/>
     </row>
     <row r="26" spans="1:28">
       <c r="A26" s="28"/>
@@ -5747,9 +5774,9 @@
       <c r="J26" s="28"/>
       <c r="K26" s="28"/>
       <c r="L26" s="28"/>
-      <c r="M26" s="32"/>
-      <c r="N26" s="61"/>
-      <c r="O26" s="53"/>
+      <c r="M26" s="31"/>
+      <c r="N26" s="49"/>
+      <c r="O26" s="54"/>
       <c r="P26" s="28"/>
       <c r="Q26" s="28"/>
       <c r="R26" s="28"/>
@@ -5759,10 +5786,10 @@
       <c r="V26" s="28"/>
       <c r="W26" s="28"/>
       <c r="X26" s="28"/>
-      <c r="Y26" s="56"/>
-      <c r="Z26" s="59"/>
-      <c r="AA26" s="32"/>
-      <c r="AB26" s="50"/>
+      <c r="Y26" s="57"/>
+      <c r="Z26" s="60"/>
+      <c r="AA26" s="31"/>
+      <c r="AB26" s="51"/>
     </row>
     <row r="27" spans="1:28">
       <c r="A27" s="29"/>
@@ -5777,9 +5804,9 @@
       <c r="J27" s="29"/>
       <c r="K27" s="29"/>
       <c r="L27" s="29"/>
-      <c r="M27" s="32"/>
-      <c r="N27" s="61"/>
-      <c r="O27" s="54"/>
+      <c r="M27" s="31"/>
+      <c r="N27" s="49"/>
+      <c r="O27" s="55"/>
       <c r="P27" s="29"/>
       <c r="Q27" s="29"/>
       <c r="R27" s="29"/>
@@ -5789,10 +5816,10 @@
       <c r="V27" s="29"/>
       <c r="W27" s="29"/>
       <c r="X27" s="29"/>
-      <c r="Y27" s="56"/>
-      <c r="Z27" s="59"/>
-      <c r="AA27" s="32"/>
-      <c r="AB27" s="50"/>
+      <c r="Y27" s="57"/>
+      <c r="Z27" s="60"/>
+      <c r="AA27" s="31"/>
+      <c r="AB27" s="51"/>
     </row>
     <row r="28" spans="1:28">
       <c r="E28" s="1"/>
@@ -5800,16 +5827,16 @@
       <c r="K28" s="2"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
-      <c r="N28" s="61"/>
+      <c r="N28" s="49"/>
       <c r="R28" s="2"/>
       <c r="S28" s="2"/>
       <c r="T28" s="2"/>
       <c r="U28" s="1"/>
       <c r="X28" s="2"/>
-      <c r="Y28" s="56"/>
-      <c r="Z28" s="59"/>
-      <c r="AA28" s="32"/>
-      <c r="AB28" s="50"/>
+      <c r="Y28" s="57"/>
+      <c r="Z28" s="60"/>
+      <c r="AA28" s="31"/>
+      <c r="AB28" s="51"/>
     </row>
     <row r="29" spans="1:28">
       <c r="E29" s="1"/>
@@ -5822,7 +5849,7 @@
       </c>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
-      <c r="N29" s="61"/>
+      <c r="N29" s="49"/>
       <c r="R29" s="2"/>
       <c r="S29" s="17" t="s">
         <v>304</v>
@@ -5831,10 +5858,10 @@
         <v>170</v>
       </c>
       <c r="X29" s="2"/>
-      <c r="Y29" s="57"/>
-      <c r="Z29" s="60"/>
-      <c r="AA29" s="32"/>
-      <c r="AB29" s="51"/>
+      <c r="Y29" s="58"/>
+      <c r="Z29" s="61"/>
+      <c r="AA29" s="31"/>
+      <c r="AB29" s="52"/>
     </row>
     <row r="30" spans="1:28" ht="202.5">
       <c r="E30" s="1"/>
@@ -5847,7 +5874,7 @@
       </c>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
-      <c r="N30" s="61"/>
+      <c r="N30" s="49"/>
       <c r="R30" s="2"/>
       <c r="S30" s="25" t="s">
         <v>305</v>
@@ -6041,6 +6068,25 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="AB21:AB23"/>
+    <mergeCell ref="AB24:AB29"/>
+    <mergeCell ref="S24:S27"/>
+    <mergeCell ref="E21:X23"/>
+    <mergeCell ref="V24:V27"/>
+    <mergeCell ref="W24:W27"/>
+    <mergeCell ref="E24:E27"/>
+    <mergeCell ref="H24:H27"/>
+    <mergeCell ref="O24:O27"/>
+    <mergeCell ref="Y21:Z23"/>
+    <mergeCell ref="Y24:Y29"/>
+    <mergeCell ref="Z24:Z29"/>
+    <mergeCell ref="AA24:AA29"/>
+    <mergeCell ref="AA21:AA23"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="C24:C27"/>
     <mergeCell ref="D24:D27"/>
     <mergeCell ref="A4:F4"/>
     <mergeCell ref="X24:X27"/>
@@ -6057,25 +6103,6 @@
     <mergeCell ref="L24:L27"/>
     <mergeCell ref="R24:R27"/>
     <mergeCell ref="G24:G27"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="C24:C27"/>
-    <mergeCell ref="AB21:AB23"/>
-    <mergeCell ref="AB24:AB29"/>
-    <mergeCell ref="S24:S27"/>
-    <mergeCell ref="E21:X23"/>
-    <mergeCell ref="V24:V27"/>
-    <mergeCell ref="W24:W27"/>
-    <mergeCell ref="E24:E27"/>
-    <mergeCell ref="H24:H27"/>
-    <mergeCell ref="O24:O27"/>
-    <mergeCell ref="Y21:Z23"/>
-    <mergeCell ref="Y24:Y29"/>
-    <mergeCell ref="Z24:Z29"/>
-    <mergeCell ref="AA24:AA29"/>
-    <mergeCell ref="AA21:AA23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -6085,12 +6112,12 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
-    <tabColor rgb="FFFA7E7E"/>
+    <tabColor rgb="FF92D050"/>
   </sheetPr>
   <dimension ref="A2:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -6411,35 +6438,40 @@
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="B19" s="31" t="s">
+      <c r="B19" s="33" t="s">
         <v>313</v>
       </c>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="G19" s="31" t="s">
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33" t="s">
+        <v>316</v>
+      </c>
+      <c r="G19" s="33" t="s">
         <v>314</v>
       </c>
-      <c r="H19" s="31"/>
+      <c r="H19" s="33"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="B20" s="31"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
+      <c r="B20" s="33"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="33"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="B21" s="31"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="31"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="31"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="33"/>
     </row>
     <row r="22" spans="1:8" ht="11.25" customHeight="1">
-      <c r="A22" s="45" t="s">
+      <c r="A22" s="35" t="s">
         <v>174</v>
       </c>
       <c r="B22" s="27" t="s">
@@ -6454,7 +6486,9 @@
       <c r="E22" s="27" t="s">
         <v>310</v>
       </c>
-      <c r="F22" s="27"/>
+      <c r="F22" s="62" t="s">
+        <v>317</v>
+      </c>
       <c r="G22" s="27" t="s">
         <v>311</v>
       </c>
@@ -6463,22 +6497,22 @@
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="46"/>
+      <c r="A23" s="36"/>
       <c r="B23" s="28"/>
       <c r="C23" s="28"/>
       <c r="D23" s="28"/>
       <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
+      <c r="F23" s="63"/>
       <c r="G23" s="28"/>
       <c r="H23" s="28"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="47"/>
+      <c r="A24" s="37"/>
       <c r="B24" s="28"/>
       <c r="C24" s="28"/>
       <c r="D24" s="28"/>
       <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
+      <c r="F24" s="63"/>
       <c r="G24" s="28"/>
       <c r="H24" s="28"/>
     </row>
@@ -6487,7 +6521,7 @@
       <c r="C25" s="29"/>
       <c r="D25" s="29"/>
       <c r="E25" s="29"/>
-      <c r="F25" s="29"/>
+      <c r="F25" s="64"/>
       <c r="G25" s="29"/>
       <c r="H25" s="29"/>
     </row>
@@ -6500,13 +6534,21 @@
       </c>
     </row>
     <row r="28" spans="1:8" ht="101.25">
+      <c r="F28" s="65" t="s">
+        <v>318</v>
+      </c>
       <c r="G28" s="16"/>
       <c r="H28" s="18" t="s">
         <v>186</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="13">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="F19:F21"/>
     <mergeCell ref="H22:H25"/>
     <mergeCell ref="B19:E21"/>
     <mergeCell ref="G19:H21"/>
@@ -6515,10 +6557,6 @@
     <mergeCell ref="D22:D25"/>
     <mergeCell ref="E22:E25"/>
     <mergeCell ref="G22:G25"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="B22:B26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Documentação/Planilhas/Conferencia_CAR.xlsx
+++ b/Documentação/Planilhas/Conferencia_CAR.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" tabRatio="812" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" tabRatio="812" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Resumo" sheetId="93" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1103" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1103" uniqueCount="316">
   <si>
     <t>1</t>
   </si>
@@ -143,27 +143,18 @@
     <t>dbo.stg_car_remessa_cobranca_eletronica</t>
   </si>
   <si>
-    <t>COD_COMANDO</t>
-  </si>
-  <si>
     <t>NR_TITULO</t>
   </si>
   <si>
     <t>CD_MODALIDADE</t>
   </si>
   <si>
-    <t>SITUACAO</t>
-  </si>
-  <si>
     <t>01</t>
   </si>
   <si>
     <t>RE43</t>
   </si>
   <si>
-    <t>ACR</t>
-  </si>
-  <si>
     <t>06</t>
   </si>
   <si>
@@ -494,9 +485,6 @@
     <t>DT_PREVISTA_RECEBIMENTO</t>
   </si>
   <si>
-    <t>CD_STATUS_RECEBIMENTO</t>
-  </si>
-  <si>
     <t>RE114</t>
   </si>
   <si>
@@ -525,9 +513,6 @@
   </si>
   <si>
     <t>RE14</t>
-  </si>
-  <si>
-    <t>Fixo ACR</t>
   </si>
   <si>
     <t xml:space="preserve">Pegar a informação da coluna Status do Arquivo </t>
@@ -1041,6 +1026,12 @@
   </si>
   <si>
     <t>Pegar a informação do Lote Criado em</t>
+  </si>
+  <si>
+    <t>2014-08-04 21:00:00.000</t>
+  </si>
+  <si>
+    <t>CD_COMANDO</t>
   </si>
 </sst>
 </file>
@@ -1449,6 +1440,9 @@
     <xf numFmtId="49" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1461,29 +1455,11 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1515,7 +1491,22 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1554,6 +1545,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1561,9 +1555,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1897,31 +1888,31 @@
     </row>
     <row r="3" spans="2:3">
       <c r="B3" s="8" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C3" s="7"/>
     </row>
     <row r="4" spans="2:3">
       <c r="B4" s="8" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C4" s="7"/>
     </row>
     <row r="5" spans="2:3">
       <c r="B5" s="8" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C5" s="7"/>
     </row>
     <row r="6" spans="2:3">
       <c r="B6" s="8" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C6" s="7"/>
     </row>
     <row r="7" spans="2:3">
       <c r="B7" s="10" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C7" s="9"/>
     </row>
@@ -1945,8 +1936,8 @@
   </sheetPr>
   <dimension ref="A2:AG22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -1988,19 +1979,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="21">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="30"/>
+      <c r="B2" s="31"/>
       <c r="C2" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="21">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="30"/>
+      <c r="B3" s="31"/>
       <c r="C3" s="3" t="s">
         <v>38</v>
       </c>
@@ -2202,10 +2193,10 @@
         <v>2</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>32</v>
+        <v>314</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -2219,7 +2210,7 @@
         <v>22</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>9</v>
@@ -2242,13 +2233,13 @@
         <v>7</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>9</v>
@@ -2257,7 +2248,7 @@
         <v>29</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>16</v>
@@ -2271,13 +2262,13 @@
         <v>7</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>9</v>
@@ -2286,13 +2277,13 @@
         <v>29</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -2318,71 +2309,71 @@
         <v>2</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="27" t="s">
+      <c r="A19" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="27"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="27"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="28"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="28"/>
-      <c r="B20" s="28"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="28"/>
+      <c r="A20" s="29"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="28"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="28"/>
+      <c r="A21" s="29"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="29"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="29"/>
-      <c r="B22" s="29"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="29"/>
+      <c r="A22" s="30"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="C19:C22"/>
     <mergeCell ref="I19:I22"/>
     <mergeCell ref="D19:D22"/>
     <mergeCell ref="E19:E22"/>
     <mergeCell ref="F19:F22"/>
     <mergeCell ref="G19:G22"/>
     <mergeCell ref="H19:H22"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="C19:C22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -2396,8 +2387,8 @@
   </sheetPr>
   <dimension ref="A2:Q25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19:D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -2423,26 +2414,26 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" ht="21">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="30"/>
+      <c r="B2" s="31"/>
       <c r="C2" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="21">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="30"/>
+      <c r="B3" s="31"/>
       <c r="C3" s="3" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>18</v>
@@ -2451,13 +2442,13 @@
         <v>24</v>
       </c>
       <c r="D6" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>41</v>
-      </c>
       <c r="F6" s="4" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>8</v>
@@ -2465,7 +2456,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="2" t="s">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>22</v>
@@ -2474,10 +2465,10 @@
         <v>6</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>2</v>
@@ -2488,7 +2479,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="2" t="s">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>22</v>
@@ -2497,10 +2488,10 @@
         <v>6</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>2</v>
@@ -2510,8 +2501,8 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="26" t="s">
-        <v>46</v>
+      <c r="A9" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="B9" s="26" t="s">
         <v>22</v>
@@ -2520,10 +2511,10 @@
         <v>6</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E9" s="26" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F9" s="26" t="s">
         <v>2</v>
@@ -2533,8 +2524,8 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="26" t="s">
-        <v>46</v>
+      <c r="A10" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="B10" s="26" t="s">
         <v>22</v>
@@ -2543,10 +2534,10 @@
         <v>6</v>
       </c>
       <c r="D10" s="26" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E10" s="26" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F10" s="26" t="s">
         <v>2</v>
@@ -2556,8 +2547,8 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="26" t="s">
-        <v>46</v>
+      <c r="A11" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="B11" s="26" t="s">
         <v>22</v>
@@ -2566,10 +2557,10 @@
         <v>6</v>
       </c>
       <c r="D11" s="26" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E11" s="26" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F11" s="26" t="s">
         <v>2</v>
@@ -2580,7 +2571,7 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="2" t="s">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>22</v>
@@ -2589,10 +2580,10 @@
         <v>6</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>2</v>
@@ -2603,19 +2594,19 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="2" t="s">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>2</v>
@@ -2626,19 +2617,19 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="2" t="s">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>2</v>
@@ -2649,19 +2640,19 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="2" t="s">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C15" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>2</v>
@@ -2672,19 +2663,19 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="2" t="s">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>2</v>
@@ -2694,53 +2685,53 @@
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="27" t="s">
-        <v>168</v>
-      </c>
-      <c r="B19" s="27"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27" t="s">
+      <c r="A19" s="28" t="s">
         <v>169</v>
       </c>
-      <c r="G19" s="27"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28" t="s">
+        <v>164</v>
+      </c>
+      <c r="G19" s="28"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="28"/>
-      <c r="B20" s="28"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
+      <c r="A20" s="29"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="28"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
+      <c r="A21" s="29"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="29"/>
-      <c r="B22" s="29"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="29"/>
+      <c r="A22" s="30"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
     </row>
     <row r="24" spans="1:7">
       <c r="F24" s="17" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="101.25">
       <c r="F25" s="18" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -2794,19 +2785,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:17" ht="21">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="30"/>
+      <c r="B2" s="31"/>
       <c r="C2" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="21">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="30"/>
+      <c r="B3" s="31"/>
       <c r="C3" s="3"/>
     </row>
     <row r="6" spans="1:17" s="13" customFormat="1">
@@ -2829,40 +2820,40 @@
       <c r="Q6" s="12"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="27"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
+      <c r="A19" s="28"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="28"/>
-      <c r="B20" s="28"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
+      <c r="A20" s="29"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="28"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
+      <c r="A21" s="29"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="29"/>
-      <c r="B22" s="29"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="29"/>
+      <c r="A22" s="30"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -2926,32 +2917,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:31" ht="21">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="30"/>
+      <c r="B2" s="31"/>
       <c r="C2" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:31" ht="21">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="30"/>
+      <c r="B3" s="31"/>
       <c r="C3" s="3" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
     </row>
     <row r="4" spans="1:31" ht="21">
-      <c r="A4" s="48" t="s">
-        <v>184</v>
-      </c>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
+      <c r="A4" s="43" t="s">
+        <v>179</v>
+      </c>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
       <c r="G4" s="1"/>
       <c r="P4" s="19"/>
       <c r="AB4" s="2"/>
@@ -2961,82 +2952,82 @@
         <v>10</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>8</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G7" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="I7" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="H7" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="I7" s="14" t="s">
+      <c r="J7" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="K7" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="J7" s="14" t="s">
+      <c r="L7" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="M7" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="N7" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="O7" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="K7" s="14" t="s">
+      <c r="P7" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q7" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="R7" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="S7" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="T7" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="U7" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="V7" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="L7" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="M7" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="N7" s="14" t="s">
+      <c r="W7" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="X7" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="O7" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="P7" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q7" s="14" t="s">
+      <c r="Y7" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="R7" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="S7" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="T7" s="14" t="s">
+      <c r="Z7" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="U7" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="V7" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="W7" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="X7" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y7" s="14" t="s">
+      <c r="AA7" s="14" t="s">
         <v>76</v>
-      </c>
-      <c r="Z7" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="AA7" s="14" t="s">
-        <v>79</v>
       </c>
       <c r="AB7" s="14" t="s">
         <v>18</v>
@@ -3045,7 +3036,7 @@
         <v>19</v>
       </c>
       <c r="AD7" s="14" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="AE7" s="14" t="s">
         <v>20</v>
@@ -3056,64 +3047,64 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E8" s="16" t="s">
         <v>9</v>
       </c>
       <c r="F8" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H8" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="H8" s="16" t="s">
-        <v>92</v>
-      </c>
       <c r="I8" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="M8" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="J8" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="L8" s="2" t="s">
+      <c r="N8" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="M8" s="16" t="s">
+      <c r="O8" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="P8" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q8" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="R8" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="N8" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="O8" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="P8" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q8" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="R8" s="16" t="s">
-        <v>96</v>
-      </c>
       <c r="S8" s="16" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="T8" s="16" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="U8" s="16" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="V8" s="16" t="s">
         <v>9</v>
@@ -3125,10 +3116,10 @@
         <v>0</v>
       </c>
       <c r="Y8" s="16" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="Z8" s="16" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="AA8" s="16" t="s">
         <v>9</v>
@@ -3151,64 +3142,64 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E9" s="16" t="s">
         <v>9</v>
       </c>
       <c r="F9" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="M9" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="H9" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="L9" s="2" t="s">
+      <c r="N9" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="M9" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="N9" s="16" t="s">
-        <v>101</v>
-      </c>
       <c r="O9" s="16" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="P9" s="16" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="Q9" s="16" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="R9" s="16" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="S9" s="16" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="T9" s="16" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="U9" s="16" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="V9" s="16" t="s">
         <v>9</v>
@@ -3220,10 +3211,10 @@
         <v>0</v>
       </c>
       <c r="Y9" s="16" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="Z9" s="16" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="AA9" s="16" t="s">
         <v>9</v>
@@ -3246,64 +3237,64 @@
         <v>7</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="E10" s="16" t="s">
         <v>9</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H10" s="16" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>1</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="K10" s="2" t="s">
         <v>0</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="M10" s="16" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="N10" s="16" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="O10" s="16" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="P10" s="16" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="Q10" s="16" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="R10" s="16" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="S10" s="16" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="T10" s="16" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="U10" s="16" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="V10" s="16" t="s">
         <v>9</v>
@@ -3315,10 +3306,10 @@
         <v>0</v>
       </c>
       <c r="Y10" s="16" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="Z10" s="16" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="AA10" s="16" t="s">
         <v>9</v>
@@ -3341,64 +3332,64 @@
         <v>7</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="E11" s="16" t="s">
         <v>9</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H11" s="16" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>1</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>0</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="M11" s="16" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="N11" s="16" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="O11" s="16" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="P11" s="16" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="Q11" s="16" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="R11" s="16" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="S11" s="16" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="T11" s="16" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="U11" s="16" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="V11" s="16" t="s">
         <v>9</v>
@@ -3410,10 +3401,10 @@
         <v>0</v>
       </c>
       <c r="Y11" s="16" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="Z11" s="16" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="AA11" s="16" t="s">
         <v>9</v>
@@ -3436,64 +3427,64 @@
         <v>7</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E12" s="16" t="s">
         <v>9</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H12" s="16" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>1</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>0</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="M12" s="16" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="N12" s="16" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="O12" s="16" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="P12" s="16" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="Q12" s="16" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="R12" s="16" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="S12" s="16" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="T12" s="16" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="U12" s="16" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="V12" s="16" t="s">
         <v>9</v>
@@ -3505,10 +3496,10 @@
         <v>0</v>
       </c>
       <c r="Y12" s="16" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="Z12" s="16" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="AA12" s="16" t="s">
         <v>9</v>
@@ -3531,64 +3522,64 @@
         <v>7</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C13" s="12" t="s">
         <v>1</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E13" s="23" t="s">
         <v>9</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H13" s="23" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="I13" s="12" t="s">
         <v>1</v>
       </c>
       <c r="J13" s="12" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="K13" s="12" t="s">
         <v>0</v>
       </c>
       <c r="L13" s="12" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="M13" s="23" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="N13" s="23" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="O13" s="23" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="P13" s="23" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="Q13" s="23" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="R13" s="23" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="S13" s="23" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="T13" s="23" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="U13" s="23" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="V13" s="23" t="s">
         <v>9</v>
@@ -3600,10 +3591,10 @@
         <v>0</v>
       </c>
       <c r="Y13" s="23" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="Z13" s="23" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="AA13" s="23" t="s">
         <v>9</v>
@@ -3626,64 +3617,64 @@
         <v>7</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="E14" s="16" t="s">
         <v>9</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H14" s="16" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>1</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="K14" s="2" t="s">
         <v>0</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="M14" s="16" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="N14" s="16" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="O14" s="16" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="P14" s="16" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="Q14" s="16" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="R14" s="16" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="S14" s="16" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="T14" s="16" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="U14" s="16" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="V14" s="16" t="s">
         <v>9</v>
@@ -3695,10 +3686,10 @@
         <v>0</v>
       </c>
       <c r="Y14" s="16" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="Z14" s="16" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="AA14" s="16" t="s">
         <v>9</v>
@@ -3721,79 +3712,79 @@
         <v>7</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="E15" s="16" t="s">
         <v>9</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H15" s="16" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>1</v>
       </c>
       <c r="J15" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="M15" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="N15" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="O15" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="P15" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q15" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="R15" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="S15" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="T15" s="16" t="s">
         <v>236</v>
       </c>
-      <c r="K15" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="M15" s="16" t="s">
-        <v>239</v>
-      </c>
-      <c r="N15" s="16" t="s">
-        <v>240</v>
-      </c>
-      <c r="O15" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="P15" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q15" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="R15" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="S15" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="T15" s="16" t="s">
-        <v>241</v>
-      </c>
       <c r="U15" s="16" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="V15" s="16" t="s">
         <v>9</v>
       </c>
       <c r="W15" s="23" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="X15" s="16" t="s">
         <v>2</v>
       </c>
       <c r="Y15" s="16" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="Z15" s="16" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="AA15" s="16" t="s">
         <v>9</v>
@@ -3816,79 +3807,79 @@
         <v>7</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="E16" s="16" t="s">
         <v>9</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="H16" s="16" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>0</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>0</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="M16" s="16" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="N16" s="16" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="O16" s="16" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="P16" s="16" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="Q16" s="16" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="R16" s="16" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="S16" s="16" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="T16" s="16" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="U16" s="16" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="V16" s="16" t="s">
         <v>9</v>
       </c>
       <c r="W16" s="23" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="X16" s="16" t="s">
         <v>1</v>
       </c>
       <c r="Y16" s="16" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="Z16" s="16" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="AA16" s="16" t="s">
         <v>9</v>
@@ -3911,79 +3902,79 @@
         <v>7</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="E17" s="16" t="s">
         <v>9</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="H17" s="16" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>1</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="M17" s="16" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="N17" s="16" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="O17" s="16" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="P17" s="16" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="Q17" s="16" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="R17" s="16" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="S17" s="16" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="T17" s="16" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="U17" s="16" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="V17" s="16" t="s">
         <v>9</v>
       </c>
       <c r="W17" s="23" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="X17" s="16" t="s">
         <v>1</v>
       </c>
       <c r="Y17" s="16" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="Z17" s="16" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="AA17" s="16" t="s">
         <v>9</v>
@@ -4032,296 +4023,296 @@
     <row r="20" spans="1:31" ht="11.25" customHeight="1">
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
-      <c r="F20" s="39" t="s">
-        <v>195</v>
-      </c>
-      <c r="G20" s="40"/>
-      <c r="H20" s="40"/>
-      <c r="I20" s="40"/>
-      <c r="J20" s="40"/>
-      <c r="K20" s="40"/>
-      <c r="L20" s="40"/>
-      <c r="M20" s="40"/>
-      <c r="N20" s="40"/>
-      <c r="O20" s="40"/>
-      <c r="P20" s="40"/>
-      <c r="Q20" s="40"/>
-      <c r="R20" s="40"/>
-      <c r="S20" s="40"/>
-      <c r="T20" s="40"/>
-      <c r="U20" s="40"/>
-      <c r="V20" s="40"/>
-      <c r="W20" s="40"/>
-      <c r="X20" s="40"/>
-      <c r="Y20" s="40"/>
-      <c r="Z20" s="41"/>
-      <c r="AA20" s="33" t="s">
+      <c r="F20" s="34" t="s">
+        <v>190</v>
+      </c>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="35"/>
+      <c r="K20" s="35"/>
+      <c r="L20" s="35"/>
+      <c r="M20" s="35"/>
+      <c r="N20" s="35"/>
+      <c r="O20" s="35"/>
+      <c r="P20" s="35"/>
+      <c r="Q20" s="35"/>
+      <c r="R20" s="35"/>
+      <c r="S20" s="35"/>
+      <c r="T20" s="35"/>
+      <c r="U20" s="35"/>
+      <c r="V20" s="35"/>
+      <c r="W20" s="35"/>
+      <c r="X20" s="35"/>
+      <c r="Y20" s="35"/>
+      <c r="Z20" s="36"/>
+      <c r="AA20" s="32" t="s">
+        <v>224</v>
+      </c>
+      <c r="AB20" s="32" t="s">
+        <v>228</v>
+      </c>
+      <c r="AC20" s="45"/>
+      <c r="AD20" s="32" t="s">
         <v>229</v>
       </c>
-      <c r="AB20" s="33" t="s">
-        <v>233</v>
-      </c>
-      <c r="AC20" s="34"/>
-      <c r="AD20" s="33" t="s">
-        <v>234</v>
-      </c>
-      <c r="AE20" s="33" t="s">
-        <v>263</v>
+      <c r="AE20" s="32" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="21" spans="1:31" ht="11.25" customHeight="1">
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="43"/>
-      <c r="I21" s="43"/>
-      <c r="J21" s="43"/>
-      <c r="K21" s="43"/>
-      <c r="L21" s="43"/>
-      <c r="M21" s="43"/>
-      <c r="N21" s="43"/>
-      <c r="O21" s="43"/>
-      <c r="P21" s="43"/>
-      <c r="Q21" s="43"/>
-      <c r="R21" s="43"/>
-      <c r="S21" s="43"/>
-      <c r="T21" s="43"/>
-      <c r="U21" s="43"/>
-      <c r="V21" s="43"/>
-      <c r="W21" s="43"/>
-      <c r="X21" s="43"/>
-      <c r="Y21" s="43"/>
-      <c r="Z21" s="44"/>
-      <c r="AA21" s="33"/>
-      <c r="AB21" s="34"/>
-      <c r="AC21" s="34"/>
-      <c r="AD21" s="33"/>
-      <c r="AE21" s="33"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="38"/>
+      <c r="J21" s="38"/>
+      <c r="K21" s="38"/>
+      <c r="L21" s="38"/>
+      <c r="M21" s="38"/>
+      <c r="N21" s="38"/>
+      <c r="O21" s="38"/>
+      <c r="P21" s="38"/>
+      <c r="Q21" s="38"/>
+      <c r="R21" s="38"/>
+      <c r="S21" s="38"/>
+      <c r="T21" s="38"/>
+      <c r="U21" s="38"/>
+      <c r="V21" s="38"/>
+      <c r="W21" s="38"/>
+      <c r="X21" s="38"/>
+      <c r="Y21" s="38"/>
+      <c r="Z21" s="39"/>
+      <c r="AA21" s="32"/>
+      <c r="AB21" s="45"/>
+      <c r="AC21" s="45"/>
+      <c r="AD21" s="32"/>
+      <c r="AE21" s="32"/>
     </row>
     <row r="22" spans="1:31" ht="11.25" customHeight="1">
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
-      <c r="F22" s="45"/>
-      <c r="G22" s="46"/>
-      <c r="H22" s="46"/>
-      <c r="I22" s="46"/>
-      <c r="J22" s="46"/>
-      <c r="K22" s="46"/>
-      <c r="L22" s="46"/>
-      <c r="M22" s="46"/>
-      <c r="N22" s="46"/>
-      <c r="O22" s="46"/>
-      <c r="P22" s="46"/>
-      <c r="Q22" s="46"/>
-      <c r="R22" s="46"/>
-      <c r="S22" s="46"/>
-      <c r="T22" s="46"/>
-      <c r="U22" s="46"/>
-      <c r="V22" s="46"/>
-      <c r="W22" s="46"/>
-      <c r="X22" s="46"/>
-      <c r="Y22" s="46"/>
-      <c r="Z22" s="47"/>
-      <c r="AA22" s="33"/>
-      <c r="AB22" s="34"/>
-      <c r="AC22" s="34"/>
-      <c r="AD22" s="33"/>
-      <c r="AE22" s="33"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="41"/>
+      <c r="J22" s="41"/>
+      <c r="K22" s="41"/>
+      <c r="L22" s="41"/>
+      <c r="M22" s="41"/>
+      <c r="N22" s="41"/>
+      <c r="O22" s="41"/>
+      <c r="P22" s="41"/>
+      <c r="Q22" s="41"/>
+      <c r="R22" s="41"/>
+      <c r="S22" s="41"/>
+      <c r="T22" s="41"/>
+      <c r="U22" s="41"/>
+      <c r="V22" s="41"/>
+      <c r="W22" s="41"/>
+      <c r="X22" s="41"/>
+      <c r="Y22" s="41"/>
+      <c r="Z22" s="42"/>
+      <c r="AA22" s="32"/>
+      <c r="AB22" s="45"/>
+      <c r="AC22" s="45"/>
+      <c r="AD22" s="32"/>
+      <c r="AE22" s="32"/>
     </row>
     <row r="23" spans="1:31" ht="11.25" customHeight="1">
-      <c r="A23" s="27" t="s">
+      <c r="A23" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="27" t="s">
+      <c r="B23" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="C23" s="28" t="s">
+        <v>261</v>
+      </c>
+      <c r="D23" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="E23" s="28" t="s">
+        <v>260</v>
+      </c>
+      <c r="F23" s="28" t="s">
+        <v>167</v>
+      </c>
+      <c r="G23" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="H23" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="I23" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="J23" s="28" t="s">
+        <v>173</v>
+      </c>
+      <c r="K23" s="28" t="s">
         <v>174</v>
       </c>
-      <c r="C23" s="27" t="s">
-        <v>266</v>
-      </c>
-      <c r="D23" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="E23" s="27" t="s">
-        <v>265</v>
-      </c>
-      <c r="F23" s="27" t="s">
+      <c r="L23" s="28" t="s">
         <v>172</v>
       </c>
-      <c r="G23" s="27" t="s">
-        <v>173</v>
-      </c>
-      <c r="H23" s="27" t="s">
-        <v>191</v>
-      </c>
-      <c r="I23" s="27" t="s">
+      <c r="M23" s="28" t="s">
         <v>175</v>
       </c>
-      <c r="J23" s="27" t="s">
+      <c r="N23" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="O23" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="P23" s="28" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q23" s="28" t="s">
+        <v>183</v>
+      </c>
+      <c r="R23" s="28" t="s">
+        <v>189</v>
+      </c>
+      <c r="S23" s="28" t="s">
         <v>178</v>
       </c>
-      <c r="K23" s="27" t="s">
-        <v>179</v>
-      </c>
-      <c r="L23" s="27" t="s">
-        <v>177</v>
-      </c>
-      <c r="M23" s="27" t="s">
+      <c r="T23" s="28" t="s">
+        <v>184</v>
+      </c>
+      <c r="U23" s="28" t="s">
+        <v>185</v>
+      </c>
+      <c r="V23" s="28" t="s">
+        <v>238</v>
+      </c>
+      <c r="W23" s="28" t="s">
+        <v>256</v>
+      </c>
+      <c r="X23" s="28" t="s">
         <v>180</v>
       </c>
-      <c r="N23" s="27" t="s">
-        <v>182</v>
-      </c>
-      <c r="O23" s="27" t="s">
-        <v>181</v>
-      </c>
-      <c r="P23" s="27" t="s">
+      <c r="Y23" s="28" t="s">
         <v>187</v>
       </c>
-      <c r="Q23" s="27" t="s">
-        <v>188</v>
-      </c>
-      <c r="R23" s="27" t="s">
-        <v>194</v>
-      </c>
-      <c r="S23" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="T23" s="27" t="s">
-        <v>189</v>
-      </c>
-      <c r="U23" s="27" t="s">
-        <v>190</v>
-      </c>
-      <c r="V23" s="27" t="s">
-        <v>243</v>
-      </c>
-      <c r="W23" s="27" t="s">
-        <v>261</v>
-      </c>
-      <c r="X23" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Y23" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="Z23" s="35" t="s">
-        <v>262</v>
-      </c>
-      <c r="AA23" s="38" t="s">
+      <c r="Z23" s="46" t="s">
+        <v>257</v>
+      </c>
+      <c r="AA23" s="49" t="s">
+        <v>225</v>
+      </c>
+      <c r="AB23" s="33" t="s">
+        <v>226</v>
+      </c>
+      <c r="AC23" s="33" t="s">
+        <v>227</v>
+      </c>
+      <c r="AD23" s="33" t="s">
         <v>230</v>
       </c>
-      <c r="AB23" s="31" t="s">
-        <v>231</v>
-      </c>
-      <c r="AC23" s="31" t="s">
-        <v>232</v>
-      </c>
-      <c r="AD23" s="31" t="s">
-        <v>235</v>
-      </c>
-      <c r="AE23" s="31" t="s">
-        <v>264</v>
+      <c r="AE23" s="33" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="24" spans="1:31">
-      <c r="A24" s="28"/>
-      <c r="B24" s="28"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="28"/>
-      <c r="I24" s="28"/>
-      <c r="J24" s="28"/>
-      <c r="K24" s="28"/>
-      <c r="L24" s="28"/>
-      <c r="M24" s="28"/>
-      <c r="N24" s="28"/>
-      <c r="O24" s="28"/>
-      <c r="P24" s="28"/>
-      <c r="Q24" s="28"/>
-      <c r="R24" s="28"/>
-      <c r="S24" s="28"/>
-      <c r="T24" s="28"/>
-      <c r="U24" s="28"/>
-      <c r="V24" s="28"/>
-      <c r="W24" s="28"/>
-      <c r="X24" s="28"/>
-      <c r="Y24" s="28"/>
-      <c r="Z24" s="36"/>
-      <c r="AA24" s="38"/>
-      <c r="AB24" s="31"/>
-      <c r="AC24" s="31"/>
-      <c r="AD24" s="31"/>
-      <c r="AE24" s="31"/>
+      <c r="A24" s="29"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="29"/>
+      <c r="M24" s="29"/>
+      <c r="N24" s="29"/>
+      <c r="O24" s="29"/>
+      <c r="P24" s="29"/>
+      <c r="Q24" s="29"/>
+      <c r="R24" s="29"/>
+      <c r="S24" s="29"/>
+      <c r="T24" s="29"/>
+      <c r="U24" s="29"/>
+      <c r="V24" s="29"/>
+      <c r="W24" s="29"/>
+      <c r="X24" s="29"/>
+      <c r="Y24" s="29"/>
+      <c r="Z24" s="47"/>
+      <c r="AA24" s="49"/>
+      <c r="AB24" s="33"/>
+      <c r="AC24" s="33"/>
+      <c r="AD24" s="33"/>
+      <c r="AE24" s="33"/>
     </row>
     <row r="25" spans="1:31">
-      <c r="A25" s="28"/>
-      <c r="B25" s="28"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="28"/>
-      <c r="J25" s="28"/>
-      <c r="K25" s="28"/>
-      <c r="L25" s="28"/>
-      <c r="M25" s="28"/>
-      <c r="N25" s="28"/>
-      <c r="O25" s="28"/>
-      <c r="P25" s="28"/>
-      <c r="Q25" s="28"/>
-      <c r="R25" s="28"/>
-      <c r="S25" s="28"/>
-      <c r="T25" s="28"/>
-      <c r="U25" s="28"/>
-      <c r="V25" s="28"/>
-      <c r="W25" s="28"/>
-      <c r="X25" s="28"/>
-      <c r="Y25" s="28"/>
-      <c r="Z25" s="36"/>
-      <c r="AA25" s="38"/>
-      <c r="AB25" s="31"/>
-      <c r="AC25" s="31"/>
-      <c r="AD25" s="31"/>
-      <c r="AE25" s="31"/>
+      <c r="A25" s="29"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="29"/>
+      <c r="M25" s="29"/>
+      <c r="N25" s="29"/>
+      <c r="O25" s="29"/>
+      <c r="P25" s="29"/>
+      <c r="Q25" s="29"/>
+      <c r="R25" s="29"/>
+      <c r="S25" s="29"/>
+      <c r="T25" s="29"/>
+      <c r="U25" s="29"/>
+      <c r="V25" s="29"/>
+      <c r="W25" s="29"/>
+      <c r="X25" s="29"/>
+      <c r="Y25" s="29"/>
+      <c r="Z25" s="47"/>
+      <c r="AA25" s="49"/>
+      <c r="AB25" s="33"/>
+      <c r="AC25" s="33"/>
+      <c r="AD25" s="33"/>
+      <c r="AE25" s="33"/>
     </row>
     <row r="26" spans="1:31">
-      <c r="A26" s="29"/>
-      <c r="B26" s="29"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="29"/>
-      <c r="I26" s="29"/>
-      <c r="J26" s="29"/>
-      <c r="K26" s="29"/>
-      <c r="L26" s="29"/>
-      <c r="M26" s="29"/>
-      <c r="N26" s="29"/>
-      <c r="O26" s="29"/>
-      <c r="P26" s="29"/>
-      <c r="Q26" s="29"/>
-      <c r="R26" s="29"/>
-      <c r="S26" s="29"/>
-      <c r="T26" s="29"/>
-      <c r="U26" s="29"/>
-      <c r="V26" s="29"/>
-      <c r="W26" s="29"/>
-      <c r="X26" s="29"/>
-      <c r="Y26" s="29"/>
-      <c r="Z26" s="37"/>
-      <c r="AA26" s="38"/>
-      <c r="AB26" s="31"/>
-      <c r="AC26" s="31"/>
-      <c r="AD26" s="31"/>
-      <c r="AE26" s="31"/>
+      <c r="A26" s="30"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="30"/>
+      <c r="J26" s="30"/>
+      <c r="K26" s="30"/>
+      <c r="L26" s="30"/>
+      <c r="M26" s="30"/>
+      <c r="N26" s="30"/>
+      <c r="O26" s="30"/>
+      <c r="P26" s="30"/>
+      <c r="Q26" s="30"/>
+      <c r="R26" s="30"/>
+      <c r="S26" s="30"/>
+      <c r="T26" s="30"/>
+      <c r="U26" s="30"/>
+      <c r="V26" s="30"/>
+      <c r="W26" s="30"/>
+      <c r="X26" s="30"/>
+      <c r="Y26" s="30"/>
+      <c r="Z26" s="48"/>
+      <c r="AA26" s="49"/>
+      <c r="AB26" s="33"/>
+      <c r="AC26" s="33"/>
+      <c r="AD26" s="33"/>
+      <c r="AE26" s="33"/>
     </row>
     <row r="27" spans="1:31">
       <c r="D27" s="1"/>
@@ -4333,17 +4324,17 @@
       <c r="R27" s="1"/>
       <c r="S27" s="2"/>
       <c r="V27" s="2"/>
-      <c r="AA27" s="38"/>
-      <c r="AB27" s="31"/>
-      <c r="AC27" s="31"/>
-      <c r="AD27" s="31"/>
+      <c r="AA27" s="49"/>
+      <c r="AB27" s="33"/>
+      <c r="AC27" s="33"/>
+      <c r="AD27" s="33"/>
     </row>
     <row r="28" spans="1:31">
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="17" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" s="1"/>
@@ -4352,14 +4343,14 @@
       <c r="S28" s="2"/>
       <c r="V28" s="2"/>
       <c r="X28" s="17" t="s">
-        <v>170</v>
-      </c>
-      <c r="AA28" s="38"/>
-      <c r="AB28" s="31"/>
-      <c r="AC28" s="31"/>
-      <c r="AD28" s="32"/>
+        <v>165</v>
+      </c>
+      <c r="AA28" s="49"/>
+      <c r="AB28" s="33"/>
+      <c r="AC28" s="33"/>
+      <c r="AD28" s="44"/>
       <c r="AE28" s="17" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
     <row r="29" spans="1:31" ht="123.75">
@@ -4367,7 +4358,7 @@
       <c r="E29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="18" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" s="1"/>
@@ -4377,27 +4368,34 @@
       <c r="V29" s="2"/>
       <c r="W29" s="2"/>
       <c r="X29" s="20" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="Z29" s="21"/>
-      <c r="AA29" s="38"/>
+      <c r="AA29" s="49"/>
       <c r="AB29" s="22"/>
       <c r="AC29" s="2"/>
       <c r="AD29" s="2"/>
       <c r="AE29" s="20" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="D23:D26"/>
-    <mergeCell ref="R23:R26"/>
-    <mergeCell ref="O23:O26"/>
-    <mergeCell ref="V23:V26"/>
-    <mergeCell ref="N23:N26"/>
-    <mergeCell ref="S23:S26"/>
-    <mergeCell ref="E23:E26"/>
-    <mergeCell ref="H23:H26"/>
+    <mergeCell ref="AD23:AD28"/>
+    <mergeCell ref="AB20:AC22"/>
+    <mergeCell ref="AD20:AD22"/>
+    <mergeCell ref="W23:W26"/>
+    <mergeCell ref="I23:I26"/>
+    <mergeCell ref="L23:L26"/>
+    <mergeCell ref="J23:J26"/>
+    <mergeCell ref="K23:K26"/>
+    <mergeCell ref="M23:M26"/>
+    <mergeCell ref="Y23:Y26"/>
+    <mergeCell ref="Z23:Z26"/>
+    <mergeCell ref="AA20:AA22"/>
+    <mergeCell ref="AA23:AA29"/>
+    <mergeCell ref="AB23:AB28"/>
+    <mergeCell ref="AC23:AC28"/>
     <mergeCell ref="AE20:AE22"/>
     <mergeCell ref="AE23:AE26"/>
     <mergeCell ref="F20:Z22"/>
@@ -4414,21 +4412,14 @@
     <mergeCell ref="T23:T26"/>
     <mergeCell ref="U23:U26"/>
     <mergeCell ref="B23:B26"/>
-    <mergeCell ref="AD23:AD28"/>
-    <mergeCell ref="AB20:AC22"/>
-    <mergeCell ref="AD20:AD22"/>
-    <mergeCell ref="W23:W26"/>
-    <mergeCell ref="I23:I26"/>
-    <mergeCell ref="L23:L26"/>
-    <mergeCell ref="J23:J26"/>
-    <mergeCell ref="K23:K26"/>
-    <mergeCell ref="M23:M26"/>
-    <mergeCell ref="Y23:Y26"/>
-    <mergeCell ref="Z23:Z26"/>
-    <mergeCell ref="AA20:AA22"/>
-    <mergeCell ref="AA23:AA29"/>
-    <mergeCell ref="AB23:AB28"/>
-    <mergeCell ref="AC23:AC28"/>
+    <mergeCell ref="D23:D26"/>
+    <mergeCell ref="R23:R26"/>
+    <mergeCell ref="O23:O26"/>
+    <mergeCell ref="V23:V26"/>
+    <mergeCell ref="N23:N26"/>
+    <mergeCell ref="S23:S26"/>
+    <mergeCell ref="E23:E26"/>
+    <mergeCell ref="H23:H26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -4481,32 +4472,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:28" ht="21">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="30"/>
+      <c r="B2" s="31"/>
       <c r="C2" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:28" ht="21">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="30"/>
+      <c r="B3" s="31"/>
       <c r="C3" s="3" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
     </row>
     <row r="4" spans="1:28" ht="21">
-      <c r="A4" s="48" t="s">
-        <v>184</v>
-      </c>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
+      <c r="A4" s="43" t="s">
+        <v>179</v>
+      </c>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
       <c r="G4" s="1"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="19"/>
@@ -4517,73 +4508,73 @@
         <v>10</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F7" s="14" t="s">
         <v>8</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J7" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="K7" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="L7" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="K7" s="14" t="s">
+      <c r="M7" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="N7" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="O7" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="P7" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q7" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="R7" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="L7" s="14" t="s">
+      <c r="S7" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="M7" s="14" t="s">
+      <c r="T7" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="U7" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="V7" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="W7" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="X7" s="14" t="s">
         <v>117</v>
-      </c>
-      <c r="N7" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="O7" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="P7" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q7" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="R7" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="S7" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="T7" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="U7" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="V7" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="W7" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="X7" s="14" t="s">
-        <v>120</v>
       </c>
       <c r="Y7" s="14" t="s">
         <v>18</v>
@@ -4592,10 +4583,10 @@
         <v>19</v>
       </c>
       <c r="AA7" s="14" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="AB7" s="14" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:28" s="13" customFormat="1">
@@ -4606,40 +4597,40 @@
         <v>1</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E8" s="23" t="s">
         <v>9</v>
       </c>
       <c r="F8" s="23" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="H8" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="K8" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="L8" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="I8" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="J8" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="K8" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="L8" s="23" t="s">
-        <v>126</v>
-      </c>
       <c r="M8" s="23" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="N8" s="23" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="O8" s="23" t="s">
         <v>0</v>
@@ -4648,16 +4639,16 @@
         <v>0</v>
       </c>
       <c r="Q8" s="12" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="R8" s="23" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="S8" s="23" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="T8" s="23" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="U8" s="23" t="s">
         <v>9</v>
@@ -4692,25 +4683,25 @@
         <v>1</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E9" s="23" t="s">
         <v>9</v>
       </c>
       <c r="F9" s="23" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="J9" s="12" t="s">
         <v>1</v>
@@ -4719,7 +4710,7 @@
         <v>1</v>
       </c>
       <c r="L9" s="23" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="M9" s="23" t="s">
         <v>22</v>
@@ -4737,25 +4728,25 @@
         <v>0</v>
       </c>
       <c r="R9" s="23" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="S9" s="23" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="T9" s="23" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="U9" s="23" t="s">
         <v>2</v>
       </c>
       <c r="V9" s="23" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="W9" s="23" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="X9" s="23" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="Y9" s="23" t="s">
         <v>9</v>
@@ -4778,25 +4769,25 @@
         <v>1</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E10" s="23" t="s">
         <v>9</v>
       </c>
       <c r="F10" s="23" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="J10" s="12" t="s">
         <v>3</v>
@@ -4808,7 +4799,7 @@
         <v>34</v>
       </c>
       <c r="M10" s="23" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="N10" s="23" t="s">
         <v>3</v>
@@ -4823,25 +4814,25 @@
         <v>0</v>
       </c>
       <c r="R10" s="23" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="S10" s="23" t="s">
         <v>34</v>
       </c>
       <c r="T10" s="23" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="U10" s="23" t="s">
         <v>2</v>
       </c>
       <c r="V10" s="23" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="W10" s="23" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="X10" s="23" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="Y10" s="23" t="s">
         <v>9</v>
@@ -4853,7 +4844,7 @@
         <v>9</v>
       </c>
       <c r="AB10" s="23" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:28" s="13" customFormat="1">
@@ -4864,25 +4855,25 @@
         <v>1</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E11" s="23" t="s">
         <v>9</v>
       </c>
       <c r="F11" s="23" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="I11" s="12" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="J11" s="12" t="s">
         <v>3</v>
@@ -4894,7 +4885,7 @@
         <v>34</v>
       </c>
       <c r="M11" s="23" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="N11" s="23" t="s">
         <v>3</v>
@@ -4909,25 +4900,25 @@
         <v>0</v>
       </c>
       <c r="R11" s="23" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="S11" s="23" t="s">
         <v>34</v>
       </c>
       <c r="T11" s="23" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="U11" s="23" t="s">
         <v>2</v>
       </c>
       <c r="V11" s="23" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="W11" s="23" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="X11" s="23" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="Y11" s="23" t="s">
         <v>9</v>
@@ -4939,7 +4930,7 @@
         <v>9</v>
       </c>
       <c r="AB11" s="23" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:28" s="13" customFormat="1">
@@ -4950,25 +4941,25 @@
         <v>1</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E12" s="23" t="s">
         <v>9</v>
       </c>
       <c r="F12" s="23" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="I12" s="12" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="J12" s="12" t="s">
         <v>3</v>
@@ -4980,7 +4971,7 @@
         <v>34</v>
       </c>
       <c r="M12" s="23" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="N12" s="23" t="s">
         <v>1</v>
@@ -4995,25 +4986,25 @@
         <v>0</v>
       </c>
       <c r="R12" s="23" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="S12" s="23" t="s">
         <v>34</v>
       </c>
       <c r="T12" s="23" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="U12" s="23" t="s">
         <v>2</v>
       </c>
       <c r="V12" s="23" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="W12" s="23" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="X12" s="23" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="Y12" s="23" t="s">
         <v>9</v>
@@ -5025,7 +5016,7 @@
         <v>9</v>
       </c>
       <c r="AB12" s="23" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
     </row>
     <row r="13" spans="1:28" s="13" customFormat="1">
@@ -5036,25 +5027,25 @@
         <v>1</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E13" s="23" t="s">
         <v>9</v>
       </c>
       <c r="F13" s="23" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="I13" s="12" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="J13" s="12" t="s">
         <v>3</v>
@@ -5066,7 +5057,7 @@
         <v>34</v>
       </c>
       <c r="M13" s="23" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="N13" s="23" t="s">
         <v>1</v>
@@ -5081,25 +5072,25 @@
         <v>0</v>
       </c>
       <c r="R13" s="23" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="S13" s="23" t="s">
         <v>34</v>
       </c>
       <c r="T13" s="23" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="U13" s="23" t="s">
         <v>2</v>
       </c>
       <c r="V13" s="23" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="W13" s="23" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="X13" s="23" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="Y13" s="23" t="s">
         <v>9</v>
@@ -5111,7 +5102,7 @@
         <v>9</v>
       </c>
       <c r="AB13" s="23" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14" spans="1:28" s="13" customFormat="1">
@@ -5122,25 +5113,25 @@
         <v>1</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E14" s="23" t="s">
         <v>9</v>
       </c>
       <c r="F14" s="23" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="H14" s="12" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="I14" s="12" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="J14" s="12" t="s">
         <v>3</v>
@@ -5152,7 +5143,7 @@
         <v>34</v>
       </c>
       <c r="M14" s="23" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="N14" s="23" t="s">
         <v>1</v>
@@ -5167,25 +5158,25 @@
         <v>0</v>
       </c>
       <c r="R14" s="23" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="S14" s="23" t="s">
         <v>34</v>
       </c>
       <c r="T14" s="23" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="U14" s="23" t="s">
         <v>2</v>
       </c>
       <c r="V14" s="23" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="W14" s="23" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="X14" s="23" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="Y14" s="23" t="s">
         <v>9</v>
@@ -5197,7 +5188,7 @@
         <v>9</v>
       </c>
       <c r="AB14" s="23" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15" spans="1:28" s="13" customFormat="1">
@@ -5208,25 +5199,25 @@
         <v>1</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E15" s="23" t="s">
         <v>9</v>
       </c>
       <c r="F15" s="23" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="I15" s="12" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="J15" s="12" t="s">
         <v>1</v>
@@ -5238,7 +5229,7 @@
         <v>34</v>
       </c>
       <c r="M15" s="23" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="N15" s="23" t="s">
         <v>3</v>
@@ -5253,37 +5244,37 @@
         <v>0</v>
       </c>
       <c r="R15" s="23" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="S15" s="23" t="s">
         <v>34</v>
       </c>
       <c r="T15" s="23" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="U15" s="23" t="s">
         <v>1</v>
       </c>
       <c r="V15" s="23" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="W15" s="23" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="X15" s="23" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="Y15" s="23" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="Z15" s="23" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="AA15" s="23" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="AB15" s="23" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="16" spans="1:28" s="13" customFormat="1">
@@ -5294,25 +5285,25 @@
         <v>1</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E16" s="23" t="s">
         <v>9</v>
       </c>
       <c r="F16" s="23" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="I16" s="12" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="J16" s="12" t="s">
         <v>1</v>
@@ -5324,13 +5315,13 @@
         <v>34</v>
       </c>
       <c r="M16" s="23" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="N16" s="23" t="s">
         <v>1</v>
       </c>
       <c r="O16" s="23" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="P16" s="12" t="s">
         <v>1</v>
@@ -5339,37 +5330,37 @@
         <v>0</v>
       </c>
       <c r="R16" s="23" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="S16" s="23" t="s">
         <v>34</v>
       </c>
       <c r="T16" s="23" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="U16" s="23" t="s">
         <v>1</v>
       </c>
       <c r="V16" s="23" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="W16" s="23" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="X16" s="23" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="Y16" s="23" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="Z16" s="23" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="AA16" s="23" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="AB16" s="23" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="17" spans="1:28" s="13" customFormat="1">
@@ -5380,25 +5371,25 @@
         <v>1</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E17" s="23" t="s">
         <v>9</v>
       </c>
       <c r="F17" s="23" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="H17" s="12" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="I17" s="12" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="J17" s="12" t="s">
         <v>1</v>
@@ -5410,13 +5401,13 @@
         <v>33</v>
       </c>
       <c r="M17" s="23" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="N17" s="23" t="s">
         <v>0</v>
       </c>
       <c r="O17" s="23" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="P17" s="12" t="s">
         <v>4</v>
@@ -5425,25 +5416,25 @@
         <v>2</v>
       </c>
       <c r="R17" s="23" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="S17" s="23" t="s">
         <v>33</v>
       </c>
       <c r="T17" s="23" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="U17" s="23" t="s">
         <v>3</v>
       </c>
       <c r="V17" s="23" t="s">
+        <v>271</v>
+      </c>
+      <c r="W17" s="23" t="s">
         <v>276</v>
       </c>
-      <c r="W17" s="23" t="s">
-        <v>281</v>
-      </c>
       <c r="X17" s="23" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="Y17" s="23" t="s">
         <v>9</v>
@@ -5455,7 +5446,7 @@
         <v>9</v>
       </c>
       <c r="AB17" s="23" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="18" spans="1:28" s="12" customFormat="1">
@@ -5466,25 +5457,25 @@
         <v>1</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E18" s="12" t="s">
         <v>9</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="I18" s="12" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="J18" s="12" t="s">
         <v>1</v>
@@ -5496,13 +5487,13 @@
         <v>33</v>
       </c>
       <c r="M18" s="12" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="N18" s="12" t="s">
         <v>0</v>
       </c>
       <c r="O18" s="12" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="P18" s="12" t="s">
         <v>5</v>
@@ -5511,25 +5502,25 @@
         <v>3</v>
       </c>
       <c r="R18" s="12" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="S18" s="12" t="s">
         <v>33</v>
       </c>
       <c r="T18" s="12" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="U18" s="12" t="s">
         <v>3</v>
       </c>
       <c r="V18" s="12" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="W18" s="12" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="X18" s="12" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="Y18" s="12" t="s">
         <v>9</v>
@@ -5541,7 +5532,7 @@
         <v>9</v>
       </c>
       <c r="AB18" s="12" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="19" spans="1:28" s="2" customFormat="1"/>
@@ -5558,267 +5549,267 @@
       <c r="X20" s="2"/>
     </row>
     <row r="21" spans="1:28" ht="11.25" customHeight="1">
-      <c r="E21" s="33" t="s">
-        <v>195</v>
-      </c>
-      <c r="F21" s="33"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="33"/>
-      <c r="I21" s="33"/>
-      <c r="J21" s="33"/>
-      <c r="K21" s="33"/>
-      <c r="L21" s="33"/>
-      <c r="M21" s="33"/>
-      <c r="N21" s="33"/>
-      <c r="O21" s="33"/>
-      <c r="P21" s="33"/>
-      <c r="Q21" s="33"/>
-      <c r="R21" s="33"/>
-      <c r="S21" s="33"/>
-      <c r="T21" s="33"/>
-      <c r="U21" s="33"/>
-      <c r="V21" s="33"/>
-      <c r="W21" s="33"/>
-      <c r="X21" s="33"/>
-      <c r="Y21" s="33" t="s">
-        <v>233</v>
-      </c>
-      <c r="Z21" s="33"/>
-      <c r="AA21" s="33" t="s">
-        <v>234</v>
-      </c>
-      <c r="AB21" s="33" t="s">
-        <v>301</v>
+      <c r="E21" s="32" t="s">
+        <v>190</v>
+      </c>
+      <c r="F21" s="32"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="32"/>
+      <c r="K21" s="32"/>
+      <c r="L21" s="32"/>
+      <c r="M21" s="32"/>
+      <c r="N21" s="32"/>
+      <c r="O21" s="32"/>
+      <c r="P21" s="32"/>
+      <c r="Q21" s="32"/>
+      <c r="R21" s="32"/>
+      <c r="S21" s="32"/>
+      <c r="T21" s="32"/>
+      <c r="U21" s="32"/>
+      <c r="V21" s="32"/>
+      <c r="W21" s="32"/>
+      <c r="X21" s="32"/>
+      <c r="Y21" s="32" t="s">
+        <v>228</v>
+      </c>
+      <c r="Z21" s="32"/>
+      <c r="AA21" s="32" t="s">
+        <v>229</v>
+      </c>
+      <c r="AB21" s="32" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="22" spans="1:28">
-      <c r="E22" s="33"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="33"/>
-      <c r="I22" s="33"/>
-      <c r="J22" s="33"/>
-      <c r="K22" s="33"/>
-      <c r="L22" s="33"/>
-      <c r="M22" s="33"/>
-      <c r="N22" s="33"/>
-      <c r="O22" s="33"/>
-      <c r="P22" s="33"/>
-      <c r="Q22" s="33"/>
-      <c r="R22" s="33"/>
-      <c r="S22" s="33"/>
-      <c r="T22" s="33"/>
-      <c r="U22" s="33"/>
-      <c r="V22" s="33"/>
-      <c r="W22" s="33"/>
-      <c r="X22" s="33"/>
-      <c r="Y22" s="33"/>
-      <c r="Z22" s="33"/>
-      <c r="AA22" s="33"/>
-      <c r="AB22" s="33" t="s">
-        <v>300</v>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="32"/>
+      <c r="J22" s="32"/>
+      <c r="K22" s="32"/>
+      <c r="L22" s="32"/>
+      <c r="M22" s="32"/>
+      <c r="N22" s="32"/>
+      <c r="O22" s="32"/>
+      <c r="P22" s="32"/>
+      <c r="Q22" s="32"/>
+      <c r="R22" s="32"/>
+      <c r="S22" s="32"/>
+      <c r="T22" s="32"/>
+      <c r="U22" s="32"/>
+      <c r="V22" s="32"/>
+      <c r="W22" s="32"/>
+      <c r="X22" s="32"/>
+      <c r="Y22" s="32"/>
+      <c r="Z22" s="32"/>
+      <c r="AA22" s="32"/>
+      <c r="AB22" s="32" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="23" spans="1:28">
-      <c r="E23" s="33"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="33"/>
-      <c r="I23" s="33"/>
-      <c r="J23" s="33"/>
-      <c r="K23" s="33"/>
-      <c r="L23" s="33"/>
-      <c r="M23" s="33"/>
-      <c r="N23" s="33"/>
-      <c r="O23" s="33"/>
-      <c r="P23" s="33"/>
-      <c r="Q23" s="33"/>
-      <c r="R23" s="33"/>
-      <c r="S23" s="33"/>
-      <c r="T23" s="33"/>
-      <c r="U23" s="33"/>
-      <c r="V23" s="33"/>
-      <c r="W23" s="33"/>
-      <c r="X23" s="33"/>
-      <c r="Y23" s="33"/>
-      <c r="Z23" s="33"/>
-      <c r="AA23" s="33"/>
-      <c r="AB23" s="33"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="32"/>
+      <c r="J23" s="32"/>
+      <c r="K23" s="32"/>
+      <c r="L23" s="32"/>
+      <c r="M23" s="32"/>
+      <c r="N23" s="32"/>
+      <c r="O23" s="32"/>
+      <c r="P23" s="32"/>
+      <c r="Q23" s="32"/>
+      <c r="R23" s="32"/>
+      <c r="S23" s="32"/>
+      <c r="T23" s="32"/>
+      <c r="U23" s="32"/>
+      <c r="V23" s="32"/>
+      <c r="W23" s="32"/>
+      <c r="X23" s="32"/>
+      <c r="Y23" s="32"/>
+      <c r="Z23" s="32"/>
+      <c r="AA23" s="32"/>
+      <c r="AB23" s="32"/>
     </row>
     <row r="24" spans="1:28" ht="11.25" customHeight="1">
-      <c r="A24" s="27" t="s">
+      <c r="A24" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="27" t="s">
-        <v>266</v>
-      </c>
-      <c r="C24" s="27" t="s">
-        <v>174</v>
-      </c>
-      <c r="D24" s="27" t="s">
-        <v>174</v>
-      </c>
-      <c r="E24" s="27" t="s">
-        <v>265</v>
-      </c>
-      <c r="F24" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="G24" s="27" t="s">
-        <v>172</v>
-      </c>
-      <c r="H24" s="27" t="s">
-        <v>173</v>
-      </c>
-      <c r="I24" s="27" t="s">
-        <v>191</v>
-      </c>
-      <c r="J24" s="27" t="s">
-        <v>175</v>
-      </c>
-      <c r="K24" s="27" t="s">
-        <v>285</v>
-      </c>
-      <c r="L24" s="27" t="s">
+      <c r="B24" s="28" t="s">
+        <v>261</v>
+      </c>
+      <c r="C24" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="D24" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="E24" s="28" t="s">
+        <v>260</v>
+      </c>
+      <c r="F24" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="G24" s="28" t="s">
+        <v>167</v>
+      </c>
+      <c r="H24" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="I24" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="J24" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="K24" s="28" t="s">
+        <v>280</v>
+      </c>
+      <c r="L24" s="28" t="s">
+        <v>281</v>
+      </c>
+      <c r="M24" s="33" t="s">
+        <v>292</v>
+      </c>
+      <c r="N24" s="62" t="s">
         <v>286</v>
       </c>
-      <c r="M24" s="31" t="s">
+      <c r="O24" s="53" t="s">
+        <v>293</v>
+      </c>
+      <c r="P24" s="28" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q24" s="28" t="s">
+        <v>278</v>
+      </c>
+      <c r="R24" s="28" t="s">
+        <v>282</v>
+      </c>
+      <c r="S24" s="28" t="s">
+        <v>298</v>
+      </c>
+      <c r="T24" s="28" t="s">
+        <v>283</v>
+      </c>
+      <c r="U24" s="28" t="s">
+        <v>284</v>
+      </c>
+      <c r="V24" s="28" t="s">
+        <v>287</v>
+      </c>
+      <c r="W24" s="28" t="s">
+        <v>288</v>
+      </c>
+      <c r="X24" s="28" t="s">
+        <v>289</v>
+      </c>
+      <c r="Y24" s="56" t="s">
+        <v>290</v>
+      </c>
+      <c r="Z24" s="59" t="s">
+        <v>291</v>
+      </c>
+      <c r="AA24" s="33" t="s">
+        <v>230</v>
+      </c>
+      <c r="AB24" s="50" t="s">
         <v>297</v>
       </c>
-      <c r="N24" s="49" t="s">
-        <v>291</v>
-      </c>
-      <c r="O24" s="53" t="s">
-        <v>298</v>
-      </c>
-      <c r="P24" s="27" t="s">
-        <v>299</v>
-      </c>
-      <c r="Q24" s="27" t="s">
-        <v>283</v>
-      </c>
-      <c r="R24" s="27" t="s">
-        <v>287</v>
-      </c>
-      <c r="S24" s="27" t="s">
-        <v>303</v>
-      </c>
-      <c r="T24" s="27" t="s">
-        <v>288</v>
-      </c>
-      <c r="U24" s="27" t="s">
-        <v>289</v>
-      </c>
-      <c r="V24" s="27" t="s">
-        <v>292</v>
-      </c>
-      <c r="W24" s="27" t="s">
-        <v>293</v>
-      </c>
-      <c r="X24" s="27" t="s">
-        <v>294</v>
-      </c>
-      <c r="Y24" s="56" t="s">
-        <v>295</v>
-      </c>
-      <c r="Z24" s="59" t="s">
-        <v>296</v>
-      </c>
-      <c r="AA24" s="31" t="s">
-        <v>235</v>
-      </c>
-      <c r="AB24" s="50" t="s">
-        <v>302</v>
-      </c>
     </row>
     <row r="25" spans="1:28">
-      <c r="A25" s="28"/>
-      <c r="B25" s="28"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="28"/>
-      <c r="J25" s="28"/>
-      <c r="K25" s="28"/>
-      <c r="L25" s="28"/>
-      <c r="M25" s="31"/>
-      <c r="N25" s="49"/>
+      <c r="A25" s="29"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="29"/>
+      <c r="M25" s="33"/>
+      <c r="N25" s="62"/>
       <c r="O25" s="54"/>
-      <c r="P25" s="28"/>
-      <c r="Q25" s="28"/>
-      <c r="R25" s="28"/>
-      <c r="S25" s="28"/>
-      <c r="T25" s="28"/>
-      <c r="U25" s="28"/>
-      <c r="V25" s="28"/>
-      <c r="W25" s="28"/>
-      <c r="X25" s="28"/>
+      <c r="P25" s="29"/>
+      <c r="Q25" s="29"/>
+      <c r="R25" s="29"/>
+      <c r="S25" s="29"/>
+      <c r="T25" s="29"/>
+      <c r="U25" s="29"/>
+      <c r="V25" s="29"/>
+      <c r="W25" s="29"/>
+      <c r="X25" s="29"/>
       <c r="Y25" s="57"/>
       <c r="Z25" s="60"/>
-      <c r="AA25" s="31"/>
+      <c r="AA25" s="33"/>
       <c r="AB25" s="51"/>
     </row>
     <row r="26" spans="1:28">
-      <c r="A26" s="28"/>
-      <c r="B26" s="28"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="28"/>
-      <c r="K26" s="28"/>
-      <c r="L26" s="28"/>
-      <c r="M26" s="31"/>
-      <c r="N26" s="49"/>
+      <c r="A26" s="29"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="29"/>
+      <c r="M26" s="33"/>
+      <c r="N26" s="62"/>
       <c r="O26" s="54"/>
-      <c r="P26" s="28"/>
-      <c r="Q26" s="28"/>
-      <c r="R26" s="28"/>
-      <c r="S26" s="28"/>
-      <c r="T26" s="28"/>
-      <c r="U26" s="28"/>
-      <c r="V26" s="28"/>
-      <c r="W26" s="28"/>
-      <c r="X26" s="28"/>
+      <c r="P26" s="29"/>
+      <c r="Q26" s="29"/>
+      <c r="R26" s="29"/>
+      <c r="S26" s="29"/>
+      <c r="T26" s="29"/>
+      <c r="U26" s="29"/>
+      <c r="V26" s="29"/>
+      <c r="W26" s="29"/>
+      <c r="X26" s="29"/>
       <c r="Y26" s="57"/>
       <c r="Z26" s="60"/>
-      <c r="AA26" s="31"/>
+      <c r="AA26" s="33"/>
       <c r="AB26" s="51"/>
     </row>
     <row r="27" spans="1:28">
-      <c r="A27" s="29"/>
-      <c r="B27" s="29"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="29"/>
-      <c r="I27" s="29"/>
-      <c r="J27" s="29"/>
-      <c r="K27" s="29"/>
-      <c r="L27" s="29"/>
-      <c r="M27" s="31"/>
-      <c r="N27" s="49"/>
+      <c r="A27" s="30"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="30"/>
+      <c r="J27" s="30"/>
+      <c r="K27" s="30"/>
+      <c r="L27" s="30"/>
+      <c r="M27" s="33"/>
+      <c r="N27" s="62"/>
       <c r="O27" s="55"/>
-      <c r="P27" s="29"/>
-      <c r="Q27" s="29"/>
-      <c r="R27" s="29"/>
-      <c r="S27" s="29"/>
-      <c r="T27" s="29"/>
-      <c r="U27" s="29"/>
-      <c r="V27" s="29"/>
-      <c r="W27" s="29"/>
-      <c r="X27" s="29"/>
+      <c r="P27" s="30"/>
+      <c r="Q27" s="30"/>
+      <c r="R27" s="30"/>
+      <c r="S27" s="30"/>
+      <c r="T27" s="30"/>
+      <c r="U27" s="30"/>
+      <c r="V27" s="30"/>
+      <c r="W27" s="30"/>
+      <c r="X27" s="30"/>
       <c r="Y27" s="57"/>
       <c r="Z27" s="60"/>
-      <c r="AA27" s="31"/>
+      <c r="AA27" s="33"/>
       <c r="AB27" s="51"/>
     </row>
     <row r="28" spans="1:28">
@@ -5827,7 +5818,7 @@
       <c r="K28" s="2"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
-      <c r="N28" s="49"/>
+      <c r="N28" s="62"/>
       <c r="R28" s="2"/>
       <c r="S28" s="2"/>
       <c r="T28" s="2"/>
@@ -5835,52 +5826,52 @@
       <c r="X28" s="2"/>
       <c r="Y28" s="57"/>
       <c r="Z28" s="60"/>
-      <c r="AA28" s="31"/>
+      <c r="AA28" s="33"/>
       <c r="AB28" s="51"/>
     </row>
     <row r="29" spans="1:28">
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="J29" s="17" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="K29" s="17" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
-      <c r="N29" s="49"/>
+      <c r="N29" s="62"/>
       <c r="R29" s="2"/>
       <c r="S29" s="17" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="U29" s="17" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="X29" s="2"/>
       <c r="Y29" s="58"/>
       <c r="Z29" s="61"/>
-      <c r="AA29" s="31"/>
+      <c r="AA29" s="33"/>
       <c r="AB29" s="52"/>
     </row>
     <row r="30" spans="1:28" ht="202.5">
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="J30" s="20" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="K30" s="24" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
-      <c r="N30" s="49"/>
+      <c r="N30" s="62"/>
       <c r="R30" s="2"/>
       <c r="S30" s="25" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="U30" s="20" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="X30" s="2"/>
     </row>
@@ -6068,25 +6059,6 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="AB21:AB23"/>
-    <mergeCell ref="AB24:AB29"/>
-    <mergeCell ref="S24:S27"/>
-    <mergeCell ref="E21:X23"/>
-    <mergeCell ref="V24:V27"/>
-    <mergeCell ref="W24:W27"/>
-    <mergeCell ref="E24:E27"/>
-    <mergeCell ref="H24:H27"/>
-    <mergeCell ref="O24:O27"/>
-    <mergeCell ref="Y21:Z23"/>
-    <mergeCell ref="Y24:Y29"/>
-    <mergeCell ref="Z24:Z29"/>
-    <mergeCell ref="AA24:AA29"/>
-    <mergeCell ref="AA21:AA23"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="C24:C27"/>
     <mergeCell ref="D24:D27"/>
     <mergeCell ref="A4:F4"/>
     <mergeCell ref="X24:X27"/>
@@ -6103,6 +6075,25 @@
     <mergeCell ref="L24:L27"/>
     <mergeCell ref="R24:R27"/>
     <mergeCell ref="G24:G27"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="AB21:AB23"/>
+    <mergeCell ref="AB24:AB29"/>
+    <mergeCell ref="S24:S27"/>
+    <mergeCell ref="E21:X23"/>
+    <mergeCell ref="V24:V27"/>
+    <mergeCell ref="W24:W27"/>
+    <mergeCell ref="E24:E27"/>
+    <mergeCell ref="H24:H27"/>
+    <mergeCell ref="O24:O27"/>
+    <mergeCell ref="Y21:Z23"/>
+    <mergeCell ref="Y24:Y29"/>
+    <mergeCell ref="Z24:Z29"/>
+    <mergeCell ref="AA24:AA29"/>
+    <mergeCell ref="AA21:AA23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -6117,7 +6108,7 @@
   <dimension ref="A2:H28"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -6134,55 +6125,55 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="21">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="30"/>
+      <c r="B2" s="31"/>
       <c r="C2" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="21">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="30"/>
+      <c r="B3" s="31"/>
       <c r="C3" s="3" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="13" customFormat="1">
       <c r="A6" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C6" s="14" t="s">
         <v>24</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F6" s="14" t="s">
         <v>25</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>157</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>2</v>
@@ -6191,13 +6182,13 @@
         <v>0</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>28</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>1</v>
@@ -6205,10 +6196,10 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>3</v>
@@ -6217,13 +6208,13 @@
         <v>0</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>1</v>
@@ -6231,10 +6222,10 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>4</v>
@@ -6243,13 +6234,13 @@
         <v>0</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>1</v>
@@ -6257,10 +6248,10 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>4</v>
@@ -6269,13 +6260,13 @@
         <v>1</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>1</v>
@@ -6283,10 +6274,10 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>4</v>
@@ -6295,13 +6286,13 @@
         <v>0</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>1</v>
@@ -6309,10 +6300,10 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>4</v>
@@ -6321,13 +6312,13 @@
         <v>0</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>1</v>
@@ -6335,10 +6326,10 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>4</v>
@@ -6347,13 +6338,13 @@
         <v>1</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>1</v>
@@ -6361,10 +6352,10 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>4</v>
@@ -6373,13 +6364,13 @@
         <v>0</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>1</v>
@@ -6387,10 +6378,10 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>4</v>
@@ -6399,13 +6390,13 @@
         <v>2</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>1</v>
@@ -6413,142 +6404,137 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="B19" s="33" t="s">
-        <v>313</v>
-      </c>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33" t="s">
-        <v>316</v>
-      </c>
-      <c r="G19" s="33" t="s">
-        <v>314</v>
-      </c>
-      <c r="H19" s="33"/>
+      <c r="B19" s="32" t="s">
+        <v>308</v>
+      </c>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32" t="s">
+        <v>311</v>
+      </c>
+      <c r="G19" s="32" t="s">
+        <v>309</v>
+      </c>
+      <c r="H19" s="32"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="B20" s="33"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="33"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="32"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="B21" s="33"/>
-      <c r="C21" s="33"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="33"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="32"/>
     </row>
     <row r="22" spans="1:8" ht="11.25" customHeight="1">
-      <c r="A22" s="35" t="s">
-        <v>174</v>
-      </c>
-      <c r="B22" s="27" t="s">
-        <v>309</v>
-      </c>
-      <c r="C22" s="27" t="s">
+      <c r="A22" s="46" t="s">
+        <v>169</v>
+      </c>
+      <c r="B22" s="28" t="s">
+        <v>304</v>
+      </c>
+      <c r="C22" s="28" t="s">
+        <v>302</v>
+      </c>
+      <c r="D22" s="28" t="s">
+        <v>303</v>
+      </c>
+      <c r="E22" s="28" t="s">
+        <v>305</v>
+      </c>
+      <c r="F22" s="63" t="s">
+        <v>312</v>
+      </c>
+      <c r="G22" s="28" t="s">
+        <v>306</v>
+      </c>
+      <c r="H22" s="28" t="s">
         <v>307</v>
       </c>
-      <c r="D22" s="27" t="s">
-        <v>308</v>
-      </c>
-      <c r="E22" s="27" t="s">
-        <v>310</v>
-      </c>
-      <c r="F22" s="62" t="s">
-        <v>317</v>
-      </c>
-      <c r="G22" s="27" t="s">
-        <v>311</v>
-      </c>
-      <c r="H22" s="27" t="s">
-        <v>312</v>
-      </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="36"/>
-      <c r="B23" s="28"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="63"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
+      <c r="A23" s="47"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="64"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="37"/>
-      <c r="B24" s="28"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="63"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="28"/>
+      <c r="A24" s="48"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="64"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="29"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="B25" s="28"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="64"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="29"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="65"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="30"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="B26" s="29"/>
+      <c r="B26" s="30"/>
     </row>
     <row r="27" spans="1:8">
       <c r="H27" s="17" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="101.25">
-      <c r="F28" s="65" t="s">
-        <v>318</v>
+      <c r="F28" s="27" t="s">
+        <v>313</v>
       </c>
       <c r="G28" s="16"/>
       <c r="H28" s="18" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="B22:B26"/>
-    <mergeCell ref="F19:F21"/>
     <mergeCell ref="H22:H25"/>
     <mergeCell ref="B19:E21"/>
     <mergeCell ref="G19:H21"/>
@@ -6557,6 +6543,11 @@
     <mergeCell ref="D22:D25"/>
     <mergeCell ref="E22:E25"/>
     <mergeCell ref="G22:G25"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="F19:F21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -6568,7 +6559,7 @@
   <dimension ref="C2:E32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E28" sqref="E2:E28"/>
+      <selection activeCell="E2" sqref="E2:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6577,89 +6568,89 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:5">
-      <c r="C2" s="14" t="s">
-        <v>58</v>
+      <c r="C2" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="E2" t="str">
         <f>CONCATENATE(C2,", ")</f>
-        <v xml:space="preserve">CD_FILIAL, </v>
+        <v xml:space="preserve">CD_CIA, </v>
       </c>
     </row>
     <row r="3" spans="3:5">
-      <c r="C3" s="14" t="s">
-        <v>59</v>
+      <c r="C3" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="E3" t="str">
         <f t="shared" ref="E3:E32" si="0">CONCATENATE(C3,", ")</f>
-        <v xml:space="preserve">CD_MODULO, </v>
+        <v xml:space="preserve">NR_REMESSA, </v>
       </c>
     </row>
     <row r="4" spans="3:5">
-      <c r="C4" s="14" t="s">
-        <v>116</v>
+      <c r="C4" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="E4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">CD_MODULO_TITULO_REFERENCIA, </v>
+        <v xml:space="preserve">CD_BANCO, </v>
       </c>
     </row>
     <row r="5" spans="3:5">
-      <c r="C5" s="14" t="s">
-        <v>56</v>
+      <c r="C5" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="E5" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">CD_CHAVE_PRIMARIA, </v>
+        <v xml:space="preserve">DT_REMESSA, </v>
       </c>
     </row>
     <row r="6" spans="3:5">
-      <c r="C6" s="14" t="s">
-        <v>57</v>
+      <c r="C6" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="E6" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">CD_TRANSACAO_TITULO, </v>
+        <v xml:space="preserve">NR_AGENCIA, </v>
       </c>
     </row>
     <row r="7" spans="3:5">
-      <c r="C7" s="14" t="s">
-        <v>41</v>
+      <c r="C7" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="E7" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">NR_TITULO, </v>
+        <v xml:space="preserve">NR_CONTA, </v>
       </c>
     </row>
     <row r="8" spans="3:5">
-      <c r="C8" s="14" t="s">
-        <v>105</v>
+      <c r="C8" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="E8" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">NR_MOVIMENTO, </v>
+        <v xml:space="preserve">CD_SITUACAO_ARQUIVO, </v>
       </c>
     </row>
     <row r="9" spans="3:5">
-      <c r="C9" s="14" t="s">
-        <v>106</v>
+      <c r="C9" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="E9" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">SQ_MOVIMENTO, </v>
+        <v xml:space="preserve">CD_SITUACAO_PAGAMENTO, </v>
       </c>
     </row>
     <row r="10" spans="3:5">
-      <c r="C10" s="14" t="s">
-        <v>107</v>
+      <c r="C10" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="E10" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">NR_PROGRAMACAO, </v>
+        <v xml:space="preserve">DT_ATUALIZACAO, </v>
       </c>
     </row>
     <row r="11" spans="3:5">
       <c r="C11" s="14" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E11" t="str">
         <f t="shared" si="0"/>
@@ -6668,7 +6659,7 @@
     </row>
     <row r="12" spans="3:5">
       <c r="C12" s="14" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E12" t="str">
         <f t="shared" si="0"/>
@@ -6677,7 +6668,7 @@
     </row>
     <row r="13" spans="3:5">
       <c r="C13" s="14" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E13" t="str">
         <f t="shared" si="0"/>
@@ -6686,7 +6677,7 @@
     </row>
     <row r="14" spans="3:5">
       <c r="C14" s="14" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E14" t="str">
         <f t="shared" si="0"/>
@@ -6695,7 +6686,7 @@
     </row>
     <row r="15" spans="3:5">
       <c r="C15" s="14" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E15" t="str">
         <f t="shared" si="0"/>
@@ -6704,7 +6695,7 @@
     </row>
     <row r="16" spans="3:5">
       <c r="C16" s="14" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E16" t="str">
         <f t="shared" si="0"/>
@@ -6713,7 +6704,7 @@
     </row>
     <row r="17" spans="3:5">
       <c r="C17" s="14" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E17" t="str">
         <f t="shared" si="0"/>
@@ -6740,7 +6731,7 @@
     </row>
     <row r="20" spans="3:5">
       <c r="C20" s="14" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E20" t="str">
         <f t="shared" si="0"/>
@@ -6758,7 +6749,7 @@
     </row>
     <row r="22" spans="3:5">
       <c r="C22" s="14" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E22" t="str">
         <f t="shared" si="0"/>
@@ -6767,7 +6758,7 @@
     </row>
     <row r="23" spans="3:5">
       <c r="C23" s="14" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E23" t="str">
         <f t="shared" si="0"/>
@@ -6776,7 +6767,7 @@
     </row>
     <row r="24" spans="3:5">
       <c r="C24" s="14" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E24" t="str">
         <f t="shared" si="0"/>
@@ -6785,7 +6776,7 @@
     </row>
     <row r="25" spans="3:5">
       <c r="C25" s="14" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E25" t="str">
         <f t="shared" si="0"/>
@@ -6794,7 +6785,7 @@
     </row>
     <row r="26" spans="3:5">
       <c r="C26" s="14" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E26" t="str">
         <f t="shared" si="0"/>
@@ -6803,7 +6794,7 @@
     </row>
     <row r="27" spans="3:5">
       <c r="C27" s="14" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E27" t="str">
         <f t="shared" si="0"/>
@@ -6812,7 +6803,7 @@
     </row>
     <row r="28" spans="3:5">
       <c r="C28" s="14" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E28" t="str">
         <f t="shared" si="0"/>

--- a/Documentação/Planilhas/Conferencia_CAR.xlsx
+++ b/Documentação/Planilhas/Conferencia_CAR.xlsx
@@ -4,24 +4,25 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" tabRatio="812" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" tabRatio="812" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Resumo" sheetId="93" r:id="rId1"/>
     <sheet name="stg_car_remessa" sheetId="95" r:id="rId2"/>
     <sheet name="stg_car_remessa_cobr_eletronica" sheetId="96" r:id="rId3"/>
     <sheet name="stg_car_retorno_cobr_eletronica" sheetId="97" r:id="rId4"/>
-    <sheet name="stg_car_titulo" sheetId="98" r:id="rId5"/>
-    <sheet name="stg_car_titulo_mvmto" sheetId="99" r:id="rId6"/>
-    <sheet name="stg_car_titulo_remessa" sheetId="100" r:id="rId7"/>
-    <sheet name="Plan6" sheetId="101" r:id="rId8"/>
+    <sheet name="stg_car_pedido_venda" sheetId="102" r:id="rId5"/>
+    <sheet name="stg_car_titulo" sheetId="98" r:id="rId6"/>
+    <sheet name="stg_car_titulo_mvmto" sheetId="99" r:id="rId7"/>
+    <sheet name="stg_car_titulo_remessa" sheetId="100" r:id="rId8"/>
+    <sheet name="Plan6" sheetId="101" r:id="rId9"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1103" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1195" uniqueCount="358">
   <si>
     <t>1</t>
   </si>
@@ -1033,12 +1034,138 @@
   <si>
     <t>CD_COMANDO</t>
   </si>
+  <si>
+    <t>dbo.stg_car_pedido_venda</t>
+  </si>
+  <si>
+    <t>NR_ORDEM</t>
+  </si>
+  <si>
+    <t>NR_CAMPANHA_B2B</t>
+  </si>
+  <si>
+    <t>NR_CONTRATO_B2B</t>
+  </si>
+  <si>
+    <t>42187013</t>
+  </si>
+  <si>
+    <t>V20004910</t>
+  </si>
+  <si>
+    <t>1969-12-31 21:00:00.000</t>
+  </si>
+  <si>
+    <t>FAT1167</t>
+  </si>
+  <si>
+    <t>50014024</t>
+  </si>
+  <si>
+    <t>V20001473</t>
+  </si>
+  <si>
+    <t>FAT2276</t>
+  </si>
+  <si>
+    <t>000000283</t>
+  </si>
+  <si>
+    <t>100000044</t>
+  </si>
+  <si>
+    <t>LPV100</t>
+  </si>
+  <si>
+    <t>050013574</t>
+  </si>
+  <si>
+    <t>V20006989</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>LPV105</t>
+  </si>
+  <si>
+    <t>050013524</t>
+  </si>
+  <si>
+    <t>V20004406</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>LPV109</t>
+  </si>
+  <si>
+    <t>050013530</t>
+  </si>
+  <si>
+    <t>V20006706</t>
+  </si>
+  <si>
+    <t>LPV110</t>
+  </si>
+  <si>
+    <t>050013531</t>
+  </si>
+  <si>
+    <t>V20006707</t>
+  </si>
+  <si>
+    <t>R20189</t>
+  </si>
+  <si>
+    <t>R7120</t>
+  </si>
+  <si>
+    <t>R20166</t>
+  </si>
+  <si>
+    <t>Pegar a informação da coluna "Pedido do Cliente"</t>
+  </si>
+  <si>
+    <t>Pegar a informação da Companhia no cabeçalho da tela</t>
+  </si>
+  <si>
+    <t>Pegar a informação concatenada com a coluna "Tipo de Transação" e "Documento"</t>
+  </si>
+  <si>
+    <t>Está pegando a informação do campo "rcd_utc", porém o mesmo não é apresentado nas telas do LN</t>
+  </si>
+  <si>
+    <t>Está com essa data antiga, pois o campo foi criado depois da inserção dos dados. Segundo o Fábio da Infor, isso não acontecerá no ambiente de produção</t>
+  </si>
+  <si>
+    <t>Sessão znslsc530m000 [Na lupinha, limpar todos os campos e informar o NR_PEDIDO no "Pedido Cliente". Se não aparecer na tela, navegar com a seta "Next Group" até encontrá-lo.]</t>
+  </si>
+  <si>
+    <t>Sessão znslsc500m000 [informar o NR_PEDIDO na coluna Pedido do cliente, detalhando o mesmo em seguida]</t>
+  </si>
+  <si>
+    <t>Pegar a informação da coluna "Ordem de Venda LN"</t>
+  </si>
+  <si>
+    <t>Se a coluna estiver vazia, ir para a sessão "znslsc500m000" e informar o NR_PEDIDO na coluna Pedido do cliente, detalhando o mesmo em seguida. Na aba inferior "Pedido Venda Site - Linha", detalhar a linha apresentada. Na aba superior "Geral", seção "Ordem", pegar a informação de "Ordem de Venda LN"</t>
+  </si>
+  <si>
+    <t>Na aba superior "Expedição", pegar a informação do "Código da campanha B2B" [se for zero, retornará NULL]</t>
+  </si>
+  <si>
+    <t>Na aba superior "Expedição", pegar a informação do "Código do Contrato B2B" [se for zero, retornará NULL]</t>
+  </si>
+  <si>
+    <t>znslsc530m000 e znslsc500m000</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1079,6 +1206,14 @@
     <font>
       <b/>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1374,7 +1509,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1455,43 +1590,13 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1507,6 +1612,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1545,9 +1656,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1555,6 +1663,57 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1566,9 +1725,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="FFFA7E7E"/>
       <color rgb="FFFFFFCC"/>
       <color rgb="FFCCECFF"/>
+      <color rgb="FFFA7E7E"/>
       <color rgb="FFFF5050"/>
     </mruColors>
   </colors>
@@ -2363,17 +2522,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="C19:C22"/>
     <mergeCell ref="I19:I22"/>
     <mergeCell ref="D19:D22"/>
     <mergeCell ref="E19:E22"/>
     <mergeCell ref="F19:F22"/>
     <mergeCell ref="G19:G22"/>
     <mergeCell ref="H19:H22"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="C19:C22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -2387,8 +2546,8 @@
   </sheetPr>
   <dimension ref="A2:Q25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19:D22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -2877,9 +3036,454 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
+  <dimension ref="A2:R30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21:D24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="11.25"/>
+  <cols>
+    <col min="1" max="1" width="22.5703125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="25.42578125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="47" style="2" customWidth="1"/>
+    <col min="6" max="6" width="28.140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="25.7109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="17.7109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.7109375" style="2" customWidth="1"/>
+    <col min="12" max="12" width="15.85546875" style="2" customWidth="1"/>
+    <col min="13" max="14" width="29.7109375" style="2" customWidth="1"/>
+    <col min="15" max="15" width="33.140625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="30.140625" style="2" customWidth="1"/>
+    <col min="17" max="17" width="34.28515625" style="2" customWidth="1"/>
+    <col min="18" max="18" width="32.5703125" style="2" customWidth="1"/>
+    <col min="19" max="19" width="33.42578125" style="1" customWidth="1"/>
+    <col min="20" max="20" width="36.5703125" style="1" customWidth="1"/>
+    <col min="21" max="21" width="38.5703125" style="1" customWidth="1"/>
+    <col min="22" max="22" width="34.5703125" style="1" customWidth="1"/>
+    <col min="23" max="23" width="31.85546875" style="1" customWidth="1"/>
+    <col min="24" max="24" width="41.7109375" style="1" customWidth="1"/>
+    <col min="25" max="25" width="26.7109375" style="1" customWidth="1"/>
+    <col min="26" max="26" width="23.5703125" style="1" customWidth="1"/>
+    <col min="27" max="27" width="27" style="1" customWidth="1"/>
+    <col min="28" max="28" width="29.5703125" style="1" customWidth="1"/>
+    <col min="29" max="29" width="28.85546875" style="1" customWidth="1"/>
+    <col min="30" max="30" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="21.42578125" style="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:7" ht="21">
+      <c r="A2" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="31"/>
+      <c r="C2" s="3" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="21">
+      <c r="A3" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="31"/>
+      <c r="C3" s="3" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="11.25" customHeight="1">
+      <c r="A18" s="66" t="s">
+        <v>351</v>
+      </c>
+      <c r="B18" s="66"/>
+      <c r="C18" s="66"/>
+      <c r="D18" s="66"/>
+      <c r="E18" s="66"/>
+      <c r="F18" s="67" t="s">
+        <v>352</v>
+      </c>
+      <c r="G18" s="68"/>
+    </row>
+    <row r="19" spans="1:7" ht="11.25" customHeight="1">
+      <c r="A19" s="66"/>
+      <c r="B19" s="66"/>
+      <c r="C19" s="66"/>
+      <c r="D19" s="66"/>
+      <c r="E19" s="66"/>
+      <c r="F19" s="69"/>
+      <c r="G19" s="70"/>
+    </row>
+    <row r="20" spans="1:7" ht="11.25" customHeight="1">
+      <c r="A20" s="66"/>
+      <c r="B20" s="66"/>
+      <c r="C20" s="66"/>
+      <c r="D20" s="66"/>
+      <c r="E20" s="66"/>
+      <c r="F20" s="71"/>
+      <c r="G20" s="72"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="32" t="s">
+        <v>346</v>
+      </c>
+      <c r="B21" s="32" t="s">
+        <v>347</v>
+      </c>
+      <c r="C21" s="32" t="s">
+        <v>348</v>
+      </c>
+      <c r="D21" s="32" t="s">
+        <v>349</v>
+      </c>
+      <c r="E21" s="32" t="s">
+        <v>353</v>
+      </c>
+      <c r="F21" s="32" t="s">
+        <v>355</v>
+      </c>
+      <c r="G21" s="32" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="32"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="32"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="32"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="32"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="D26" s="32" t="s">
+        <v>350</v>
+      </c>
+      <c r="E26" s="73" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="D27" s="32"/>
+      <c r="E27" s="73"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="D28" s="32"/>
+      <c r="E28" s="73"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="D29" s="32"/>
+      <c r="E29" s="73"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="D30" s="32"/>
+      <c r="E30" s="73"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A18:E20"/>
+    <mergeCell ref="E21:E24"/>
+    <mergeCell ref="E26:E30"/>
+    <mergeCell ref="F18:G20"/>
+    <mergeCell ref="F21:F24"/>
+    <mergeCell ref="G21:G24"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="C21:C24"/>
+    <mergeCell ref="D21:D24"/>
+    <mergeCell ref="D26:D30"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
   <dimension ref="A2:AE29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AE23" sqref="AE23:AE26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
@@ -2935,14 +3539,14 @@
       </c>
     </row>
     <row r="4" spans="1:31" ht="21">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="40" t="s">
         <v>179</v>
       </c>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
       <c r="G4" s="1"/>
       <c r="P4" s="19"/>
       <c r="AB4" s="2"/>
@@ -4023,102 +4627,102 @@
     <row r="20" spans="1:31" ht="11.25" customHeight="1">
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
-      <c r="F20" s="34" t="s">
+      <c r="F20" s="57" t="s">
         <v>190</v>
       </c>
-      <c r="G20" s="35"/>
-      <c r="H20" s="35"/>
-      <c r="I20" s="35"/>
-      <c r="J20" s="35"/>
-      <c r="K20" s="35"/>
-      <c r="L20" s="35"/>
-      <c r="M20" s="35"/>
-      <c r="N20" s="35"/>
-      <c r="O20" s="35"/>
-      <c r="P20" s="35"/>
-      <c r="Q20" s="35"/>
-      <c r="R20" s="35"/>
-      <c r="S20" s="35"/>
-      <c r="T20" s="35"/>
-      <c r="U20" s="35"/>
-      <c r="V20" s="35"/>
-      <c r="W20" s="35"/>
-      <c r="X20" s="35"/>
-      <c r="Y20" s="35"/>
-      <c r="Z20" s="36"/>
-      <c r="AA20" s="32" t="s">
+      <c r="G20" s="58"/>
+      <c r="H20" s="58"/>
+      <c r="I20" s="58"/>
+      <c r="J20" s="58"/>
+      <c r="K20" s="58"/>
+      <c r="L20" s="58"/>
+      <c r="M20" s="58"/>
+      <c r="N20" s="58"/>
+      <c r="O20" s="58"/>
+      <c r="P20" s="58"/>
+      <c r="Q20" s="58"/>
+      <c r="R20" s="58"/>
+      <c r="S20" s="58"/>
+      <c r="T20" s="58"/>
+      <c r="U20" s="58"/>
+      <c r="V20" s="58"/>
+      <c r="W20" s="58"/>
+      <c r="X20" s="58"/>
+      <c r="Y20" s="58"/>
+      <c r="Z20" s="59"/>
+      <c r="AA20" s="34" t="s">
         <v>224</v>
       </c>
-      <c r="AB20" s="32" t="s">
+      <c r="AB20" s="34" t="s">
         <v>228</v>
       </c>
-      <c r="AC20" s="45"/>
-      <c r="AD20" s="32" t="s">
+      <c r="AC20" s="35"/>
+      <c r="AD20" s="34" t="s">
         <v>229</v>
       </c>
-      <c r="AE20" s="32" t="s">
+      <c r="AE20" s="34" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="21" spans="1:31" ht="11.25" customHeight="1">
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="38"/>
-      <c r="H21" s="38"/>
-      <c r="I21" s="38"/>
-      <c r="J21" s="38"/>
-      <c r="K21" s="38"/>
-      <c r="L21" s="38"/>
-      <c r="M21" s="38"/>
-      <c r="N21" s="38"/>
-      <c r="O21" s="38"/>
-      <c r="P21" s="38"/>
-      <c r="Q21" s="38"/>
-      <c r="R21" s="38"/>
-      <c r="S21" s="38"/>
-      <c r="T21" s="38"/>
-      <c r="U21" s="38"/>
-      <c r="V21" s="38"/>
-      <c r="W21" s="38"/>
-      <c r="X21" s="38"/>
-      <c r="Y21" s="38"/>
-      <c r="Z21" s="39"/>
-      <c r="AA21" s="32"/>
-      <c r="AB21" s="45"/>
-      <c r="AC21" s="45"/>
-      <c r="AD21" s="32"/>
-      <c r="AE21" s="32"/>
+      <c r="F21" s="60"/>
+      <c r="G21" s="61"/>
+      <c r="H21" s="61"/>
+      <c r="I21" s="61"/>
+      <c r="J21" s="61"/>
+      <c r="K21" s="61"/>
+      <c r="L21" s="61"/>
+      <c r="M21" s="61"/>
+      <c r="N21" s="61"/>
+      <c r="O21" s="61"/>
+      <c r="P21" s="61"/>
+      <c r="Q21" s="61"/>
+      <c r="R21" s="61"/>
+      <c r="S21" s="61"/>
+      <c r="T21" s="61"/>
+      <c r="U21" s="61"/>
+      <c r="V21" s="61"/>
+      <c r="W21" s="61"/>
+      <c r="X21" s="61"/>
+      <c r="Y21" s="61"/>
+      <c r="Z21" s="62"/>
+      <c r="AA21" s="34"/>
+      <c r="AB21" s="35"/>
+      <c r="AC21" s="35"/>
+      <c r="AD21" s="34"/>
+      <c r="AE21" s="34"/>
     </row>
     <row r="22" spans="1:31" ht="11.25" customHeight="1">
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="41"/>
-      <c r="H22" s="41"/>
-      <c r="I22" s="41"/>
-      <c r="J22" s="41"/>
-      <c r="K22" s="41"/>
-      <c r="L22" s="41"/>
-      <c r="M22" s="41"/>
-      <c r="N22" s="41"/>
-      <c r="O22" s="41"/>
-      <c r="P22" s="41"/>
-      <c r="Q22" s="41"/>
-      <c r="R22" s="41"/>
-      <c r="S22" s="41"/>
-      <c r="T22" s="41"/>
-      <c r="U22" s="41"/>
-      <c r="V22" s="41"/>
-      <c r="W22" s="41"/>
-      <c r="X22" s="41"/>
-      <c r="Y22" s="41"/>
-      <c r="Z22" s="42"/>
-      <c r="AA22" s="32"/>
-      <c r="AB22" s="45"/>
-      <c r="AC22" s="45"/>
-      <c r="AD22" s="32"/>
-      <c r="AE22" s="32"/>
+      <c r="F22" s="63"/>
+      <c r="G22" s="64"/>
+      <c r="H22" s="64"/>
+      <c r="I22" s="64"/>
+      <c r="J22" s="64"/>
+      <c r="K22" s="64"/>
+      <c r="L22" s="64"/>
+      <c r="M22" s="64"/>
+      <c r="N22" s="64"/>
+      <c r="O22" s="64"/>
+      <c r="P22" s="64"/>
+      <c r="Q22" s="64"/>
+      <c r="R22" s="64"/>
+      <c r="S22" s="64"/>
+      <c r="T22" s="64"/>
+      <c r="U22" s="64"/>
+      <c r="V22" s="64"/>
+      <c r="W22" s="64"/>
+      <c r="X22" s="64"/>
+      <c r="Y22" s="64"/>
+      <c r="Z22" s="65"/>
+      <c r="AA22" s="34"/>
+      <c r="AB22" s="35"/>
+      <c r="AC22" s="35"/>
+      <c r="AD22" s="34"/>
+      <c r="AE22" s="34"/>
     </row>
     <row r="23" spans="1:31" ht="11.25" customHeight="1">
       <c r="A23" s="28" t="s">
@@ -4196,22 +4800,22 @@
       <c r="Y23" s="28" t="s">
         <v>187</v>
       </c>
-      <c r="Z23" s="46" t="s">
+      <c r="Z23" s="36" t="s">
         <v>257</v>
       </c>
-      <c r="AA23" s="49" t="s">
+      <c r="AA23" s="39" t="s">
         <v>225</v>
       </c>
-      <c r="AB23" s="33" t="s">
+      <c r="AB23" s="32" t="s">
         <v>226</v>
       </c>
-      <c r="AC23" s="33" t="s">
+      <c r="AC23" s="32" t="s">
         <v>227</v>
       </c>
-      <c r="AD23" s="33" t="s">
+      <c r="AD23" s="32" t="s">
         <v>230</v>
       </c>
-      <c r="AE23" s="33" t="s">
+      <c r="AE23" s="32" t="s">
         <v>259</v>
       </c>
     </row>
@@ -4241,12 +4845,12 @@
       <c r="W24" s="29"/>
       <c r="X24" s="29"/>
       <c r="Y24" s="29"/>
-      <c r="Z24" s="47"/>
-      <c r="AA24" s="49"/>
-      <c r="AB24" s="33"/>
-      <c r="AC24" s="33"/>
-      <c r="AD24" s="33"/>
-      <c r="AE24" s="33"/>
+      <c r="Z24" s="37"/>
+      <c r="AA24" s="39"/>
+      <c r="AB24" s="32"/>
+      <c r="AC24" s="32"/>
+      <c r="AD24" s="32"/>
+      <c r="AE24" s="32"/>
     </row>
     <row r="25" spans="1:31">
       <c r="A25" s="29"/>
@@ -4274,12 +4878,12 @@
       <c r="W25" s="29"/>
       <c r="X25" s="29"/>
       <c r="Y25" s="29"/>
-      <c r="Z25" s="47"/>
-      <c r="AA25" s="49"/>
-      <c r="AB25" s="33"/>
-      <c r="AC25" s="33"/>
-      <c r="AD25" s="33"/>
-      <c r="AE25" s="33"/>
+      <c r="Z25" s="37"/>
+      <c r="AA25" s="39"/>
+      <c r="AB25" s="32"/>
+      <c r="AC25" s="32"/>
+      <c r="AD25" s="32"/>
+      <c r="AE25" s="32"/>
     </row>
     <row r="26" spans="1:31">
       <c r="A26" s="30"/>
@@ -4307,12 +4911,12 @@
       <c r="W26" s="30"/>
       <c r="X26" s="30"/>
       <c r="Y26" s="30"/>
-      <c r="Z26" s="48"/>
-      <c r="AA26" s="49"/>
-      <c r="AB26" s="33"/>
-      <c r="AC26" s="33"/>
-      <c r="AD26" s="33"/>
-      <c r="AE26" s="33"/>
+      <c r="Z26" s="38"/>
+      <c r="AA26" s="39"/>
+      <c r="AB26" s="32"/>
+      <c r="AC26" s="32"/>
+      <c r="AD26" s="32"/>
+      <c r="AE26" s="32"/>
     </row>
     <row r="27" spans="1:31">
       <c r="D27" s="1"/>
@@ -4324,10 +4928,10 @@
       <c r="R27" s="1"/>
       <c r="S27" s="2"/>
       <c r="V27" s="2"/>
-      <c r="AA27" s="49"/>
-      <c r="AB27" s="33"/>
-      <c r="AC27" s="33"/>
-      <c r="AD27" s="33"/>
+      <c r="AA27" s="39"/>
+      <c r="AB27" s="32"/>
+      <c r="AC27" s="32"/>
+      <c r="AD27" s="32"/>
     </row>
     <row r="28" spans="1:31">
       <c r="D28" s="1"/>
@@ -4345,10 +4949,10 @@
       <c r="X28" s="17" t="s">
         <v>165</v>
       </c>
-      <c r="AA28" s="49"/>
-      <c r="AB28" s="33"/>
-      <c r="AC28" s="33"/>
-      <c r="AD28" s="44"/>
+      <c r="AA28" s="39"/>
+      <c r="AB28" s="32"/>
+      <c r="AC28" s="32"/>
+      <c r="AD28" s="33"/>
       <c r="AE28" s="17" t="s">
         <v>165</v>
       </c>
@@ -4371,7 +4975,7 @@
         <v>181</v>
       </c>
       <c r="Z29" s="21"/>
-      <c r="AA29" s="49"/>
+      <c r="AA29" s="39"/>
       <c r="AB29" s="22"/>
       <c r="AC29" s="2"/>
       <c r="AD29" s="2"/>
@@ -4381,21 +4985,14 @@
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="AD23:AD28"/>
-    <mergeCell ref="AB20:AC22"/>
-    <mergeCell ref="AD20:AD22"/>
-    <mergeCell ref="W23:W26"/>
-    <mergeCell ref="I23:I26"/>
-    <mergeCell ref="L23:L26"/>
-    <mergeCell ref="J23:J26"/>
-    <mergeCell ref="K23:K26"/>
-    <mergeCell ref="M23:M26"/>
-    <mergeCell ref="Y23:Y26"/>
-    <mergeCell ref="Z23:Z26"/>
-    <mergeCell ref="AA20:AA22"/>
-    <mergeCell ref="AA23:AA29"/>
-    <mergeCell ref="AB23:AB28"/>
-    <mergeCell ref="AC23:AC28"/>
+    <mergeCell ref="D23:D26"/>
+    <mergeCell ref="R23:R26"/>
+    <mergeCell ref="O23:O26"/>
+    <mergeCell ref="V23:V26"/>
+    <mergeCell ref="N23:N26"/>
+    <mergeCell ref="S23:S26"/>
+    <mergeCell ref="E23:E26"/>
+    <mergeCell ref="H23:H26"/>
     <mergeCell ref="AE20:AE22"/>
     <mergeCell ref="AE23:AE26"/>
     <mergeCell ref="F20:Z22"/>
@@ -4412,21 +5009,28 @@
     <mergeCell ref="T23:T26"/>
     <mergeCell ref="U23:U26"/>
     <mergeCell ref="B23:B26"/>
-    <mergeCell ref="D23:D26"/>
-    <mergeCell ref="R23:R26"/>
-    <mergeCell ref="O23:O26"/>
-    <mergeCell ref="V23:V26"/>
-    <mergeCell ref="N23:N26"/>
-    <mergeCell ref="S23:S26"/>
-    <mergeCell ref="E23:E26"/>
-    <mergeCell ref="H23:H26"/>
+    <mergeCell ref="AD23:AD28"/>
+    <mergeCell ref="AB20:AC22"/>
+    <mergeCell ref="AD20:AD22"/>
+    <mergeCell ref="W23:W26"/>
+    <mergeCell ref="I23:I26"/>
+    <mergeCell ref="L23:L26"/>
+    <mergeCell ref="J23:J26"/>
+    <mergeCell ref="K23:K26"/>
+    <mergeCell ref="M23:M26"/>
+    <mergeCell ref="Y23:Y26"/>
+    <mergeCell ref="Z23:Z26"/>
+    <mergeCell ref="AA20:AA22"/>
+    <mergeCell ref="AA23:AA29"/>
+    <mergeCell ref="AB23:AB28"/>
+    <mergeCell ref="AC23:AC28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -4434,7 +5038,7 @@
   <dimension ref="A2:AB66"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C13:C14"/>
+      <selection activeCell="E21" sqref="E21:X23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -4490,14 +5094,14 @@
       </c>
     </row>
     <row r="4" spans="1:28" ht="21">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="40" t="s">
         <v>179</v>
       </c>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
       <c r="G4" s="1"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="19"/>
@@ -5549,92 +6153,92 @@
       <c r="X20" s="2"/>
     </row>
     <row r="21" spans="1:28" ht="11.25" customHeight="1">
-      <c r="E21" s="32" t="s">
+      <c r="E21" s="57" t="s">
         <v>190</v>
       </c>
-      <c r="F21" s="32"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="32"/>
-      <c r="J21" s="32"/>
-      <c r="K21" s="32"/>
-      <c r="L21" s="32"/>
-      <c r="M21" s="32"/>
-      <c r="N21" s="32"/>
-      <c r="O21" s="32"/>
-      <c r="P21" s="32"/>
-      <c r="Q21" s="32"/>
-      <c r="R21" s="32"/>
-      <c r="S21" s="32"/>
-      <c r="T21" s="32"/>
-      <c r="U21" s="32"/>
-      <c r="V21" s="32"/>
-      <c r="W21" s="32"/>
-      <c r="X21" s="32"/>
-      <c r="Y21" s="32" t="s">
+      <c r="F21" s="58"/>
+      <c r="G21" s="58"/>
+      <c r="H21" s="58"/>
+      <c r="I21" s="58"/>
+      <c r="J21" s="58"/>
+      <c r="K21" s="58"/>
+      <c r="L21" s="58"/>
+      <c r="M21" s="58"/>
+      <c r="N21" s="58"/>
+      <c r="O21" s="58"/>
+      <c r="P21" s="58"/>
+      <c r="Q21" s="58"/>
+      <c r="R21" s="58"/>
+      <c r="S21" s="58"/>
+      <c r="T21" s="58"/>
+      <c r="U21" s="58"/>
+      <c r="V21" s="58"/>
+      <c r="W21" s="58"/>
+      <c r="X21" s="59"/>
+      <c r="Y21" s="34" t="s">
         <v>228</v>
       </c>
-      <c r="Z21" s="32"/>
-      <c r="AA21" s="32" t="s">
+      <c r="Z21" s="34"/>
+      <c r="AA21" s="34" t="s">
         <v>229</v>
       </c>
-      <c r="AB21" s="32" t="s">
+      <c r="AB21" s="34" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="22" spans="1:28">
-      <c r="E22" s="32"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="32"/>
-      <c r="H22" s="32"/>
-      <c r="I22" s="32"/>
-      <c r="J22" s="32"/>
-      <c r="K22" s="32"/>
-      <c r="L22" s="32"/>
-      <c r="M22" s="32"/>
-      <c r="N22" s="32"/>
-      <c r="O22" s="32"/>
-      <c r="P22" s="32"/>
-      <c r="Q22" s="32"/>
-      <c r="R22" s="32"/>
-      <c r="S22" s="32"/>
-      <c r="T22" s="32"/>
-      <c r="U22" s="32"/>
-      <c r="V22" s="32"/>
-      <c r="W22" s="32"/>
-      <c r="X22" s="32"/>
-      <c r="Y22" s="32"/>
-      <c r="Z22" s="32"/>
-      <c r="AA22" s="32"/>
-      <c r="AB22" s="32" t="s">
+      <c r="E22" s="60"/>
+      <c r="F22" s="61"/>
+      <c r="G22" s="61"/>
+      <c r="H22" s="61"/>
+      <c r="I22" s="61"/>
+      <c r="J22" s="61"/>
+      <c r="K22" s="61"/>
+      <c r="L22" s="61"/>
+      <c r="M22" s="61"/>
+      <c r="N22" s="61"/>
+      <c r="O22" s="61"/>
+      <c r="P22" s="61"/>
+      <c r="Q22" s="61"/>
+      <c r="R22" s="61"/>
+      <c r="S22" s="61"/>
+      <c r="T22" s="61"/>
+      <c r="U22" s="61"/>
+      <c r="V22" s="61"/>
+      <c r="W22" s="61"/>
+      <c r="X22" s="62"/>
+      <c r="Y22" s="34"/>
+      <c r="Z22" s="34"/>
+      <c r="AA22" s="34"/>
+      <c r="AB22" s="34" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="23" spans="1:28">
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="32"/>
-      <c r="J23" s="32"/>
-      <c r="K23" s="32"/>
-      <c r="L23" s="32"/>
-      <c r="M23" s="32"/>
-      <c r="N23" s="32"/>
-      <c r="O23" s="32"/>
-      <c r="P23" s="32"/>
-      <c r="Q23" s="32"/>
-      <c r="R23" s="32"/>
-      <c r="S23" s="32"/>
-      <c r="T23" s="32"/>
-      <c r="U23" s="32"/>
-      <c r="V23" s="32"/>
-      <c r="W23" s="32"/>
-      <c r="X23" s="32"/>
-      <c r="Y23" s="32"/>
-      <c r="Z23" s="32"/>
-      <c r="AA23" s="32"/>
-      <c r="AB23" s="32"/>
+      <c r="E23" s="63"/>
+      <c r="F23" s="64"/>
+      <c r="G23" s="64"/>
+      <c r="H23" s="64"/>
+      <c r="I23" s="64"/>
+      <c r="J23" s="64"/>
+      <c r="K23" s="64"/>
+      <c r="L23" s="64"/>
+      <c r="M23" s="64"/>
+      <c r="N23" s="64"/>
+      <c r="O23" s="64"/>
+      <c r="P23" s="64"/>
+      <c r="Q23" s="64"/>
+      <c r="R23" s="64"/>
+      <c r="S23" s="64"/>
+      <c r="T23" s="64"/>
+      <c r="U23" s="64"/>
+      <c r="V23" s="64"/>
+      <c r="W23" s="64"/>
+      <c r="X23" s="65"/>
+      <c r="Y23" s="34"/>
+      <c r="Z23" s="34"/>
+      <c r="AA23" s="34"/>
+      <c r="AB23" s="34"/>
     </row>
     <row r="24" spans="1:28" ht="11.25" customHeight="1">
       <c r="A24" s="28" t="s">
@@ -5673,13 +6277,13 @@
       <c r="L24" s="28" t="s">
         <v>281</v>
       </c>
-      <c r="M24" s="33" t="s">
+      <c r="M24" s="32" t="s">
         <v>292</v>
       </c>
-      <c r="N24" s="62" t="s">
+      <c r="N24" s="41" t="s">
         <v>286</v>
       </c>
-      <c r="O24" s="53" t="s">
+      <c r="O24" s="45" t="s">
         <v>293</v>
       </c>
       <c r="P24" s="28" t="s">
@@ -5709,16 +6313,16 @@
       <c r="X24" s="28" t="s">
         <v>289</v>
       </c>
-      <c r="Y24" s="56" t="s">
+      <c r="Y24" s="48" t="s">
         <v>290</v>
       </c>
-      <c r="Z24" s="59" t="s">
+      <c r="Z24" s="51" t="s">
         <v>291</v>
       </c>
-      <c r="AA24" s="33" t="s">
+      <c r="AA24" s="32" t="s">
         <v>230</v>
       </c>
-      <c r="AB24" s="50" t="s">
+      <c r="AB24" s="42" t="s">
         <v>297</v>
       </c>
     </row>
@@ -5735,9 +6339,9 @@
       <c r="J25" s="29"/>
       <c r="K25" s="29"/>
       <c r="L25" s="29"/>
-      <c r="M25" s="33"/>
-      <c r="N25" s="62"/>
-      <c r="O25" s="54"/>
+      <c r="M25" s="32"/>
+      <c r="N25" s="41"/>
+      <c r="O25" s="46"/>
       <c r="P25" s="29"/>
       <c r="Q25" s="29"/>
       <c r="R25" s="29"/>
@@ -5747,10 +6351,10 @@
       <c r="V25" s="29"/>
       <c r="W25" s="29"/>
       <c r="X25" s="29"/>
-      <c r="Y25" s="57"/>
-      <c r="Z25" s="60"/>
-      <c r="AA25" s="33"/>
-      <c r="AB25" s="51"/>
+      <c r="Y25" s="49"/>
+      <c r="Z25" s="52"/>
+      <c r="AA25" s="32"/>
+      <c r="AB25" s="43"/>
     </row>
     <row r="26" spans="1:28">
       <c r="A26" s="29"/>
@@ -5765,9 +6369,9 @@
       <c r="J26" s="29"/>
       <c r="K26" s="29"/>
       <c r="L26" s="29"/>
-      <c r="M26" s="33"/>
-      <c r="N26" s="62"/>
-      <c r="O26" s="54"/>
+      <c r="M26" s="32"/>
+      <c r="N26" s="41"/>
+      <c r="O26" s="46"/>
       <c r="P26" s="29"/>
       <c r="Q26" s="29"/>
       <c r="R26" s="29"/>
@@ -5777,10 +6381,10 @@
       <c r="V26" s="29"/>
       <c r="W26" s="29"/>
       <c r="X26" s="29"/>
-      <c r="Y26" s="57"/>
-      <c r="Z26" s="60"/>
-      <c r="AA26" s="33"/>
-      <c r="AB26" s="51"/>
+      <c r="Y26" s="49"/>
+      <c r="Z26" s="52"/>
+      <c r="AA26" s="32"/>
+      <c r="AB26" s="43"/>
     </row>
     <row r="27" spans="1:28">
       <c r="A27" s="30"/>
@@ -5795,9 +6399,9 @@
       <c r="J27" s="30"/>
       <c r="K27" s="30"/>
       <c r="L27" s="30"/>
-      <c r="M27" s="33"/>
-      <c r="N27" s="62"/>
-      <c r="O27" s="55"/>
+      <c r="M27" s="32"/>
+      <c r="N27" s="41"/>
+      <c r="O27" s="47"/>
       <c r="P27" s="30"/>
       <c r="Q27" s="30"/>
       <c r="R27" s="30"/>
@@ -5807,10 +6411,10 @@
       <c r="V27" s="30"/>
       <c r="W27" s="30"/>
       <c r="X27" s="30"/>
-      <c r="Y27" s="57"/>
-      <c r="Z27" s="60"/>
-      <c r="AA27" s="33"/>
-      <c r="AB27" s="51"/>
+      <c r="Y27" s="49"/>
+      <c r="Z27" s="52"/>
+      <c r="AA27" s="32"/>
+      <c r="AB27" s="43"/>
     </row>
     <row r="28" spans="1:28">
       <c r="E28" s="1"/>
@@ -5818,16 +6422,16 @@
       <c r="K28" s="2"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
-      <c r="N28" s="62"/>
+      <c r="N28" s="41"/>
       <c r="R28" s="2"/>
       <c r="S28" s="2"/>
       <c r="T28" s="2"/>
       <c r="U28" s="1"/>
       <c r="X28" s="2"/>
-      <c r="Y28" s="57"/>
-      <c r="Z28" s="60"/>
-      <c r="AA28" s="33"/>
-      <c r="AB28" s="51"/>
+      <c r="Y28" s="49"/>
+      <c r="Z28" s="52"/>
+      <c r="AA28" s="32"/>
+      <c r="AB28" s="43"/>
     </row>
     <row r="29" spans="1:28">
       <c r="E29" s="1"/>
@@ -5840,7 +6444,7 @@
       </c>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
-      <c r="N29" s="62"/>
+      <c r="N29" s="41"/>
       <c r="R29" s="2"/>
       <c r="S29" s="17" t="s">
         <v>299</v>
@@ -5849,10 +6453,10 @@
         <v>165</v>
       </c>
       <c r="X29" s="2"/>
-      <c r="Y29" s="58"/>
-      <c r="Z29" s="61"/>
-      <c r="AA29" s="33"/>
-      <c r="AB29" s="52"/>
+      <c r="Y29" s="50"/>
+      <c r="Z29" s="53"/>
+      <c r="AA29" s="32"/>
+      <c r="AB29" s="44"/>
     </row>
     <row r="30" spans="1:28" ht="202.5">
       <c r="E30" s="1"/>
@@ -5865,7 +6469,7 @@
       </c>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
-      <c r="N30" s="62"/>
+      <c r="N30" s="41"/>
       <c r="R30" s="2"/>
       <c r="S30" s="25" t="s">
         <v>300</v>
@@ -6059,6 +6663,25 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="AB21:AB23"/>
+    <mergeCell ref="AB24:AB29"/>
+    <mergeCell ref="S24:S27"/>
+    <mergeCell ref="E21:X23"/>
+    <mergeCell ref="V24:V27"/>
+    <mergeCell ref="W24:W27"/>
+    <mergeCell ref="E24:E27"/>
+    <mergeCell ref="H24:H27"/>
+    <mergeCell ref="O24:O27"/>
+    <mergeCell ref="Y21:Z23"/>
+    <mergeCell ref="Y24:Y29"/>
+    <mergeCell ref="Z24:Z29"/>
+    <mergeCell ref="AA24:AA29"/>
+    <mergeCell ref="AA21:AA23"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="C24:C27"/>
     <mergeCell ref="D24:D27"/>
     <mergeCell ref="A4:F4"/>
     <mergeCell ref="X24:X27"/>
@@ -6075,40 +6698,21 @@
     <mergeCell ref="L24:L27"/>
     <mergeCell ref="R24:R27"/>
     <mergeCell ref="G24:G27"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="C24:C27"/>
-    <mergeCell ref="AB21:AB23"/>
-    <mergeCell ref="AB24:AB29"/>
-    <mergeCell ref="S24:S27"/>
-    <mergeCell ref="E21:X23"/>
-    <mergeCell ref="V24:V27"/>
-    <mergeCell ref="W24:W27"/>
-    <mergeCell ref="E24:E27"/>
-    <mergeCell ref="H24:H27"/>
-    <mergeCell ref="O24:O27"/>
-    <mergeCell ref="Y21:Z23"/>
-    <mergeCell ref="Y24:Y29"/>
-    <mergeCell ref="Z24:Z29"/>
-    <mergeCell ref="AA24:AA29"/>
-    <mergeCell ref="AA21:AA23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
   <dimension ref="A2:H28"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -6429,40 +7033,40 @@
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="B19" s="32" t="s">
+      <c r="B19" s="34" t="s">
         <v>308</v>
       </c>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32" t="s">
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34" t="s">
         <v>311</v>
       </c>
-      <c r="G19" s="32" t="s">
+      <c r="G19" s="34" t="s">
         <v>309</v>
       </c>
-      <c r="H19" s="32"/>
+      <c r="H19" s="34"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="B20" s="32"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="45"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="32"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="34"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="B21" s="32"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="45"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="32"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="34"/>
     </row>
     <row r="22" spans="1:8" ht="11.25" customHeight="1">
-      <c r="A22" s="46" t="s">
+      <c r="A22" s="36" t="s">
         <v>169</v>
       </c>
       <c r="B22" s="28" t="s">
@@ -6477,7 +7081,7 @@
       <c r="E22" s="28" t="s">
         <v>305</v>
       </c>
-      <c r="F22" s="63" t="s">
+      <c r="F22" s="54" t="s">
         <v>312</v>
       </c>
       <c r="G22" s="28" t="s">
@@ -6488,22 +7092,22 @@
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="47"/>
+      <c r="A23" s="37"/>
       <c r="B23" s="29"/>
       <c r="C23" s="29"/>
       <c r="D23" s="29"/>
       <c r="E23" s="29"/>
-      <c r="F23" s="64"/>
+      <c r="F23" s="55"/>
       <c r="G23" s="29"/>
       <c r="H23" s="29"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="48"/>
+      <c r="A24" s="38"/>
       <c r="B24" s="29"/>
       <c r="C24" s="29"/>
       <c r="D24" s="29"/>
       <c r="E24" s="29"/>
-      <c r="F24" s="64"/>
+      <c r="F24" s="55"/>
       <c r="G24" s="29"/>
       <c r="H24" s="29"/>
     </row>
@@ -6512,7 +7116,7 @@
       <c r="C25" s="30"/>
       <c r="D25" s="30"/>
       <c r="E25" s="30"/>
-      <c r="F25" s="65"/>
+      <c r="F25" s="56"/>
       <c r="G25" s="30"/>
       <c r="H25" s="30"/>
     </row>
@@ -6535,6 +7139,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="F19:F21"/>
     <mergeCell ref="H22:H25"/>
     <mergeCell ref="B19:E21"/>
     <mergeCell ref="G19:H21"/>
@@ -6543,18 +7152,13 @@
     <mergeCell ref="D22:D25"/>
     <mergeCell ref="E22:E25"/>
     <mergeCell ref="G22:G25"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="B22:B26"/>
-    <mergeCell ref="F19:F21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C2:E32"/>
   <sheetViews>

--- a/Documentação/Planilhas/Conferencia_CAR.xlsx
+++ b/Documentação/Planilhas/Conferencia_CAR.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" tabRatio="812" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" tabRatio="812" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Resumo" sheetId="93" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1195" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1296" uniqueCount="405">
   <si>
     <t>1</t>
   </si>
@@ -63,9 +63,6 @@
     <t>TABELAS</t>
   </si>
   <si>
-    <t>2014-06-10 00:00:00.000</t>
-  </si>
-  <si>
     <t>Conferência dos dados da tabela:</t>
   </si>
   <si>
@@ -87,9 +84,6 @@
     <t>CD_SITUACAO_PAGAMENTO</t>
   </si>
   <si>
-    <t>2014-06-05 00:00:00.000</t>
-  </si>
-  <si>
     <t>100</t>
   </si>
   <si>
@@ -105,31 +99,16 @@
     <t>NR_CONTA</t>
   </si>
   <si>
-    <t>CD_SITUACAO_ARQUIVO</t>
-  </si>
-  <si>
     <t>2014-06-07 00:00:00.000</t>
   </si>
   <si>
     <t>5574</t>
   </si>
   <si>
-    <t>2014-06-08 21:00:00.000</t>
-  </si>
-  <si>
-    <t>2014-06-04 00:00:00.000</t>
-  </si>
-  <si>
-    <t>2014-06-13 21:00:00.000</t>
-  </si>
-  <si>
     <t>2014-06-11 00:00:00.000</t>
   </si>
   <si>
     <t>2014-06-13 00:00:00.000</t>
-  </si>
-  <si>
-    <t>2014-06-02 00:00:00.000</t>
   </si>
   <si>
     <t>2014-06-17 21:00:00.000</t>
@@ -1029,9 +1008,6 @@
     <t>Pegar a informação do Lote Criado em</t>
   </si>
   <si>
-    <t>2014-08-04 21:00:00.000</t>
-  </si>
-  <si>
     <t>CD_COMANDO</t>
   </si>
   <si>
@@ -1159,6 +1135,171 @@
   </si>
   <si>
     <t>znslsc530m000 e znslsc500m000</t>
+  </si>
+  <si>
+    <t>CD_STATUS_ARQUIVO</t>
+  </si>
+  <si>
+    <t>CD_STATUS_ENVIO</t>
+  </si>
+  <si>
+    <t>DT_ULT_ATUALIZACAO</t>
+  </si>
+  <si>
+    <t>NR_BANCO</t>
+  </si>
+  <si>
+    <t>CD_TRANSACAO_MOVIMENTO</t>
+  </si>
+  <si>
+    <t>NR_DOC_MOVIMENTO</t>
+  </si>
+  <si>
+    <t>NR_SERIE</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>2014-09-03 00:00:00.000</t>
+  </si>
+  <si>
+    <t>2014-09-03 11:44:41.000</t>
+  </si>
+  <si>
+    <t>174</t>
+  </si>
+  <si>
+    <t>4948</t>
+  </si>
+  <si>
+    <t>FAT4948</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>RB311</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>2014-08-26 00:00:00.000</t>
+  </si>
+  <si>
+    <t>2014-08-27 16:20:16.000</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>132</t>
+  </si>
+  <si>
+    <t>RB3132</t>
+  </si>
+  <si>
+    <t>133</t>
+  </si>
+  <si>
+    <t>144</t>
+  </si>
+  <si>
+    <t>154</t>
+  </si>
+  <si>
+    <t>161</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>134</t>
+  </si>
+  <si>
+    <t>RB3134</t>
+  </si>
+  <si>
+    <t>É a concatenação do CD_TRANSACAO_TITULO com NR_TITULO</t>
+  </si>
+  <si>
+    <t>Sessão "tfcmg4501m000" (Lote de Cobrança - Aconselhamento) - Informar o CD_TRANSACAO_TITULO na primeira lacuna da coluna "Documento" e o NR_TITULO na segunda lacuna</t>
+  </si>
+  <si>
+    <t>Pegar a informação do "Lote de Cobrança" no cabeçalho da tela</t>
+  </si>
+  <si>
+    <t>Pegar a informação na primeira lacuna da coluna "Documento"</t>
+  </si>
+  <si>
+    <t>Pegar a informação na segunda lacuna da coluna "Documento"</t>
+  </si>
+  <si>
+    <t>Pegar a informação da coluna "Data de Débito Planejada"</t>
+  </si>
+  <si>
+    <t>Sessão tfcmg0510m000 (Relações Bancárias)</t>
+  </si>
+  <si>
+    <t>Sessão tfcmg0511m000 (Agências Bancárias)</t>
+  </si>
+  <si>
+    <t>Pegar a informação da primeira lacuna da coluna "Documento"</t>
+  </si>
+  <si>
+    <t>Pegar a informação da segunda lacuna da coluna "Documento"</t>
+  </si>
+  <si>
+    <t>Sessão "tfgld0511m000" (Tipos de Transação)</t>
+  </si>
+  <si>
+    <t>Pegar a informação da coluna "No Banco"</t>
+  </si>
+  <si>
+    <t>Pegar a informação da coluna "Status Arquivo"</t>
+  </si>
+  <si>
+    <t>Pegar a informação da coluna "Status Envio"</t>
+  </si>
+  <si>
+    <t>Os Códigos utilizados são:</t>
+  </si>
+  <si>
+    <t>1-Aberto</t>
+  </si>
+  <si>
+    <t>2-Gerado</t>
+  </si>
+  <si>
+    <t>3-Confirmado</t>
+  </si>
+  <si>
+    <t>4-Protestado</t>
+  </si>
+  <si>
+    <t>5-Rejeitado</t>
+  </si>
+  <si>
+    <t>6-Pago</t>
+  </si>
+  <si>
+    <t>7-Não aplicável</t>
+  </si>
+  <si>
+    <t>8-Pagto Cheque</t>
+  </si>
+  <si>
+    <t>9-Pagto Cancelado</t>
+  </si>
+  <si>
+    <t>Sessão "tfcmgl504m00l" (Documentos Saídas EBF) - Informar o CD_TRANSACAO_TITULO na primeira lacuna da coluna "No da Fatura" e o NR_TITULO na segunda lacuna</t>
+  </si>
+  <si>
+    <t>Pegar a informação da terceira lacuna da coluna "No da Fatura"</t>
   </si>
 </sst>
 </file>
@@ -1220,7 +1361,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1254,6 +1395,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFA7E7E"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1509,7 +1662,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1590,13 +1743,67 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1612,12 +1819,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1656,6 +1857,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1665,56 +1869,23 @@
     <xf numFmtId="49" fontId="1" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="3" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2041,37 +2212,37 @@
     </row>
     <row r="2" spans="2:3">
       <c r="B2" s="8" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C2" s="7"/>
     </row>
     <row r="3" spans="2:3">
       <c r="B3" s="8" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="C3" s="7"/>
     </row>
     <row r="4" spans="2:3">
       <c r="B4" s="8" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="C4" s="7"/>
     </row>
     <row r="5" spans="2:3">
       <c r="B5" s="8" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="C5" s="7"/>
     </row>
     <row r="6" spans="2:3">
       <c r="B6" s="8" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="C6" s="7"/>
     </row>
     <row r="7" spans="2:3">
       <c r="B7" s="10" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="C7" s="9"/>
     </row>
@@ -2093,10 +2264,10 @@
   <sheetPr>
     <tabColor rgb="FFFA7E7E"/>
   </sheetPr>
-  <dimension ref="A2:AG22"/>
+  <dimension ref="A2:AG39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -2105,18 +2276,18 @@
     <col min="2" max="2" width="22" style="2" customWidth="1"/>
     <col min="3" max="3" width="21.5703125" style="2" customWidth="1"/>
     <col min="4" max="4" width="22.5703125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="23.28515625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="21.5703125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="18.7109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="20" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.7109375" style="2" customWidth="1"/>
-    <col min="11" max="11" width="20.28515625" style="2" customWidth="1"/>
-    <col min="12" max="12" width="20.7109375" style="2" customWidth="1"/>
-    <col min="13" max="13" width="25.28515625" style="2" customWidth="1"/>
-    <col min="14" max="14" width="28.140625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="38.140625" style="2" customWidth="1"/>
-    <col min="16" max="16" width="18.85546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="21.5703125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="26" style="2" customWidth="1"/>
+    <col min="9" max="9" width="24.28515625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="18.85546875" style="2" customWidth="1"/>
+    <col min="11" max="11" width="21.7109375" style="2" customWidth="1"/>
+    <col min="12" max="12" width="20.28515625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="20.7109375" style="2" customWidth="1"/>
+    <col min="14" max="14" width="23.28515625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="20" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="32.28515625" style="2" customWidth="1"/>
     <col min="18" max="18" width="24.7109375" style="2" customWidth="1"/>
     <col min="19" max="19" width="22.140625" style="2" customWidth="1"/>
@@ -2137,402 +2308,1013 @@
     <col min="34" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" ht="21">
+    <row r="2" spans="1:33" ht="21">
       <c r="A2" s="31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="31"/>
       <c r="C2" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="21">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" ht="21">
       <c r="A3" s="31" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" s="31"/>
       <c r="C3" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" s="22" customFormat="1" ht="21" customHeight="1">
+      <c r="A6" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="74" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="74" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="74" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="74" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="74" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="74" t="s">
+        <v>356</v>
+      </c>
+      <c r="H6" s="74" t="s">
+        <v>354</v>
+      </c>
+      <c r="I6" s="74" t="s">
+        <v>355</v>
+      </c>
+      <c r="J6" s="74" t="s">
+        <v>353</v>
+      </c>
+      <c r="K6" s="74" t="s">
+        <v>350</v>
+      </c>
+      <c r="L6" s="74" t="s">
+        <v>351</v>
+      </c>
+      <c r="M6" s="74" t="s">
+        <v>352</v>
+      </c>
+      <c r="N6" s="74" t="s">
+        <v>17</v>
+      </c>
+      <c r="O6" s="74" t="s">
+        <v>18</v>
+      </c>
+      <c r="P6" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="Q6" s="16"/>
+      <c r="R6" s="16"/>
+      <c r="S6" s="16"/>
+      <c r="T6" s="16"/>
+      <c r="U6" s="16"/>
+      <c r="V6" s="16"/>
+      <c r="W6" s="16"/>
+      <c r="X6" s="16"/>
+      <c r="Y6" s="16"/>
+      <c r="Z6" s="16"/>
+      <c r="AA6" s="16"/>
+      <c r="AB6" s="16"/>
+      <c r="AC6" s="16"/>
+      <c r="AD6" s="16"/>
+      <c r="AE6" s="16"/>
+      <c r="AF6" s="16"/>
+      <c r="AG6" s="16"/>
+    </row>
+    <row r="7" spans="1:33">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="B7" s="78" t="s">
+        <v>120</v>
+      </c>
+      <c r="C7" s="78" t="s">
+        <v>361</v>
+      </c>
+      <c r="D7" s="78" t="s">
+        <v>362</v>
+      </c>
+      <c r="E7" s="78" t="s">
+        <v>357</v>
+      </c>
+      <c r="F7" s="78" t="s">
+        <v>358</v>
+      </c>
+      <c r="G7" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" s="78" t="s">
+        <v>360</v>
+      </c>
+      <c r="J7" s="78" t="s">
+        <v>73</v>
+      </c>
+      <c r="K7" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="L7" s="78" t="s">
+        <v>15</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>4</v>
+        <v>233</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>31</v>
+        <v>364</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>9</v>
+        <v>363</v>
       </c>
       <c r="F8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M8" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="N8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>4</v>
+        <v>233</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>21</v>
+        <v>364</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>9</v>
+        <v>363</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>2</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>125</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33">
       <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>4</v>
+        <v>233</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>28</v>
+        <v>364</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>9</v>
+        <v>363</v>
       </c>
       <c r="F10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M10" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="N10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33">
       <c r="A11" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>4</v>
+        <v>233</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>22</v>
+        <v>370</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>13</v>
+        <v>371</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>9</v>
+        <v>366</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>29</v>
+        <v>367</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>369</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33">
       <c r="A12" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>4</v>
+        <v>233</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>22</v>
+        <v>370</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>33</v>
+        <v>371</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>9</v>
+        <v>366</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>29</v>
+        <v>367</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="K12" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I12" s="2" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="L12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33">
       <c r="A13" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>4</v>
+        <v>233</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>22</v>
+        <v>370</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>33</v>
+        <v>371</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>9</v>
+        <v>366</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>29</v>
+        <v>367</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>2</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>373</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33">
       <c r="A14" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>4</v>
+        <v>233</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>22</v>
+        <v>370</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>34</v>
+        <v>371</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>9</v>
+        <v>366</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>29</v>
+        <v>367</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>374</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33">
       <c r="A15" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>5</v>
+        <v>233</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>22</v>
+        <v>370</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>13</v>
+        <v>371</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>9</v>
+        <v>366</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>29</v>
+        <v>367</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>0</v>
+        <v>114</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>375</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33">
       <c r="A16" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>6</v>
+        <v>233</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>22</v>
+        <v>377</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>35</v>
+        <v>378</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>9</v>
+        <v>366</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>29</v>
+        <v>367</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="K16" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I16" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="28"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="28"/>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="29"/>
-      <c r="B20" s="29"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="29"/>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="29"/>
-      <c r="B21" s="29"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="29"/>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="30"/>
-      <c r="B22" s="30"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="30"/>
+      <c r="L16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="18" spans="1:33">
+      <c r="A18" s="1"/>
+      <c r="B18" s="76" t="s">
+        <v>380</v>
+      </c>
+      <c r="C18" s="76"/>
+      <c r="D18" s="76"/>
+      <c r="E18" s="76"/>
+      <c r="F18" s="76"/>
+      <c r="G18" s="75" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="19" spans="1:33">
+      <c r="B19" s="76"/>
+      <c r="C19" s="76"/>
+      <c r="D19" s="76"/>
+      <c r="E19" s="76"/>
+      <c r="F19" s="76"/>
+    </row>
+    <row r="20" spans="1:33">
+      <c r="B20" s="77"/>
+      <c r="C20" s="77"/>
+      <c r="D20" s="77"/>
+      <c r="E20" s="77"/>
+      <c r="F20" s="77"/>
+    </row>
+    <row r="21" spans="1:33" ht="11.25" customHeight="1">
+      <c r="A21" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="33" t="s">
+        <v>382</v>
+      </c>
+      <c r="C21" s="33" t="s">
+        <v>383</v>
+      </c>
+      <c r="D21" s="33" t="s">
+        <v>379</v>
+      </c>
+      <c r="E21" s="33" t="s">
+        <v>381</v>
+      </c>
+      <c r="F21" s="33" t="s">
+        <v>384</v>
+      </c>
+      <c r="G21" s="33" t="s">
+        <v>404</v>
+      </c>
+      <c r="H21" s="33" t="s">
+        <v>387</v>
+      </c>
+      <c r="I21" s="33" t="s">
+        <v>388</v>
+      </c>
+      <c r="J21" s="33" t="s">
+        <v>390</v>
+      </c>
+      <c r="K21" s="33" t="s">
+        <v>391</v>
+      </c>
+      <c r="L21" s="33" t="s">
+        <v>392</v>
+      </c>
+      <c r="M21" s="1"/>
+      <c r="N21" s="33"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
+      <c r="U21" s="1"/>
+      <c r="V21" s="1"/>
+      <c r="W21" s="1"/>
+      <c r="X21" s="1"/>
+      <c r="Y21" s="1"/>
+      <c r="Z21" s="1"/>
+      <c r="AA21" s="1"/>
+      <c r="AB21" s="1"/>
+      <c r="AC21" s="1"/>
+      <c r="AD21" s="1"/>
+      <c r="AE21" s="1"/>
+      <c r="AF21" s="1"/>
+      <c r="AG21" s="1"/>
+    </row>
+    <row r="22" spans="1:33">
+      <c r="A22" s="33"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="33"/>
+      <c r="J22" s="33"/>
+      <c r="K22" s="33"/>
+      <c r="L22" s="33"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="33"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
+      <c r="U22" s="1"/>
+      <c r="V22" s="1"/>
+      <c r="W22" s="1"/>
+      <c r="X22" s="1"/>
+      <c r="Y22" s="1"/>
+      <c r="Z22" s="1"/>
+      <c r="AA22" s="1"/>
+      <c r="AB22" s="1"/>
+      <c r="AC22" s="1"/>
+      <c r="AD22" s="1"/>
+      <c r="AE22" s="1"/>
+      <c r="AF22" s="1"/>
+      <c r="AG22" s="1"/>
+    </row>
+    <row r="23" spans="1:33">
+      <c r="A23" s="33"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="33"/>
+      <c r="J23" s="33"/>
+      <c r="K23" s="33"/>
+      <c r="L23" s="33"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="33"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1"/>
+      <c r="U23" s="1"/>
+      <c r="V23" s="1"/>
+      <c r="W23" s="1"/>
+      <c r="X23" s="1"/>
+      <c r="Y23" s="1"/>
+      <c r="Z23" s="1"/>
+      <c r="AA23" s="1"/>
+      <c r="AB23" s="1"/>
+      <c r="AC23" s="1"/>
+      <c r="AD23" s="1"/>
+      <c r="AE23" s="1"/>
+      <c r="AF23" s="1"/>
+      <c r="AG23" s="1"/>
+    </row>
+    <row r="24" spans="1:33">
+      <c r="A24" s="33"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="33"/>
+      <c r="J24" s="33"/>
+      <c r="K24" s="33"/>
+      <c r="L24" s="33"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="33"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+      <c r="T24" s="1"/>
+      <c r="U24" s="1"/>
+      <c r="V24" s="1"/>
+      <c r="W24" s="1"/>
+      <c r="X24" s="1"/>
+      <c r="Y24" s="1"/>
+      <c r="Z24" s="1"/>
+      <c r="AA24" s="1"/>
+      <c r="AB24" s="1"/>
+      <c r="AC24" s="1"/>
+      <c r="AD24" s="1"/>
+      <c r="AE24" s="1"/>
+      <c r="AF24" s="1"/>
+      <c r="AG24" s="1"/>
+    </row>
+    <row r="25" spans="1:33">
+      <c r="A25" s="33"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="33"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="33"/>
+      <c r="L25" s="33"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="33"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="1"/>
+      <c r="U25" s="1"/>
+      <c r="V25" s="1"/>
+      <c r="W25" s="1"/>
+      <c r="X25" s="1"/>
+      <c r="Y25" s="1"/>
+      <c r="Z25" s="1"/>
+      <c r="AA25" s="1"/>
+      <c r="AB25" s="1"/>
+      <c r="AC25" s="1"/>
+      <c r="AD25" s="1"/>
+      <c r="AE25" s="1"/>
+      <c r="AF25" s="1"/>
+      <c r="AG25" s="1"/>
+    </row>
+    <row r="26" spans="1:33">
+      <c r="A26" s="33"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="33"/>
+      <c r="I26" s="33"/>
+      <c r="J26" s="33"/>
+      <c r="K26" s="33"/>
+      <c r="L26" s="33"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="33"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
+      <c r="T26" s="1"/>
+      <c r="U26" s="1"/>
+      <c r="V26" s="1"/>
+      <c r="W26" s="1"/>
+      <c r="X26" s="1"/>
+      <c r="Y26" s="1"/>
+      <c r="Z26" s="1"/>
+      <c r="AA26" s="1"/>
+      <c r="AB26" s="1"/>
+      <c r="AC26" s="1"/>
+      <c r="AD26" s="1"/>
+      <c r="AE26" s="1"/>
+      <c r="AF26" s="1"/>
+      <c r="AG26" s="1"/>
+    </row>
+    <row r="27" spans="1:33">
+      <c r="A27" s="33"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="33"/>
+      <c r="I27" s="33"/>
+      <c r="J27" s="33"/>
+      <c r="K27" s="33"/>
+      <c r="L27" s="33"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="33"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
+      <c r="T27" s="1"/>
+      <c r="U27" s="1"/>
+      <c r="V27" s="1"/>
+      <c r="W27" s="1"/>
+      <c r="X27" s="1"/>
+      <c r="Y27" s="1"/>
+      <c r="Z27" s="1"/>
+      <c r="AA27" s="1"/>
+      <c r="AB27" s="1"/>
+      <c r="AC27" s="1"/>
+      <c r="AD27" s="1"/>
+      <c r="AE27" s="1"/>
+      <c r="AF27" s="1"/>
+      <c r="AG27" s="1"/>
+    </row>
+    <row r="28" spans="1:33">
+      <c r="A28" s="33"/>
+      <c r="B28" s="33"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="33"/>
+      <c r="I28" s="33"/>
+      <c r="J28" s="33"/>
+      <c r="K28" s="33"/>
+      <c r="L28" s="33"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="33"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1"/>
+      <c r="U28" s="1"/>
+      <c r="V28" s="1"/>
+      <c r="W28" s="1"/>
+      <c r="X28" s="1"/>
+      <c r="Y28" s="1"/>
+      <c r="Z28" s="1"/>
+      <c r="AA28" s="1"/>
+      <c r="AB28" s="1"/>
+      <c r="AC28" s="1"/>
+      <c r="AD28" s="1"/>
+      <c r="AE28" s="1"/>
+      <c r="AF28" s="1"/>
+      <c r="AG28" s="1"/>
+    </row>
+    <row r="30" spans="1:33">
+      <c r="K30" s="79" t="s">
+        <v>393</v>
+      </c>
+      <c r="L30" s="79"/>
+      <c r="N30" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="31" spans="1:33">
+      <c r="K31" s="79" t="s">
+        <v>394</v>
+      </c>
+      <c r="L31" s="79"/>
+    </row>
+    <row r="32" spans="1:33">
+      <c r="K32" s="79" t="s">
+        <v>395</v>
+      </c>
+      <c r="L32" s="79"/>
+    </row>
+    <row r="33" spans="11:12">
+      <c r="K33" s="79" t="s">
+        <v>396</v>
+      </c>
+      <c r="L33" s="79"/>
+    </row>
+    <row r="34" spans="11:12">
+      <c r="K34" s="79" t="s">
+        <v>397</v>
+      </c>
+      <c r="L34" s="79"/>
+    </row>
+    <row r="35" spans="11:12">
+      <c r="K35" s="79" t="s">
+        <v>398</v>
+      </c>
+      <c r="L35" s="79"/>
+    </row>
+    <row r="36" spans="11:12">
+      <c r="K36" s="79" t="s">
+        <v>399</v>
+      </c>
+      <c r="L36" s="79"/>
+    </row>
+    <row r="37" spans="11:12">
+      <c r="K37" s="79" t="s">
+        <v>400</v>
+      </c>
+      <c r="L37" s="79"/>
+    </row>
+    <row r="38" spans="11:12">
+      <c r="K38" s="79" t="s">
+        <v>401</v>
+      </c>
+      <c r="L38" s="79"/>
+    </row>
+    <row r="39" spans="11:12">
+      <c r="K39" s="79" t="s">
+        <v>402</v>
+      </c>
+      <c r="L39" s="79"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="I19:I22"/>
-    <mergeCell ref="D19:D22"/>
-    <mergeCell ref="E19:E22"/>
-    <mergeCell ref="F19:F22"/>
-    <mergeCell ref="G19:G22"/>
-    <mergeCell ref="H19:H22"/>
-    <mergeCell ref="A19:A22"/>
+  <mergeCells count="26">
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="K34:L34"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="C19:C22"/>
+    <mergeCell ref="A21:A28"/>
+    <mergeCell ref="B21:B28"/>
+    <mergeCell ref="C21:C28"/>
+    <mergeCell ref="B18:F20"/>
+    <mergeCell ref="D21:D28"/>
+    <mergeCell ref="N21:N28"/>
+    <mergeCell ref="E21:E28"/>
+    <mergeCell ref="F21:F28"/>
+    <mergeCell ref="H21:H28"/>
+    <mergeCell ref="I21:I28"/>
+    <mergeCell ref="J21:J28"/>
+    <mergeCell ref="K21:K28"/>
+    <mergeCell ref="L21:L28"/>
+    <mergeCell ref="G21:G28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -2574,40 +3356,40 @@
   <sheetData>
     <row r="2" spans="1:7" ht="21">
       <c r="A2" s="31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="31"/>
       <c r="C2" s="3" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="21">
       <c r="A3" s="31" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" s="31"/>
       <c r="C3" s="3" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="4" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>8</v>
@@ -2615,244 +3397,244 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="2" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="2" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="2" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C9" s="26" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E9" s="26" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="F9" s="26" t="s">
         <v>2</v>
       </c>
       <c r="G9" s="26" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="2" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C10" s="26" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="26" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E10" s="26" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="F10" s="26" t="s">
         <v>2</v>
       </c>
       <c r="G10" s="26" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="2" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C11" s="26" t="s">
         <v>6</v>
       </c>
       <c r="D11" s="26" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E11" s="26" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="F11" s="26" t="s">
         <v>2</v>
       </c>
       <c r="G11" s="26" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="2" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="2" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="2" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>49</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="2" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="2" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="28" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="B19" s="28"/>
       <c r="C19" s="28"/>
       <c r="D19" s="28"/>
       <c r="E19" s="28"/>
       <c r="F19" s="28" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="G19" s="28"/>
     </row>
@@ -2885,12 +3667,12 @@
     </row>
     <row r="24" spans="1:7">
       <c r="F24" s="17" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="101.25">
       <c r="F25" s="18" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -2945,16 +3727,16 @@
   <sheetData>
     <row r="2" spans="1:17" ht="21">
       <c r="A2" s="31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="31"/>
       <c r="C2" s="3" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="21">
       <c r="A3" s="31" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" s="31"/>
       <c r="C3" s="3"/>
@@ -3038,8 +3820,8 @@
   </sheetPr>
   <dimension ref="A2:R30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21:D24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -3079,60 +3861,60 @@
   <sheetData>
     <row r="2" spans="1:7" ht="21">
       <c r="A2" s="31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="31"/>
       <c r="C2" s="3" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="21">
       <c r="A3" s="31" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" s="31"/>
       <c r="C3" s="3" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="4" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="2" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>9</v>
@@ -3143,19 +3925,19 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="2" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>9</v>
@@ -3166,45 +3948,45 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="2" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>6</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="2" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>1</v>
@@ -3212,22 +3994,22 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="2" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>1</v>
@@ -3235,42 +4017,42 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="2" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>6</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="2" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>9</v>
@@ -3281,19 +4063,19 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="2" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>9</v>
@@ -3304,19 +4086,19 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="2" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>9</v>
@@ -3327,134 +4109,136 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="2" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C16" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="11.25" customHeight="1">
+      <c r="A18" s="32" t="s">
+        <v>343</v>
+      </c>
+      <c r="B18" s="32"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="35" t="s">
+        <v>344</v>
+      </c>
+      <c r="G18" s="36"/>
+    </row>
+    <row r="19" spans="1:7" ht="11.25" customHeight="1">
+      <c r="A19" s="32"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="38"/>
+    </row>
+    <row r="20" spans="1:7" ht="11.25" customHeight="1">
+      <c r="A20" s="32"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="40"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="33" t="s">
+        <v>338</v>
+      </c>
+      <c r="B21" s="33" t="s">
+        <v>339</v>
+      </c>
+      <c r="C21" s="33" t="s">
+        <v>340</v>
+      </c>
+      <c r="D21" s="33" t="s">
+        <v>341</v>
+      </c>
+      <c r="E21" s="33" t="s">
         <v>345</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="11.25" customHeight="1">
-      <c r="A18" s="66" t="s">
-        <v>351</v>
-      </c>
-      <c r="B18" s="66"/>
-      <c r="C18" s="66"/>
-      <c r="D18" s="66"/>
-      <c r="E18" s="66"/>
-      <c r="F18" s="67" t="s">
-        <v>352</v>
-      </c>
-      <c r="G18" s="68"/>
-    </row>
-    <row r="19" spans="1:7" ht="11.25" customHeight="1">
-      <c r="A19" s="66"/>
-      <c r="B19" s="66"/>
-      <c r="C19" s="66"/>
-      <c r="D19" s="66"/>
-      <c r="E19" s="66"/>
-      <c r="F19" s="69"/>
-      <c r="G19" s="70"/>
-    </row>
-    <row r="20" spans="1:7" ht="11.25" customHeight="1">
-      <c r="A20" s="66"/>
-      <c r="B20" s="66"/>
-      <c r="C20" s="66"/>
-      <c r="D20" s="66"/>
-      <c r="E20" s="66"/>
-      <c r="F20" s="71"/>
-      <c r="G20" s="72"/>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="32" t="s">
+      <c r="F21" s="33" t="s">
+        <v>347</v>
+      </c>
+      <c r="G21" s="33" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="33"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="33"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="33"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="33"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="33"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="33"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="D26" s="33" t="s">
+        <v>342</v>
+      </c>
+      <c r="E26" s="34" t="s">
         <v>346</v>
       </c>
-      <c r="B21" s="32" t="s">
-        <v>347</v>
-      </c>
-      <c r="C21" s="32" t="s">
-        <v>348</v>
-      </c>
-      <c r="D21" s="32" t="s">
-        <v>349</v>
-      </c>
-      <c r="E21" s="32" t="s">
-        <v>353</v>
-      </c>
-      <c r="F21" s="32" t="s">
-        <v>355</v>
-      </c>
-      <c r="G21" s="32" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="32"/>
-      <c r="B22" s="32"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="32"/>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="32"/>
-      <c r="B23" s="32"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="32"/>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="32"/>
-      <c r="B24" s="32"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="32"/>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="D26" s="32" t="s">
-        <v>350</v>
-      </c>
-      <c r="E26" s="73" t="s">
-        <v>354</v>
-      </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="D27" s="32"/>
-      <c r="E27" s="73"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="34"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="D28" s="32"/>
-      <c r="E28" s="73"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="34"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="D29" s="32"/>
-      <c r="E29" s="73"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="34"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="D30" s="32"/>
-      <c r="E30" s="73"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
     <mergeCell ref="A18:E20"/>
     <mergeCell ref="E21:E24"/>
     <mergeCell ref="E26:E30"/>
@@ -3466,8 +4250,6 @@
     <mergeCell ref="C21:C24"/>
     <mergeCell ref="D21:D24"/>
     <mergeCell ref="D26:D30"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -3481,8 +4263,8 @@
   </sheetPr>
   <dimension ref="A2:AE29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AE23" sqref="AE23:AE26"/>
+    <sheetView topLeftCell="Z4" workbookViewId="0">
+      <selection activeCell="AD20" sqref="AD20:AD22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -3515,38 +4297,38 @@
     <col min="27" max="27" width="27" style="1" customWidth="1"/>
     <col min="28" max="28" width="29.5703125" style="1" customWidth="1"/>
     <col min="29" max="29" width="28.85546875" style="1" customWidth="1"/>
-    <col min="30" max="30" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="32.28515625" style="1" customWidth="1"/>
     <col min="31" max="31" width="21.42578125" style="1" customWidth="1"/>
     <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:31" ht="21">
       <c r="A2" s="31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="31"/>
       <c r="C2" s="3" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:31" ht="21">
       <c r="A3" s="31" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" s="31"/>
       <c r="C3" s="3" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
     </row>
     <row r="4" spans="1:31" ht="21">
-      <c r="A4" s="40" t="s">
-        <v>179</v>
-      </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
+      <c r="A4" s="51" t="s">
+        <v>172</v>
+      </c>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
       <c r="G4" s="1"/>
       <c r="P4" s="19"/>
       <c r="AB4" s="2"/>
@@ -3556,94 +4338,94 @@
         <v>10</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>8</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="F7" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="J7" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="K7" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="L7" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="M7" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="H7" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="I7" s="14" t="s">
+      <c r="N7" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="J7" s="14" t="s">
+      <c r="O7" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="P7" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q7" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="R7" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="S7" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="K7" s="14" t="s">
+      <c r="T7" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="U7" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="V7" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="W7" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="X7" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="L7" s="14" t="s">
+      <c r="Y7" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z7" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA7" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB7" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC7" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD7" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="M7" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="N7" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="O7" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="P7" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q7" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="R7" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="S7" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="T7" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="U7" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="V7" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="W7" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="X7" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y7" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z7" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA7" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="AB7" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="AC7" s="14" t="s">
+      <c r="AE7" s="14" t="s">
         <v>19</v>
-      </c>
-      <c r="AD7" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="AE7" s="14" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:31">
@@ -3651,64 +4433,64 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="E8" s="16" t="s">
         <v>9</v>
       </c>
       <c r="F8" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="M8" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="N8" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="O8" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="P8" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q8" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="R8" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H8" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="M8" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="N8" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="O8" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="P8" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q8" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="R8" s="16" t="s">
-        <v>93</v>
-      </c>
       <c r="S8" s="16" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="T8" s="16" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="U8" s="16" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="V8" s="16" t="s">
         <v>9</v>
@@ -3720,10 +4502,10 @@
         <v>0</v>
       </c>
       <c r="Y8" s="16" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="Z8" s="16" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AA8" s="16" t="s">
         <v>9</v>
@@ -3746,64 +4528,64 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="E9" s="16" t="s">
         <v>9</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H9" s="16" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="M9" s="16" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="N9" s="16" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="O9" s="16" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="P9" s="16" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="Q9" s="16" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="R9" s="16" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="S9" s="16" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="T9" s="16" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="U9" s="16" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="V9" s="16" t="s">
         <v>9</v>
@@ -3815,10 +4597,10 @@
         <v>0</v>
       </c>
       <c r="Y9" s="16" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="Z9" s="16" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AA9" s="16" t="s">
         <v>9</v>
@@ -3841,64 +4623,64 @@
         <v>7</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="E10" s="16" t="s">
         <v>9</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="H10" s="16" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>1</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="K10" s="2" t="s">
         <v>0</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="M10" s="16" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="N10" s="16" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="O10" s="16" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="P10" s="16" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="Q10" s="16" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="R10" s="16" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="S10" s="16" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="T10" s="16" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="U10" s="16" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="V10" s="16" t="s">
         <v>9</v>
@@ -3910,10 +4692,10 @@
         <v>0</v>
       </c>
       <c r="Y10" s="16" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="Z10" s="16" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="AA10" s="16" t="s">
         <v>9</v>
@@ -3936,64 +4718,64 @@
         <v>7</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="E11" s="16" t="s">
         <v>9</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="H11" s="16" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>1</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>0</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="M11" s="16" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="N11" s="16" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="O11" s="16" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="P11" s="16" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="Q11" s="16" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="R11" s="16" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="S11" s="16" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="T11" s="16" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="U11" s="16" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="V11" s="16" t="s">
         <v>9</v>
@@ -4005,10 +4787,10 @@
         <v>0</v>
       </c>
       <c r="Y11" s="16" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="Z11" s="16" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="AA11" s="16" t="s">
         <v>9</v>
@@ -4031,64 +4813,64 @@
         <v>7</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="E12" s="16" t="s">
         <v>9</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="H12" s="16" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>1</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>0</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="M12" s="16" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="N12" s="16" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="O12" s="16" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="P12" s="16" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="Q12" s="16" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="R12" s="16" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="S12" s="16" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="T12" s="16" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="U12" s="16" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="V12" s="16" t="s">
         <v>9</v>
@@ -4100,10 +4882,10 @@
         <v>0</v>
       </c>
       <c r="Y12" s="16" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="Z12" s="16" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="AA12" s="16" t="s">
         <v>9</v>
@@ -4126,64 +4908,64 @@
         <v>7</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C13" s="12" t="s">
         <v>1</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="E13" s="23" t="s">
         <v>9</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="H13" s="23" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="I13" s="12" t="s">
         <v>1</v>
       </c>
       <c r="J13" s="12" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="K13" s="12" t="s">
         <v>0</v>
       </c>
       <c r="L13" s="12" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="M13" s="23" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="N13" s="23" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="O13" s="23" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="P13" s="23" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="Q13" s="23" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="R13" s="23" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="S13" s="23" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="T13" s="23" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="U13" s="23" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="V13" s="23" t="s">
         <v>9</v>
@@ -4195,10 +4977,10 @@
         <v>0</v>
       </c>
       <c r="Y13" s="23" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="Z13" s="23" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="AA13" s="23" t="s">
         <v>9</v>
@@ -4221,64 +5003,64 @@
         <v>7</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="E14" s="16" t="s">
         <v>9</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="H14" s="16" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>1</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="K14" s="2" t="s">
         <v>0</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="M14" s="16" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="N14" s="16" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="O14" s="16" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="P14" s="16" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="Q14" s="16" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="R14" s="16" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="S14" s="16" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="T14" s="16" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="U14" s="16" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="V14" s="16" t="s">
         <v>9</v>
@@ -4290,10 +5072,10 @@
         <v>0</v>
       </c>
       <c r="Y14" s="16" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="Z14" s="16" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="AA14" s="16" t="s">
         <v>9</v>
@@ -4316,79 +5098,79 @@
         <v>7</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="E15" s="16" t="s">
         <v>9</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="H15" s="16" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>1</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="M15" s="16" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="N15" s="16" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="O15" s="16" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="P15" s="16" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="Q15" s="16" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="R15" s="16" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="S15" s="16" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="T15" s="16" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="U15" s="16" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="V15" s="16" t="s">
         <v>9</v>
       </c>
       <c r="W15" s="23" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="X15" s="16" t="s">
         <v>2</v>
       </c>
       <c r="Y15" s="16" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="Z15" s="16" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="AA15" s="16" t="s">
         <v>9</v>
@@ -4411,79 +5193,79 @@
         <v>7</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="E16" s="16" t="s">
         <v>9</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="H16" s="16" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>0</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>0</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="M16" s="16" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="N16" s="16" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="O16" s="16" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="P16" s="16" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="Q16" s="16" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="R16" s="16" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="S16" s="16" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="T16" s="16" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="U16" s="16" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="V16" s="16" t="s">
         <v>9</v>
       </c>
       <c r="W16" s="23" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="X16" s="16" t="s">
         <v>1</v>
       </c>
       <c r="Y16" s="16" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="Z16" s="16" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="AA16" s="16" t="s">
         <v>9</v>
@@ -4498,7 +5280,7 @@
         <v>9</v>
       </c>
       <c r="AE16" s="16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:31">
@@ -4506,79 +5288,79 @@
         <v>7</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="E17" s="16" t="s">
         <v>9</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="H17" s="16" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>1</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="M17" s="16" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="N17" s="16" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="O17" s="16" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="P17" s="16" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="Q17" s="16" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="R17" s="16" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="S17" s="16" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="T17" s="16" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="U17" s="16" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="V17" s="16" t="s">
         <v>9</v>
       </c>
       <c r="W17" s="23" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="X17" s="16" t="s">
         <v>1</v>
       </c>
       <c r="Y17" s="16" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="Z17" s="16" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="AA17" s="16" t="s">
         <v>9</v>
@@ -4627,196 +5409,196 @@
     <row r="20" spans="1:31" ht="11.25" customHeight="1">
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
-      <c r="F20" s="57" t="s">
-        <v>190</v>
-      </c>
-      <c r="G20" s="58"/>
-      <c r="H20" s="58"/>
-      <c r="I20" s="58"/>
-      <c r="J20" s="58"/>
-      <c r="K20" s="58"/>
-      <c r="L20" s="58"/>
-      <c r="M20" s="58"/>
-      <c r="N20" s="58"/>
-      <c r="O20" s="58"/>
-      <c r="P20" s="58"/>
-      <c r="Q20" s="58"/>
-      <c r="R20" s="58"/>
-      <c r="S20" s="58"/>
-      <c r="T20" s="58"/>
-      <c r="U20" s="58"/>
-      <c r="V20" s="58"/>
-      <c r="W20" s="58"/>
-      <c r="X20" s="58"/>
-      <c r="Y20" s="58"/>
-      <c r="Z20" s="59"/>
-      <c r="AA20" s="34" t="s">
-        <v>224</v>
-      </c>
-      <c r="AB20" s="34" t="s">
-        <v>228</v>
-      </c>
-      <c r="AC20" s="35"/>
-      <c r="AD20" s="34" t="s">
-        <v>229</v>
-      </c>
-      <c r="AE20" s="34" t="s">
-        <v>258</v>
+      <c r="F20" s="42" t="s">
+        <v>183</v>
+      </c>
+      <c r="G20" s="43"/>
+      <c r="H20" s="43"/>
+      <c r="I20" s="43"/>
+      <c r="J20" s="43"/>
+      <c r="K20" s="43"/>
+      <c r="L20" s="43"/>
+      <c r="M20" s="43"/>
+      <c r="N20" s="43"/>
+      <c r="O20" s="43"/>
+      <c r="P20" s="43"/>
+      <c r="Q20" s="43"/>
+      <c r="R20" s="43"/>
+      <c r="S20" s="43"/>
+      <c r="T20" s="43"/>
+      <c r="U20" s="43"/>
+      <c r="V20" s="43"/>
+      <c r="W20" s="43"/>
+      <c r="X20" s="43"/>
+      <c r="Y20" s="43"/>
+      <c r="Z20" s="44"/>
+      <c r="AA20" s="41" t="s">
+        <v>217</v>
+      </c>
+      <c r="AB20" s="41" t="s">
+        <v>386</v>
+      </c>
+      <c r="AC20" s="53"/>
+      <c r="AD20" s="41" t="s">
+        <v>385</v>
+      </c>
+      <c r="AE20" s="41" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="21" spans="1:31" ht="11.25" customHeight="1">
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
-      <c r="F21" s="60"/>
-      <c r="G21" s="61"/>
-      <c r="H21" s="61"/>
-      <c r="I21" s="61"/>
-      <c r="J21" s="61"/>
-      <c r="K21" s="61"/>
-      <c r="L21" s="61"/>
-      <c r="M21" s="61"/>
-      <c r="N21" s="61"/>
-      <c r="O21" s="61"/>
-      <c r="P21" s="61"/>
-      <c r="Q21" s="61"/>
-      <c r="R21" s="61"/>
-      <c r="S21" s="61"/>
-      <c r="T21" s="61"/>
-      <c r="U21" s="61"/>
-      <c r="V21" s="61"/>
-      <c r="W21" s="61"/>
-      <c r="X21" s="61"/>
-      <c r="Y21" s="61"/>
-      <c r="Z21" s="62"/>
-      <c r="AA21" s="34"/>
-      <c r="AB21" s="35"/>
-      <c r="AC21" s="35"/>
-      <c r="AD21" s="34"/>
-      <c r="AE21" s="34"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="46"/>
+      <c r="J21" s="46"/>
+      <c r="K21" s="46"/>
+      <c r="L21" s="46"/>
+      <c r="M21" s="46"/>
+      <c r="N21" s="46"/>
+      <c r="O21" s="46"/>
+      <c r="P21" s="46"/>
+      <c r="Q21" s="46"/>
+      <c r="R21" s="46"/>
+      <c r="S21" s="46"/>
+      <c r="T21" s="46"/>
+      <c r="U21" s="46"/>
+      <c r="V21" s="46"/>
+      <c r="W21" s="46"/>
+      <c r="X21" s="46"/>
+      <c r="Y21" s="46"/>
+      <c r="Z21" s="47"/>
+      <c r="AA21" s="41"/>
+      <c r="AB21" s="53"/>
+      <c r="AC21" s="53"/>
+      <c r="AD21" s="41"/>
+      <c r="AE21" s="41"/>
     </row>
     <row r="22" spans="1:31" ht="11.25" customHeight="1">
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
-      <c r="F22" s="63"/>
-      <c r="G22" s="64"/>
-      <c r="H22" s="64"/>
-      <c r="I22" s="64"/>
-      <c r="J22" s="64"/>
-      <c r="K22" s="64"/>
-      <c r="L22" s="64"/>
-      <c r="M22" s="64"/>
-      <c r="N22" s="64"/>
-      <c r="O22" s="64"/>
-      <c r="P22" s="64"/>
-      <c r="Q22" s="64"/>
-      <c r="R22" s="64"/>
-      <c r="S22" s="64"/>
-      <c r="T22" s="64"/>
-      <c r="U22" s="64"/>
-      <c r="V22" s="64"/>
-      <c r="W22" s="64"/>
-      <c r="X22" s="64"/>
-      <c r="Y22" s="64"/>
-      <c r="Z22" s="65"/>
-      <c r="AA22" s="34"/>
-      <c r="AB22" s="35"/>
-      <c r="AC22" s="35"/>
-      <c r="AD22" s="34"/>
-      <c r="AE22" s="34"/>
+      <c r="F22" s="48"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="49"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="49"/>
+      <c r="K22" s="49"/>
+      <c r="L22" s="49"/>
+      <c r="M22" s="49"/>
+      <c r="N22" s="49"/>
+      <c r="O22" s="49"/>
+      <c r="P22" s="49"/>
+      <c r="Q22" s="49"/>
+      <c r="R22" s="49"/>
+      <c r="S22" s="49"/>
+      <c r="T22" s="49"/>
+      <c r="U22" s="49"/>
+      <c r="V22" s="49"/>
+      <c r="W22" s="49"/>
+      <c r="X22" s="49"/>
+      <c r="Y22" s="49"/>
+      <c r="Z22" s="50"/>
+      <c r="AA22" s="41"/>
+      <c r="AB22" s="53"/>
+      <c r="AC22" s="53"/>
+      <c r="AD22" s="41"/>
+      <c r="AE22" s="41"/>
     </row>
     <row r="23" spans="1:31" ht="11.25" customHeight="1">
       <c r="A23" s="28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B23" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="C23" s="28" t="s">
+        <v>254</v>
+      </c>
+      <c r="D23" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="E23" s="28" t="s">
+        <v>253</v>
+      </c>
+      <c r="F23" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="G23" s="28" t="s">
+        <v>161</v>
+      </c>
+      <c r="H23" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="I23" s="28" t="s">
+        <v>163</v>
+      </c>
+      <c r="J23" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="K23" s="28" t="s">
+        <v>167</v>
+      </c>
+      <c r="L23" s="28" t="s">
+        <v>165</v>
+      </c>
+      <c r="M23" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="N23" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="O23" s="28" t="s">
         <v>169</v>
       </c>
-      <c r="C23" s="28" t="s">
-        <v>261</v>
-      </c>
-      <c r="D23" s="28" t="s">
-        <v>188</v>
-      </c>
-      <c r="E23" s="28" t="s">
-        <v>260</v>
-      </c>
-      <c r="F23" s="28" t="s">
-        <v>167</v>
-      </c>
-      <c r="G23" s="28" t="s">
-        <v>168</v>
-      </c>
-      <c r="H23" s="28" t="s">
-        <v>186</v>
-      </c>
-      <c r="I23" s="28" t="s">
-        <v>170</v>
-      </c>
-      <c r="J23" s="28" t="s">
+      <c r="P23" s="28" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q23" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="R23" s="28" t="s">
+        <v>182</v>
+      </c>
+      <c r="S23" s="28" t="s">
+        <v>171</v>
+      </c>
+      <c r="T23" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="U23" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="V23" s="28" t="s">
+        <v>231</v>
+      </c>
+      <c r="W23" s="28" t="s">
+        <v>249</v>
+      </c>
+      <c r="X23" s="28" t="s">
         <v>173</v>
       </c>
-      <c r="K23" s="28" t="s">
-        <v>174</v>
-      </c>
-      <c r="L23" s="28" t="s">
-        <v>172</v>
-      </c>
-      <c r="M23" s="28" t="s">
-        <v>175</v>
-      </c>
-      <c r="N23" s="28" t="s">
-        <v>177</v>
-      </c>
-      <c r="O23" s="28" t="s">
-        <v>176</v>
-      </c>
-      <c r="P23" s="28" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q23" s="28" t="s">
-        <v>183</v>
-      </c>
-      <c r="R23" s="28" t="s">
-        <v>189</v>
-      </c>
-      <c r="S23" s="28" t="s">
-        <v>178</v>
-      </c>
-      <c r="T23" s="28" t="s">
-        <v>184</v>
-      </c>
-      <c r="U23" s="28" t="s">
-        <v>185</v>
-      </c>
-      <c r="V23" s="28" t="s">
-        <v>238</v>
-      </c>
-      <c r="W23" s="28" t="s">
-        <v>256</v>
-      </c>
-      <c r="X23" s="28" t="s">
+      <c r="Y23" s="28" t="s">
         <v>180</v>
       </c>
-      <c r="Y23" s="28" t="s">
-        <v>187</v>
-      </c>
-      <c r="Z23" s="36" t="s">
-        <v>257</v>
-      </c>
-      <c r="AA23" s="39" t="s">
-        <v>225</v>
-      </c>
-      <c r="AB23" s="32" t="s">
-        <v>226</v>
-      </c>
-      <c r="AC23" s="32" t="s">
-        <v>227</v>
-      </c>
-      <c r="AD23" s="32" t="s">
-        <v>230</v>
-      </c>
-      <c r="AE23" s="32" t="s">
-        <v>259</v>
+      <c r="Z23" s="54" t="s">
+        <v>250</v>
+      </c>
+      <c r="AA23" s="57" t="s">
+        <v>218</v>
+      </c>
+      <c r="AB23" s="33" t="s">
+        <v>219</v>
+      </c>
+      <c r="AC23" s="33" t="s">
+        <v>220</v>
+      </c>
+      <c r="AD23" s="33" t="s">
+        <v>223</v>
+      </c>
+      <c r="AE23" s="33" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="24" spans="1:31">
@@ -4845,12 +5627,12 @@
       <c r="W24" s="29"/>
       <c r="X24" s="29"/>
       <c r="Y24" s="29"/>
-      <c r="Z24" s="37"/>
-      <c r="AA24" s="39"/>
-      <c r="AB24" s="32"/>
-      <c r="AC24" s="32"/>
-      <c r="AD24" s="32"/>
-      <c r="AE24" s="32"/>
+      <c r="Z24" s="55"/>
+      <c r="AA24" s="57"/>
+      <c r="AB24" s="33"/>
+      <c r="AC24" s="33"/>
+      <c r="AD24" s="33"/>
+      <c r="AE24" s="33"/>
     </row>
     <row r="25" spans="1:31">
       <c r="A25" s="29"/>
@@ -4878,12 +5660,12 @@
       <c r="W25" s="29"/>
       <c r="X25" s="29"/>
       <c r="Y25" s="29"/>
-      <c r="Z25" s="37"/>
-      <c r="AA25" s="39"/>
-      <c r="AB25" s="32"/>
-      <c r="AC25" s="32"/>
-      <c r="AD25" s="32"/>
-      <c r="AE25" s="32"/>
+      <c r="Z25" s="55"/>
+      <c r="AA25" s="57"/>
+      <c r="AB25" s="33"/>
+      <c r="AC25" s="33"/>
+      <c r="AD25" s="33"/>
+      <c r="AE25" s="33"/>
     </row>
     <row r="26" spans="1:31">
       <c r="A26" s="30"/>
@@ -4911,12 +5693,12 @@
       <c r="W26" s="30"/>
       <c r="X26" s="30"/>
       <c r="Y26" s="30"/>
-      <c r="Z26" s="38"/>
-      <c r="AA26" s="39"/>
-      <c r="AB26" s="32"/>
-      <c r="AC26" s="32"/>
-      <c r="AD26" s="32"/>
-      <c r="AE26" s="32"/>
+      <c r="Z26" s="56"/>
+      <c r="AA26" s="57"/>
+      <c r="AB26" s="33"/>
+      <c r="AC26" s="33"/>
+      <c r="AD26" s="33"/>
+      <c r="AE26" s="33"/>
     </row>
     <row r="27" spans="1:31">
       <c r="D27" s="1"/>
@@ -4928,17 +5710,17 @@
       <c r="R27" s="1"/>
       <c r="S27" s="2"/>
       <c r="V27" s="2"/>
-      <c r="AA27" s="39"/>
-      <c r="AB27" s="32"/>
-      <c r="AC27" s="32"/>
-      <c r="AD27" s="32"/>
+      <c r="AA27" s="57"/>
+      <c r="AB27" s="33"/>
+      <c r="AC27" s="33"/>
+      <c r="AD27" s="33"/>
     </row>
     <row r="28" spans="1:31">
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="17" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" s="1"/>
@@ -4947,14 +5729,14 @@
       <c r="S28" s="2"/>
       <c r="V28" s="2"/>
       <c r="X28" s="17" t="s">
-        <v>165</v>
-      </c>
-      <c r="AA28" s="39"/>
-      <c r="AB28" s="32"/>
-      <c r="AC28" s="32"/>
-      <c r="AD28" s="33"/>
+        <v>158</v>
+      </c>
+      <c r="AA28" s="57"/>
+      <c r="AB28" s="33"/>
+      <c r="AC28" s="33"/>
+      <c r="AD28" s="52"/>
       <c r="AE28" s="17" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="29" spans="1:31" ht="123.75">
@@ -4962,7 +5744,7 @@
       <c r="E29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="18" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" s="1"/>
@@ -4972,27 +5754,34 @@
       <c r="V29" s="2"/>
       <c r="W29" s="2"/>
       <c r="X29" s="20" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="Z29" s="21"/>
-      <c r="AA29" s="39"/>
+      <c r="AA29" s="57"/>
       <c r="AB29" s="22"/>
       <c r="AC29" s="2"/>
       <c r="AD29" s="2"/>
       <c r="AE29" s="20" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="D23:D26"/>
-    <mergeCell ref="R23:R26"/>
-    <mergeCell ref="O23:O26"/>
-    <mergeCell ref="V23:V26"/>
-    <mergeCell ref="N23:N26"/>
-    <mergeCell ref="S23:S26"/>
-    <mergeCell ref="E23:E26"/>
-    <mergeCell ref="H23:H26"/>
+    <mergeCell ref="AD23:AD28"/>
+    <mergeCell ref="AB20:AC22"/>
+    <mergeCell ref="AD20:AD22"/>
+    <mergeCell ref="W23:W26"/>
+    <mergeCell ref="I23:I26"/>
+    <mergeCell ref="L23:L26"/>
+    <mergeCell ref="J23:J26"/>
+    <mergeCell ref="K23:K26"/>
+    <mergeCell ref="M23:M26"/>
+    <mergeCell ref="Y23:Y26"/>
+    <mergeCell ref="Z23:Z26"/>
+    <mergeCell ref="AA20:AA22"/>
+    <mergeCell ref="AA23:AA29"/>
+    <mergeCell ref="AB23:AB28"/>
+    <mergeCell ref="AC23:AC28"/>
     <mergeCell ref="AE20:AE22"/>
     <mergeCell ref="AE23:AE26"/>
     <mergeCell ref="F20:Z22"/>
@@ -5009,21 +5798,14 @@
     <mergeCell ref="T23:T26"/>
     <mergeCell ref="U23:U26"/>
     <mergeCell ref="B23:B26"/>
-    <mergeCell ref="AD23:AD28"/>
-    <mergeCell ref="AB20:AC22"/>
-    <mergeCell ref="AD20:AD22"/>
-    <mergeCell ref="W23:W26"/>
-    <mergeCell ref="I23:I26"/>
-    <mergeCell ref="L23:L26"/>
-    <mergeCell ref="J23:J26"/>
-    <mergeCell ref="K23:K26"/>
-    <mergeCell ref="M23:M26"/>
-    <mergeCell ref="Y23:Y26"/>
-    <mergeCell ref="Z23:Z26"/>
-    <mergeCell ref="AA20:AA22"/>
-    <mergeCell ref="AA23:AA29"/>
-    <mergeCell ref="AB23:AB28"/>
-    <mergeCell ref="AC23:AC28"/>
+    <mergeCell ref="D23:D26"/>
+    <mergeCell ref="R23:R26"/>
+    <mergeCell ref="O23:O26"/>
+    <mergeCell ref="V23:V26"/>
+    <mergeCell ref="N23:N26"/>
+    <mergeCell ref="S23:S26"/>
+    <mergeCell ref="E23:E26"/>
+    <mergeCell ref="H23:H26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -5077,31 +5859,31 @@
   <sheetData>
     <row r="2" spans="1:28" ht="21">
       <c r="A2" s="31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="31"/>
       <c r="C2" s="3" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:28" ht="21">
       <c r="A3" s="31" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" s="31"/>
       <c r="C3" s="3" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
     </row>
     <row r="4" spans="1:28" ht="21">
-      <c r="A4" s="40" t="s">
-        <v>179</v>
-      </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
+      <c r="A4" s="51" t="s">
+        <v>172</v>
+      </c>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
       <c r="G4" s="1"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="19"/>
@@ -5112,85 +5894,85 @@
         <v>10</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="F7" s="14" t="s">
         <v>8</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="J7" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="K7" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="L7" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="M7" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="N7" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="O7" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="P7" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q7" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="R7" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="S7" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="T7" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="U7" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="V7" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="W7" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="X7" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y7" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z7" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA7" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB7" s="14" t="s">
         <v>105</v>
-      </c>
-      <c r="K7" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="L7" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="M7" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="N7" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="O7" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="P7" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q7" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="R7" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="S7" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="T7" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="U7" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="V7" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="W7" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="X7" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="Y7" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="Z7" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="AA7" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="AB7" s="14" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:28" s="13" customFormat="1">
@@ -5201,40 +5983,40 @@
         <v>1</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E8" s="23" t="s">
         <v>9</v>
       </c>
       <c r="F8" s="23" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="J8" s="12" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="K8" s="12" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="L8" s="23" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="M8" s="23" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="N8" s="23" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="O8" s="23" t="s">
         <v>0</v>
@@ -5243,16 +6025,16 @@
         <v>0</v>
       </c>
       <c r="Q8" s="12" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="R8" s="23" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="S8" s="23" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="T8" s="23" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="U8" s="23" t="s">
         <v>9</v>
@@ -5287,25 +6069,25 @@
         <v>1</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E9" s="23" t="s">
         <v>9</v>
       </c>
       <c r="F9" s="23" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="J9" s="12" t="s">
         <v>1</v>
@@ -5314,10 +6096,10 @@
         <v>1</v>
       </c>
       <c r="L9" s="23" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="M9" s="23" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N9" s="23" t="s">
         <v>2</v>
@@ -5332,25 +6114,25 @@
         <v>0</v>
       </c>
       <c r="R9" s="23" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="S9" s="23" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="T9" s="23" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="U9" s="23" t="s">
         <v>2</v>
       </c>
       <c r="V9" s="23" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="W9" s="23" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="X9" s="23" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="Y9" s="23" t="s">
         <v>9</v>
@@ -5373,25 +6155,25 @@
         <v>1</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E10" s="23" t="s">
         <v>9</v>
       </c>
       <c r="F10" s="23" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="H10" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="I10" s="12" t="s">
         <v>134</v>
-      </c>
-      <c r="I10" s="12" t="s">
-        <v>141</v>
       </c>
       <c r="J10" s="12" t="s">
         <v>3</v>
@@ -5400,10 +6182,10 @@
         <v>3</v>
       </c>
       <c r="L10" s="23" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="M10" s="23" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="N10" s="23" t="s">
         <v>3</v>
@@ -5418,25 +6200,25 @@
         <v>0</v>
       </c>
       <c r="R10" s="23" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="S10" s="23" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="T10" s="23" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="U10" s="23" t="s">
         <v>2</v>
       </c>
       <c r="V10" s="23" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="W10" s="23" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="X10" s="23" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="Y10" s="23" t="s">
         <v>9</v>
@@ -5448,7 +6230,7 @@
         <v>9</v>
       </c>
       <c r="AB10" s="23" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:28" s="13" customFormat="1">
@@ -5459,25 +6241,25 @@
         <v>1</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E11" s="23" t="s">
         <v>9</v>
       </c>
       <c r="F11" s="23" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="H11" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="I11" s="12" t="s">
         <v>134</v>
-      </c>
-      <c r="I11" s="12" t="s">
-        <v>141</v>
       </c>
       <c r="J11" s="12" t="s">
         <v>3</v>
@@ -5486,10 +6268,10 @@
         <v>3</v>
       </c>
       <c r="L11" s="23" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="M11" s="23" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="N11" s="23" t="s">
         <v>3</v>
@@ -5504,25 +6286,25 @@
         <v>0</v>
       </c>
       <c r="R11" s="23" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="S11" s="23" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="T11" s="23" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="U11" s="23" t="s">
         <v>2</v>
       </c>
       <c r="V11" s="23" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="W11" s="23" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="X11" s="23" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="Y11" s="23" t="s">
         <v>9</v>
@@ -5534,7 +6316,7 @@
         <v>9</v>
       </c>
       <c r="AB11" s="23" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12" spans="1:28" s="13" customFormat="1">
@@ -5545,25 +6327,25 @@
         <v>1</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E12" s="23" t="s">
         <v>9</v>
       </c>
       <c r="F12" s="23" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="H12" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="I12" s="12" t="s">
         <v>134</v>
-      </c>
-      <c r="I12" s="12" t="s">
-        <v>141</v>
       </c>
       <c r="J12" s="12" t="s">
         <v>3</v>
@@ -5572,10 +6354,10 @@
         <v>3</v>
       </c>
       <c r="L12" s="23" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="M12" s="23" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="N12" s="23" t="s">
         <v>1</v>
@@ -5590,25 +6372,25 @@
         <v>0</v>
       </c>
       <c r="R12" s="23" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="S12" s="23" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="T12" s="23" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="U12" s="23" t="s">
         <v>2</v>
       </c>
       <c r="V12" s="23" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="W12" s="23" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="X12" s="23" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="Y12" s="23" t="s">
         <v>9</v>
@@ -5620,7 +6402,7 @@
         <v>9</v>
       </c>
       <c r="AB12" s="23" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
     </row>
     <row r="13" spans="1:28" s="13" customFormat="1">
@@ -5631,25 +6413,25 @@
         <v>1</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E13" s="23" t="s">
         <v>9</v>
       </c>
       <c r="F13" s="23" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="H13" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="I13" s="12" t="s">
         <v>134</v>
-      </c>
-      <c r="I13" s="12" t="s">
-        <v>141</v>
       </c>
       <c r="J13" s="12" t="s">
         <v>3</v>
@@ -5658,10 +6440,10 @@
         <v>3</v>
       </c>
       <c r="L13" s="23" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="M13" s="23" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="N13" s="23" t="s">
         <v>1</v>
@@ -5676,25 +6458,25 @@
         <v>0</v>
       </c>
       <c r="R13" s="23" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="S13" s="23" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="T13" s="23" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="U13" s="23" t="s">
         <v>2</v>
       </c>
       <c r="V13" s="23" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="W13" s="23" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="X13" s="23" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="Y13" s="23" t="s">
         <v>9</v>
@@ -5706,7 +6488,7 @@
         <v>9</v>
       </c>
       <c r="AB13" s="23" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14" spans="1:28" s="13" customFormat="1">
@@ -5717,25 +6499,25 @@
         <v>1</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E14" s="23" t="s">
         <v>9</v>
       </c>
       <c r="F14" s="23" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="H14" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="I14" s="12" t="s">
         <v>134</v>
-      </c>
-      <c r="I14" s="12" t="s">
-        <v>141</v>
       </c>
       <c r="J14" s="12" t="s">
         <v>3</v>
@@ -5744,10 +6526,10 @@
         <v>3</v>
       </c>
       <c r="L14" s="23" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="M14" s="23" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="N14" s="23" t="s">
         <v>1</v>
@@ -5762,25 +6544,25 @@
         <v>0</v>
       </c>
       <c r="R14" s="23" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="S14" s="23" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="T14" s="23" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="U14" s="23" t="s">
         <v>2</v>
       </c>
       <c r="V14" s="23" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="W14" s="23" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="X14" s="23" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="Y14" s="23" t="s">
         <v>9</v>
@@ -5792,7 +6574,7 @@
         <v>9</v>
       </c>
       <c r="AB14" s="23" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15" spans="1:28" s="13" customFormat="1">
@@ -5803,25 +6585,25 @@
         <v>1</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E15" s="23" t="s">
         <v>9</v>
       </c>
       <c r="F15" s="23" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="I15" s="12" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="J15" s="12" t="s">
         <v>1</v>
@@ -5830,10 +6612,10 @@
         <v>3</v>
       </c>
       <c r="L15" s="23" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="M15" s="23" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="N15" s="23" t="s">
         <v>3</v>
@@ -5848,37 +6630,37 @@
         <v>0</v>
       </c>
       <c r="R15" s="23" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="S15" s="23" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="T15" s="23" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="U15" s="23" t="s">
         <v>1</v>
       </c>
       <c r="V15" s="23" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="W15" s="23" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="X15" s="23" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="Y15" s="23" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="Z15" s="23" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="AA15" s="23" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="AB15" s="23" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
     </row>
     <row r="16" spans="1:28" s="13" customFormat="1">
@@ -5889,25 +6671,25 @@
         <v>1</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E16" s="23" t="s">
         <v>9</v>
       </c>
       <c r="F16" s="23" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="I16" s="12" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="J16" s="12" t="s">
         <v>1</v>
@@ -5916,16 +6698,16 @@
         <v>3</v>
       </c>
       <c r="L16" s="23" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="M16" s="23" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="N16" s="23" t="s">
         <v>1</v>
       </c>
       <c r="O16" s="23" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="P16" s="12" t="s">
         <v>1</v>
@@ -5934,37 +6716,37 @@
         <v>0</v>
       </c>
       <c r="R16" s="23" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="S16" s="23" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="T16" s="23" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="U16" s="23" t="s">
         <v>1</v>
       </c>
       <c r="V16" s="23" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="W16" s="23" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="X16" s="23" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="Y16" s="23" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="Z16" s="23" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="AA16" s="23" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="AB16" s="23" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
     </row>
     <row r="17" spans="1:28" s="13" customFormat="1">
@@ -5975,25 +6757,25 @@
         <v>1</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E17" s="23" t="s">
         <v>9</v>
       </c>
       <c r="F17" s="23" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="H17" s="12" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="I17" s="12" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="J17" s="12" t="s">
         <v>1</v>
@@ -6002,16 +6784,16 @@
         <v>3</v>
       </c>
       <c r="L17" s="23" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="M17" s="23" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="N17" s="23" t="s">
         <v>0</v>
       </c>
       <c r="O17" s="23" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="P17" s="12" t="s">
         <v>4</v>
@@ -6020,25 +6802,25 @@
         <v>2</v>
       </c>
       <c r="R17" s="23" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="S17" s="23" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="T17" s="23" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="U17" s="23" t="s">
         <v>3</v>
       </c>
       <c r="V17" s="23" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="W17" s="23" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="X17" s="23" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="Y17" s="23" t="s">
         <v>9</v>
@@ -6050,7 +6832,7 @@
         <v>9</v>
       </c>
       <c r="AB17" s="23" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
     </row>
     <row r="18" spans="1:28" s="12" customFormat="1">
@@ -6061,25 +6843,25 @@
         <v>1</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E18" s="12" t="s">
         <v>9</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="I18" s="12" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="J18" s="12" t="s">
         <v>1</v>
@@ -6088,16 +6870,16 @@
         <v>3</v>
       </c>
       <c r="L18" s="12" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="M18" s="12" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="N18" s="12" t="s">
         <v>0</v>
       </c>
       <c r="O18" s="12" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="P18" s="12" t="s">
         <v>5</v>
@@ -6106,25 +6888,25 @@
         <v>3</v>
       </c>
       <c r="R18" s="12" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="S18" s="12" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="T18" s="12" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="U18" s="12" t="s">
         <v>3</v>
       </c>
       <c r="V18" s="12" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="W18" s="12" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="X18" s="12" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="Y18" s="12" t="s">
         <v>9</v>
@@ -6136,7 +6918,7 @@
         <v>9</v>
       </c>
       <c r="AB18" s="12" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
     </row>
     <row r="19" spans="1:28" s="2" customFormat="1"/>
@@ -6153,177 +6935,177 @@
       <c r="X20" s="2"/>
     </row>
     <row r="21" spans="1:28" ht="11.25" customHeight="1">
-      <c r="E21" s="57" t="s">
-        <v>190</v>
-      </c>
-      <c r="F21" s="58"/>
-      <c r="G21" s="58"/>
-      <c r="H21" s="58"/>
-      <c r="I21" s="58"/>
-      <c r="J21" s="58"/>
-      <c r="K21" s="58"/>
-      <c r="L21" s="58"/>
-      <c r="M21" s="58"/>
-      <c r="N21" s="58"/>
-      <c r="O21" s="58"/>
-      <c r="P21" s="58"/>
-      <c r="Q21" s="58"/>
-      <c r="R21" s="58"/>
-      <c r="S21" s="58"/>
-      <c r="T21" s="58"/>
-      <c r="U21" s="58"/>
-      <c r="V21" s="58"/>
-      <c r="W21" s="58"/>
-      <c r="X21" s="59"/>
-      <c r="Y21" s="34" t="s">
-        <v>228</v>
-      </c>
-      <c r="Z21" s="34"/>
-      <c r="AA21" s="34" t="s">
-        <v>229</v>
-      </c>
-      <c r="AB21" s="34" t="s">
-        <v>296</v>
+      <c r="E21" s="42" t="s">
+        <v>183</v>
+      </c>
+      <c r="F21" s="43"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="43"/>
+      <c r="J21" s="43"/>
+      <c r="K21" s="43"/>
+      <c r="L21" s="43"/>
+      <c r="M21" s="43"/>
+      <c r="N21" s="43"/>
+      <c r="O21" s="43"/>
+      <c r="P21" s="43"/>
+      <c r="Q21" s="43"/>
+      <c r="R21" s="43"/>
+      <c r="S21" s="43"/>
+      <c r="T21" s="43"/>
+      <c r="U21" s="43"/>
+      <c r="V21" s="43"/>
+      <c r="W21" s="43"/>
+      <c r="X21" s="44"/>
+      <c r="Y21" s="41" t="s">
+        <v>221</v>
+      </c>
+      <c r="Z21" s="41"/>
+      <c r="AA21" s="41" t="s">
+        <v>222</v>
+      </c>
+      <c r="AB21" s="41" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="22" spans="1:28">
-      <c r="E22" s="60"/>
-      <c r="F22" s="61"/>
-      <c r="G22" s="61"/>
-      <c r="H22" s="61"/>
-      <c r="I22" s="61"/>
-      <c r="J22" s="61"/>
-      <c r="K22" s="61"/>
-      <c r="L22" s="61"/>
-      <c r="M22" s="61"/>
-      <c r="N22" s="61"/>
-      <c r="O22" s="61"/>
-      <c r="P22" s="61"/>
-      <c r="Q22" s="61"/>
-      <c r="R22" s="61"/>
-      <c r="S22" s="61"/>
-      <c r="T22" s="61"/>
-      <c r="U22" s="61"/>
-      <c r="V22" s="61"/>
-      <c r="W22" s="61"/>
-      <c r="X22" s="62"/>
-      <c r="Y22" s="34"/>
-      <c r="Z22" s="34"/>
-      <c r="AA22" s="34"/>
-      <c r="AB22" s="34" t="s">
-        <v>295</v>
+      <c r="E22" s="45"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="46"/>
+      <c r="H22" s="46"/>
+      <c r="I22" s="46"/>
+      <c r="J22" s="46"/>
+      <c r="K22" s="46"/>
+      <c r="L22" s="46"/>
+      <c r="M22" s="46"/>
+      <c r="N22" s="46"/>
+      <c r="O22" s="46"/>
+      <c r="P22" s="46"/>
+      <c r="Q22" s="46"/>
+      <c r="R22" s="46"/>
+      <c r="S22" s="46"/>
+      <c r="T22" s="46"/>
+      <c r="U22" s="46"/>
+      <c r="V22" s="46"/>
+      <c r="W22" s="46"/>
+      <c r="X22" s="47"/>
+      <c r="Y22" s="41"/>
+      <c r="Z22" s="41"/>
+      <c r="AA22" s="41"/>
+      <c r="AB22" s="41" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="23" spans="1:28">
-      <c r="E23" s="63"/>
-      <c r="F23" s="64"/>
-      <c r="G23" s="64"/>
-      <c r="H23" s="64"/>
-      <c r="I23" s="64"/>
-      <c r="J23" s="64"/>
-      <c r="K23" s="64"/>
-      <c r="L23" s="64"/>
-      <c r="M23" s="64"/>
-      <c r="N23" s="64"/>
-      <c r="O23" s="64"/>
-      <c r="P23" s="64"/>
-      <c r="Q23" s="64"/>
-      <c r="R23" s="64"/>
-      <c r="S23" s="64"/>
-      <c r="T23" s="64"/>
-      <c r="U23" s="64"/>
-      <c r="V23" s="64"/>
-      <c r="W23" s="64"/>
-      <c r="X23" s="65"/>
-      <c r="Y23" s="34"/>
-      <c r="Z23" s="34"/>
-      <c r="AA23" s="34"/>
-      <c r="AB23" s="34"/>
+      <c r="E23" s="48"/>
+      <c r="F23" s="49"/>
+      <c r="G23" s="49"/>
+      <c r="H23" s="49"/>
+      <c r="I23" s="49"/>
+      <c r="J23" s="49"/>
+      <c r="K23" s="49"/>
+      <c r="L23" s="49"/>
+      <c r="M23" s="49"/>
+      <c r="N23" s="49"/>
+      <c r="O23" s="49"/>
+      <c r="P23" s="49"/>
+      <c r="Q23" s="49"/>
+      <c r="R23" s="49"/>
+      <c r="S23" s="49"/>
+      <c r="T23" s="49"/>
+      <c r="U23" s="49"/>
+      <c r="V23" s="49"/>
+      <c r="W23" s="49"/>
+      <c r="X23" s="50"/>
+      <c r="Y23" s="41"/>
+      <c r="Z23" s="41"/>
+      <c r="AA23" s="41"/>
+      <c r="AB23" s="41"/>
     </row>
     <row r="24" spans="1:28" ht="11.25" customHeight="1">
       <c r="A24" s="28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B24" s="28" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="C24" s="28" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="D24" s="28" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="E24" s="28" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="F24" s="28" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G24" s="28" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="H24" s="28" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="I24" s="28" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="J24" s="28" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="K24" s="28" t="s">
+        <v>273</v>
+      </c>
+      <c r="L24" s="28" t="s">
+        <v>274</v>
+      </c>
+      <c r="M24" s="33" t="s">
+        <v>285</v>
+      </c>
+      <c r="N24" s="70" t="s">
+        <v>279</v>
+      </c>
+      <c r="O24" s="61" t="s">
+        <v>286</v>
+      </c>
+      <c r="P24" s="28" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q24" s="28" t="s">
+        <v>271</v>
+      </c>
+      <c r="R24" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="S24" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="T24" s="28" t="s">
+        <v>276</v>
+      </c>
+      <c r="U24" s="28" t="s">
+        <v>277</v>
+      </c>
+      <c r="V24" s="28" t="s">
         <v>280</v>
       </c>
-      <c r="L24" s="28" t="s">
+      <c r="W24" s="28" t="s">
         <v>281</v>
       </c>
-      <c r="M24" s="32" t="s">
-        <v>292</v>
-      </c>
-      <c r="N24" s="41" t="s">
-        <v>286</v>
-      </c>
-      <c r="O24" s="45" t="s">
-        <v>293</v>
-      </c>
-      <c r="P24" s="28" t="s">
-        <v>294</v>
-      </c>
-      <c r="Q24" s="28" t="s">
-        <v>278</v>
-      </c>
-      <c r="R24" s="28" t="s">
+      <c r="X24" s="28" t="s">
         <v>282</v>
       </c>
-      <c r="S24" s="28" t="s">
-        <v>298</v>
-      </c>
-      <c r="T24" s="28" t="s">
+      <c r="Y24" s="64" t="s">
         <v>283</v>
       </c>
-      <c r="U24" s="28" t="s">
+      <c r="Z24" s="67" t="s">
         <v>284</v>
       </c>
-      <c r="V24" s="28" t="s">
-        <v>287</v>
-      </c>
-      <c r="W24" s="28" t="s">
-        <v>288</v>
-      </c>
-      <c r="X24" s="28" t="s">
-        <v>289</v>
-      </c>
-      <c r="Y24" s="48" t="s">
+      <c r="AA24" s="33" t="s">
+        <v>223</v>
+      </c>
+      <c r="AB24" s="58" t="s">
         <v>290</v>
-      </c>
-      <c r="Z24" s="51" t="s">
-        <v>291</v>
-      </c>
-      <c r="AA24" s="32" t="s">
-        <v>230</v>
-      </c>
-      <c r="AB24" s="42" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="25" spans="1:28">
@@ -6339,9 +7121,9 @@
       <c r="J25" s="29"/>
       <c r="K25" s="29"/>
       <c r="L25" s="29"/>
-      <c r="M25" s="32"/>
-      <c r="N25" s="41"/>
-      <c r="O25" s="46"/>
+      <c r="M25" s="33"/>
+      <c r="N25" s="70"/>
+      <c r="O25" s="62"/>
       <c r="P25" s="29"/>
       <c r="Q25" s="29"/>
       <c r="R25" s="29"/>
@@ -6351,10 +7133,10 @@
       <c r="V25" s="29"/>
       <c r="W25" s="29"/>
       <c r="X25" s="29"/>
-      <c r="Y25" s="49"/>
-      <c r="Z25" s="52"/>
-      <c r="AA25" s="32"/>
-      <c r="AB25" s="43"/>
+      <c r="Y25" s="65"/>
+      <c r="Z25" s="68"/>
+      <c r="AA25" s="33"/>
+      <c r="AB25" s="59"/>
     </row>
     <row r="26" spans="1:28">
       <c r="A26" s="29"/>
@@ -6369,9 +7151,9 @@
       <c r="J26" s="29"/>
       <c r="K26" s="29"/>
       <c r="L26" s="29"/>
-      <c r="M26" s="32"/>
-      <c r="N26" s="41"/>
-      <c r="O26" s="46"/>
+      <c r="M26" s="33"/>
+      <c r="N26" s="70"/>
+      <c r="O26" s="62"/>
       <c r="P26" s="29"/>
       <c r="Q26" s="29"/>
       <c r="R26" s="29"/>
@@ -6381,10 +7163,10 @@
       <c r="V26" s="29"/>
       <c r="W26" s="29"/>
       <c r="X26" s="29"/>
-      <c r="Y26" s="49"/>
-      <c r="Z26" s="52"/>
-      <c r="AA26" s="32"/>
-      <c r="AB26" s="43"/>
+      <c r="Y26" s="65"/>
+      <c r="Z26" s="68"/>
+      <c r="AA26" s="33"/>
+      <c r="AB26" s="59"/>
     </row>
     <row r="27" spans="1:28">
       <c r="A27" s="30"/>
@@ -6399,9 +7181,9 @@
       <c r="J27" s="30"/>
       <c r="K27" s="30"/>
       <c r="L27" s="30"/>
-      <c r="M27" s="32"/>
-      <c r="N27" s="41"/>
-      <c r="O27" s="47"/>
+      <c r="M27" s="33"/>
+      <c r="N27" s="70"/>
+      <c r="O27" s="63"/>
       <c r="P27" s="30"/>
       <c r="Q27" s="30"/>
       <c r="R27" s="30"/>
@@ -6411,10 +7193,10 @@
       <c r="V27" s="30"/>
       <c r="W27" s="30"/>
       <c r="X27" s="30"/>
-      <c r="Y27" s="49"/>
-      <c r="Z27" s="52"/>
-      <c r="AA27" s="32"/>
-      <c r="AB27" s="43"/>
+      <c r="Y27" s="65"/>
+      <c r="Z27" s="68"/>
+      <c r="AA27" s="33"/>
+      <c r="AB27" s="59"/>
     </row>
     <row r="28" spans="1:28">
       <c r="E28" s="1"/>
@@ -6422,60 +7204,60 @@
       <c r="K28" s="2"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
-      <c r="N28" s="41"/>
+      <c r="N28" s="70"/>
       <c r="R28" s="2"/>
       <c r="S28" s="2"/>
       <c r="T28" s="2"/>
       <c r="U28" s="1"/>
       <c r="X28" s="2"/>
-      <c r="Y28" s="49"/>
-      <c r="Z28" s="52"/>
-      <c r="AA28" s="32"/>
-      <c r="AB28" s="43"/>
+      <c r="Y28" s="65"/>
+      <c r="Z28" s="68"/>
+      <c r="AA28" s="33"/>
+      <c r="AB28" s="59"/>
     </row>
     <row r="29" spans="1:28">
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="J29" s="17" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="K29" s="17" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
-      <c r="N29" s="41"/>
+      <c r="N29" s="70"/>
       <c r="R29" s="2"/>
       <c r="S29" s="17" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="U29" s="17" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="X29" s="2"/>
-      <c r="Y29" s="50"/>
-      <c r="Z29" s="53"/>
-      <c r="AA29" s="32"/>
-      <c r="AB29" s="44"/>
+      <c r="Y29" s="66"/>
+      <c r="Z29" s="69"/>
+      <c r="AA29" s="33"/>
+      <c r="AB29" s="60"/>
     </row>
     <row r="30" spans="1:28" ht="202.5">
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="J30" s="20" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="K30" s="24" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
-      <c r="N30" s="41"/>
+      <c r="N30" s="70"/>
       <c r="R30" s="2"/>
       <c r="S30" s="25" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="U30" s="20" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="X30" s="2"/>
     </row>
@@ -6663,25 +7445,6 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="AB21:AB23"/>
-    <mergeCell ref="AB24:AB29"/>
-    <mergeCell ref="S24:S27"/>
-    <mergeCell ref="E21:X23"/>
-    <mergeCell ref="V24:V27"/>
-    <mergeCell ref="W24:W27"/>
-    <mergeCell ref="E24:E27"/>
-    <mergeCell ref="H24:H27"/>
-    <mergeCell ref="O24:O27"/>
-    <mergeCell ref="Y21:Z23"/>
-    <mergeCell ref="Y24:Y29"/>
-    <mergeCell ref="Z24:Z29"/>
-    <mergeCell ref="AA24:AA29"/>
-    <mergeCell ref="AA21:AA23"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="C24:C27"/>
     <mergeCell ref="D24:D27"/>
     <mergeCell ref="A4:F4"/>
     <mergeCell ref="X24:X27"/>
@@ -6698,6 +7461,25 @@
     <mergeCell ref="L24:L27"/>
     <mergeCell ref="R24:R27"/>
     <mergeCell ref="G24:G27"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="AB21:AB23"/>
+    <mergeCell ref="AB24:AB29"/>
+    <mergeCell ref="S24:S27"/>
+    <mergeCell ref="E21:X23"/>
+    <mergeCell ref="V24:V27"/>
+    <mergeCell ref="W24:W27"/>
+    <mergeCell ref="E24:E27"/>
+    <mergeCell ref="H24:H27"/>
+    <mergeCell ref="O24:O27"/>
+    <mergeCell ref="Y21:Z23"/>
+    <mergeCell ref="Y24:Y29"/>
+    <mergeCell ref="Z24:Z29"/>
+    <mergeCell ref="AA24:AA29"/>
+    <mergeCell ref="AA21:AA23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -6730,54 +7512,54 @@
   <sheetData>
     <row r="2" spans="1:8" ht="21">
       <c r="A2" s="31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="31"/>
       <c r="C2" s="3" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="21">
       <c r="A3" s="31" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" s="31"/>
       <c r="C3" s="3" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="13" customFormat="1">
       <c r="A6" s="15" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="2" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>2</v>
@@ -6786,13 +7568,13 @@
         <v>0</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>1</v>
@@ -6800,10 +7582,10 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="2" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>3</v>
@@ -6812,13 +7594,13 @@
         <v>0</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>1</v>
@@ -6826,10 +7608,10 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="2" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>4</v>
@@ -6838,13 +7620,13 @@
         <v>0</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>1</v>
@@ -6852,10 +7634,10 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="2" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>4</v>
@@ -6864,13 +7646,13 @@
         <v>1</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>1</v>
@@ -6878,10 +7660,10 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="2" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>4</v>
@@ -6890,13 +7672,13 @@
         <v>0</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>1</v>
@@ -6904,10 +7686,10 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="2" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>4</v>
@@ -6916,13 +7698,13 @@
         <v>0</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>1</v>
@@ -6930,10 +7712,10 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="2" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>4</v>
@@ -6942,13 +7724,13 @@
         <v>1</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>1</v>
@@ -6956,10 +7738,10 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="2" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>4</v>
@@ -6968,13 +7750,13 @@
         <v>0</v>
       </c>
       <c r="E14" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G14" s="2" t="s">
         <v>155</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>162</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>1</v>
@@ -6982,10 +7764,10 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="2" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>4</v>
@@ -6994,13 +7776,13 @@
         <v>2</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>1</v>
@@ -7008,106 +7790,106 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="2" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="B19" s="34" t="s">
-        <v>308</v>
-      </c>
-      <c r="C19" s="34"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34" t="s">
-        <v>311</v>
-      </c>
-      <c r="G19" s="34" t="s">
-        <v>309</v>
-      </c>
-      <c r="H19" s="34"/>
+      <c r="B19" s="41" t="s">
+        <v>301</v>
+      </c>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41" t="s">
+        <v>304</v>
+      </c>
+      <c r="G19" s="41" t="s">
+        <v>302</v>
+      </c>
+      <c r="H19" s="41"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="B20" s="34"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="34"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="41"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="B21" s="34"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="34"/>
+      <c r="B21" s="41"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="53"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="41"/>
     </row>
     <row r="22" spans="1:8" ht="11.25" customHeight="1">
-      <c r="A22" s="36" t="s">
-        <v>169</v>
+      <c r="A22" s="54" t="s">
+        <v>162</v>
       </c>
       <c r="B22" s="28" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="C22" s="28" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="D22" s="28" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="E22" s="28" t="s">
+        <v>298</v>
+      </c>
+      <c r="F22" s="71" t="s">
         <v>305</v>
       </c>
-      <c r="F22" s="54" t="s">
-        <v>312</v>
-      </c>
       <c r="G22" s="28" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="H22" s="28" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="37"/>
+      <c r="A23" s="55"/>
       <c r="B23" s="29"/>
       <c r="C23" s="29"/>
       <c r="D23" s="29"/>
       <c r="E23" s="29"/>
-      <c r="F23" s="55"/>
+      <c r="F23" s="72"/>
       <c r="G23" s="29"/>
       <c r="H23" s="29"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="38"/>
+      <c r="A24" s="56"/>
       <c r="B24" s="29"/>
       <c r="C24" s="29"/>
       <c r="D24" s="29"/>
       <c r="E24" s="29"/>
-      <c r="F24" s="55"/>
+      <c r="F24" s="72"/>
       <c r="G24" s="29"/>
       <c r="H24" s="29"/>
     </row>
@@ -7116,7 +7898,7 @@
       <c r="C25" s="30"/>
       <c r="D25" s="30"/>
       <c r="E25" s="30"/>
-      <c r="F25" s="56"/>
+      <c r="F25" s="73"/>
       <c r="G25" s="30"/>
       <c r="H25" s="30"/>
     </row>
@@ -7125,25 +7907,20 @@
     </row>
     <row r="27" spans="1:8">
       <c r="H27" s="17" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="101.25">
       <c r="F28" s="27" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="G28" s="16"/>
       <c r="H28" s="18" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="B22:B26"/>
-    <mergeCell ref="F19:F21"/>
     <mergeCell ref="H22:H25"/>
     <mergeCell ref="B19:E21"/>
     <mergeCell ref="G19:H21"/>
@@ -7152,6 +7929,11 @@
     <mergeCell ref="D22:D25"/>
     <mergeCell ref="E22:E25"/>
     <mergeCell ref="G22:G25"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="F19:F21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -7163,7 +7945,7 @@
   <dimension ref="C2:E32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E10"/>
+      <selection activeCell="E17" sqref="E2:E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7172,7 +7954,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:5">
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="74" t="s">
         <v>10</v>
       </c>
       <c r="E2" t="str">
@@ -7181,143 +7963,143 @@
       </c>
     </row>
     <row r="3" spans="3:5">
-      <c r="C3" s="4" t="s">
-        <v>24</v>
+      <c r="C3" s="74" t="s">
+        <v>47</v>
       </c>
       <c r="E3" t="str">
         <f t="shared" ref="E3:E32" si="0">CONCATENATE(C3,", ")</f>
-        <v xml:space="preserve">NR_REMESSA, </v>
+        <v xml:space="preserve">CD_TRANSACAO_TITULO, </v>
       </c>
     </row>
     <row r="4" spans="3:5">
-      <c r="C4" s="4" t="s">
-        <v>18</v>
+      <c r="C4" s="74" t="s">
+        <v>33</v>
       </c>
       <c r="E4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">CD_BANCO, </v>
+        <v xml:space="preserve">NR_TITULO, </v>
       </c>
     </row>
     <row r="5" spans="3:5">
-      <c r="C5" s="4" t="s">
-        <v>25</v>
+      <c r="C5" s="74" t="s">
+        <v>46</v>
       </c>
       <c r="E5" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">DT_REMESSA, </v>
+        <v xml:space="preserve">CD_CHAVE_PRIMARIA, </v>
       </c>
     </row>
     <row r="6" spans="3:5">
-      <c r="C6" s="4" t="s">
-        <v>19</v>
+      <c r="C6" s="74" t="s">
+        <v>17</v>
       </c>
       <c r="E6" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">NR_AGENCIA, </v>
+        <v xml:space="preserve">CD_BANCO, </v>
       </c>
     </row>
     <row r="7" spans="3:5">
-      <c r="C7" s="4" t="s">
-        <v>26</v>
+      <c r="C7" s="74" t="s">
+        <v>22</v>
       </c>
       <c r="E7" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">NR_CONTA, </v>
+        <v xml:space="preserve">NR_REMESSA, </v>
       </c>
     </row>
     <row r="8" spans="3:5">
-      <c r="C8" s="4" t="s">
-        <v>27</v>
+      <c r="C8" s="74" t="s">
+        <v>23</v>
       </c>
       <c r="E8" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">CD_SITUACAO_ARQUIVO, </v>
+        <v xml:space="preserve">DT_REMESSA, </v>
       </c>
     </row>
     <row r="9" spans="3:5">
-      <c r="C9" s="4" t="s">
-        <v>20</v>
+      <c r="C9" s="74" t="s">
+        <v>18</v>
       </c>
       <c r="E9" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">CD_SITUACAO_PAGAMENTO, </v>
+        <v xml:space="preserve">NR_AGENCIA, </v>
       </c>
     </row>
     <row r="10" spans="3:5">
-      <c r="C10" s="4" t="s">
-        <v>8</v>
+      <c r="C10" s="74" t="s">
+        <v>24</v>
       </c>
       <c r="E10" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">DT_ATUALIZACAO, </v>
+        <v xml:space="preserve">NR_CONTA, </v>
       </c>
     </row>
     <row r="11" spans="3:5">
-      <c r="C11" s="14" t="s">
-        <v>105</v>
+      <c r="C11" s="74" t="s">
+        <v>350</v>
       </c>
       <c r="E11" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">CD_TIPO_NF, </v>
+        <v xml:space="preserve">CD_STATUS_ARQUIVO, </v>
       </c>
     </row>
     <row r="12" spans="3:5">
-      <c r="C12" s="14" t="s">
-        <v>106</v>
+      <c r="C12" s="74" t="s">
+        <v>351</v>
       </c>
       <c r="E12" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">CD_TIPO_DOCUMENTO, </v>
+        <v xml:space="preserve">CD_STATUS_ENVIO, </v>
       </c>
     </row>
     <row r="13" spans="3:5">
-      <c r="C13" s="14" t="s">
-        <v>107</v>
+      <c r="C13" s="74" t="s">
+        <v>352</v>
       </c>
       <c r="E13" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">IN_ENTRADA_SAIDA, </v>
+        <v xml:space="preserve">DT_ULT_ATUALIZACAO, </v>
       </c>
     </row>
     <row r="14" spans="3:5">
-      <c r="C14" s="14" t="s">
-        <v>108</v>
+      <c r="C14" s="74" t="s">
+        <v>353</v>
       </c>
       <c r="E14" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">DT_TRANSACAO, </v>
+        <v xml:space="preserve">NR_BANCO, </v>
       </c>
     </row>
     <row r="15" spans="3:5">
-      <c r="C15" s="14" t="s">
-        <v>109</v>
+      <c r="C15" s="74" t="s">
+        <v>354</v>
       </c>
       <c r="E15" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">VL_TRANSACAO, </v>
+        <v xml:space="preserve">CD_TRANSACAO_MOVIMENTO, </v>
       </c>
     </row>
     <row r="16" spans="3:5">
-      <c r="C16" s="14" t="s">
-        <v>110</v>
+      <c r="C16" s="74" t="s">
+        <v>355</v>
       </c>
       <c r="E16" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">CD_PREPARADO_PAGAMENTO, </v>
+        <v xml:space="preserve">NR_DOC_MOVIMENTO, </v>
       </c>
     </row>
     <row r="17" spans="3:5">
-      <c r="C17" s="14" t="s">
-        <v>111</v>
+      <c r="C17" s="74" t="s">
+        <v>356</v>
       </c>
       <c r="E17" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">DT_SITUACAO_MOVIMENTO, </v>
+        <v xml:space="preserve">NR_SERIE, </v>
       </c>
     </row>
     <row r="18" spans="3:5">
       <c r="C18" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E18" t="str">
         <f t="shared" si="0"/>
@@ -7326,7 +8108,7 @@
     </row>
     <row r="19" spans="3:5">
       <c r="C19" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E19" t="str">
         <f t="shared" si="0"/>
@@ -7335,7 +8117,7 @@
     </row>
     <row r="20" spans="3:5">
       <c r="C20" s="14" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="E20" t="str">
         <f t="shared" si="0"/>
@@ -7353,7 +8135,7 @@
     </row>
     <row r="22" spans="3:5">
       <c r="C22" s="14" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="E22" t="str">
         <f t="shared" si="0"/>
@@ -7362,7 +8144,7 @@
     </row>
     <row r="23" spans="3:5">
       <c r="C23" s="14" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="E23" t="str">
         <f t="shared" si="0"/>
@@ -7371,7 +8153,7 @@
     </row>
     <row r="24" spans="3:5">
       <c r="C24" s="14" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="E24" t="str">
         <f t="shared" si="0"/>
@@ -7380,7 +8162,7 @@
     </row>
     <row r="25" spans="3:5">
       <c r="C25" s="14" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="E25" t="str">
         <f t="shared" si="0"/>
@@ -7389,7 +8171,7 @@
     </row>
     <row r="26" spans="3:5">
       <c r="C26" s="14" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="E26" t="str">
         <f t="shared" si="0"/>
@@ -7398,7 +8180,7 @@
     </row>
     <row r="27" spans="3:5">
       <c r="C27" s="14" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="E27" t="str">
         <f t="shared" si="0"/>
@@ -7407,7 +8189,7 @@
     </row>
     <row r="28" spans="3:5">
       <c r="C28" s="14" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="E28" t="str">
         <f t="shared" si="0"/>

--- a/Documentação/Planilhas/Conferencia_CAR.xlsx
+++ b/Documentação/Planilhas/Conferencia_CAR.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" tabRatio="812" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" tabRatio="812" firstSheet="3" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Resumo" sheetId="93" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1296" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1315" uniqueCount="414">
   <si>
     <t>1</t>
   </si>
@@ -117,9 +117,6 @@
     <t>stg_car_remessa</t>
   </si>
   <si>
-    <t>tfcmgl504m00l</t>
-  </si>
-  <si>
     <t>dbo.stg_car_remessa_cobranca_eletronica</t>
   </si>
   <si>
@@ -132,28 +129,7 @@
     <t>01</t>
   </si>
   <si>
-    <t>RE43</t>
-  </si>
-  <si>
-    <t>06</t>
-  </si>
-  <si>
-    <t>RE46</t>
-  </si>
-  <si>
-    <t>RE415</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
     <t>RB362</t>
-  </si>
-  <si>
-    <t>RB363</t>
-  </si>
-  <si>
-    <t>RB364</t>
   </si>
   <si>
     <t>dbo.stg_car_retorno_cobranca_eletronica</t>
@@ -599,9 +575,6 @@
     <t>Pedir o detalhamento do documento desejado. Na aba Condições de Pagamento, seção Condições de Pagamento, pegar a informação Metodo de Recebimento</t>
   </si>
   <si>
-    <t>Sessão tfacr2520m000</t>
-  </si>
-  <si>
     <t>FAT1025</t>
   </si>
   <si>
@@ -686,9 +659,6 @@
     <t>2014-05-26 17:34:49.000</t>
   </si>
   <si>
-    <t>stg_car_remessa_cobanca_eletronica</t>
-  </si>
-  <si>
     <t>stg_car_retorno_cobranca_eletronica</t>
   </si>
   <si>
@@ -699,9 +669,6 @@
   </si>
   <si>
     <t>stg_car_titulo_remessa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sessão znslsc524m000 </t>
   </si>
   <si>
     <t>Selecionar o título desejado ainda na sessão tfacr2520m000 e no menu Specific, selecionar "Fatura - Relações de Origem". Pegar a informação da coluna Ordem.
@@ -715,12 +682,6 @@
     <t>Pegar a informação do NR_BANCARIO existente na tabela e seleciona-lo no campo  "Código da Agência Bancária". Pegar a informação do campo "Agência"</t>
   </si>
   <si>
-    <t>Sessão tfcmg0511m000</t>
-  </si>
-  <si>
-    <t>Sessão tfcmg0510m000</t>
-  </si>
-  <si>
     <t>Pegar a informação do CD_BANCO existente na tabela e seleciona-lo no campo  "Banco". Pegar a informação do campo "Conta Bancária"</t>
   </si>
   <si>
@@ -803,9 +764,6 @@
   </si>
   <si>
     <t>Selecionar o documento desejado e no menu Specific, selecionar "Transações GL". Na aba Histórico, pegar a primeira informação da coluna "Finalizado por"</t>
-  </si>
-  <si>
-    <t>Sessão tfcmgl504m00l</t>
   </si>
   <si>
     <t>Informar  a transação e o título na coluna "Documento". Pegar a informação da coluna "Status do Arquivo"</t>
@@ -951,9 +909,6 @@
     <t>tfacr2523m000</t>
   </si>
   <si>
-    <t>Sessão tfacr2523m000</t>
-  </si>
-  <si>
     <t>Informar na primeira e segunda informação da coluna Nº Doc Recebimento os dados de CD_TRANSACAO_DOCUMENTO e NR_MOVIMENTO. Ir com a seta de navegação "Next Group"  para encontrar o Título de Referência [veremos a indicação do título de origem e também a informação do título de Referência]</t>
   </si>
   <si>
@@ -990,12 +945,6 @@
     <t>no menu Specific, selecionar "Programações de Recebimentos". Pegar a informação da coluna "Status do Recebimento"</t>
   </si>
   <si>
-    <t>Sessão tfcmg4501m000</t>
-  </si>
-  <si>
-    <t>Sessão tfacr2520m000 [No menu "Mostrar", selecionar "Incluir totalmente pago"]</t>
-  </si>
-  <si>
     <t>tfcmg4501m000, tfacr2520m000</t>
   </si>
   <si>
@@ -1254,9 +1203,6 @@
     <t>Pegar a informação da segunda lacuna da coluna "Documento"</t>
   </si>
   <si>
-    <t>Sessão "tfgld0511m000" (Tipos de Transação)</t>
-  </si>
-  <si>
     <t>Pegar a informação da coluna "No Banco"</t>
   </si>
   <si>
@@ -1300,13 +1246,94 @@
   </si>
   <si>
     <t>Pegar a informação da terceira lacuna da coluna "No da Fatura"</t>
+  </si>
+  <si>
+    <t>Na tabela tfcmg940 todos os registros estão com o campo t$bank$l alimentado como 100</t>
+  </si>
+  <si>
+    <t>Na tabela tfcmg940 todos os registros estão com o campo t$acco$l alimentado como 00005574 ou 5574</t>
+  </si>
+  <si>
+    <t>não acha o banco 100 para fazer o relacionamento das tabelas utilizadas</t>
+  </si>
+  <si>
+    <t>A view está buscando o campo "rcd_utc" da tabela "tfcmg948". Este campo não aparece nas telas do LN para podermos realizar a conferência</t>
+  </si>
+  <si>
+    <t>tfcmg4501m000 e tfcmgl504m00l</t>
+  </si>
+  <si>
+    <t>2014-06-08 21:00:00.000</t>
+  </si>
+  <si>
+    <t>2014-06-13 21:00:00.000</t>
+  </si>
+  <si>
+    <t>RE121</t>
+  </si>
+  <si>
+    <t>RE147</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>RB356</t>
+  </si>
+  <si>
+    <t>2014-08-04 21:00:00.000</t>
+  </si>
+  <si>
+    <t>Sessão "tfcmg4501m000" (Lote de Cobrança - Aconselhamento) - Na lupinha, informar o NR_REMESSA em Lote de Cobrança limpando primeiramente todos os campos</t>
+  </si>
+  <si>
+    <t>Pegar a informação de Lote de Cobrança no cabeçalho da tela</t>
+  </si>
+  <si>
+    <t>Pegar a primeira e seguda informação da coluna Documento</t>
+  </si>
+  <si>
+    <t>Fazer o detalhamento do documento desejado. Na aba "Diversos", seção "Datalhes EBF", pegar a informação "Cód Ocorrência"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sessão "tfcmgl504m00l" (Documentos Saídas EBF) - Informar o CD_CHAVE_PRIMARIA na coluna "No da Fatura" </t>
+  </si>
+  <si>
+    <t>A view está buscando  maior data entre os campos "rcd_utc" e "lach.l" da tabela "tfcmg948". O campo "rcd_utc" não aparece nas telas do LN para podermos realizar a conferência</t>
+  </si>
+  <si>
+    <t>Não tem dados dados na tabela</t>
+  </si>
+  <si>
+    <t>stg_car_remessa_cobranca_eletronica</t>
+  </si>
+  <si>
+    <t>stg_car_pedido_venda</t>
+  </si>
+  <si>
+    <t>Sessão tfcmg4501m000 (Lote de Cobrança - Aconselhamento)</t>
+  </si>
+  <si>
+    <t>Sessão tfacr2520m000 (Faturas em Aberto) [No menu "Mostrar", selecionar "Incluir totalmente pago"]</t>
+  </si>
+  <si>
+    <t>Sessão tfacr2520m000 (Faturas em Aberto de Parc. Negócios Fatur.)</t>
+  </si>
+  <si>
+    <t>Sessão tfacr2523m000 (Documentos relacionados ao Receb Entrada Aberto)</t>
+  </si>
+  <si>
+    <t>Sessão znslsc524m000 (Origem da Ordem de Venda)</t>
+  </si>
+  <si>
+    <t>Sessão tfcmgl504m00l (Documentos de Saída EBF)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1360,8 +1387,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="26"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1383,12 +1426,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1662,7 +1699,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1725,10 +1762,22 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1738,15 +1787,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1770,8 +1810,26 @@
     <xf numFmtId="49" fontId="6" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1803,22 +1861,7 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1857,35 +1900,53 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2190,10 +2251,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:C7"/>
+  <dimension ref="B1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2218,42 +2279,49 @@
     </row>
     <row r="3" spans="2:3">
       <c r="B3" s="8" t="s">
-        <v>212</v>
+        <v>406</v>
       </c>
       <c r="C3" s="7"/>
     </row>
     <row r="4" spans="2:3">
       <c r="B4" s="8" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="C4" s="7"/>
     </row>
     <row r="5" spans="2:3">
       <c r="B5" s="8" t="s">
-        <v>214</v>
+        <v>407</v>
       </c>
       <c r="C5" s="7"/>
     </row>
     <row r="6" spans="2:3">
       <c r="B6" s="8" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="C6" s="7"/>
     </row>
     <row r="7" spans="2:3">
-      <c r="B7" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="C7" s="9"/>
+      <c r="B7" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="C7" s="7"/>
+    </row>
+    <row r="8" spans="2:3">
+      <c r="B8" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="C8" s="9"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" location="stg_car_remessa!A1" display="stg_car_remessa"/>
     <hyperlink ref="B3" location="stg_car_remessa_cobr_eletronica!A1" display="stg_car_remessa_cobanca_eletronica"/>
     <hyperlink ref="B4" location="stg_car_retorno_cobr_eletronica!A1" display="stg_car_retorno_cobranca_eletronica"/>
-    <hyperlink ref="B5" location="stg_car_titulo!A1" display="stg_car_titulo"/>
-    <hyperlink ref="B6" location="stg_car_titulo_mvmto!A1" display="stg_car_titulo_mvmto"/>
-    <hyperlink ref="B7" location="stg_car_titulo_remessa!A1" display="stg_car_titulo_remessa"/>
+    <hyperlink ref="B6" location="stg_car_titulo!A1" display="stg_car_titulo"/>
+    <hyperlink ref="B7" location="stg_car_titulo_mvmto!A1" display="stg_car_titulo_mvmto"/>
+    <hyperlink ref="B8" location="stg_car_titulo_remessa!A1" display="stg_car_titulo_remessa"/>
+    <hyperlink ref="B5" location="stg_car_pedido_venda!A1" display="stg_car_pedido_venda"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -2262,13 +2330,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
-    <tabColor rgb="FFFA7E7E"/>
+    <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="A2:AG39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
@@ -2309,71 +2375,71 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:33" ht="21">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="31"/>
+      <c r="B2" s="30"/>
       <c r="C2" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:33" ht="21">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="31"/>
+      <c r="B3" s="30"/>
       <c r="C3" s="3" t="s">
-        <v>31</v>
+        <v>391</v>
       </c>
     </row>
     <row r="6" spans="1:33" s="22" customFormat="1" ht="21" customHeight="1">
-      <c r="A6" s="74" t="s">
+      <c r="A6" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="74" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" s="74" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" s="74" t="s">
-        <v>46</v>
-      </c>
-      <c r="E6" s="74" t="s">
+      <c r="B6" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="74" t="s">
+      <c r="F6" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="74" t="s">
-        <v>356</v>
-      </c>
-      <c r="H6" s="74" t="s">
-        <v>354</v>
-      </c>
-      <c r="I6" s="74" t="s">
-        <v>355</v>
-      </c>
-      <c r="J6" s="74" t="s">
-        <v>353</v>
-      </c>
-      <c r="K6" s="74" t="s">
-        <v>350</v>
-      </c>
-      <c r="L6" s="74" t="s">
-        <v>351</v>
-      </c>
-      <c r="M6" s="74" t="s">
-        <v>352</v>
-      </c>
-      <c r="N6" s="74" t="s">
+      <c r="G6" s="27" t="s">
+        <v>339</v>
+      </c>
+      <c r="H6" s="27" t="s">
+        <v>337</v>
+      </c>
+      <c r="I6" s="27" t="s">
+        <v>338</v>
+      </c>
+      <c r="J6" s="27" t="s">
+        <v>336</v>
+      </c>
+      <c r="K6" s="27" t="s">
+        <v>333</v>
+      </c>
+      <c r="L6" s="27" t="s">
+        <v>334</v>
+      </c>
+      <c r="M6" s="27" t="s">
+        <v>335</v>
+      </c>
+      <c r="N6" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="O6" s="74" t="s">
+      <c r="O6" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="P6" s="27" t="s">
         <v>18</v>
-      </c>
-      <c r="P6" s="74" t="s">
-        <v>24</v>
       </c>
       <c r="Q6" s="16"/>
       <c r="R6" s="16"/>
@@ -2397,50 +2463,50 @@
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="78" t="s">
-        <v>120</v>
-      </c>
-      <c r="C7" s="78" t="s">
-        <v>361</v>
-      </c>
-      <c r="D7" s="78" t="s">
-        <v>362</v>
-      </c>
-      <c r="E7" s="78" t="s">
-        <v>357</v>
-      </c>
-      <c r="F7" s="78" t="s">
-        <v>358</v>
-      </c>
-      <c r="G7" s="78" t="s">
+      <c r="B7" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>344</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>345</v>
+      </c>
+      <c r="E7" s="28" t="s">
+        <v>340</v>
+      </c>
+      <c r="F7" s="28" t="s">
+        <v>341</v>
+      </c>
+      <c r="G7" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="H7" s="78" t="s">
+      <c r="H7" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="I7" s="78" t="s">
-        <v>360</v>
-      </c>
-      <c r="J7" s="78" t="s">
-        <v>73</v>
-      </c>
-      <c r="K7" s="78" t="s">
+      <c r="I7" s="28" t="s">
+        <v>343</v>
+      </c>
+      <c r="J7" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="K7" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="L7" s="78" t="s">
+      <c r="L7" s="28" t="s">
         <v>15</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>359</v>
+        <v>342</v>
       </c>
       <c r="N7" s="2" t="s">
         <v>20</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>9</v>
+        <v>135</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>143</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:33">
@@ -2448,16 +2514,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>364</v>
+        <v>347</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>363</v>
+        <v>346</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>25</v>
@@ -2469,10 +2535,10 @@
         <v>20</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>2</v>
@@ -2487,10 +2553,10 @@
         <v>20</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:33">
@@ -2498,16 +2564,16 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>364</v>
+        <v>347</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>363</v>
+        <v>346</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>25</v>
@@ -2519,10 +2585,10 @@
         <v>20</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>2</v>
@@ -2537,10 +2603,10 @@
         <v>20</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:33">
@@ -2548,16 +2614,16 @@
         <v>7</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>364</v>
+        <v>347</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>363</v>
+        <v>346</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>25</v>
@@ -2569,10 +2635,10 @@
         <v>20</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>365</v>
+        <v>348</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="K10" s="2" t="s">
         <v>2</v>
@@ -2587,10 +2653,10 @@
         <v>20</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:33">
@@ -2598,19 +2664,19 @@
         <v>7</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>370</v>
+        <v>353</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>371</v>
+        <v>354</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>366</v>
+        <v>349</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>367</v>
+        <v>350</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>0</v>
@@ -2619,10 +2685,10 @@
         <v>20</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>369</v>
+        <v>352</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>1</v>
@@ -2631,16 +2697,16 @@
         <v>15</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>368</v>
+        <v>351</v>
       </c>
       <c r="N11" s="2" t="s">
         <v>20</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>9</v>
+        <v>135</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>143</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:33">
@@ -2648,19 +2714,19 @@
         <v>7</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>370</v>
+        <v>353</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>371</v>
+        <v>354</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>366</v>
+        <v>349</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>367</v>
+        <v>350</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>1</v>
@@ -2669,10 +2735,10 @@
         <v>20</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>372</v>
+        <v>355</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>1</v>
@@ -2681,16 +2747,16 @@
         <v>15</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>368</v>
+        <v>351</v>
       </c>
       <c r="N12" s="2" t="s">
         <v>20</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>9</v>
+        <v>135</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>143</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:33">
@@ -2698,19 +2764,19 @@
         <v>7</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>370</v>
+        <v>353</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>371</v>
+        <v>354</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>366</v>
+        <v>349</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>367</v>
+        <v>350</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>2</v>
@@ -2719,10 +2785,10 @@
         <v>20</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>373</v>
+        <v>356</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="K13" s="2" t="s">
         <v>1</v>
@@ -2731,16 +2797,16 @@
         <v>15</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>368</v>
+        <v>351</v>
       </c>
       <c r="N13" s="2" t="s">
         <v>20</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>9</v>
+        <v>135</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>143</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:33">
@@ -2748,19 +2814,19 @@
         <v>7</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>370</v>
+        <v>353</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>371</v>
+        <v>354</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>366</v>
+        <v>349</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>367</v>
+        <v>350</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>3</v>
@@ -2769,10 +2835,10 @@
         <v>20</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>374</v>
+        <v>357</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="K14" s="2" t="s">
         <v>1</v>
@@ -2781,16 +2847,16 @@
         <v>15</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>368</v>
+        <v>351</v>
       </c>
       <c r="N14" s="2" t="s">
         <v>20</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>9</v>
+        <v>135</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>143</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:33">
@@ -2798,31 +2864,31 @@
         <v>7</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>370</v>
+        <v>353</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>371</v>
+        <v>354</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>366</v>
+        <v>349</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>367</v>
+        <v>350</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>20</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>375</v>
+        <v>358</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="K15" s="2" t="s">
         <v>1</v>
@@ -2831,16 +2897,16 @@
         <v>15</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>368</v>
+        <v>351</v>
       </c>
       <c r="N15" s="2" t="s">
         <v>20</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>9</v>
+        <v>135</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>143</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:33">
@@ -2848,19 +2914,19 @@
         <v>7</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>377</v>
+        <v>360</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>378</v>
+        <v>361</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>366</v>
+        <v>349</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>367</v>
+        <v>350</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>0</v>
@@ -2869,10 +2935,10 @@
         <v>20</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>376</v>
+        <v>359</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>1</v>
@@ -2881,86 +2947,111 @@
         <v>15</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>368</v>
+        <v>351</v>
       </c>
       <c r="N16" s="2" t="s">
         <v>20</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>9</v>
+        <v>135</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>143</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:33">
       <c r="A18" s="1"/>
-      <c r="B18" s="76" t="s">
-        <v>380</v>
-      </c>
-      <c r="C18" s="76"/>
-      <c r="D18" s="76"/>
-      <c r="E18" s="76"/>
-      <c r="F18" s="76"/>
-      <c r="G18" s="75" t="s">
-        <v>403</v>
-      </c>
+      <c r="B18" s="43" t="s">
+        <v>363</v>
+      </c>
+      <c r="C18" s="43"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="43" t="s">
+        <v>385</v>
+      </c>
+      <c r="H18" s="43"/>
+      <c r="I18" s="43"/>
+      <c r="J18" s="43"/>
+      <c r="K18" s="43"/>
+      <c r="L18" s="43"/>
     </row>
     <row r="19" spans="1:33">
-      <c r="B19" s="76"/>
-      <c r="C19" s="76"/>
-      <c r="D19" s="76"/>
-      <c r="E19" s="76"/>
-      <c r="F19" s="76"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="43"/>
+      <c r="K19" s="43"/>
+      <c r="L19" s="43"/>
     </row>
     <row r="20" spans="1:33">
-      <c r="B20" s="77"/>
-      <c r="C20" s="77"/>
-      <c r="D20" s="77"/>
-      <c r="E20" s="77"/>
-      <c r="F20" s="77"/>
+      <c r="B20" s="43"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="43"/>
+      <c r="H20" s="43"/>
+      <c r="I20" s="43"/>
+      <c r="J20" s="43"/>
+      <c r="K20" s="43"/>
+      <c r="L20" s="43"/>
     </row>
     <row r="21" spans="1:33" ht="11.25" customHeight="1">
-      <c r="A21" s="33" t="s">
+      <c r="A21" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="33" t="s">
-        <v>382</v>
-      </c>
-      <c r="C21" s="33" t="s">
-        <v>383</v>
-      </c>
-      <c r="D21" s="33" t="s">
-        <v>379</v>
-      </c>
-      <c r="E21" s="33" t="s">
-        <v>381</v>
-      </c>
-      <c r="F21" s="33" t="s">
-        <v>384</v>
-      </c>
-      <c r="G21" s="33" t="s">
-        <v>404</v>
-      </c>
-      <c r="H21" s="33" t="s">
+      <c r="B21" s="31" t="s">
+        <v>365</v>
+      </c>
+      <c r="C21" s="31" t="s">
+        <v>366</v>
+      </c>
+      <c r="D21" s="31" t="s">
+        <v>362</v>
+      </c>
+      <c r="E21" s="31" t="s">
+        <v>364</v>
+      </c>
+      <c r="F21" s="31" t="s">
+        <v>367</v>
+      </c>
+      <c r="G21" s="31" t="s">
+        <v>386</v>
+      </c>
+      <c r="H21" s="31" t="s">
+        <v>370</v>
+      </c>
+      <c r="I21" s="31" t="s">
+        <v>371</v>
+      </c>
+      <c r="J21" s="31" t="s">
+        <v>372</v>
+      </c>
+      <c r="K21" s="31" t="s">
+        <v>373</v>
+      </c>
+      <c r="L21" s="31" t="s">
+        <v>374</v>
+      </c>
+      <c r="M21" s="31" t="s">
+        <v>390</v>
+      </c>
+      <c r="N21" s="31" t="s">
         <v>387</v>
       </c>
-      <c r="I21" s="33" t="s">
+      <c r="O21" s="31" t="s">
         <v>388</v>
       </c>
-      <c r="J21" s="33" t="s">
-        <v>390</v>
-      </c>
-      <c r="K21" s="33" t="s">
-        <v>391</v>
-      </c>
-      <c r="L21" s="33" t="s">
-        <v>392</v>
-      </c>
-      <c r="M21" s="1"/>
-      <c r="N21" s="33"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
+      <c r="P21" s="31" t="s">
+        <v>389</v>
+      </c>
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
       <c r="S21" s="1"/>
@@ -2980,22 +3071,22 @@
       <c r="AG21" s="1"/>
     </row>
     <row r="22" spans="1:33">
-      <c r="A22" s="33"/>
-      <c r="B22" s="33"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="33"/>
-      <c r="I22" s="33"/>
-      <c r="J22" s="33"/>
-      <c r="K22" s="33"/>
-      <c r="L22" s="33"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="33"/>
-      <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
+      <c r="A22" s="31"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="31"/>
+      <c r="L22" s="31"/>
+      <c r="M22" s="31"/>
+      <c r="N22" s="31"/>
+      <c r="O22" s="31"/>
+      <c r="P22" s="31"/>
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
@@ -3015,22 +3106,22 @@
       <c r="AG22" s="1"/>
     </row>
     <row r="23" spans="1:33">
-      <c r="A23" s="33"/>
-      <c r="B23" s="33"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="33"/>
-      <c r="I23" s="33"/>
-      <c r="J23" s="33"/>
-      <c r="K23" s="33"/>
-      <c r="L23" s="33"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="33"/>
-      <c r="O23" s="1"/>
-      <c r="P23" s="1"/>
+      <c r="A23" s="31"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="31"/>
+      <c r="J23" s="31"/>
+      <c r="K23" s="31"/>
+      <c r="L23" s="31"/>
+      <c r="M23" s="31"/>
+      <c r="N23" s="31"/>
+      <c r="O23" s="31"/>
+      <c r="P23" s="31"/>
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
       <c r="S23" s="1"/>
@@ -3050,22 +3141,22 @@
       <c r="AG23" s="1"/>
     </row>
     <row r="24" spans="1:33">
-      <c r="A24" s="33"/>
-      <c r="B24" s="33"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="33"/>
-      <c r="I24" s="33"/>
-      <c r="J24" s="33"/>
-      <c r="K24" s="33"/>
-      <c r="L24" s="33"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="33"/>
-      <c r="O24" s="1"/>
-      <c r="P24" s="1"/>
+      <c r="A24" s="31"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="31"/>
+      <c r="K24" s="31"/>
+      <c r="L24" s="31"/>
+      <c r="M24" s="31"/>
+      <c r="N24" s="31"/>
+      <c r="O24" s="31"/>
+      <c r="P24" s="31"/>
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
       <c r="S24" s="1"/>
@@ -3085,22 +3176,22 @@
       <c r="AG24" s="1"/>
     </row>
     <row r="25" spans="1:33">
-      <c r="A25" s="33"/>
-      <c r="B25" s="33"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="33"/>
-      <c r="I25" s="33"/>
-      <c r="J25" s="33"/>
-      <c r="K25" s="33"/>
-      <c r="L25" s="33"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="33"/>
-      <c r="O25" s="1"/>
-      <c r="P25" s="1"/>
+      <c r="A25" s="31"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="31"/>
+      <c r="K25" s="31"/>
+      <c r="L25" s="31"/>
+      <c r="M25" s="31"/>
+      <c r="N25" s="31"/>
+      <c r="O25" s="31"/>
+      <c r="P25" s="31"/>
       <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
       <c r="S25" s="1"/>
@@ -3120,22 +3211,22 @@
       <c r="AG25" s="1"/>
     </row>
     <row r="26" spans="1:33">
-      <c r="A26" s="33"/>
-      <c r="B26" s="33"/>
-      <c r="C26" s="33"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="33"/>
-      <c r="F26" s="33"/>
-      <c r="G26" s="33"/>
-      <c r="H26" s="33"/>
-      <c r="I26" s="33"/>
-      <c r="J26" s="33"/>
-      <c r="K26" s="33"/>
-      <c r="L26" s="33"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="33"/>
-      <c r="O26" s="1"/>
-      <c r="P26" s="1"/>
+      <c r="A26" s="31"/>
+      <c r="B26" s="31"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="31"/>
+      <c r="I26" s="31"/>
+      <c r="J26" s="31"/>
+      <c r="K26" s="31"/>
+      <c r="L26" s="31"/>
+      <c r="M26" s="31"/>
+      <c r="N26" s="31"/>
+      <c r="O26" s="31"/>
+      <c r="P26" s="31"/>
       <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
       <c r="S26" s="1"/>
@@ -3155,22 +3246,22 @@
       <c r="AG26" s="1"/>
     </row>
     <row r="27" spans="1:33">
-      <c r="A27" s="33"/>
-      <c r="B27" s="33"/>
-      <c r="C27" s="33"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="33"/>
-      <c r="H27" s="33"/>
-      <c r="I27" s="33"/>
-      <c r="J27" s="33"/>
-      <c r="K27" s="33"/>
-      <c r="L27" s="33"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="33"/>
-      <c r="O27" s="1"/>
-      <c r="P27" s="1"/>
+      <c r="A27" s="31"/>
+      <c r="B27" s="31"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="31"/>
+      <c r="J27" s="31"/>
+      <c r="K27" s="31"/>
+      <c r="L27" s="31"/>
+      <c r="M27" s="31"/>
+      <c r="N27" s="31"/>
+      <c r="O27" s="31"/>
+      <c r="P27" s="31"/>
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
       <c r="S27" s="1"/>
@@ -3190,22 +3281,22 @@
       <c r="AG27" s="1"/>
     </row>
     <row r="28" spans="1:33">
-      <c r="A28" s="33"/>
-      <c r="B28" s="33"/>
-      <c r="C28" s="33"/>
-      <c r="D28" s="33"/>
-      <c r="E28" s="33"/>
-      <c r="F28" s="33"/>
-      <c r="G28" s="33"/>
-      <c r="H28" s="33"/>
-      <c r="I28" s="33"/>
-      <c r="J28" s="33"/>
-      <c r="K28" s="33"/>
-      <c r="L28" s="33"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="33"/>
-      <c r="O28" s="1"/>
-      <c r="P28" s="1"/>
+      <c r="A28" s="31"/>
+      <c r="B28" s="31"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="31"/>
+      <c r="H28" s="31"/>
+      <c r="I28" s="31"/>
+      <c r="J28" s="31"/>
+      <c r="K28" s="31"/>
+      <c r="L28" s="31"/>
+      <c r="M28" s="31"/>
+      <c r="N28" s="31"/>
+      <c r="O28" s="31"/>
+      <c r="P28" s="31"/>
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
       <c r="S28" s="1"/>
@@ -3225,87 +3316,71 @@
       <c r="AG28" s="1"/>
     </row>
     <row r="30" spans="1:33">
-      <c r="K30" s="79" t="s">
-        <v>393</v>
-      </c>
-      <c r="L30" s="79"/>
-      <c r="N30" s="2" t="s">
-        <v>389</v>
-      </c>
+      <c r="K30" s="29" t="s">
+        <v>375</v>
+      </c>
+      <c r="L30" s="29"/>
     </row>
     <row r="31" spans="1:33">
-      <c r="K31" s="79" t="s">
-        <v>394</v>
-      </c>
-      <c r="L31" s="79"/>
+      <c r="K31" s="29" t="s">
+        <v>376</v>
+      </c>
+      <c r="L31" s="29"/>
     </row>
     <row r="32" spans="1:33">
-      <c r="K32" s="79" t="s">
-        <v>395</v>
-      </c>
-      <c r="L32" s="79"/>
+      <c r="K32" s="29" t="s">
+        <v>377</v>
+      </c>
+      <c r="L32" s="29"/>
     </row>
     <row r="33" spans="11:12">
-      <c r="K33" s="79" t="s">
-        <v>396</v>
-      </c>
-      <c r="L33" s="79"/>
+      <c r="K33" s="29" t="s">
+        <v>378</v>
+      </c>
+      <c r="L33" s="29"/>
     </row>
     <row r="34" spans="11:12">
-      <c r="K34" s="79" t="s">
-        <v>397</v>
-      </c>
-      <c r="L34" s="79"/>
+      <c r="K34" s="29" t="s">
+        <v>379</v>
+      </c>
+      <c r="L34" s="29"/>
     </row>
     <row r="35" spans="11:12">
-      <c r="K35" s="79" t="s">
-        <v>398</v>
-      </c>
-      <c r="L35" s="79"/>
+      <c r="K35" s="29" t="s">
+        <v>380</v>
+      </c>
+      <c r="L35" s="29"/>
     </row>
     <row r="36" spans="11:12">
-      <c r="K36" s="79" t="s">
-        <v>399</v>
-      </c>
-      <c r="L36" s="79"/>
+      <c r="K36" s="29" t="s">
+        <v>381</v>
+      </c>
+      <c r="L36" s="29"/>
     </row>
     <row r="37" spans="11:12">
-      <c r="K37" s="79" t="s">
-        <v>400</v>
-      </c>
-      <c r="L37" s="79"/>
+      <c r="K37" s="29" t="s">
+        <v>382</v>
+      </c>
+      <c r="L37" s="29"/>
     </row>
     <row r="38" spans="11:12">
-      <c r="K38" s="79" t="s">
-        <v>401</v>
-      </c>
-      <c r="L38" s="79"/>
+      <c r="K38" s="29" t="s">
+        <v>383</v>
+      </c>
+      <c r="L38" s="29"/>
     </row>
     <row r="39" spans="11:12">
-      <c r="K39" s="79" t="s">
-        <v>402</v>
-      </c>
-      <c r="L39" s="79"/>
+      <c r="K39" s="29" t="s">
+        <v>384</v>
+      </c>
+      <c r="L39" s="29"/>
     </row>
   </sheetData>
-  <mergeCells count="26">
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A21:A28"/>
-    <mergeCell ref="B21:B28"/>
-    <mergeCell ref="C21:C28"/>
-    <mergeCell ref="B18:F20"/>
-    <mergeCell ref="D21:D28"/>
+  <mergeCells count="30">
+    <mergeCell ref="O21:O28"/>
+    <mergeCell ref="P21:P28"/>
+    <mergeCell ref="M21:M28"/>
+    <mergeCell ref="G18:L20"/>
     <mergeCell ref="N21:N28"/>
     <mergeCell ref="E21:E28"/>
     <mergeCell ref="F21:F28"/>
@@ -3315,6 +3390,23 @@
     <mergeCell ref="K21:K28"/>
     <mergeCell ref="L21:L28"/>
     <mergeCell ref="G21:G28"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A21:A28"/>
+    <mergeCell ref="B21:B28"/>
+    <mergeCell ref="C21:C28"/>
+    <mergeCell ref="B18:F20"/>
+    <mergeCell ref="D21:D28"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="K38:L38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -3324,23 +3416,21 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
-    <tabColor rgb="FFFA7E7E"/>
+    <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A2:Q25"/>
+  <dimension ref="A2:Q39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
     <col min="1" max="1" width="20.42578125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="22" style="2" customWidth="1"/>
-    <col min="3" max="3" width="21.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="22.5703125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="23.28515625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="21.5703125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="18.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="25.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="25.140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="38" style="2" customWidth="1"/>
+    <col min="6" max="6" width="27.42578125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="21.5703125" style="2" customWidth="1"/>
     <col min="8" max="8" width="26.85546875" style="2" customWidth="1"/>
     <col min="9" max="9" width="27.5703125" style="2" customWidth="1"/>
     <col min="10" max="10" width="31.140625" style="2" customWidth="1"/>
@@ -3354,338 +3444,503 @@
     <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" ht="21">
-      <c r="A2" s="31" t="s">
+    <row r="2" spans="1:17" ht="21">
+      <c r="A2" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="31"/>
+      <c r="B2" s="30"/>
       <c r="C2" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="21">
-      <c r="A3" s="31" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="21">
+      <c r="A3" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="31"/>
+      <c r="B3" s="30"/>
       <c r="C3" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="D7" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B7" s="2" t="s">
+      <c r="E7" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" s="2" t="s">
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B8" s="2" t="s">
+      <c r="F8" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F8" s="2" t="s">
+    </row>
+    <row r="9" spans="1:17" s="13" customFormat="1">
+      <c r="A9" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>394</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B9" s="26" t="s">
+      <c r="F9" s="12" t="s">
+        <v>393</v>
+      </c>
+      <c r="G9" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9" s="26" t="s">
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12"/>
+    </row>
+    <row r="10" spans="1:17" s="13" customFormat="1">
+      <c r="A10" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="G9" s="26" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B10" s="26" t="s">
+      <c r="F10" s="12" t="s">
+        <v>393</v>
+      </c>
+      <c r="G10" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10" s="26" t="s">
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="12"/>
+    </row>
+    <row r="11" spans="1:17" s="13" customFormat="1">
+      <c r="A11" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>395</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="G10" s="26" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B11" s="26" t="s">
+      <c r="F11" s="12" t="s">
+        <v>393</v>
+      </c>
+      <c r="G11" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="F11" s="26" t="s">
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
+    </row>
+    <row r="12" spans="1:17" s="13" customFormat="1">
+      <c r="A12" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="G11" s="26" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B12" s="2" t="s">
+      <c r="F12" s="12" t="s">
+        <v>393</v>
+      </c>
+      <c r="G12" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F12" s="2" t="s">
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12"/>
+    </row>
+    <row r="13" spans="1:17" s="13" customFormat="1">
+      <c r="A13" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="G12" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B13" s="2" t="s">
+      <c r="F13" s="12" t="s">
+        <v>393</v>
+      </c>
+      <c r="G13" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F13" s="2" t="s">
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12"/>
+    </row>
+    <row r="14" spans="1:17" s="13" customFormat="1">
+      <c r="A14" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="G13" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B14" s="2" t="s">
+      <c r="F14" s="12" t="s">
+        <v>393</v>
+      </c>
+      <c r="G14" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F14" s="2" t="s">
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="12"/>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B15" s="2" t="s">
+      <c r="F15" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="G15" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F15" s="2" t="s">
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G15" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B16" s="2" t="s">
+      <c r="F16" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="G16" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>29</v>
+    </row>
+    <row r="18" spans="1:7" ht="13.5" customHeight="1">
+      <c r="B18" s="75" t="s">
+        <v>399</v>
+      </c>
+      <c r="C18" s="75"/>
+      <c r="D18" s="75"/>
+      <c r="E18" s="76" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="28" t="s">
-        <v>162</v>
-      </c>
-      <c r="B19" s="28"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28" t="s">
-        <v>157</v>
-      </c>
-      <c r="G19" s="28"/>
+      <c r="A19" s="1"/>
+      <c r="B19" s="75"/>
+      <c r="C19" s="75"/>
+      <c r="D19" s="75"/>
+      <c r="E19" s="76"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="29"/>
-      <c r="B20" s="29"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="29"/>
-      <c r="B21" s="29"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29"/>
+      <c r="B20" s="75"/>
+      <c r="C20" s="75"/>
+      <c r="D20" s="75"/>
+      <c r="E20" s="76"/>
+    </row>
+    <row r="21" spans="1:7" ht="11.25" customHeight="1">
+      <c r="A21" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="B21" s="31" t="s">
+        <v>400</v>
+      </c>
+      <c r="C21" s="31" t="s">
+        <v>401</v>
+      </c>
+      <c r="D21" s="31" t="s">
+        <v>402</v>
+      </c>
+      <c r="E21" s="31" t="s">
+        <v>149</v>
+      </c>
+      <c r="F21" s="31" t="s">
+        <v>404</v>
+      </c>
+      <c r="G21" s="32"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="30"/>
-      <c r="B22" s="30"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="30"/>
+      <c r="A22" s="31"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="33"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="31"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="33"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="F24" s="17" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="101.25">
-      <c r="F25" s="18" t="s">
-        <v>159</v>
+      <c r="A24" s="31"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="34"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="31"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="31"/>
+      <c r="B26" s="31"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="31"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="31"/>
+      <c r="B27" s="31"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="31"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="31"/>
+      <c r="B28" s="31"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="E30" s="17" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="E31" s="2" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="E32" s="2" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="33" spans="5:5">
+      <c r="E33" s="2" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="34" spans="5:5">
+      <c r="E34" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="35" spans="5:5">
+      <c r="E35" s="2" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="36" spans="5:5">
+      <c r="E36" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="37" spans="5:5">
+      <c r="E37" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="38" spans="5:5">
+      <c r="E38" s="2" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="39" spans="5:5">
+      <c r="E39" s="2" t="s">
+        <v>384</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="F19:F22"/>
-    <mergeCell ref="G19:G22"/>
+  <mergeCells count="11">
+    <mergeCell ref="F21:F28"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="C19:C22"/>
-    <mergeCell ref="D19:D22"/>
-    <mergeCell ref="E19:E22"/>
+    <mergeCell ref="G21:G24"/>
+    <mergeCell ref="B21:B28"/>
+    <mergeCell ref="A21:A28"/>
+    <mergeCell ref="D21:D28"/>
+    <mergeCell ref="C21:C28"/>
+    <mergeCell ref="E21:E28"/>
+    <mergeCell ref="B18:D20"/>
+    <mergeCell ref="E18:E20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -3697,11 +3952,9 @@
   <sheetPr>
     <tabColor rgb="FFFA7E7E"/>
   </sheetPr>
-  <dimension ref="A2:Q22"/>
+  <dimension ref="A2:Q6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
@@ -3726,27 +3979,29 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:17" ht="21">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="31"/>
+      <c r="B2" s="30"/>
       <c r="C2" s="3" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="21">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="31"/>
+      <c r="B3" s="30"/>
       <c r="C3" s="3"/>
     </row>
-    <row r="6" spans="1:17" s="13" customFormat="1">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
+    <row r="6" spans="1:17" s="13" customFormat="1" ht="33.75">
+      <c r="A6" s="78" t="s">
+        <v>405</v>
+      </c>
+      <c r="B6" s="77"/>
+      <c r="C6" s="77"/>
+      <c r="D6" s="77"/>
+      <c r="E6" s="77"/>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
       <c r="H6" s="12"/>
@@ -3760,53 +4015,10 @@
       <c r="P6" s="12"/>
       <c r="Q6" s="12"/>
     </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="28"/>
-      <c r="B19" s="28"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="29"/>
-      <c r="B20" s="29"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="29"/>
-      <c r="B21" s="29"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29"/>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="30"/>
-      <c r="B22" s="30"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="30"/>
-    </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="E19:E22"/>
-    <mergeCell ref="F19:F22"/>
-    <mergeCell ref="G19:G22"/>
+  <mergeCells count="2">
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="C19:C22"/>
-    <mergeCell ref="D19:D22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -3820,8 +4032,8 @@
   </sheetPr>
   <dimension ref="A2:R30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -3860,61 +4072,61 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" ht="21">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="31"/>
+      <c r="B2" s="30"/>
       <c r="C2" s="3" t="s">
-        <v>308</v>
+        <v>291</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="21">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="31"/>
+      <c r="B3" s="30"/>
       <c r="C3" s="3" t="s">
-        <v>349</v>
+        <v>332</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="4" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>309</v>
+        <v>292</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>310</v>
+        <v>293</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>311</v>
+        <v>294</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="2" t="s">
-        <v>319</v>
+        <v>302</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>314</v>
+        <v>297</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>320</v>
+        <v>303</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>9</v>
@@ -3925,19 +4137,19 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="2" t="s">
-        <v>319</v>
+        <v>302</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>335</v>
+        <v>318</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>314</v>
+        <v>297</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>320</v>
+        <v>303</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>9</v>
@@ -3948,45 +4160,45 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="2" t="s">
-        <v>326</v>
+        <v>309</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>325</v>
+        <v>308</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>314</v>
+        <v>297</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>327</v>
+        <v>310</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>6</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>328</v>
+        <v>311</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="2" t="s">
-        <v>330</v>
+        <v>313</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>329</v>
+        <v>312</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>331</v>
-      </c>
       <c r="F10" s="2" t="s">
-        <v>328</v>
+        <v>311</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>1</v>
@@ -3994,22 +4206,22 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="2" t="s">
-        <v>333</v>
+        <v>316</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>332</v>
+        <v>315</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>314</v>
+        <v>297</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>1</v>
@@ -4017,42 +4229,42 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="2" t="s">
-        <v>322</v>
+        <v>305</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>321</v>
+        <v>304</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>314</v>
+        <v>297</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>323</v>
+        <v>306</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>6</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>324</v>
+        <v>307</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="2" t="s">
-        <v>312</v>
+        <v>295</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>314</v>
+        <v>297</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>313</v>
+        <v>296</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>9</v>
@@ -4063,19 +4275,19 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="2" t="s">
-        <v>312</v>
+        <v>295</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>336</v>
+        <v>319</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>314</v>
+        <v>297</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>313</v>
+        <v>296</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>9</v>
@@ -4086,19 +4298,19 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="2" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>315</v>
+        <v>298</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>314</v>
+        <v>297</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>317</v>
+        <v>300</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>9</v>
@@ -4109,19 +4321,19 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="2" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>337</v>
+        <v>320</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>314</v>
+        <v>297</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>317</v>
+        <v>300</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>9</v>
@@ -4131,117 +4343,112 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="11.25" customHeight="1">
-      <c r="A18" s="32" t="s">
-        <v>343</v>
-      </c>
-      <c r="B18" s="32"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="35" t="s">
-        <v>344</v>
-      </c>
-      <c r="G18" s="36"/>
+      <c r="A18" s="79" t="s">
+        <v>326</v>
+      </c>
+      <c r="B18" s="80"/>
+      <c r="C18" s="80"/>
+      <c r="D18" s="80"/>
+      <c r="E18" s="81"/>
+      <c r="F18" s="36" t="s">
+        <v>327</v>
+      </c>
+      <c r="G18" s="37"/>
     </row>
     <row r="19" spans="1:7" ht="11.25" customHeight="1">
-      <c r="A19" s="32"/>
-      <c r="B19" s="32"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="38"/>
+      <c r="A19" s="82"/>
+      <c r="B19" s="83"/>
+      <c r="C19" s="83"/>
+      <c r="D19" s="83"/>
+      <c r="E19" s="84"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="39"/>
     </row>
     <row r="20" spans="1:7" ht="11.25" customHeight="1">
-      <c r="A20" s="32"/>
-      <c r="B20" s="32"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="40"/>
+      <c r="A20" s="85"/>
+      <c r="B20" s="86"/>
+      <c r="C20" s="86"/>
+      <c r="D20" s="86"/>
+      <c r="E20" s="87"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="41"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="33" t="s">
-        <v>338</v>
-      </c>
-      <c r="B21" s="33" t="s">
-        <v>339</v>
-      </c>
-      <c r="C21" s="33" t="s">
-        <v>340</v>
-      </c>
-      <c r="D21" s="33" t="s">
-        <v>341</v>
-      </c>
-      <c r="E21" s="33" t="s">
-        <v>345</v>
-      </c>
-      <c r="F21" s="33" t="s">
-        <v>347</v>
-      </c>
-      <c r="G21" s="33" t="s">
-        <v>348</v>
+      <c r="A21" s="31" t="s">
+        <v>321</v>
+      </c>
+      <c r="B21" s="31" t="s">
+        <v>322</v>
+      </c>
+      <c r="C21" s="31" t="s">
+        <v>323</v>
+      </c>
+      <c r="D21" s="31" t="s">
+        <v>324</v>
+      </c>
+      <c r="E21" s="31" t="s">
+        <v>328</v>
+      </c>
+      <c r="F21" s="31" t="s">
+        <v>330</v>
+      </c>
+      <c r="G21" s="31" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="33"/>
-      <c r="B22" s="33"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="33"/>
+      <c r="A22" s="31"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="33"/>
-      <c r="B23" s="33"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="33"/>
+      <c r="A23" s="31"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="33"/>
-      <c r="B24" s="33"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="33"/>
+      <c r="A24" s="31"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="D26" s="33" t="s">
-        <v>342</v>
-      </c>
-      <c r="E26" s="34" t="s">
-        <v>346</v>
+      <c r="D26" s="31" t="s">
+        <v>325</v>
+      </c>
+      <c r="E26" s="35" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="D27" s="33"/>
-      <c r="E27" s="34"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="35"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="D28" s="33"/>
-      <c r="E28" s="34"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="35"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="D29" s="33"/>
-      <c r="E29" s="34"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="35"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="D30" s="33"/>
-      <c r="E30" s="34"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A18:E20"/>
-    <mergeCell ref="E21:E24"/>
-    <mergeCell ref="E26:E30"/>
     <mergeCell ref="F18:G20"/>
     <mergeCell ref="F21:F24"/>
     <mergeCell ref="G21:G24"/>
@@ -4249,6 +4456,11 @@
     <mergeCell ref="B21:B24"/>
     <mergeCell ref="C21:C24"/>
     <mergeCell ref="D21:D24"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A18:E20"/>
+    <mergeCell ref="E21:E24"/>
+    <mergeCell ref="E26:E30"/>
     <mergeCell ref="D26:D30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4263,9 +4475,7 @@
   </sheetPr>
   <dimension ref="A2:AE29"/>
   <sheetViews>
-    <sheetView topLeftCell="Z4" workbookViewId="0">
-      <selection activeCell="AD20" sqref="AD20:AD22"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
@@ -4294,41 +4504,41 @@
     <col min="24" max="24" width="41.7109375" style="1" customWidth="1"/>
     <col min="25" max="25" width="26.7109375" style="1" customWidth="1"/>
     <col min="26" max="26" width="23.5703125" style="1" customWidth="1"/>
-    <col min="27" max="27" width="27" style="1" customWidth="1"/>
+    <col min="27" max="27" width="30.85546875" style="1" customWidth="1"/>
     <col min="28" max="28" width="29.5703125" style="1" customWidth="1"/>
     <col min="29" max="29" width="28.85546875" style="1" customWidth="1"/>
     <col min="30" max="30" width="32.28515625" style="1" customWidth="1"/>
-    <col min="31" max="31" width="21.42578125" style="1" customWidth="1"/>
+    <col min="31" max="31" width="28.7109375" style="1" customWidth="1"/>
     <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:31" ht="21">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="31"/>
+      <c r="B2" s="30"/>
       <c r="C2" s="3" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:31" ht="21">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="31"/>
+      <c r="B3" s="30"/>
       <c r="C3" s="3" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
     </row>
     <row r="4" spans="1:31" ht="21">
-      <c r="A4" s="51" t="s">
-        <v>172</v>
-      </c>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
+      <c r="A4" s="58" t="s">
+        <v>164</v>
+      </c>
+      <c r="B4" s="58"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
       <c r="G4" s="1"/>
       <c r="P4" s="19"/>
       <c r="AB4" s="2"/>
@@ -4338,82 +4548,82 @@
         <v>10</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>8</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="F7" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="J7" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="K7" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="L7" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="M7" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="N7" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="O7" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="H7" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="I7" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="J7" s="14" t="s">
+      <c r="P7" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q7" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="R7" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="S7" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="T7" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="U7" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="V7" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="W7" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="X7" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="K7" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="L7" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="M7" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="N7" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="O7" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="P7" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q7" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="R7" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="S7" s="14" t="s">
+      <c r="Y7" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z7" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="T7" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="U7" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="V7" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="W7" s="14" t="s">
+      <c r="AA7" s="14" t="s">
         <v>61</v>
-      </c>
-      <c r="X7" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="Y7" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z7" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA7" s="14" t="s">
-        <v>69</v>
       </c>
       <c r="AB7" s="14" t="s">
         <v>17</v>
@@ -4422,7 +4632,7 @@
         <v>18</v>
       </c>
       <c r="AD7" s="14" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="AE7" s="14" t="s">
         <v>19</v>
@@ -4433,64 +4643,64 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="E8" s="16" t="s">
         <v>9</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="G8" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="M8" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="N8" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="H8" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="K8" s="2" t="s">
+      <c r="O8" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="P8" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q8" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="R8" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="S8" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="T8" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="L8" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="M8" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="N8" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="O8" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="P8" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q8" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="R8" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="S8" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="T8" s="16" t="s">
-        <v>84</v>
-      </c>
       <c r="U8" s="16" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="V8" s="16" t="s">
         <v>9</v>
@@ -4502,10 +4712,10 @@
         <v>0</v>
       </c>
       <c r="Y8" s="16" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="Z8" s="16" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="AA8" s="16" t="s">
         <v>9</v>
@@ -4528,64 +4738,64 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="E9" s="16" t="s">
         <v>9</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="H9" s="16" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="I9" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="L9" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="J9" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="M9" s="16" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="N9" s="16" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="O9" s="16" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="P9" s="16" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="Q9" s="16" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="R9" s="16" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="S9" s="16" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="T9" s="16" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="U9" s="16" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="V9" s="16" t="s">
         <v>9</v>
@@ -4597,10 +4807,10 @@
         <v>0</v>
       </c>
       <c r="Y9" s="16" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="Z9" s="16" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="AA9" s="16" t="s">
         <v>9</v>
@@ -4623,64 +4833,64 @@
         <v>7</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="E10" s="16" t="s">
         <v>9</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="H10" s="16" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>1</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="K10" s="2" t="s">
         <v>0</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="M10" s="16" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="N10" s="16" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="O10" s="16" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="P10" s="16" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="Q10" s="16" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="R10" s="16" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="S10" s="16" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="T10" s="16" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="U10" s="16" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="V10" s="16" t="s">
         <v>9</v>
@@ -4692,10 +4902,10 @@
         <v>0</v>
       </c>
       <c r="Y10" s="16" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="Z10" s="16" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="AA10" s="16" t="s">
         <v>9</v>
@@ -4718,64 +4928,64 @@
         <v>7</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="E11" s="16" t="s">
         <v>9</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="H11" s="16" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>1</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>0</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="M11" s="16" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="N11" s="16" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="O11" s="16" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="P11" s="16" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="Q11" s="16" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="R11" s="16" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="S11" s="16" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="T11" s="16" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="U11" s="16" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="V11" s="16" t="s">
         <v>9</v>
@@ -4787,10 +4997,10 @@
         <v>0</v>
       </c>
       <c r="Y11" s="16" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="Z11" s="16" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="AA11" s="16" t="s">
         <v>9</v>
@@ -4813,64 +5023,64 @@
         <v>7</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="E12" s="16" t="s">
         <v>9</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="H12" s="16" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>1</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>0</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="M12" s="16" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="N12" s="16" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="O12" s="16" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="P12" s="16" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="Q12" s="16" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="R12" s="16" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="S12" s="16" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="T12" s="16" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="U12" s="16" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="V12" s="16" t="s">
         <v>9</v>
@@ -4882,10 +5092,10 @@
         <v>0</v>
       </c>
       <c r="Y12" s="16" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="Z12" s="16" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="AA12" s="16" t="s">
         <v>9</v>
@@ -4908,64 +5118,64 @@
         <v>7</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C13" s="12" t="s">
         <v>1</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="E13" s="23" t="s">
         <v>9</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="H13" s="23" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="I13" s="12" t="s">
         <v>1</v>
       </c>
       <c r="J13" s="12" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="K13" s="12" t="s">
         <v>0</v>
       </c>
       <c r="L13" s="12" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="M13" s="23" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="N13" s="23" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="O13" s="23" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="P13" s="23" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="Q13" s="23" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="R13" s="23" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="S13" s="23" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="T13" s="23" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="U13" s="23" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="V13" s="23" t="s">
         <v>9</v>
@@ -4977,10 +5187,10 @@
         <v>0</v>
       </c>
       <c r="Y13" s="23" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="Z13" s="23" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="AA13" s="23" t="s">
         <v>9</v>
@@ -5003,64 +5213,64 @@
         <v>7</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="E14" s="16" t="s">
         <v>9</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="H14" s="16" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>1</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="K14" s="2" t="s">
         <v>0</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="M14" s="16" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="N14" s="16" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="O14" s="16" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="P14" s="16" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="Q14" s="16" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="R14" s="16" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="S14" s="16" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="T14" s="16" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="U14" s="16" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="V14" s="16" t="s">
         <v>9</v>
@@ -5072,10 +5282,10 @@
         <v>0</v>
       </c>
       <c r="Y14" s="16" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="Z14" s="16" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="AA14" s="16" t="s">
         <v>9</v>
@@ -5098,79 +5308,79 @@
         <v>7</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="E15" s="16" t="s">
         <v>9</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="H15" s="16" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>1</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="M15" s="16" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="N15" s="16" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="O15" s="16" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="P15" s="16" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="Q15" s="16" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="R15" s="16" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="S15" s="16" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="T15" s="16" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="U15" s="16" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="V15" s="16" t="s">
         <v>9</v>
       </c>
       <c r="W15" s="23" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="X15" s="16" t="s">
         <v>2</v>
       </c>
       <c r="Y15" s="16" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="Z15" s="16" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="AA15" s="16" t="s">
         <v>9</v>
@@ -5193,79 +5403,79 @@
         <v>7</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="E16" s="16" t="s">
         <v>9</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="H16" s="16" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>0</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>0</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="M16" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="N16" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="O16" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="P16" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q16" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="R16" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="N16" s="16" t="s">
-        <v>237</v>
-      </c>
-      <c r="O16" s="16" t="s">
-        <v>238</v>
-      </c>
-      <c r="P16" s="16" t="s">
-        <v>238</v>
-      </c>
-      <c r="Q16" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="R16" s="16" t="s">
-        <v>148</v>
-      </c>
       <c r="S16" s="16" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="T16" s="16" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="U16" s="16" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="V16" s="16" t="s">
         <v>9</v>
       </c>
       <c r="W16" s="23" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="X16" s="16" t="s">
         <v>1</v>
       </c>
       <c r="Y16" s="16" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="Z16" s="16" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="AA16" s="16" t="s">
         <v>9</v>
@@ -5288,79 +5498,79 @@
         <v>7</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="E17" s="16" t="s">
         <v>9</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="H17" s="16" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>1</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="M17" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="N17" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="O17" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="P17" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q17" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="R17" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="N17" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="O17" s="16" t="s">
-        <v>246</v>
-      </c>
-      <c r="P17" s="16" t="s">
-        <v>246</v>
-      </c>
-      <c r="Q17" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="R17" s="16" t="s">
-        <v>148</v>
-      </c>
       <c r="S17" s="16" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="T17" s="16" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="U17" s="16" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="V17" s="16" t="s">
         <v>9</v>
       </c>
       <c r="W17" s="23" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="X17" s="16" t="s">
         <v>1</v>
       </c>
       <c r="Y17" s="16" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="Z17" s="16" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="AA17" s="16" t="s">
         <v>9</v>
@@ -5409,296 +5619,296 @@
     <row r="20" spans="1:31" ht="11.25" customHeight="1">
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
-      <c r="F20" s="42" t="s">
-        <v>183</v>
-      </c>
-      <c r="G20" s="43"/>
-      <c r="H20" s="43"/>
-      <c r="I20" s="43"/>
-      <c r="J20" s="43"/>
-      <c r="K20" s="43"/>
-      <c r="L20" s="43"/>
-      <c r="M20" s="43"/>
-      <c r="N20" s="43"/>
-      <c r="O20" s="43"/>
-      <c r="P20" s="43"/>
-      <c r="Q20" s="43"/>
-      <c r="R20" s="43"/>
-      <c r="S20" s="43"/>
-      <c r="T20" s="43"/>
-      <c r="U20" s="43"/>
-      <c r="V20" s="43"/>
-      <c r="W20" s="43"/>
-      <c r="X20" s="43"/>
-      <c r="Y20" s="43"/>
-      <c r="Z20" s="44"/>
-      <c r="AA20" s="41" t="s">
-        <v>217</v>
-      </c>
-      <c r="AB20" s="41" t="s">
-        <v>386</v>
-      </c>
-      <c r="AC20" s="53"/>
-      <c r="AD20" s="41" t="s">
-        <v>385</v>
-      </c>
-      <c r="AE20" s="41" t="s">
-        <v>251</v>
+      <c r="F20" s="49" t="s">
+        <v>410</v>
+      </c>
+      <c r="G20" s="50"/>
+      <c r="H20" s="50"/>
+      <c r="I20" s="50"/>
+      <c r="J20" s="50"/>
+      <c r="K20" s="50"/>
+      <c r="L20" s="50"/>
+      <c r="M20" s="50"/>
+      <c r="N20" s="50"/>
+      <c r="O20" s="50"/>
+      <c r="P20" s="50"/>
+      <c r="Q20" s="50"/>
+      <c r="R20" s="50"/>
+      <c r="S20" s="50"/>
+      <c r="T20" s="50"/>
+      <c r="U20" s="50"/>
+      <c r="V20" s="50"/>
+      <c r="W20" s="50"/>
+      <c r="X20" s="50"/>
+      <c r="Y20" s="50"/>
+      <c r="Z20" s="51"/>
+      <c r="AA20" s="43" t="s">
+        <v>412</v>
+      </c>
+      <c r="AB20" s="43" t="s">
+        <v>369</v>
+      </c>
+      <c r="AC20" s="44"/>
+      <c r="AD20" s="43" t="s">
+        <v>368</v>
+      </c>
+      <c r="AE20" s="43" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="21" spans="1:31" ht="11.25" customHeight="1">
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
-      <c r="F21" s="45"/>
-      <c r="G21" s="46"/>
-      <c r="H21" s="46"/>
-      <c r="I21" s="46"/>
-      <c r="J21" s="46"/>
-      <c r="K21" s="46"/>
-      <c r="L21" s="46"/>
-      <c r="M21" s="46"/>
-      <c r="N21" s="46"/>
-      <c r="O21" s="46"/>
-      <c r="P21" s="46"/>
-      <c r="Q21" s="46"/>
-      <c r="R21" s="46"/>
-      <c r="S21" s="46"/>
-      <c r="T21" s="46"/>
-      <c r="U21" s="46"/>
-      <c r="V21" s="46"/>
-      <c r="W21" s="46"/>
-      <c r="X21" s="46"/>
-      <c r="Y21" s="46"/>
-      <c r="Z21" s="47"/>
-      <c r="AA21" s="41"/>
-      <c r="AB21" s="53"/>
-      <c r="AC21" s="53"/>
-      <c r="AD21" s="41"/>
-      <c r="AE21" s="41"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="53"/>
+      <c r="H21" s="53"/>
+      <c r="I21" s="53"/>
+      <c r="J21" s="53"/>
+      <c r="K21" s="53"/>
+      <c r="L21" s="53"/>
+      <c r="M21" s="53"/>
+      <c r="N21" s="53"/>
+      <c r="O21" s="53"/>
+      <c r="P21" s="53"/>
+      <c r="Q21" s="53"/>
+      <c r="R21" s="53"/>
+      <c r="S21" s="53"/>
+      <c r="T21" s="53"/>
+      <c r="U21" s="53"/>
+      <c r="V21" s="53"/>
+      <c r="W21" s="53"/>
+      <c r="X21" s="53"/>
+      <c r="Y21" s="53"/>
+      <c r="Z21" s="54"/>
+      <c r="AA21" s="43"/>
+      <c r="AB21" s="44"/>
+      <c r="AC21" s="44"/>
+      <c r="AD21" s="43"/>
+      <c r="AE21" s="43"/>
     </row>
     <row r="22" spans="1:31" ht="11.25" customHeight="1">
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
-      <c r="F22" s="48"/>
-      <c r="G22" s="49"/>
-      <c r="H22" s="49"/>
-      <c r="I22" s="49"/>
-      <c r="J22" s="49"/>
-      <c r="K22" s="49"/>
-      <c r="L22" s="49"/>
-      <c r="M22" s="49"/>
-      <c r="N22" s="49"/>
-      <c r="O22" s="49"/>
-      <c r="P22" s="49"/>
-      <c r="Q22" s="49"/>
-      <c r="R22" s="49"/>
-      <c r="S22" s="49"/>
-      <c r="T22" s="49"/>
-      <c r="U22" s="49"/>
-      <c r="V22" s="49"/>
-      <c r="W22" s="49"/>
-      <c r="X22" s="49"/>
-      <c r="Y22" s="49"/>
-      <c r="Z22" s="50"/>
-      <c r="AA22" s="41"/>
-      <c r="AB22" s="53"/>
-      <c r="AC22" s="53"/>
-      <c r="AD22" s="41"/>
-      <c r="AE22" s="41"/>
+      <c r="F22" s="55"/>
+      <c r="G22" s="56"/>
+      <c r="H22" s="56"/>
+      <c r="I22" s="56"/>
+      <c r="J22" s="56"/>
+      <c r="K22" s="56"/>
+      <c r="L22" s="56"/>
+      <c r="M22" s="56"/>
+      <c r="N22" s="56"/>
+      <c r="O22" s="56"/>
+      <c r="P22" s="56"/>
+      <c r="Q22" s="56"/>
+      <c r="R22" s="56"/>
+      <c r="S22" s="56"/>
+      <c r="T22" s="56"/>
+      <c r="U22" s="56"/>
+      <c r="V22" s="56"/>
+      <c r="W22" s="56"/>
+      <c r="X22" s="56"/>
+      <c r="Y22" s="56"/>
+      <c r="Z22" s="57"/>
+      <c r="AA22" s="43"/>
+      <c r="AB22" s="44"/>
+      <c r="AC22" s="44"/>
+      <c r="AD22" s="43"/>
+      <c r="AE22" s="43"/>
     </row>
     <row r="23" spans="1:31" ht="11.25" customHeight="1">
-      <c r="A23" s="28" t="s">
+      <c r="A23" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="B23" s="28" t="s">
+      <c r="B23" s="32" t="s">
+        <v>154</v>
+      </c>
+      <c r="C23" s="32" t="s">
+        <v>240</v>
+      </c>
+      <c r="D23" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="E23" s="32" t="s">
+        <v>239</v>
+      </c>
+      <c r="F23" s="32" t="s">
+        <v>152</v>
+      </c>
+      <c r="G23" s="32" t="s">
+        <v>153</v>
+      </c>
+      <c r="H23" s="32" t="s">
+        <v>171</v>
+      </c>
+      <c r="I23" s="32" t="s">
+        <v>155</v>
+      </c>
+      <c r="J23" s="32" t="s">
+        <v>158</v>
+      </c>
+      <c r="K23" s="32" t="s">
+        <v>159</v>
+      </c>
+      <c r="L23" s="32" t="s">
+        <v>157</v>
+      </c>
+      <c r="M23" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="N23" s="32" t="s">
         <v>162</v>
       </c>
-      <c r="C23" s="28" t="s">
-        <v>254</v>
-      </c>
-      <c r="D23" s="28" t="s">
-        <v>181</v>
-      </c>
-      <c r="E23" s="28" t="s">
-        <v>253</v>
-      </c>
-      <c r="F23" s="28" t="s">
-        <v>160</v>
-      </c>
-      <c r="G23" s="28" t="s">
+      <c r="O23" s="32" t="s">
         <v>161</v>
       </c>
-      <c r="H23" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="I23" s="28" t="s">
+      <c r="P23" s="32" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q23" s="32" t="s">
+        <v>168</v>
+      </c>
+      <c r="R23" s="32" t="s">
+        <v>174</v>
+      </c>
+      <c r="S23" s="32" t="s">
         <v>163</v>
       </c>
-      <c r="J23" s="28" t="s">
-        <v>166</v>
-      </c>
-      <c r="K23" s="28" t="s">
-        <v>167</v>
-      </c>
-      <c r="L23" s="28" t="s">
+      <c r="T23" s="32" t="s">
+        <v>169</v>
+      </c>
+      <c r="U23" s="32" t="s">
+        <v>170</v>
+      </c>
+      <c r="V23" s="32" t="s">
+        <v>218</v>
+      </c>
+      <c r="W23" s="32" t="s">
+        <v>236</v>
+      </c>
+      <c r="X23" s="32" t="s">
         <v>165</v>
       </c>
-      <c r="M23" s="28" t="s">
-        <v>168</v>
-      </c>
-      <c r="N23" s="28" t="s">
-        <v>170</v>
-      </c>
-      <c r="O23" s="28" t="s">
-        <v>169</v>
-      </c>
-      <c r="P23" s="28" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q23" s="28" t="s">
-        <v>176</v>
-      </c>
-      <c r="R23" s="28" t="s">
-        <v>182</v>
-      </c>
-      <c r="S23" s="28" t="s">
-        <v>171</v>
-      </c>
-      <c r="T23" s="28" t="s">
-        <v>177</v>
-      </c>
-      <c r="U23" s="28" t="s">
-        <v>178</v>
-      </c>
-      <c r="V23" s="28" t="s">
-        <v>231</v>
-      </c>
-      <c r="W23" s="28" t="s">
-        <v>249</v>
-      </c>
-      <c r="X23" s="28" t="s">
-        <v>173</v>
-      </c>
-      <c r="Y23" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="Z23" s="54" t="s">
-        <v>250</v>
-      </c>
-      <c r="AA23" s="57" t="s">
-        <v>218</v>
-      </c>
-      <c r="AB23" s="33" t="s">
-        <v>219</v>
-      </c>
-      <c r="AC23" s="33" t="s">
-        <v>220</v>
-      </c>
-      <c r="AD23" s="33" t="s">
-        <v>223</v>
-      </c>
-      <c r="AE23" s="33" t="s">
-        <v>252</v>
+      <c r="Y23" s="32" t="s">
+        <v>172</v>
+      </c>
+      <c r="Z23" s="45" t="s">
+        <v>237</v>
+      </c>
+      <c r="AA23" s="48" t="s">
+        <v>207</v>
+      </c>
+      <c r="AB23" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="AC23" s="31" t="s">
+        <v>209</v>
+      </c>
+      <c r="AD23" s="31" t="s">
+        <v>210</v>
+      </c>
+      <c r="AE23" s="31" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="24" spans="1:31">
-      <c r="A24" s="29"/>
-      <c r="B24" s="29"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="29"/>
-      <c r="I24" s="29"/>
-      <c r="J24" s="29"/>
-      <c r="K24" s="29"/>
-      <c r="L24" s="29"/>
-      <c r="M24" s="29"/>
-      <c r="N24" s="29"/>
-      <c r="O24" s="29"/>
-      <c r="P24" s="29"/>
-      <c r="Q24" s="29"/>
-      <c r="R24" s="29"/>
-      <c r="S24" s="29"/>
-      <c r="T24" s="29"/>
-      <c r="U24" s="29"/>
-      <c r="V24" s="29"/>
-      <c r="W24" s="29"/>
-      <c r="X24" s="29"/>
-      <c r="Y24" s="29"/>
-      <c r="Z24" s="55"/>
-      <c r="AA24" s="57"/>
-      <c r="AB24" s="33"/>
-      <c r="AC24" s="33"/>
-      <c r="AD24" s="33"/>
-      <c r="AE24" s="33"/>
+      <c r="A24" s="33"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="33"/>
+      <c r="J24" s="33"/>
+      <c r="K24" s="33"/>
+      <c r="L24" s="33"/>
+      <c r="M24" s="33"/>
+      <c r="N24" s="33"/>
+      <c r="O24" s="33"/>
+      <c r="P24" s="33"/>
+      <c r="Q24" s="33"/>
+      <c r="R24" s="33"/>
+      <c r="S24" s="33"/>
+      <c r="T24" s="33"/>
+      <c r="U24" s="33"/>
+      <c r="V24" s="33"/>
+      <c r="W24" s="33"/>
+      <c r="X24" s="33"/>
+      <c r="Y24" s="33"/>
+      <c r="Z24" s="46"/>
+      <c r="AA24" s="48"/>
+      <c r="AB24" s="31"/>
+      <c r="AC24" s="31"/>
+      <c r="AD24" s="31"/>
+      <c r="AE24" s="31"/>
     </row>
     <row r="25" spans="1:31">
-      <c r="A25" s="29"/>
-      <c r="B25" s="29"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="29"/>
-      <c r="J25" s="29"/>
-      <c r="K25" s="29"/>
-      <c r="L25" s="29"/>
-      <c r="M25" s="29"/>
-      <c r="N25" s="29"/>
-      <c r="O25" s="29"/>
-      <c r="P25" s="29"/>
-      <c r="Q25" s="29"/>
-      <c r="R25" s="29"/>
-      <c r="S25" s="29"/>
-      <c r="T25" s="29"/>
-      <c r="U25" s="29"/>
-      <c r="V25" s="29"/>
-      <c r="W25" s="29"/>
-      <c r="X25" s="29"/>
-      <c r="Y25" s="29"/>
-      <c r="Z25" s="55"/>
-      <c r="AA25" s="57"/>
-      <c r="AB25" s="33"/>
-      <c r="AC25" s="33"/>
-      <c r="AD25" s="33"/>
-      <c r="AE25" s="33"/>
+      <c r="A25" s="33"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="33"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="33"/>
+      <c r="L25" s="33"/>
+      <c r="M25" s="33"/>
+      <c r="N25" s="33"/>
+      <c r="O25" s="33"/>
+      <c r="P25" s="33"/>
+      <c r="Q25" s="33"/>
+      <c r="R25" s="33"/>
+      <c r="S25" s="33"/>
+      <c r="T25" s="33"/>
+      <c r="U25" s="33"/>
+      <c r="V25" s="33"/>
+      <c r="W25" s="33"/>
+      <c r="X25" s="33"/>
+      <c r="Y25" s="33"/>
+      <c r="Z25" s="46"/>
+      <c r="AA25" s="48"/>
+      <c r="AB25" s="31"/>
+      <c r="AC25" s="31"/>
+      <c r="AD25" s="31"/>
+      <c r="AE25" s="31"/>
     </row>
     <row r="26" spans="1:31">
-      <c r="A26" s="30"/>
-      <c r="B26" s="30"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="30"/>
-      <c r="H26" s="30"/>
-      <c r="I26" s="30"/>
-      <c r="J26" s="30"/>
-      <c r="K26" s="30"/>
-      <c r="L26" s="30"/>
-      <c r="M26" s="30"/>
-      <c r="N26" s="30"/>
-      <c r="O26" s="30"/>
-      <c r="P26" s="30"/>
-      <c r="Q26" s="30"/>
-      <c r="R26" s="30"/>
-      <c r="S26" s="30"/>
-      <c r="T26" s="30"/>
-      <c r="U26" s="30"/>
-      <c r="V26" s="30"/>
-      <c r="W26" s="30"/>
-      <c r="X26" s="30"/>
-      <c r="Y26" s="30"/>
-      <c r="Z26" s="56"/>
-      <c r="AA26" s="57"/>
-      <c r="AB26" s="33"/>
-      <c r="AC26" s="33"/>
-      <c r="AD26" s="33"/>
-      <c r="AE26" s="33"/>
+      <c r="A26" s="34"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="34"/>
+      <c r="L26" s="34"/>
+      <c r="M26" s="34"/>
+      <c r="N26" s="34"/>
+      <c r="O26" s="34"/>
+      <c r="P26" s="34"/>
+      <c r="Q26" s="34"/>
+      <c r="R26" s="34"/>
+      <c r="S26" s="34"/>
+      <c r="T26" s="34"/>
+      <c r="U26" s="34"/>
+      <c r="V26" s="34"/>
+      <c r="W26" s="34"/>
+      <c r="X26" s="34"/>
+      <c r="Y26" s="34"/>
+      <c r="Z26" s="47"/>
+      <c r="AA26" s="48"/>
+      <c r="AB26" s="31"/>
+      <c r="AC26" s="31"/>
+      <c r="AD26" s="31"/>
+      <c r="AE26" s="31"/>
     </row>
     <row r="27" spans="1:31">
       <c r="D27" s="1"/>
@@ -5710,17 +5920,17 @@
       <c r="R27" s="1"/>
       <c r="S27" s="2"/>
       <c r="V27" s="2"/>
-      <c r="AA27" s="57"/>
-      <c r="AB27" s="33"/>
-      <c r="AC27" s="33"/>
-      <c r="AD27" s="33"/>
+      <c r="AA27" s="48"/>
+      <c r="AB27" s="31"/>
+      <c r="AC27" s="31"/>
+      <c r="AD27" s="31"/>
     </row>
     <row r="28" spans="1:31">
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="17" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" s="1"/>
@@ -5729,14 +5939,14 @@
       <c r="S28" s="2"/>
       <c r="V28" s="2"/>
       <c r="X28" s="17" t="s">
-        <v>158</v>
-      </c>
-      <c r="AA28" s="57"/>
-      <c r="AB28" s="33"/>
-      <c r="AC28" s="33"/>
-      <c r="AD28" s="52"/>
+        <v>150</v>
+      </c>
+      <c r="AA28" s="48"/>
+      <c r="AB28" s="31"/>
+      <c r="AC28" s="31"/>
+      <c r="AD28" s="42"/>
       <c r="AE28" s="17" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
     </row>
     <row r="29" spans="1:31" ht="123.75">
@@ -5744,7 +5954,7 @@
       <c r="E29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="18" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" s="1"/>
@@ -5754,34 +5964,27 @@
       <c r="V29" s="2"/>
       <c r="W29" s="2"/>
       <c r="X29" s="20" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="Z29" s="21"/>
-      <c r="AA29" s="57"/>
+      <c r="AA29" s="48"/>
       <c r="AB29" s="22"/>
       <c r="AC29" s="2"/>
       <c r="AD29" s="2"/>
       <c r="AE29" s="20" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="AD23:AD28"/>
-    <mergeCell ref="AB20:AC22"/>
-    <mergeCell ref="AD20:AD22"/>
-    <mergeCell ref="W23:W26"/>
-    <mergeCell ref="I23:I26"/>
-    <mergeCell ref="L23:L26"/>
-    <mergeCell ref="J23:J26"/>
-    <mergeCell ref="K23:K26"/>
-    <mergeCell ref="M23:M26"/>
-    <mergeCell ref="Y23:Y26"/>
-    <mergeCell ref="Z23:Z26"/>
-    <mergeCell ref="AA20:AA22"/>
-    <mergeCell ref="AA23:AA29"/>
-    <mergeCell ref="AB23:AB28"/>
-    <mergeCell ref="AC23:AC28"/>
+    <mergeCell ref="D23:D26"/>
+    <mergeCell ref="R23:R26"/>
+    <mergeCell ref="O23:O26"/>
+    <mergeCell ref="V23:V26"/>
+    <mergeCell ref="N23:N26"/>
+    <mergeCell ref="S23:S26"/>
+    <mergeCell ref="E23:E26"/>
+    <mergeCell ref="H23:H26"/>
     <mergeCell ref="AE20:AE22"/>
     <mergeCell ref="AE23:AE26"/>
     <mergeCell ref="F20:Z22"/>
@@ -5798,14 +6001,21 @@
     <mergeCell ref="T23:T26"/>
     <mergeCell ref="U23:U26"/>
     <mergeCell ref="B23:B26"/>
-    <mergeCell ref="D23:D26"/>
-    <mergeCell ref="R23:R26"/>
-    <mergeCell ref="O23:O26"/>
-    <mergeCell ref="V23:V26"/>
-    <mergeCell ref="N23:N26"/>
-    <mergeCell ref="S23:S26"/>
-    <mergeCell ref="E23:E26"/>
-    <mergeCell ref="H23:H26"/>
+    <mergeCell ref="AD23:AD28"/>
+    <mergeCell ref="AB20:AC22"/>
+    <mergeCell ref="AD20:AD22"/>
+    <mergeCell ref="W23:W26"/>
+    <mergeCell ref="I23:I26"/>
+    <mergeCell ref="L23:L26"/>
+    <mergeCell ref="J23:J26"/>
+    <mergeCell ref="K23:K26"/>
+    <mergeCell ref="M23:M26"/>
+    <mergeCell ref="Y23:Y26"/>
+    <mergeCell ref="Z23:Z26"/>
+    <mergeCell ref="AA20:AA22"/>
+    <mergeCell ref="AA23:AA29"/>
+    <mergeCell ref="AB23:AB28"/>
+    <mergeCell ref="AC23:AC28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -5819,8 +6029,8 @@
   </sheetPr>
   <dimension ref="A2:AB66"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21:X23"/>
+    <sheetView topLeftCell="U1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Y21" sqref="Y21:Z23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -5858,32 +6068,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:28" ht="21">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="31"/>
+      <c r="B2" s="30"/>
       <c r="C2" s="3" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:28" ht="21">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="31"/>
+      <c r="B3" s="30"/>
       <c r="C3" s="3" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
     </row>
     <row r="4" spans="1:28" ht="21">
-      <c r="A4" s="51" t="s">
-        <v>172</v>
-      </c>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
+      <c r="A4" s="58" t="s">
+        <v>164</v>
+      </c>
+      <c r="B4" s="58"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
       <c r="G4" s="1"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="19"/>
@@ -5894,73 +6104,73 @@
         <v>10</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="F7" s="14" t="s">
         <v>8</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J7" s="14" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="K7" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="L7" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="M7" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="L7" s="14" t="s">
+      <c r="N7" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="O7" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="P7" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q7" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="R7" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="S7" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="T7" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="U7" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="V7" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="W7" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="M7" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="N7" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="O7" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="P7" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q7" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="R7" s="14" t="s">
+      <c r="X7" s="14" t="s">
         <v>102</v>
-      </c>
-      <c r="S7" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="T7" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="U7" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="V7" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="W7" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="X7" s="14" t="s">
-        <v>110</v>
       </c>
       <c r="Y7" s="14" t="s">
         <v>17</v>
@@ -5969,10 +6179,10 @@
         <v>18</v>
       </c>
       <c r="AA7" s="14" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="AB7" s="14" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:28" s="13" customFormat="1">
@@ -5983,40 +6193,40 @@
         <v>1</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="E8" s="23" t="s">
         <v>9</v>
       </c>
       <c r="F8" s="23" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="J8" s="12" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="K8" s="12" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="L8" s="23" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="M8" s="23" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="N8" s="23" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="O8" s="23" t="s">
         <v>0</v>
@@ -6025,16 +6235,16 @@
         <v>0</v>
       </c>
       <c r="Q8" s="12" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="R8" s="23" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="S8" s="23" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="T8" s="23" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="U8" s="23" t="s">
         <v>9</v>
@@ -6069,25 +6279,25 @@
         <v>1</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="E9" s="23" t="s">
         <v>9</v>
       </c>
       <c r="F9" s="23" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="J9" s="12" t="s">
         <v>1</v>
@@ -6096,7 +6306,7 @@
         <v>1</v>
       </c>
       <c r="L9" s="23" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="M9" s="23" t="s">
         <v>20</v>
@@ -6114,25 +6324,25 @@
         <v>0</v>
       </c>
       <c r="R9" s="23" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="S9" s="23" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="T9" s="23" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="U9" s="23" t="s">
         <v>2</v>
       </c>
       <c r="V9" s="23" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="W9" s="23" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="X9" s="23" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="Y9" s="23" t="s">
         <v>9</v>
@@ -6155,25 +6365,25 @@
         <v>1</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="E10" s="23" t="s">
         <v>9</v>
       </c>
       <c r="F10" s="23" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="J10" s="12" t="s">
         <v>3</v>
@@ -6185,7 +6395,7 @@
         <v>28</v>
       </c>
       <c r="M10" s="23" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="N10" s="23" t="s">
         <v>3</v>
@@ -6200,25 +6410,25 @@
         <v>0</v>
       </c>
       <c r="R10" s="23" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="S10" s="23" t="s">
         <v>28</v>
       </c>
       <c r="T10" s="23" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="U10" s="23" t="s">
         <v>2</v>
       </c>
       <c r="V10" s="23" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="W10" s="23" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="X10" s="23" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="Y10" s="23" t="s">
         <v>9</v>
@@ -6230,7 +6440,7 @@
         <v>9</v>
       </c>
       <c r="AB10" s="23" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:28" s="13" customFormat="1">
@@ -6241,25 +6451,25 @@
         <v>1</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="E11" s="23" t="s">
         <v>9</v>
       </c>
       <c r="F11" s="23" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="I11" s="12" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="J11" s="12" t="s">
         <v>3</v>
@@ -6271,7 +6481,7 @@
         <v>28</v>
       </c>
       <c r="M11" s="23" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="N11" s="23" t="s">
         <v>3</v>
@@ -6286,25 +6496,25 @@
         <v>0</v>
       </c>
       <c r="R11" s="23" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="S11" s="23" t="s">
         <v>28</v>
       </c>
       <c r="T11" s="23" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="U11" s="23" t="s">
         <v>2</v>
       </c>
       <c r="V11" s="23" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="W11" s="23" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="X11" s="23" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="Y11" s="23" t="s">
         <v>9</v>
@@ -6316,7 +6526,7 @@
         <v>9</v>
       </c>
       <c r="AB11" s="23" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:28" s="13" customFormat="1">
@@ -6327,25 +6537,25 @@
         <v>1</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="E12" s="23" t="s">
         <v>9</v>
       </c>
       <c r="F12" s="23" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="I12" s="12" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="J12" s="12" t="s">
         <v>3</v>
@@ -6357,7 +6567,7 @@
         <v>28</v>
       </c>
       <c r="M12" s="23" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="N12" s="23" t="s">
         <v>1</v>
@@ -6372,25 +6582,25 @@
         <v>0</v>
       </c>
       <c r="R12" s="23" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="S12" s="23" t="s">
         <v>28</v>
       </c>
       <c r="T12" s="23" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="U12" s="23" t="s">
         <v>2</v>
       </c>
       <c r="V12" s="23" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="W12" s="23" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="X12" s="23" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="Y12" s="23" t="s">
         <v>9</v>
@@ -6402,7 +6612,7 @@
         <v>9</v>
       </c>
       <c r="AB12" s="23" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
     </row>
     <row r="13" spans="1:28" s="13" customFormat="1">
@@ -6413,25 +6623,25 @@
         <v>1</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="E13" s="23" t="s">
         <v>9</v>
       </c>
       <c r="F13" s="23" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="I13" s="12" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="J13" s="12" t="s">
         <v>3</v>
@@ -6443,7 +6653,7 @@
         <v>28</v>
       </c>
       <c r="M13" s="23" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="N13" s="23" t="s">
         <v>1</v>
@@ -6458,25 +6668,25 @@
         <v>0</v>
       </c>
       <c r="R13" s="23" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
       <c r="S13" s="23" t="s">
         <v>28</v>
       </c>
       <c r="T13" s="23" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="U13" s="23" t="s">
         <v>2</v>
       </c>
       <c r="V13" s="23" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="W13" s="23" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="X13" s="23" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="Y13" s="23" t="s">
         <v>9</v>
@@ -6488,7 +6698,7 @@
         <v>9</v>
       </c>
       <c r="AB13" s="23" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14" spans="1:28" s="13" customFormat="1">
@@ -6499,25 +6709,25 @@
         <v>1</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="E14" s="23" t="s">
         <v>9</v>
       </c>
       <c r="F14" s="23" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="H14" s="12" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="I14" s="12" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="J14" s="12" t="s">
         <v>3</v>
@@ -6529,7 +6739,7 @@
         <v>28</v>
       </c>
       <c r="M14" s="23" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="N14" s="23" t="s">
         <v>1</v>
@@ -6544,25 +6754,25 @@
         <v>0</v>
       </c>
       <c r="R14" s="23" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
       <c r="S14" s="23" t="s">
         <v>28</v>
       </c>
       <c r="T14" s="23" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="U14" s="23" t="s">
         <v>2</v>
       </c>
       <c r="V14" s="23" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="W14" s="23" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="X14" s="23" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="Y14" s="23" t="s">
         <v>9</v>
@@ -6574,7 +6784,7 @@
         <v>9</v>
       </c>
       <c r="AB14" s="23" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15" spans="1:28" s="13" customFormat="1">
@@ -6585,25 +6795,25 @@
         <v>1</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="E15" s="23" t="s">
         <v>9</v>
       </c>
       <c r="F15" s="23" t="s">
-        <v>262</v>
+        <v>248</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="I15" s="12" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="J15" s="12" t="s">
         <v>1</v>
@@ -6615,7 +6825,7 @@
         <v>28</v>
       </c>
       <c r="M15" s="23" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="N15" s="23" t="s">
         <v>3</v>
@@ -6630,37 +6840,37 @@
         <v>0</v>
       </c>
       <c r="R15" s="23" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="S15" s="23" t="s">
         <v>28</v>
       </c>
       <c r="T15" s="23" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="U15" s="23" t="s">
         <v>1</v>
       </c>
       <c r="V15" s="23" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
       <c r="W15" s="23" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="X15" s="23" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
       <c r="Y15" s="23" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="Z15" s="23" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="AA15" s="23" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="AB15" s="23" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
     </row>
     <row r="16" spans="1:28" s="13" customFormat="1">
@@ -6671,25 +6881,25 @@
         <v>1</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="E16" s="23" t="s">
         <v>9</v>
       </c>
       <c r="F16" s="23" t="s">
-        <v>265</v>
+        <v>251</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="I16" s="12" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="J16" s="12" t="s">
         <v>1</v>
@@ -6701,13 +6911,13 @@
         <v>28</v>
       </c>
       <c r="M16" s="23" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="N16" s="23" t="s">
         <v>1</v>
       </c>
       <c r="O16" s="23" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="P16" s="12" t="s">
         <v>1</v>
@@ -6716,37 +6926,37 @@
         <v>0</v>
       </c>
       <c r="R16" s="23" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="S16" s="23" t="s">
         <v>28</v>
       </c>
       <c r="T16" s="23" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="U16" s="23" t="s">
         <v>1</v>
       </c>
       <c r="V16" s="23" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
       <c r="W16" s="23" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="X16" s="23" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
       <c r="Y16" s="23" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="Z16" s="23" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="AA16" s="23" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="AB16" s="23" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
     </row>
     <row r="17" spans="1:28" s="13" customFormat="1">
@@ -6757,25 +6967,25 @@
         <v>1</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="E17" s="23" t="s">
         <v>9</v>
       </c>
       <c r="F17" s="23" t="s">
-        <v>268</v>
+        <v>254</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
       <c r="H17" s="12" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="I17" s="12" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="J17" s="12" t="s">
         <v>1</v>
@@ -6787,13 +6997,13 @@
         <v>27</v>
       </c>
       <c r="M17" s="23" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="N17" s="23" t="s">
         <v>0</v>
       </c>
       <c r="O17" s="23" t="s">
-        <v>266</v>
+        <v>252</v>
       </c>
       <c r="P17" s="12" t="s">
         <v>4</v>
@@ -6802,25 +7012,25 @@
         <v>2</v>
       </c>
       <c r="R17" s="23" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
       <c r="S17" s="23" t="s">
         <v>27</v>
       </c>
       <c r="T17" s="23" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="U17" s="23" t="s">
         <v>3</v>
       </c>
       <c r="V17" s="23" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
       <c r="W17" s="23" t="s">
-        <v>269</v>
+        <v>255</v>
       </c>
       <c r="X17" s="23" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
       <c r="Y17" s="23" t="s">
         <v>9</v>
@@ -6832,7 +7042,7 @@
         <v>9</v>
       </c>
       <c r="AB17" s="23" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
     </row>
     <row r="18" spans="1:28" s="12" customFormat="1">
@@ -6843,25 +7053,25 @@
         <v>1</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="E18" s="12" t="s">
         <v>9</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>268</v>
+        <v>254</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="I18" s="12" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="J18" s="12" t="s">
         <v>1</v>
@@ -6873,13 +7083,13 @@
         <v>27</v>
       </c>
       <c r="M18" s="12" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="N18" s="12" t="s">
         <v>0</v>
       </c>
       <c r="O18" s="12" t="s">
-        <v>266</v>
+        <v>252</v>
       </c>
       <c r="P18" s="12" t="s">
         <v>5</v>
@@ -6888,25 +7098,25 @@
         <v>3</v>
       </c>
       <c r="R18" s="12" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
       <c r="S18" s="12" t="s">
         <v>27</v>
       </c>
       <c r="T18" s="12" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="U18" s="12" t="s">
         <v>3</v>
       </c>
       <c r="V18" s="12" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
       <c r="W18" s="12" t="s">
-        <v>270</v>
+        <v>256</v>
       </c>
       <c r="X18" s="12" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
       <c r="Y18" s="12" t="s">
         <v>9</v>
@@ -6918,7 +7128,7 @@
         <v>9</v>
       </c>
       <c r="AB18" s="12" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
     </row>
     <row r="19" spans="1:28" s="2" customFormat="1"/>
@@ -6935,268 +7145,268 @@
       <c r="X20" s="2"/>
     </row>
     <row r="21" spans="1:28" ht="11.25" customHeight="1">
-      <c r="E21" s="42" t="s">
-        <v>183</v>
-      </c>
-      <c r="F21" s="43"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="43"/>
-      <c r="I21" s="43"/>
-      <c r="J21" s="43"/>
-      <c r="K21" s="43"/>
-      <c r="L21" s="43"/>
-      <c r="M21" s="43"/>
-      <c r="N21" s="43"/>
-      <c r="O21" s="43"/>
-      <c r="P21" s="43"/>
-      <c r="Q21" s="43"/>
-      <c r="R21" s="43"/>
-      <c r="S21" s="43"/>
-      <c r="T21" s="43"/>
-      <c r="U21" s="43"/>
-      <c r="V21" s="43"/>
-      <c r="W21" s="43"/>
-      <c r="X21" s="44"/>
-      <c r="Y21" s="41" t="s">
-        <v>221</v>
-      </c>
-      <c r="Z21" s="41"/>
-      <c r="AA21" s="41" t="s">
-        <v>222</v>
-      </c>
-      <c r="AB21" s="41" t="s">
-        <v>289</v>
+      <c r="E21" s="49" t="s">
+        <v>410</v>
+      </c>
+      <c r="F21" s="50"/>
+      <c r="G21" s="50"/>
+      <c r="H21" s="50"/>
+      <c r="I21" s="50"/>
+      <c r="J21" s="50"/>
+      <c r="K21" s="50"/>
+      <c r="L21" s="50"/>
+      <c r="M21" s="50"/>
+      <c r="N21" s="50"/>
+      <c r="O21" s="50"/>
+      <c r="P21" s="50"/>
+      <c r="Q21" s="50"/>
+      <c r="R21" s="50"/>
+      <c r="S21" s="50"/>
+      <c r="T21" s="50"/>
+      <c r="U21" s="50"/>
+      <c r="V21" s="50"/>
+      <c r="W21" s="50"/>
+      <c r="X21" s="51"/>
+      <c r="Y21" s="43" t="s">
+        <v>369</v>
+      </c>
+      <c r="Z21" s="43"/>
+      <c r="AA21" s="43" t="s">
+        <v>368</v>
+      </c>
+      <c r="AB21" s="43" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="22" spans="1:28">
-      <c r="E22" s="45"/>
-      <c r="F22" s="46"/>
-      <c r="G22" s="46"/>
-      <c r="H22" s="46"/>
-      <c r="I22" s="46"/>
-      <c r="J22" s="46"/>
-      <c r="K22" s="46"/>
-      <c r="L22" s="46"/>
-      <c r="M22" s="46"/>
-      <c r="N22" s="46"/>
-      <c r="O22" s="46"/>
-      <c r="P22" s="46"/>
-      <c r="Q22" s="46"/>
-      <c r="R22" s="46"/>
-      <c r="S22" s="46"/>
-      <c r="T22" s="46"/>
-      <c r="U22" s="46"/>
-      <c r="V22" s="46"/>
-      <c r="W22" s="46"/>
-      <c r="X22" s="47"/>
-      <c r="Y22" s="41"/>
-      <c r="Z22" s="41"/>
-      <c r="AA22" s="41"/>
-      <c r="AB22" s="41" t="s">
-        <v>288</v>
+      <c r="E22" s="52"/>
+      <c r="F22" s="53"/>
+      <c r="G22" s="53"/>
+      <c r="H22" s="53"/>
+      <c r="I22" s="53"/>
+      <c r="J22" s="53"/>
+      <c r="K22" s="53"/>
+      <c r="L22" s="53"/>
+      <c r="M22" s="53"/>
+      <c r="N22" s="53"/>
+      <c r="O22" s="53"/>
+      <c r="P22" s="53"/>
+      <c r="Q22" s="53"/>
+      <c r="R22" s="53"/>
+      <c r="S22" s="53"/>
+      <c r="T22" s="53"/>
+      <c r="U22" s="53"/>
+      <c r="V22" s="53"/>
+      <c r="W22" s="53"/>
+      <c r="X22" s="54"/>
+      <c r="Y22" s="43"/>
+      <c r="Z22" s="43"/>
+      <c r="AA22" s="43"/>
+      <c r="AB22" s="43" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="23" spans="1:28">
-      <c r="E23" s="48"/>
-      <c r="F23" s="49"/>
-      <c r="G23" s="49"/>
-      <c r="H23" s="49"/>
-      <c r="I23" s="49"/>
-      <c r="J23" s="49"/>
-      <c r="K23" s="49"/>
-      <c r="L23" s="49"/>
-      <c r="M23" s="49"/>
-      <c r="N23" s="49"/>
-      <c r="O23" s="49"/>
-      <c r="P23" s="49"/>
-      <c r="Q23" s="49"/>
-      <c r="R23" s="49"/>
-      <c r="S23" s="49"/>
-      <c r="T23" s="49"/>
-      <c r="U23" s="49"/>
-      <c r="V23" s="49"/>
-      <c r="W23" s="49"/>
-      <c r="X23" s="50"/>
-      <c r="Y23" s="41"/>
-      <c r="Z23" s="41"/>
-      <c r="AA23" s="41"/>
-      <c r="AB23" s="41"/>
+      <c r="E23" s="55"/>
+      <c r="F23" s="56"/>
+      <c r="G23" s="56"/>
+      <c r="H23" s="56"/>
+      <c r="I23" s="56"/>
+      <c r="J23" s="56"/>
+      <c r="K23" s="56"/>
+      <c r="L23" s="56"/>
+      <c r="M23" s="56"/>
+      <c r="N23" s="56"/>
+      <c r="O23" s="56"/>
+      <c r="P23" s="56"/>
+      <c r="Q23" s="56"/>
+      <c r="R23" s="56"/>
+      <c r="S23" s="56"/>
+      <c r="T23" s="56"/>
+      <c r="U23" s="56"/>
+      <c r="V23" s="56"/>
+      <c r="W23" s="56"/>
+      <c r="X23" s="57"/>
+      <c r="Y23" s="43"/>
+      <c r="Z23" s="43"/>
+      <c r="AA23" s="43"/>
+      <c r="AB23" s="43"/>
     </row>
     <row r="24" spans="1:28" ht="11.25" customHeight="1">
-      <c r="A24" s="28" t="s">
+      <c r="A24" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="B24" s="28" t="s">
-        <v>254</v>
-      </c>
-      <c r="C24" s="28" t="s">
-        <v>162</v>
-      </c>
-      <c r="D24" s="28" t="s">
-        <v>162</v>
-      </c>
-      <c r="E24" s="28" t="s">
-        <v>253</v>
-      </c>
-      <c r="F24" s="28" t="s">
-        <v>181</v>
-      </c>
-      <c r="G24" s="28" t="s">
-        <v>160</v>
-      </c>
-      <c r="H24" s="28" t="s">
-        <v>161</v>
-      </c>
-      <c r="I24" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="J24" s="28" t="s">
-        <v>163</v>
-      </c>
-      <c r="K24" s="28" t="s">
+      <c r="B24" s="32" t="s">
+        <v>240</v>
+      </c>
+      <c r="C24" s="32" t="s">
+        <v>154</v>
+      </c>
+      <c r="D24" s="32" t="s">
+        <v>154</v>
+      </c>
+      <c r="E24" s="32" t="s">
+        <v>239</v>
+      </c>
+      <c r="F24" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="G24" s="32" t="s">
+        <v>152</v>
+      </c>
+      <c r="H24" s="32" t="s">
+        <v>153</v>
+      </c>
+      <c r="I24" s="32" t="s">
+        <v>171</v>
+      </c>
+      <c r="J24" s="32" t="s">
+        <v>155</v>
+      </c>
+      <c r="K24" s="32" t="s">
+        <v>259</v>
+      </c>
+      <c r="L24" s="32" t="s">
+        <v>260</v>
+      </c>
+      <c r="M24" s="31" t="s">
+        <v>271</v>
+      </c>
+      <c r="N24" s="59" t="s">
+        <v>265</v>
+      </c>
+      <c r="O24" s="63" t="s">
+        <v>272</v>
+      </c>
+      <c r="P24" s="32" t="s">
         <v>273</v>
       </c>
-      <c r="L24" s="28" t="s">
-        <v>274</v>
-      </c>
-      <c r="M24" s="33" t="s">
-        <v>285</v>
-      </c>
-      <c r="N24" s="70" t="s">
-        <v>279</v>
-      </c>
-      <c r="O24" s="61" t="s">
-        <v>286</v>
-      </c>
-      <c r="P24" s="28" t="s">
-        <v>287</v>
-      </c>
-      <c r="Q24" s="28" t="s">
-        <v>271</v>
-      </c>
-      <c r="R24" s="28" t="s">
+      <c r="Q24" s="32" t="s">
+        <v>257</v>
+      </c>
+      <c r="R24" s="32" t="s">
+        <v>261</v>
+      </c>
+      <c r="S24" s="32" t="s">
+        <v>276</v>
+      </c>
+      <c r="T24" s="32" t="s">
+        <v>262</v>
+      </c>
+      <c r="U24" s="32" t="s">
+        <v>263</v>
+      </c>
+      <c r="V24" s="32" t="s">
+        <v>266</v>
+      </c>
+      <c r="W24" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="X24" s="32" t="s">
+        <v>268</v>
+      </c>
+      <c r="Y24" s="66" t="s">
+        <v>269</v>
+      </c>
+      <c r="Z24" s="69" t="s">
+        <v>270</v>
+      </c>
+      <c r="AA24" s="31" t="s">
+        <v>210</v>
+      </c>
+      <c r="AB24" s="60" t="s">
         <v>275</v>
       </c>
-      <c r="S24" s="28" t="s">
-        <v>291</v>
-      </c>
-      <c r="T24" s="28" t="s">
-        <v>276</v>
-      </c>
-      <c r="U24" s="28" t="s">
-        <v>277</v>
-      </c>
-      <c r="V24" s="28" t="s">
-        <v>280</v>
-      </c>
-      <c r="W24" s="28" t="s">
-        <v>281</v>
-      </c>
-      <c r="X24" s="28" t="s">
-        <v>282</v>
-      </c>
-      <c r="Y24" s="64" t="s">
-        <v>283</v>
-      </c>
-      <c r="Z24" s="67" t="s">
-        <v>284</v>
-      </c>
-      <c r="AA24" s="33" t="s">
-        <v>223</v>
-      </c>
-      <c r="AB24" s="58" t="s">
-        <v>290</v>
-      </c>
     </row>
     <row r="25" spans="1:28">
-      <c r="A25" s="29"/>
-      <c r="B25" s="29"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="29"/>
-      <c r="J25" s="29"/>
-      <c r="K25" s="29"/>
-      <c r="L25" s="29"/>
-      <c r="M25" s="33"/>
-      <c r="N25" s="70"/>
-      <c r="O25" s="62"/>
-      <c r="P25" s="29"/>
-      <c r="Q25" s="29"/>
-      <c r="R25" s="29"/>
-      <c r="S25" s="29"/>
-      <c r="T25" s="29"/>
-      <c r="U25" s="29"/>
-      <c r="V25" s="29"/>
-      <c r="W25" s="29"/>
-      <c r="X25" s="29"/>
-      <c r="Y25" s="65"/>
-      <c r="Z25" s="68"/>
-      <c r="AA25" s="33"/>
-      <c r="AB25" s="59"/>
+      <c r="A25" s="33"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="33"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="33"/>
+      <c r="L25" s="33"/>
+      <c r="M25" s="31"/>
+      <c r="N25" s="59"/>
+      <c r="O25" s="64"/>
+      <c r="P25" s="33"/>
+      <c r="Q25" s="33"/>
+      <c r="R25" s="33"/>
+      <c r="S25" s="33"/>
+      <c r="T25" s="33"/>
+      <c r="U25" s="33"/>
+      <c r="V25" s="33"/>
+      <c r="W25" s="33"/>
+      <c r="X25" s="33"/>
+      <c r="Y25" s="67"/>
+      <c r="Z25" s="70"/>
+      <c r="AA25" s="31"/>
+      <c r="AB25" s="61"/>
     </row>
     <row r="26" spans="1:28">
-      <c r="A26" s="29"/>
-      <c r="B26" s="29"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="29"/>
-      <c r="I26" s="29"/>
-      <c r="J26" s="29"/>
-      <c r="K26" s="29"/>
-      <c r="L26" s="29"/>
-      <c r="M26" s="33"/>
-      <c r="N26" s="70"/>
-      <c r="O26" s="62"/>
-      <c r="P26" s="29"/>
-      <c r="Q26" s="29"/>
-      <c r="R26" s="29"/>
-      <c r="S26" s="29"/>
-      <c r="T26" s="29"/>
-      <c r="U26" s="29"/>
-      <c r="V26" s="29"/>
-      <c r="W26" s="29"/>
-      <c r="X26" s="29"/>
-      <c r="Y26" s="65"/>
-      <c r="Z26" s="68"/>
-      <c r="AA26" s="33"/>
-      <c r="AB26" s="59"/>
+      <c r="A26" s="33"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="33"/>
+      <c r="I26" s="33"/>
+      <c r="J26" s="33"/>
+      <c r="K26" s="33"/>
+      <c r="L26" s="33"/>
+      <c r="M26" s="31"/>
+      <c r="N26" s="59"/>
+      <c r="O26" s="64"/>
+      <c r="P26" s="33"/>
+      <c r="Q26" s="33"/>
+      <c r="R26" s="33"/>
+      <c r="S26" s="33"/>
+      <c r="T26" s="33"/>
+      <c r="U26" s="33"/>
+      <c r="V26" s="33"/>
+      <c r="W26" s="33"/>
+      <c r="X26" s="33"/>
+      <c r="Y26" s="67"/>
+      <c r="Z26" s="70"/>
+      <c r="AA26" s="31"/>
+      <c r="AB26" s="61"/>
     </row>
     <row r="27" spans="1:28">
-      <c r="A27" s="30"/>
-      <c r="B27" s="30"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="30"/>
-      <c r="I27" s="30"/>
-      <c r="J27" s="30"/>
-      <c r="K27" s="30"/>
-      <c r="L27" s="30"/>
-      <c r="M27" s="33"/>
-      <c r="N27" s="70"/>
-      <c r="O27" s="63"/>
-      <c r="P27" s="30"/>
-      <c r="Q27" s="30"/>
-      <c r="R27" s="30"/>
-      <c r="S27" s="30"/>
-      <c r="T27" s="30"/>
-      <c r="U27" s="30"/>
-      <c r="V27" s="30"/>
-      <c r="W27" s="30"/>
-      <c r="X27" s="30"/>
-      <c r="Y27" s="65"/>
-      <c r="Z27" s="68"/>
-      <c r="AA27" s="33"/>
-      <c r="AB27" s="59"/>
+      <c r="A27" s="34"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="34"/>
+      <c r="I27" s="34"/>
+      <c r="J27" s="34"/>
+      <c r="K27" s="34"/>
+      <c r="L27" s="34"/>
+      <c r="M27" s="31"/>
+      <c r="N27" s="59"/>
+      <c r="O27" s="65"/>
+      <c r="P27" s="34"/>
+      <c r="Q27" s="34"/>
+      <c r="R27" s="34"/>
+      <c r="S27" s="34"/>
+      <c r="T27" s="34"/>
+      <c r="U27" s="34"/>
+      <c r="V27" s="34"/>
+      <c r="W27" s="34"/>
+      <c r="X27" s="34"/>
+      <c r="Y27" s="67"/>
+      <c r="Z27" s="70"/>
+      <c r="AA27" s="31"/>
+      <c r="AB27" s="61"/>
     </row>
     <row r="28" spans="1:28">
       <c r="E28" s="1"/>
@@ -7204,60 +7414,60 @@
       <c r="K28" s="2"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
-      <c r="N28" s="70"/>
+      <c r="N28" s="59"/>
       <c r="R28" s="2"/>
       <c r="S28" s="2"/>
       <c r="T28" s="2"/>
       <c r="U28" s="1"/>
       <c r="X28" s="2"/>
-      <c r="Y28" s="65"/>
-      <c r="Z28" s="68"/>
-      <c r="AA28" s="33"/>
-      <c r="AB28" s="59"/>
+      <c r="Y28" s="67"/>
+      <c r="Z28" s="70"/>
+      <c r="AA28" s="31"/>
+      <c r="AB28" s="61"/>
     </row>
     <row r="29" spans="1:28">
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="J29" s="17" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="K29" s="17" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
-      <c r="N29" s="70"/>
+      <c r="N29" s="59"/>
       <c r="R29" s="2"/>
       <c r="S29" s="17" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="U29" s="17" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="X29" s="2"/>
-      <c r="Y29" s="66"/>
-      <c r="Z29" s="69"/>
-      <c r="AA29" s="33"/>
-      <c r="AB29" s="60"/>
+      <c r="Y29" s="68"/>
+      <c r="Z29" s="71"/>
+      <c r="AA29" s="31"/>
+      <c r="AB29" s="62"/>
     </row>
     <row r="30" spans="1:28" ht="202.5">
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="J30" s="20" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="K30" s="24" t="s">
-        <v>272</v>
+        <v>258</v>
       </c>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
-      <c r="N30" s="70"/>
+      <c r="N30" s="59"/>
       <c r="R30" s="2"/>
       <c r="S30" s="25" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="U30" s="20" t="s">
-        <v>278</v>
+        <v>264</v>
       </c>
       <c r="X30" s="2"/>
     </row>
@@ -7445,6 +7655,25 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="AB21:AB23"/>
+    <mergeCell ref="AB24:AB29"/>
+    <mergeCell ref="S24:S27"/>
+    <mergeCell ref="E21:X23"/>
+    <mergeCell ref="V24:V27"/>
+    <mergeCell ref="W24:W27"/>
+    <mergeCell ref="E24:E27"/>
+    <mergeCell ref="H24:H27"/>
+    <mergeCell ref="O24:O27"/>
+    <mergeCell ref="Y21:Z23"/>
+    <mergeCell ref="Y24:Y29"/>
+    <mergeCell ref="Z24:Z29"/>
+    <mergeCell ref="AA24:AA29"/>
+    <mergeCell ref="AA21:AA23"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="C24:C27"/>
     <mergeCell ref="D24:D27"/>
     <mergeCell ref="A4:F4"/>
     <mergeCell ref="X24:X27"/>
@@ -7461,25 +7690,6 @@
     <mergeCell ref="L24:L27"/>
     <mergeCell ref="R24:R27"/>
     <mergeCell ref="G24:G27"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="C24:C27"/>
-    <mergeCell ref="AB21:AB23"/>
-    <mergeCell ref="AB24:AB29"/>
-    <mergeCell ref="S24:S27"/>
-    <mergeCell ref="E21:X23"/>
-    <mergeCell ref="V24:V27"/>
-    <mergeCell ref="W24:W27"/>
-    <mergeCell ref="E24:E27"/>
-    <mergeCell ref="H24:H27"/>
-    <mergeCell ref="O24:O27"/>
-    <mergeCell ref="Y21:Z23"/>
-    <mergeCell ref="Y24:Y29"/>
-    <mergeCell ref="Z24:Z29"/>
-    <mergeCell ref="AA24:AA29"/>
-    <mergeCell ref="AA21:AA23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -7493,9 +7703,7 @@
   </sheetPr>
   <dimension ref="A2:H28"/>
   <sheetViews>
-    <sheetView topLeftCell="C4" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
@@ -7511,55 +7719,55 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="21">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="31"/>
+      <c r="B2" s="30"/>
       <c r="C2" s="3" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="21">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="31"/>
+      <c r="B3" s="30"/>
       <c r="C3" s="3" t="s">
-        <v>303</v>
+        <v>286</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="13" customFormat="1">
       <c r="A6" s="15" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C6" s="14" t="s">
         <v>22</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F6" s="14" t="s">
         <v>23</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>2</v>
@@ -7568,13 +7776,13 @@
         <v>0</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>25</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>1</v>
@@ -7582,10 +7790,10 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>3</v>
@@ -7594,13 +7802,13 @@
         <v>0</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>1</v>
@@ -7608,10 +7816,10 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>4</v>
@@ -7620,13 +7828,13 @@
         <v>0</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>1</v>
@@ -7634,10 +7842,10 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>4</v>
@@ -7646,13 +7854,13 @@
         <v>1</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>1</v>
@@ -7660,10 +7868,10 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>4</v>
@@ -7672,13 +7880,13 @@
         <v>0</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>1</v>
@@ -7686,10 +7894,10 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>4</v>
@@ -7698,13 +7906,13 @@
         <v>0</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>1</v>
@@ -7712,10 +7920,10 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>4</v>
@@ -7724,13 +7932,13 @@
         <v>1</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>1</v>
@@ -7738,10 +7946,10 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>4</v>
@@ -7750,13 +7958,13 @@
         <v>0</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>1</v>
@@ -7764,10 +7972,10 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>4</v>
@@ -7776,13 +7984,13 @@
         <v>2</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>1</v>
@@ -7790,137 +7998,142 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="B19" s="41" t="s">
-        <v>301</v>
-      </c>
-      <c r="C19" s="41"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="41" t="s">
-        <v>304</v>
-      </c>
-      <c r="G19" s="41" t="s">
-        <v>302</v>
-      </c>
-      <c r="H19" s="41"/>
+      <c r="B19" s="43" t="s">
+        <v>408</v>
+      </c>
+      <c r="C19" s="43"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="43" t="s">
+        <v>287</v>
+      </c>
+      <c r="G19" s="43" t="s">
+        <v>409</v>
+      </c>
+      <c r="H19" s="43"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="B20" s="41"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="53"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="41"/>
+      <c r="B20" s="43"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="43"/>
+      <c r="H20" s="43"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="B21" s="41"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="53"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="41"/>
+      <c r="B21" s="43"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="43"/>
     </row>
     <row r="22" spans="1:8" ht="11.25" customHeight="1">
-      <c r="A22" s="54" t="s">
-        <v>162</v>
-      </c>
-      <c r="B22" s="28" t="s">
-        <v>297</v>
-      </c>
-      <c r="C22" s="28" t="s">
-        <v>295</v>
-      </c>
-      <c r="D22" s="28" t="s">
-        <v>296</v>
-      </c>
-      <c r="E22" s="28" t="s">
-        <v>298</v>
-      </c>
-      <c r="F22" s="71" t="s">
-        <v>305</v>
-      </c>
-      <c r="G22" s="28" t="s">
-        <v>299</v>
-      </c>
-      <c r="H22" s="28" t="s">
-        <v>300</v>
+      <c r="A22" s="45" t="s">
+        <v>154</v>
+      </c>
+      <c r="B22" s="32" t="s">
+        <v>282</v>
+      </c>
+      <c r="C22" s="32" t="s">
+        <v>280</v>
+      </c>
+      <c r="D22" s="32" t="s">
+        <v>281</v>
+      </c>
+      <c r="E22" s="32" t="s">
+        <v>283</v>
+      </c>
+      <c r="F22" s="72" t="s">
+        <v>288</v>
+      </c>
+      <c r="G22" s="32" t="s">
+        <v>284</v>
+      </c>
+      <c r="H22" s="32" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="55"/>
-      <c r="B23" s="29"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="72"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="29"/>
+      <c r="A23" s="46"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="73"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="33"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="56"/>
-      <c r="B24" s="29"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="72"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="29"/>
+      <c r="A24" s="47"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="73"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="33"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="B25" s="29"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="73"/>
-      <c r="G25" s="30"/>
-      <c r="H25" s="30"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="74"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="34"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="B26" s="30"/>
+      <c r="B26" s="34"/>
     </row>
     <row r="27" spans="1:8">
       <c r="H27" s="17" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="101.25">
-      <c r="F28" s="27" t="s">
-        <v>306</v>
+      <c r="F28" s="26" t="s">
+        <v>289</v>
       </c>
       <c r="G28" s="16"/>
       <c r="H28" s="18" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="F19:F21"/>
     <mergeCell ref="H22:H25"/>
     <mergeCell ref="B19:E21"/>
     <mergeCell ref="G19:H21"/>
@@ -7929,11 +8142,6 @@
     <mergeCell ref="D22:D25"/>
     <mergeCell ref="E22:E25"/>
     <mergeCell ref="G22:G25"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="B22:B26"/>
-    <mergeCell ref="F19:F21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -7954,7 +8162,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:5">
-      <c r="C2" s="74" t="s">
+      <c r="C2" s="27" t="s">
         <v>10</v>
       </c>
       <c r="E2" t="str">
@@ -7963,8 +8171,8 @@
       </c>
     </row>
     <row r="3" spans="3:5">
-      <c r="C3" s="74" t="s">
-        <v>47</v>
+      <c r="C3" s="27" t="s">
+        <v>39</v>
       </c>
       <c r="E3" t="str">
         <f t="shared" ref="E3:E32" si="0">CONCATENATE(C3,", ")</f>
@@ -7972,8 +8180,8 @@
       </c>
     </row>
     <row r="4" spans="3:5">
-      <c r="C4" s="74" t="s">
-        <v>33</v>
+      <c r="C4" s="27" t="s">
+        <v>32</v>
       </c>
       <c r="E4" t="str">
         <f t="shared" si="0"/>
@@ -7981,8 +8189,8 @@
       </c>
     </row>
     <row r="5" spans="3:5">
-      <c r="C5" s="74" t="s">
-        <v>46</v>
+      <c r="C5" s="27" t="s">
+        <v>38</v>
       </c>
       <c r="E5" t="str">
         <f t="shared" si="0"/>
@@ -7990,7 +8198,7 @@
       </c>
     </row>
     <row r="6" spans="3:5">
-      <c r="C6" s="74" t="s">
+      <c r="C6" s="27" t="s">
         <v>17</v>
       </c>
       <c r="E6" t="str">
@@ -7999,7 +8207,7 @@
       </c>
     </row>
     <row r="7" spans="3:5">
-      <c r="C7" s="74" t="s">
+      <c r="C7" s="27" t="s">
         <v>22</v>
       </c>
       <c r="E7" t="str">
@@ -8008,7 +8216,7 @@
       </c>
     </row>
     <row r="8" spans="3:5">
-      <c r="C8" s="74" t="s">
+      <c r="C8" s="27" t="s">
         <v>23</v>
       </c>
       <c r="E8" t="str">
@@ -8017,7 +8225,7 @@
       </c>
     </row>
     <row r="9" spans="3:5">
-      <c r="C9" s="74" t="s">
+      <c r="C9" s="27" t="s">
         <v>18</v>
       </c>
       <c r="E9" t="str">
@@ -8026,7 +8234,7 @@
       </c>
     </row>
     <row r="10" spans="3:5">
-      <c r="C10" s="74" t="s">
+      <c r="C10" s="27" t="s">
         <v>24</v>
       </c>
       <c r="E10" t="str">
@@ -8035,8 +8243,8 @@
       </c>
     </row>
     <row r="11" spans="3:5">
-      <c r="C11" s="74" t="s">
-        <v>350</v>
+      <c r="C11" s="27" t="s">
+        <v>333</v>
       </c>
       <c r="E11" t="str">
         <f t="shared" si="0"/>
@@ -8044,8 +8252,8 @@
       </c>
     </row>
     <row r="12" spans="3:5">
-      <c r="C12" s="74" t="s">
-        <v>351</v>
+      <c r="C12" s="27" t="s">
+        <v>334</v>
       </c>
       <c r="E12" t="str">
         <f t="shared" si="0"/>
@@ -8053,8 +8261,8 @@
       </c>
     </row>
     <row r="13" spans="3:5">
-      <c r="C13" s="74" t="s">
-        <v>352</v>
+      <c r="C13" s="27" t="s">
+        <v>335</v>
       </c>
       <c r="E13" t="str">
         <f t="shared" si="0"/>
@@ -8062,8 +8270,8 @@
       </c>
     </row>
     <row r="14" spans="3:5">
-      <c r="C14" s="74" t="s">
-        <v>353</v>
+      <c r="C14" s="27" t="s">
+        <v>336</v>
       </c>
       <c r="E14" t="str">
         <f t="shared" si="0"/>
@@ -8071,8 +8279,8 @@
       </c>
     </row>
     <row r="15" spans="3:5">
-      <c r="C15" s="74" t="s">
-        <v>354</v>
+      <c r="C15" s="27" t="s">
+        <v>337</v>
       </c>
       <c r="E15" t="str">
         <f t="shared" si="0"/>
@@ -8080,8 +8288,8 @@
       </c>
     </row>
     <row r="16" spans="3:5">
-      <c r="C16" s="74" t="s">
-        <v>355</v>
+      <c r="C16" s="27" t="s">
+        <v>338</v>
       </c>
       <c r="E16" t="str">
         <f t="shared" si="0"/>
@@ -8089,8 +8297,8 @@
       </c>
     </row>
     <row r="17" spans="3:5">
-      <c r="C17" s="74" t="s">
-        <v>356</v>
+      <c r="C17" s="27" t="s">
+        <v>339</v>
       </c>
       <c r="E17" t="str">
         <f t="shared" si="0"/>
@@ -8117,7 +8325,7 @@
     </row>
     <row r="20" spans="3:5">
       <c r="C20" s="14" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="E20" t="str">
         <f t="shared" si="0"/>
@@ -8135,7 +8343,7 @@
     </row>
     <row r="22" spans="3:5">
       <c r="C22" s="14" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="E22" t="str">
         <f t="shared" si="0"/>
@@ -8144,7 +8352,7 @@
     </row>
     <row r="23" spans="3:5">
       <c r="C23" s="14" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="E23" t="str">
         <f t="shared" si="0"/>
@@ -8153,7 +8361,7 @@
     </row>
     <row r="24" spans="3:5">
       <c r="C24" s="14" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="E24" t="str">
         <f t="shared" si="0"/>
@@ -8162,7 +8370,7 @@
     </row>
     <row r="25" spans="3:5">
       <c r="C25" s="14" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="E25" t="str">
         <f t="shared" si="0"/>
@@ -8171,7 +8379,7 @@
     </row>
     <row r="26" spans="3:5">
       <c r="C26" s="14" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="E26" t="str">
         <f t="shared" si="0"/>
@@ -8180,7 +8388,7 @@
     </row>
     <row r="27" spans="3:5">
       <c r="C27" s="14" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="E27" t="str">
         <f t="shared" si="0"/>
@@ -8189,7 +8397,7 @@
     </row>
     <row r="28" spans="3:5">
       <c r="C28" s="14" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="E28" t="str">
         <f t="shared" si="0"/>

--- a/Documentação/Planilhas/Conferencia_CAR.xlsx
+++ b/Documentação/Planilhas/Conferencia_CAR.xlsx
@@ -4,25 +4,27 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" tabRatio="812" firstSheet="3" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" tabRatio="812"/>
   </bookViews>
   <sheets>
     <sheet name="Resumo" sheetId="93" r:id="rId1"/>
-    <sheet name="stg_car_remessa" sheetId="95" r:id="rId2"/>
-    <sheet name="stg_car_remessa_cobr_eletronica" sheetId="96" r:id="rId3"/>
-    <sheet name="stg_car_retorno_cobr_eletronica" sheetId="97" r:id="rId4"/>
-    <sheet name="stg_car_pedido_venda" sheetId="102" r:id="rId5"/>
+    <sheet name="stg_car_pedido_venda" sheetId="102" r:id="rId2"/>
+    <sheet name="stg_car_remessa" sheetId="95" r:id="rId3"/>
+    <sheet name="stg_car_remessa_cobr_eletronica" sheetId="96" r:id="rId4"/>
+    <sheet name="stg_car_retorno_cobr_eletronica" sheetId="97" r:id="rId5"/>
     <sheet name="stg_car_titulo" sheetId="98" r:id="rId6"/>
     <sheet name="stg_car_titulo_mvmto" sheetId="99" r:id="rId7"/>
-    <sheet name="stg_car_titulo_remessa" sheetId="100" r:id="rId8"/>
-    <sheet name="Plan6" sheetId="101" r:id="rId9"/>
+    <sheet name="stg_car_titulo_parcelamento" sheetId="104" r:id="rId8"/>
+    <sheet name="stg_car_titulo_remessa" sheetId="100" r:id="rId9"/>
+    <sheet name="stg_car_vpc" sheetId="103" r:id="rId10"/>
+    <sheet name="Plan6" sheetId="101" r:id="rId11"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1315" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1799" uniqueCount="591">
   <si>
     <t>1</t>
   </si>
@@ -1248,9 +1250,6 @@
     <t>Pegar a informação da terceira lacuna da coluna "No da Fatura"</t>
   </si>
   <si>
-    <t>Na tabela tfcmg940 todos os registros estão com o campo t$bank$l alimentado como 100</t>
-  </si>
-  <si>
     <t>Na tabela tfcmg940 todos os registros estão com o campo t$acco$l alimentado como 00005574 ou 5574</t>
   </si>
   <si>
@@ -1327,13 +1326,547 @@
   </si>
   <si>
     <t>Sessão tfcmgl504m00l (Documentos de Saída EBF)</t>
+  </si>
+  <si>
+    <t>Na tabela tfcmg948 todos os registros estão com o campo t$bank$l alimentado como 100</t>
+  </si>
+  <si>
+    <t>dbo.stg_car_vpc</t>
+  </si>
+  <si>
+    <t>NR_CONTRATO</t>
+  </si>
+  <si>
+    <t>NR_SEQ</t>
+  </si>
+  <si>
+    <t>NR_FLAG_CANCELAMENTO</t>
+  </si>
+  <si>
+    <t>NR_CNPJ_CPF</t>
+  </si>
+  <si>
+    <t>CD_STATUS</t>
+  </si>
+  <si>
+    <t>NR_REFERENCIA_FISCAL</t>
+  </si>
+  <si>
+    <t>VL_VPC</t>
+  </si>
+  <si>
+    <t>DS_USUARIO_ULTIMA_ALTERACAO</t>
+  </si>
+  <si>
+    <t>NR_CNPJ_FILIAL</t>
+  </si>
+  <si>
+    <t>DT_INICIAL</t>
+  </si>
+  <si>
+    <t>DT_FINAL</t>
+  </si>
+  <si>
+    <t>CD_METODO_PAGAMENTO</t>
+  </si>
+  <si>
+    <t>CD_DEPARTAMENTO</t>
+  </si>
+  <si>
+    <t>CD_SETOR</t>
+  </si>
+  <si>
+    <t>CD_FAMILIA</t>
+  </si>
+  <si>
+    <t>CD_SUB_FAMILIA</t>
+  </si>
+  <si>
+    <t>DS_FLAG_PEDIDO_BONIFICADO</t>
+  </si>
+  <si>
+    <t>CD_MODALIDADE_VPC</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>000000097</t>
+  </si>
+  <si>
+    <t>48740351005710</t>
+  </si>
+  <si>
+    <t>F20002366</t>
+  </si>
+  <si>
+    <t>RVB5</t>
+  </si>
+  <si>
+    <t>4000.0000</t>
+  </si>
+  <si>
+    <t>rsantos</t>
+  </si>
+  <si>
+    <t>9358108000397</t>
+  </si>
+  <si>
+    <t>2014-05-31 21:00:00.000</t>
+  </si>
+  <si>
+    <t>2014-06-29 21:00:00.000</t>
+  </si>
+  <si>
+    <t>2014-06-30 21:00:00.000</t>
+  </si>
+  <si>
+    <t>2014-06-24 16:15:36.000</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>F20002435</t>
+  </si>
+  <si>
+    <t>RVB6</t>
+  </si>
+  <si>
+    <t>2014-06-26 17:48:31.000</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>F20002437</t>
+  </si>
+  <si>
+    <t>RVB7</t>
+  </si>
+  <si>
+    <t>2014-06-26 18:48:54.000</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>F20002438</t>
+  </si>
+  <si>
+    <t>RVB8</t>
+  </si>
+  <si>
+    <t>2014-06-26 18:49:14.000</t>
+  </si>
+  <si>
+    <t>000002412</t>
+  </si>
+  <si>
+    <t>9353698000101</t>
+  </si>
+  <si>
+    <t>F20002919</t>
+  </si>
+  <si>
+    <t>RVB31</t>
+  </si>
+  <si>
+    <t>0.8800</t>
+  </si>
+  <si>
+    <t>antunes</t>
+  </si>
+  <si>
+    <t>9358108000478</t>
+  </si>
+  <si>
+    <t>2014-07-02 21:00:00.000</t>
+  </si>
+  <si>
+    <t>2014-07-30 21:00:00.000</t>
+  </si>
+  <si>
+    <t>2014-08-01 21:00:00.000</t>
+  </si>
+  <si>
+    <t>VBL</t>
+  </si>
+  <si>
+    <t>2222</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>2014-07-09 10:55:07.000</t>
+  </si>
+  <si>
+    <t>403</t>
+  </si>
+  <si>
+    <t>000001743</t>
+  </si>
+  <si>
+    <t>57485542000119</t>
+  </si>
+  <si>
+    <t>F20002648</t>
+  </si>
+  <si>
+    <t>RVB9</t>
+  </si>
+  <si>
+    <t>0.4400</t>
+  </si>
+  <si>
+    <t>9358108000206</t>
+  </si>
+  <si>
+    <t>2014-06-26 21:00:00.000</t>
+  </si>
+  <si>
+    <t>2014-08-10 21:00:00.000</t>
+  </si>
+  <si>
+    <t>2014-07-01 20:37:30.000</t>
+  </si>
+  <si>
+    <t>428</t>
+  </si>
+  <si>
+    <t>F20002734</t>
+  </si>
+  <si>
+    <t>RVB10</t>
+  </si>
+  <si>
+    <t>10.0000</t>
+  </si>
+  <si>
+    <t>2014-07-01 21:00:00.000</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>2014-07-03 14:52:46.000</t>
+  </si>
+  <si>
+    <t>429</t>
+  </si>
+  <si>
+    <t>F20002735</t>
+  </si>
+  <si>
+    <t>RVB11</t>
+  </si>
+  <si>
+    <t>2014-07-03 14:53:00.000</t>
+  </si>
+  <si>
+    <t>430</t>
+  </si>
+  <si>
+    <t>F20002736</t>
+  </si>
+  <si>
+    <t>RVB12</t>
+  </si>
+  <si>
+    <t>2014-07-03 14:58:53.000</t>
+  </si>
+  <si>
+    <t>434</t>
+  </si>
+  <si>
+    <t>F20002743</t>
+  </si>
+  <si>
+    <t>RVB14</t>
+  </si>
+  <si>
+    <t>2014-07-03 16:11:20.000</t>
+  </si>
+  <si>
+    <t>stg_car_titulo_vpc</t>
+  </si>
+  <si>
+    <t>Sessão "znrecc507m000" (Interface Intranet VPC/ERP LN) - Informar o NR_CONTRATO na coluna "Número do Contrato"</t>
+  </si>
+  <si>
+    <t>Pegar a informação da coluna "Número do Contrato"</t>
+  </si>
+  <si>
+    <t>Pegar a informação da coluna "Sequência"</t>
+  </si>
+  <si>
+    <t>Pegar a informação da coluna "Cancelamento" (Se tiver selecionada, retornará 1. Caso contrário, retornará 2)</t>
+  </si>
+  <si>
+    <t>Pegar a informação da coluna "CNPJ Fornecedor" (desconsiderando a "/" ,"." e "-")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pegar a primeira informação da coluna "Parceiro de Negócio" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pegar a informação da coluna "Status" </t>
+  </si>
+  <si>
+    <t>2-Processado</t>
+  </si>
+  <si>
+    <t>3-Erro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pegar a informação da coluna "Referência Fiscal" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pegar a informação das colunas "Tipo de Transação" e "Documento" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pegar a informação da coluna "Valor VPC" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pegar a informação da coluna "Login da última alteração" </t>
+  </si>
+  <si>
+    <t>Pegar a informação da coluna "CNPJ Filial" (desconsiderando zeros a esquerda, a "/" ,"." e "-")</t>
+  </si>
+  <si>
+    <t>Pegar a informação da coluna "Data Inicial"</t>
+  </si>
+  <si>
+    <t>Pegar a informação da coluna "Data Final"</t>
+  </si>
+  <si>
+    <t>Pegar a informação da coluna "Data Vencimento"</t>
+  </si>
+  <si>
+    <t>Pegar a informação da coluna "Método de Pagamento"</t>
+  </si>
+  <si>
+    <t>Pegar a informação da coluna "Departamento"</t>
+  </si>
+  <si>
+    <t>Pegar a informação da coluna "Setor"</t>
+  </si>
+  <si>
+    <t>Pegar a informação da coluna "Familia"</t>
+  </si>
+  <si>
+    <t>Pegar a informação da coluna "Sub Familia"</t>
+  </si>
+  <si>
+    <t>Pegar a informação da coluna "Pedido Bonificado" [Selecionado retornará1. Sem selecionar, retornará 0]</t>
+  </si>
+  <si>
+    <t>Pegar a informação da coluna "Modalidade VPC"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pegar a informação da coluna "Dt última alteração" </t>
+  </si>
+  <si>
+    <t>znrecc507m000</t>
+  </si>
+  <si>
+    <t>dbo.stg_car_titulo_parcelamento</t>
+  </si>
+  <si>
+    <t>stg_car_titulo_parcelamento</t>
+  </si>
+  <si>
+    <t>NR_PARCELA</t>
+  </si>
+  <si>
+    <t>VL_PARCELA</t>
+  </si>
+  <si>
+    <t>DT_VENCTO_ORIGINAL</t>
+  </si>
+  <si>
+    <t>VL_RECEBIDO</t>
+  </si>
+  <si>
+    <t>FAT127</t>
+  </si>
+  <si>
+    <t>422.0600</t>
+  </si>
+  <si>
+    <t>2013-10-25 00:00:00.000</t>
+  </si>
+  <si>
+    <t>DEV2</t>
+  </si>
+  <si>
+    <t>-100.0000</t>
+  </si>
+  <si>
+    <t>PAE</t>
+  </si>
+  <si>
+    <t>2013-11-25 00:00:00.000</t>
+  </si>
+  <si>
+    <t>2014-08-15 12:56:32.000</t>
+  </si>
+  <si>
+    <t>FAT200</t>
+  </si>
+  <si>
+    <t>1000.0000</t>
+  </si>
+  <si>
+    <t>2013-12-18 00:00:00.000</t>
+  </si>
+  <si>
+    <t>2014-07-12 11:40:35.000</t>
+  </si>
+  <si>
+    <t>FAT202</t>
+  </si>
+  <si>
+    <t>300.0000</t>
+  </si>
+  <si>
+    <t>BOC</t>
+  </si>
+  <si>
+    <t>2014-07-12 11:31:40.000</t>
+  </si>
+  <si>
+    <t>FAT204</t>
+  </si>
+  <si>
+    <t>2014-07-12 11:31:42.000</t>
+  </si>
+  <si>
+    <t>DEV3</t>
+  </si>
+  <si>
+    <t>2013-12-19 00:00:00.000</t>
+  </si>
+  <si>
+    <t>FAT326</t>
+  </si>
+  <si>
+    <t>100.0000</t>
+  </si>
+  <si>
+    <t>2014-03-30 00:00:00.000</t>
+  </si>
+  <si>
+    <t>2014-02-28 17:58:39.000</t>
+  </si>
+  <si>
+    <t>FAT339</t>
+  </si>
+  <si>
+    <t>2014-04-09 00:00:00.000</t>
+  </si>
+  <si>
+    <t>2014-03-10 11:44:02.000</t>
+  </si>
+  <si>
+    <t>FAT373</t>
+  </si>
+  <si>
+    <t>303.0000</t>
+  </si>
+  <si>
+    <t>2014-04-16 00:00:00.000</t>
+  </si>
+  <si>
+    <t>2014-03-17 13:33:17.000</t>
+  </si>
+  <si>
+    <t>FAT374</t>
+  </si>
+  <si>
+    <t>299.9900</t>
+  </si>
+  <si>
+    <t>2014-03-17 13:33:43.000</t>
+  </si>
+  <si>
+    <t>Sessão "tfacrl504m00l" (Agenda de Recebimento por Parcela)</t>
+  </si>
+  <si>
+    <t>Pegar a informação da primeira e segunda lacuna da coluna "Nº Documento"</t>
+  </si>
+  <si>
+    <t>Pegar a informação da terceira lacuna da coluna "Nº Documento"</t>
+  </si>
+  <si>
+    <t>Pegar a informação da coluna "Valor da Transação"</t>
+  </si>
+  <si>
+    <t>Pegar a informação da coluna "Método Receb."</t>
+  </si>
+  <si>
+    <t>Pegar a informação da coluna "Status"</t>
+  </si>
+  <si>
+    <t>2-Selecionado</t>
+  </si>
+  <si>
+    <t>3-Parciamente pago</t>
+  </si>
+  <si>
+    <t>4-Pago</t>
+  </si>
+  <si>
+    <t>5-Descontado</t>
+  </si>
+  <si>
+    <t>6-Protestado</t>
+  </si>
+  <si>
+    <t>8-Caucionado</t>
+  </si>
+  <si>
+    <t>9-Jurídico</t>
+  </si>
+  <si>
+    <t>Pegar a informação da coluna "Data de Vencimento"</t>
+  </si>
+  <si>
+    <t>Fazer o detalhamento do documento desejado. Na aba superior "Geral", seção "Detalhes da Programação", pegar a informação do "Vencimento Original"</t>
+  </si>
+  <si>
+    <t>Fazer o detalhamento do documento desejado. Na aba superior "Geral", seção "Detalhes da Programação", pegar a informação do "Valor Recebido"</t>
+  </si>
+  <si>
+    <t>Fazer o detalhamento do documento desejado. Na aba superior "Geral", seção "Detalhes da Programação", pegar a informação do "Saldo em Moeda da Fatura"</t>
+  </si>
+  <si>
+    <t>Fazer o detalhamento do documento desejado. Na aba superior "Geral", seção "Detalhes da Programação", pegar a informação de "Rel. Bancária"</t>
+  </si>
+  <si>
+    <t>A view está buscando o campo "rcd_utc" da tabela "tfacr201". Este campo não aparece nas telas do LN para podermos realizar a conferência</t>
+  </si>
+  <si>
+    <t>Sessão "tfcmg0510m000" (Relações Bancárias)</t>
+  </si>
+  <si>
+    <t>Informar o CD_BANCO na coluna "Banco". Pegar a informação da coluna "Conta Bancária". Aproveitar e pegar a informação do coluna "Filial/Bco" para buscar o NR_AGENCIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sessão "tfcmg0511m000" (Agências Bancárias) </t>
+  </si>
+  <si>
+    <t>Informar o código "Filial/Bco" na coluna "Cód da Agência Bancária". Pegar a informação da coluna "Agência"</t>
+  </si>
+  <si>
+    <t>tfacrl504m00l, tfcmg0510m000 e tfcmg0511m000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1403,6 +1936,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -1448,7 +1987,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -1691,6 +2230,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1699,7 +2251,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1771,14 +2323,27 @@
     <xf numFmtId="49" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1789,8 +2354,11 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1810,26 +2378,35 @@
     <xf numFmtId="49" fontId="6" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1861,7 +2438,22 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1900,6 +2492,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1909,44 +2504,11 @@
     <xf numFmtId="49" fontId="1" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2251,11 +2813,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:C8"/>
+  <dimension ref="B1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -2273,25 +2833,25 @@
     </row>
     <row r="2" spans="2:3">
       <c r="B2" s="8" t="s">
-        <v>30</v>
+        <v>406</v>
       </c>
       <c r="C2" s="7"/>
     </row>
     <row r="3" spans="2:3">
       <c r="B3" s="8" t="s">
-        <v>406</v>
+        <v>30</v>
       </c>
       <c r="C3" s="7"/>
     </row>
     <row r="4" spans="2:3">
       <c r="B4" s="8" t="s">
-        <v>203</v>
+        <v>405</v>
       </c>
       <c r="C4" s="7"/>
     </row>
     <row r="5" spans="2:3">
       <c r="B5" s="8" t="s">
-        <v>407</v>
+        <v>203</v>
       </c>
       <c r="C5" s="7"/>
     </row>
@@ -2308,26 +2868,1931 @@
       <c r="C7" s="7"/>
     </row>
     <row r="8" spans="2:3">
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="8" t="s">
+        <v>528</v>
+      </c>
+      <c r="C8" s="7"/>
+    </row>
+    <row r="9" spans="2:3">
+      <c r="B9" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="C8" s="9"/>
+      <c r="C9" s="32"/>
+    </row>
+    <row r="10" spans="2:3">
+      <c r="B10" s="10" t="s">
+        <v>500</v>
+      </c>
+      <c r="C10" s="9"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" location="stg_car_remessa!A1" display="stg_car_remessa"/>
-    <hyperlink ref="B3" location="stg_car_remessa_cobr_eletronica!A1" display="stg_car_remessa_cobanca_eletronica"/>
-    <hyperlink ref="B4" location="stg_car_retorno_cobr_eletronica!A1" display="stg_car_retorno_cobranca_eletronica"/>
+    <hyperlink ref="B3" location="stg_car_remessa!A1" display="stg_car_remessa"/>
+    <hyperlink ref="B4" location="stg_car_remessa_cobr_eletronica!A1" display="stg_car_remessa_cobanca_eletronica"/>
+    <hyperlink ref="B5" location="stg_car_retorno_cobr_eletronica!A1" display="stg_car_retorno_cobranca_eletronica"/>
     <hyperlink ref="B6" location="stg_car_titulo!A1" display="stg_car_titulo"/>
     <hyperlink ref="B7" location="stg_car_titulo_mvmto!A1" display="stg_car_titulo_mvmto"/>
-    <hyperlink ref="B8" location="stg_car_titulo_remessa!A1" display="stg_car_titulo_remessa"/>
-    <hyperlink ref="B5" location="stg_car_pedido_venda!A1" display="stg_car_pedido_venda"/>
+    <hyperlink ref="B10" location="stg_car_vpc!A1" display="stg_car_titulo_vpc"/>
+    <hyperlink ref="B2" location="stg_car_pedido_venda!A1" display="stg_car_pedido_venda"/>
+    <hyperlink ref="B9" location="stg_car_titulo_remessa!A1" display="stg_car_titulo_remessa"/>
+    <hyperlink ref="B8" location="stg_car_titulo_parcelamento!A1" display="stg_car_titul_parcelamento"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="A2:V33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="11.25"/>
+  <cols>
+    <col min="1" max="1" width="20.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="23.28515625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="22.5703125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="21.28515625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="20.7109375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="19.5703125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="21" style="2" customWidth="1"/>
+    <col min="11" max="11" width="25.42578125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="21.5703125" style="2" customWidth="1"/>
+    <col min="13" max="15" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.7109375" style="2" customWidth="1"/>
+    <col min="18" max="18" width="17.28515625" style="2" customWidth="1"/>
+    <col min="19" max="19" width="16.140625" style="2" customWidth="1"/>
+    <col min="20" max="20" width="16.5703125" style="2" customWidth="1"/>
+    <col min="21" max="21" width="22" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="20.140625" style="2" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:22" ht="21">
+      <c r="A2" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="35"/>
+      <c r="C2" s="3" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" ht="21">
+      <c r="A3" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="35"/>
+      <c r="C3" s="3" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" s="13" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A6" s="15" t="s">
+        <v>415</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>416</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>417</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>418</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>419</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>420</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" s="14" t="s">
+        <v>421</v>
+      </c>
+      <c r="J6" s="14" t="s">
+        <v>335</v>
+      </c>
+      <c r="K6" s="14" t="s">
+        <v>422</v>
+      </c>
+      <c r="L6" s="14" t="s">
+        <v>423</v>
+      </c>
+      <c r="M6" s="14" t="s">
+        <v>424</v>
+      </c>
+      <c r="N6" s="14" t="s">
+        <v>425</v>
+      </c>
+      <c r="O6" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="P6" s="14" t="s">
+        <v>426</v>
+      </c>
+      <c r="Q6" s="14" t="s">
+        <v>427</v>
+      </c>
+      <c r="R6" s="14" t="s">
+        <v>428</v>
+      </c>
+      <c r="S6" s="14" t="s">
+        <v>429</v>
+      </c>
+      <c r="T6" s="14" t="s">
+        <v>430</v>
+      </c>
+      <c r="U6" s="14" t="s">
+        <v>431</v>
+      </c>
+      <c r="V6" s="14" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
+      <c r="A7" s="28" t="s">
+        <v>433</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>435</v>
+      </c>
+      <c r="E7" s="28" t="s">
+        <v>434</v>
+      </c>
+      <c r="F7" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="G7" s="28" t="s">
+        <v>436</v>
+      </c>
+      <c r="H7" s="28" t="s">
+        <v>437</v>
+      </c>
+      <c r="I7" s="28" t="s">
+        <v>438</v>
+      </c>
+      <c r="J7" s="28" t="s">
+        <v>444</v>
+      </c>
+      <c r="K7" s="28" t="s">
+        <v>439</v>
+      </c>
+      <c r="L7" s="28" t="s">
+        <v>440</v>
+      </c>
+      <c r="M7" s="28" t="s">
+        <v>441</v>
+      </c>
+      <c r="N7" s="28" t="s">
+        <v>442</v>
+      </c>
+      <c r="O7" s="28" t="s">
+        <v>443</v>
+      </c>
+      <c r="P7" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q7" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="R7" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="S7" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="T7" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="U7" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="V7" s="28" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
+      <c r="A8" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="S8" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="T8" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="U8" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="V8" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22">
+      <c r="A9" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="S9" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="T9" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="U9" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="V9" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22">
+      <c r="A10" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="S10" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="T10" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="U10" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="V10" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22">
+      <c r="A11" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="S11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="T11" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="U11" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="V11" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22">
+      <c r="A12" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="R12" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="S12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="T12" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="U12" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="V12" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22">
+      <c r="A13" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="R13" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="S13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="T13" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="U13" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="V13" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22">
+      <c r="A14" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="R14" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="S14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="T14" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="U14" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="V14" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22">
+      <c r="A15" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="R15" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="S15" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="T15" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="U15" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="V15" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22">
+      <c r="A16" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="R16" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="S16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="T16" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="U16" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="V16" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22">
+      <c r="A18" s="90" t="s">
+        <v>501</v>
+      </c>
+      <c r="B18" s="90"/>
+      <c r="C18" s="90"/>
+      <c r="D18" s="90"/>
+      <c r="E18" s="90"/>
+      <c r="F18" s="90"/>
+      <c r="G18" s="90"/>
+      <c r="H18" s="90"/>
+      <c r="I18" s="90"/>
+      <c r="J18" s="90"/>
+      <c r="K18" s="90"/>
+      <c r="L18" s="90"/>
+      <c r="M18" s="90"/>
+      <c r="N18" s="90"/>
+      <c r="O18" s="90"/>
+      <c r="P18" s="90"/>
+      <c r="Q18" s="90"/>
+      <c r="R18" s="90"/>
+      <c r="S18" s="90"/>
+      <c r="T18" s="90"/>
+      <c r="U18" s="90"/>
+      <c r="V18" s="90"/>
+    </row>
+    <row r="19" spans="1:22">
+      <c r="A19" s="90"/>
+      <c r="B19" s="90"/>
+      <c r="C19" s="90"/>
+      <c r="D19" s="90"/>
+      <c r="E19" s="90"/>
+      <c r="F19" s="90"/>
+      <c r="G19" s="90"/>
+      <c r="H19" s="90"/>
+      <c r="I19" s="90"/>
+      <c r="J19" s="90"/>
+      <c r="K19" s="90"/>
+      <c r="L19" s="90"/>
+      <c r="M19" s="90"/>
+      <c r="N19" s="90"/>
+      <c r="O19" s="90"/>
+      <c r="P19" s="90"/>
+      <c r="Q19" s="90"/>
+      <c r="R19" s="90"/>
+      <c r="S19" s="90"/>
+      <c r="T19" s="90"/>
+      <c r="U19" s="90"/>
+      <c r="V19" s="90"/>
+    </row>
+    <row r="20" spans="1:22">
+      <c r="A20" s="90"/>
+      <c r="B20" s="90"/>
+      <c r="C20" s="90"/>
+      <c r="D20" s="90"/>
+      <c r="E20" s="90"/>
+      <c r="F20" s="90"/>
+      <c r="G20" s="90"/>
+      <c r="H20" s="90"/>
+      <c r="I20" s="90"/>
+      <c r="J20" s="90"/>
+      <c r="K20" s="90"/>
+      <c r="L20" s="90"/>
+      <c r="M20" s="90"/>
+      <c r="N20" s="90"/>
+      <c r="O20" s="90"/>
+      <c r="P20" s="90"/>
+      <c r="Q20" s="90"/>
+      <c r="R20" s="90"/>
+      <c r="S20" s="90"/>
+      <c r="T20" s="90"/>
+      <c r="U20" s="90"/>
+      <c r="V20" s="90"/>
+    </row>
+    <row r="21" spans="1:22" ht="11.25" customHeight="1">
+      <c r="A21" s="33" t="s">
+        <v>502</v>
+      </c>
+      <c r="B21" s="33" t="s">
+        <v>503</v>
+      </c>
+      <c r="C21" s="33" t="s">
+        <v>504</v>
+      </c>
+      <c r="D21" s="33" t="s">
+        <v>505</v>
+      </c>
+      <c r="E21" s="33" t="s">
+        <v>506</v>
+      </c>
+      <c r="F21" s="33" t="s">
+        <v>507</v>
+      </c>
+      <c r="G21" s="33" t="s">
+        <v>510</v>
+      </c>
+      <c r="H21" s="33" t="s">
+        <v>511</v>
+      </c>
+      <c r="I21" s="33" t="s">
+        <v>512</v>
+      </c>
+      <c r="J21" s="33" t="s">
+        <v>525</v>
+      </c>
+      <c r="K21" s="33" t="s">
+        <v>513</v>
+      </c>
+      <c r="L21" s="33" t="s">
+        <v>514</v>
+      </c>
+      <c r="M21" s="33" t="s">
+        <v>515</v>
+      </c>
+      <c r="N21" s="33" t="s">
+        <v>516</v>
+      </c>
+      <c r="O21" s="33" t="s">
+        <v>517</v>
+      </c>
+      <c r="P21" s="33" t="s">
+        <v>518</v>
+      </c>
+      <c r="Q21" s="33" t="s">
+        <v>519</v>
+      </c>
+      <c r="R21" s="33" t="s">
+        <v>520</v>
+      </c>
+      <c r="S21" s="33" t="s">
+        <v>521</v>
+      </c>
+      <c r="T21" s="33" t="s">
+        <v>522</v>
+      </c>
+      <c r="U21" s="33" t="s">
+        <v>523</v>
+      </c>
+      <c r="V21" s="33" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22">
+      <c r="A22" s="33"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="33"/>
+      <c r="J22" s="33"/>
+      <c r="K22" s="33"/>
+      <c r="L22" s="33"/>
+      <c r="M22" s="33"/>
+      <c r="N22" s="33"/>
+      <c r="O22" s="33"/>
+      <c r="P22" s="33"/>
+      <c r="Q22" s="33"/>
+      <c r="R22" s="33"/>
+      <c r="S22" s="33"/>
+      <c r="T22" s="33"/>
+      <c r="U22" s="33"/>
+      <c r="V22" s="33"/>
+    </row>
+    <row r="23" spans="1:22">
+      <c r="A23" s="33"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="33"/>
+      <c r="J23" s="33"/>
+      <c r="K23" s="33"/>
+      <c r="L23" s="33"/>
+      <c r="M23" s="33"/>
+      <c r="N23" s="33"/>
+      <c r="O23" s="33"/>
+      <c r="P23" s="33"/>
+      <c r="Q23" s="33"/>
+      <c r="R23" s="33"/>
+      <c r="S23" s="33"/>
+      <c r="T23" s="33"/>
+      <c r="U23" s="33"/>
+      <c r="V23" s="33"/>
+    </row>
+    <row r="24" spans="1:22">
+      <c r="A24" s="33"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="33"/>
+      <c r="J24" s="33"/>
+      <c r="K24" s="33"/>
+      <c r="L24" s="33"/>
+      <c r="M24" s="33"/>
+      <c r="N24" s="33"/>
+      <c r="O24" s="33"/>
+      <c r="P24" s="33"/>
+      <c r="Q24" s="33"/>
+      <c r="R24" s="33"/>
+      <c r="S24" s="33"/>
+      <c r="T24" s="33"/>
+      <c r="U24" s="33"/>
+      <c r="V24" s="33"/>
+    </row>
+    <row r="25" spans="1:22">
+      <c r="A25" s="33"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="33"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="33"/>
+      <c r="L25" s="33"/>
+      <c r="M25" s="33"/>
+      <c r="N25" s="33"/>
+      <c r="O25" s="33"/>
+      <c r="P25" s="33"/>
+      <c r="Q25" s="33"/>
+      <c r="R25" s="33"/>
+      <c r="S25" s="33"/>
+      <c r="T25" s="33"/>
+      <c r="U25" s="33"/>
+      <c r="V25" s="33"/>
+    </row>
+    <row r="26" spans="1:22">
+      <c r="A26" s="33"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="33"/>
+      <c r="I26" s="33"/>
+      <c r="J26" s="33"/>
+      <c r="K26" s="33"/>
+      <c r="L26" s="33"/>
+      <c r="M26" s="33"/>
+      <c r="N26" s="33"/>
+      <c r="O26" s="33"/>
+      <c r="P26" s="33"/>
+      <c r="Q26" s="33"/>
+      <c r="R26" s="33"/>
+      <c r="S26" s="33"/>
+      <c r="T26" s="33"/>
+      <c r="U26" s="33"/>
+      <c r="V26" s="33"/>
+    </row>
+    <row r="27" spans="1:22">
+      <c r="A27" s="33"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="33"/>
+      <c r="I27" s="33"/>
+      <c r="J27" s="33"/>
+      <c r="K27" s="33"/>
+      <c r="L27" s="33"/>
+      <c r="M27" s="33"/>
+      <c r="N27" s="33"/>
+      <c r="O27" s="33"/>
+      <c r="P27" s="33"/>
+      <c r="Q27" s="33"/>
+      <c r="R27" s="33"/>
+      <c r="S27" s="33"/>
+      <c r="T27" s="33"/>
+      <c r="U27" s="33"/>
+      <c r="V27" s="33"/>
+    </row>
+    <row r="28" spans="1:22">
+      <c r="A28" s="33"/>
+      <c r="B28" s="33"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="33"/>
+      <c r="I28" s="33"/>
+      <c r="J28" s="33"/>
+      <c r="K28" s="33"/>
+      <c r="L28" s="33"/>
+      <c r="M28" s="33"/>
+      <c r="N28" s="33"/>
+      <c r="O28" s="33"/>
+      <c r="P28" s="33"/>
+      <c r="Q28" s="33"/>
+      <c r="R28" s="33"/>
+      <c r="S28" s="33"/>
+      <c r="T28" s="33"/>
+      <c r="U28" s="33"/>
+      <c r="V28" s="33"/>
+    </row>
+    <row r="30" spans="1:22">
+      <c r="F30" s="31" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22">
+      <c r="F31" s="31" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22">
+      <c r="F32" s="31" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="33" spans="6:6">
+      <c r="F33" s="31" t="s">
+        <v>509</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="25">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="M21:M28"/>
+    <mergeCell ref="B21:B28"/>
+    <mergeCell ref="A21:A28"/>
+    <mergeCell ref="C21:C28"/>
+    <mergeCell ref="D21:D28"/>
+    <mergeCell ref="E21:E28"/>
+    <mergeCell ref="F21:F28"/>
+    <mergeCell ref="T21:T28"/>
+    <mergeCell ref="U21:U28"/>
+    <mergeCell ref="V21:V28"/>
+    <mergeCell ref="J21:J28"/>
+    <mergeCell ref="A18:V20"/>
+    <mergeCell ref="N21:N28"/>
+    <mergeCell ref="O21:O28"/>
+    <mergeCell ref="P21:P28"/>
+    <mergeCell ref="Q21:Q28"/>
+    <mergeCell ref="R21:R28"/>
+    <mergeCell ref="S21:S28"/>
+    <mergeCell ref="G21:G28"/>
+    <mergeCell ref="H21:H28"/>
+    <mergeCell ref="I21:I28"/>
+    <mergeCell ref="K21:K28"/>
+    <mergeCell ref="L21:L28"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="C2:E32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="21.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:5">
+      <c r="C2" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="str">
+        <f>CONCATENATE(C2,", ")</f>
+        <v xml:space="preserve">CD_CIA, </v>
+      </c>
+    </row>
+    <row r="3" spans="3:5">
+      <c r="C3" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" ref="E3:E32" si="0">CONCATENATE(C3,", ")</f>
+        <v xml:space="preserve">CD_TRANSACAO_TITULO, </v>
+      </c>
+    </row>
+    <row r="4" spans="3:5">
+      <c r="C4" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">NR_TITULO, </v>
+      </c>
+    </row>
+    <row r="5" spans="3:5">
+      <c r="C5" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">CD_CHAVE_PRIMARIA, </v>
+      </c>
+    </row>
+    <row r="6" spans="3:5">
+      <c r="C6" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">CD_BANCO, </v>
+      </c>
+    </row>
+    <row r="7" spans="3:5">
+      <c r="C7" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">NR_REMESSA, </v>
+      </c>
+    </row>
+    <row r="8" spans="3:5">
+      <c r="C8" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">DT_REMESSA, </v>
+      </c>
+    </row>
+    <row r="9" spans="3:5">
+      <c r="C9" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">NR_AGENCIA, </v>
+      </c>
+    </row>
+    <row r="10" spans="3:5">
+      <c r="C10" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">NR_CONTA, </v>
+      </c>
+    </row>
+    <row r="11" spans="3:5">
+      <c r="C11" s="27" t="s">
+        <v>333</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">CD_STATUS_ARQUIVO, </v>
+      </c>
+    </row>
+    <row r="12" spans="3:5">
+      <c r="C12" s="27" t="s">
+        <v>334</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">CD_STATUS_ENVIO, </v>
+      </c>
+    </row>
+    <row r="13" spans="3:5">
+      <c r="C13" s="27" t="s">
+        <v>335</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">DT_ULT_ATUALIZACAO, </v>
+      </c>
+    </row>
+    <row r="14" spans="3:5">
+      <c r="C14" s="27" t="s">
+        <v>336</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">NR_BANCO, </v>
+      </c>
+    </row>
+    <row r="15" spans="3:5">
+      <c r="C15" s="27" t="s">
+        <v>337</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">CD_TRANSACAO_MOVIMENTO, </v>
+      </c>
+    </row>
+    <row r="16" spans="3:5">
+      <c r="C16" s="27" t="s">
+        <v>338</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">NR_DOC_MOVIMENTO, </v>
+      </c>
+    </row>
+    <row r="17" spans="3:5">
+      <c r="C17" s="27" t="s">
+        <v>339</v>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">NR_SERIE, </v>
+      </c>
+    </row>
+    <row r="18" spans="3:5">
+      <c r="C18" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">CD_BANCO, </v>
+      </c>
+    </row>
+    <row r="19" spans="3:5">
+      <c r="C19" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">NR_AGENCIA, </v>
+      </c>
+    </row>
+    <row r="20" spans="3:5">
+      <c r="C20" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">NR_CONTA_CORRENTE, </v>
+      </c>
+    </row>
+    <row r="21" spans="3:5">
+      <c r="C21" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">DT_ATUALIZACAO, </v>
+      </c>
+    </row>
+    <row r="22" spans="3:5">
+      <c r="C22" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="E22" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">CD_UNIDADE_EMPRESARIAL, </v>
+      </c>
+    </row>
+    <row r="23" spans="3:5">
+      <c r="C23" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="E23" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">NR_TITULO_REFERENCIA, </v>
+      </c>
+    </row>
+    <row r="24" spans="3:5">
+      <c r="C24" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="E24" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">CD_TRANSACAO_DOCUMENTO, </v>
+      </c>
+    </row>
+    <row r="25" spans="3:5">
+      <c r="C25" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="E25" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">DT_VENCTO_PRORROGADO, </v>
+      </c>
+    </row>
+    <row r="26" spans="3:5">
+      <c r="C26" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="E26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">DT_VENCTO_ORIGINAL_PRORROGADO, </v>
+      </c>
+    </row>
+    <row r="27" spans="3:5">
+      <c r="C27" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="E27" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">DT_LIQUIDEZ_PREVISTA, </v>
+      </c>
+    </row>
+    <row r="28" spans="3:5">
+      <c r="C28" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="E28" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">CD_TIPO_MOVIMENTO, </v>
+      </c>
+    </row>
+    <row r="29" spans="3:5">
+      <c r="C29" s="15"/>
+      <c r="E29" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">, </v>
+      </c>
+    </row>
+    <row r="30" spans="3:5">
+      <c r="C30" s="15"/>
+      <c r="E30" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">, </v>
+      </c>
+    </row>
+    <row r="31" spans="3:5">
+      <c r="C31" s="15"/>
+      <c r="E31" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">, </v>
+      </c>
+    </row>
+    <row r="32" spans="3:5">
+      <c r="C32" s="15"/>
+      <c r="E32" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">, </v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="A2:R30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="11.25"/>
+  <cols>
+    <col min="1" max="1" width="22.5703125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="25.42578125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="47" style="2" customWidth="1"/>
+    <col min="6" max="6" width="28.140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="25.7109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="17.7109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.7109375" style="2" customWidth="1"/>
+    <col min="12" max="12" width="15.85546875" style="2" customWidth="1"/>
+    <col min="13" max="14" width="29.7109375" style="2" customWidth="1"/>
+    <col min="15" max="15" width="33.140625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="30.140625" style="2" customWidth="1"/>
+    <col min="17" max="17" width="34.28515625" style="2" customWidth="1"/>
+    <col min="18" max="18" width="32.5703125" style="2" customWidth="1"/>
+    <col min="19" max="19" width="33.42578125" style="1" customWidth="1"/>
+    <col min="20" max="20" width="36.5703125" style="1" customWidth="1"/>
+    <col min="21" max="21" width="38.5703125" style="1" customWidth="1"/>
+    <col min="22" max="22" width="34.5703125" style="1" customWidth="1"/>
+    <col min="23" max="23" width="31.85546875" style="1" customWidth="1"/>
+    <col min="24" max="24" width="41.7109375" style="1" customWidth="1"/>
+    <col min="25" max="25" width="26.7109375" style="1" customWidth="1"/>
+    <col min="26" max="26" width="23.5703125" style="1" customWidth="1"/>
+    <col min="27" max="27" width="27" style="1" customWidth="1"/>
+    <col min="28" max="28" width="29.5703125" style="1" customWidth="1"/>
+    <col min="29" max="29" width="28.85546875" style="1" customWidth="1"/>
+    <col min="30" max="30" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="21.42578125" style="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:7" ht="21">
+      <c r="A2" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="35"/>
+      <c r="C2" s="3" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="21">
+      <c r="A3" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="35"/>
+      <c r="C3" s="3" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="11.25" customHeight="1">
+      <c r="A18" s="48" t="s">
+        <v>326</v>
+      </c>
+      <c r="B18" s="49"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="42" t="s">
+        <v>327</v>
+      </c>
+      <c r="G18" s="43"/>
+    </row>
+    <row r="19" spans="1:7" ht="11.25" customHeight="1">
+      <c r="A19" s="51"/>
+      <c r="B19" s="52"/>
+      <c r="C19" s="52"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="45"/>
+    </row>
+    <row r="20" spans="1:7" ht="11.25" customHeight="1">
+      <c r="A20" s="54"/>
+      <c r="B20" s="55"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="47"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="33" t="s">
+        <v>321</v>
+      </c>
+      <c r="B21" s="33" t="s">
+        <v>322</v>
+      </c>
+      <c r="C21" s="33" t="s">
+        <v>323</v>
+      </c>
+      <c r="D21" s="33" t="s">
+        <v>324</v>
+      </c>
+      <c r="E21" s="33" t="s">
+        <v>328</v>
+      </c>
+      <c r="F21" s="33" t="s">
+        <v>330</v>
+      </c>
+      <c r="G21" s="33" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="33"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="33"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="33"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="33"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="33"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="33"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="D26" s="33" t="s">
+        <v>325</v>
+      </c>
+      <c r="E26" s="57" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="D27" s="33"/>
+      <c r="E27" s="57"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="D28" s="33"/>
+      <c r="E28" s="57"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="D29" s="33"/>
+      <c r="E29" s="57"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="D30" s="33"/>
+      <c r="E30" s="57"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A18:E20"/>
+    <mergeCell ref="E21:E24"/>
+    <mergeCell ref="E26:E30"/>
+    <mergeCell ref="D26:D30"/>
+    <mergeCell ref="F18:G20"/>
+    <mergeCell ref="F21:F24"/>
+    <mergeCell ref="G21:G24"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="C21:C24"/>
+    <mergeCell ref="D21:D24"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -2375,21 +4840,21 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:33" ht="21">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="30"/>
+      <c r="B2" s="35"/>
       <c r="C2" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:33" ht="21">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="30"/>
+      <c r="B3" s="35"/>
       <c r="C3" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="6" spans="1:33" s="22" customFormat="1" ht="21" customHeight="1">
@@ -2961,96 +5426,96 @@
     </row>
     <row r="18" spans="1:33">
       <c r="A18" s="1"/>
-      <c r="B18" s="43" t="s">
+      <c r="B18" s="34" t="s">
         <v>363</v>
       </c>
-      <c r="C18" s="43"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="43" t="s">
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34" t="s">
         <v>385</v>
       </c>
-      <c r="H18" s="43"/>
-      <c r="I18" s="43"/>
-      <c r="J18" s="43"/>
-      <c r="K18" s="43"/>
-      <c r="L18" s="43"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="34"/>
+      <c r="L18" s="34"/>
     </row>
     <row r="19" spans="1:33">
-      <c r="B19" s="43"/>
-      <c r="C19" s="43"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="43"/>
-      <c r="G19" s="43"/>
-      <c r="H19" s="43"/>
-      <c r="I19" s="43"/>
-      <c r="J19" s="43"/>
-      <c r="K19" s="43"/>
-      <c r="L19" s="43"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="34"/>
+      <c r="K19" s="34"/>
+      <c r="L19" s="34"/>
     </row>
     <row r="20" spans="1:33">
-      <c r="B20" s="43"/>
-      <c r="C20" s="43"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="43"/>
-      <c r="G20" s="43"/>
-      <c r="H20" s="43"/>
-      <c r="I20" s="43"/>
-      <c r="J20" s="43"/>
-      <c r="K20" s="43"/>
-      <c r="L20" s="43"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="34"/>
+      <c r="K20" s="34"/>
+      <c r="L20" s="34"/>
     </row>
     <row r="21" spans="1:33" ht="11.25" customHeight="1">
-      <c r="A21" s="31" t="s">
+      <c r="A21" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="31" t="s">
+      <c r="B21" s="33" t="s">
         <v>365</v>
       </c>
-      <c r="C21" s="31" t="s">
+      <c r="C21" s="33" t="s">
         <v>366</v>
       </c>
-      <c r="D21" s="31" t="s">
+      <c r="D21" s="33" t="s">
         <v>362</v>
       </c>
-      <c r="E21" s="31" t="s">
+      <c r="E21" s="33" t="s">
         <v>364</v>
       </c>
-      <c r="F21" s="31" t="s">
+      <c r="F21" s="33" t="s">
         <v>367</v>
       </c>
-      <c r="G21" s="31" t="s">
+      <c r="G21" s="33" t="s">
         <v>386</v>
       </c>
-      <c r="H21" s="31" t="s">
+      <c r="H21" s="33" t="s">
         <v>370</v>
       </c>
-      <c r="I21" s="31" t="s">
+      <c r="I21" s="33" t="s">
         <v>371</v>
       </c>
-      <c r="J21" s="31" t="s">
+      <c r="J21" s="33" t="s">
         <v>372</v>
       </c>
-      <c r="K21" s="31" t="s">
+      <c r="K21" s="33" t="s">
         <v>373</v>
       </c>
-      <c r="L21" s="31" t="s">
+      <c r="L21" s="33" t="s">
         <v>374</v>
       </c>
-      <c r="M21" s="31" t="s">
-        <v>390</v>
-      </c>
-      <c r="N21" s="31" t="s">
+      <c r="M21" s="33" t="s">
+        <v>389</v>
+      </c>
+      <c r="N21" s="33" t="s">
+        <v>413</v>
+      </c>
+      <c r="O21" s="33" t="s">
         <v>387</v>
       </c>
-      <c r="O21" s="31" t="s">
+      <c r="P21" s="33" t="s">
         <v>388</v>
-      </c>
-      <c r="P21" s="31" t="s">
-        <v>389</v>
       </c>
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
@@ -3071,22 +5536,22 @@
       <c r="AG21" s="1"/>
     </row>
     <row r="22" spans="1:33">
-      <c r="A22" s="31"/>
-      <c r="B22" s="31"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="31"/>
-      <c r="J22" s="31"/>
-      <c r="K22" s="31"/>
-      <c r="L22" s="31"/>
-      <c r="M22" s="31"/>
-      <c r="N22" s="31"/>
-      <c r="O22" s="31"/>
-      <c r="P22" s="31"/>
+      <c r="A22" s="33"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="33"/>
+      <c r="J22" s="33"/>
+      <c r="K22" s="33"/>
+      <c r="L22" s="33"/>
+      <c r="M22" s="33"/>
+      <c r="N22" s="33"/>
+      <c r="O22" s="33"/>
+      <c r="P22" s="33"/>
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
@@ -3106,22 +5571,22 @@
       <c r="AG22" s="1"/>
     </row>
     <row r="23" spans="1:33">
-      <c r="A23" s="31"/>
-      <c r="B23" s="31"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="31"/>
-      <c r="I23" s="31"/>
-      <c r="J23" s="31"/>
-      <c r="K23" s="31"/>
-      <c r="L23" s="31"/>
-      <c r="M23" s="31"/>
-      <c r="N23" s="31"/>
-      <c r="O23" s="31"/>
-      <c r="P23" s="31"/>
+      <c r="A23" s="33"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="33"/>
+      <c r="J23" s="33"/>
+      <c r="K23" s="33"/>
+      <c r="L23" s="33"/>
+      <c r="M23" s="33"/>
+      <c r="N23" s="33"/>
+      <c r="O23" s="33"/>
+      <c r="P23" s="33"/>
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
       <c r="S23" s="1"/>
@@ -3141,22 +5606,22 @@
       <c r="AG23" s="1"/>
     </row>
     <row r="24" spans="1:33">
-      <c r="A24" s="31"/>
-      <c r="B24" s="31"/>
-      <c r="C24" s="31"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="31"/>
-      <c r="J24" s="31"/>
-      <c r="K24" s="31"/>
-      <c r="L24" s="31"/>
-      <c r="M24" s="31"/>
-      <c r="N24" s="31"/>
-      <c r="O24" s="31"/>
-      <c r="P24" s="31"/>
+      <c r="A24" s="33"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="33"/>
+      <c r="J24" s="33"/>
+      <c r="K24" s="33"/>
+      <c r="L24" s="33"/>
+      <c r="M24" s="33"/>
+      <c r="N24" s="33"/>
+      <c r="O24" s="33"/>
+      <c r="P24" s="33"/>
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
       <c r="S24" s="1"/>
@@ -3176,22 +5641,22 @@
       <c r="AG24" s="1"/>
     </row>
     <row r="25" spans="1:33">
-      <c r="A25" s="31"/>
-      <c r="B25" s="31"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="31"/>
-      <c r="J25" s="31"/>
-      <c r="K25" s="31"/>
-      <c r="L25" s="31"/>
-      <c r="M25" s="31"/>
-      <c r="N25" s="31"/>
-      <c r="O25" s="31"/>
-      <c r="P25" s="31"/>
+      <c r="A25" s="33"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="33"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="33"/>
+      <c r="L25" s="33"/>
+      <c r="M25" s="33"/>
+      <c r="N25" s="33"/>
+      <c r="O25" s="33"/>
+      <c r="P25" s="33"/>
       <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
       <c r="S25" s="1"/>
@@ -3211,22 +5676,22 @@
       <c r="AG25" s="1"/>
     </row>
     <row r="26" spans="1:33">
-      <c r="A26" s="31"/>
-      <c r="B26" s="31"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="31"/>
-      <c r="H26" s="31"/>
-      <c r="I26" s="31"/>
-      <c r="J26" s="31"/>
-      <c r="K26" s="31"/>
-      <c r="L26" s="31"/>
-      <c r="M26" s="31"/>
-      <c r="N26" s="31"/>
-      <c r="O26" s="31"/>
-      <c r="P26" s="31"/>
+      <c r="A26" s="33"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="33"/>
+      <c r="I26" s="33"/>
+      <c r="J26" s="33"/>
+      <c r="K26" s="33"/>
+      <c r="L26" s="33"/>
+      <c r="M26" s="33"/>
+      <c r="N26" s="33"/>
+      <c r="O26" s="33"/>
+      <c r="P26" s="33"/>
       <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
       <c r="S26" s="1"/>
@@ -3246,22 +5711,22 @@
       <c r="AG26" s="1"/>
     </row>
     <row r="27" spans="1:33">
-      <c r="A27" s="31"/>
-      <c r="B27" s="31"/>
-      <c r="C27" s="31"/>
-      <c r="D27" s="31"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="31"/>
-      <c r="H27" s="31"/>
-      <c r="I27" s="31"/>
-      <c r="J27" s="31"/>
-      <c r="K27" s="31"/>
-      <c r="L27" s="31"/>
-      <c r="M27" s="31"/>
-      <c r="N27" s="31"/>
-      <c r="O27" s="31"/>
-      <c r="P27" s="31"/>
+      <c r="A27" s="33"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="33"/>
+      <c r="I27" s="33"/>
+      <c r="J27" s="33"/>
+      <c r="K27" s="33"/>
+      <c r="L27" s="33"/>
+      <c r="M27" s="33"/>
+      <c r="N27" s="33"/>
+      <c r="O27" s="33"/>
+      <c r="P27" s="33"/>
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
       <c r="S27" s="1"/>
@@ -3281,22 +5746,22 @@
       <c r="AG27" s="1"/>
     </row>
     <row r="28" spans="1:33">
-      <c r="A28" s="31"/>
-      <c r="B28" s="31"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="31"/>
-      <c r="H28" s="31"/>
-      <c r="I28" s="31"/>
-      <c r="J28" s="31"/>
-      <c r="K28" s="31"/>
-      <c r="L28" s="31"/>
-      <c r="M28" s="31"/>
-      <c r="N28" s="31"/>
-      <c r="O28" s="31"/>
-      <c r="P28" s="31"/>
+      <c r="A28" s="33"/>
+      <c r="B28" s="33"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="33"/>
+      <c r="I28" s="33"/>
+      <c r="J28" s="33"/>
+      <c r="K28" s="33"/>
+      <c r="L28" s="33"/>
+      <c r="M28" s="33"/>
+      <c r="N28" s="33"/>
+      <c r="O28" s="33"/>
+      <c r="P28" s="33"/>
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
       <c r="S28" s="1"/>
@@ -3316,80 +5781,77 @@
       <c r="AG28" s="1"/>
     </row>
     <row r="30" spans="1:33">
-      <c r="K30" s="29" t="s">
+      <c r="K30" s="36" t="s">
         <v>375</v>
       </c>
-      <c r="L30" s="29"/>
+      <c r="L30" s="36"/>
     </row>
     <row r="31" spans="1:33">
-      <c r="K31" s="29" t="s">
+      <c r="K31" s="36" t="s">
         <v>376</v>
       </c>
-      <c r="L31" s="29"/>
+      <c r="L31" s="36"/>
     </row>
     <row r="32" spans="1:33">
-      <c r="K32" s="29" t="s">
+      <c r="K32" s="36" t="s">
         <v>377</v>
       </c>
-      <c r="L32" s="29"/>
+      <c r="L32" s="36"/>
     </row>
     <row r="33" spans="11:12">
-      <c r="K33" s="29" t="s">
+      <c r="K33" s="36" t="s">
         <v>378</v>
       </c>
-      <c r="L33" s="29"/>
+      <c r="L33" s="36"/>
     </row>
     <row r="34" spans="11:12">
-      <c r="K34" s="29" t="s">
+      <c r="K34" s="36" t="s">
         <v>379</v>
       </c>
-      <c r="L34" s="29"/>
+      <c r="L34" s="36"/>
     </row>
     <row r="35" spans="11:12">
-      <c r="K35" s="29" t="s">
+      <c r="K35" s="36" t="s">
         <v>380</v>
       </c>
-      <c r="L35" s="29"/>
+      <c r="L35" s="36"/>
     </row>
     <row r="36" spans="11:12">
-      <c r="K36" s="29" t="s">
+      <c r="K36" s="36" t="s">
         <v>381</v>
       </c>
-      <c r="L36" s="29"/>
+      <c r="L36" s="36"/>
     </row>
     <row r="37" spans="11:12">
-      <c r="K37" s="29" t="s">
+      <c r="K37" s="36" t="s">
         <v>382</v>
       </c>
-      <c r="L37" s="29"/>
+      <c r="L37" s="36"/>
     </row>
     <row r="38" spans="11:12">
-      <c r="K38" s="29" t="s">
+      <c r="K38" s="36" t="s">
         <v>383</v>
       </c>
-      <c r="L38" s="29"/>
+      <c r="L38" s="36"/>
     </row>
     <row r="39" spans="11:12">
-      <c r="K39" s="29" t="s">
+      <c r="K39" s="36" t="s">
         <v>384</v>
       </c>
-      <c r="L39" s="29"/>
+      <c r="L39" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="O21:O28"/>
-    <mergeCell ref="P21:P28"/>
-    <mergeCell ref="M21:M28"/>
-    <mergeCell ref="G18:L20"/>
-    <mergeCell ref="N21:N28"/>
-    <mergeCell ref="E21:E28"/>
-    <mergeCell ref="F21:F28"/>
-    <mergeCell ref="H21:H28"/>
-    <mergeCell ref="I21:I28"/>
-    <mergeCell ref="J21:J28"/>
-    <mergeCell ref="K21:K28"/>
-    <mergeCell ref="L21:L28"/>
-    <mergeCell ref="G21:G28"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="K34:L34"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A21:A28"/>
@@ -3397,23 +5859,26 @@
     <mergeCell ref="C21:C28"/>
     <mergeCell ref="B18:F20"/>
     <mergeCell ref="D21:D28"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="E21:E28"/>
+    <mergeCell ref="F21:F28"/>
+    <mergeCell ref="P21:P28"/>
+    <mergeCell ref="M21:M28"/>
+    <mergeCell ref="G18:L20"/>
+    <mergeCell ref="N21:N28"/>
+    <mergeCell ref="K21:K28"/>
+    <mergeCell ref="L21:L28"/>
+    <mergeCell ref="H21:H28"/>
+    <mergeCell ref="I21:I28"/>
+    <mergeCell ref="J21:J28"/>
+    <mergeCell ref="G21:G28"/>
+    <mergeCell ref="O21:O28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -3445,21 +5910,21 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:17" ht="21">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="30"/>
+      <c r="B2" s="35"/>
       <c r="C2" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="21">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="30"/>
+      <c r="B3" s="35"/>
       <c r="C3" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3502,7 +5967,7 @@
         <v>2</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>20</v>
@@ -3525,7 +5990,7 @@
         <v>2</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>20</v>
@@ -3539,7 +6004,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D9" s="12" t="s">
         <v>34</v>
@@ -3548,7 +6013,7 @@
         <v>2</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G9" s="12" t="s">
         <v>20</v>
@@ -3581,7 +6046,7 @@
         <v>2</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G10" s="12" t="s">
         <v>20</v>
@@ -3605,7 +6070,7 @@
         <v>4</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D11" s="12" t="s">
         <v>34</v>
@@ -3614,7 +6079,7 @@
         <v>2</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G11" s="12" t="s">
         <v>20</v>
@@ -3647,7 +6112,7 @@
         <v>2</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G12" s="12" t="s">
         <v>20</v>
@@ -3680,7 +6145,7 @@
         <v>2</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G13" s="12" t="s">
         <v>20</v>
@@ -3713,7 +6178,7 @@
         <v>2</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G14" s="12" t="s">
         <v>20</v>
@@ -3746,7 +6211,7 @@
         <v>2</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>20</v>
@@ -3760,123 +6225,123 @@
         <v>4</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="13.5" customHeight="1">
-      <c r="B18" s="75" t="s">
-        <v>399</v>
-      </c>
-      <c r="C18" s="75"/>
-      <c r="D18" s="75"/>
-      <c r="E18" s="76" t="s">
-        <v>403</v>
+      <c r="B18" s="40" t="s">
+        <v>398</v>
+      </c>
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="41" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="1"/>
-      <c r="B19" s="75"/>
-      <c r="C19" s="75"/>
-      <c r="D19" s="75"/>
-      <c r="E19" s="76"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="41"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="B20" s="75"/>
-      <c r="C20" s="75"/>
-      <c r="D20" s="75"/>
-      <c r="E20" s="76"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="41"/>
     </row>
     <row r="21" spans="1:7" ht="11.25" customHeight="1">
-      <c r="A21" s="31" t="s">
+      <c r="A21" s="33" t="s">
         <v>154</v>
       </c>
-      <c r="B21" s="31" t="s">
+      <c r="B21" s="33" t="s">
+        <v>399</v>
+      </c>
+      <c r="C21" s="33" t="s">
         <v>400</v>
       </c>
-      <c r="C21" s="31" t="s">
+      <c r="D21" s="33" t="s">
         <v>401</v>
       </c>
-      <c r="D21" s="31" t="s">
-        <v>402</v>
-      </c>
-      <c r="E21" s="31" t="s">
+      <c r="E21" s="33" t="s">
         <v>149</v>
       </c>
-      <c r="F21" s="31" t="s">
-        <v>404</v>
-      </c>
-      <c r="G21" s="32"/>
+      <c r="F21" s="33" t="s">
+        <v>403</v>
+      </c>
+      <c r="G21" s="37"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="31"/>
-      <c r="B22" s="31"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="33"/>
+      <c r="A22" s="33"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="38"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="31"/>
-      <c r="B23" s="31"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="33"/>
+      <c r="A23" s="33"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="38"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="31"/>
-      <c r="B24" s="31"/>
-      <c r="C24" s="31"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="34"/>
+      <c r="A24" s="33"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="39"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="31"/>
-      <c r="B25" s="31"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
+      <c r="A25" s="33"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="33"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="31"/>
-      <c r="B26" s="31"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="31"/>
+      <c r="A26" s="33"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="33"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="31"/>
-      <c r="B27" s="31"/>
-      <c r="C27" s="31"/>
-      <c r="D27" s="31"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="31"/>
+      <c r="A27" s="33"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="33"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="31"/>
-      <c r="B28" s="31"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="31"/>
+      <c r="A28" s="33"/>
+      <c r="B28" s="33"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="33"/>
     </row>
     <row r="30" spans="1:7">
       <c r="E30" s="17" t="s">
@@ -3947,7 +6412,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FFFA7E7E"/>
@@ -3979,29 +6444,29 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:17" ht="21">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="30"/>
+      <c r="B2" s="35"/>
       <c r="C2" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="21">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="30"/>
+      <c r="B3" s="35"/>
       <c r="C3" s="3"/>
     </row>
     <row r="6" spans="1:17" s="13" customFormat="1" ht="33.75">
-      <c r="A6" s="78" t="s">
-        <v>405</v>
-      </c>
-      <c r="B6" s="77"/>
-      <c r="C6" s="77"/>
-      <c r="D6" s="77"/>
-      <c r="E6" s="77"/>
+      <c r="A6" s="30" t="s">
+        <v>404</v>
+      </c>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
       <c r="H6" s="12"/>
@@ -4019,449 +6484,6 @@
   <mergeCells count="2">
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <tabColor rgb="FF92D050"/>
-  </sheetPr>
-  <dimension ref="A2:R30"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
-  <cols>
-    <col min="1" max="1" width="22.5703125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="21.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="25.42578125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="47" style="2" customWidth="1"/>
-    <col min="6" max="6" width="28.140625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="25.7109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="17.7109375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.7109375" style="2" customWidth="1"/>
-    <col min="12" max="12" width="15.85546875" style="2" customWidth="1"/>
-    <col min="13" max="14" width="29.7109375" style="2" customWidth="1"/>
-    <col min="15" max="15" width="33.140625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="30.140625" style="2" customWidth="1"/>
-    <col min="17" max="17" width="34.28515625" style="2" customWidth="1"/>
-    <col min="18" max="18" width="32.5703125" style="2" customWidth="1"/>
-    <col min="19" max="19" width="33.42578125" style="1" customWidth="1"/>
-    <col min="20" max="20" width="36.5703125" style="1" customWidth="1"/>
-    <col min="21" max="21" width="38.5703125" style="1" customWidth="1"/>
-    <col min="22" max="22" width="34.5703125" style="1" customWidth="1"/>
-    <col min="23" max="23" width="31.85546875" style="1" customWidth="1"/>
-    <col min="24" max="24" width="41.7109375" style="1" customWidth="1"/>
-    <col min="25" max="25" width="26.7109375" style="1" customWidth="1"/>
-    <col min="26" max="26" width="23.5703125" style="1" customWidth="1"/>
-    <col min="27" max="27" width="27" style="1" customWidth="1"/>
-    <col min="28" max="28" width="29.5703125" style="1" customWidth="1"/>
-    <col min="29" max="29" width="28.85546875" style="1" customWidth="1"/>
-    <col min="30" max="30" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="21.42578125" style="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:7" ht="21">
-      <c r="A2" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="3" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="21">
-      <c r="A3" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="3" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="11.25" customHeight="1">
-      <c r="A18" s="79" t="s">
-        <v>326</v>
-      </c>
-      <c r="B18" s="80"/>
-      <c r="C18" s="80"/>
-      <c r="D18" s="80"/>
-      <c r="E18" s="81"/>
-      <c r="F18" s="36" t="s">
-        <v>327</v>
-      </c>
-      <c r="G18" s="37"/>
-    </row>
-    <row r="19" spans="1:7" ht="11.25" customHeight="1">
-      <c r="A19" s="82"/>
-      <c r="B19" s="83"/>
-      <c r="C19" s="83"/>
-      <c r="D19" s="83"/>
-      <c r="E19" s="84"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="39"/>
-    </row>
-    <row r="20" spans="1:7" ht="11.25" customHeight="1">
-      <c r="A20" s="85"/>
-      <c r="B20" s="86"/>
-      <c r="C20" s="86"/>
-      <c r="D20" s="86"/>
-      <c r="E20" s="87"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="41"/>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="31" t="s">
-        <v>321</v>
-      </c>
-      <c r="B21" s="31" t="s">
-        <v>322</v>
-      </c>
-      <c r="C21" s="31" t="s">
-        <v>323</v>
-      </c>
-      <c r="D21" s="31" t="s">
-        <v>324</v>
-      </c>
-      <c r="E21" s="31" t="s">
-        <v>328</v>
-      </c>
-      <c r="F21" s="31" t="s">
-        <v>330</v>
-      </c>
-      <c r="G21" s="31" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="31"/>
-      <c r="B22" s="31"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="31"/>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="31"/>
-      <c r="B23" s="31"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="31"/>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="31"/>
-      <c r="B24" s="31"/>
-      <c r="C24" s="31"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="31"/>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="D26" s="31" t="s">
-        <v>325</v>
-      </c>
-      <c r="E26" s="35" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="D27" s="31"/>
-      <c r="E27" s="35"/>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="D28" s="31"/>
-      <c r="E28" s="35"/>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="D29" s="31"/>
-      <c r="E29" s="35"/>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="D30" s="31"/>
-      <c r="E30" s="35"/>
-    </row>
-  </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="F18:G20"/>
-    <mergeCell ref="F21:F24"/>
-    <mergeCell ref="G21:G24"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="C21:C24"/>
-    <mergeCell ref="D21:D24"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A18:E20"/>
-    <mergeCell ref="E21:E24"/>
-    <mergeCell ref="E26:E30"/>
-    <mergeCell ref="D26:D30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -4475,7 +6497,9 @@
   </sheetPr>
   <dimension ref="A2:AE29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="AD20" sqref="AD20:AD22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
@@ -4513,32 +6537,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:31" ht="21">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="30"/>
+      <c r="B2" s="35"/>
       <c r="C2" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:31" ht="21">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="30"/>
+      <c r="B3" s="35"/>
       <c r="C3" s="3" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="4" spans="1:31" ht="21">
-      <c r="A4" s="58" t="s">
+      <c r="A4" s="67" t="s">
         <v>164</v>
       </c>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
       <c r="G4" s="1"/>
       <c r="P4" s="19"/>
       <c r="AB4" s="2"/>
@@ -5619,296 +7643,296 @@
     <row r="20" spans="1:31" ht="11.25" customHeight="1">
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
-      <c r="F20" s="49" t="s">
-        <v>410</v>
-      </c>
-      <c r="G20" s="50"/>
-      <c r="H20" s="50"/>
-      <c r="I20" s="50"/>
-      <c r="J20" s="50"/>
-      <c r="K20" s="50"/>
-      <c r="L20" s="50"/>
-      <c r="M20" s="50"/>
-      <c r="N20" s="50"/>
-      <c r="O20" s="50"/>
-      <c r="P20" s="50"/>
-      <c r="Q20" s="50"/>
-      <c r="R20" s="50"/>
-      <c r="S20" s="50"/>
-      <c r="T20" s="50"/>
-      <c r="U20" s="50"/>
-      <c r="V20" s="50"/>
-      <c r="W20" s="50"/>
-      <c r="X20" s="50"/>
-      <c r="Y20" s="50"/>
-      <c r="Z20" s="51"/>
-      <c r="AA20" s="43" t="s">
+      <c r="F20" s="58" t="s">
+        <v>409</v>
+      </c>
+      <c r="G20" s="59"/>
+      <c r="H20" s="59"/>
+      <c r="I20" s="59"/>
+      <c r="J20" s="59"/>
+      <c r="K20" s="59"/>
+      <c r="L20" s="59"/>
+      <c r="M20" s="59"/>
+      <c r="N20" s="59"/>
+      <c r="O20" s="59"/>
+      <c r="P20" s="59"/>
+      <c r="Q20" s="59"/>
+      <c r="R20" s="59"/>
+      <c r="S20" s="59"/>
+      <c r="T20" s="59"/>
+      <c r="U20" s="59"/>
+      <c r="V20" s="59"/>
+      <c r="W20" s="59"/>
+      <c r="X20" s="59"/>
+      <c r="Y20" s="59"/>
+      <c r="Z20" s="60"/>
+      <c r="AA20" s="34" t="s">
+        <v>411</v>
+      </c>
+      <c r="AB20" s="34" t="s">
+        <v>369</v>
+      </c>
+      <c r="AC20" s="69"/>
+      <c r="AD20" s="34" t="s">
+        <v>368</v>
+      </c>
+      <c r="AE20" s="34" t="s">
         <v>412</v>
-      </c>
-      <c r="AB20" s="43" t="s">
-        <v>369</v>
-      </c>
-      <c r="AC20" s="44"/>
-      <c r="AD20" s="43" t="s">
-        <v>368</v>
-      </c>
-      <c r="AE20" s="43" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="21" spans="1:31" ht="11.25" customHeight="1">
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
-      <c r="F21" s="52"/>
-      <c r="G21" s="53"/>
-      <c r="H21" s="53"/>
-      <c r="I21" s="53"/>
-      <c r="J21" s="53"/>
-      <c r="K21" s="53"/>
-      <c r="L21" s="53"/>
-      <c r="M21" s="53"/>
-      <c r="N21" s="53"/>
-      <c r="O21" s="53"/>
-      <c r="P21" s="53"/>
-      <c r="Q21" s="53"/>
-      <c r="R21" s="53"/>
-      <c r="S21" s="53"/>
-      <c r="T21" s="53"/>
-      <c r="U21" s="53"/>
-      <c r="V21" s="53"/>
-      <c r="W21" s="53"/>
-      <c r="X21" s="53"/>
-      <c r="Y21" s="53"/>
-      <c r="Z21" s="54"/>
-      <c r="AA21" s="43"/>
-      <c r="AB21" s="44"/>
-      <c r="AC21" s="44"/>
-      <c r="AD21" s="43"/>
-      <c r="AE21" s="43"/>
+      <c r="F21" s="61"/>
+      <c r="G21" s="62"/>
+      <c r="H21" s="62"/>
+      <c r="I21" s="62"/>
+      <c r="J21" s="62"/>
+      <c r="K21" s="62"/>
+      <c r="L21" s="62"/>
+      <c r="M21" s="62"/>
+      <c r="N21" s="62"/>
+      <c r="O21" s="62"/>
+      <c r="P21" s="62"/>
+      <c r="Q21" s="62"/>
+      <c r="R21" s="62"/>
+      <c r="S21" s="62"/>
+      <c r="T21" s="62"/>
+      <c r="U21" s="62"/>
+      <c r="V21" s="62"/>
+      <c r="W21" s="62"/>
+      <c r="X21" s="62"/>
+      <c r="Y21" s="62"/>
+      <c r="Z21" s="63"/>
+      <c r="AA21" s="34"/>
+      <c r="AB21" s="69"/>
+      <c r="AC21" s="69"/>
+      <c r="AD21" s="34"/>
+      <c r="AE21" s="34"/>
     </row>
     <row r="22" spans="1:31" ht="11.25" customHeight="1">
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
-      <c r="F22" s="55"/>
-      <c r="G22" s="56"/>
-      <c r="H22" s="56"/>
-      <c r="I22" s="56"/>
-      <c r="J22" s="56"/>
-      <c r="K22" s="56"/>
-      <c r="L22" s="56"/>
-      <c r="M22" s="56"/>
-      <c r="N22" s="56"/>
-      <c r="O22" s="56"/>
-      <c r="P22" s="56"/>
-      <c r="Q22" s="56"/>
-      <c r="R22" s="56"/>
-      <c r="S22" s="56"/>
-      <c r="T22" s="56"/>
-      <c r="U22" s="56"/>
-      <c r="V22" s="56"/>
-      <c r="W22" s="56"/>
-      <c r="X22" s="56"/>
-      <c r="Y22" s="56"/>
-      <c r="Z22" s="57"/>
-      <c r="AA22" s="43"/>
-      <c r="AB22" s="44"/>
-      <c r="AC22" s="44"/>
-      <c r="AD22" s="43"/>
-      <c r="AE22" s="43"/>
+      <c r="F22" s="64"/>
+      <c r="G22" s="65"/>
+      <c r="H22" s="65"/>
+      <c r="I22" s="65"/>
+      <c r="J22" s="65"/>
+      <c r="K22" s="65"/>
+      <c r="L22" s="65"/>
+      <c r="M22" s="65"/>
+      <c r="N22" s="65"/>
+      <c r="O22" s="65"/>
+      <c r="P22" s="65"/>
+      <c r="Q22" s="65"/>
+      <c r="R22" s="65"/>
+      <c r="S22" s="65"/>
+      <c r="T22" s="65"/>
+      <c r="U22" s="65"/>
+      <c r="V22" s="65"/>
+      <c r="W22" s="65"/>
+      <c r="X22" s="65"/>
+      <c r="Y22" s="65"/>
+      <c r="Z22" s="66"/>
+      <c r="AA22" s="34"/>
+      <c r="AB22" s="69"/>
+      <c r="AC22" s="69"/>
+      <c r="AD22" s="34"/>
+      <c r="AE22" s="34"/>
     </row>
     <row r="23" spans="1:31" ht="11.25" customHeight="1">
-      <c r="A23" s="32" t="s">
+      <c r="A23" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="B23" s="32" t="s">
+      <c r="B23" s="37" t="s">
         <v>154</v>
       </c>
-      <c r="C23" s="32" t="s">
+      <c r="C23" s="37" t="s">
         <v>240</v>
       </c>
-      <c r="D23" s="32" t="s">
+      <c r="D23" s="37" t="s">
         <v>173</v>
       </c>
-      <c r="E23" s="32" t="s">
+      <c r="E23" s="37" t="s">
         <v>239</v>
       </c>
-      <c r="F23" s="32" t="s">
+      <c r="F23" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="G23" s="32" t="s">
+      <c r="G23" s="37" t="s">
         <v>153</v>
       </c>
-      <c r="H23" s="32" t="s">
+      <c r="H23" s="37" t="s">
         <v>171</v>
       </c>
-      <c r="I23" s="32" t="s">
+      <c r="I23" s="37" t="s">
         <v>155</v>
       </c>
-      <c r="J23" s="32" t="s">
+      <c r="J23" s="37" t="s">
         <v>158</v>
       </c>
-      <c r="K23" s="32" t="s">
+      <c r="K23" s="37" t="s">
         <v>159</v>
       </c>
-      <c r="L23" s="32" t="s">
+      <c r="L23" s="37" t="s">
         <v>157</v>
       </c>
-      <c r="M23" s="32" t="s">
+      <c r="M23" s="37" t="s">
         <v>160</v>
       </c>
-      <c r="N23" s="32" t="s">
+      <c r="N23" s="37" t="s">
         <v>162</v>
       </c>
-      <c r="O23" s="32" t="s">
+      <c r="O23" s="37" t="s">
         <v>161</v>
       </c>
-      <c r="P23" s="32" t="s">
+      <c r="P23" s="37" t="s">
         <v>167</v>
       </c>
-      <c r="Q23" s="32" t="s">
+      <c r="Q23" s="37" t="s">
         <v>168</v>
       </c>
-      <c r="R23" s="32" t="s">
+      <c r="R23" s="37" t="s">
         <v>174</v>
       </c>
-      <c r="S23" s="32" t="s">
+      <c r="S23" s="37" t="s">
         <v>163</v>
       </c>
-      <c r="T23" s="32" t="s">
+      <c r="T23" s="37" t="s">
         <v>169</v>
       </c>
-      <c r="U23" s="32" t="s">
+      <c r="U23" s="37" t="s">
         <v>170</v>
       </c>
-      <c r="V23" s="32" t="s">
+      <c r="V23" s="37" t="s">
         <v>218</v>
       </c>
-      <c r="W23" s="32" t="s">
+      <c r="W23" s="37" t="s">
         <v>236</v>
       </c>
-      <c r="X23" s="32" t="s">
+      <c r="X23" s="37" t="s">
         <v>165</v>
       </c>
-      <c r="Y23" s="32" t="s">
+      <c r="Y23" s="37" t="s">
         <v>172</v>
       </c>
-      <c r="Z23" s="45" t="s">
+      <c r="Z23" s="70" t="s">
         <v>237</v>
       </c>
-      <c r="AA23" s="48" t="s">
+      <c r="AA23" s="73" t="s">
         <v>207</v>
       </c>
-      <c r="AB23" s="31" t="s">
+      <c r="AB23" s="33" t="s">
         <v>208</v>
       </c>
-      <c r="AC23" s="31" t="s">
+      <c r="AC23" s="33" t="s">
         <v>209</v>
       </c>
-      <c r="AD23" s="31" t="s">
+      <c r="AD23" s="33" t="s">
         <v>210</v>
       </c>
-      <c r="AE23" s="31" t="s">
+      <c r="AE23" s="33" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="24" spans="1:31">
-      <c r="A24" s="33"/>
-      <c r="B24" s="33"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="33"/>
-      <c r="I24" s="33"/>
-      <c r="J24" s="33"/>
-      <c r="K24" s="33"/>
-      <c r="L24" s="33"/>
-      <c r="M24" s="33"/>
-      <c r="N24" s="33"/>
-      <c r="O24" s="33"/>
-      <c r="P24" s="33"/>
-      <c r="Q24" s="33"/>
-      <c r="R24" s="33"/>
-      <c r="S24" s="33"/>
-      <c r="T24" s="33"/>
-      <c r="U24" s="33"/>
-      <c r="V24" s="33"/>
-      <c r="W24" s="33"/>
-      <c r="X24" s="33"/>
-      <c r="Y24" s="33"/>
-      <c r="Z24" s="46"/>
-      <c r="AA24" s="48"/>
-      <c r="AB24" s="31"/>
-      <c r="AC24" s="31"/>
-      <c r="AD24" s="31"/>
-      <c r="AE24" s="31"/>
+      <c r="A24" s="38"/>
+      <c r="B24" s="38"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="38"/>
+      <c r="I24" s="38"/>
+      <c r="J24" s="38"/>
+      <c r="K24" s="38"/>
+      <c r="L24" s="38"/>
+      <c r="M24" s="38"/>
+      <c r="N24" s="38"/>
+      <c r="O24" s="38"/>
+      <c r="P24" s="38"/>
+      <c r="Q24" s="38"/>
+      <c r="R24" s="38"/>
+      <c r="S24" s="38"/>
+      <c r="T24" s="38"/>
+      <c r="U24" s="38"/>
+      <c r="V24" s="38"/>
+      <c r="W24" s="38"/>
+      <c r="X24" s="38"/>
+      <c r="Y24" s="38"/>
+      <c r="Z24" s="71"/>
+      <c r="AA24" s="73"/>
+      <c r="AB24" s="33"/>
+      <c r="AC24" s="33"/>
+      <c r="AD24" s="33"/>
+      <c r="AE24" s="33"/>
     </row>
     <row r="25" spans="1:31">
-      <c r="A25" s="33"/>
-      <c r="B25" s="33"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="33"/>
-      <c r="I25" s="33"/>
-      <c r="J25" s="33"/>
-      <c r="K25" s="33"/>
-      <c r="L25" s="33"/>
-      <c r="M25" s="33"/>
-      <c r="N25" s="33"/>
-      <c r="O25" s="33"/>
-      <c r="P25" s="33"/>
-      <c r="Q25" s="33"/>
-      <c r="R25" s="33"/>
-      <c r="S25" s="33"/>
-      <c r="T25" s="33"/>
-      <c r="U25" s="33"/>
-      <c r="V25" s="33"/>
-      <c r="W25" s="33"/>
-      <c r="X25" s="33"/>
-      <c r="Y25" s="33"/>
-      <c r="Z25" s="46"/>
-      <c r="AA25" s="48"/>
-      <c r="AB25" s="31"/>
-      <c r="AC25" s="31"/>
-      <c r="AD25" s="31"/>
-      <c r="AE25" s="31"/>
+      <c r="A25" s="38"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="38"/>
+      <c r="I25" s="38"/>
+      <c r="J25" s="38"/>
+      <c r="K25" s="38"/>
+      <c r="L25" s="38"/>
+      <c r="M25" s="38"/>
+      <c r="N25" s="38"/>
+      <c r="O25" s="38"/>
+      <c r="P25" s="38"/>
+      <c r="Q25" s="38"/>
+      <c r="R25" s="38"/>
+      <c r="S25" s="38"/>
+      <c r="T25" s="38"/>
+      <c r="U25" s="38"/>
+      <c r="V25" s="38"/>
+      <c r="W25" s="38"/>
+      <c r="X25" s="38"/>
+      <c r="Y25" s="38"/>
+      <c r="Z25" s="71"/>
+      <c r="AA25" s="73"/>
+      <c r="AB25" s="33"/>
+      <c r="AC25" s="33"/>
+      <c r="AD25" s="33"/>
+      <c r="AE25" s="33"/>
     </row>
     <row r="26" spans="1:31">
-      <c r="A26" s="34"/>
-      <c r="B26" s="34"/>
-      <c r="C26" s="34"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="34"/>
-      <c r="I26" s="34"/>
-      <c r="J26" s="34"/>
-      <c r="K26" s="34"/>
-      <c r="L26" s="34"/>
-      <c r="M26" s="34"/>
-      <c r="N26" s="34"/>
-      <c r="O26" s="34"/>
-      <c r="P26" s="34"/>
-      <c r="Q26" s="34"/>
-      <c r="R26" s="34"/>
-      <c r="S26" s="34"/>
-      <c r="T26" s="34"/>
-      <c r="U26" s="34"/>
-      <c r="V26" s="34"/>
-      <c r="W26" s="34"/>
-      <c r="X26" s="34"/>
-      <c r="Y26" s="34"/>
-      <c r="Z26" s="47"/>
-      <c r="AA26" s="48"/>
-      <c r="AB26" s="31"/>
-      <c r="AC26" s="31"/>
-      <c r="AD26" s="31"/>
-      <c r="AE26" s="31"/>
+      <c r="A26" s="39"/>
+      <c r="B26" s="39"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="39"/>
+      <c r="G26" s="39"/>
+      <c r="H26" s="39"/>
+      <c r="I26" s="39"/>
+      <c r="J26" s="39"/>
+      <c r="K26" s="39"/>
+      <c r="L26" s="39"/>
+      <c r="M26" s="39"/>
+      <c r="N26" s="39"/>
+      <c r="O26" s="39"/>
+      <c r="P26" s="39"/>
+      <c r="Q26" s="39"/>
+      <c r="R26" s="39"/>
+      <c r="S26" s="39"/>
+      <c r="T26" s="39"/>
+      <c r="U26" s="39"/>
+      <c r="V26" s="39"/>
+      <c r="W26" s="39"/>
+      <c r="X26" s="39"/>
+      <c r="Y26" s="39"/>
+      <c r="Z26" s="72"/>
+      <c r="AA26" s="73"/>
+      <c r="AB26" s="33"/>
+      <c r="AC26" s="33"/>
+      <c r="AD26" s="33"/>
+      <c r="AE26" s="33"/>
     </row>
     <row r="27" spans="1:31">
       <c r="D27" s="1"/>
@@ -5920,10 +7944,10 @@
       <c r="R27" s="1"/>
       <c r="S27" s="2"/>
       <c r="V27" s="2"/>
-      <c r="AA27" s="48"/>
-      <c r="AB27" s="31"/>
-      <c r="AC27" s="31"/>
-      <c r="AD27" s="31"/>
+      <c r="AA27" s="73"/>
+      <c r="AB27" s="33"/>
+      <c r="AC27" s="33"/>
+      <c r="AD27" s="33"/>
     </row>
     <row r="28" spans="1:31">
       <c r="D28" s="1"/>
@@ -5941,10 +7965,10 @@
       <c r="X28" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="AA28" s="48"/>
-      <c r="AB28" s="31"/>
-      <c r="AC28" s="31"/>
-      <c r="AD28" s="42"/>
+      <c r="AA28" s="73"/>
+      <c r="AB28" s="33"/>
+      <c r="AC28" s="33"/>
+      <c r="AD28" s="68"/>
       <c r="AE28" s="17" t="s">
         <v>150</v>
       </c>
@@ -5967,7 +7991,7 @@
         <v>166</v>
       </c>
       <c r="Z29" s="21"/>
-      <c r="AA29" s="48"/>
+      <c r="AA29" s="73"/>
       <c r="AB29" s="22"/>
       <c r="AC29" s="2"/>
       <c r="AD29" s="2"/>
@@ -5977,14 +8001,21 @@
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="D23:D26"/>
-    <mergeCell ref="R23:R26"/>
-    <mergeCell ref="O23:O26"/>
-    <mergeCell ref="V23:V26"/>
-    <mergeCell ref="N23:N26"/>
-    <mergeCell ref="S23:S26"/>
-    <mergeCell ref="E23:E26"/>
-    <mergeCell ref="H23:H26"/>
+    <mergeCell ref="AD23:AD28"/>
+    <mergeCell ref="AB20:AC22"/>
+    <mergeCell ref="AD20:AD22"/>
+    <mergeCell ref="W23:W26"/>
+    <mergeCell ref="I23:I26"/>
+    <mergeCell ref="L23:L26"/>
+    <mergeCell ref="J23:J26"/>
+    <mergeCell ref="K23:K26"/>
+    <mergeCell ref="M23:M26"/>
+    <mergeCell ref="Y23:Y26"/>
+    <mergeCell ref="Z23:Z26"/>
+    <mergeCell ref="AA20:AA22"/>
+    <mergeCell ref="AA23:AA29"/>
+    <mergeCell ref="AB23:AB28"/>
+    <mergeCell ref="AC23:AC28"/>
     <mergeCell ref="AE20:AE22"/>
     <mergeCell ref="AE23:AE26"/>
     <mergeCell ref="F20:Z22"/>
@@ -6001,21 +8032,14 @@
     <mergeCell ref="T23:T26"/>
     <mergeCell ref="U23:U26"/>
     <mergeCell ref="B23:B26"/>
-    <mergeCell ref="AD23:AD28"/>
-    <mergeCell ref="AB20:AC22"/>
-    <mergeCell ref="AD20:AD22"/>
-    <mergeCell ref="W23:W26"/>
-    <mergeCell ref="I23:I26"/>
-    <mergeCell ref="L23:L26"/>
-    <mergeCell ref="J23:J26"/>
-    <mergeCell ref="K23:K26"/>
-    <mergeCell ref="M23:M26"/>
-    <mergeCell ref="Y23:Y26"/>
-    <mergeCell ref="Z23:Z26"/>
-    <mergeCell ref="AA20:AA22"/>
-    <mergeCell ref="AA23:AA29"/>
-    <mergeCell ref="AB23:AB28"/>
-    <mergeCell ref="AC23:AC28"/>
+    <mergeCell ref="D23:D26"/>
+    <mergeCell ref="R23:R26"/>
+    <mergeCell ref="O23:O26"/>
+    <mergeCell ref="V23:V26"/>
+    <mergeCell ref="N23:N26"/>
+    <mergeCell ref="S23:S26"/>
+    <mergeCell ref="E23:E26"/>
+    <mergeCell ref="H23:H26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -6029,8 +8053,8 @@
   </sheetPr>
   <dimension ref="A2:AB66"/>
   <sheetViews>
-    <sheetView topLeftCell="U1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Y21" sqref="Y21:Z23"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24:F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -6068,32 +8092,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:28" ht="21">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="30"/>
+      <c r="B2" s="35"/>
       <c r="C2" s="3" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:28" ht="21">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="30"/>
+      <c r="B3" s="35"/>
       <c r="C3" s="3" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="4" spans="1:28" ht="21">
-      <c r="A4" s="58" t="s">
+      <c r="A4" s="67" t="s">
         <v>164</v>
       </c>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
       <c r="G4" s="1"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="19"/>
@@ -7145,268 +9169,268 @@
       <c r="X20" s="2"/>
     </row>
     <row r="21" spans="1:28" ht="11.25" customHeight="1">
-      <c r="E21" s="49" t="s">
+      <c r="E21" s="58" t="s">
+        <v>409</v>
+      </c>
+      <c r="F21" s="59"/>
+      <c r="G21" s="59"/>
+      <c r="H21" s="59"/>
+      <c r="I21" s="59"/>
+      <c r="J21" s="59"/>
+      <c r="K21" s="59"/>
+      <c r="L21" s="59"/>
+      <c r="M21" s="59"/>
+      <c r="N21" s="59"/>
+      <c r="O21" s="59"/>
+      <c r="P21" s="59"/>
+      <c r="Q21" s="59"/>
+      <c r="R21" s="59"/>
+      <c r="S21" s="59"/>
+      <c r="T21" s="59"/>
+      <c r="U21" s="59"/>
+      <c r="V21" s="59"/>
+      <c r="W21" s="59"/>
+      <c r="X21" s="60"/>
+      <c r="Y21" s="34" t="s">
+        <v>369</v>
+      </c>
+      <c r="Z21" s="34"/>
+      <c r="AA21" s="34" t="s">
+        <v>368</v>
+      </c>
+      <c r="AB21" s="34" t="s">
         <v>410</v>
       </c>
-      <c r="F21" s="50"/>
-      <c r="G21" s="50"/>
-      <c r="H21" s="50"/>
-      <c r="I21" s="50"/>
-      <c r="J21" s="50"/>
-      <c r="K21" s="50"/>
-      <c r="L21" s="50"/>
-      <c r="M21" s="50"/>
-      <c r="N21" s="50"/>
-      <c r="O21" s="50"/>
-      <c r="P21" s="50"/>
-      <c r="Q21" s="50"/>
-      <c r="R21" s="50"/>
-      <c r="S21" s="50"/>
-      <c r="T21" s="50"/>
-      <c r="U21" s="50"/>
-      <c r="V21" s="50"/>
-      <c r="W21" s="50"/>
-      <c r="X21" s="51"/>
-      <c r="Y21" s="43" t="s">
-        <v>369</v>
-      </c>
-      <c r="Z21" s="43"/>
-      <c r="AA21" s="43" t="s">
-        <v>368</v>
-      </c>
-      <c r="AB21" s="43" t="s">
-        <v>411</v>
-      </c>
     </row>
     <row r="22" spans="1:28">
-      <c r="E22" s="52"/>
-      <c r="F22" s="53"/>
-      <c r="G22" s="53"/>
-      <c r="H22" s="53"/>
-      <c r="I22" s="53"/>
-      <c r="J22" s="53"/>
-      <c r="K22" s="53"/>
-      <c r="L22" s="53"/>
-      <c r="M22" s="53"/>
-      <c r="N22" s="53"/>
-      <c r="O22" s="53"/>
-      <c r="P22" s="53"/>
-      <c r="Q22" s="53"/>
-      <c r="R22" s="53"/>
-      <c r="S22" s="53"/>
-      <c r="T22" s="53"/>
-      <c r="U22" s="53"/>
-      <c r="V22" s="53"/>
-      <c r="W22" s="53"/>
-      <c r="X22" s="54"/>
-      <c r="Y22" s="43"/>
-      <c r="Z22" s="43"/>
-      <c r="AA22" s="43"/>
-      <c r="AB22" s="43" t="s">
+      <c r="E22" s="61"/>
+      <c r="F22" s="62"/>
+      <c r="G22" s="62"/>
+      <c r="H22" s="62"/>
+      <c r="I22" s="62"/>
+      <c r="J22" s="62"/>
+      <c r="K22" s="62"/>
+      <c r="L22" s="62"/>
+      <c r="M22" s="62"/>
+      <c r="N22" s="62"/>
+      <c r="O22" s="62"/>
+      <c r="P22" s="62"/>
+      <c r="Q22" s="62"/>
+      <c r="R22" s="62"/>
+      <c r="S22" s="62"/>
+      <c r="T22" s="62"/>
+      <c r="U22" s="62"/>
+      <c r="V22" s="62"/>
+      <c r="W22" s="62"/>
+      <c r="X22" s="63"/>
+      <c r="Y22" s="34"/>
+      <c r="Z22" s="34"/>
+      <c r="AA22" s="34"/>
+      <c r="AB22" s="34" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="23" spans="1:28">
-      <c r="E23" s="55"/>
-      <c r="F23" s="56"/>
-      <c r="G23" s="56"/>
-      <c r="H23" s="56"/>
-      <c r="I23" s="56"/>
-      <c r="J23" s="56"/>
-      <c r="K23" s="56"/>
-      <c r="L23" s="56"/>
-      <c r="M23" s="56"/>
-      <c r="N23" s="56"/>
-      <c r="O23" s="56"/>
-      <c r="P23" s="56"/>
-      <c r="Q23" s="56"/>
-      <c r="R23" s="56"/>
-      <c r="S23" s="56"/>
-      <c r="T23" s="56"/>
-      <c r="U23" s="56"/>
-      <c r="V23" s="56"/>
-      <c r="W23" s="56"/>
-      <c r="X23" s="57"/>
-      <c r="Y23" s="43"/>
-      <c r="Z23" s="43"/>
-      <c r="AA23" s="43"/>
-      <c r="AB23" s="43"/>
+      <c r="E23" s="64"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="65"/>
+      <c r="H23" s="65"/>
+      <c r="I23" s="65"/>
+      <c r="J23" s="65"/>
+      <c r="K23" s="65"/>
+      <c r="L23" s="65"/>
+      <c r="M23" s="65"/>
+      <c r="N23" s="65"/>
+      <c r="O23" s="65"/>
+      <c r="P23" s="65"/>
+      <c r="Q23" s="65"/>
+      <c r="R23" s="65"/>
+      <c r="S23" s="65"/>
+      <c r="T23" s="65"/>
+      <c r="U23" s="65"/>
+      <c r="V23" s="65"/>
+      <c r="W23" s="65"/>
+      <c r="X23" s="66"/>
+      <c r="Y23" s="34"/>
+      <c r="Z23" s="34"/>
+      <c r="AA23" s="34"/>
+      <c r="AB23" s="34"/>
     </row>
     <row r="24" spans="1:28" ht="11.25" customHeight="1">
-      <c r="A24" s="32" t="s">
+      <c r="A24" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="B24" s="32" t="s">
+      <c r="B24" s="37" t="s">
         <v>240</v>
       </c>
-      <c r="C24" s="32" t="s">
+      <c r="C24" s="37" t="s">
         <v>154</v>
       </c>
-      <c r="D24" s="32" t="s">
+      <c r="D24" s="37" t="s">
         <v>154</v>
       </c>
-      <c r="E24" s="32" t="s">
+      <c r="E24" s="37" t="s">
         <v>239</v>
       </c>
-      <c r="F24" s="32" t="s">
+      <c r="F24" s="37" t="s">
         <v>173</v>
       </c>
-      <c r="G24" s="32" t="s">
+      <c r="G24" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="H24" s="32" t="s">
+      <c r="H24" s="37" t="s">
         <v>153</v>
       </c>
-      <c r="I24" s="32" t="s">
+      <c r="I24" s="37" t="s">
         <v>171</v>
       </c>
-      <c r="J24" s="32" t="s">
+      <c r="J24" s="37" t="s">
         <v>155</v>
       </c>
-      <c r="K24" s="32" t="s">
+      <c r="K24" s="37" t="s">
         <v>259</v>
       </c>
-      <c r="L24" s="32" t="s">
+      <c r="L24" s="37" t="s">
         <v>260</v>
       </c>
-      <c r="M24" s="31" t="s">
+      <c r="M24" s="33" t="s">
         <v>271</v>
       </c>
-      <c r="N24" s="59" t="s">
+      <c r="N24" s="86" t="s">
         <v>265</v>
       </c>
-      <c r="O24" s="63" t="s">
+      <c r="O24" s="77" t="s">
         <v>272</v>
       </c>
-      <c r="P24" s="32" t="s">
+      <c r="P24" s="37" t="s">
         <v>273</v>
       </c>
-      <c r="Q24" s="32" t="s">
+      <c r="Q24" s="37" t="s">
         <v>257</v>
       </c>
-      <c r="R24" s="32" t="s">
+      <c r="R24" s="37" t="s">
         <v>261</v>
       </c>
-      <c r="S24" s="32" t="s">
+      <c r="S24" s="37" t="s">
         <v>276</v>
       </c>
-      <c r="T24" s="32" t="s">
+      <c r="T24" s="37" t="s">
         <v>262</v>
       </c>
-      <c r="U24" s="32" t="s">
+      <c r="U24" s="37" t="s">
         <v>263</v>
       </c>
-      <c r="V24" s="32" t="s">
+      <c r="V24" s="37" t="s">
         <v>266</v>
       </c>
-      <c r="W24" s="32" t="s">
+      <c r="W24" s="37" t="s">
         <v>267</v>
       </c>
-      <c r="X24" s="32" t="s">
+      <c r="X24" s="37" t="s">
         <v>268</v>
       </c>
-      <c r="Y24" s="66" t="s">
+      <c r="Y24" s="80" t="s">
         <v>269</v>
       </c>
-      <c r="Z24" s="69" t="s">
+      <c r="Z24" s="83" t="s">
         <v>270</v>
       </c>
-      <c r="AA24" s="31" t="s">
+      <c r="AA24" s="33" t="s">
         <v>210</v>
       </c>
-      <c r="AB24" s="60" t="s">
+      <c r="AB24" s="74" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="25" spans="1:28">
-      <c r="A25" s="33"/>
-      <c r="B25" s="33"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="33"/>
-      <c r="I25" s="33"/>
-      <c r="J25" s="33"/>
-      <c r="K25" s="33"/>
-      <c r="L25" s="33"/>
-      <c r="M25" s="31"/>
-      <c r="N25" s="59"/>
-      <c r="O25" s="64"/>
-      <c r="P25" s="33"/>
-      <c r="Q25" s="33"/>
-      <c r="R25" s="33"/>
-      <c r="S25" s="33"/>
-      <c r="T25" s="33"/>
-      <c r="U25" s="33"/>
-      <c r="V25" s="33"/>
-      <c r="W25" s="33"/>
-      <c r="X25" s="33"/>
-      <c r="Y25" s="67"/>
-      <c r="Z25" s="70"/>
-      <c r="AA25" s="31"/>
-      <c r="AB25" s="61"/>
+      <c r="A25" s="38"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="38"/>
+      <c r="I25" s="38"/>
+      <c r="J25" s="38"/>
+      <c r="K25" s="38"/>
+      <c r="L25" s="38"/>
+      <c r="M25" s="33"/>
+      <c r="N25" s="86"/>
+      <c r="O25" s="78"/>
+      <c r="P25" s="38"/>
+      <c r="Q25" s="38"/>
+      <c r="R25" s="38"/>
+      <c r="S25" s="38"/>
+      <c r="T25" s="38"/>
+      <c r="U25" s="38"/>
+      <c r="V25" s="38"/>
+      <c r="W25" s="38"/>
+      <c r="X25" s="38"/>
+      <c r="Y25" s="81"/>
+      <c r="Z25" s="84"/>
+      <c r="AA25" s="33"/>
+      <c r="AB25" s="75"/>
     </row>
     <row r="26" spans="1:28">
-      <c r="A26" s="33"/>
-      <c r="B26" s="33"/>
-      <c r="C26" s="33"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="33"/>
-      <c r="F26" s="33"/>
-      <c r="G26" s="33"/>
-      <c r="H26" s="33"/>
-      <c r="I26" s="33"/>
-      <c r="J26" s="33"/>
-      <c r="K26" s="33"/>
-      <c r="L26" s="33"/>
-      <c r="M26" s="31"/>
-      <c r="N26" s="59"/>
-      <c r="O26" s="64"/>
-      <c r="P26" s="33"/>
-      <c r="Q26" s="33"/>
-      <c r="R26" s="33"/>
-      <c r="S26" s="33"/>
-      <c r="T26" s="33"/>
-      <c r="U26" s="33"/>
-      <c r="V26" s="33"/>
-      <c r="W26" s="33"/>
-      <c r="X26" s="33"/>
-      <c r="Y26" s="67"/>
-      <c r="Z26" s="70"/>
-      <c r="AA26" s="31"/>
-      <c r="AB26" s="61"/>
+      <c r="A26" s="38"/>
+      <c r="B26" s="38"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="38"/>
+      <c r="I26" s="38"/>
+      <c r="J26" s="38"/>
+      <c r="K26" s="38"/>
+      <c r="L26" s="38"/>
+      <c r="M26" s="33"/>
+      <c r="N26" s="86"/>
+      <c r="O26" s="78"/>
+      <c r="P26" s="38"/>
+      <c r="Q26" s="38"/>
+      <c r="R26" s="38"/>
+      <c r="S26" s="38"/>
+      <c r="T26" s="38"/>
+      <c r="U26" s="38"/>
+      <c r="V26" s="38"/>
+      <c r="W26" s="38"/>
+      <c r="X26" s="38"/>
+      <c r="Y26" s="81"/>
+      <c r="Z26" s="84"/>
+      <c r="AA26" s="33"/>
+      <c r="AB26" s="75"/>
     </row>
     <row r="27" spans="1:28">
-      <c r="A27" s="34"/>
-      <c r="B27" s="34"/>
-      <c r="C27" s="34"/>
-      <c r="D27" s="34"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="34"/>
-      <c r="H27" s="34"/>
-      <c r="I27" s="34"/>
-      <c r="J27" s="34"/>
-      <c r="K27" s="34"/>
-      <c r="L27" s="34"/>
-      <c r="M27" s="31"/>
-      <c r="N27" s="59"/>
-      <c r="O27" s="65"/>
-      <c r="P27" s="34"/>
-      <c r="Q27" s="34"/>
-      <c r="R27" s="34"/>
-      <c r="S27" s="34"/>
-      <c r="T27" s="34"/>
-      <c r="U27" s="34"/>
-      <c r="V27" s="34"/>
-      <c r="W27" s="34"/>
-      <c r="X27" s="34"/>
-      <c r="Y27" s="67"/>
-      <c r="Z27" s="70"/>
-      <c r="AA27" s="31"/>
-      <c r="AB27" s="61"/>
+      <c r="A27" s="39"/>
+      <c r="B27" s="39"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="39"/>
+      <c r="I27" s="39"/>
+      <c r="J27" s="39"/>
+      <c r="K27" s="39"/>
+      <c r="L27" s="39"/>
+      <c r="M27" s="33"/>
+      <c r="N27" s="86"/>
+      <c r="O27" s="79"/>
+      <c r="P27" s="39"/>
+      <c r="Q27" s="39"/>
+      <c r="R27" s="39"/>
+      <c r="S27" s="39"/>
+      <c r="T27" s="39"/>
+      <c r="U27" s="39"/>
+      <c r="V27" s="39"/>
+      <c r="W27" s="39"/>
+      <c r="X27" s="39"/>
+      <c r="Y27" s="81"/>
+      <c r="Z27" s="84"/>
+      <c r="AA27" s="33"/>
+      <c r="AB27" s="75"/>
     </row>
     <row r="28" spans="1:28">
       <c r="E28" s="1"/>
@@ -7414,16 +9438,16 @@
       <c r="K28" s="2"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
-      <c r="N28" s="59"/>
+      <c r="N28" s="86"/>
       <c r="R28" s="2"/>
       <c r="S28" s="2"/>
       <c r="T28" s="2"/>
       <c r="U28" s="1"/>
       <c r="X28" s="2"/>
-      <c r="Y28" s="67"/>
-      <c r="Z28" s="70"/>
-      <c r="AA28" s="31"/>
-      <c r="AB28" s="61"/>
+      <c r="Y28" s="81"/>
+      <c r="Z28" s="84"/>
+      <c r="AA28" s="33"/>
+      <c r="AB28" s="75"/>
     </row>
     <row r="29" spans="1:28">
       <c r="E29" s="1"/>
@@ -7436,7 +9460,7 @@
       </c>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
-      <c r="N29" s="59"/>
+      <c r="N29" s="86"/>
       <c r="R29" s="2"/>
       <c r="S29" s="17" t="s">
         <v>277</v>
@@ -7445,10 +9469,10 @@
         <v>150</v>
       </c>
       <c r="X29" s="2"/>
-      <c r="Y29" s="68"/>
-      <c r="Z29" s="71"/>
-      <c r="AA29" s="31"/>
-      <c r="AB29" s="62"/>
+      <c r="Y29" s="82"/>
+      <c r="Z29" s="85"/>
+      <c r="AA29" s="33"/>
+      <c r="AB29" s="76"/>
     </row>
     <row r="30" spans="1:28" ht="202.5">
       <c r="E30" s="1"/>
@@ -7461,7 +9485,7 @@
       </c>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
-      <c r="N30" s="59"/>
+      <c r="N30" s="86"/>
       <c r="R30" s="2"/>
       <c r="S30" s="25" t="s">
         <v>278</v>
@@ -7655,25 +9679,6 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="AB21:AB23"/>
-    <mergeCell ref="AB24:AB29"/>
-    <mergeCell ref="S24:S27"/>
-    <mergeCell ref="E21:X23"/>
-    <mergeCell ref="V24:V27"/>
-    <mergeCell ref="W24:W27"/>
-    <mergeCell ref="E24:E27"/>
-    <mergeCell ref="H24:H27"/>
-    <mergeCell ref="O24:O27"/>
-    <mergeCell ref="Y21:Z23"/>
-    <mergeCell ref="Y24:Y29"/>
-    <mergeCell ref="Z24:Z29"/>
-    <mergeCell ref="AA24:AA29"/>
-    <mergeCell ref="AA21:AA23"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="C24:C27"/>
     <mergeCell ref="D24:D27"/>
     <mergeCell ref="A4:F4"/>
     <mergeCell ref="X24:X27"/>
@@ -7690,6 +9695,25 @@
     <mergeCell ref="L24:L27"/>
     <mergeCell ref="R24:R27"/>
     <mergeCell ref="G24:G27"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="AB21:AB23"/>
+    <mergeCell ref="AB24:AB29"/>
+    <mergeCell ref="S24:S27"/>
+    <mergeCell ref="E21:X23"/>
+    <mergeCell ref="V24:V27"/>
+    <mergeCell ref="W24:W27"/>
+    <mergeCell ref="E24:E27"/>
+    <mergeCell ref="H24:H27"/>
+    <mergeCell ref="O24:O27"/>
+    <mergeCell ref="Y21:Z23"/>
+    <mergeCell ref="Y24:Y29"/>
+    <mergeCell ref="Z24:Z29"/>
+    <mergeCell ref="AA24:AA29"/>
+    <mergeCell ref="AA21:AA23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -7701,9 +9725,921 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
+  <dimension ref="A2:U37"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="11.25"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="24" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.28515625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="21.28515625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="19" style="2" customWidth="1"/>
+    <col min="8" max="8" width="21.5703125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="19.85546875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="25.42578125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="26" style="2" customWidth="1"/>
+    <col min="12" max="12" width="25.7109375" style="2" customWidth="1"/>
+    <col min="13" max="13" width="24" style="2" customWidth="1"/>
+    <col min="14" max="14" width="39.5703125" style="2" customWidth="1"/>
+    <col min="15" max="15" width="33.85546875" style="2" customWidth="1"/>
+    <col min="16" max="16" width="24.28515625" style="2" customWidth="1"/>
+    <col min="17" max="17" width="33.140625" style="2" customWidth="1"/>
+    <col min="18" max="18" width="36.42578125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="39" style="1" customWidth="1"/>
+    <col min="20" max="20" width="30.42578125" style="1" customWidth="1"/>
+    <col min="21" max="21" width="31.28515625" style="2" customWidth="1"/>
+    <col min="22" max="22" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="27.28515625" style="1" customWidth="1"/>
+    <col min="24" max="24" width="43.140625" style="1" customWidth="1"/>
+    <col min="25" max="25" width="42.140625" style="1" customWidth="1"/>
+    <col min="26" max="26" width="25.5703125" style="1" customWidth="1"/>
+    <col min="27" max="27" width="25.28515625" style="1" customWidth="1"/>
+    <col min="28" max="28" width="41.42578125" style="1" customWidth="1"/>
+    <col min="29" max="29" width="26" style="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:21" ht="21">
+      <c r="A2" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="35"/>
+      <c r="C2" s="3" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="21">
+      <c r="A3" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="35"/>
+      <c r="C3" s="3" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
+      <c r="Q4" s="1"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="1"/>
+    </row>
+    <row r="5" spans="1:21">
+      <c r="Q5" s="1"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="1"/>
+    </row>
+    <row r="6" spans="1:21" s="22" customFormat="1" ht="21" customHeight="1">
+      <c r="A6" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="27" t="s">
+        <v>529</v>
+      </c>
+      <c r="F6" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" s="27" t="s">
+        <v>530</v>
+      </c>
+      <c r="H6" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="J6" s="27" t="s">
+        <v>531</v>
+      </c>
+      <c r="K6" s="27" t="s">
+        <v>532</v>
+      </c>
+      <c r="L6" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="M6" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="N6" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="O6" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="P6" s="27" t="s">
+        <v>335</v>
+      </c>
+      <c r="T6" s="16"/>
+    </row>
+    <row r="7" spans="1:21">
+      <c r="A7" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>533</v>
+      </c>
+      <c r="E7" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="28" t="s">
+        <v>535</v>
+      </c>
+      <c r="G7" s="28" t="s">
+        <v>534</v>
+      </c>
+      <c r="H7" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="I7" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="J7" s="28" t="s">
+        <v>535</v>
+      </c>
+      <c r="K7" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="L7" s="28" t="s">
+        <v>534</v>
+      </c>
+      <c r="M7" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="N7" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="O7" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q7" s="1"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="1"/>
+    </row>
+    <row r="8" spans="1:21">
+      <c r="A8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="Q8" s="1"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="1"/>
+    </row>
+    <row r="9" spans="1:21">
+      <c r="A9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="Q9" s="1"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="1"/>
+    </row>
+    <row r="10" spans="1:21">
+      <c r="A10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="Q10" s="1"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="1"/>
+    </row>
+    <row r="11" spans="1:21">
+      <c r="A11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="Q11" s="1"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="1"/>
+    </row>
+    <row r="12" spans="1:21">
+      <c r="A12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="Q12" s="1"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="1"/>
+    </row>
+    <row r="13" spans="1:21">
+      <c r="A13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="Q13" s="1"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="1"/>
+    </row>
+    <row r="14" spans="1:21">
+      <c r="A14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21">
+      <c r="A15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21">
+      <c r="A16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="D18" s="90" t="s">
+        <v>567</v>
+      </c>
+      <c r="E18" s="90"/>
+      <c r="F18" s="90"/>
+      <c r="G18" s="90"/>
+      <c r="H18" s="90"/>
+      <c r="I18" s="90"/>
+      <c r="J18" s="90"/>
+      <c r="K18" s="90"/>
+      <c r="L18" s="90"/>
+      <c r="M18" s="90"/>
+      <c r="N18" s="34" t="s">
+        <v>586</v>
+      </c>
+      <c r="O18" s="34" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="D19" s="90"/>
+      <c r="E19" s="90"/>
+      <c r="F19" s="90"/>
+      <c r="G19" s="90"/>
+      <c r="H19" s="90"/>
+      <c r="I19" s="90"/>
+      <c r="J19" s="90"/>
+      <c r="K19" s="90"/>
+      <c r="L19" s="90"/>
+      <c r="M19" s="90"/>
+      <c r="N19" s="34"/>
+      <c r="O19" s="34"/>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="D20" s="90"/>
+      <c r="E20" s="90"/>
+      <c r="F20" s="90"/>
+      <c r="G20" s="90"/>
+      <c r="H20" s="90"/>
+      <c r="I20" s="90"/>
+      <c r="J20" s="90"/>
+      <c r="K20" s="90"/>
+      <c r="L20" s="90"/>
+      <c r="M20" s="90"/>
+      <c r="N20" s="34"/>
+      <c r="O20" s="34"/>
+    </row>
+    <row r="21" spans="1:16" ht="11.25" customHeight="1">
+      <c r="A21" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="33" t="s">
+        <v>154</v>
+      </c>
+      <c r="C21" s="33" t="s">
+        <v>240</v>
+      </c>
+      <c r="D21" s="33" t="s">
+        <v>568</v>
+      </c>
+      <c r="E21" s="33" t="s">
+        <v>569</v>
+      </c>
+      <c r="F21" s="33" t="s">
+        <v>580</v>
+      </c>
+      <c r="G21" s="33" t="s">
+        <v>570</v>
+      </c>
+      <c r="H21" s="33" t="s">
+        <v>572</v>
+      </c>
+      <c r="I21" s="33" t="s">
+        <v>571</v>
+      </c>
+      <c r="J21" s="33" t="s">
+        <v>581</v>
+      </c>
+      <c r="K21" s="33" t="s">
+        <v>582</v>
+      </c>
+      <c r="L21" s="33" t="s">
+        <v>583</v>
+      </c>
+      <c r="M21" s="33" t="s">
+        <v>584</v>
+      </c>
+      <c r="N21" s="33" t="s">
+        <v>587</v>
+      </c>
+      <c r="O21" s="33" t="s">
+        <v>589</v>
+      </c>
+      <c r="P21" s="33" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22" s="33"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="33"/>
+      <c r="J22" s="33"/>
+      <c r="K22" s="33"/>
+      <c r="L22" s="33"/>
+      <c r="M22" s="33"/>
+      <c r="N22" s="33"/>
+      <c r="O22" s="33"/>
+      <c r="P22" s="33"/>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23" s="33"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="33"/>
+      <c r="J23" s="33"/>
+      <c r="K23" s="33"/>
+      <c r="L23" s="33"/>
+      <c r="M23" s="33"/>
+      <c r="N23" s="33"/>
+      <c r="O23" s="33"/>
+      <c r="P23" s="33"/>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24" s="33"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="33"/>
+      <c r="J24" s="33"/>
+      <c r="K24" s="33"/>
+      <c r="L24" s="33"/>
+      <c r="M24" s="33"/>
+      <c r="N24" s="33"/>
+      <c r="O24" s="33"/>
+      <c r="P24" s="33"/>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="A25" s="33"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="33"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="33"/>
+      <c r="L25" s="33"/>
+      <c r="M25" s="33"/>
+      <c r="N25" s="33"/>
+      <c r="O25" s="33"/>
+      <c r="P25" s="33"/>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26" s="33"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="33"/>
+      <c r="I26" s="33"/>
+      <c r="J26" s="33"/>
+      <c r="K26" s="33"/>
+      <c r="L26" s="33"/>
+      <c r="M26" s="33"/>
+      <c r="N26" s="33"/>
+      <c r="O26" s="33"/>
+      <c r="P26" s="33"/>
+    </row>
+    <row r="28" spans="1:16" ht="11.25" customHeight="1">
+      <c r="H28" s="91" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="H29" s="91" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
+      <c r="H30" s="91" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
+      <c r="H31" s="91" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="H32" s="91" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="33" spans="8:8">
+      <c r="H33" s="91" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="34" spans="8:8">
+      <c r="H34" s="91" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="35" spans="8:8">
+      <c r="H35" s="91" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="36" spans="8:8">
+      <c r="H36" s="91" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="37" spans="8:8">
+      <c r="H37" s="91" t="s">
+        <v>579</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="21">
+    <mergeCell ref="D18:M20"/>
+    <mergeCell ref="N18:N20"/>
+    <mergeCell ref="O18:O20"/>
+    <mergeCell ref="B21:B26"/>
+    <mergeCell ref="J21:J26"/>
+    <mergeCell ref="K21:K26"/>
+    <mergeCell ref="L21:L26"/>
+    <mergeCell ref="M21:M26"/>
+    <mergeCell ref="O21:O26"/>
+    <mergeCell ref="N21:N26"/>
+    <mergeCell ref="C21:C26"/>
+    <mergeCell ref="A21:A26"/>
+    <mergeCell ref="D21:D26"/>
+    <mergeCell ref="E21:E26"/>
+    <mergeCell ref="G21:G26"/>
+    <mergeCell ref="I21:I26"/>
+    <mergeCell ref="H21:H26"/>
+    <mergeCell ref="F21:F26"/>
+    <mergeCell ref="P21:P26"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
   <dimension ref="A2:H28"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F19" sqref="F19:F21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
@@ -7719,19 +10655,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="21">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="30"/>
+      <c r="B2" s="35"/>
       <c r="C2" s="3" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="21">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="30"/>
+      <c r="B3" s="35"/>
       <c r="C3" s="3" t="s">
         <v>286</v>
       </c>
@@ -8023,95 +10959,95 @@
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="B19" s="43" t="s">
+      <c r="B19" s="34" t="s">
+        <v>407</v>
+      </c>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34" t="s">
+        <v>287</v>
+      </c>
+      <c r="G19" s="34" t="s">
         <v>408</v>
       </c>
-      <c r="C19" s="43"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="43" t="s">
-        <v>287</v>
-      </c>
-      <c r="G19" s="43" t="s">
-        <v>409</v>
-      </c>
-      <c r="H19" s="43"/>
+      <c r="H19" s="34"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="B20" s="43"/>
-      <c r="C20" s="43"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="43"/>
-      <c r="H20" s="43"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="69"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="34"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="B21" s="43"/>
-      <c r="C21" s="43"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="43"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="69"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="34"/>
     </row>
     <row r="22" spans="1:8" ht="11.25" customHeight="1">
-      <c r="A22" s="45" t="s">
+      <c r="A22" s="70" t="s">
         <v>154</v>
       </c>
-      <c r="B22" s="32" t="s">
+      <c r="B22" s="37" t="s">
         <v>282</v>
       </c>
-      <c r="C22" s="32" t="s">
+      <c r="C22" s="37" t="s">
         <v>280</v>
       </c>
-      <c r="D22" s="32" t="s">
+      <c r="D22" s="37" t="s">
         <v>281</v>
       </c>
-      <c r="E22" s="32" t="s">
+      <c r="E22" s="37" t="s">
         <v>283</v>
       </c>
-      <c r="F22" s="72" t="s">
+      <c r="F22" s="87" t="s">
         <v>288</v>
       </c>
-      <c r="G22" s="32" t="s">
+      <c r="G22" s="37" t="s">
         <v>284</v>
       </c>
-      <c r="H22" s="32" t="s">
+      <c r="H22" s="37" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="46"/>
-      <c r="B23" s="33"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="73"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="33"/>
+      <c r="A23" s="71"/>
+      <c r="B23" s="38"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="88"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="38"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="47"/>
-      <c r="B24" s="33"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="73"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="33"/>
+      <c r="A24" s="72"/>
+      <c r="B24" s="38"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="88"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="38"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="B25" s="33"/>
-      <c r="C25" s="34"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="74"/>
-      <c r="G25" s="34"/>
-      <c r="H25" s="34"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="89"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="39"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="B26" s="34"/>
+      <c r="B26" s="39"/>
     </row>
     <row r="27" spans="1:8">
       <c r="H27" s="17" t="s">
@@ -8129,11 +11065,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="B22:B26"/>
-    <mergeCell ref="F19:F21"/>
     <mergeCell ref="H22:H25"/>
     <mergeCell ref="B19:E21"/>
     <mergeCell ref="G19:H21"/>
@@ -8142,297 +11073,13 @@
     <mergeCell ref="D22:D25"/>
     <mergeCell ref="E22:E25"/>
     <mergeCell ref="G22:G25"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="F19:F21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C2:E32"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E2:E17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="3" max="3" width="21.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="3:5">
-      <c r="C2" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="str">
-        <f>CONCATENATE(C2,", ")</f>
-        <v xml:space="preserve">CD_CIA, </v>
-      </c>
-    </row>
-    <row r="3" spans="3:5">
-      <c r="C3" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" t="str">
-        <f t="shared" ref="E3:E32" si="0">CONCATENATE(C3,", ")</f>
-        <v xml:space="preserve">CD_TRANSACAO_TITULO, </v>
-      </c>
-    </row>
-    <row r="4" spans="3:5">
-      <c r="C4" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">NR_TITULO, </v>
-      </c>
-    </row>
-    <row r="5" spans="3:5">
-      <c r="C5" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">CD_CHAVE_PRIMARIA, </v>
-      </c>
-    </row>
-    <row r="6" spans="3:5">
-      <c r="C6" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">CD_BANCO, </v>
-      </c>
-    </row>
-    <row r="7" spans="3:5">
-      <c r="C7" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">NR_REMESSA, </v>
-      </c>
-    </row>
-    <row r="8" spans="3:5">
-      <c r="C8" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">DT_REMESSA, </v>
-      </c>
-    </row>
-    <row r="9" spans="3:5">
-      <c r="C9" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">NR_AGENCIA, </v>
-      </c>
-    </row>
-    <row r="10" spans="3:5">
-      <c r="C10" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">NR_CONTA, </v>
-      </c>
-    </row>
-    <row r="11" spans="3:5">
-      <c r="C11" s="27" t="s">
-        <v>333</v>
-      </c>
-      <c r="E11" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">CD_STATUS_ARQUIVO, </v>
-      </c>
-    </row>
-    <row r="12" spans="3:5">
-      <c r="C12" s="27" t="s">
-        <v>334</v>
-      </c>
-      <c r="E12" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">CD_STATUS_ENVIO, </v>
-      </c>
-    </row>
-    <row r="13" spans="3:5">
-      <c r="C13" s="27" t="s">
-        <v>335</v>
-      </c>
-      <c r="E13" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">DT_ULT_ATUALIZACAO, </v>
-      </c>
-    </row>
-    <row r="14" spans="3:5">
-      <c r="C14" s="27" t="s">
-        <v>336</v>
-      </c>
-      <c r="E14" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">NR_BANCO, </v>
-      </c>
-    </row>
-    <row r="15" spans="3:5">
-      <c r="C15" s="27" t="s">
-        <v>337</v>
-      </c>
-      <c r="E15" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">CD_TRANSACAO_MOVIMENTO, </v>
-      </c>
-    </row>
-    <row r="16" spans="3:5">
-      <c r="C16" s="27" t="s">
-        <v>338</v>
-      </c>
-      <c r="E16" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">NR_DOC_MOVIMENTO, </v>
-      </c>
-    </row>
-    <row r="17" spans="3:5">
-      <c r="C17" s="27" t="s">
-        <v>339</v>
-      </c>
-      <c r="E17" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">NR_SERIE, </v>
-      </c>
-    </row>
-    <row r="18" spans="3:5">
-      <c r="C18" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E18" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">CD_BANCO, </v>
-      </c>
-    </row>
-    <row r="19" spans="3:5">
-      <c r="C19" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E19" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">NR_AGENCIA, </v>
-      </c>
-    </row>
-    <row r="20" spans="3:5">
-      <c r="C20" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="E20" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">NR_CONTA_CORRENTE, </v>
-      </c>
-    </row>
-    <row r="21" spans="3:5">
-      <c r="C21" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">DT_ATUALIZACAO, </v>
-      </c>
-    </row>
-    <row r="22" spans="3:5">
-      <c r="C22" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="E22" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">CD_UNIDADE_EMPRESARIAL, </v>
-      </c>
-    </row>
-    <row r="23" spans="3:5">
-      <c r="C23" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="E23" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">NR_TITULO_REFERENCIA, </v>
-      </c>
-    </row>
-    <row r="24" spans="3:5">
-      <c r="C24" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="E24" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">CD_TRANSACAO_DOCUMENTO, </v>
-      </c>
-    </row>
-    <row r="25" spans="3:5">
-      <c r="C25" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="E25" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">DT_VENCTO_PRORROGADO, </v>
-      </c>
-    </row>
-    <row r="26" spans="3:5">
-      <c r="C26" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="E26" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">DT_VENCTO_ORIGINAL_PRORROGADO, </v>
-      </c>
-    </row>
-    <row r="27" spans="3:5">
-      <c r="C27" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="E27" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">DT_LIQUIDEZ_PREVISTA, </v>
-      </c>
-    </row>
-    <row r="28" spans="3:5">
-      <c r="C28" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="E28" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">CD_TIPO_MOVIMENTO, </v>
-      </c>
-    </row>
-    <row r="29" spans="3:5">
-      <c r="C29" s="15"/>
-      <c r="E29" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">, </v>
-      </c>
-    </row>
-    <row r="30" spans="3:5">
-      <c r="C30" s="15"/>
-      <c r="E30" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">, </v>
-      </c>
-    </row>
-    <row r="31" spans="3:5">
-      <c r="C31" s="15"/>
-      <c r="E31" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">, </v>
-      </c>
-    </row>
-    <row r="32" spans="3:5">
-      <c r="C32" s="15"/>
-      <c r="E32" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">, </v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
 </file>
--- a/Documentação/Planilhas/Conferencia_CAR.xlsx
+++ b/Documentação/Planilhas/Conferencia_CAR.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" tabRatio="812" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" tabRatio="812" firstSheet="3" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Resumo" sheetId="93" r:id="rId1"/>
-    <sheet name="stg_car_remessa" sheetId="95" r:id="rId2"/>
-    <sheet name="stg_car_remessa_cobr_eletronica" sheetId="96" r:id="rId3"/>
-    <sheet name="stg_car_retorno_cobr_eletronica" sheetId="97" r:id="rId4"/>
-    <sheet name="stg_car_pedido_venda" sheetId="102" r:id="rId5"/>
+    <sheet name="stg_car_pedido_venda" sheetId="102" r:id="rId2"/>
+    <sheet name="stg_car_remessa" sheetId="95" r:id="rId3"/>
+    <sheet name="stg_car_remessa_cobr_eletronica" sheetId="96" r:id="rId4"/>
+    <sheet name="stg_car_retorno_cobr_eletronica" sheetId="97" r:id="rId5"/>
     <sheet name="stg_car_titulo" sheetId="98" r:id="rId6"/>
     <sheet name="stg_car_titulo_mvmto" sheetId="99" r:id="rId7"/>
     <sheet name="stg_car_titulo_remessa" sheetId="100" r:id="rId8"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1296" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1341" uniqueCount="444">
   <si>
     <t>1</t>
   </si>
@@ -117,9 +117,6 @@
     <t>stg_car_remessa</t>
   </si>
   <si>
-    <t>tfcmgl504m00l</t>
-  </si>
-  <si>
     <t>dbo.stg_car_remessa_cobranca_eletronica</t>
   </si>
   <si>
@@ -132,30 +129,6 @@
     <t>01</t>
   </si>
   <si>
-    <t>RE43</t>
-  </si>
-  <si>
-    <t>06</t>
-  </si>
-  <si>
-    <t>RE46</t>
-  </si>
-  <si>
-    <t>RE415</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>RB362</t>
-  </si>
-  <si>
-    <t>RB363</t>
-  </si>
-  <si>
-    <t>RB364</t>
-  </si>
-  <si>
     <t>dbo.stg_car_retorno_cobranca_eletronica</t>
   </si>
   <si>
@@ -249,9 +222,6 @@
     <t>0.0000</t>
   </si>
   <si>
-    <t>botelho</t>
-  </si>
-  <si>
     <t>DEV</t>
   </si>
   <si>
@@ -267,42 +237,9 @@
     <t>80</t>
   </si>
   <si>
-    <t>000002664</t>
-  </si>
-  <si>
     <t>12</t>
   </si>
   <si>
-    <t>2014-06-21 00:00:00.000</t>
-  </si>
-  <si>
-    <t>-370.5500</t>
-  </si>
-  <si>
-    <t>2014-06-21 16:01:15.000</t>
-  </si>
-  <si>
-    <t>PED</t>
-  </si>
-  <si>
-    <t>DEV13</t>
-  </si>
-  <si>
-    <t>000002661</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>2014-06-25 00:00:00.000</t>
-  </si>
-  <si>
-    <t>-869.2000</t>
-  </si>
-  <si>
-    <t>2014-06-25 20:44:34.000</t>
-  </si>
-  <si>
     <t>14</t>
   </si>
   <si>
@@ -444,9 +381,6 @@
     <t>RG41</t>
   </si>
   <si>
-    <t>2014-06-18 00:00:00.000</t>
-  </si>
-  <si>
     <t>001</t>
   </si>
   <si>
@@ -493,9 +427,6 @@
   </si>
   <si>
     <t>RE14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pegar a informação da coluna Status do Arquivo </t>
   </si>
   <si>
     <t>Os códigos utilizados são:</t>
@@ -537,9 +468,6 @@
 80-Outros</t>
   </si>
   <si>
-    <t>Pegar a informação da coluna PN Faturado</t>
-  </si>
-  <si>
     <t>Pegar a informação da segunda coluna Documento Fiscal</t>
   </si>
   <si>
@@ -552,16 +480,10 @@
     <t>Pedir o detalhamento do documento desejado. Na aba Condições de Pagamento, seção Condições de Pagamento, pegar a Data da Liquidez Prevista</t>
   </si>
   <si>
-    <t>Pegar a informação da coluna Valor em Moeda da Fatura</t>
-  </si>
-  <si>
     <t>Pedir o detalhamento do documento desejado. Na aba Detalhes de Lançamento, seção Contas/Dimensões, pegar a informação de Dimensão referente ao CC</t>
   </si>
   <si>
     <t>No menu Specific, selecionar "Mostrar" ==&gt; "Incluir Totalmente Pago"</t>
-  </si>
-  <si>
-    <t>Selecionar o documento desejado e no menu Specific, selecionar "Programações de Recebimentos". Na aba Geral, pegar a informação da coluna  Status do Recebimento</t>
   </si>
   <si>
     <t>1-Aberto
@@ -581,109 +503,16 @@
     <t>Pedir o detalhamento do documento desejado. Na aba Condições de Pagamento, seção Condições de Pagamento, pegar Código da Conta Bancária para parceiros de negócios</t>
   </si>
   <si>
-    <t>Pedir o detalhamento do documento desejado. Na aba Detalhes de Pagamento, seção Valor Total do Pagamento, pegar a informação do Valor do Saldo</t>
-  </si>
-  <si>
     <t>Pedir o detalhamento do documento desejado. Na aba Detalhes de Pagamento, seção Valor Total do Pagamento, pegar a informação do Valor do Desconto</t>
   </si>
   <si>
     <t>Pegar a segunda informação da coluna Documento</t>
   </si>
   <si>
-    <t>Selecionar o documento desejado e com o botão direito do mouse, selecionar Text ==&gt; Texto</t>
-  </si>
-  <si>
     <t>A view está buscando o campo "rcd_utc" da tabela "tfacr200". Este campo não aparece nas telas do LN para podermos realizar a conferência</t>
   </si>
   <si>
-    <t>Pedir o detalhamento do documento desejado. Na aba Condições de Pagamento, seção Condições de Pagamento, pegar a informação Metodo de Recebimento</t>
-  </si>
-  <si>
     <t>Sessão tfacr2520m000</t>
-  </si>
-  <si>
-    <t>FAT1025</t>
-  </si>
-  <si>
-    <t>1025</t>
-  </si>
-  <si>
-    <t>25293</t>
-  </si>
-  <si>
-    <t>000000156</t>
-  </si>
-  <si>
-    <t>2014-05-21 00:00:00.000</t>
-  </si>
-  <si>
-    <t>50.0000</t>
-  </si>
-  <si>
-    <t>lucianos</t>
-  </si>
-  <si>
-    <t>2014-05-26 17:34:47.000</t>
-  </si>
-  <si>
-    <t>FAT1026</t>
-  </si>
-  <si>
-    <t>1026</t>
-  </si>
-  <si>
-    <t>25294</t>
-  </si>
-  <si>
-    <t>000000154</t>
-  </si>
-  <si>
-    <t>FAT1027</t>
-  </si>
-  <si>
-    <t>1027</t>
-  </si>
-  <si>
-    <t>25295</t>
-  </si>
-  <si>
-    <t>000000107</t>
-  </si>
-  <si>
-    <t>54.7100</t>
-  </si>
-  <si>
-    <t>2014-05-26 17:34:48.000</t>
-  </si>
-  <si>
-    <t>FAT1028</t>
-  </si>
-  <si>
-    <t>1028</t>
-  </si>
-  <si>
-    <t>25296</t>
-  </si>
-  <si>
-    <t>000000268</t>
-  </si>
-  <si>
-    <t>56.9200</t>
-  </si>
-  <si>
-    <t>FAT1032</t>
-  </si>
-  <si>
-    <t>1032</t>
-  </si>
-  <si>
-    <t>25297</t>
-  </si>
-  <si>
-    <t>000000339</t>
-  </si>
-  <si>
-    <t>2014-05-26 17:34:49.000</t>
   </si>
   <si>
     <t>stg_car_remessa_cobanca_eletronica</t>
@@ -724,85 +553,13 @@
     <t>Pegar a informação do CD_BANCO existente na tabela e seleciona-lo no campo  "Banco". Pegar a informação do campo "Conta Bancária"</t>
   </si>
   <si>
-    <t>59067</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
     <t>000000002</t>
   </si>
   <si>
-    <t>2013-09-09 00:00:00.000</t>
-  </si>
-  <si>
-    <t>22.7000</t>
-  </si>
-  <si>
-    <t>7.7000</t>
-  </si>
-  <si>
-    <t>2013-10-04 15:11:50.000</t>
-  </si>
-  <si>
-    <t>Se o Valor Saldo for zero, selecionar o documento desejado e no menu Specific, selecionar "Documentos Relacionados ao Recebimento por Entrada Aberta". Pegar a informação da coluna Data de recebto.</t>
-  </si>
-  <si>
-    <t>RB361</t>
-  </si>
-  <si>
     <t>RB3</t>
   </si>
   <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>1000</t>
-  </si>
-  <si>
-    <t>000000020</t>
-  </si>
-  <si>
-    <t>5000.0000</t>
-  </si>
-  <si>
-    <t>2014-08-17 00:00:00.000</t>
-  </si>
-  <si>
-    <t>amesquit</t>
-  </si>
-  <si>
-    <t>2014-06-18 16:51:51.000</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>444444444</t>
-  </si>
-  <si>
     <t>44</t>
-  </si>
-  <si>
-    <t>000000012</t>
-  </si>
-  <si>
-    <t>3000.0000</t>
-  </si>
-  <si>
-    <t>2014-10-16 00:00:00.000</t>
-  </si>
-  <si>
-    <t>lisilva</t>
-  </si>
-  <si>
-    <t>2014-06-18 17:17:53.000</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> selecionar o documento desejado e no menu Specific, selecionar "Documentos Relacionados ao Recebimento por Entrada Aberta". Pegar a informação da coluna Data de recebto [Data mais antiga]</t>
-  </si>
-  <si>
-    <t>Selecionar o documento desejado e no menu Specific, selecionar "Transações GL". Na aba Histórico, pegar a primeira informação da coluna "Finalizado por"</t>
   </si>
   <si>
     <t>Sessão tfcmgl504m00l</t>
@@ -1212,18 +969,6 @@
     <t>154</t>
   </si>
   <si>
-    <t>161</t>
-  </si>
-  <si>
-    <t>121</t>
-  </si>
-  <si>
-    <t>134</t>
-  </si>
-  <si>
-    <t>RB3134</t>
-  </si>
-  <si>
     <t>É a concatenação do CD_TRANSACAO_TITULO com NR_TITULO</t>
   </si>
   <si>
@@ -1239,9 +984,6 @@
     <t>Pegar a informação na segunda lacuna da coluna "Documento"</t>
   </si>
   <si>
-    <t>Pegar a informação da coluna "Data de Débito Planejada"</t>
-  </si>
-  <si>
     <t>Sessão tfcmg0510m000 (Relações Bancárias)</t>
   </si>
   <si>
@@ -1254,9 +996,6 @@
     <t>Pegar a informação da segunda lacuna da coluna "Documento"</t>
   </si>
   <si>
-    <t>Sessão "tfgld0511m000" (Tipos de Transação)</t>
-  </si>
-  <si>
     <t>Pegar a informação da coluna "No Banco"</t>
   </si>
   <si>
@@ -1300,13 +1039,391 @@
   </si>
   <si>
     <t>Pegar a informação da terceira lacuna da coluna "No da Fatura"</t>
+  </si>
+  <si>
+    <t>2014-06-08 21:00:00.000</t>
+  </si>
+  <si>
+    <t>2014-06-13 21:00:00.000</t>
+  </si>
+  <si>
+    <t>RE121</t>
+  </si>
+  <si>
+    <t>RE147</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>RB356</t>
+  </si>
+  <si>
+    <t>2014-08-04 21:00:00.000</t>
+  </si>
+  <si>
+    <t>Sessão tfcmg4501m000 (Lotes de Cobrança - Aconselhamento) - informar o CD_CHAVE_PRIMARIA na coluna Documento. Se não encontrar, navegar com a Seta Next Group</t>
+  </si>
+  <si>
+    <t>Pegar a informação do Lote de Cobrança no cabeçalho da tela</t>
+  </si>
+  <si>
+    <t>Detalhar a linha apresentada. Na aba  "Diversos",  seção "Detalhes EBF", pegar a informação de "Código da Ocorrência"</t>
+  </si>
+  <si>
+    <t>Sessão "tfcmgl504m00l" (Documentos Saídas - EBF)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Informar o CD_CHAVE_PRIMARIA na primeira e segunda informação da coluna "No. Da Fatura". Pegar a informação da coluna Status do Arquivo </t>
+  </si>
+  <si>
+    <t>Na tabela tfcmg948 o campo "t$bank$l" está com todos os registros iguais à 100.</t>
+  </si>
+  <si>
+    <t>tfcmg4501m000 e tfcmgl504m00l</t>
+  </si>
+  <si>
+    <t>Na tabela tfcmg948, pega a maior data entre: t$lach$l (dta última alteração) e t$rcd_utc (campo alimentado internamente). O campo t$lach$l não achei na tela do LN.....</t>
+  </si>
+  <si>
+    <t>10908</t>
+  </si>
+  <si>
+    <t>FAT10908</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>2014-09-24 00:00:00.000</t>
+  </si>
+  <si>
+    <t>175</t>
+  </si>
+  <si>
+    <t>2014-09-29 14:48:44.000</t>
+  </si>
+  <si>
+    <t>10909</t>
+  </si>
+  <si>
+    <t>FAT10909</t>
+  </si>
+  <si>
+    <t>176</t>
+  </si>
+  <si>
+    <t>2014-09-29 14:51:15.000</t>
+  </si>
+  <si>
+    <t>Pegar a primeira informação da coluna "Agência"</t>
+  </si>
+  <si>
+    <t>Pegar a informação da coluna "Data do Documento"</t>
+  </si>
+  <si>
+    <t>Fazer o detalhamento da linha desejada. Na aba "Detalhes do Banco", pegar a última informação de "Banco de Recebimento"</t>
+  </si>
+  <si>
+    <t>Não tem dados para realizar o mapeamento</t>
+  </si>
+  <si>
+    <t>CD_CONTA_CONTROLE</t>
+  </si>
+  <si>
+    <t>000000001</t>
+  </si>
+  <si>
+    <t>aline</t>
+  </si>
+  <si>
+    <t>2014-08-15 12:56:32.000</t>
+  </si>
+  <si>
+    <t>DEV1</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>J1</t>
+  </si>
+  <si>
+    <t>2013-11-18 00:00:00.000</t>
+  </si>
+  <si>
+    <t>-100.0000</t>
+  </si>
+  <si>
+    <t>2013-11-25 00:00:00.000</t>
+  </si>
+  <si>
+    <t>janaina</t>
+  </si>
+  <si>
+    <t>110211001</t>
+  </si>
+  <si>
+    <t>job0201</t>
+  </si>
+  <si>
+    <t>2014-09-03 21:20:44.000</t>
+  </si>
+  <si>
+    <t>DEV105</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>260800</t>
+  </si>
+  <si>
+    <t>AA</t>
+  </si>
+  <si>
+    <t>000000335</t>
+  </si>
+  <si>
+    <t>2014-08-27 00:00:00.000</t>
+  </si>
+  <si>
+    <t>2014-09-03 21:20:42.000</t>
+  </si>
+  <si>
+    <t>DEV107</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>1451</t>
+  </si>
+  <si>
+    <t>2014-08-28 00:00:00.000</t>
+  </si>
+  <si>
+    <t>-79.0000</t>
+  </si>
+  <si>
+    <t>2014-08-29 00:00:00.000</t>
+  </si>
+  <si>
+    <t>DEV108</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>1450</t>
+  </si>
+  <si>
+    <t>DEV109</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>1422</t>
+  </si>
+  <si>
+    <t>000000003</t>
+  </si>
+  <si>
+    <t>-70.0000</t>
+  </si>
+  <si>
+    <t>2014-09-29 00:00:00.000</t>
+  </si>
+  <si>
+    <t>2014-06-14 13:03:54.000</t>
+  </si>
+  <si>
+    <t>DEV11</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>000000025</t>
+  </si>
+  <si>
+    <t>-2000.0000</t>
+  </si>
+  <si>
+    <t>jsobrinh</t>
+  </si>
+  <si>
+    <t>2014-09-03 21:21:42.000</t>
+  </si>
+  <si>
+    <t>DEV115</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>1496</t>
+  </si>
+  <si>
+    <t>2014-09-01 00:00:00.000</t>
+  </si>
+  <si>
+    <t>-78.0000</t>
+  </si>
+  <si>
+    <t>2014-09-02 00:00:00.000</t>
+  </si>
+  <si>
+    <t>2014-09-04 13:20:06.000</t>
+  </si>
+  <si>
+    <t>DEV116</t>
+  </si>
+  <si>
+    <t>116</t>
+  </si>
+  <si>
+    <t>1525</t>
+  </si>
+  <si>
+    <t>2014-09-04 00:00:00.000</t>
+  </si>
+  <si>
+    <t>Sessão tfacr2531m000 (Faturas de Vendas por Parceiros Negócios) - Na coluna Documento, informar o CD_TRANSACAO_TITULO e NR_TITULO na primeira e segunda coluna, respectivamente. Se não encontrar o título, navegar com a seta "Next Group"</t>
+  </si>
+  <si>
+    <t>Pegar a informação de Parc. Negócio no cabeçalho da tela</t>
+  </si>
+  <si>
+    <t>2-Selecionado</t>
+  </si>
+  <si>
+    <t>3-Parciamente pago</t>
+  </si>
+  <si>
+    <t>4-Pago</t>
+  </si>
+  <si>
+    <t>5-Descontado</t>
+  </si>
+  <si>
+    <t>6-Protestado</t>
+  </si>
+  <si>
+    <t>8-Caucionado</t>
+  </si>
+  <si>
+    <t>9-Jurídico</t>
+  </si>
+  <si>
+    <t>1-NF</t>
+  </si>
+  <si>
+    <t>2-NFF</t>
+  </si>
+  <si>
+    <t>3-FAT</t>
+  </si>
+  <si>
+    <t>4-NC</t>
+  </si>
+  <si>
+    <t>5-ND</t>
+  </si>
+  <si>
+    <t>6-NFE</t>
+  </si>
+  <si>
+    <t>7-RPA</t>
+  </si>
+  <si>
+    <t>8-Conhecimento</t>
+  </si>
+  <si>
+    <t>9-NFS</t>
+  </si>
+  <si>
+    <t>10-NFFS</t>
+  </si>
+  <si>
+    <t>80-Outros</t>
+  </si>
+  <si>
+    <t>Pegar a informação da coluna Valor em BRL</t>
+  </si>
+  <si>
+    <t>Pegar a informação da coluna Saldo</t>
+  </si>
+  <si>
+    <t>Pedir o detalhamento do documento desejado. Na aba Detalhes de Lançamento, seção Contas/Dimensões, pegar a informação de Conta de Controle</t>
+  </si>
+  <si>
+    <t>2014-09-26 18:38:50.000</t>
+  </si>
+  <si>
+    <t>FAT193</t>
+  </si>
+  <si>
+    <t>193</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>100.0000</t>
+  </si>
+  <si>
+    <t>2014-09-09 00:00:00.000</t>
+  </si>
+  <si>
+    <t>2014-09-26 00:00:00.000</t>
+  </si>
+  <si>
+    <t>2014-07-12 11:31:36.000</t>
+  </si>
+  <si>
+    <t>FAT194</t>
+  </si>
+  <si>
+    <t>194</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>2013-12-18 00:00:00.000</t>
+  </si>
+  <si>
+    <t>2014-07-12 00:00:00.000</t>
+  </si>
+  <si>
+    <t>Se o Valor Saldo for zero, selecionar o documento desejado. Pegar a informação da coluna Data de recebto.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Se o Valor Saldo for zero, selecionar o documento desejado. Pegar a informação da coluna Data de recebto [Data mais antiga]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Se o Valor Saldo for zero,  selecionar o documento desejado e com o botão direito do mouse, selecionar Text ==&gt; Texto</t>
+  </si>
+  <si>
+    <t>Sessão tfacr2523m000 (Documentos Relacionados ao Recebimento por Entrada Aberta) - Na lupinha informar o CD_TRANSACAO_TITULO e NR_TITULO, limpando primeiramente todos os campos</t>
+  </si>
+  <si>
+    <t>Sessão tfacrl504m00l (Agenda de Recebimento por Parcela) - No menu Specific, selecionar "Faturas Pagas Totais"</t>
+  </si>
+  <si>
+    <t>Selecionar o documento desejado. Pegar a informação da coluna  Status do Recebimento</t>
+  </si>
+  <si>
+    <t>Selecionar o documento desejado e no menu Specific, selecionar "Transações GL". Na aba Histórico, pegar a primeira informação da coluna "Utilizado por"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1355,6 +1472,22 @@
     <font>
       <b/>
       <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1411,7 +1544,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -1654,6 +1787,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1662,7 +1808,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1731,26 +1877,23 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="3" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1770,7 +1913,43 @@
     <xf numFmtId="49" fontId="6" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1818,9 +1997,6 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1828,15 +2004,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1869,23 +2036,32 @@
     <xf numFmtId="49" fontId="1" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2218,31 +2394,31 @@
     </row>
     <row r="3" spans="2:3">
       <c r="B3" s="8" t="s">
-        <v>212</v>
+        <v>155</v>
       </c>
       <c r="C3" s="7"/>
     </row>
     <row r="4" spans="2:3">
       <c r="B4" s="8" t="s">
-        <v>213</v>
+        <v>156</v>
       </c>
       <c r="C4" s="7"/>
     </row>
     <row r="5" spans="2:3">
       <c r="B5" s="8" t="s">
-        <v>214</v>
+        <v>157</v>
       </c>
       <c r="C5" s="7"/>
     </row>
     <row r="6" spans="2:3">
       <c r="B6" s="8" t="s">
-        <v>215</v>
+        <v>158</v>
       </c>
       <c r="C6" s="7"/>
     </row>
     <row r="7" spans="2:3">
       <c r="B7" s="10" t="s">
-        <v>216</v>
+        <v>159</v>
       </c>
       <c r="C7" s="9"/>
     </row>
@@ -2260,1560 +2436,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <tabColor rgb="FFFA7E7E"/>
-  </sheetPr>
-  <dimension ref="A2:AG39"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
-  <cols>
-    <col min="1" max="1" width="20.42578125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="22" style="2" customWidth="1"/>
-    <col min="3" max="3" width="21.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="22.5703125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="21.5703125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="18.7109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="18.85546875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="26" style="2" customWidth="1"/>
-    <col min="9" max="9" width="24.28515625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="18.85546875" style="2" customWidth="1"/>
-    <col min="11" max="11" width="21.7109375" style="2" customWidth="1"/>
-    <col min="12" max="12" width="20.28515625" style="2" customWidth="1"/>
-    <col min="13" max="13" width="20.7109375" style="2" customWidth="1"/>
-    <col min="14" max="14" width="23.28515625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="20" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="32.28515625" style="2" customWidth="1"/>
-    <col min="18" max="18" width="24.7109375" style="2" customWidth="1"/>
-    <col min="19" max="19" width="22.140625" style="2" customWidth="1"/>
-    <col min="20" max="20" width="20.85546875" style="2" customWidth="1"/>
-    <col min="21" max="21" width="17.42578125" style="2" customWidth="1"/>
-    <col min="22" max="22" width="38.5703125" style="2" customWidth="1"/>
-    <col min="23" max="23" width="25" style="2" customWidth="1"/>
-    <col min="24" max="24" width="26.85546875" style="2" customWidth="1"/>
-    <col min="25" max="25" width="27.5703125" style="2" customWidth="1"/>
-    <col min="26" max="26" width="31.140625" style="2" customWidth="1"/>
-    <col min="27" max="27" width="25.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="30.85546875" style="2" customWidth="1"/>
-    <col min="29" max="29" width="26.140625" style="2" customWidth="1"/>
-    <col min="30" max="30" width="36.5703125" style="2" customWidth="1"/>
-    <col min="31" max="31" width="19.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="29.5703125" style="2" customWidth="1"/>
-    <col min="34" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:33" ht="21">
-      <c r="A2" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33" ht="21">
-      <c r="A3" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:33" s="22" customFormat="1" ht="21" customHeight="1">
-      <c r="A6" s="74" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="74" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" s="74" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" s="74" t="s">
-        <v>46</v>
-      </c>
-      <c r="E6" s="74" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="74" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="74" t="s">
-        <v>356</v>
-      </c>
-      <c r="H6" s="74" t="s">
-        <v>354</v>
-      </c>
-      <c r="I6" s="74" t="s">
-        <v>355</v>
-      </c>
-      <c r="J6" s="74" t="s">
-        <v>353</v>
-      </c>
-      <c r="K6" s="74" t="s">
-        <v>350</v>
-      </c>
-      <c r="L6" s="74" t="s">
-        <v>351</v>
-      </c>
-      <c r="M6" s="74" t="s">
-        <v>352</v>
-      </c>
-      <c r="N6" s="74" t="s">
-        <v>17</v>
-      </c>
-      <c r="O6" s="74" t="s">
-        <v>18</v>
-      </c>
-      <c r="P6" s="74" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q6" s="16"/>
-      <c r="R6" s="16"/>
-      <c r="S6" s="16"/>
-      <c r="T6" s="16"/>
-      <c r="U6" s="16"/>
-      <c r="V6" s="16"/>
-      <c r="W6" s="16"/>
-      <c r="X6" s="16"/>
-      <c r="Y6" s="16"/>
-      <c r="Z6" s="16"/>
-      <c r="AA6" s="16"/>
-      <c r="AB6" s="16"/>
-      <c r="AC6" s="16"/>
-      <c r="AD6" s="16"/>
-      <c r="AE6" s="16"/>
-      <c r="AF6" s="16"/>
-      <c r="AG6" s="16"/>
-    </row>
-    <row r="7" spans="1:33">
-      <c r="A7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="78" t="s">
-        <v>120</v>
-      </c>
-      <c r="C7" s="78" t="s">
-        <v>361</v>
-      </c>
-      <c r="D7" s="78" t="s">
-        <v>362</v>
-      </c>
-      <c r="E7" s="78" t="s">
-        <v>357</v>
-      </c>
-      <c r="F7" s="78" t="s">
-        <v>358</v>
-      </c>
-      <c r="G7" s="78" t="s">
-        <v>0</v>
-      </c>
-      <c r="H7" s="78" t="s">
-        <v>20</v>
-      </c>
-      <c r="I7" s="78" t="s">
-        <v>360</v>
-      </c>
-      <c r="J7" s="78" t="s">
-        <v>73</v>
-      </c>
-      <c r="K7" s="78" t="s">
-        <v>0</v>
-      </c>
-      <c r="L7" s="78" t="s">
-        <v>15</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="8" spans="1:33">
-      <c r="A8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="P8" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:33">
-      <c r="A9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="P9" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:33">
-      <c r="A10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="N10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="P10" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:33">
-      <c r="A11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="N11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="P11" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="12" spans="1:33">
-      <c r="A12" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="N12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="P12" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="13" spans="1:33">
-      <c r="A13" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="N13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="P13" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="14" spans="1:33">
-      <c r="A14" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="N14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="P14" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="15" spans="1:33">
-      <c r="A15" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="M15" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="N15" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="P15" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="16" spans="1:33">
-      <c r="A16" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="L16" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="M16" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="N16" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="P16" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="18" spans="1:33">
-      <c r="A18" s="1"/>
-      <c r="B18" s="76" t="s">
-        <v>380</v>
-      </c>
-      <c r="C18" s="76"/>
-      <c r="D18" s="76"/>
-      <c r="E18" s="76"/>
-      <c r="F18" s="76"/>
-      <c r="G18" s="75" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="19" spans="1:33">
-      <c r="B19" s="76"/>
-      <c r="C19" s="76"/>
-      <c r="D19" s="76"/>
-      <c r="E19" s="76"/>
-      <c r="F19" s="76"/>
-    </row>
-    <row r="20" spans="1:33">
-      <c r="B20" s="77"/>
-      <c r="C20" s="77"/>
-      <c r="D20" s="77"/>
-      <c r="E20" s="77"/>
-      <c r="F20" s="77"/>
-    </row>
-    <row r="21" spans="1:33" ht="11.25" customHeight="1">
-      <c r="A21" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="B21" s="33" t="s">
-        <v>382</v>
-      </c>
-      <c r="C21" s="33" t="s">
-        <v>383</v>
-      </c>
-      <c r="D21" s="33" t="s">
-        <v>379</v>
-      </c>
-      <c r="E21" s="33" t="s">
-        <v>381</v>
-      </c>
-      <c r="F21" s="33" t="s">
-        <v>384</v>
-      </c>
-      <c r="G21" s="33" t="s">
-        <v>404</v>
-      </c>
-      <c r="H21" s="33" t="s">
-        <v>387</v>
-      </c>
-      <c r="I21" s="33" t="s">
-        <v>388</v>
-      </c>
-      <c r="J21" s="33" t="s">
-        <v>390</v>
-      </c>
-      <c r="K21" s="33" t="s">
-        <v>391</v>
-      </c>
-      <c r="L21" s="33" t="s">
-        <v>392</v>
-      </c>
-      <c r="M21" s="1"/>
-      <c r="N21" s="33"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="1"/>
-      <c r="R21" s="1"/>
-      <c r="S21" s="1"/>
-      <c r="T21" s="1"/>
-      <c r="U21" s="1"/>
-      <c r="V21" s="1"/>
-      <c r="W21" s="1"/>
-      <c r="X21" s="1"/>
-      <c r="Y21" s="1"/>
-      <c r="Z21" s="1"/>
-      <c r="AA21" s="1"/>
-      <c r="AB21" s="1"/>
-      <c r="AC21" s="1"/>
-      <c r="AD21" s="1"/>
-      <c r="AE21" s="1"/>
-      <c r="AF21" s="1"/>
-      <c r="AG21" s="1"/>
-    </row>
-    <row r="22" spans="1:33">
-      <c r="A22" s="33"/>
-      <c r="B22" s="33"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="33"/>
-      <c r="I22" s="33"/>
-      <c r="J22" s="33"/>
-      <c r="K22" s="33"/>
-      <c r="L22" s="33"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="33"/>
-      <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
-      <c r="Q22" s="1"/>
-      <c r="R22" s="1"/>
-      <c r="S22" s="1"/>
-      <c r="T22" s="1"/>
-      <c r="U22" s="1"/>
-      <c r="V22" s="1"/>
-      <c r="W22" s="1"/>
-      <c r="X22" s="1"/>
-      <c r="Y22" s="1"/>
-      <c r="Z22" s="1"/>
-      <c r="AA22" s="1"/>
-      <c r="AB22" s="1"/>
-      <c r="AC22" s="1"/>
-      <c r="AD22" s="1"/>
-      <c r="AE22" s="1"/>
-      <c r="AF22" s="1"/>
-      <c r="AG22" s="1"/>
-    </row>
-    <row r="23" spans="1:33">
-      <c r="A23" s="33"/>
-      <c r="B23" s="33"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="33"/>
-      <c r="I23" s="33"/>
-      <c r="J23" s="33"/>
-      <c r="K23" s="33"/>
-      <c r="L23" s="33"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="33"/>
-      <c r="O23" s="1"/>
-      <c r="P23" s="1"/>
-      <c r="Q23" s="1"/>
-      <c r="R23" s="1"/>
-      <c r="S23" s="1"/>
-      <c r="T23" s="1"/>
-      <c r="U23" s="1"/>
-      <c r="V23" s="1"/>
-      <c r="W23" s="1"/>
-      <c r="X23" s="1"/>
-      <c r="Y23" s="1"/>
-      <c r="Z23" s="1"/>
-      <c r="AA23" s="1"/>
-      <c r="AB23" s="1"/>
-      <c r="AC23" s="1"/>
-      <c r="AD23" s="1"/>
-      <c r="AE23" s="1"/>
-      <c r="AF23" s="1"/>
-      <c r="AG23" s="1"/>
-    </row>
-    <row r="24" spans="1:33">
-      <c r="A24" s="33"/>
-      <c r="B24" s="33"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="33"/>
-      <c r="I24" s="33"/>
-      <c r="J24" s="33"/>
-      <c r="K24" s="33"/>
-      <c r="L24" s="33"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="33"/>
-      <c r="O24" s="1"/>
-      <c r="P24" s="1"/>
-      <c r="Q24" s="1"/>
-      <c r="R24" s="1"/>
-      <c r="S24" s="1"/>
-      <c r="T24" s="1"/>
-      <c r="U24" s="1"/>
-      <c r="V24" s="1"/>
-      <c r="W24" s="1"/>
-      <c r="X24" s="1"/>
-      <c r="Y24" s="1"/>
-      <c r="Z24" s="1"/>
-      <c r="AA24" s="1"/>
-      <c r="AB24" s="1"/>
-      <c r="AC24" s="1"/>
-      <c r="AD24" s="1"/>
-      <c r="AE24" s="1"/>
-      <c r="AF24" s="1"/>
-      <c r="AG24" s="1"/>
-    </row>
-    <row r="25" spans="1:33">
-      <c r="A25" s="33"/>
-      <c r="B25" s="33"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="33"/>
-      <c r="I25" s="33"/>
-      <c r="J25" s="33"/>
-      <c r="K25" s="33"/>
-      <c r="L25" s="33"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="33"/>
-      <c r="O25" s="1"/>
-      <c r="P25" s="1"/>
-      <c r="Q25" s="1"/>
-      <c r="R25" s="1"/>
-      <c r="S25" s="1"/>
-      <c r="T25" s="1"/>
-      <c r="U25" s="1"/>
-      <c r="V25" s="1"/>
-      <c r="W25" s="1"/>
-      <c r="X25" s="1"/>
-      <c r="Y25" s="1"/>
-      <c r="Z25" s="1"/>
-      <c r="AA25" s="1"/>
-      <c r="AB25" s="1"/>
-      <c r="AC25" s="1"/>
-      <c r="AD25" s="1"/>
-      <c r="AE25" s="1"/>
-      <c r="AF25" s="1"/>
-      <c r="AG25" s="1"/>
-    </row>
-    <row r="26" spans="1:33">
-      <c r="A26" s="33"/>
-      <c r="B26" s="33"/>
-      <c r="C26" s="33"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="33"/>
-      <c r="F26" s="33"/>
-      <c r="G26" s="33"/>
-      <c r="H26" s="33"/>
-      <c r="I26" s="33"/>
-      <c r="J26" s="33"/>
-      <c r="K26" s="33"/>
-      <c r="L26" s="33"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="33"/>
-      <c r="O26" s="1"/>
-      <c r="P26" s="1"/>
-      <c r="Q26" s="1"/>
-      <c r="R26" s="1"/>
-      <c r="S26" s="1"/>
-      <c r="T26" s="1"/>
-      <c r="U26" s="1"/>
-      <c r="V26" s="1"/>
-      <c r="W26" s="1"/>
-      <c r="X26" s="1"/>
-      <c r="Y26" s="1"/>
-      <c r="Z26" s="1"/>
-      <c r="AA26" s="1"/>
-      <c r="AB26" s="1"/>
-      <c r="AC26" s="1"/>
-      <c r="AD26" s="1"/>
-      <c r="AE26" s="1"/>
-      <c r="AF26" s="1"/>
-      <c r="AG26" s="1"/>
-    </row>
-    <row r="27" spans="1:33">
-      <c r="A27" s="33"/>
-      <c r="B27" s="33"/>
-      <c r="C27" s="33"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="33"/>
-      <c r="H27" s="33"/>
-      <c r="I27" s="33"/>
-      <c r="J27" s="33"/>
-      <c r="K27" s="33"/>
-      <c r="L27" s="33"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="33"/>
-      <c r="O27" s="1"/>
-      <c r="P27" s="1"/>
-      <c r="Q27" s="1"/>
-      <c r="R27" s="1"/>
-      <c r="S27" s="1"/>
-      <c r="T27" s="1"/>
-      <c r="U27" s="1"/>
-      <c r="V27" s="1"/>
-      <c r="W27" s="1"/>
-      <c r="X27" s="1"/>
-      <c r="Y27" s="1"/>
-      <c r="Z27" s="1"/>
-      <c r="AA27" s="1"/>
-      <c r="AB27" s="1"/>
-      <c r="AC27" s="1"/>
-      <c r="AD27" s="1"/>
-      <c r="AE27" s="1"/>
-      <c r="AF27" s="1"/>
-      <c r="AG27" s="1"/>
-    </row>
-    <row r="28" spans="1:33">
-      <c r="A28" s="33"/>
-      <c r="B28" s="33"/>
-      <c r="C28" s="33"/>
-      <c r="D28" s="33"/>
-      <c r="E28" s="33"/>
-      <c r="F28" s="33"/>
-      <c r="G28" s="33"/>
-      <c r="H28" s="33"/>
-      <c r="I28" s="33"/>
-      <c r="J28" s="33"/>
-      <c r="K28" s="33"/>
-      <c r="L28" s="33"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="33"/>
-      <c r="O28" s="1"/>
-      <c r="P28" s="1"/>
-      <c r="Q28" s="1"/>
-      <c r="R28" s="1"/>
-      <c r="S28" s="1"/>
-      <c r="T28" s="1"/>
-      <c r="U28" s="1"/>
-      <c r="V28" s="1"/>
-      <c r="W28" s="1"/>
-      <c r="X28" s="1"/>
-      <c r="Y28" s="1"/>
-      <c r="Z28" s="1"/>
-      <c r="AA28" s="1"/>
-      <c r="AB28" s="1"/>
-      <c r="AC28" s="1"/>
-      <c r="AD28" s="1"/>
-      <c r="AE28" s="1"/>
-      <c r="AF28" s="1"/>
-      <c r="AG28" s="1"/>
-    </row>
-    <row r="30" spans="1:33">
-      <c r="K30" s="79" t="s">
-        <v>393</v>
-      </c>
-      <c r="L30" s="79"/>
-      <c r="N30" s="2" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="31" spans="1:33">
-      <c r="K31" s="79" t="s">
-        <v>394</v>
-      </c>
-      <c r="L31" s="79"/>
-    </row>
-    <row r="32" spans="1:33">
-      <c r="K32" s="79" t="s">
-        <v>395</v>
-      </c>
-      <c r="L32" s="79"/>
-    </row>
-    <row r="33" spans="11:12">
-      <c r="K33" s="79" t="s">
-        <v>396</v>
-      </c>
-      <c r="L33" s="79"/>
-    </row>
-    <row r="34" spans="11:12">
-      <c r="K34" s="79" t="s">
-        <v>397</v>
-      </c>
-      <c r="L34" s="79"/>
-    </row>
-    <row r="35" spans="11:12">
-      <c r="K35" s="79" t="s">
-        <v>398</v>
-      </c>
-      <c r="L35" s="79"/>
-    </row>
-    <row r="36" spans="11:12">
-      <c r="K36" s="79" t="s">
-        <v>399</v>
-      </c>
-      <c r="L36" s="79"/>
-    </row>
-    <row r="37" spans="11:12">
-      <c r="K37" s="79" t="s">
-        <v>400</v>
-      </c>
-      <c r="L37" s="79"/>
-    </row>
-    <row r="38" spans="11:12">
-      <c r="K38" s="79" t="s">
-        <v>401</v>
-      </c>
-      <c r="L38" s="79"/>
-    </row>
-    <row r="39" spans="11:12">
-      <c r="K39" s="79" t="s">
-        <v>402</v>
-      </c>
-      <c r="L39" s="79"/>
-    </row>
-  </sheetData>
-  <mergeCells count="26">
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A21:A28"/>
-    <mergeCell ref="B21:B28"/>
-    <mergeCell ref="C21:C28"/>
-    <mergeCell ref="B18:F20"/>
-    <mergeCell ref="D21:D28"/>
-    <mergeCell ref="N21:N28"/>
-    <mergeCell ref="E21:E28"/>
-    <mergeCell ref="F21:F28"/>
-    <mergeCell ref="H21:H28"/>
-    <mergeCell ref="I21:I28"/>
-    <mergeCell ref="J21:J28"/>
-    <mergeCell ref="K21:K28"/>
-    <mergeCell ref="L21:L28"/>
-    <mergeCell ref="G21:G28"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <tabColor rgb="FFFA7E7E"/>
-  </sheetPr>
-  <dimension ref="A2:Q25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
-  <cols>
-    <col min="1" max="1" width="20.42578125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="22" style="2" customWidth="1"/>
-    <col min="3" max="3" width="21.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="22.5703125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="23.28515625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="21.5703125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="18.7109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="26.85546875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="27.5703125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="31.140625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="25.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="30.85546875" style="2" customWidth="1"/>
-    <col min="13" max="13" width="26.140625" style="2" customWidth="1"/>
-    <col min="14" max="14" width="36.5703125" style="2" customWidth="1"/>
-    <col min="15" max="15" width="19.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="29.5703125" style="2" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:7" ht="21">
-      <c r="A2" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="21">
-      <c r="A3" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B9" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="G9" s="26" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B10" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="G10" s="26" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B11" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="F11" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="G11" s="26" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="28" t="s">
-        <v>162</v>
-      </c>
-      <c r="B19" s="28"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28" t="s">
-        <v>157</v>
-      </c>
-      <c r="G19" s="28"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="29"/>
-      <c r="B20" s="29"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="29"/>
-      <c r="B21" s="29"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29"/>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="30"/>
-      <c r="B22" s="30"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="30"/>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="F24" s="17" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="101.25">
-      <c r="F25" s="18" t="s">
-        <v>159</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="F19:F22"/>
-    <mergeCell ref="G19:G22"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="C19:C22"/>
-    <mergeCell ref="D19:D22"/>
-    <mergeCell ref="E19:E22"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <tabColor rgb="FFFA7E7E"/>
-  </sheetPr>
-  <dimension ref="A2:Q22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
-  <cols>
-    <col min="1" max="1" width="20.42578125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="22" style="2" customWidth="1"/>
-    <col min="3" max="3" width="21.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="22.5703125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="23.28515625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="21.5703125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="18.7109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="26.85546875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="27.5703125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="31.140625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="25.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="30.85546875" style="2" customWidth="1"/>
-    <col min="13" max="13" width="26.140625" style="2" customWidth="1"/>
-    <col min="14" max="14" width="36.5703125" style="2" customWidth="1"/>
-    <col min="15" max="15" width="19.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="29.5703125" style="2" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:17" ht="21">
-      <c r="A2" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="21">
-      <c r="A3" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="3"/>
-    </row>
-    <row r="6" spans="1:17" s="13" customFormat="1">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="12"/>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="28"/>
-      <c r="B19" s="28"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="29"/>
-      <c r="B20" s="29"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="29"/>
-      <c r="B21" s="29"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29"/>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="30"/>
-      <c r="B22" s="30"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="30"/>
-    </row>
-  </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="E19:E22"/>
-    <mergeCell ref="F19:F22"/>
-    <mergeCell ref="G19:G22"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="C19:C22"/>
-    <mergeCell ref="D19:D22"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -3860,61 +2482,61 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" ht="21">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="31"/>
+      <c r="B2" s="41"/>
       <c r="C2" s="3" t="s">
-        <v>308</v>
+        <v>227</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="21">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="31"/>
+      <c r="B3" s="41"/>
       <c r="C3" s="3" t="s">
-        <v>349</v>
+        <v>268</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="4" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>309</v>
+        <v>228</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>310</v>
+        <v>229</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>311</v>
+        <v>230</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="2" t="s">
-        <v>319</v>
+        <v>238</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>318</v>
+        <v>237</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>314</v>
+        <v>233</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>320</v>
+        <v>239</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>9</v>
@@ -3925,19 +2547,19 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="2" t="s">
-        <v>319</v>
+        <v>238</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>335</v>
+        <v>254</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>314</v>
+        <v>233</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>320</v>
+        <v>239</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>9</v>
@@ -3948,45 +2570,45 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="2" t="s">
-        <v>326</v>
+        <v>245</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>325</v>
+        <v>244</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>314</v>
+        <v>233</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>327</v>
+        <v>246</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>6</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>328</v>
+        <v>247</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="2" t="s">
-        <v>330</v>
+        <v>249</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>329</v>
+        <v>248</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>314</v>
+        <v>233</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>331</v>
+        <v>250</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>328</v>
+        <v>247</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>1</v>
@@ -3994,22 +2616,22 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="2" t="s">
-        <v>333</v>
+        <v>252</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>332</v>
+        <v>251</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>314</v>
+        <v>233</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>334</v>
+        <v>253</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>1</v>
@@ -4017,42 +2639,42 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="2" t="s">
-        <v>322</v>
+        <v>241</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>321</v>
+        <v>240</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>314</v>
+        <v>233</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>323</v>
+        <v>242</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>6</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>324</v>
+        <v>243</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="2" t="s">
-        <v>312</v>
+        <v>231</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>314</v>
+        <v>233</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>313</v>
+        <v>232</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>9</v>
@@ -4063,19 +2685,19 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="2" t="s">
-        <v>312</v>
+        <v>231</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>336</v>
+        <v>255</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>314</v>
+        <v>233</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>313</v>
+        <v>232</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>9</v>
@@ -4086,19 +2708,19 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="2" t="s">
-        <v>316</v>
+        <v>235</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>315</v>
+        <v>234</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>314</v>
+        <v>233</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>317</v>
+        <v>236</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>9</v>
@@ -4109,19 +2731,19 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="2" t="s">
-        <v>316</v>
+        <v>235</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>337</v>
+        <v>256</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>314</v>
+        <v>233</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>317</v>
+        <v>236</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>9</v>
@@ -4131,109 +2753,109 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="11.25" customHeight="1">
-      <c r="A18" s="32" t="s">
-        <v>343</v>
-      </c>
-      <c r="B18" s="32"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="35" t="s">
-        <v>344</v>
-      </c>
-      <c r="G18" s="36"/>
+      <c r="A18" s="42" t="s">
+        <v>262</v>
+      </c>
+      <c r="B18" s="42"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="34" t="s">
+        <v>263</v>
+      </c>
+      <c r="G18" s="35"/>
     </row>
     <row r="19" spans="1:7" ht="11.25" customHeight="1">
-      <c r="A19" s="32"/>
-      <c r="B19" s="32"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="38"/>
+      <c r="A19" s="42"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="37"/>
     </row>
     <row r="20" spans="1:7" ht="11.25" customHeight="1">
-      <c r="A20" s="32"/>
-      <c r="B20" s="32"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="40"/>
+      <c r="A20" s="42"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="39"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="33" t="s">
-        <v>338</v>
-      </c>
-      <c r="B21" s="33" t="s">
-        <v>339</v>
-      </c>
-      <c r="C21" s="33" t="s">
-        <v>340</v>
-      </c>
-      <c r="D21" s="33" t="s">
-        <v>341</v>
-      </c>
-      <c r="E21" s="33" t="s">
-        <v>345</v>
-      </c>
-      <c r="F21" s="33" t="s">
-        <v>347</v>
-      </c>
-      <c r="G21" s="33" t="s">
-        <v>348</v>
+      <c r="A21" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="B21" s="40" t="s">
+        <v>258</v>
+      </c>
+      <c r="C21" s="40" t="s">
+        <v>259</v>
+      </c>
+      <c r="D21" s="40" t="s">
+        <v>260</v>
+      </c>
+      <c r="E21" s="40" t="s">
+        <v>264</v>
+      </c>
+      <c r="F21" s="40" t="s">
+        <v>266</v>
+      </c>
+      <c r="G21" s="40" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="33"/>
-      <c r="B22" s="33"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="33"/>
+      <c r="A22" s="40"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="40"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="33"/>
-      <c r="B23" s="33"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="33"/>
+      <c r="A23" s="40"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="33"/>
-      <c r="B24" s="33"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="33"/>
+      <c r="A24" s="40"/>
+      <c r="B24" s="40"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="40"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="D26" s="33" t="s">
-        <v>342</v>
-      </c>
-      <c r="E26" s="34" t="s">
-        <v>346</v>
+      <c r="D26" s="40" t="s">
+        <v>261</v>
+      </c>
+      <c r="E26" s="43" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="D27" s="33"/>
-      <c r="E27" s="34"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="43"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="D28" s="33"/>
-      <c r="E28" s="34"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="43"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="D29" s="33"/>
-      <c r="E29" s="34"/>
+      <c r="D29" s="40"/>
+      <c r="E29" s="43"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="D30" s="33"/>
-      <c r="E30" s="34"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -4242,6 +2864,7 @@
     <mergeCell ref="A18:E20"/>
     <mergeCell ref="E21:E24"/>
     <mergeCell ref="E26:E30"/>
+    <mergeCell ref="D26:D30"/>
     <mergeCell ref="F18:G20"/>
     <mergeCell ref="F21:F24"/>
     <mergeCell ref="G21:G24"/>
@@ -4249,7 +2872,1671 @@
     <mergeCell ref="B21:B24"/>
     <mergeCell ref="C21:C24"/>
     <mergeCell ref="D21:D24"/>
-    <mergeCell ref="D26:D30"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="A2:AG39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="11.25"/>
+  <cols>
+    <col min="1" max="1" width="20.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="22" style="2" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="22.5703125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="21.5703125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="26" style="2" customWidth="1"/>
+    <col min="9" max="9" width="24.28515625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="20" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.85546875" style="2" customWidth="1"/>
+    <col min="12" max="12" width="18.7109375" style="2" customWidth="1"/>
+    <col min="13" max="13" width="21.7109375" style="2" customWidth="1"/>
+    <col min="14" max="14" width="20.28515625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="20.7109375" style="2" customWidth="1"/>
+    <col min="16" max="16" width="23.28515625" style="2" customWidth="1"/>
+    <col min="17" max="17" width="32.28515625" style="2" customWidth="1"/>
+    <col min="18" max="18" width="24.7109375" style="2" customWidth="1"/>
+    <col min="19" max="19" width="22.140625" style="2" customWidth="1"/>
+    <col min="20" max="20" width="20.85546875" style="2" customWidth="1"/>
+    <col min="21" max="21" width="17.42578125" style="2" customWidth="1"/>
+    <col min="22" max="22" width="38.5703125" style="2" customWidth="1"/>
+    <col min="23" max="23" width="25" style="2" customWidth="1"/>
+    <col min="24" max="24" width="26.85546875" style="2" customWidth="1"/>
+    <col min="25" max="25" width="27.5703125" style="2" customWidth="1"/>
+    <col min="26" max="26" width="31.140625" style="2" customWidth="1"/>
+    <col min="27" max="27" width="25.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="30.85546875" style="2" customWidth="1"/>
+    <col min="29" max="29" width="26.140625" style="2" customWidth="1"/>
+    <col min="30" max="30" width="36.5703125" style="2" customWidth="1"/>
+    <col min="31" max="31" width="19.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="29.5703125" style="2" customWidth="1"/>
+    <col min="34" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:33" ht="21">
+      <c r="A2" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="41"/>
+      <c r="C2" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" ht="21">
+      <c r="A3" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="41"/>
+      <c r="C3" s="3" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" s="22" customFormat="1" ht="21" customHeight="1">
+      <c r="A6" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="H6" s="28" t="s">
+        <v>273</v>
+      </c>
+      <c r="I6" s="28" t="s">
+        <v>274</v>
+      </c>
+      <c r="J6" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6" s="28" t="s">
+        <v>272</v>
+      </c>
+      <c r="L6" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="M6" s="28" t="s">
+        <v>269</v>
+      </c>
+      <c r="N6" s="28" t="s">
+        <v>270</v>
+      </c>
+      <c r="O6" s="28" t="s">
+        <v>271</v>
+      </c>
+      <c r="P6" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q6" s="16"/>
+      <c r="R6" s="16"/>
+      <c r="S6" s="16"/>
+      <c r="T6" s="16"/>
+      <c r="U6" s="16"/>
+      <c r="V6" s="16"/>
+      <c r="W6" s="16"/>
+      <c r="X6" s="16"/>
+      <c r="Y6" s="16"/>
+      <c r="Z6" s="16"/>
+      <c r="AA6" s="16"/>
+      <c r="AB6" s="16"/>
+      <c r="AC6" s="16"/>
+      <c r="AD6" s="16"/>
+      <c r="AE6" s="16"/>
+      <c r="AF6" s="16"/>
+      <c r="AG6" s="16"/>
+    </row>
+    <row r="7" spans="1:33" s="13" customFormat="1">
+      <c r="A7" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>333</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>334</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>335</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>337</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>336</v>
+      </c>
+      <c r="M7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="N7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="O7" s="12" t="s">
+        <v>338</v>
+      </c>
+      <c r="P7" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="12"/>
+      <c r="T7" s="12"/>
+      <c r="U7" s="12"/>
+      <c r="V7" s="12"/>
+      <c r="W7" s="12"/>
+      <c r="X7" s="12"/>
+      <c r="Y7" s="12"/>
+      <c r="Z7" s="12"/>
+      <c r="AA7" s="12"/>
+      <c r="AB7" s="12"/>
+      <c r="AC7" s="12"/>
+      <c r="AD7" s="12"/>
+      <c r="AE7" s="12"/>
+      <c r="AF7" s="12"/>
+      <c r="AG7" s="12"/>
+    </row>
+    <row r="8" spans="1:33">
+      <c r="A8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33">
+      <c r="A9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33">
+      <c r="A10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>168</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>283</v>
+      </c>
+      <c r="E10" s="29" t="s">
+        <v>282</v>
+      </c>
+      <c r="F10" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="H10" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="J10" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="K10" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="L10" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="M10" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="N10" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="O10" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="P10" s="26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33">
+      <c r="A11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>168</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="29" t="s">
+        <v>283</v>
+      </c>
+      <c r="E11" s="29" t="s">
+        <v>282</v>
+      </c>
+      <c r="F11" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="H11" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="I11" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="J11" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="K11" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="L11" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="M11" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="N11" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="O11" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="P11" s="26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33">
+      <c r="A12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="29" t="s">
+        <v>168</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>283</v>
+      </c>
+      <c r="E12" s="29" t="s">
+        <v>282</v>
+      </c>
+      <c r="F12" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="H12" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12" s="29" t="s">
+        <v>284</v>
+      </c>
+      <c r="J12" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="K12" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="L12" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="M12" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="N12" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="O12" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="P12" s="26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33">
+      <c r="A13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33">
+      <c r="A14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33">
+      <c r="A15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33">
+      <c r="A16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:33" ht="11.25" customHeight="1">
+      <c r="A18" s="1"/>
+      <c r="B18" s="45" t="s">
+        <v>295</v>
+      </c>
+      <c r="C18" s="45"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="44" t="s">
+        <v>316</v>
+      </c>
+      <c r="H18" s="44"/>
+      <c r="I18" s="44"/>
+      <c r="J18" s="44"/>
+      <c r="K18" s="44"/>
+      <c r="L18" s="44"/>
+      <c r="M18" s="44"/>
+      <c r="N18" s="44"/>
+    </row>
+    <row r="19" spans="1:33">
+      <c r="B19" s="45"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="44"/>
+      <c r="J19" s="44"/>
+      <c r="K19" s="44"/>
+      <c r="L19" s="44"/>
+      <c r="M19" s="44"/>
+      <c r="N19" s="44"/>
+    </row>
+    <row r="20" spans="1:33">
+      <c r="B20" s="45"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="44"/>
+      <c r="J20" s="44"/>
+      <c r="K20" s="44"/>
+      <c r="L20" s="44"/>
+      <c r="M20" s="44"/>
+      <c r="N20" s="44"/>
+    </row>
+    <row r="21" spans="1:33" ht="11.25" customHeight="1">
+      <c r="A21" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="40" t="s">
+        <v>297</v>
+      </c>
+      <c r="C21" s="40" t="s">
+        <v>298</v>
+      </c>
+      <c r="D21" s="40" t="s">
+        <v>294</v>
+      </c>
+      <c r="E21" s="40" t="s">
+        <v>296</v>
+      </c>
+      <c r="F21" s="40" t="s">
+        <v>345</v>
+      </c>
+      <c r="G21" s="40" t="s">
+        <v>317</v>
+      </c>
+      <c r="H21" s="40" t="s">
+        <v>301</v>
+      </c>
+      <c r="I21" s="40" t="s">
+        <v>302</v>
+      </c>
+      <c r="J21" s="40" t="s">
+        <v>343</v>
+      </c>
+      <c r="K21" s="40" t="s">
+        <v>303</v>
+      </c>
+      <c r="L21" s="40" t="s">
+        <v>344</v>
+      </c>
+      <c r="M21" s="40" t="s">
+        <v>304</v>
+      </c>
+      <c r="N21" s="40" t="s">
+        <v>305</v>
+      </c>
+      <c r="O21" s="40" t="s">
+        <v>332</v>
+      </c>
+      <c r="P21" s="40" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
+      <c r="U21" s="1"/>
+      <c r="V21" s="1"/>
+      <c r="W21" s="1"/>
+      <c r="X21" s="1"/>
+      <c r="Y21" s="1"/>
+      <c r="Z21" s="1"/>
+      <c r="AA21" s="1"/>
+      <c r="AB21" s="1"/>
+      <c r="AC21" s="1"/>
+      <c r="AD21" s="1"/>
+      <c r="AE21" s="1"/>
+      <c r="AF21" s="1"/>
+      <c r="AG21" s="1"/>
+    </row>
+    <row r="22" spans="1:33">
+      <c r="A22" s="40"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="40"/>
+      <c r="K22" s="40"/>
+      <c r="L22" s="40"/>
+      <c r="M22" s="40"/>
+      <c r="N22" s="40"/>
+      <c r="O22" s="40"/>
+      <c r="P22" s="40"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
+      <c r="U22" s="1"/>
+      <c r="V22" s="1"/>
+      <c r="W22" s="1"/>
+      <c r="X22" s="1"/>
+      <c r="Y22" s="1"/>
+      <c r="Z22" s="1"/>
+      <c r="AA22" s="1"/>
+      <c r="AB22" s="1"/>
+      <c r="AC22" s="1"/>
+      <c r="AD22" s="1"/>
+      <c r="AE22" s="1"/>
+      <c r="AF22" s="1"/>
+      <c r="AG22" s="1"/>
+    </row>
+    <row r="23" spans="1:33">
+      <c r="A23" s="40"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="40"/>
+      <c r="L23" s="40"/>
+      <c r="M23" s="40"/>
+      <c r="N23" s="40"/>
+      <c r="O23" s="40"/>
+      <c r="P23" s="40"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1"/>
+      <c r="U23" s="1"/>
+      <c r="V23" s="1"/>
+      <c r="W23" s="1"/>
+      <c r="X23" s="1"/>
+      <c r="Y23" s="1"/>
+      <c r="Z23" s="1"/>
+      <c r="AA23" s="1"/>
+      <c r="AB23" s="1"/>
+      <c r="AC23" s="1"/>
+      <c r="AD23" s="1"/>
+      <c r="AE23" s="1"/>
+      <c r="AF23" s="1"/>
+      <c r="AG23" s="1"/>
+    </row>
+    <row r="24" spans="1:33">
+      <c r="A24" s="40"/>
+      <c r="B24" s="40"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="40"/>
+      <c r="I24" s="40"/>
+      <c r="J24" s="40"/>
+      <c r="K24" s="40"/>
+      <c r="L24" s="40"/>
+      <c r="M24" s="40"/>
+      <c r="N24" s="40"/>
+      <c r="O24" s="40"/>
+      <c r="P24" s="40"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+      <c r="T24" s="1"/>
+      <c r="U24" s="1"/>
+      <c r="V24" s="1"/>
+      <c r="W24" s="1"/>
+      <c r="X24" s="1"/>
+      <c r="Y24" s="1"/>
+      <c r="Z24" s="1"/>
+      <c r="AA24" s="1"/>
+      <c r="AB24" s="1"/>
+      <c r="AC24" s="1"/>
+      <c r="AD24" s="1"/>
+      <c r="AE24" s="1"/>
+      <c r="AF24" s="1"/>
+      <c r="AG24" s="1"/>
+    </row>
+    <row r="25" spans="1:33">
+      <c r="A25" s="40"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="40"/>
+      <c r="I25" s="40"/>
+      <c r="J25" s="40"/>
+      <c r="K25" s="40"/>
+      <c r="L25" s="40"/>
+      <c r="M25" s="40"/>
+      <c r="N25" s="40"/>
+      <c r="O25" s="40"/>
+      <c r="P25" s="40"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="1"/>
+      <c r="U25" s="1"/>
+      <c r="V25" s="1"/>
+      <c r="W25" s="1"/>
+      <c r="X25" s="1"/>
+      <c r="Y25" s="1"/>
+      <c r="Z25" s="1"/>
+      <c r="AA25" s="1"/>
+      <c r="AB25" s="1"/>
+      <c r="AC25" s="1"/>
+      <c r="AD25" s="1"/>
+      <c r="AE25" s="1"/>
+      <c r="AF25" s="1"/>
+      <c r="AG25" s="1"/>
+    </row>
+    <row r="26" spans="1:33">
+      <c r="A26" s="40"/>
+      <c r="B26" s="40"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="40"/>
+      <c r="I26" s="40"/>
+      <c r="J26" s="40"/>
+      <c r="K26" s="40"/>
+      <c r="L26" s="40"/>
+      <c r="M26" s="40"/>
+      <c r="N26" s="40"/>
+      <c r="O26" s="40"/>
+      <c r="P26" s="40"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
+      <c r="T26" s="1"/>
+      <c r="U26" s="1"/>
+      <c r="V26" s="1"/>
+      <c r="W26" s="1"/>
+      <c r="X26" s="1"/>
+      <c r="Y26" s="1"/>
+      <c r="Z26" s="1"/>
+      <c r="AA26" s="1"/>
+      <c r="AB26" s="1"/>
+      <c r="AC26" s="1"/>
+      <c r="AD26" s="1"/>
+      <c r="AE26" s="1"/>
+      <c r="AF26" s="1"/>
+      <c r="AG26" s="1"/>
+    </row>
+    <row r="27" spans="1:33">
+      <c r="A27" s="40"/>
+      <c r="B27" s="40"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="40"/>
+      <c r="I27" s="40"/>
+      <c r="J27" s="40"/>
+      <c r="K27" s="40"/>
+      <c r="L27" s="40"/>
+      <c r="M27" s="40"/>
+      <c r="N27" s="40"/>
+      <c r="O27" s="40"/>
+      <c r="P27" s="40"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
+      <c r="T27" s="1"/>
+      <c r="U27" s="1"/>
+      <c r="V27" s="1"/>
+      <c r="W27" s="1"/>
+      <c r="X27" s="1"/>
+      <c r="Y27" s="1"/>
+      <c r="Z27" s="1"/>
+      <c r="AA27" s="1"/>
+      <c r="AB27" s="1"/>
+      <c r="AC27" s="1"/>
+      <c r="AD27" s="1"/>
+      <c r="AE27" s="1"/>
+      <c r="AF27" s="1"/>
+      <c r="AG27" s="1"/>
+    </row>
+    <row r="28" spans="1:33">
+      <c r="A28" s="40"/>
+      <c r="B28" s="40"/>
+      <c r="C28" s="40"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="40"/>
+      <c r="H28" s="40"/>
+      <c r="I28" s="40"/>
+      <c r="J28" s="40"/>
+      <c r="K28" s="40"/>
+      <c r="L28" s="40"/>
+      <c r="M28" s="40"/>
+      <c r="N28" s="40"/>
+      <c r="O28" s="40"/>
+      <c r="P28" s="40"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1"/>
+      <c r="U28" s="1"/>
+      <c r="V28" s="1"/>
+      <c r="W28" s="1"/>
+      <c r="X28" s="1"/>
+      <c r="Y28" s="1"/>
+      <c r="Z28" s="1"/>
+      <c r="AA28" s="1"/>
+      <c r="AB28" s="1"/>
+      <c r="AC28" s="1"/>
+      <c r="AD28" s="1"/>
+      <c r="AE28" s="1"/>
+      <c r="AF28" s="1"/>
+      <c r="AG28" s="1"/>
+    </row>
+    <row r="30" spans="1:33">
+      <c r="M30" s="46" t="s">
+        <v>306</v>
+      </c>
+      <c r="N30" s="46"/>
+    </row>
+    <row r="31" spans="1:33">
+      <c r="M31" s="46" t="s">
+        <v>307</v>
+      </c>
+      <c r="N31" s="46"/>
+    </row>
+    <row r="32" spans="1:33">
+      <c r="M32" s="46" t="s">
+        <v>308</v>
+      </c>
+      <c r="N32" s="46"/>
+    </row>
+    <row r="33" spans="13:14">
+      <c r="M33" s="46" t="s">
+        <v>309</v>
+      </c>
+      <c r="N33" s="46"/>
+    </row>
+    <row r="34" spans="13:14">
+      <c r="M34" s="46" t="s">
+        <v>310</v>
+      </c>
+      <c r="N34" s="46"/>
+    </row>
+    <row r="35" spans="13:14">
+      <c r="M35" s="46" t="s">
+        <v>311</v>
+      </c>
+      <c r="N35" s="46"/>
+    </row>
+    <row r="36" spans="13:14">
+      <c r="M36" s="46" t="s">
+        <v>312</v>
+      </c>
+      <c r="N36" s="46"/>
+    </row>
+    <row r="37" spans="13:14">
+      <c r="M37" s="46" t="s">
+        <v>313</v>
+      </c>
+      <c r="N37" s="46"/>
+    </row>
+    <row r="38" spans="13:14">
+      <c r="M38" s="46" t="s">
+        <v>314</v>
+      </c>
+      <c r="N38" s="46"/>
+    </row>
+    <row r="39" spans="13:14">
+      <c r="M39" s="46" t="s">
+        <v>315</v>
+      </c>
+      <c r="N39" s="46"/>
+    </row>
+  </sheetData>
+  <mergeCells count="30">
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A21:A28"/>
+    <mergeCell ref="B21:B28"/>
+    <mergeCell ref="C21:C28"/>
+    <mergeCell ref="B18:F20"/>
+    <mergeCell ref="D21:D28"/>
+    <mergeCell ref="G18:N20"/>
+    <mergeCell ref="F21:F28"/>
+    <mergeCell ref="O21:O28"/>
+    <mergeCell ref="P21:P28"/>
+    <mergeCell ref="E21:E28"/>
+    <mergeCell ref="L21:L28"/>
+    <mergeCell ref="H21:H28"/>
+    <mergeCell ref="I21:I28"/>
+    <mergeCell ref="K21:K28"/>
+    <mergeCell ref="M21:M28"/>
+    <mergeCell ref="N21:N28"/>
+    <mergeCell ref="G21:G28"/>
+    <mergeCell ref="J21:J28"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="A2:Q27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="11.25"/>
+  <cols>
+    <col min="1" max="1" width="20.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="22" style="2" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="23.28515625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="30.28515625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="22.5703125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="24.85546875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="26.85546875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="27.5703125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="31.140625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="25.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="30.85546875" style="2" customWidth="1"/>
+    <col min="13" max="13" width="26.140625" style="2" customWidth="1"/>
+    <col min="14" max="14" width="36.5703125" style="2" customWidth="1"/>
+    <col min="15" max="15" width="19.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="29.5703125" style="2" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:7" ht="21">
+      <c r="A2" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="41"/>
+      <c r="C2" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="21">
+      <c r="A3" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="41"/>
+      <c r="C3" s="3" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="26" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>320</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>321</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>323</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>322</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="12"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="12"/>
+      <c r="B18" s="42" t="s">
+        <v>325</v>
+      </c>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42" t="s">
+        <v>328</v>
+      </c>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="B19" s="42"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="B20" s="42"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
+    </row>
+    <row r="21" spans="1:7" ht="11.25" customHeight="1">
+      <c r="A21" s="40" t="s">
+        <v>139</v>
+      </c>
+      <c r="B21" s="40" t="s">
+        <v>137</v>
+      </c>
+      <c r="C21" s="40" t="s">
+        <v>326</v>
+      </c>
+      <c r="D21" s="40" t="s">
+        <v>327</v>
+      </c>
+      <c r="E21" s="47" t="s">
+        <v>329</v>
+      </c>
+      <c r="F21" s="40" t="s">
+        <v>330</v>
+      </c>
+      <c r="G21" s="40" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="40"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="40"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="40"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="48"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="40"/>
+      <c r="B24" s="40"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="40"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="40"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="40"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="40"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="40"/>
+      <c r="B26" s="40"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="F26" s="40"/>
+      <c r="G26" s="40"/>
+    </row>
+    <row r="27" spans="1:7" ht="101.25">
+      <c r="E27" s="18" t="s">
+        <v>136</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="G21:G26"/>
+    <mergeCell ref="E21:E24"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C21:C26"/>
+    <mergeCell ref="B21:B26"/>
+    <mergeCell ref="A21:A26"/>
+    <mergeCell ref="F21:F26"/>
+    <mergeCell ref="D21:D26"/>
+    <mergeCell ref="B18:D20"/>
+    <mergeCell ref="E18:E20"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FFFA7E7E"/>
+  </sheetPr>
+  <dimension ref="A2:Q22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="11.25"/>
+  <cols>
+    <col min="1" max="1" width="20.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="22" style="2" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="22.5703125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="23.28515625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="18.7109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="26.85546875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="27.5703125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="31.140625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="25.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="30.85546875" style="2" customWidth="1"/>
+    <col min="13" max="13" width="26.140625" style="2" customWidth="1"/>
+    <col min="14" max="14" width="36.5703125" style="2" customWidth="1"/>
+    <col min="15" max="15" width="19.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="29.5703125" style="2" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:17" ht="21">
+      <c r="A2" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="41"/>
+      <c r="C2" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="21">
+      <c r="A3" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="41"/>
+      <c r="C3" s="3"/>
+    </row>
+    <row r="6" spans="1:17" s="13" customFormat="1" ht="21">
+      <c r="A6" s="11"/>
+      <c r="B6" s="33" t="s">
+        <v>346</v>
+      </c>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="50"/>
+      <c r="B19" s="50"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="50"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="51"/>
+      <c r="B20" s="51"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="51"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="51"/>
+      <c r="B21" s="51"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="51"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="52"/>
+      <c r="B22" s="52"/>
+      <c r="C22" s="52"/>
+      <c r="D22" s="52"/>
+      <c r="E22" s="52"/>
+      <c r="F22" s="52"/>
+      <c r="G22" s="52"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="E19:E22"/>
+    <mergeCell ref="F19:F22"/>
+    <mergeCell ref="G19:G22"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="C19:C22"/>
+    <mergeCell ref="D19:D22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -4261,10 +4548,10 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A2:AE29"/>
+  <dimension ref="A2:AE41"/>
   <sheetViews>
-    <sheetView topLeftCell="Z4" workbookViewId="0">
-      <selection activeCell="AD20" sqref="AD20:AD22"/>
+    <sheetView tabSelected="1" topLeftCell="U4" workbookViewId="0">
+      <selection activeCell="V20" sqref="V20:Y22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -4274,26 +4561,27 @@
     <col min="3" max="3" width="21.5703125" style="2" customWidth="1"/>
     <col min="4" max="4" width="28.140625" style="2" customWidth="1"/>
     <col min="5" max="5" width="23.28515625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="21.5703125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="18.7109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="17.7109375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.7109375" style="2" customWidth="1"/>
-    <col min="12" max="12" width="15.85546875" style="2" customWidth="1"/>
-    <col min="13" max="14" width="29.7109375" style="2" customWidth="1"/>
-    <col min="15" max="15" width="33.140625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="30.140625" style="2" customWidth="1"/>
-    <col min="17" max="17" width="34.28515625" style="2" customWidth="1"/>
-    <col min="18" max="18" width="32.5703125" style="2" customWidth="1"/>
-    <col min="19" max="19" width="33.42578125" style="1" customWidth="1"/>
-    <col min="20" max="20" width="36.5703125" style="1" customWidth="1"/>
-    <col min="21" max="21" width="38.5703125" style="1" customWidth="1"/>
-    <col min="22" max="22" width="34.5703125" style="1" customWidth="1"/>
-    <col min="23" max="23" width="31.85546875" style="1" customWidth="1"/>
-    <col min="24" max="24" width="41.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="23.28515625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="20.7109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="17.7109375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.7109375" style="2" customWidth="1"/>
+    <col min="13" max="13" width="22.85546875" style="2" customWidth="1"/>
+    <col min="14" max="14" width="21.42578125" style="2" customWidth="1"/>
+    <col min="15" max="15" width="20" style="1" customWidth="1"/>
+    <col min="16" max="16" width="24.85546875" style="2" customWidth="1"/>
+    <col min="17" max="17" width="24" style="1" customWidth="1"/>
+    <col min="18" max="18" width="25.85546875" style="2" customWidth="1"/>
+    <col min="19" max="19" width="22.42578125" style="1" customWidth="1"/>
+    <col min="20" max="20" width="22" style="1" customWidth="1"/>
+    <col min="21" max="21" width="23.7109375" style="1" customWidth="1"/>
+    <col min="22" max="22" width="31" style="1" customWidth="1"/>
+    <col min="23" max="23" width="35.28515625" style="1" customWidth="1"/>
+    <col min="24" max="24" width="38.42578125" style="1" customWidth="1"/>
     <col min="25" max="25" width="26.7109375" style="1" customWidth="1"/>
-    <col min="26" max="26" width="23.5703125" style="1" customWidth="1"/>
+    <col min="26" max="26" width="47.28515625" style="1" customWidth="1"/>
     <col min="27" max="27" width="27" style="1" customWidth="1"/>
     <col min="28" max="28" width="29.5703125" style="1" customWidth="1"/>
     <col min="29" max="29" width="28.85546875" style="1" customWidth="1"/>
@@ -4303,117 +4591,122 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:31" ht="21">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="31"/>
+      <c r="B2" s="30"/>
       <c r="C2" s="3" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:31" ht="21">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="31"/>
+      <c r="B3" s="30"/>
       <c r="C3" s="3" t="s">
-        <v>255</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4" spans="1:31" ht="21">
-      <c r="A4" s="51" t="s">
-        <v>172</v>
-      </c>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="1"/>
+      <c r="A4" s="31" t="s">
+        <v>147</v>
+      </c>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="1"/>
+      <c r="H4" s="31"/>
       <c r="P4" s="19"/>
       <c r="AB4" s="2"/>
+    </row>
+    <row r="5" spans="1:31">
+      <c r="V5" s="2" t="s">
+        <v>349</v>
+      </c>
     </row>
     <row r="7" spans="1:31" s="13" customFormat="1">
       <c r="A7" s="14" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="C7" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="I7" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="J7" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="K7" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="L7" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="M7" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="N7" s="14" t="s">
         <v>48</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="G7" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="H7" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="I7" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="J7" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="K7" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="L7" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="M7" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="N7" s="14" t="s">
-        <v>57</v>
       </c>
       <c r="O7" s="14" t="s">
         <v>55</v>
       </c>
       <c r="P7" s="14" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="Q7" s="14" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="R7" s="14" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="S7" s="14" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="T7" s="14" t="s">
-        <v>64</v>
+        <v>347</v>
       </c>
       <c r="U7" s="14" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="V7" s="14" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W7" s="14" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="X7" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y7" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z7" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA7" s="14" t="s">
         <v>60</v>
-      </c>
-      <c r="Y7" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z7" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA7" s="14" t="s">
-        <v>69</v>
       </c>
       <c r="AB7" s="14" t="s">
         <v>17</v>
@@ -4422,7 +4715,7 @@
         <v>18</v>
       </c>
       <c r="AD7" s="14" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="AE7" s="14" t="s">
         <v>19</v>
@@ -4433,79 +4726,79 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>85</v>
+        <v>350</v>
       </c>
       <c r="E8" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="H8" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="M8" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="N8" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="O8" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="P8" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q8" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="R8" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="S8" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="T8" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="U8" s="16" t="s">
-        <v>74</v>
+      <c r="F8" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="G8" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" s="29" t="s">
+        <v>351</v>
+      </c>
+      <c r="I8" s="29" t="s">
+        <v>348</v>
+      </c>
+      <c r="J8" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="K8" s="29" t="s">
+        <v>352</v>
+      </c>
+      <c r="L8" s="29" t="s">
+        <v>353</v>
+      </c>
+      <c r="M8" s="81" t="s">
+        <v>354</v>
+      </c>
+      <c r="N8" s="81" t="s">
+        <v>355</v>
+      </c>
+      <c r="O8" s="81" t="s">
+        <v>355</v>
+      </c>
+      <c r="P8" s="81" t="s">
+        <v>356</v>
+      </c>
+      <c r="Q8" s="81" t="s">
+        <v>356</v>
+      </c>
+      <c r="R8" s="81" t="s">
+        <v>64</v>
+      </c>
+      <c r="S8" s="81" t="s">
+        <v>64</v>
+      </c>
+      <c r="T8" s="29" t="s">
+        <v>358</v>
+      </c>
+      <c r="U8" s="81" t="s">
+        <v>65</v>
       </c>
       <c r="V8" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="W8" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="X8" s="16" t="s">
-        <v>0</v>
+        <v>357</v>
+      </c>
+      <c r="W8" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="X8" s="23" t="s">
+        <v>9</v>
       </c>
       <c r="Y8" s="16" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="Z8" s="16" t="s">
-        <v>75</v>
+        <v>1</v>
       </c>
       <c r="AA8" s="16" t="s">
         <v>9</v>
@@ -4528,79 +4821,79 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>92</v>
+        <v>424</v>
       </c>
       <c r="E9" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="H9" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="M9" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="N9" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="O9" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="P9" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q9" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="R9" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="S9" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="T9" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="U9" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="V9" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="W9" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="X9" s="16" t="s">
+      <c r="F9" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="G9" s="81" t="s">
+        <v>426</v>
+      </c>
+      <c r="H9" s="29" t="s">
+        <v>425</v>
+      </c>
+      <c r="I9" s="29" t="s">
+        <v>348</v>
+      </c>
+      <c r="J9" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="K9" s="29" t="s">
+        <v>427</v>
+      </c>
+      <c r="L9" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="Y9" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z9" s="16" t="s">
-        <v>75</v>
+      <c r="M9" s="81" t="s">
+        <v>354</v>
+      </c>
+      <c r="N9" s="81" t="s">
+        <v>428</v>
+      </c>
+      <c r="O9" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="P9" s="81" t="s">
+        <v>429</v>
+      </c>
+      <c r="Q9" s="81" t="s">
+        <v>429</v>
+      </c>
+      <c r="R9" s="81" t="s">
+        <v>64</v>
+      </c>
+      <c r="S9" s="81" t="s">
+        <v>64</v>
+      </c>
+      <c r="T9" s="29" t="s">
+        <v>358</v>
+      </c>
+      <c r="U9" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="V9" s="87" t="s">
+        <v>357</v>
+      </c>
+      <c r="W9" s="81" t="s">
+        <v>430</v>
+      </c>
+      <c r="X9" s="81" t="s">
+        <v>430</v>
+      </c>
+      <c r="Y9" s="81" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z9" s="81" t="s">
+        <v>3</v>
       </c>
       <c r="AA9" s="16" t="s">
         <v>9</v>
@@ -4623,79 +4916,79 @@
         <v>7</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>191</v>
+        <v>431</v>
       </c>
       <c r="E10" s="16" t="s">
         <v>9</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="H10" s="16" t="s">
-        <v>185</v>
+        <v>99</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>433</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>432</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>1</v>
+        <v>348</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>186</v>
+        <v>0</v>
       </c>
       <c r="K10" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="L10" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="L10" s="2" t="s">
-        <v>187</v>
-      </c>
       <c r="M10" s="16" t="s">
-        <v>188</v>
+        <v>354</v>
       </c>
       <c r="N10" s="16" t="s">
-        <v>189</v>
+        <v>428</v>
       </c>
       <c r="O10" s="16" t="s">
-        <v>116</v>
+        <v>65</v>
       </c>
       <c r="P10" s="16" t="s">
-        <v>116</v>
+        <v>435</v>
       </c>
       <c r="Q10" s="16" t="s">
-        <v>73</v>
+        <v>435</v>
       </c>
       <c r="R10" s="16" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="S10" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="T10" s="16" t="s">
-        <v>189</v>
+        <v>64</v>
+      </c>
+      <c r="T10" s="2" t="s">
+        <v>358</v>
       </c>
       <c r="U10" s="16" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="V10" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="W10" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="X10" s="16" t="s">
-        <v>0</v>
+        <v>357</v>
+      </c>
+      <c r="W10" s="16" t="s">
+        <v>436</v>
+      </c>
+      <c r="X10" s="23" t="s">
+        <v>436</v>
       </c>
       <c r="Y10" s="16" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="Z10" s="16" t="s">
-        <v>190</v>
+        <v>3</v>
       </c>
       <c r="AA10" s="16" t="s">
         <v>9</v>
@@ -4718,79 +5011,79 @@
         <v>7</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>191</v>
+        <v>360</v>
       </c>
       <c r="E11" s="16" t="s">
         <v>9</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="H11" s="16" t="s">
-        <v>193</v>
+        <v>66</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>362</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>361</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>1</v>
+        <v>365</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>194</v>
+        <v>3</v>
       </c>
       <c r="K11" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="M11" s="16" t="s">
+        <v>366</v>
+      </c>
+      <c r="N11" s="16" t="s">
+        <v>355</v>
+      </c>
+      <c r="O11" s="16" t="s">
+        <v>355</v>
+      </c>
+      <c r="P11" s="16" t="s">
+        <v>366</v>
+      </c>
+      <c r="Q11" s="16" t="s">
+        <v>366</v>
+      </c>
+      <c r="R11" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="S11" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="T11" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="U11" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="V11" s="16" t="s">
+        <v>359</v>
+      </c>
+      <c r="W11" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="X11" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y11" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z11" s="16" t="s">
         <v>0</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="M11" s="16" t="s">
-        <v>188</v>
-      </c>
-      <c r="N11" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="O11" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="P11" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q11" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="R11" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="S11" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="T11" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="U11" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="V11" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="W11" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="X11" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z11" s="16" t="s">
-        <v>190</v>
       </c>
       <c r="AA11" s="16" t="s">
         <v>9</v>
@@ -4813,79 +5106,79 @@
         <v>7</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>201</v>
+        <v>367</v>
       </c>
       <c r="E12" s="16" t="s">
         <v>9</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="H12" s="16" t="s">
-        <v>197</v>
+        <v>66</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>369</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>368</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>1</v>
+        <v>167</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>198</v>
+        <v>3</v>
       </c>
       <c r="K12" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="L12" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="L12" s="2" t="s">
-        <v>199</v>
-      </c>
       <c r="M12" s="16" t="s">
-        <v>188</v>
+        <v>371</v>
       </c>
       <c r="N12" s="16" t="s">
-        <v>200</v>
+        <v>372</v>
       </c>
       <c r="O12" s="16" t="s">
-        <v>116</v>
+        <v>372</v>
       </c>
       <c r="P12" s="16" t="s">
-        <v>116</v>
+        <v>373</v>
       </c>
       <c r="Q12" s="16" t="s">
-        <v>73</v>
+        <v>373</v>
       </c>
       <c r="R12" s="16" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="S12" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="T12" s="16" t="s">
-        <v>200</v>
+        <v>64</v>
+      </c>
+      <c r="T12" s="2" t="s">
+        <v>358</v>
       </c>
       <c r="U12" s="16" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="V12" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="W12" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="X12" s="16" t="s">
+        <v>359</v>
+      </c>
+      <c r="W12" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="X12" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y12" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z12" s="16" t="s">
         <v>0</v>
-      </c>
-      <c r="Y12" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z12" s="16" t="s">
-        <v>190</v>
       </c>
       <c r="AA12" s="16" t="s">
         <v>9</v>
@@ -4908,79 +5201,79 @@
         <v>7</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="C13" s="12" t="s">
         <v>1</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>201</v>
+        <v>367</v>
       </c>
       <c r="E13" s="23" t="s">
         <v>9</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="H13" s="23" t="s">
-        <v>203</v>
+        <v>66</v>
+      </c>
+      <c r="G13" s="23" t="s">
+        <v>375</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>374</v>
       </c>
       <c r="I13" s="12" t="s">
-        <v>1</v>
+        <v>167</v>
       </c>
       <c r="J13" s="12" t="s">
-        <v>204</v>
+        <v>3</v>
       </c>
       <c r="K13" s="12" t="s">
+        <v>376</v>
+      </c>
+      <c r="L13" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="L13" s="12" t="s">
-        <v>205</v>
-      </c>
       <c r="M13" s="23" t="s">
-        <v>188</v>
+        <v>371</v>
       </c>
       <c r="N13" s="23" t="s">
-        <v>206</v>
+        <v>372</v>
       </c>
       <c r="O13" s="23" t="s">
-        <v>116</v>
+        <v>372</v>
       </c>
       <c r="P13" s="23" t="s">
-        <v>116</v>
+        <v>373</v>
       </c>
       <c r="Q13" s="23" t="s">
-        <v>73</v>
+        <v>373</v>
       </c>
       <c r="R13" s="23" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="S13" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="T13" s="23" t="s">
-        <v>206</v>
+        <v>64</v>
+      </c>
+      <c r="T13" s="12" t="s">
+        <v>358</v>
       </c>
       <c r="U13" s="23" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="V13" s="23" t="s">
-        <v>9</v>
+        <v>359</v>
       </c>
       <c r="W13" s="23" t="s">
         <v>9</v>
       </c>
       <c r="X13" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y13" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z13" s="23" t="s">
         <v>0</v>
-      </c>
-      <c r="Y13" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z13" s="23" t="s">
-        <v>190</v>
       </c>
       <c r="AA13" s="23" t="s">
         <v>9</v>
@@ -5003,79 +5296,79 @@
         <v>7</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>211</v>
+        <v>367</v>
       </c>
       <c r="E14" s="16" t="s">
         <v>9</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="H14" s="16" t="s">
-        <v>208</v>
+        <v>66</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>378</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>377</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>1</v>
+        <v>380</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>209</v>
+        <v>3</v>
       </c>
       <c r="K14" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="L14" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="L14" s="2" t="s">
-        <v>210</v>
-      </c>
       <c r="M14" s="16" t="s">
-        <v>188</v>
+        <v>371</v>
       </c>
       <c r="N14" s="16" t="s">
-        <v>189</v>
+        <v>381</v>
       </c>
       <c r="O14" s="16" t="s">
-        <v>116</v>
+        <v>381</v>
       </c>
       <c r="P14" s="16" t="s">
-        <v>116</v>
+        <v>382</v>
       </c>
       <c r="Q14" s="16" t="s">
-        <v>73</v>
+        <v>382</v>
       </c>
       <c r="R14" s="16" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="S14" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="T14" s="16" t="s">
-        <v>189</v>
+        <v>64</v>
+      </c>
+      <c r="T14" s="2" t="s">
+        <v>358</v>
       </c>
       <c r="U14" s="16" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="V14" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="W14" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="X14" s="16" t="s">
+        <v>359</v>
+      </c>
+      <c r="W14" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="X14" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y14" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z14" s="16" t="s">
         <v>0</v>
-      </c>
-      <c r="Y14" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z14" s="16" t="s">
-        <v>190</v>
       </c>
       <c r="AA14" s="16" t="s">
         <v>9</v>
@@ -5098,79 +5391,79 @@
         <v>7</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>230</v>
+        <v>383</v>
       </c>
       <c r="E15" s="16" t="s">
         <v>9</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="H15" s="16" t="s">
-        <v>125</v>
+        <v>66</v>
+      </c>
+      <c r="G15" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>384</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>1</v>
+        <v>386</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>224</v>
+        <v>3</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>225</v>
+        <v>385</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>226</v>
+        <v>64</v>
       </c>
       <c r="M15" s="16" t="s">
-        <v>227</v>
+        <v>67</v>
       </c>
       <c r="N15" s="16" t="s">
-        <v>228</v>
+        <v>387</v>
       </c>
       <c r="O15" s="16" t="s">
-        <v>126</v>
+        <v>387</v>
       </c>
       <c r="P15" s="16" t="s">
-        <v>126</v>
+        <v>68</v>
       </c>
       <c r="Q15" s="16" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="R15" s="16" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="S15" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="T15" s="16" t="s">
-        <v>229</v>
+        <v>64</v>
+      </c>
+      <c r="T15" s="2" t="s">
+        <v>358</v>
       </c>
       <c r="U15" s="16" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="V15" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="W15" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="X15" s="16" t="s">
-        <v>2</v>
+        <v>388</v>
+      </c>
+      <c r="W15" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="X15" s="23" t="s">
+        <v>9</v>
       </c>
       <c r="Y15" s="16" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="Z15" s="16" t="s">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="AA15" s="16" t="s">
         <v>9</v>
@@ -5193,80 +5486,80 @@
         <v>7</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>240</v>
+        <v>389</v>
       </c>
       <c r="E16" s="16" t="s">
         <v>9</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="H16" s="16" t="s">
-        <v>234</v>
+        <v>66</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>391</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>390</v>
       </c>
       <c r="I16" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="L16" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="J16" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="K16" s="2" t="s">
+      <c r="M16" s="16" t="s">
+        <v>393</v>
+      </c>
+      <c r="N16" s="16" t="s">
+        <v>394</v>
+      </c>
+      <c r="O16" s="16" t="s">
+        <v>394</v>
+      </c>
+      <c r="P16" s="16" t="s">
+        <v>395</v>
+      </c>
+      <c r="Q16" s="16" t="s">
+        <v>395</v>
+      </c>
+      <c r="R16" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="S16" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="T16" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="U16" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="V16" s="16" t="s">
+        <v>359</v>
+      </c>
+      <c r="W16" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="X16" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y16" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z16" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="L16" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="M16" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="N16" s="16" t="s">
-        <v>237</v>
-      </c>
-      <c r="O16" s="16" t="s">
-        <v>238</v>
-      </c>
-      <c r="P16" s="16" t="s">
-        <v>238</v>
-      </c>
-      <c r="Q16" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="R16" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="S16" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="T16" s="16" t="s">
-        <v>237</v>
-      </c>
-      <c r="U16" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="V16" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="W16" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="X16" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y16" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z16" s="16" t="s">
-        <v>239</v>
-      </c>
       <c r="AA16" s="16" t="s">
         <v>9</v>
       </c>
@@ -5280,7 +5573,7 @@
         <v>9</v>
       </c>
       <c r="AE16" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:31">
@@ -5288,79 +5581,79 @@
         <v>7</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>248</v>
+        <v>396</v>
       </c>
       <c r="E17" s="16" t="s">
         <v>9</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="H17" s="16" t="s">
-        <v>241</v>
+        <v>66</v>
+      </c>
+      <c r="G17" s="16" t="s">
+        <v>398</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>397</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>1</v>
+        <v>167</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>242</v>
+        <v>3</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>243</v>
+        <v>399</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>244</v>
+        <v>0</v>
       </c>
       <c r="M17" s="16" t="s">
-        <v>140</v>
+        <v>400</v>
       </c>
       <c r="N17" s="16" t="s">
-        <v>245</v>
+        <v>372</v>
       </c>
       <c r="O17" s="16" t="s">
-        <v>246</v>
+        <v>372</v>
       </c>
       <c r="P17" s="16" t="s">
-        <v>246</v>
+        <v>188</v>
       </c>
       <c r="Q17" s="16" t="s">
-        <v>73</v>
+        <v>188</v>
       </c>
       <c r="R17" s="16" t="s">
-        <v>148</v>
+        <v>64</v>
       </c>
       <c r="S17" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="T17" s="16" t="s">
-        <v>245</v>
+        <v>64</v>
+      </c>
+      <c r="T17" s="2" t="s">
+        <v>358</v>
       </c>
       <c r="U17" s="16" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="V17" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="W17" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="X17" s="16" t="s">
-        <v>1</v>
+        <v>359</v>
+      </c>
+      <c r="W17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="X17" s="23" t="s">
+        <v>9</v>
       </c>
       <c r="Y17" s="16" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="Z17" s="16" t="s">
-        <v>247</v>
+        <v>0</v>
       </c>
       <c r="AA17" s="16" t="s">
         <v>9</v>
@@ -5375,19 +5668,18 @@
         <v>9</v>
       </c>
       <c r="AE17" s="16" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:31">
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="O18" s="2"/>
+      <c r="G18" s="1"/>
       <c r="P18" s="1"/>
-      <c r="Q18" s="1"/>
+      <c r="Q18" s="2"/>
       <c r="R18" s="1"/>
       <c r="S18" s="2"/>
-      <c r="V18" s="2"/>
+      <c r="W18" s="2"/>
       <c r="AB18" s="2"/>
       <c r="AC18" s="2"/>
       <c r="AD18" s="2"/>
@@ -5395,13 +5687,12 @@
     <row r="19" spans="1:31">
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="O19" s="2"/>
+      <c r="G19" s="1"/>
       <c r="P19" s="1"/>
-      <c r="Q19" s="1"/>
+      <c r="Q19" s="2"/>
       <c r="R19" s="1"/>
       <c r="S19" s="2"/>
-      <c r="V19" s="2"/>
+      <c r="W19" s="2"/>
       <c r="AB19" s="2"/>
       <c r="AC19" s="2"/>
       <c r="AD19" s="2"/>
@@ -5409,403 +5700,553 @@
     <row r="20" spans="1:31" ht="11.25" customHeight="1">
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
-      <c r="F20" s="42" t="s">
-        <v>183</v>
-      </c>
-      <c r="G20" s="43"/>
-      <c r="H20" s="43"/>
-      <c r="I20" s="43"/>
-      <c r="J20" s="43"/>
-      <c r="K20" s="43"/>
-      <c r="L20" s="43"/>
-      <c r="M20" s="43"/>
-      <c r="N20" s="43"/>
-      <c r="O20" s="43"/>
-      <c r="P20" s="43"/>
-      <c r="Q20" s="43"/>
-      <c r="R20" s="43"/>
-      <c r="S20" s="43"/>
-      <c r="T20" s="43"/>
-      <c r="U20" s="43"/>
-      <c r="V20" s="43"/>
-      <c r="W20" s="43"/>
-      <c r="X20" s="43"/>
-      <c r="Y20" s="43"/>
-      <c r="Z20" s="44"/>
-      <c r="AA20" s="41" t="s">
-        <v>217</v>
-      </c>
-      <c r="AB20" s="41" t="s">
-        <v>386</v>
-      </c>
-      <c r="AC20" s="53"/>
-      <c r="AD20" s="41" t="s">
-        <v>385</v>
-      </c>
-      <c r="AE20" s="41" t="s">
-        <v>251</v>
+      <c r="F20" s="44" t="s">
+        <v>401</v>
+      </c>
+      <c r="G20" s="44"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="44"/>
+      <c r="J20" s="44"/>
+      <c r="K20" s="44"/>
+      <c r="L20" s="44"/>
+      <c r="M20" s="44"/>
+      <c r="N20" s="44"/>
+      <c r="O20" s="44"/>
+      <c r="P20" s="44"/>
+      <c r="Q20" s="44"/>
+      <c r="R20" s="44"/>
+      <c r="S20" s="44"/>
+      <c r="T20" s="44"/>
+      <c r="U20" s="44"/>
+      <c r="V20" s="53" t="s">
+        <v>440</v>
+      </c>
+      <c r="W20" s="54"/>
+      <c r="X20" s="54"/>
+      <c r="Y20" s="55"/>
+      <c r="Z20" s="84" t="s">
+        <v>441</v>
+      </c>
+      <c r="AA20" s="45" t="s">
+        <v>160</v>
+      </c>
+      <c r="AB20" s="45" t="s">
+        <v>300</v>
+      </c>
+      <c r="AC20" s="64"/>
+      <c r="AD20" s="45" t="s">
+        <v>299</v>
+      </c>
+      <c r="AE20" s="45" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="21" spans="1:31" ht="11.25" customHeight="1">
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
-      <c r="F21" s="45"/>
-      <c r="G21" s="46"/>
-      <c r="H21" s="46"/>
-      <c r="I21" s="46"/>
-      <c r="J21" s="46"/>
-      <c r="K21" s="46"/>
-      <c r="L21" s="46"/>
-      <c r="M21" s="46"/>
-      <c r="N21" s="46"/>
-      <c r="O21" s="46"/>
-      <c r="P21" s="46"/>
-      <c r="Q21" s="46"/>
-      <c r="R21" s="46"/>
-      <c r="S21" s="46"/>
-      <c r="T21" s="46"/>
-      <c r="U21" s="46"/>
-      <c r="V21" s="46"/>
-      <c r="W21" s="46"/>
-      <c r="X21" s="46"/>
-      <c r="Y21" s="46"/>
-      <c r="Z21" s="47"/>
-      <c r="AA21" s="41"/>
-      <c r="AB21" s="53"/>
-      <c r="AC21" s="53"/>
-      <c r="AD21" s="41"/>
-      <c r="AE21" s="41"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="44"/>
+      <c r="J21" s="44"/>
+      <c r="K21" s="44"/>
+      <c r="L21" s="44"/>
+      <c r="M21" s="44"/>
+      <c r="N21" s="44"/>
+      <c r="O21" s="44"/>
+      <c r="P21" s="44"/>
+      <c r="Q21" s="44"/>
+      <c r="R21" s="44"/>
+      <c r="S21" s="44"/>
+      <c r="T21" s="44"/>
+      <c r="U21" s="44"/>
+      <c r="V21" s="56"/>
+      <c r="W21" s="57"/>
+      <c r="X21" s="57"/>
+      <c r="Y21" s="58"/>
+      <c r="Z21" s="85"/>
+      <c r="AA21" s="45"/>
+      <c r="AB21" s="64"/>
+      <c r="AC21" s="64"/>
+      <c r="AD21" s="45"/>
+      <c r="AE21" s="45"/>
     </row>
     <row r="22" spans="1:31" ht="11.25" customHeight="1">
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
-      <c r="F22" s="48"/>
-      <c r="G22" s="49"/>
-      <c r="H22" s="49"/>
-      <c r="I22" s="49"/>
-      <c r="J22" s="49"/>
-      <c r="K22" s="49"/>
-      <c r="L22" s="49"/>
-      <c r="M22" s="49"/>
-      <c r="N22" s="49"/>
-      <c r="O22" s="49"/>
-      <c r="P22" s="49"/>
-      <c r="Q22" s="49"/>
-      <c r="R22" s="49"/>
-      <c r="S22" s="49"/>
-      <c r="T22" s="49"/>
-      <c r="U22" s="49"/>
-      <c r="V22" s="49"/>
-      <c r="W22" s="49"/>
-      <c r="X22" s="49"/>
-      <c r="Y22" s="49"/>
-      <c r="Z22" s="50"/>
-      <c r="AA22" s="41"/>
-      <c r="AB22" s="53"/>
-      <c r="AC22" s="53"/>
-      <c r="AD22" s="41"/>
-      <c r="AE22" s="41"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="44"/>
+      <c r="J22" s="44"/>
+      <c r="K22" s="44"/>
+      <c r="L22" s="44"/>
+      <c r="M22" s="44"/>
+      <c r="N22" s="44"/>
+      <c r="O22" s="44"/>
+      <c r="P22" s="44"/>
+      <c r="Q22" s="44"/>
+      <c r="R22" s="44"/>
+      <c r="S22" s="44"/>
+      <c r="T22" s="44"/>
+      <c r="U22" s="44"/>
+      <c r="V22" s="59"/>
+      <c r="W22" s="60"/>
+      <c r="X22" s="60"/>
+      <c r="Y22" s="61"/>
+      <c r="Z22" s="86"/>
+      <c r="AA22" s="45"/>
+      <c r="AB22" s="64"/>
+      <c r="AC22" s="64"/>
+      <c r="AD22" s="45"/>
+      <c r="AE22" s="45"/>
     </row>
     <row r="23" spans="1:31" ht="11.25" customHeight="1">
-      <c r="A23" s="28" t="s">
+      <c r="A23" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="B23" s="28" t="s">
+      <c r="B23" s="40" t="s">
+        <v>139</v>
+      </c>
+      <c r="C23" s="40" t="s">
+        <v>173</v>
+      </c>
+      <c r="D23" s="40" t="s">
+        <v>153</v>
+      </c>
+      <c r="E23" s="40" t="s">
+        <v>172</v>
+      </c>
+      <c r="F23" s="40" t="s">
+        <v>138</v>
+      </c>
+      <c r="G23" s="40" t="s">
+        <v>152</v>
+      </c>
+      <c r="H23" s="40" t="s">
+        <v>137</v>
+      </c>
+      <c r="I23" s="40" t="s">
+        <v>402</v>
+      </c>
+      <c r="J23" s="50" t="s">
+        <v>140</v>
+      </c>
+      <c r="K23" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="L23" s="40" t="s">
+        <v>143</v>
+      </c>
+      <c r="M23" s="40" t="s">
+        <v>144</v>
+      </c>
+      <c r="N23" s="40" t="s">
+        <v>421</v>
+      </c>
+      <c r="O23" s="40" t="s">
+        <v>422</v>
+      </c>
+      <c r="P23" s="40" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q23" s="40" t="s">
+        <v>145</v>
+      </c>
+      <c r="R23" s="40" t="s">
+        <v>150</v>
+      </c>
+      <c r="S23" s="40" t="s">
+        <v>146</v>
+      </c>
+      <c r="T23" s="40" t="s">
+        <v>423</v>
+      </c>
+      <c r="U23" s="40" t="s">
+        <v>151</v>
+      </c>
+      <c r="V23" s="50" t="s">
+        <v>443</v>
+      </c>
+      <c r="W23" s="40" t="s">
+        <v>437</v>
+      </c>
+      <c r="X23" s="40" t="s">
+        <v>438</v>
+      </c>
+      <c r="Y23" s="40" t="s">
+        <v>439</v>
+      </c>
+      <c r="Z23" s="50" t="s">
+        <v>442</v>
+      </c>
+      <c r="AA23" s="88" t="s">
+        <v>161</v>
+      </c>
+      <c r="AB23" s="40" t="s">
         <v>162</v>
       </c>
-      <c r="C23" s="28" t="s">
-        <v>254</v>
-      </c>
-      <c r="D23" s="28" t="s">
-        <v>181</v>
-      </c>
-      <c r="E23" s="28" t="s">
-        <v>253</v>
-      </c>
-      <c r="F23" s="28" t="s">
-        <v>160</v>
-      </c>
-      <c r="G23" s="28" t="s">
-        <v>161</v>
-      </c>
-      <c r="H23" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="I23" s="28" t="s">
+      <c r="AC23" s="40" t="s">
         <v>163</v>
       </c>
-      <c r="J23" s="28" t="s">
+      <c r="AD23" s="40" t="s">
         <v>166</v>
       </c>
-      <c r="K23" s="28" t="s">
-        <v>167</v>
-      </c>
-      <c r="L23" s="28" t="s">
-        <v>165</v>
-      </c>
-      <c r="M23" s="28" t="s">
-        <v>168</v>
-      </c>
-      <c r="N23" s="28" t="s">
-        <v>170</v>
-      </c>
-      <c r="O23" s="28" t="s">
-        <v>169</v>
-      </c>
-      <c r="P23" s="28" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q23" s="28" t="s">
-        <v>176</v>
-      </c>
-      <c r="R23" s="28" t="s">
-        <v>182</v>
-      </c>
-      <c r="S23" s="28" t="s">
+      <c r="AE23" s="40" t="s">
         <v>171</v>
       </c>
-      <c r="T23" s="28" t="s">
-        <v>177</v>
-      </c>
-      <c r="U23" s="28" t="s">
-        <v>178</v>
-      </c>
-      <c r="V23" s="28" t="s">
-        <v>231</v>
-      </c>
-      <c r="W23" s="28" t="s">
-        <v>249</v>
-      </c>
-      <c r="X23" s="28" t="s">
-        <v>173</v>
-      </c>
-      <c r="Y23" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="Z23" s="54" t="s">
-        <v>250</v>
-      </c>
-      <c r="AA23" s="57" t="s">
-        <v>218</v>
-      </c>
-      <c r="AB23" s="33" t="s">
-        <v>219</v>
-      </c>
-      <c r="AC23" s="33" t="s">
-        <v>220</v>
-      </c>
-      <c r="AD23" s="33" t="s">
-        <v>223</v>
-      </c>
-      <c r="AE23" s="33" t="s">
-        <v>252</v>
-      </c>
     </row>
     <row r="24" spans="1:31">
-      <c r="A24" s="29"/>
-      <c r="B24" s="29"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="29"/>
-      <c r="I24" s="29"/>
-      <c r="J24" s="29"/>
-      <c r="K24" s="29"/>
-      <c r="L24" s="29"/>
-      <c r="M24" s="29"/>
-      <c r="N24" s="29"/>
-      <c r="O24" s="29"/>
-      <c r="P24" s="29"/>
-      <c r="Q24" s="29"/>
-      <c r="R24" s="29"/>
-      <c r="S24" s="29"/>
-      <c r="T24" s="29"/>
-      <c r="U24" s="29"/>
-      <c r="V24" s="29"/>
-      <c r="W24" s="29"/>
-      <c r="X24" s="29"/>
-      <c r="Y24" s="29"/>
-      <c r="Z24" s="55"/>
-      <c r="AA24" s="57"/>
-      <c r="AB24" s="33"/>
-      <c r="AC24" s="33"/>
-      <c r="AD24" s="33"/>
-      <c r="AE24" s="33"/>
+      <c r="A24" s="40"/>
+      <c r="B24" s="40"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="40"/>
+      <c r="I24" s="40"/>
+      <c r="J24" s="51"/>
+      <c r="K24" s="40"/>
+      <c r="L24" s="40"/>
+      <c r="M24" s="40"/>
+      <c r="N24" s="40"/>
+      <c r="O24" s="40"/>
+      <c r="P24" s="40"/>
+      <c r="Q24" s="40"/>
+      <c r="R24" s="40"/>
+      <c r="S24" s="40"/>
+      <c r="T24" s="40"/>
+      <c r="U24" s="40"/>
+      <c r="V24" s="51"/>
+      <c r="W24" s="40"/>
+      <c r="X24" s="40"/>
+      <c r="Y24" s="40"/>
+      <c r="Z24" s="51"/>
+      <c r="AA24" s="89"/>
+      <c r="AB24" s="40"/>
+      <c r="AC24" s="40"/>
+      <c r="AD24" s="40"/>
+      <c r="AE24" s="40"/>
     </row>
     <row r="25" spans="1:31">
-      <c r="A25" s="29"/>
-      <c r="B25" s="29"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="29"/>
-      <c r="J25" s="29"/>
-      <c r="K25" s="29"/>
-      <c r="L25" s="29"/>
-      <c r="M25" s="29"/>
-      <c r="N25" s="29"/>
-      <c r="O25" s="29"/>
-      <c r="P25" s="29"/>
-      <c r="Q25" s="29"/>
-      <c r="R25" s="29"/>
-      <c r="S25" s="29"/>
-      <c r="T25" s="29"/>
-      <c r="U25" s="29"/>
-      <c r="V25" s="29"/>
-      <c r="W25" s="29"/>
-      <c r="X25" s="29"/>
-      <c r="Y25" s="29"/>
-      <c r="Z25" s="55"/>
-      <c r="AA25" s="57"/>
-      <c r="AB25" s="33"/>
-      <c r="AC25" s="33"/>
-      <c r="AD25" s="33"/>
-      <c r="AE25" s="33"/>
+      <c r="A25" s="40"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="40"/>
+      <c r="I25" s="40"/>
+      <c r="J25" s="51"/>
+      <c r="K25" s="40"/>
+      <c r="L25" s="40"/>
+      <c r="M25" s="40"/>
+      <c r="N25" s="40"/>
+      <c r="O25" s="40"/>
+      <c r="P25" s="40"/>
+      <c r="Q25" s="40"/>
+      <c r="R25" s="40"/>
+      <c r="S25" s="40"/>
+      <c r="T25" s="40"/>
+      <c r="U25" s="40"/>
+      <c r="V25" s="51"/>
+      <c r="W25" s="40"/>
+      <c r="X25" s="40"/>
+      <c r="Y25" s="40"/>
+      <c r="Z25" s="51"/>
+      <c r="AA25" s="89"/>
+      <c r="AB25" s="40"/>
+      <c r="AC25" s="40"/>
+      <c r="AD25" s="40"/>
+      <c r="AE25" s="40"/>
     </row>
     <row r="26" spans="1:31">
-      <c r="A26" s="30"/>
-      <c r="B26" s="30"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="30"/>
-      <c r="H26" s="30"/>
-      <c r="I26" s="30"/>
-      <c r="J26" s="30"/>
-      <c r="K26" s="30"/>
-      <c r="L26" s="30"/>
-      <c r="M26" s="30"/>
-      <c r="N26" s="30"/>
-      <c r="O26" s="30"/>
-      <c r="P26" s="30"/>
-      <c r="Q26" s="30"/>
-      <c r="R26" s="30"/>
-      <c r="S26" s="30"/>
-      <c r="T26" s="30"/>
-      <c r="U26" s="30"/>
-      <c r="V26" s="30"/>
-      <c r="W26" s="30"/>
-      <c r="X26" s="30"/>
-      <c r="Y26" s="30"/>
-      <c r="Z26" s="56"/>
-      <c r="AA26" s="57"/>
-      <c r="AB26" s="33"/>
-      <c r="AC26" s="33"/>
-      <c r="AD26" s="33"/>
-      <c r="AE26" s="33"/>
+      <c r="A26" s="40"/>
+      <c r="B26" s="40"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="40"/>
+      <c r="I26" s="40"/>
+      <c r="J26" s="51"/>
+      <c r="K26" s="40"/>
+      <c r="L26" s="40"/>
+      <c r="M26" s="40"/>
+      <c r="N26" s="40"/>
+      <c r="O26" s="40"/>
+      <c r="P26" s="40"/>
+      <c r="Q26" s="40"/>
+      <c r="R26" s="40"/>
+      <c r="S26" s="40"/>
+      <c r="T26" s="40"/>
+      <c r="U26" s="40"/>
+      <c r="V26" s="51"/>
+      <c r="W26" s="40"/>
+      <c r="X26" s="40"/>
+      <c r="Y26" s="40"/>
+      <c r="Z26" s="51"/>
+      <c r="AA26" s="89"/>
+      <c r="AB26" s="40"/>
+      <c r="AC26" s="40"/>
+      <c r="AD26" s="40"/>
+      <c r="AE26" s="40"/>
     </row>
     <row r="27" spans="1:31">
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="O27" s="2"/>
-      <c r="P27" s="1"/>
-      <c r="Q27" s="1"/>
-      <c r="R27" s="1"/>
-      <c r="S27" s="2"/>
-      <c r="V27" s="2"/>
-      <c r="AA27" s="57"/>
-      <c r="AB27" s="33"/>
-      <c r="AC27" s="33"/>
-      <c r="AD27" s="33"/>
+      <c r="A27" s="40"/>
+      <c r="B27" s="40"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="40"/>
+      <c r="I27" s="40"/>
+      <c r="J27" s="51"/>
+      <c r="K27" s="40"/>
+      <c r="L27" s="40"/>
+      <c r="M27" s="40"/>
+      <c r="N27" s="40"/>
+      <c r="O27" s="40"/>
+      <c r="P27" s="40"/>
+      <c r="Q27" s="40"/>
+      <c r="R27" s="40"/>
+      <c r="S27" s="40"/>
+      <c r="T27" s="40"/>
+      <c r="U27" s="40"/>
+      <c r="V27" s="51"/>
+      <c r="W27" s="40"/>
+      <c r="X27" s="40"/>
+      <c r="Y27" s="40"/>
+      <c r="Z27" s="51"/>
+      <c r="AA27" s="89"/>
+      <c r="AB27" s="40"/>
+      <c r="AC27" s="40"/>
+      <c r="AD27" s="40"/>
     </row>
     <row r="28" spans="1:31">
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="17" t="s">
-        <v>158</v>
-      </c>
-      <c r="O28" s="2"/>
-      <c r="P28" s="1"/>
-      <c r="Q28" s="1"/>
-      <c r="R28" s="1"/>
-      <c r="S28" s="2"/>
-      <c r="V28" s="2"/>
-      <c r="X28" s="17" t="s">
-        <v>158</v>
-      </c>
-      <c r="AA28" s="57"/>
-      <c r="AB28" s="33"/>
-      <c r="AC28" s="33"/>
-      <c r="AD28" s="52"/>
+      <c r="A28" s="40"/>
+      <c r="B28" s="40"/>
+      <c r="C28" s="40"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="40"/>
+      <c r="H28" s="40"/>
+      <c r="I28" s="40"/>
+      <c r="J28" s="52"/>
+      <c r="K28" s="40"/>
+      <c r="L28" s="40"/>
+      <c r="M28" s="40"/>
+      <c r="N28" s="40"/>
+      <c r="O28" s="40"/>
+      <c r="P28" s="40"/>
+      <c r="Q28" s="40"/>
+      <c r="R28" s="40"/>
+      <c r="S28" s="40"/>
+      <c r="T28" s="40"/>
+      <c r="U28" s="40"/>
+      <c r="V28" s="52"/>
+      <c r="W28" s="40"/>
+      <c r="X28" s="40"/>
+      <c r="Y28" s="40"/>
+      <c r="Z28" s="52"/>
+      <c r="AA28" s="89"/>
+      <c r="AB28" s="40"/>
+      <c r="AC28" s="40"/>
+      <c r="AD28" s="63"/>
       <c r="AE28" s="17" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="29" spans="1:31" ht="123.75">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="29" spans="1:31">
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="18" t="s">
-        <v>164</v>
-      </c>
-      <c r="O29" s="2"/>
+      <c r="G29" s="1"/>
       <c r="P29" s="1"/>
-      <c r="Q29" s="1"/>
+      <c r="Q29" s="2"/>
       <c r="R29" s="1"/>
       <c r="S29" s="2"/>
-      <c r="V29" s="2"/>
+      <c r="V29" s="21"/>
       <c r="W29" s="2"/>
-      <c r="X29" s="20" t="s">
-        <v>174</v>
-      </c>
-      <c r="Z29" s="21"/>
-      <c r="AA29" s="57"/>
+      <c r="X29" s="2"/>
+      <c r="AA29" s="89"/>
       <c r="AB29" s="22"/>
       <c r="AC29" s="2"/>
       <c r="AD29" s="2"/>
-      <c r="AE29" s="20" t="s">
-        <v>159</v>
+      <c r="AE29" s="20"/>
+    </row>
+    <row r="30" spans="1:31">
+      <c r="J30" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="Z30" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA30" s="89"/>
+      <c r="AE30" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="31" spans="1:31">
+      <c r="J31" s="82" t="s">
+        <v>410</v>
+      </c>
+      <c r="Z31" s="82" t="s">
+        <v>307</v>
+      </c>
+      <c r="AA31" s="89"/>
+      <c r="AE31" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="32" spans="1:31">
+      <c r="J32" s="82" t="s">
+        <v>411</v>
+      </c>
+      <c r="Z32" s="82" t="s">
+        <v>403</v>
+      </c>
+      <c r="AA32" s="89"/>
+      <c r="AE32" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="33" spans="10:31">
+      <c r="J33" s="82" t="s">
+        <v>412</v>
+      </c>
+      <c r="Z33" s="82" t="s">
+        <v>404</v>
+      </c>
+      <c r="AA33" s="89"/>
+      <c r="AE33" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="34" spans="10:31">
+      <c r="J34" s="82" t="s">
+        <v>413</v>
+      </c>
+      <c r="Z34" s="82" t="s">
+        <v>405</v>
+      </c>
+      <c r="AA34" s="89"/>
+      <c r="AE34" s="1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="35" spans="10:31">
+      <c r="J35" s="82" t="s">
+        <v>414</v>
+      </c>
+      <c r="Z35" s="82" t="s">
+        <v>406</v>
+      </c>
+      <c r="AA35" s="89"/>
+      <c r="AE35" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="36" spans="10:31">
+      <c r="J36" s="82" t="s">
+        <v>415</v>
+      </c>
+      <c r="Z36" s="82" t="s">
+        <v>407</v>
+      </c>
+      <c r="AA36" s="89"/>
+      <c r="AE36" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="37" spans="10:31">
+      <c r="J37" s="82" t="s">
+        <v>416</v>
+      </c>
+      <c r="Z37" s="82" t="s">
+        <v>313</v>
+      </c>
+      <c r="AA37" s="89"/>
+      <c r="AE37" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="38" spans="10:31">
+      <c r="J38" s="82" t="s">
+        <v>417</v>
+      </c>
+      <c r="Z38" s="82" t="s">
+        <v>408</v>
+      </c>
+      <c r="AA38" s="89"/>
+      <c r="AE38" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="39" spans="10:31">
+      <c r="J39" s="82" t="s">
+        <v>418</v>
+      </c>
+      <c r="Z39" s="83" t="s">
+        <v>409</v>
+      </c>
+      <c r="AA39" s="89"/>
+    </row>
+    <row r="40" spans="10:31">
+      <c r="J40" s="82" t="s">
+        <v>419</v>
+      </c>
+      <c r="AA40" s="89"/>
+    </row>
+    <row r="41" spans="10:31">
+      <c r="J41" s="83" t="s">
+        <v>420</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="39">
+  <mergeCells count="38">
+    <mergeCell ref="AA23:AA40"/>
+    <mergeCell ref="X23:X28"/>
+    <mergeCell ref="F20:U22"/>
+    <mergeCell ref="Z23:Z28"/>
+    <mergeCell ref="Y23:Y28"/>
+    <mergeCell ref="Z20:Z22"/>
+    <mergeCell ref="V23:V28"/>
+    <mergeCell ref="V20:Y22"/>
+    <mergeCell ref="R23:R28"/>
+    <mergeCell ref="S23:S28"/>
+    <mergeCell ref="T23:T28"/>
+    <mergeCell ref="U23:U28"/>
+    <mergeCell ref="W23:W28"/>
+    <mergeCell ref="A23:A28"/>
+    <mergeCell ref="B23:B28"/>
+    <mergeCell ref="C23:C28"/>
+    <mergeCell ref="D23:D28"/>
+    <mergeCell ref="E23:E28"/>
+    <mergeCell ref="F23:F28"/>
+    <mergeCell ref="G23:G28"/>
+    <mergeCell ref="H23:H28"/>
     <mergeCell ref="AD23:AD28"/>
     <mergeCell ref="AB20:AC22"/>
     <mergeCell ref="AD20:AD22"/>
-    <mergeCell ref="W23:W26"/>
-    <mergeCell ref="I23:I26"/>
-    <mergeCell ref="L23:L26"/>
-    <mergeCell ref="J23:J26"/>
-    <mergeCell ref="K23:K26"/>
-    <mergeCell ref="M23:M26"/>
-    <mergeCell ref="Y23:Y26"/>
-    <mergeCell ref="Z23:Z26"/>
     <mergeCell ref="AA20:AA22"/>
-    <mergeCell ref="AA23:AA29"/>
     <mergeCell ref="AB23:AB28"/>
     <mergeCell ref="AC23:AC28"/>
+    <mergeCell ref="I23:I28"/>
     <mergeCell ref="AE20:AE22"/>
     <mergeCell ref="AE23:AE26"/>
-    <mergeCell ref="F20:Z22"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="F23:F26"/>
-    <mergeCell ref="G23:G26"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="C23:C26"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="X23:X26"/>
-    <mergeCell ref="P23:P26"/>
-    <mergeCell ref="Q23:Q26"/>
-    <mergeCell ref="T23:T26"/>
-    <mergeCell ref="U23:U26"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="D23:D26"/>
-    <mergeCell ref="R23:R26"/>
-    <mergeCell ref="O23:O26"/>
-    <mergeCell ref="V23:V26"/>
-    <mergeCell ref="N23:N26"/>
-    <mergeCell ref="S23:S26"/>
-    <mergeCell ref="E23:E26"/>
-    <mergeCell ref="H23:H26"/>
+    <mergeCell ref="J23:J28"/>
+    <mergeCell ref="K23:K28"/>
+    <mergeCell ref="L23:L28"/>
+    <mergeCell ref="M23:M28"/>
+    <mergeCell ref="P23:P28"/>
+    <mergeCell ref="Q23:Q28"/>
+    <mergeCell ref="N23:N28"/>
+    <mergeCell ref="O23:O28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -5819,7 +6260,7 @@
   </sheetPr>
   <dimension ref="A2:AB66"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="V4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E21" sqref="E21:X23"/>
     </sheetView>
   </sheetViews>
@@ -5858,32 +6299,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:28" ht="21">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="31"/>
+      <c r="B2" s="41"/>
       <c r="C2" s="3" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:28" ht="21">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="31"/>
+      <c r="B3" s="41"/>
       <c r="C3" s="3" t="s">
-        <v>294</v>
+        <v>213</v>
       </c>
     </row>
     <row r="4" spans="1:28" ht="21">
-      <c r="A4" s="51" t="s">
-        <v>172</v>
-      </c>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
+      <c r="A4" s="62" t="s">
+        <v>147</v>
+      </c>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
       <c r="G4" s="1"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="19"/>
@@ -5894,73 +6335,73 @@
         <v>10</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="F7" s="14" t="s">
         <v>8</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J7" s="14" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="K7" s="14" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="L7" s="14" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="M7" s="14" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="N7" s="14" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="O7" s="14" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="P7" s="14" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="Q7" s="14" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="R7" s="14" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="S7" s="14" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="T7" s="14" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="U7" s="14" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="V7" s="14" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="W7" s="14" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="X7" s="14" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="Y7" s="14" t="s">
         <v>17</v>
@@ -5969,10 +6410,10 @@
         <v>18</v>
       </c>
       <c r="AA7" s="14" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="AB7" s="14" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:28" s="13" customFormat="1">
@@ -5983,40 +6424,40 @@
         <v>1</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E8" s="23" t="s">
         <v>9</v>
       </c>
       <c r="F8" s="23" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="I8" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="K8" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="J8" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="K8" s="12" t="s">
-        <v>114</v>
-      </c>
       <c r="L8" s="23" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="M8" s="23" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="N8" s="23" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="O8" s="23" t="s">
         <v>0</v>
@@ -6025,16 +6466,16 @@
         <v>0</v>
       </c>
       <c r="Q8" s="12" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="R8" s="23" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="S8" s="23" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="T8" s="23" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="U8" s="23" t="s">
         <v>9</v>
@@ -6069,25 +6510,25 @@
         <v>1</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E9" s="23" t="s">
         <v>9</v>
       </c>
       <c r="F9" s="23" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="J9" s="12" t="s">
         <v>1</v>
@@ -6096,7 +6537,7 @@
         <v>1</v>
       </c>
       <c r="L9" s="23" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="M9" s="23" t="s">
         <v>20</v>
@@ -6114,25 +6555,25 @@
         <v>0</v>
       </c>
       <c r="R9" s="23" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="S9" s="23" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="T9" s="23" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="U9" s="23" t="s">
         <v>2</v>
       </c>
       <c r="V9" s="23" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="W9" s="23" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="X9" s="23" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="Y9" s="23" t="s">
         <v>9</v>
@@ -6155,25 +6596,25 @@
         <v>1</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E10" s="23" t="s">
         <v>9</v>
       </c>
       <c r="F10" s="23" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="J10" s="12" t="s">
         <v>3</v>
@@ -6185,7 +6626,7 @@
         <v>28</v>
       </c>
       <c r="M10" s="23" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="N10" s="23" t="s">
         <v>3</v>
@@ -6200,25 +6641,25 @@
         <v>0</v>
       </c>
       <c r="R10" s="23" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="S10" s="23" t="s">
         <v>28</v>
       </c>
       <c r="T10" s="23" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="U10" s="23" t="s">
         <v>2</v>
       </c>
       <c r="V10" s="23" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="W10" s="23" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="X10" s="23" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="Y10" s="23" t="s">
         <v>9</v>
@@ -6230,7 +6671,7 @@
         <v>9</v>
       </c>
       <c r="AB10" s="23" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:28" s="13" customFormat="1">
@@ -6241,25 +6682,25 @@
         <v>1</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E11" s="23" t="s">
         <v>9</v>
       </c>
       <c r="F11" s="23" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="I11" s="12" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="J11" s="12" t="s">
         <v>3</v>
@@ -6271,7 +6712,7 @@
         <v>28</v>
       </c>
       <c r="M11" s="23" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="N11" s="23" t="s">
         <v>3</v>
@@ -6286,25 +6727,25 @@
         <v>0</v>
       </c>
       <c r="R11" s="23" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="S11" s="23" t="s">
         <v>28</v>
       </c>
       <c r="T11" s="23" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="U11" s="23" t="s">
         <v>2</v>
       </c>
       <c r="V11" s="23" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="W11" s="23" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="X11" s="23" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="Y11" s="23" t="s">
         <v>9</v>
@@ -6316,7 +6757,7 @@
         <v>9</v>
       </c>
       <c r="AB11" s="23" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:28" s="13" customFormat="1">
@@ -6327,25 +6768,25 @@
         <v>1</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E12" s="23" t="s">
         <v>9</v>
       </c>
       <c r="F12" s="23" t="s">
-        <v>257</v>
+        <v>176</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="I12" s="12" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="J12" s="12" t="s">
         <v>3</v>
@@ -6357,7 +6798,7 @@
         <v>28</v>
       </c>
       <c r="M12" s="23" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="N12" s="23" t="s">
         <v>1</v>
@@ -6372,25 +6813,25 @@
         <v>0</v>
       </c>
       <c r="R12" s="23" t="s">
-        <v>256</v>
+        <v>175</v>
       </c>
       <c r="S12" s="23" t="s">
         <v>28</v>
       </c>
       <c r="T12" s="23" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="U12" s="23" t="s">
         <v>2</v>
       </c>
       <c r="V12" s="23" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="W12" s="23" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="X12" s="23" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="Y12" s="23" t="s">
         <v>9</v>
@@ -6402,7 +6843,7 @@
         <v>9</v>
       </c>
       <c r="AB12" s="23" t="s">
-        <v>258</v>
+        <v>177</v>
       </c>
     </row>
     <row r="13" spans="1:28" s="13" customFormat="1">
@@ -6413,25 +6854,25 @@
         <v>1</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E13" s="23" t="s">
         <v>9</v>
       </c>
       <c r="F13" s="23" t="s">
-        <v>260</v>
+        <v>179</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="I13" s="12" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="J13" s="12" t="s">
         <v>3</v>
@@ -6443,7 +6884,7 @@
         <v>28</v>
       </c>
       <c r="M13" s="23" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="N13" s="23" t="s">
         <v>1</v>
@@ -6458,25 +6899,25 @@
         <v>0</v>
       </c>
       <c r="R13" s="23" t="s">
-        <v>259</v>
+        <v>178</v>
       </c>
       <c r="S13" s="23" t="s">
         <v>28</v>
       </c>
       <c r="T13" s="23" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="U13" s="23" t="s">
         <v>2</v>
       </c>
       <c r="V13" s="23" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="W13" s="23" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="X13" s="23" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="Y13" s="23" t="s">
         <v>9</v>
@@ -6488,7 +6929,7 @@
         <v>9</v>
       </c>
       <c r="AB13" s="23" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:28" s="13" customFormat="1">
@@ -6499,25 +6940,25 @@
         <v>1</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E14" s="23" t="s">
         <v>9</v>
       </c>
       <c r="F14" s="23" t="s">
-        <v>260</v>
+        <v>179</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="H14" s="12" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="I14" s="12" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="J14" s="12" t="s">
         <v>3</v>
@@ -6529,7 +6970,7 @@
         <v>28</v>
       </c>
       <c r="M14" s="23" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="N14" s="23" t="s">
         <v>1</v>
@@ -6544,25 +6985,25 @@
         <v>0</v>
       </c>
       <c r="R14" s="23" t="s">
-        <v>259</v>
+        <v>178</v>
       </c>
       <c r="S14" s="23" t="s">
         <v>28</v>
       </c>
       <c r="T14" s="23" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="U14" s="23" t="s">
         <v>2</v>
       </c>
       <c r="V14" s="23" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="W14" s="23" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="X14" s="23" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="Y14" s="23" t="s">
         <v>9</v>
@@ -6574,7 +7015,7 @@
         <v>9</v>
       </c>
       <c r="AB14" s="23" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:28" s="13" customFormat="1">
@@ -6585,25 +7026,25 @@
         <v>1</v>
       </c>
       <c r="C15" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E15" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="I15" s="12" t="s">
         <v>71</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="E15" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15" s="23" t="s">
-        <v>262</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>261</v>
-      </c>
-      <c r="H15" s="12" t="s">
-        <v>233</v>
-      </c>
-      <c r="I15" s="12" t="s">
-        <v>82</v>
       </c>
       <c r="J15" s="12" t="s">
         <v>1</v>
@@ -6615,7 +7056,7 @@
         <v>28</v>
       </c>
       <c r="M15" s="23" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="N15" s="23" t="s">
         <v>3</v>
@@ -6630,37 +7071,37 @@
         <v>0</v>
       </c>
       <c r="R15" s="23" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="S15" s="23" t="s">
         <v>28</v>
       </c>
       <c r="T15" s="23" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="U15" s="23" t="s">
         <v>1</v>
       </c>
       <c r="V15" s="23" t="s">
-        <v>264</v>
+        <v>183</v>
       </c>
       <c r="W15" s="23" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="X15" s="23" t="s">
-        <v>264</v>
+        <v>183</v>
       </c>
       <c r="Y15" s="23" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="Z15" s="23" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="AA15" s="23" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="AB15" s="23" t="s">
-        <v>263</v>
+        <v>182</v>
       </c>
     </row>
     <row r="16" spans="1:28" s="13" customFormat="1">
@@ -6671,25 +7112,25 @@
         <v>1</v>
       </c>
       <c r="C16" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E16" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="23" t="s">
+        <v>184</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="I16" s="12" t="s">
         <v>71</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="E16" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="F16" s="23" t="s">
-        <v>265</v>
-      </c>
-      <c r="G16" s="12" t="s">
-        <v>261</v>
-      </c>
-      <c r="H16" s="12" t="s">
-        <v>233</v>
-      </c>
-      <c r="I16" s="12" t="s">
-        <v>82</v>
       </c>
       <c r="J16" s="12" t="s">
         <v>1</v>
@@ -6701,13 +7142,13 @@
         <v>28</v>
       </c>
       <c r="M16" s="23" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="N16" s="23" t="s">
         <v>1</v>
       </c>
       <c r="O16" s="23" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="P16" s="12" t="s">
         <v>1</v>
@@ -6716,37 +7157,37 @@
         <v>0</v>
       </c>
       <c r="R16" s="23" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="S16" s="23" t="s">
         <v>28</v>
       </c>
       <c r="T16" s="23" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="U16" s="23" t="s">
         <v>1</v>
       </c>
       <c r="V16" s="23" t="s">
-        <v>264</v>
+        <v>183</v>
       </c>
       <c r="W16" s="23" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="X16" s="23" t="s">
-        <v>264</v>
+        <v>183</v>
       </c>
       <c r="Y16" s="23" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="Z16" s="23" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="AA16" s="23" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="AB16" s="23" t="s">
-        <v>263</v>
+        <v>182</v>
       </c>
     </row>
     <row r="17" spans="1:28" s="13" customFormat="1">
@@ -6757,25 +7198,25 @@
         <v>1</v>
       </c>
       <c r="C17" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E17" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="I17" s="12" t="s">
         <v>71</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="E17" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="F17" s="23" t="s">
-        <v>268</v>
-      </c>
-      <c r="G17" s="12" t="s">
-        <v>261</v>
-      </c>
-      <c r="H17" s="12" t="s">
-        <v>233</v>
-      </c>
-      <c r="I17" s="12" t="s">
-        <v>82</v>
       </c>
       <c r="J17" s="12" t="s">
         <v>1</v>
@@ -6787,13 +7228,13 @@
         <v>27</v>
       </c>
       <c r="M17" s="23" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="N17" s="23" t="s">
         <v>0</v>
       </c>
       <c r="O17" s="23" t="s">
-        <v>266</v>
+        <v>185</v>
       </c>
       <c r="P17" s="12" t="s">
         <v>4</v>
@@ -6802,25 +7243,25 @@
         <v>2</v>
       </c>
       <c r="R17" s="23" t="s">
-        <v>267</v>
+        <v>186</v>
       </c>
       <c r="S17" s="23" t="s">
         <v>27</v>
       </c>
       <c r="T17" s="23" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="U17" s="23" t="s">
         <v>3</v>
       </c>
       <c r="V17" s="23" t="s">
-        <v>264</v>
+        <v>183</v>
       </c>
       <c r="W17" s="23" t="s">
-        <v>269</v>
+        <v>188</v>
       </c>
       <c r="X17" s="23" t="s">
-        <v>264</v>
+        <v>183</v>
       </c>
       <c r="Y17" s="23" t="s">
         <v>9</v>
@@ -6832,7 +7273,7 @@
         <v>9</v>
       </c>
       <c r="AB17" s="23" t="s">
-        <v>263</v>
+        <v>182</v>
       </c>
     </row>
     <row r="18" spans="1:28" s="12" customFormat="1">
@@ -6843,25 +7284,25 @@
         <v>1</v>
       </c>
       <c r="C18" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="I18" s="12" t="s">
         <v>71</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F18" s="12" t="s">
-        <v>268</v>
-      </c>
-      <c r="G18" s="12" t="s">
-        <v>261</v>
-      </c>
-      <c r="H18" s="12" t="s">
-        <v>233</v>
-      </c>
-      <c r="I18" s="12" t="s">
-        <v>82</v>
       </c>
       <c r="J18" s="12" t="s">
         <v>1</v>
@@ -6873,13 +7314,13 @@
         <v>27</v>
       </c>
       <c r="M18" s="12" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="N18" s="12" t="s">
         <v>0</v>
       </c>
       <c r="O18" s="12" t="s">
-        <v>266</v>
+        <v>185</v>
       </c>
       <c r="P18" s="12" t="s">
         <v>5</v>
@@ -6888,25 +7329,25 @@
         <v>3</v>
       </c>
       <c r="R18" s="12" t="s">
-        <v>267</v>
+        <v>186</v>
       </c>
       <c r="S18" s="12" t="s">
         <v>27</v>
       </c>
       <c r="T18" s="12" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="U18" s="12" t="s">
         <v>3</v>
       </c>
       <c r="V18" s="12" t="s">
-        <v>264</v>
+        <v>183</v>
       </c>
       <c r="W18" s="12" t="s">
-        <v>270</v>
+        <v>189</v>
       </c>
       <c r="X18" s="12" t="s">
-        <v>264</v>
+        <v>183</v>
       </c>
       <c r="Y18" s="12" t="s">
         <v>9</v>
@@ -6918,7 +7359,7 @@
         <v>9</v>
       </c>
       <c r="AB18" s="12" t="s">
-        <v>263</v>
+        <v>182</v>
       </c>
     </row>
     <row r="19" spans="1:28" s="2" customFormat="1"/>
@@ -6935,268 +7376,268 @@
       <c r="X20" s="2"/>
     </row>
     <row r="21" spans="1:28" ht="11.25" customHeight="1">
-      <c r="E21" s="42" t="s">
-        <v>183</v>
-      </c>
-      <c r="F21" s="43"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="43"/>
-      <c r="I21" s="43"/>
-      <c r="J21" s="43"/>
-      <c r="K21" s="43"/>
-      <c r="L21" s="43"/>
-      <c r="M21" s="43"/>
-      <c r="N21" s="43"/>
-      <c r="O21" s="43"/>
-      <c r="P21" s="43"/>
-      <c r="Q21" s="43"/>
-      <c r="R21" s="43"/>
-      <c r="S21" s="43"/>
-      <c r="T21" s="43"/>
-      <c r="U21" s="43"/>
-      <c r="V21" s="43"/>
-      <c r="W21" s="43"/>
-      <c r="X21" s="44"/>
-      <c r="Y21" s="41" t="s">
-        <v>221</v>
-      </c>
-      <c r="Z21" s="41"/>
-      <c r="AA21" s="41" t="s">
-        <v>222</v>
-      </c>
-      <c r="AB21" s="41" t="s">
-        <v>289</v>
+      <c r="E21" s="53" t="s">
+        <v>154</v>
+      </c>
+      <c r="F21" s="54"/>
+      <c r="G21" s="54"/>
+      <c r="H21" s="54"/>
+      <c r="I21" s="54"/>
+      <c r="J21" s="54"/>
+      <c r="K21" s="54"/>
+      <c r="L21" s="54"/>
+      <c r="M21" s="54"/>
+      <c r="N21" s="54"/>
+      <c r="O21" s="54"/>
+      <c r="P21" s="54"/>
+      <c r="Q21" s="54"/>
+      <c r="R21" s="54"/>
+      <c r="S21" s="54"/>
+      <c r="T21" s="54"/>
+      <c r="U21" s="54"/>
+      <c r="V21" s="54"/>
+      <c r="W21" s="54"/>
+      <c r="X21" s="55"/>
+      <c r="Y21" s="45" t="s">
+        <v>164</v>
+      </c>
+      <c r="Z21" s="45"/>
+      <c r="AA21" s="45" t="s">
+        <v>165</v>
+      </c>
+      <c r="AB21" s="45" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="22" spans="1:28">
-      <c r="E22" s="45"/>
-      <c r="F22" s="46"/>
-      <c r="G22" s="46"/>
-      <c r="H22" s="46"/>
-      <c r="I22" s="46"/>
-      <c r="J22" s="46"/>
-      <c r="K22" s="46"/>
-      <c r="L22" s="46"/>
-      <c r="M22" s="46"/>
-      <c r="N22" s="46"/>
-      <c r="O22" s="46"/>
-      <c r="P22" s="46"/>
-      <c r="Q22" s="46"/>
-      <c r="R22" s="46"/>
-      <c r="S22" s="46"/>
-      <c r="T22" s="46"/>
-      <c r="U22" s="46"/>
-      <c r="V22" s="46"/>
-      <c r="W22" s="46"/>
-      <c r="X22" s="47"/>
-      <c r="Y22" s="41"/>
-      <c r="Z22" s="41"/>
-      <c r="AA22" s="41"/>
-      <c r="AB22" s="41" t="s">
-        <v>288</v>
+      <c r="E22" s="56"/>
+      <c r="F22" s="57"/>
+      <c r="G22" s="57"/>
+      <c r="H22" s="57"/>
+      <c r="I22" s="57"/>
+      <c r="J22" s="57"/>
+      <c r="K22" s="57"/>
+      <c r="L22" s="57"/>
+      <c r="M22" s="57"/>
+      <c r="N22" s="57"/>
+      <c r="O22" s="57"/>
+      <c r="P22" s="57"/>
+      <c r="Q22" s="57"/>
+      <c r="R22" s="57"/>
+      <c r="S22" s="57"/>
+      <c r="T22" s="57"/>
+      <c r="U22" s="57"/>
+      <c r="V22" s="57"/>
+      <c r="W22" s="57"/>
+      <c r="X22" s="58"/>
+      <c r="Y22" s="45"/>
+      <c r="Z22" s="45"/>
+      <c r="AA22" s="45"/>
+      <c r="AB22" s="45" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="23" spans="1:28">
-      <c r="E23" s="48"/>
-      <c r="F23" s="49"/>
-      <c r="G23" s="49"/>
-      <c r="H23" s="49"/>
-      <c r="I23" s="49"/>
-      <c r="J23" s="49"/>
-      <c r="K23" s="49"/>
-      <c r="L23" s="49"/>
-      <c r="M23" s="49"/>
-      <c r="N23" s="49"/>
-      <c r="O23" s="49"/>
-      <c r="P23" s="49"/>
-      <c r="Q23" s="49"/>
-      <c r="R23" s="49"/>
-      <c r="S23" s="49"/>
-      <c r="T23" s="49"/>
-      <c r="U23" s="49"/>
-      <c r="V23" s="49"/>
-      <c r="W23" s="49"/>
-      <c r="X23" s="50"/>
-      <c r="Y23" s="41"/>
-      <c r="Z23" s="41"/>
-      <c r="AA23" s="41"/>
-      <c r="AB23" s="41"/>
+      <c r="E23" s="59"/>
+      <c r="F23" s="60"/>
+      <c r="G23" s="60"/>
+      <c r="H23" s="60"/>
+      <c r="I23" s="60"/>
+      <c r="J23" s="60"/>
+      <c r="K23" s="60"/>
+      <c r="L23" s="60"/>
+      <c r="M23" s="60"/>
+      <c r="N23" s="60"/>
+      <c r="O23" s="60"/>
+      <c r="P23" s="60"/>
+      <c r="Q23" s="60"/>
+      <c r="R23" s="60"/>
+      <c r="S23" s="60"/>
+      <c r="T23" s="60"/>
+      <c r="U23" s="60"/>
+      <c r="V23" s="60"/>
+      <c r="W23" s="60"/>
+      <c r="X23" s="61"/>
+      <c r="Y23" s="45"/>
+      <c r="Z23" s="45"/>
+      <c r="AA23" s="45"/>
+      <c r="AB23" s="45"/>
     </row>
     <row r="24" spans="1:28" ht="11.25" customHeight="1">
-      <c r="A24" s="28" t="s">
+      <c r="A24" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="B24" s="28" t="s">
-        <v>254</v>
-      </c>
-      <c r="C24" s="28" t="s">
-        <v>162</v>
-      </c>
-      <c r="D24" s="28" t="s">
-        <v>162</v>
-      </c>
-      <c r="E24" s="28" t="s">
-        <v>253</v>
-      </c>
-      <c r="F24" s="28" t="s">
-        <v>181</v>
-      </c>
-      <c r="G24" s="28" t="s">
-        <v>160</v>
-      </c>
-      <c r="H24" s="28" t="s">
-        <v>161</v>
-      </c>
-      <c r="I24" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="J24" s="28" t="s">
-        <v>163</v>
-      </c>
-      <c r="K24" s="28" t="s">
-        <v>273</v>
-      </c>
-      <c r="L24" s="28" t="s">
-        <v>274</v>
-      </c>
-      <c r="M24" s="33" t="s">
-        <v>285</v>
-      </c>
-      <c r="N24" s="70" t="s">
-        <v>279</v>
-      </c>
-      <c r="O24" s="61" t="s">
-        <v>286</v>
-      </c>
-      <c r="P24" s="28" t="s">
-        <v>287</v>
-      </c>
-      <c r="Q24" s="28" t="s">
-        <v>271</v>
-      </c>
-      <c r="R24" s="28" t="s">
-        <v>275</v>
-      </c>
-      <c r="S24" s="28" t="s">
-        <v>291</v>
-      </c>
-      <c r="T24" s="28" t="s">
-        <v>276</v>
-      </c>
-      <c r="U24" s="28" t="s">
-        <v>277</v>
-      </c>
-      <c r="V24" s="28" t="s">
-        <v>280</v>
-      </c>
-      <c r="W24" s="28" t="s">
-        <v>281</v>
-      </c>
-      <c r="X24" s="28" t="s">
-        <v>282</v>
-      </c>
-      <c r="Y24" s="64" t="s">
-        <v>283</v>
-      </c>
-      <c r="Z24" s="67" t="s">
-        <v>284</v>
-      </c>
-      <c r="AA24" s="33" t="s">
-        <v>223</v>
-      </c>
-      <c r="AB24" s="58" t="s">
-        <v>290</v>
+      <c r="B24" s="50" t="s">
+        <v>173</v>
+      </c>
+      <c r="C24" s="50" t="s">
+        <v>139</v>
+      </c>
+      <c r="D24" s="50" t="s">
+        <v>139</v>
+      </c>
+      <c r="E24" s="50" t="s">
+        <v>172</v>
+      </c>
+      <c r="F24" s="50" t="s">
+        <v>153</v>
+      </c>
+      <c r="G24" s="50" t="s">
+        <v>137</v>
+      </c>
+      <c r="H24" s="50" t="s">
+        <v>138</v>
+      </c>
+      <c r="I24" s="50" t="s">
+        <v>152</v>
+      </c>
+      <c r="J24" s="50" t="s">
+        <v>140</v>
+      </c>
+      <c r="K24" s="50" t="s">
+        <v>192</v>
+      </c>
+      <c r="L24" s="50" t="s">
+        <v>193</v>
+      </c>
+      <c r="M24" s="40" t="s">
+        <v>204</v>
+      </c>
+      <c r="N24" s="77" t="s">
+        <v>198</v>
+      </c>
+      <c r="O24" s="47" t="s">
+        <v>205</v>
+      </c>
+      <c r="P24" s="50" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q24" s="50" t="s">
+        <v>190</v>
+      </c>
+      <c r="R24" s="50" t="s">
+        <v>194</v>
+      </c>
+      <c r="S24" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="T24" s="50" t="s">
+        <v>195</v>
+      </c>
+      <c r="U24" s="50" t="s">
+        <v>196</v>
+      </c>
+      <c r="V24" s="50" t="s">
+        <v>199</v>
+      </c>
+      <c r="W24" s="50" t="s">
+        <v>200</v>
+      </c>
+      <c r="X24" s="50" t="s">
+        <v>201</v>
+      </c>
+      <c r="Y24" s="71" t="s">
+        <v>202</v>
+      </c>
+      <c r="Z24" s="74" t="s">
+        <v>203</v>
+      </c>
+      <c r="AA24" s="40" t="s">
+        <v>166</v>
+      </c>
+      <c r="AB24" s="68" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="25" spans="1:28">
-      <c r="A25" s="29"/>
-      <c r="B25" s="29"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="29"/>
-      <c r="J25" s="29"/>
-      <c r="K25" s="29"/>
-      <c r="L25" s="29"/>
-      <c r="M25" s="33"/>
-      <c r="N25" s="70"/>
-      <c r="O25" s="62"/>
-      <c r="P25" s="29"/>
-      <c r="Q25" s="29"/>
-      <c r="R25" s="29"/>
-      <c r="S25" s="29"/>
-      <c r="T25" s="29"/>
-      <c r="U25" s="29"/>
-      <c r="V25" s="29"/>
-      <c r="W25" s="29"/>
-      <c r="X25" s="29"/>
-      <c r="Y25" s="65"/>
-      <c r="Z25" s="68"/>
-      <c r="AA25" s="33"/>
-      <c r="AB25" s="59"/>
+      <c r="A25" s="51"/>
+      <c r="B25" s="51"/>
+      <c r="C25" s="51"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="51"/>
+      <c r="F25" s="51"/>
+      <c r="G25" s="51"/>
+      <c r="H25" s="51"/>
+      <c r="I25" s="51"/>
+      <c r="J25" s="51"/>
+      <c r="K25" s="51"/>
+      <c r="L25" s="51"/>
+      <c r="M25" s="40"/>
+      <c r="N25" s="77"/>
+      <c r="O25" s="48"/>
+      <c r="P25" s="51"/>
+      <c r="Q25" s="51"/>
+      <c r="R25" s="51"/>
+      <c r="S25" s="51"/>
+      <c r="T25" s="51"/>
+      <c r="U25" s="51"/>
+      <c r="V25" s="51"/>
+      <c r="W25" s="51"/>
+      <c r="X25" s="51"/>
+      <c r="Y25" s="72"/>
+      <c r="Z25" s="75"/>
+      <c r="AA25" s="40"/>
+      <c r="AB25" s="69"/>
     </row>
     <row r="26" spans="1:28">
-      <c r="A26" s="29"/>
-      <c r="B26" s="29"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="29"/>
-      <c r="I26" s="29"/>
-      <c r="J26" s="29"/>
-      <c r="K26" s="29"/>
-      <c r="L26" s="29"/>
-      <c r="M26" s="33"/>
-      <c r="N26" s="70"/>
-      <c r="O26" s="62"/>
-      <c r="P26" s="29"/>
-      <c r="Q26" s="29"/>
-      <c r="R26" s="29"/>
-      <c r="S26" s="29"/>
-      <c r="T26" s="29"/>
-      <c r="U26" s="29"/>
-      <c r="V26" s="29"/>
-      <c r="W26" s="29"/>
-      <c r="X26" s="29"/>
-      <c r="Y26" s="65"/>
-      <c r="Z26" s="68"/>
-      <c r="AA26" s="33"/>
-      <c r="AB26" s="59"/>
+      <c r="A26" s="51"/>
+      <c r="B26" s="51"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="51"/>
+      <c r="E26" s="51"/>
+      <c r="F26" s="51"/>
+      <c r="G26" s="51"/>
+      <c r="H26" s="51"/>
+      <c r="I26" s="51"/>
+      <c r="J26" s="51"/>
+      <c r="K26" s="51"/>
+      <c r="L26" s="51"/>
+      <c r="M26" s="40"/>
+      <c r="N26" s="77"/>
+      <c r="O26" s="48"/>
+      <c r="P26" s="51"/>
+      <c r="Q26" s="51"/>
+      <c r="R26" s="51"/>
+      <c r="S26" s="51"/>
+      <c r="T26" s="51"/>
+      <c r="U26" s="51"/>
+      <c r="V26" s="51"/>
+      <c r="W26" s="51"/>
+      <c r="X26" s="51"/>
+      <c r="Y26" s="72"/>
+      <c r="Z26" s="75"/>
+      <c r="AA26" s="40"/>
+      <c r="AB26" s="69"/>
     </row>
     <row r="27" spans="1:28">
-      <c r="A27" s="30"/>
-      <c r="B27" s="30"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="30"/>
-      <c r="I27" s="30"/>
-      <c r="J27" s="30"/>
-      <c r="K27" s="30"/>
-      <c r="L27" s="30"/>
-      <c r="M27" s="33"/>
-      <c r="N27" s="70"/>
-      <c r="O27" s="63"/>
-      <c r="P27" s="30"/>
-      <c r="Q27" s="30"/>
-      <c r="R27" s="30"/>
-      <c r="S27" s="30"/>
-      <c r="T27" s="30"/>
-      <c r="U27" s="30"/>
-      <c r="V27" s="30"/>
-      <c r="W27" s="30"/>
-      <c r="X27" s="30"/>
-      <c r="Y27" s="65"/>
-      <c r="Z27" s="68"/>
-      <c r="AA27" s="33"/>
-      <c r="AB27" s="59"/>
+      <c r="A27" s="52"/>
+      <c r="B27" s="52"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="52"/>
+      <c r="G27" s="52"/>
+      <c r="H27" s="52"/>
+      <c r="I27" s="52"/>
+      <c r="J27" s="52"/>
+      <c r="K27" s="52"/>
+      <c r="L27" s="52"/>
+      <c r="M27" s="40"/>
+      <c r="N27" s="77"/>
+      <c r="O27" s="49"/>
+      <c r="P27" s="52"/>
+      <c r="Q27" s="52"/>
+      <c r="R27" s="52"/>
+      <c r="S27" s="52"/>
+      <c r="T27" s="52"/>
+      <c r="U27" s="52"/>
+      <c r="V27" s="52"/>
+      <c r="W27" s="52"/>
+      <c r="X27" s="52"/>
+      <c r="Y27" s="72"/>
+      <c r="Z27" s="75"/>
+      <c r="AA27" s="40"/>
+      <c r="AB27" s="69"/>
     </row>
     <row r="28" spans="1:28">
       <c r="E28" s="1"/>
@@ -7204,60 +7645,60 @@
       <c r="K28" s="2"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
-      <c r="N28" s="70"/>
+      <c r="N28" s="77"/>
       <c r="R28" s="2"/>
       <c r="S28" s="2"/>
       <c r="T28" s="2"/>
       <c r="U28" s="1"/>
       <c r="X28" s="2"/>
-      <c r="Y28" s="65"/>
-      <c r="Z28" s="68"/>
-      <c r="AA28" s="33"/>
-      <c r="AB28" s="59"/>
+      <c r="Y28" s="72"/>
+      <c r="Z28" s="75"/>
+      <c r="AA28" s="40"/>
+      <c r="AB28" s="69"/>
     </row>
     <row r="29" spans="1:28">
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="J29" s="17" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="K29" s="17" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
-      <c r="N29" s="70"/>
+      <c r="N29" s="77"/>
       <c r="R29" s="2"/>
       <c r="S29" s="17" t="s">
-        <v>292</v>
+        <v>211</v>
       </c>
       <c r="U29" s="17" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="X29" s="2"/>
-      <c r="Y29" s="66"/>
-      <c r="Z29" s="69"/>
-      <c r="AA29" s="33"/>
-      <c r="AB29" s="60"/>
+      <c r="Y29" s="73"/>
+      <c r="Z29" s="76"/>
+      <c r="AA29" s="40"/>
+      <c r="AB29" s="70"/>
     </row>
     <row r="30" spans="1:28" ht="202.5">
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="J30" s="20" t="s">
-        <v>164</v>
+        <v>141</v>
       </c>
       <c r="K30" s="24" t="s">
-        <v>272</v>
+        <v>191</v>
       </c>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
-      <c r="N30" s="70"/>
+      <c r="N30" s="77"/>
       <c r="R30" s="2"/>
       <c r="S30" s="25" t="s">
-        <v>293</v>
+        <v>212</v>
       </c>
       <c r="U30" s="20" t="s">
-        <v>278</v>
+        <v>197</v>
       </c>
       <c r="X30" s="2"/>
     </row>
@@ -7511,55 +7952,55 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="21">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="31"/>
+      <c r="B2" s="41"/>
       <c r="C2" s="3" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="21">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="31"/>
+      <c r="B3" s="41"/>
       <c r="C3" s="3" t="s">
-        <v>303</v>
+        <v>222</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="13" customFormat="1">
       <c r="A6" s="15" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C6" s="14" t="s">
         <v>22</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="F6" s="14" t="s">
         <v>23</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>2</v>
@@ -7568,13 +8009,13 @@
         <v>0</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>25</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>1</v>
@@ -7582,10 +8023,10 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>149</v>
+        <v>127</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>3</v>
@@ -7594,13 +8035,13 @@
         <v>0</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>150</v>
+        <v>128</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>1</v>
@@ -7608,10 +8049,10 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>4</v>
@@ -7620,13 +8061,13 @@
         <v>0</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>1</v>
@@ -7634,10 +8075,10 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>151</v>
+        <v>129</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>4</v>
@@ -7646,13 +8087,13 @@
         <v>1</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>1</v>
@@ -7660,10 +8101,10 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>152</v>
+        <v>130</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>4</v>
@@ -7672,13 +8113,13 @@
         <v>0</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>1</v>
@@ -7686,10 +8127,10 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>153</v>
+        <v>131</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>4</v>
@@ -7698,13 +8139,13 @@
         <v>0</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>1</v>
@@ -7712,10 +8153,10 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>153</v>
+        <v>131</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>4</v>
@@ -7724,13 +8165,13 @@
         <v>1</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>1</v>
@@ -7738,10 +8179,10 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>154</v>
+        <v>132</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>4</v>
@@ -7750,13 +8191,13 @@
         <v>0</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>155</v>
+        <v>133</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>1</v>
@@ -7764,10 +8205,10 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>153</v>
+        <v>131</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>4</v>
@@ -7776,13 +8217,13 @@
         <v>2</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>1</v>
@@ -7790,133 +8231,133 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>156</v>
+        <v>134</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="B19" s="41" t="s">
-        <v>301</v>
-      </c>
-      <c r="C19" s="41"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="41" t="s">
-        <v>304</v>
-      </c>
-      <c r="G19" s="41" t="s">
-        <v>302</v>
-      </c>
-      <c r="H19" s="41"/>
+      <c r="B19" s="45" t="s">
+        <v>220</v>
+      </c>
+      <c r="C19" s="45"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="45" t="s">
+        <v>223</v>
+      </c>
+      <c r="G19" s="45" t="s">
+        <v>221</v>
+      </c>
+      <c r="H19" s="45"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="B20" s="41"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="53"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="41"/>
+      <c r="B20" s="45"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="64"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="45"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="B21" s="41"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="53"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="41"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="64"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="45"/>
     </row>
     <row r="22" spans="1:8" ht="11.25" customHeight="1">
-      <c r="A22" s="54" t="s">
-        <v>162</v>
-      </c>
-      <c r="B22" s="28" t="s">
-        <v>297</v>
-      </c>
-      <c r="C22" s="28" t="s">
-        <v>295</v>
-      </c>
-      <c r="D22" s="28" t="s">
-        <v>296</v>
-      </c>
-      <c r="E22" s="28" t="s">
-        <v>298</v>
-      </c>
-      <c r="F22" s="71" t="s">
-        <v>305</v>
-      </c>
-      <c r="G22" s="28" t="s">
-        <v>299</v>
-      </c>
-      <c r="H22" s="28" t="s">
-        <v>300</v>
+      <c r="A22" s="65" t="s">
+        <v>139</v>
+      </c>
+      <c r="B22" s="50" t="s">
+        <v>216</v>
+      </c>
+      <c r="C22" s="50" t="s">
+        <v>214</v>
+      </c>
+      <c r="D22" s="50" t="s">
+        <v>215</v>
+      </c>
+      <c r="E22" s="50" t="s">
+        <v>217</v>
+      </c>
+      <c r="F22" s="78" t="s">
+        <v>224</v>
+      </c>
+      <c r="G22" s="50" t="s">
+        <v>218</v>
+      </c>
+      <c r="H22" s="50" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="55"/>
-      <c r="B23" s="29"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="72"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="29"/>
+      <c r="A23" s="66"/>
+      <c r="B23" s="51"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="51"/>
+      <c r="E23" s="51"/>
+      <c r="F23" s="79"/>
+      <c r="G23" s="51"/>
+      <c r="H23" s="51"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="56"/>
-      <c r="B24" s="29"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="72"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="29"/>
+      <c r="A24" s="67"/>
+      <c r="B24" s="51"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="79"/>
+      <c r="G24" s="51"/>
+      <c r="H24" s="51"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="B25" s="29"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="73"/>
-      <c r="G25" s="30"/>
-      <c r="H25" s="30"/>
+      <c r="B25" s="51"/>
+      <c r="C25" s="52"/>
+      <c r="D25" s="52"/>
+      <c r="E25" s="52"/>
+      <c r="F25" s="80"/>
+      <c r="G25" s="52"/>
+      <c r="H25" s="52"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="B26" s="30"/>
+      <c r="B26" s="52"/>
     </row>
     <row r="27" spans="1:8">
       <c r="H27" s="17" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="101.25">
       <c r="F28" s="27" t="s">
-        <v>306</v>
+        <v>225</v>
       </c>
       <c r="G28" s="16"/>
       <c r="H28" s="18" t="s">
-        <v>174</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -7942,10 +8383,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C2:E32"/>
+  <dimension ref="C2:E33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E2:E17"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7954,7 +8395,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:5">
-      <c r="C2" s="74" t="s">
+      <c r="C2" s="14" t="s">
         <v>10</v>
       </c>
       <c r="E2" t="str">
@@ -7963,265 +8404,282 @@
       </c>
     </row>
     <row r="3" spans="3:5">
-      <c r="C3" s="74" t="s">
-        <v>47</v>
+      <c r="C3" s="14" t="s">
+        <v>40</v>
       </c>
       <c r="E3" t="str">
-        <f t="shared" ref="E3:E32" si="0">CONCATENATE(C3,", ")</f>
-        <v xml:space="preserve">CD_TRANSACAO_TITULO, </v>
+        <f t="shared" ref="E3:E33" si="0">CONCATENATE(C3,", ")</f>
+        <v xml:space="preserve">CD_MODULO, </v>
       </c>
     </row>
     <row r="4" spans="3:5">
-      <c r="C4" s="74" t="s">
-        <v>33</v>
+      <c r="C4" s="14" t="s">
+        <v>39</v>
       </c>
       <c r="E4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">NR_TITULO, </v>
+        <v xml:space="preserve">CD_FILIAL, </v>
       </c>
     </row>
     <row r="5" spans="3:5">
-      <c r="C5" s="74" t="s">
-        <v>46</v>
+      <c r="C5" s="14" t="s">
+        <v>271</v>
       </c>
       <c r="E5" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">CD_CHAVE_PRIMARIA, </v>
+        <v xml:space="preserve">DT_ULT_ATUALIZACAO, </v>
       </c>
     </row>
     <row r="6" spans="3:5">
-      <c r="C6" s="74" t="s">
-        <v>17</v>
+      <c r="C6" s="14" t="s">
+        <v>59</v>
       </c>
       <c r="E6" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">CD_BANCO, </v>
+        <v xml:space="preserve">CD_UNIDADE_EMPRESARIAL, </v>
       </c>
     </row>
     <row r="7" spans="3:5">
-      <c r="C7" s="74" t="s">
-        <v>22</v>
+      <c r="C7" s="14" t="s">
+        <v>38</v>
       </c>
       <c r="E7" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">NR_REMESSA, </v>
+        <v xml:space="preserve">CD_TRANSACAO_TITULO, </v>
       </c>
     </row>
     <row r="8" spans="3:5">
-      <c r="C8" s="74" t="s">
-        <v>23</v>
+      <c r="C8" s="14" t="s">
+        <v>32</v>
       </c>
       <c r="E8" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">DT_REMESSA, </v>
+        <v xml:space="preserve">NR_TITULO, </v>
       </c>
     </row>
     <row r="9" spans="3:5">
-      <c r="C9" s="74" t="s">
-        <v>18</v>
+      <c r="C9" s="14" t="s">
+        <v>37</v>
       </c>
       <c r="E9" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">NR_AGENCIA, </v>
+        <v xml:space="preserve">CD_CHAVE_PRIMARIA, </v>
       </c>
     </row>
     <row r="10" spans="3:5">
-      <c r="C10" s="74" t="s">
-        <v>24</v>
+      <c r="C10" s="14" t="s">
+        <v>42</v>
       </c>
       <c r="E10" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">NR_CONTA, </v>
+        <v xml:space="preserve">CD_PARCEIRO, </v>
       </c>
     </row>
     <row r="11" spans="3:5">
-      <c r="C11" s="74" t="s">
-        <v>350</v>
+      <c r="C11" s="14" t="s">
+        <v>41</v>
       </c>
       <c r="E11" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">CD_STATUS_ARQUIVO, </v>
+        <v xml:space="preserve">SQ_DOCUMENTO, </v>
       </c>
     </row>
     <row r="12" spans="3:5">
-      <c r="C12" s="74" t="s">
-        <v>351</v>
+      <c r="C12" s="14" t="s">
+        <v>43</v>
       </c>
       <c r="E12" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">CD_STATUS_ENVIO, </v>
+        <v xml:space="preserve">NR_NF, </v>
       </c>
     </row>
     <row r="13" spans="3:5">
-      <c r="C13" s="74" t="s">
-        <v>352</v>
+      <c r="C13" s="14" t="s">
+        <v>44</v>
       </c>
       <c r="E13" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">DT_ULT_ATUALIZACAO, </v>
+        <v xml:space="preserve">NR_SERIE_NF, </v>
       </c>
     </row>
     <row r="14" spans="3:5">
-      <c r="C14" s="74" t="s">
-        <v>353</v>
+      <c r="C14" s="14" t="s">
+        <v>45</v>
       </c>
       <c r="E14" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">NR_BANCO, </v>
+        <v xml:space="preserve">DT_EMISSAO_TITULO, </v>
       </c>
     </row>
     <row r="15" spans="3:5">
-      <c r="C15" s="74" t="s">
-        <v>354</v>
+      <c r="C15" s="14" t="s">
+        <v>48</v>
       </c>
       <c r="E15" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">CD_TRANSACAO_MOVIMENTO, </v>
+        <v xml:space="preserve">VL_TITULO, </v>
       </c>
     </row>
     <row r="16" spans="3:5">
-      <c r="C16" s="74" t="s">
-        <v>355</v>
+      <c r="C16" s="14" t="s">
+        <v>55</v>
       </c>
       <c r="E16" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">NR_DOC_MOVIMENTO, </v>
+        <v xml:space="preserve">VL_SALDO, </v>
       </c>
     </row>
     <row r="17" spans="3:5">
-      <c r="C17" s="74" t="s">
-        <v>356</v>
+      <c r="C17" s="14" t="s">
+        <v>53</v>
       </c>
       <c r="E17" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">NR_SERIE, </v>
+        <v xml:space="preserve">DT_VENCIMENTO_ORIGINAL, </v>
       </c>
     </row>
     <row r="18" spans="3:5">
       <c r="C18" s="14" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="E18" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">CD_BANCO, </v>
+        <v xml:space="preserve">DT_VENCIMENTO, </v>
       </c>
     </row>
     <row r="19" spans="3:5">
       <c r="C19" s="14" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="E19" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">NR_AGENCIA, </v>
+        <v xml:space="preserve">NR_BANCARIO, </v>
       </c>
     </row>
     <row r="20" spans="3:5">
       <c r="C20" s="14" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="E20" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">NR_CONTA_CORRENTE, </v>
+        <v xml:space="preserve">CD_CENTRO_CUSTO, </v>
       </c>
     </row>
     <row r="21" spans="3:5">
       <c r="C21" s="14" t="s">
-        <v>8</v>
+        <v>347</v>
       </c>
       <c r="E21" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">DT_ATUALIZACAO, </v>
+        <v xml:space="preserve">CD_CONTA_CONTROLE, </v>
       </c>
     </row>
     <row r="22" spans="3:5">
       <c r="C22" s="14" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="E22" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">CD_UNIDADE_EMPRESARIAL, </v>
+        <v xml:space="preserve">VL_DESCONTO, </v>
       </c>
     </row>
     <row r="23" spans="3:5">
       <c r="C23" s="14" t="s">
-        <v>105</v>
+        <v>47</v>
       </c>
       <c r="E23" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">NR_TITULO_REFERENCIA, </v>
+        <v xml:space="preserve">DT_LIQUIDACAO_TITULO, </v>
       </c>
     </row>
     <row r="24" spans="3:5">
       <c r="C24" s="14" t="s">
-        <v>107</v>
+        <v>52</v>
       </c>
       <c r="E24" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">CD_TRANSACAO_DOCUMENTO, </v>
+        <v xml:space="preserve">DT_SITUACAO_TITULO, </v>
       </c>
     </row>
     <row r="25" spans="3:5">
       <c r="C25" s="14" t="s">
-        <v>108</v>
+        <v>51</v>
       </c>
       <c r="E25" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">DT_VENCTO_PRORROGADO, </v>
+        <v xml:space="preserve">CD_SITUACAO_TITULO, </v>
       </c>
     </row>
     <row r="26" spans="3:5">
       <c r="C26" s="14" t="s">
-        <v>109</v>
+        <v>57</v>
       </c>
       <c r="E26" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">DT_VENCTO_ORIGINAL_PRORROGADO, </v>
+        <v xml:space="preserve">DS_OBSERVACAO_TITULO, </v>
       </c>
     </row>
     <row r="27" spans="3:5">
       <c r="C27" s="14" t="s">
-        <v>110</v>
+        <v>58</v>
       </c>
       <c r="E27" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">DT_LIQUIDEZ_PREVISTA, </v>
+        <v xml:space="preserve">DS_USUARIO_GERACAO_TITULO, </v>
       </c>
     </row>
     <row r="28" spans="3:5">
       <c r="C28" s="14" t="s">
-        <v>111</v>
+        <v>60</v>
       </c>
       <c r="E28" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">CD_TIPO_MOVIMENTO, </v>
+        <v xml:space="preserve">NR_PEDIDO, </v>
       </c>
     </row>
     <row r="29" spans="3:5">
-      <c r="C29" s="15"/>
+      <c r="C29" s="14" t="s">
+        <v>17</v>
+      </c>
       <c r="E29" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">, </v>
+        <v xml:space="preserve">CD_BANCO, </v>
       </c>
     </row>
     <row r="30" spans="3:5">
-      <c r="C30" s="15"/>
+      <c r="C30" s="14" t="s">
+        <v>18</v>
+      </c>
       <c r="E30" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">, </v>
+        <v xml:space="preserve">NR_AGENCIA, </v>
       </c>
     </row>
     <row r="31" spans="3:5">
-      <c r="C31" s="15"/>
+      <c r="C31" s="14" t="s">
+        <v>49</v>
+      </c>
       <c r="E31" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">, </v>
+        <v xml:space="preserve">NR_CONTA_CORRENTE, </v>
       </c>
     </row>
     <row r="32" spans="3:5">
-      <c r="C32" s="15"/>
+      <c r="C32" s="14" t="s">
+        <v>19</v>
+      </c>
       <c r="E32" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">, </v>
+        <v xml:space="preserve">CD_SITUACAO_PAGAMENTO, </v>
+      </c>
+    </row>
+    <row r="33" spans="3:5">
+      <c r="C33" s="14" t="s">
+        <v>347</v>
+      </c>
+      <c r="E33" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">CD_CONTA_CONTROLE, </v>
       </c>
     </row>
   </sheetData>

--- a/Documentação/Planilhas/Conferencia_CAR.xlsx
+++ b/Documentação/Planilhas/Conferencia_CAR.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" tabRatio="812" firstSheet="3" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" tabRatio="812" firstSheet="4" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Resumo" sheetId="93" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="stg_car_remessa" sheetId="95" r:id="rId3"/>
     <sheet name="stg_car_remessa_cobr_eletronica" sheetId="96" r:id="rId4"/>
     <sheet name="stg_car_retorno_cobr_eletronica" sheetId="97" r:id="rId5"/>
-    <sheet name="stg_car_titulo" sheetId="98" r:id="rId6"/>
+    <sheet name="stg_car_titulo" sheetId="103" r:id="rId6"/>
     <sheet name="stg_car_titulo_mvmto" sheetId="99" r:id="rId7"/>
     <sheet name="stg_car_titulo_remessa" sheetId="100" r:id="rId8"/>
     <sheet name="Plan6" sheetId="101" r:id="rId9"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1341" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1346" uniqueCount="440">
   <si>
     <t>1</t>
   </si>
@@ -512,9 +512,6 @@
     <t>A view está buscando o campo "rcd_utc" da tabela "tfacr200". Este campo não aparece nas telas do LN para podermos realizar a conferência</t>
   </si>
   <si>
-    <t>Sessão tfacr2520m000</t>
-  </si>
-  <si>
     <t>stg_car_remessa_cobanca_eletronica</t>
   </si>
   <si>
@@ -530,20 +527,6 @@
     <t>stg_car_titulo_remessa</t>
   </si>
   <si>
-    <t xml:space="preserve">Sessão znslsc524m000 </t>
-  </si>
-  <si>
-    <t>Selecionar o título desejado ainda na sessão tfacr2520m000 e no menu Specific, selecionar "Fatura - Relações de Origem". Pegar a informação da coluna Ordem.
-Ir para a sessão znslsc524m000 e pesquisar a ordem em questão no campo Ordem de Venda, em todas as unidades de negócios disponíveeis [usar as setinhas "Next Group" para selecionar a unidade]
-Caso encontre a Ordem, pegar a informação da coluna "Pedido do Cliente"</t>
-  </si>
-  <si>
-    <t>Pegar a informação do NR_BANCARIO existente na tabela e seleciona-lo no campo  "Código da Agência Bancária". Pegar a informação do campo "Banco Oficial"</t>
-  </si>
-  <si>
-    <t>Pegar a informação do NR_BANCARIO existente na tabela e seleciona-lo no campo  "Código da Agência Bancária". Pegar a informação do campo "Agência"</t>
-  </si>
-  <si>
     <t>Sessão tfcmg0511m000</t>
   </si>
   <si>
@@ -562,9 +545,6 @@
     <t>44</t>
   </si>
   <si>
-    <t>Sessão tfcmgl504m00l</t>
-  </si>
-  <si>
     <t>Informar  a transação e o título na coluna "Documento". Pegar a informação da coluna "Status do Arquivo"</t>
   </si>
   <si>
@@ -572,9 +552,6 @@
   </si>
   <si>
     <t>Se o Tipo de Venda for "BL ATC" recebe 2. Caso contrário recebe 3</t>
-  </si>
-  <si>
-    <t>tfacr2520m000, znslsc524m000, tfcmg0511m000, tfcmg0510m000 e tfcmgl504m00l</t>
   </si>
   <si>
     <t>750.0000</t>
@@ -984,12 +961,6 @@
     <t>Pegar a informação na segunda lacuna da coluna "Documento"</t>
   </si>
   <si>
-    <t>Sessão tfcmg0510m000 (Relações Bancárias)</t>
-  </si>
-  <si>
-    <t>Sessão tfcmg0511m000 (Agências Bancárias)</t>
-  </si>
-  <si>
     <t>Pegar a informação da primeira lacuna da coluna "Documento"</t>
   </si>
   <si>
@@ -1350,12 +1321,6 @@
     <t>80-Outros</t>
   </si>
   <si>
-    <t>Pegar a informação da coluna Valor em BRL</t>
-  </si>
-  <si>
-    <t>Pegar a informação da coluna Saldo</t>
-  </si>
-  <si>
     <t>Pedir o detalhamento do documento desejado. Na aba Detalhes de Lançamento, seção Contas/Dimensões, pegar a informação de Conta de Controle</t>
   </si>
   <si>
@@ -1398,32 +1363,55 @@
     <t>2014-07-12 00:00:00.000</t>
   </si>
   <si>
-    <t>Se o Valor Saldo for zero, selecionar o documento desejado. Pegar a informação da coluna Data de recebto.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Se o Valor Saldo for zero, selecionar o documento desejado. Pegar a informação da coluna Data de recebto [Data mais antiga]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Se o Valor Saldo for zero,  selecionar o documento desejado e com o botão direito do mouse, selecionar Text ==&gt; Texto</t>
-  </si>
-  <si>
-    <t>Sessão tfacr2523m000 (Documentos Relacionados ao Recebimento por Entrada Aberta) - Na lupinha informar o CD_TRANSACAO_TITULO e NR_TITULO, limpando primeiramente todos os campos</t>
-  </si>
-  <si>
-    <t>Sessão tfacrl504m00l (Agenda de Recebimento por Parcela) - No menu Specific, selecionar "Faturas Pagas Totais"</t>
-  </si>
-  <si>
-    <t>Selecionar o documento desejado. Pegar a informação da coluna  Status do Recebimento</t>
-  </si>
-  <si>
     <t>Selecionar o documento desejado e no menu Specific, selecionar "Transações GL". Na aba Histórico, pegar a primeira informação da coluna "Utilizado por"</t>
+  </si>
+  <si>
+    <t>Pegar a informação da coluna Valor em moeda da fatura</t>
+  </si>
+  <si>
+    <t>Pegar a informação da coluna Saldo (Moeda da Fatura)</t>
+  </si>
+  <si>
+    <t>Sessão tfacr2520m000 (Faturas em aberto de Parc. de Negócios Fatur.) - Na coluna Documento, informar o CD_TRANSACAO_TITULO e NR_TITULO na primeira e segunda coluna, respectivamente. Se não encontrar o título, navegar com a seta "Next Group"</t>
+  </si>
+  <si>
+    <t>Selecionar o título desejado e com o botão direito do mouse, selecionar a opção "Text"</t>
+  </si>
+  <si>
+    <t>Se o "Valor Saldo" for zero, no menu Specific, selecionar "Documentos Relacionados ao Recebimento por entrada em aberto" e pegar a informação da coluna Data de recebto.</t>
+  </si>
+  <si>
+    <t>Se o "Valor Saldo" for zero, no menu Specific, selecionar "Documentos Relacionados ao Recebimento por entrada em aberto" e pegar a informação da coluna Data de recebto. [Data mais antiga]</t>
+  </si>
+  <si>
+    <t>Selecionar o título desejado. No menu Specific, selecionar "Programações de Recebimentos".  Na aba "Geral', pegar a informação da coluna  "Status Recebimento"</t>
+  </si>
+  <si>
+    <t>Pegar a informação do NR_BANCARIO e ir para a sessão  "tfcmg0511m000" (Agências Bancárias). Informar o código no campo  "Código da Agência Bancária". Pegar a informação do campo "Banco Oficial"</t>
+  </si>
+  <si>
+    <t>Pegar a informação do NR_BANCARIO e ir para a sessão  "tfcmg0511m000" (Agências Bancárias). Informar o código no campo  "Código da Agência Bancária". Pegar a informação do campo "Agência"</t>
+  </si>
+  <si>
+    <t>Pegar a informação do CD_BANCO e ir para a sessão "tfcmg0510m000" (Relações Bancárias). Informar o código no campo  "Banco". Pegar a informação do campo "Conta Bancária"</t>
+  </si>
+  <si>
+    <t>No menu Specific, selecionar "Fatura - Relações de Origem". Pegar a informação da coluna Ordem.
+Ir para a sessão "znslsc524m000" (Origem da Ordem de Venda"  e pesquisar a ordem em questão no campo Ordem de Venda, em todas as unidades de negócios disponíveis [usar as setinhas "Next Group" para selecionar a unidade]
+Caso encontre a Ordem, pegar a informação da coluna "Pedido do Cliente"</t>
+  </si>
+  <si>
+    <t>Sessão tfcmgl504m00l (Documentos Saída EBF)</t>
+  </si>
+  <si>
+    <t>tfacr2520m000, znslsc524m000, tfcmg0511m000, tfcmg0510m000, tfcmgl504m00l e tfacr2531m000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1481,14 +1469,6 @@
       <b/>
       <sz val="16"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1808,7 +1788,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1883,17 +1863,38 @@
     <xf numFmtId="49" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1913,26 +1914,14 @@
     <xf numFmtId="49" fontId="6" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1979,23 +1968,17 @@
     <xf numFmtId="49" fontId="5" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2024,9 +2007,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2036,32 +2016,29 @@
     <xf numFmtId="49" fontId="1" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2394,31 +2371,31 @@
     </row>
     <row r="3" spans="2:3">
       <c r="B3" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C3" s="7"/>
     </row>
     <row r="4" spans="2:3">
       <c r="B4" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C4" s="7"/>
     </row>
     <row r="5" spans="2:3">
       <c r="B5" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C5" s="7"/>
     </row>
     <row r="6" spans="2:3">
       <c r="B6" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C6" s="7"/>
     </row>
     <row r="7" spans="2:3">
       <c r="B7" s="10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C7" s="9"/>
     </row>
@@ -2482,21 +2459,21 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" ht="21">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="41"/>
+      <c r="B2" s="37"/>
       <c r="C2" s="3" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="21">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="41"/>
+      <c r="B3" s="37"/>
       <c r="C3" s="3" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2513,30 +2490,30 @@
         <v>8</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="2" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>9</v>
@@ -2547,19 +2524,19 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="2" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>9</v>
@@ -2570,45 +2547,45 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="2" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>6</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="2" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>1</v>
@@ -2616,19 +2593,19 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="2" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>71</v>
@@ -2639,30 +2616,30 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="2" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>6</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="2" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>0</v>
@@ -2671,10 +2648,10 @@
         <v>69</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>9</v>
@@ -2685,19 +2662,19 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="2" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>9</v>
@@ -2708,19 +2685,19 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="2" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>9</v>
@@ -2731,140 +2708,134 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="2" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C16" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="11.25" customHeight="1">
+      <c r="A18" s="38" t="s">
+        <v>255</v>
+      </c>
+      <c r="B18" s="38"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="41" t="s">
         <v>256</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="11.25" customHeight="1">
-      <c r="A18" s="42" t="s">
-        <v>262</v>
-      </c>
-      <c r="B18" s="42"/>
-      <c r="C18" s="42"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="34" t="s">
-        <v>263</v>
-      </c>
-      <c r="G18" s="35"/>
+      <c r="G18" s="42"/>
     </row>
     <row r="19" spans="1:7" ht="11.25" customHeight="1">
-      <c r="A19" s="42"/>
-      <c r="B19" s="42"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="37"/>
+      <c r="A19" s="38"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="44"/>
     </row>
     <row r="20" spans="1:7" ht="11.25" customHeight="1">
-      <c r="A20" s="42"/>
-      <c r="B20" s="42"/>
-      <c r="C20" s="42"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="42"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="39"/>
+      <c r="A20" s="38"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="46"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="40" t="s">
+      <c r="A21" s="39" t="s">
+        <v>250</v>
+      </c>
+      <c r="B21" s="39" t="s">
+        <v>251</v>
+      </c>
+      <c r="C21" s="39" t="s">
+        <v>252</v>
+      </c>
+      <c r="D21" s="39" t="s">
+        <v>253</v>
+      </c>
+      <c r="E21" s="39" t="s">
         <v>257</v>
       </c>
-      <c r="B21" s="40" t="s">
+      <c r="F21" s="39" t="s">
+        <v>259</v>
+      </c>
+      <c r="G21" s="39" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="39"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="39"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="39"/>
+      <c r="B23" s="39"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="39"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="39"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="39"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="D26" s="39" t="s">
+        <v>254</v>
+      </c>
+      <c r="E26" s="40" t="s">
         <v>258</v>
       </c>
-      <c r="C21" s="40" t="s">
-        <v>259</v>
-      </c>
-      <c r="D21" s="40" t="s">
-        <v>260</v>
-      </c>
-      <c r="E21" s="40" t="s">
-        <v>264</v>
-      </c>
-      <c r="F21" s="40" t="s">
-        <v>266</v>
-      </c>
-      <c r="G21" s="40" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="40"/>
-      <c r="B22" s="40"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="40"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="40"/>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="40"/>
-      <c r="B23" s="40"/>
-      <c r="C23" s="40"/>
-      <c r="D23" s="40"/>
-      <c r="E23" s="40"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="40"/>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="40"/>
-      <c r="B24" s="40"/>
-      <c r="C24" s="40"/>
-      <c r="D24" s="40"/>
-      <c r="E24" s="40"/>
-      <c r="F24" s="40"/>
-      <c r="G24" s="40"/>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="D26" s="40" t="s">
-        <v>261</v>
-      </c>
-      <c r="E26" s="43" t="s">
-        <v>265</v>
-      </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="D27" s="40"/>
-      <c r="E27" s="43"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="40"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="D28" s="40"/>
-      <c r="E28" s="43"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="40"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="D29" s="40"/>
-      <c r="E29" s="43"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="40"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="D30" s="40"/>
-      <c r="E30" s="43"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A18:E20"/>
-    <mergeCell ref="E21:E24"/>
-    <mergeCell ref="E26:E30"/>
-    <mergeCell ref="D26:D30"/>
     <mergeCell ref="F18:G20"/>
     <mergeCell ref="F21:F24"/>
     <mergeCell ref="G21:G24"/>
@@ -2872,6 +2843,12 @@
     <mergeCell ref="B21:B24"/>
     <mergeCell ref="C21:C24"/>
     <mergeCell ref="D21:D24"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A18:E20"/>
+    <mergeCell ref="E21:E24"/>
+    <mergeCell ref="E26:E30"/>
+    <mergeCell ref="D26:D30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -2928,21 +2905,21 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:33" ht="21">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="41"/>
+      <c r="B2" s="37"/>
       <c r="C2" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:33" ht="21">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="41"/>
+      <c r="B3" s="37"/>
       <c r="C3" s="3" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
     </row>
     <row r="6" spans="1:33" s="22" customFormat="1" ht="21" customHeight="1">
@@ -2965,31 +2942,31 @@
         <v>24</v>
       </c>
       <c r="G6" s="28" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="I6" s="28" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="J6" s="28" t="s">
         <v>18</v>
       </c>
       <c r="K6" s="28" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="L6" s="28" t="s">
         <v>23</v>
       </c>
       <c r="M6" s="28" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="N6" s="28" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="O6" s="28" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="P6" s="28" t="s">
         <v>17</v>
@@ -3020,13 +2997,13 @@
         <v>99</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="F7" s="12" t="s">
         <v>121</v>
@@ -3038,7 +3015,7 @@
         <v>20</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="J7" s="12" t="s">
         <v>119</v>
@@ -3047,7 +3024,7 @@
         <v>64</v>
       </c>
       <c r="L7" s="12" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="M7" s="12" t="s">
         <v>4</v>
@@ -3056,7 +3033,7 @@
         <v>4</v>
       </c>
       <c r="O7" s="12" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="P7" s="12" t="s">
         <v>20</v>
@@ -3087,13 +3064,13 @@
         <v>99</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>121</v>
@@ -3105,7 +3082,7 @@
         <v>20</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>119</v>
@@ -3114,7 +3091,7 @@
         <v>64</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="M8" s="2" t="s">
         <v>4</v>
@@ -3123,7 +3100,7 @@
         <v>4</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="P8" s="2" t="s">
         <v>20</v>
@@ -3137,13 +3114,13 @@
         <v>99</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>121</v>
@@ -3155,7 +3132,7 @@
         <v>20</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>119</v>
@@ -3164,7 +3141,7 @@
         <v>64</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="M9" s="2" t="s">
         <v>0</v>
@@ -3173,7 +3150,7 @@
         <v>15</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="P9" s="2" t="s">
         <v>20</v>
@@ -3184,16 +3161,16 @@
         <v>7</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C10" s="29" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="29" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="E10" s="29" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="F10" s="29" t="s">
         <v>26</v>
@@ -3205,7 +3182,7 @@
         <v>20</v>
       </c>
       <c r="I10" s="29" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="J10" s="29" t="s">
         <v>119</v>
@@ -3234,16 +3211,16 @@
         <v>7</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C11" s="29" t="s">
         <v>6</v>
       </c>
       <c r="D11" s="29" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="E11" s="29" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="F11" s="29" t="s">
         <v>26</v>
@@ -3284,16 +3261,16 @@
         <v>7</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C12" s="29" t="s">
         <v>6</v>
       </c>
       <c r="D12" s="29" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="E12" s="29" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="F12" s="29" t="s">
         <v>26</v>
@@ -3305,7 +3282,7 @@
         <v>20</v>
       </c>
       <c r="I12" s="29" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="J12" s="29" t="s">
         <v>119</v>
@@ -3334,16 +3311,16 @@
         <v>7</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>121</v>
@@ -3355,7 +3332,7 @@
         <v>20</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>119</v>
@@ -3364,7 +3341,7 @@
         <v>64</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="M13" s="2" t="s">
         <v>1</v>
@@ -3373,7 +3350,7 @@
         <v>15</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="P13" s="2" t="s">
         <v>20</v>
@@ -3384,16 +3361,16 @@
         <v>7</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>121</v>
@@ -3405,7 +3382,7 @@
         <v>20</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>119</v>
@@ -3414,7 +3391,7 @@
         <v>64</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="M14" s="2" t="s">
         <v>1</v>
@@ -3423,7 +3400,7 @@
         <v>15</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="P14" s="2" t="s">
         <v>20</v>
@@ -3434,16 +3411,16 @@
         <v>7</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>121</v>
@@ -3455,7 +3432,7 @@
         <v>20</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>119</v>
@@ -3464,7 +3441,7 @@
         <v>64</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="M15" s="2" t="s">
         <v>1</v>
@@ -3473,7 +3450,7 @@
         <v>15</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="P15" s="2" t="s">
         <v>20</v>
@@ -3484,16 +3461,16 @@
         <v>7</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>121</v>
@@ -3505,7 +3482,7 @@
         <v>20</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>119</v>
@@ -3514,7 +3491,7 @@
         <v>64</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="M16" s="2" t="s">
         <v>1</v>
@@ -3523,7 +3500,7 @@
         <v>15</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="P16" s="2" t="s">
         <v>20</v>
@@ -3531,102 +3508,102 @@
     </row>
     <row r="18" spans="1:33" ht="11.25" customHeight="1">
       <c r="A18" s="1"/>
-      <c r="B18" s="45" t="s">
+      <c r="B18" s="48" t="s">
+        <v>288</v>
+      </c>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="49" t="s">
+        <v>307</v>
+      </c>
+      <c r="H18" s="49"/>
+      <c r="I18" s="49"/>
+      <c r="J18" s="49"/>
+      <c r="K18" s="49"/>
+      <c r="L18" s="49"/>
+      <c r="M18" s="49"/>
+      <c r="N18" s="49"/>
+    </row>
+    <row r="19" spans="1:33">
+      <c r="B19" s="48"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="48"/>
+      <c r="G19" s="49"/>
+      <c r="H19" s="49"/>
+      <c r="I19" s="49"/>
+      <c r="J19" s="49"/>
+      <c r="K19" s="49"/>
+      <c r="L19" s="49"/>
+      <c r="M19" s="49"/>
+      <c r="N19" s="49"/>
+    </row>
+    <row r="20" spans="1:33">
+      <c r="B20" s="48"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="49"/>
+      <c r="H20" s="49"/>
+      <c r="I20" s="49"/>
+      <c r="J20" s="49"/>
+      <c r="K20" s="49"/>
+      <c r="L20" s="49"/>
+      <c r="M20" s="49"/>
+      <c r="N20" s="49"/>
+    </row>
+    <row r="21" spans="1:33" ht="11.25" customHeight="1">
+      <c r="A21" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="39" t="s">
+        <v>290</v>
+      </c>
+      <c r="C21" s="39" t="s">
+        <v>291</v>
+      </c>
+      <c r="D21" s="39" t="s">
+        <v>287</v>
+      </c>
+      <c r="E21" s="39" t="s">
+        <v>289</v>
+      </c>
+      <c r="F21" s="39" t="s">
+        <v>336</v>
+      </c>
+      <c r="G21" s="39" t="s">
+        <v>308</v>
+      </c>
+      <c r="H21" s="39" t="s">
+        <v>292</v>
+      </c>
+      <c r="I21" s="39" t="s">
+        <v>293</v>
+      </c>
+      <c r="J21" s="39" t="s">
+        <v>334</v>
+      </c>
+      <c r="K21" s="39" t="s">
+        <v>294</v>
+      </c>
+      <c r="L21" s="39" t="s">
+        <v>335</v>
+      </c>
+      <c r="M21" s="39" t="s">
         <v>295</v>
       </c>
-      <c r="C18" s="45"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="44" t="s">
-        <v>316</v>
-      </c>
-      <c r="H18" s="44"/>
-      <c r="I18" s="44"/>
-      <c r="J18" s="44"/>
-      <c r="K18" s="44"/>
-      <c r="L18" s="44"/>
-      <c r="M18" s="44"/>
-      <c r="N18" s="44"/>
-    </row>
-    <row r="19" spans="1:33">
-      <c r="B19" s="45"/>
-      <c r="C19" s="45"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="45"/>
-      <c r="G19" s="44"/>
-      <c r="H19" s="44"/>
-      <c r="I19" s="44"/>
-      <c r="J19" s="44"/>
-      <c r="K19" s="44"/>
-      <c r="L19" s="44"/>
-      <c r="M19" s="44"/>
-      <c r="N19" s="44"/>
-    </row>
-    <row r="20" spans="1:33">
-      <c r="B20" s="45"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="45"/>
-      <c r="G20" s="44"/>
-      <c r="H20" s="44"/>
-      <c r="I20" s="44"/>
-      <c r="J20" s="44"/>
-      <c r="K20" s="44"/>
-      <c r="L20" s="44"/>
-      <c r="M20" s="44"/>
-      <c r="N20" s="44"/>
-    </row>
-    <row r="21" spans="1:33" ht="11.25" customHeight="1">
-      <c r="A21" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="B21" s="40" t="s">
-        <v>297</v>
-      </c>
-      <c r="C21" s="40" t="s">
-        <v>298</v>
-      </c>
-      <c r="D21" s="40" t="s">
-        <v>294</v>
-      </c>
-      <c r="E21" s="40" t="s">
+      <c r="N21" s="39" t="s">
         <v>296</v>
       </c>
-      <c r="F21" s="40" t="s">
-        <v>345</v>
-      </c>
-      <c r="G21" s="40" t="s">
-        <v>317</v>
-      </c>
-      <c r="H21" s="40" t="s">
-        <v>301</v>
-      </c>
-      <c r="I21" s="40" t="s">
-        <v>302</v>
-      </c>
-      <c r="J21" s="40" t="s">
-        <v>343</v>
-      </c>
-      <c r="K21" s="40" t="s">
-        <v>303</v>
-      </c>
-      <c r="L21" s="40" t="s">
-        <v>344</v>
-      </c>
-      <c r="M21" s="40" t="s">
-        <v>304</v>
-      </c>
-      <c r="N21" s="40" t="s">
-        <v>305</v>
-      </c>
-      <c r="O21" s="40" t="s">
-        <v>332</v>
-      </c>
-      <c r="P21" s="40" t="s">
-        <v>330</v>
+      <c r="O21" s="39" t="s">
+        <v>323</v>
+      </c>
+      <c r="P21" s="39" t="s">
+        <v>321</v>
       </c>
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
@@ -3647,22 +3624,22 @@
       <c r="AG21" s="1"/>
     </row>
     <row r="22" spans="1:33">
-      <c r="A22" s="40"/>
-      <c r="B22" s="40"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="40"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="40"/>
-      <c r="H22" s="40"/>
-      <c r="I22" s="40"/>
-      <c r="J22" s="40"/>
-      <c r="K22" s="40"/>
-      <c r="L22" s="40"/>
-      <c r="M22" s="40"/>
-      <c r="N22" s="40"/>
-      <c r="O22" s="40"/>
-      <c r="P22" s="40"/>
+      <c r="A22" s="39"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="39"/>
+      <c r="K22" s="39"/>
+      <c r="L22" s="39"/>
+      <c r="M22" s="39"/>
+      <c r="N22" s="39"/>
+      <c r="O22" s="39"/>
+      <c r="P22" s="39"/>
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
@@ -3682,22 +3659,22 @@
       <c r="AG22" s="1"/>
     </row>
     <row r="23" spans="1:33">
-      <c r="A23" s="40"/>
-      <c r="B23" s="40"/>
-      <c r="C23" s="40"/>
-      <c r="D23" s="40"/>
-      <c r="E23" s="40"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="40"/>
-      <c r="H23" s="40"/>
-      <c r="I23" s="40"/>
-      <c r="J23" s="40"/>
-      <c r="K23" s="40"/>
-      <c r="L23" s="40"/>
-      <c r="M23" s="40"/>
-      <c r="N23" s="40"/>
-      <c r="O23" s="40"/>
-      <c r="P23" s="40"/>
+      <c r="A23" s="39"/>
+      <c r="B23" s="39"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="39"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="39"/>
+      <c r="K23" s="39"/>
+      <c r="L23" s="39"/>
+      <c r="M23" s="39"/>
+      <c r="N23" s="39"/>
+      <c r="O23" s="39"/>
+      <c r="P23" s="39"/>
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
       <c r="S23" s="1"/>
@@ -3717,22 +3694,22 @@
       <c r="AG23" s="1"/>
     </row>
     <row r="24" spans="1:33">
-      <c r="A24" s="40"/>
-      <c r="B24" s="40"/>
-      <c r="C24" s="40"/>
-      <c r="D24" s="40"/>
-      <c r="E24" s="40"/>
-      <c r="F24" s="40"/>
-      <c r="G24" s="40"/>
-      <c r="H24" s="40"/>
-      <c r="I24" s="40"/>
-      <c r="J24" s="40"/>
-      <c r="K24" s="40"/>
-      <c r="L24" s="40"/>
-      <c r="M24" s="40"/>
-      <c r="N24" s="40"/>
-      <c r="O24" s="40"/>
-      <c r="P24" s="40"/>
+      <c r="A24" s="39"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="39"/>
+      <c r="K24" s="39"/>
+      <c r="L24" s="39"/>
+      <c r="M24" s="39"/>
+      <c r="N24" s="39"/>
+      <c r="O24" s="39"/>
+      <c r="P24" s="39"/>
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
       <c r="S24" s="1"/>
@@ -3752,22 +3729,22 @@
       <c r="AG24" s="1"/>
     </row>
     <row r="25" spans="1:33">
-      <c r="A25" s="40"/>
-      <c r="B25" s="40"/>
-      <c r="C25" s="40"/>
-      <c r="D25" s="40"/>
-      <c r="E25" s="40"/>
-      <c r="F25" s="40"/>
-      <c r="G25" s="40"/>
-      <c r="H25" s="40"/>
-      <c r="I25" s="40"/>
-      <c r="J25" s="40"/>
-      <c r="K25" s="40"/>
-      <c r="L25" s="40"/>
-      <c r="M25" s="40"/>
-      <c r="N25" s="40"/>
-      <c r="O25" s="40"/>
-      <c r="P25" s="40"/>
+      <c r="A25" s="39"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="39"/>
+      <c r="I25" s="39"/>
+      <c r="J25" s="39"/>
+      <c r="K25" s="39"/>
+      <c r="L25" s="39"/>
+      <c r="M25" s="39"/>
+      <c r="N25" s="39"/>
+      <c r="O25" s="39"/>
+      <c r="P25" s="39"/>
       <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
       <c r="S25" s="1"/>
@@ -3787,22 +3764,22 @@
       <c r="AG25" s="1"/>
     </row>
     <row r="26" spans="1:33">
-      <c r="A26" s="40"/>
-      <c r="B26" s="40"/>
-      <c r="C26" s="40"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="40"/>
-      <c r="F26" s="40"/>
-      <c r="G26" s="40"/>
-      <c r="H26" s="40"/>
-      <c r="I26" s="40"/>
-      <c r="J26" s="40"/>
-      <c r="K26" s="40"/>
-      <c r="L26" s="40"/>
-      <c r="M26" s="40"/>
-      <c r="N26" s="40"/>
-      <c r="O26" s="40"/>
-      <c r="P26" s="40"/>
+      <c r="A26" s="39"/>
+      <c r="B26" s="39"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="39"/>
+      <c r="G26" s="39"/>
+      <c r="H26" s="39"/>
+      <c r="I26" s="39"/>
+      <c r="J26" s="39"/>
+      <c r="K26" s="39"/>
+      <c r="L26" s="39"/>
+      <c r="M26" s="39"/>
+      <c r="N26" s="39"/>
+      <c r="O26" s="39"/>
+      <c r="P26" s="39"/>
       <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
       <c r="S26" s="1"/>
@@ -3822,22 +3799,22 @@
       <c r="AG26" s="1"/>
     </row>
     <row r="27" spans="1:33">
-      <c r="A27" s="40"/>
-      <c r="B27" s="40"/>
-      <c r="C27" s="40"/>
-      <c r="D27" s="40"/>
-      <c r="E27" s="40"/>
-      <c r="F27" s="40"/>
-      <c r="G27" s="40"/>
-      <c r="H27" s="40"/>
-      <c r="I27" s="40"/>
-      <c r="J27" s="40"/>
-      <c r="K27" s="40"/>
-      <c r="L27" s="40"/>
-      <c r="M27" s="40"/>
-      <c r="N27" s="40"/>
-      <c r="O27" s="40"/>
-      <c r="P27" s="40"/>
+      <c r="A27" s="39"/>
+      <c r="B27" s="39"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="39"/>
+      <c r="I27" s="39"/>
+      <c r="J27" s="39"/>
+      <c r="K27" s="39"/>
+      <c r="L27" s="39"/>
+      <c r="M27" s="39"/>
+      <c r="N27" s="39"/>
+      <c r="O27" s="39"/>
+      <c r="P27" s="39"/>
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
       <c r="S27" s="1"/>
@@ -3857,22 +3834,22 @@
       <c r="AG27" s="1"/>
     </row>
     <row r="28" spans="1:33">
-      <c r="A28" s="40"/>
-      <c r="B28" s="40"/>
-      <c r="C28" s="40"/>
-      <c r="D28" s="40"/>
-      <c r="E28" s="40"/>
-      <c r="F28" s="40"/>
-      <c r="G28" s="40"/>
-      <c r="H28" s="40"/>
-      <c r="I28" s="40"/>
-      <c r="J28" s="40"/>
-      <c r="K28" s="40"/>
-      <c r="L28" s="40"/>
-      <c r="M28" s="40"/>
-      <c r="N28" s="40"/>
-      <c r="O28" s="40"/>
-      <c r="P28" s="40"/>
+      <c r="A28" s="39"/>
+      <c r="B28" s="39"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="39"/>
+      <c r="H28" s="39"/>
+      <c r="I28" s="39"/>
+      <c r="J28" s="39"/>
+      <c r="K28" s="39"/>
+      <c r="L28" s="39"/>
+      <c r="M28" s="39"/>
+      <c r="N28" s="39"/>
+      <c r="O28" s="39"/>
+      <c r="P28" s="39"/>
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
       <c r="S28" s="1"/>
@@ -3892,84 +3869,67 @@
       <c r="AG28" s="1"/>
     </row>
     <row r="30" spans="1:33">
-      <c r="M30" s="46" t="s">
+      <c r="M30" s="47" t="s">
+        <v>297</v>
+      </c>
+      <c r="N30" s="47"/>
+    </row>
+    <row r="31" spans="1:33">
+      <c r="M31" s="47" t="s">
+        <v>298</v>
+      </c>
+      <c r="N31" s="47"/>
+    </row>
+    <row r="32" spans="1:33">
+      <c r="M32" s="47" t="s">
+        <v>299</v>
+      </c>
+      <c r="N32" s="47"/>
+    </row>
+    <row r="33" spans="13:14">
+      <c r="M33" s="47" t="s">
+        <v>300</v>
+      </c>
+      <c r="N33" s="47"/>
+    </row>
+    <row r="34" spans="13:14">
+      <c r="M34" s="47" t="s">
+        <v>301</v>
+      </c>
+      <c r="N34" s="47"/>
+    </row>
+    <row r="35" spans="13:14">
+      <c r="M35" s="47" t="s">
+        <v>302</v>
+      </c>
+      <c r="N35" s="47"/>
+    </row>
+    <row r="36" spans="13:14">
+      <c r="M36" s="47" t="s">
+        <v>303</v>
+      </c>
+      <c r="N36" s="47"/>
+    </row>
+    <row r="37" spans="13:14">
+      <c r="M37" s="47" t="s">
+        <v>304</v>
+      </c>
+      <c r="N37" s="47"/>
+    </row>
+    <row r="38" spans="13:14">
+      <c r="M38" s="47" t="s">
+        <v>305</v>
+      </c>
+      <c r="N38" s="47"/>
+    </row>
+    <row r="39" spans="13:14">
+      <c r="M39" s="47" t="s">
         <v>306</v>
       </c>
-      <c r="N30" s="46"/>
-    </row>
-    <row r="31" spans="1:33">
-      <c r="M31" s="46" t="s">
-        <v>307</v>
-      </c>
-      <c r="N31" s="46"/>
-    </row>
-    <row r="32" spans="1:33">
-      <c r="M32" s="46" t="s">
-        <v>308</v>
-      </c>
-      <c r="N32" s="46"/>
-    </row>
-    <row r="33" spans="13:14">
-      <c r="M33" s="46" t="s">
-        <v>309</v>
-      </c>
-      <c r="N33" s="46"/>
-    </row>
-    <row r="34" spans="13:14">
-      <c r="M34" s="46" t="s">
-        <v>310</v>
-      </c>
-      <c r="N34" s="46"/>
-    </row>
-    <row r="35" spans="13:14">
-      <c r="M35" s="46" t="s">
-        <v>311</v>
-      </c>
-      <c r="N35" s="46"/>
-    </row>
-    <row r="36" spans="13:14">
-      <c r="M36" s="46" t="s">
-        <v>312</v>
-      </c>
-      <c r="N36" s="46"/>
-    </row>
-    <row r="37" spans="13:14">
-      <c r="M37" s="46" t="s">
-        <v>313</v>
-      </c>
-      <c r="N37" s="46"/>
-    </row>
-    <row r="38" spans="13:14">
-      <c r="M38" s="46" t="s">
-        <v>314</v>
-      </c>
-      <c r="N38" s="46"/>
-    </row>
-    <row r="39" spans="13:14">
-      <c r="M39" s="46" t="s">
-        <v>315</v>
-      </c>
-      <c r="N39" s="46"/>
+      <c r="N39" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A21:A28"/>
-    <mergeCell ref="B21:B28"/>
-    <mergeCell ref="C21:C28"/>
-    <mergeCell ref="B18:F20"/>
-    <mergeCell ref="D21:D28"/>
     <mergeCell ref="G18:N20"/>
     <mergeCell ref="F21:F28"/>
     <mergeCell ref="O21:O28"/>
@@ -3983,6 +3943,23 @@
     <mergeCell ref="N21:N28"/>
     <mergeCell ref="G21:G28"/>
     <mergeCell ref="J21:J28"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A21:A28"/>
+    <mergeCell ref="B21:B28"/>
+    <mergeCell ref="C21:C28"/>
+    <mergeCell ref="B18:F20"/>
+    <mergeCell ref="D21:D28"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="M38:N38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -4023,21 +4000,21 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" ht="21">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="41"/>
+      <c r="B2" s="37"/>
       <c r="C2" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="21">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="41"/>
+      <c r="B3" s="37"/>
       <c r="C3" s="3" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -4051,7 +4028,7 @@
         <v>22</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>19</v>
@@ -4060,7 +4037,7 @@
         <v>17</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -4083,7 +4060,7 @@
         <v>20</v>
       </c>
       <c r="G7" s="26" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4106,7 +4083,7 @@
         <v>20</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -4114,7 +4091,7 @@
         <v>62</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>4</v>
@@ -4129,7 +4106,7 @@
         <v>20</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -4152,7 +4129,7 @@
         <v>20</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -4160,7 +4137,7 @@
         <v>62</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>4</v>
@@ -4175,7 +4152,7 @@
         <v>20</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -4198,7 +4175,7 @@
         <v>20</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -4221,7 +4198,7 @@
         <v>20</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -4244,7 +4221,7 @@
         <v>20</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -4267,7 +4244,7 @@
         <v>20</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -4275,13 +4252,13 @@
         <v>62</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="C16" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="E16" s="12" t="s">
         <v>2</v>
@@ -4290,7 +4267,7 @@
         <v>20</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -4304,97 +4281,97 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="12"/>
-      <c r="B18" s="42" t="s">
-        <v>325</v>
-      </c>
-      <c r="C18" s="42"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="42" t="s">
-        <v>328</v>
+      <c r="B18" s="38" t="s">
+        <v>316</v>
+      </c>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38" t="s">
+        <v>319</v>
       </c>
       <c r="F18" s="12"/>
       <c r="G18" s="12"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="B19" s="42"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="42"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="B20" s="42"/>
-      <c r="C20" s="42"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="42"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
     </row>
     <row r="21" spans="1:7" ht="11.25" customHeight="1">
-      <c r="A21" s="40" t="s">
+      <c r="A21" s="39" t="s">
         <v>139</v>
       </c>
-      <c r="B21" s="40" t="s">
+      <c r="B21" s="39" t="s">
         <v>137</v>
       </c>
-      <c r="C21" s="40" t="s">
-        <v>326</v>
-      </c>
-      <c r="D21" s="40" t="s">
-        <v>327</v>
-      </c>
-      <c r="E21" s="47" t="s">
-        <v>329</v>
-      </c>
-      <c r="F21" s="40" t="s">
-        <v>330</v>
-      </c>
-      <c r="G21" s="40" t="s">
-        <v>332</v>
+      <c r="C21" s="39" t="s">
+        <v>317</v>
+      </c>
+      <c r="D21" s="39" t="s">
+        <v>318</v>
+      </c>
+      <c r="E21" s="50" t="s">
+        <v>320</v>
+      </c>
+      <c r="F21" s="39" t="s">
+        <v>321</v>
+      </c>
+      <c r="G21" s="39" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="40"/>
-      <c r="B22" s="40"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="48"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="40"/>
+      <c r="A22" s="39"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="39"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="40"/>
-      <c r="B23" s="40"/>
-      <c r="C23" s="40"/>
-      <c r="D23" s="40"/>
-      <c r="E23" s="48"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="40"/>
+      <c r="A23" s="39"/>
+      <c r="B23" s="39"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="51"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="39"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="40"/>
-      <c r="B24" s="40"/>
-      <c r="C24" s="40"/>
-      <c r="D24" s="40"/>
-      <c r="E24" s="49"/>
-      <c r="F24" s="40"/>
-      <c r="G24" s="40"/>
+      <c r="A24" s="39"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="52"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="39"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="40"/>
-      <c r="B25" s="40"/>
-      <c r="C25" s="40"/>
-      <c r="D25" s="40"/>
-      <c r="F25" s="40"/>
-      <c r="G25" s="40"/>
+      <c r="A25" s="39"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="39"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="40"/>
-      <c r="B26" s="40"/>
-      <c r="C26" s="40"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="32" t="s">
+      <c r="A26" s="39"/>
+      <c r="B26" s="39"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="30" t="s">
         <v>135</v>
       </c>
-      <c r="F26" s="40"/>
-      <c r="G26" s="40"/>
+      <c r="F26" s="39"/>
+      <c r="G26" s="39"/>
     </row>
     <row r="27" spans="1:7" ht="101.25">
       <c r="E27" s="18" t="s">
@@ -4454,25 +4431,25 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:17" ht="21">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="41"/>
+      <c r="B2" s="37"/>
       <c r="C2" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="21">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="41"/>
+      <c r="B3" s="37"/>
       <c r="C3" s="3"/>
     </row>
     <row r="6" spans="1:17" s="13" customFormat="1" ht="21">
       <c r="A6" s="11"/>
-      <c r="B6" s="33" t="s">
-        <v>346</v>
+      <c r="B6" s="31" t="s">
+        <v>337</v>
       </c>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
@@ -4491,40 +4468,40 @@
       <c r="Q6" s="12"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="50"/>
-      <c r="B19" s="50"/>
-      <c r="C19" s="50"/>
-      <c r="D19" s="50"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="50"/>
-      <c r="G19" s="50"/>
+      <c r="A19" s="53"/>
+      <c r="B19" s="53"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="53"/>
+      <c r="G19" s="53"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="51"/>
-      <c r="B20" s="51"/>
-      <c r="C20" s="51"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="51"/>
-      <c r="F20" s="51"/>
-      <c r="G20" s="51"/>
+      <c r="A20" s="54"/>
+      <c r="B20" s="54"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="54"/>
+      <c r="G20" s="54"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="51"/>
-      <c r="B21" s="51"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="51"/>
-      <c r="E21" s="51"/>
-      <c r="F21" s="51"/>
-      <c r="G21" s="51"/>
+      <c r="A21" s="54"/>
+      <c r="B21" s="54"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="54"/>
+      <c r="F21" s="54"/>
+      <c r="G21" s="54"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="52"/>
-      <c r="B22" s="52"/>
-      <c r="C22" s="52"/>
-      <c r="D22" s="52"/>
-      <c r="E22" s="52"/>
-      <c r="F22" s="52"/>
-      <c r="G22" s="52"/>
+      <c r="A22" s="55"/>
+      <c r="B22" s="55"/>
+      <c r="C22" s="55"/>
+      <c r="D22" s="55"/>
+      <c r="E22" s="55"/>
+      <c r="F22" s="55"/>
+      <c r="G22" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -4550,8 +4527,8 @@
   </sheetPr>
   <dimension ref="A2:AE41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U4" workbookViewId="0">
-      <selection activeCell="V20" sqref="V20:Y22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F20" sqref="F20:AB22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -4566,64 +4543,61 @@
     <col min="8" max="8" width="23.28515625" style="2" customWidth="1"/>
     <col min="9" max="9" width="20.7109375" style="2" customWidth="1"/>
     <col min="10" max="10" width="17.7109375" style="2" customWidth="1"/>
-    <col min="11" max="11" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.7109375" style="2" customWidth="1"/>
-    <col min="13" max="13" width="22.85546875" style="2" customWidth="1"/>
-    <col min="14" max="14" width="21.42578125" style="2" customWidth="1"/>
-    <col min="15" max="15" width="20" style="1" customWidth="1"/>
+    <col min="11" max="11" width="22.85546875" style="2" customWidth="1"/>
+    <col min="12" max="12" width="21.42578125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="20" style="1" customWidth="1"/>
+    <col min="14" max="14" width="26.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="27" style="1" customWidth="1"/>
     <col min="16" max="16" width="24.85546875" style="2" customWidth="1"/>
     <col min="17" max="17" width="24" style="1" customWidth="1"/>
     <col min="18" max="18" width="25.85546875" style="2" customWidth="1"/>
-    <col min="19" max="19" width="22.42578125" style="1" customWidth="1"/>
-    <col min="20" max="20" width="22" style="1" customWidth="1"/>
-    <col min="21" max="21" width="23.7109375" style="1" customWidth="1"/>
-    <col min="22" max="22" width="31" style="1" customWidth="1"/>
-    <col min="23" max="23" width="35.28515625" style="1" customWidth="1"/>
-    <col min="24" max="24" width="38.42578125" style="1" customWidth="1"/>
-    <col min="25" max="25" width="26.7109375" style="1" customWidth="1"/>
-    <col min="26" max="26" width="47.28515625" style="1" customWidth="1"/>
-    <col min="27" max="27" width="27" style="1" customWidth="1"/>
-    <col min="28" max="28" width="29.5703125" style="1" customWidth="1"/>
-    <col min="29" max="29" width="28.85546875" style="1" customWidth="1"/>
-    <col min="30" max="30" width="32.28515625" style="1" customWidth="1"/>
-    <col min="31" max="31" width="21.42578125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="29.5703125" style="1" customWidth="1"/>
+    <col min="20" max="20" width="28.85546875" style="1" customWidth="1"/>
+    <col min="21" max="21" width="32.28515625" style="1" customWidth="1"/>
+    <col min="22" max="22" width="22.42578125" style="1" customWidth="1"/>
+    <col min="23" max="23" width="22" style="1" customWidth="1"/>
+    <col min="24" max="24" width="23.7109375" style="1" customWidth="1"/>
+    <col min="25" max="25" width="31" style="1" customWidth="1"/>
+    <col min="26" max="26" width="35.28515625" style="1" customWidth="1"/>
+    <col min="27" max="27" width="38.42578125" style="1" customWidth="1"/>
+    <col min="28" max="28" width="27" style="1" customWidth="1"/>
+    <col min="29" max="29" width="27.7109375" style="1" customWidth="1"/>
+    <col min="30" max="30" width="49.28515625" style="2" customWidth="1"/>
+    <col min="31" max="31" width="46.140625" style="2" customWidth="1"/>
     <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:31" ht="21">
-      <c r="A2" s="30" t="s">
+      <c r="B2" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="30"/>
       <c r="C2" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:31" ht="21">
-      <c r="A3" s="30" t="s">
+      <c r="B3" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="30"/>
       <c r="C3" s="3" t="s">
-        <v>174</v>
+        <v>439</v>
       </c>
     </row>
     <row r="4" spans="1:31" ht="21">
-      <c r="A4" s="31" t="s">
+      <c r="B4" s="84" t="s">
         <v>147</v>
       </c>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
       <c r="F4" s="1"/>
-      <c r="H4" s="31"/>
+      <c r="H4" s="33"/>
       <c r="P4" s="19"/>
-      <c r="AB4" s="2"/>
+      <c r="S4" s="2"/>
     </row>
     <row r="5" spans="1:31">
-      <c r="V5" s="2" t="s">
-        <v>349</v>
+      <c r="Y5" s="2" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="7" spans="1:31" s="13" customFormat="1">
@@ -4637,7 +4611,7 @@
         <v>39</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="E7" s="14" t="s">
         <v>59</v>
@@ -4658,19 +4632,19 @@
         <v>41</v>
       </c>
       <c r="K7" s="14" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L7" s="14" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="M7" s="14" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="N7" s="14" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="O7" s="14" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="P7" s="14" t="s">
         <v>53</v>
@@ -4682,43 +4656,43 @@
         <v>54</v>
       </c>
       <c r="S7" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="T7" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="U7" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="V7" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="T7" s="14" t="s">
-        <v>347</v>
-      </c>
-      <c r="U7" s="14" t="s">
+      <c r="W7" s="14" t="s">
+        <v>338</v>
+      </c>
+      <c r="X7" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="V7" s="14" t="s">
+      <c r="Y7" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="W7" s="14" t="s">
+      <c r="Z7" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="X7" s="14" t="s">
+      <c r="AA7" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="Y7" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z7" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="AA7" s="14" t="s">
+      <c r="AB7" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="AB7" s="14" t="s">
-        <v>17</v>
-      </c>
       <c r="AC7" s="14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AD7" s="14" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="AE7" s="14" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:31">
@@ -4732,7 +4706,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="E8" s="16" t="s">
         <v>9</v>
@@ -4740,67 +4714,67 @@
       <c r="F8" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="G8" s="81" t="s">
+      <c r="G8" s="34" t="s">
         <v>0</v>
       </c>
       <c r="H8" s="29" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="I8" s="29" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="J8" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="K8" s="29" t="s">
-        <v>352</v>
-      </c>
-      <c r="L8" s="29" t="s">
-        <v>353</v>
-      </c>
-      <c r="M8" s="81" t="s">
-        <v>354</v>
-      </c>
-      <c r="N8" s="81" t="s">
-        <v>355</v>
-      </c>
-      <c r="O8" s="81" t="s">
-        <v>355</v>
-      </c>
-      <c r="P8" s="81" t="s">
-        <v>356</v>
-      </c>
-      <c r="Q8" s="81" t="s">
-        <v>356</v>
-      </c>
-      <c r="R8" s="81" t="s">
+      <c r="K8" s="34" t="s">
+        <v>345</v>
+      </c>
+      <c r="L8" s="34" t="s">
+        <v>346</v>
+      </c>
+      <c r="M8" s="34" t="s">
+        <v>346</v>
+      </c>
+      <c r="N8" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="S8" s="81" t="s">
+      <c r="O8" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="P8" s="34" t="s">
+        <v>347</v>
+      </c>
+      <c r="Q8" s="34" t="s">
+        <v>347</v>
+      </c>
+      <c r="R8" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="T8" s="29" t="s">
-        <v>358</v>
-      </c>
-      <c r="U8" s="81" t="s">
+      <c r="S8" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="T8" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="U8" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="V8" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="W8" s="29" t="s">
+        <v>349</v>
+      </c>
+      <c r="X8" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="V8" s="16" t="s">
-        <v>357</v>
-      </c>
-      <c r="W8" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="X8" s="23" t="s">
-        <v>9</v>
-      </c>
       <c r="Y8" s="16" t="s">
-        <v>64</v>
+        <v>348</v>
       </c>
       <c r="Z8" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA8" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA8" s="23" t="s">
         <v>9</v>
       </c>
       <c r="AB8" s="16" t="s">
@@ -4809,11 +4783,11 @@
       <c r="AC8" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="AD8" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="AE8" s="16" t="s">
-        <v>9</v>
+      <c r="AD8" s="29" t="s">
+        <v>343</v>
+      </c>
+      <c r="AE8" s="29" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="9" spans="1:31">
@@ -4827,88 +4801,88 @@
         <v>1</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>424</v>
+        <v>351</v>
       </c>
       <c r="E9" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="29" t="s">
-        <v>99</v>
-      </c>
-      <c r="G9" s="81" t="s">
-        <v>426</v>
-      </c>
-      <c r="H9" s="29" t="s">
-        <v>425</v>
-      </c>
-      <c r="I9" s="29" t="s">
-        <v>348</v>
-      </c>
-      <c r="J9" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="K9" s="29" t="s">
-        <v>427</v>
-      </c>
-      <c r="L9" s="29" t="s">
+      <c r="F9" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>353</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K9" s="16" t="s">
+        <v>357</v>
+      </c>
+      <c r="L9" s="16" t="s">
+        <v>346</v>
+      </c>
+      <c r="M9" s="16" t="s">
+        <v>346</v>
+      </c>
+      <c r="N9" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="O9" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="M9" s="81" t="s">
+      <c r="P9" s="16" t="s">
+        <v>357</v>
+      </c>
+      <c r="Q9" s="16" t="s">
+        <v>357</v>
+      </c>
+      <c r="R9" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="S9" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="T9" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="U9" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="V9" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="W9" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="X9" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y9" s="16" t="s">
+        <v>350</v>
+      </c>
+      <c r="Z9" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA9" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB9" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC9" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD9" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="N9" s="81" t="s">
-        <v>428</v>
-      </c>
-      <c r="O9" s="81" t="s">
-        <v>65</v>
-      </c>
-      <c r="P9" s="81" t="s">
-        <v>429</v>
-      </c>
-      <c r="Q9" s="81" t="s">
-        <v>429</v>
-      </c>
-      <c r="R9" s="81" t="s">
-        <v>64</v>
-      </c>
-      <c r="S9" s="81" t="s">
-        <v>64</v>
-      </c>
-      <c r="T9" s="29" t="s">
-        <v>358</v>
-      </c>
-      <c r="U9" s="81" t="s">
-        <v>65</v>
-      </c>
-      <c r="V9" s="87" t="s">
-        <v>357</v>
-      </c>
-      <c r="W9" s="81" t="s">
-        <v>430</v>
-      </c>
-      <c r="X9" s="81" t="s">
-        <v>430</v>
-      </c>
-      <c r="Y9" s="81" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z9" s="81" t="s">
-        <v>3</v>
-      </c>
-      <c r="AA9" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB9" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC9" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD9" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="AE9" s="16" t="s">
-        <v>9</v>
+      <c r="AE9" s="2" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="10" spans="1:31">
@@ -4922,183 +4896,183 @@
         <v>1</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>431</v>
+        <v>358</v>
       </c>
       <c r="E10" s="16" t="s">
         <v>9</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>99</v>
+        <v>66</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>433</v>
+        <v>360</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>432</v>
+        <v>359</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>348</v>
+        <v>162</v>
       </c>
       <c r="J10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K10" s="16" t="s">
+        <v>362</v>
+      </c>
+      <c r="L10" s="16" t="s">
+        <v>363</v>
+      </c>
+      <c r="M10" s="16" t="s">
+        <v>363</v>
+      </c>
+      <c r="N10" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="O10" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="K10" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="M10" s="16" t="s">
-        <v>354</v>
-      </c>
-      <c r="N10" s="16" t="s">
-        <v>428</v>
-      </c>
-      <c r="O10" s="16" t="s">
-        <v>65</v>
-      </c>
       <c r="P10" s="16" t="s">
-        <v>435</v>
+        <v>364</v>
       </c>
       <c r="Q10" s="16" t="s">
-        <v>435</v>
+        <v>364</v>
       </c>
       <c r="R10" s="16" t="s">
         <v>64</v>
       </c>
       <c r="S10" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="T10" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="U10" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="V10" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="T10" s="2" t="s">
+      <c r="W10" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="X10" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y10" s="16" t="s">
+        <v>350</v>
+      </c>
+      <c r="Z10" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA10" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB10" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC10" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD10" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="AE10" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" s="13" customFormat="1">
+      <c r="A11" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="23" t="s">
         <v>358</v>
       </c>
-      <c r="U10" s="16" t="s">
+      <c r="E11" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="G11" s="23" t="s">
+        <v>366</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="K11" s="23" t="s">
+        <v>362</v>
+      </c>
+      <c r="L11" s="23" t="s">
+        <v>363</v>
+      </c>
+      <c r="M11" s="23" t="s">
+        <v>363</v>
+      </c>
+      <c r="N11" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="O11" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="P11" s="23" t="s">
+        <v>364</v>
+      </c>
+      <c r="Q11" s="23" t="s">
+        <v>364</v>
+      </c>
+      <c r="R11" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="S11" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="T11" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="U11" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="V11" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="W11" s="12" t="s">
+        <v>349</v>
+      </c>
+      <c r="X11" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="V10" s="16" t="s">
-        <v>357</v>
-      </c>
-      <c r="W10" s="16" t="s">
-        <v>436</v>
-      </c>
-      <c r="X10" s="23" t="s">
-        <v>436</v>
-      </c>
-      <c r="Y10" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z10" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="AA10" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB10" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC10" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD10" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="AE10" s="16" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:31">
-      <c r="A11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>360</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G11" s="16" t="s">
-        <v>362</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="M11" s="16" t="s">
-        <v>366</v>
-      </c>
-      <c r="N11" s="16" t="s">
-        <v>355</v>
-      </c>
-      <c r="O11" s="16" t="s">
-        <v>355</v>
-      </c>
-      <c r="P11" s="16" t="s">
-        <v>366</v>
-      </c>
-      <c r="Q11" s="16" t="s">
-        <v>366</v>
-      </c>
-      <c r="R11" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="S11" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="T11" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="U11" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="V11" s="16" t="s">
-        <v>359</v>
-      </c>
-      <c r="W11" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="X11" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y11" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z11" s="16" t="s">
+      <c r="Y11" s="23" t="s">
+        <v>350</v>
+      </c>
+      <c r="Z11" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA11" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB11" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC11" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD11" s="12" t="s">
+        <v>367</v>
+      </c>
+      <c r="AE11" s="12" t="s">
         <v>0</v>
-      </c>
-      <c r="AA11" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB11" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC11" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD11" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="AE11" s="16" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:31">
@@ -5112,7 +5086,7 @@
         <v>1</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="E12" s="16" t="s">
         <v>9</v>
@@ -5127,25 +5101,25 @@
         <v>368</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>167</v>
+        <v>371</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K12" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="L12" s="2" t="s">
+      <c r="K12" s="16" t="s">
+        <v>362</v>
+      </c>
+      <c r="L12" s="16" t="s">
+        <v>372</v>
+      </c>
+      <c r="M12" s="16" t="s">
+        <v>372</v>
+      </c>
+      <c r="N12" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="O12" s="16" t="s">
         <v>0</v>
-      </c>
-      <c r="M12" s="16" t="s">
-        <v>371</v>
-      </c>
-      <c r="N12" s="16" t="s">
-        <v>372</v>
-      </c>
-      <c r="O12" s="16" t="s">
-        <v>372</v>
       </c>
       <c r="P12" s="16" t="s">
         <v>373</v>
@@ -5157,138 +5131,138 @@
         <v>64</v>
       </c>
       <c r="S12" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="T12" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="U12" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="V12" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="T12" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="U12" s="16" t="s">
+      <c r="W12" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="X12" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="V12" s="16" t="s">
-        <v>359</v>
-      </c>
-      <c r="W12" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="X12" s="23" t="s">
-        <v>9</v>
-      </c>
       <c r="Y12" s="16" t="s">
+        <v>350</v>
+      </c>
+      <c r="Z12" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA12" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB12" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC12" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD12" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="AE12" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31">
+      <c r="A13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>374</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K13" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="L13" s="16" t="s">
+        <v>378</v>
+      </c>
+      <c r="M13" s="16" t="s">
+        <v>378</v>
+      </c>
+      <c r="N13" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="Z12" s="16" t="s">
+      <c r="O13" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="AA12" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB12" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC12" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD12" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="AE12" s="16" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:31" s="13" customFormat="1">
-      <c r="A13" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" s="23" t="s">
-        <v>367</v>
-      </c>
-      <c r="E13" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="G13" s="23" t="s">
-        <v>375</v>
-      </c>
-      <c r="H13" s="12" t="s">
-        <v>374</v>
-      </c>
-      <c r="I13" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="J13" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="K13" s="12" t="s">
+      <c r="P13" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q13" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="R13" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="S13" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="T13" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="U13" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="V13" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="W13" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="X13" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y13" s="16" t="s">
+        <v>379</v>
+      </c>
+      <c r="Z13" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA13" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB13" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC13" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD13" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="L13" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="M13" s="23" t="s">
-        <v>371</v>
-      </c>
-      <c r="N13" s="23" t="s">
-        <v>372</v>
-      </c>
-      <c r="O13" s="23" t="s">
-        <v>372</v>
-      </c>
-      <c r="P13" s="23" t="s">
-        <v>373</v>
-      </c>
-      <c r="Q13" s="23" t="s">
-        <v>373</v>
-      </c>
-      <c r="R13" s="23" t="s">
+      <c r="AE13" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="S13" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="T13" s="12" t="s">
-        <v>358</v>
-      </c>
-      <c r="U13" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="V13" s="23" t="s">
-        <v>359</v>
-      </c>
-      <c r="W13" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="X13" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y13" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z13" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA13" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB13" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC13" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD13" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="AE13" s="23" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:31">
@@ -5302,7 +5276,7 @@
         <v>1</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>367</v>
+        <v>380</v>
       </c>
       <c r="E14" s="16" t="s">
         <v>9</v>
@@ -5311,79 +5285,79 @@
         <v>66</v>
       </c>
       <c r="G14" s="16" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>380</v>
+        <v>162</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="L14" s="2" t="s">
+      <c r="K14" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="L14" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="M14" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="N14" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="O14" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="M14" s="16" t="s">
-        <v>371</v>
-      </c>
-      <c r="N14" s="16" t="s">
-        <v>381</v>
-      </c>
-      <c r="O14" s="16" t="s">
-        <v>381</v>
-      </c>
       <c r="P14" s="16" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="Q14" s="16" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="R14" s="16" t="s">
         <v>64</v>
       </c>
       <c r="S14" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="T14" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="U14" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="V14" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="T14" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="U14" s="16" t="s">
+      <c r="W14" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="X14" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="V14" s="16" t="s">
-        <v>359</v>
-      </c>
-      <c r="W14" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="X14" s="23" t="s">
-        <v>9</v>
-      </c>
       <c r="Y14" s="16" t="s">
-        <v>64</v>
+        <v>350</v>
       </c>
       <c r="Z14" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA14" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB14" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC14" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD14" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="AE14" s="2" t="s">
         <v>0</v>
-      </c>
-      <c r="AA14" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB14" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC14" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD14" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="AE14" s="16" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:31">
@@ -5397,7 +5371,7 @@
         <v>1</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="E15" s="16" t="s">
         <v>9</v>
@@ -5406,79 +5380,79 @@
         <v>66</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>6</v>
+        <v>389</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>386</v>
+        <v>162</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K15" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="L15" s="2" t="s">
+      <c r="K15" s="16" t="s">
+        <v>391</v>
+      </c>
+      <c r="L15" s="16" t="s">
+        <v>363</v>
+      </c>
+      <c r="M15" s="16" t="s">
+        <v>363</v>
+      </c>
+      <c r="N15" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="M15" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="N15" s="16" t="s">
-        <v>387</v>
-      </c>
       <c r="O15" s="16" t="s">
-        <v>387</v>
+        <v>0</v>
       </c>
       <c r="P15" s="16" t="s">
-        <v>68</v>
+        <v>181</v>
       </c>
       <c r="Q15" s="16" t="s">
-        <v>68</v>
+        <v>181</v>
       </c>
       <c r="R15" s="16" t="s">
         <v>64</v>
       </c>
       <c r="S15" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="T15" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="U15" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="V15" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="T15" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="U15" s="16" t="s">
+      <c r="W15" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="X15" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="V15" s="16" t="s">
-        <v>388</v>
-      </c>
-      <c r="W15" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="X15" s="23" t="s">
-        <v>9</v>
-      </c>
       <c r="Y15" s="16" t="s">
-        <v>64</v>
+        <v>350</v>
       </c>
       <c r="Z15" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA15" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB15" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC15" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD15" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="AE15" s="2" t="s">
         <v>0</v>
-      </c>
-      <c r="AA15" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB15" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC15" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD15" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="AE15" s="16" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:31">
@@ -5492,88 +5466,88 @@
         <v>1</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>389</v>
+        <v>413</v>
       </c>
       <c r="E16" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="F16" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G16" s="16" t="s">
-        <v>391</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="J16" s="2" t="s">
+      <c r="F16" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="G16" s="34" t="s">
+        <v>415</v>
+      </c>
+      <c r="H16" s="29" t="s">
+        <v>414</v>
+      </c>
+      <c r="I16" s="29" t="s">
+        <v>339</v>
+      </c>
+      <c r="J16" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="K16" s="34" t="s">
+        <v>345</v>
+      </c>
+      <c r="L16" s="34" t="s">
+        <v>417</v>
+      </c>
+      <c r="M16" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="N16" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="O16" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="K16" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="L16" s="2" t="s">
+      <c r="P16" s="34" t="s">
+        <v>418</v>
+      </c>
+      <c r="Q16" s="34" t="s">
+        <v>418</v>
+      </c>
+      <c r="R16" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="S16" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="T16" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="U16" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="V16" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="W16" s="29" t="s">
+        <v>349</v>
+      </c>
+      <c r="X16" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y16" s="34" t="s">
+        <v>348</v>
+      </c>
+      <c r="Z16" s="34" t="s">
+        <v>419</v>
+      </c>
+      <c r="AA16" s="34" t="s">
+        <v>419</v>
+      </c>
+      <c r="AB16" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC16" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD16" s="29" t="s">
+        <v>416</v>
+      </c>
+      <c r="AE16" s="29" t="s">
         <v>0</v>
-      </c>
-      <c r="M16" s="16" t="s">
-        <v>393</v>
-      </c>
-      <c r="N16" s="16" t="s">
-        <v>394</v>
-      </c>
-      <c r="O16" s="16" t="s">
-        <v>394</v>
-      </c>
-      <c r="P16" s="16" t="s">
-        <v>395</v>
-      </c>
-      <c r="Q16" s="16" t="s">
-        <v>395</v>
-      </c>
-      <c r="R16" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="S16" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="T16" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="U16" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="V16" s="16" t="s">
-        <v>359</v>
-      </c>
-      <c r="W16" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="X16" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y16" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z16" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA16" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB16" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC16" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD16" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="AE16" s="16" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:31">
@@ -5587,88 +5561,88 @@
         <v>1</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>396</v>
+        <v>420</v>
       </c>
       <c r="E17" s="16" t="s">
         <v>9</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>66</v>
+        <v>99</v>
       </c>
       <c r="G17" s="16" t="s">
-        <v>398</v>
+        <v>422</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>397</v>
+        <v>421</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>167</v>
+        <v>339</v>
       </c>
       <c r="J17" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K17" s="16" t="s">
+        <v>345</v>
+      </c>
+      <c r="L17" s="16" t="s">
+        <v>417</v>
+      </c>
+      <c r="M17" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="N17" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="O17" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="K17" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="L17" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="M17" s="16" t="s">
-        <v>400</v>
-      </c>
-      <c r="N17" s="16" t="s">
-        <v>372</v>
-      </c>
-      <c r="O17" s="16" t="s">
-        <v>372</v>
-      </c>
       <c r="P17" s="16" t="s">
-        <v>188</v>
+        <v>424</v>
       </c>
       <c r="Q17" s="16" t="s">
-        <v>188</v>
+        <v>424</v>
       </c>
       <c r="R17" s="16" t="s">
         <v>64</v>
       </c>
       <c r="S17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="T17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="U17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="V17" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="T17" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="U17" s="16" t="s">
+      <c r="W17" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="X17" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="V17" s="16" t="s">
-        <v>359</v>
-      </c>
-      <c r="W17" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="X17" s="23" t="s">
-        <v>9</v>
-      </c>
       <c r="Y17" s="16" t="s">
-        <v>64</v>
+        <v>348</v>
       </c>
       <c r="Z17" s="16" t="s">
+        <v>425</v>
+      </c>
+      <c r="AA17" s="23" t="s">
+        <v>425</v>
+      </c>
+      <c r="AB17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD17" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="AE17" s="2" t="s">
         <v>0</v>
-      </c>
-      <c r="AA17" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB17" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC17" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD17" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="AE17" s="16" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:31">
@@ -5679,10 +5653,10 @@
       <c r="Q18" s="2"/>
       <c r="R18" s="1"/>
       <c r="S18" s="2"/>
-      <c r="W18" s="2"/>
-      <c r="AB18" s="2"/>
-      <c r="AC18" s="2"/>
-      <c r="AD18" s="2"/>
+      <c r="T18" s="2"/>
+      <c r="U18" s="2"/>
+      <c r="V18" s="2"/>
+      <c r="Z18" s="2"/>
     </row>
     <row r="19" spans="1:31">
       <c r="D19" s="1"/>
@@ -5692,375 +5666,367 @@
       <c r="Q19" s="2"/>
       <c r="R19" s="1"/>
       <c r="S19" s="2"/>
-      <c r="W19" s="2"/>
-      <c r="AB19" s="2"/>
-      <c r="AC19" s="2"/>
-      <c r="AD19" s="2"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="2"/>
+      <c r="Z19" s="2"/>
     </row>
     <row r="20" spans="1:31" ht="11.25" customHeight="1">
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
-      <c r="F20" s="44" t="s">
-        <v>401</v>
-      </c>
-      <c r="G20" s="44"/>
-      <c r="H20" s="44"/>
-      <c r="I20" s="44"/>
-      <c r="J20" s="44"/>
-      <c r="K20" s="44"/>
-      <c r="L20" s="44"/>
-      <c r="M20" s="44"/>
-      <c r="N20" s="44"/>
-      <c r="O20" s="44"/>
-      <c r="P20" s="44"/>
-      <c r="Q20" s="44"/>
-      <c r="R20" s="44"/>
-      <c r="S20" s="44"/>
-      <c r="T20" s="44"/>
-      <c r="U20" s="44"/>
-      <c r="V20" s="53" t="s">
-        <v>440</v>
-      </c>
-      <c r="W20" s="54"/>
-      <c r="X20" s="54"/>
-      <c r="Y20" s="55"/>
-      <c r="Z20" s="84" t="s">
-        <v>441</v>
-      </c>
-      <c r="AA20" s="45" t="s">
-        <v>160</v>
-      </c>
-      <c r="AB20" s="45" t="s">
-        <v>300</v>
-      </c>
-      <c r="AC20" s="64"/>
-      <c r="AD20" s="45" t="s">
-        <v>299</v>
-      </c>
-      <c r="AE20" s="45" t="s">
-        <v>170</v>
-      </c>
+      <c r="F20" s="56" t="s">
+        <v>429</v>
+      </c>
+      <c r="G20" s="57"/>
+      <c r="H20" s="57"/>
+      <c r="I20" s="57"/>
+      <c r="J20" s="57"/>
+      <c r="K20" s="57"/>
+      <c r="L20" s="57"/>
+      <c r="M20" s="57"/>
+      <c r="N20" s="57"/>
+      <c r="O20" s="57"/>
+      <c r="P20" s="57"/>
+      <c r="Q20" s="57"/>
+      <c r="R20" s="57"/>
+      <c r="S20" s="57"/>
+      <c r="T20" s="57"/>
+      <c r="U20" s="57"/>
+      <c r="V20" s="57"/>
+      <c r="W20" s="57"/>
+      <c r="X20" s="57"/>
+      <c r="Y20" s="57"/>
+      <c r="Z20" s="57"/>
+      <c r="AA20" s="57"/>
+      <c r="AB20" s="58"/>
+      <c r="AC20" s="48" t="s">
+        <v>438</v>
+      </c>
+      <c r="AD20" s="41" t="s">
+        <v>392</v>
+      </c>
+      <c r="AE20" s="42"/>
     </row>
     <row r="21" spans="1:31" ht="11.25" customHeight="1">
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="44"/>
-      <c r="H21" s="44"/>
-      <c r="I21" s="44"/>
-      <c r="J21" s="44"/>
-      <c r="K21" s="44"/>
-      <c r="L21" s="44"/>
-      <c r="M21" s="44"/>
-      <c r="N21" s="44"/>
-      <c r="O21" s="44"/>
-      <c r="P21" s="44"/>
-      <c r="Q21" s="44"/>
-      <c r="R21" s="44"/>
-      <c r="S21" s="44"/>
-      <c r="T21" s="44"/>
-      <c r="U21" s="44"/>
-      <c r="V21" s="56"/>
-      <c r="W21" s="57"/>
-      <c r="X21" s="57"/>
-      <c r="Y21" s="58"/>
-      <c r="Z21" s="85"/>
-      <c r="AA21" s="45"/>
-      <c r="AB21" s="64"/>
-      <c r="AC21" s="64"/>
-      <c r="AD21" s="45"/>
-      <c r="AE21" s="45"/>
+      <c r="F21" s="59"/>
+      <c r="G21" s="60"/>
+      <c r="H21" s="60"/>
+      <c r="I21" s="60"/>
+      <c r="J21" s="60"/>
+      <c r="K21" s="60"/>
+      <c r="L21" s="60"/>
+      <c r="M21" s="60"/>
+      <c r="N21" s="60"/>
+      <c r="O21" s="60"/>
+      <c r="P21" s="60"/>
+      <c r="Q21" s="60"/>
+      <c r="R21" s="60"/>
+      <c r="S21" s="60"/>
+      <c r="T21" s="60"/>
+      <c r="U21" s="60"/>
+      <c r="V21" s="60"/>
+      <c r="W21" s="60"/>
+      <c r="X21" s="60"/>
+      <c r="Y21" s="60"/>
+      <c r="Z21" s="60"/>
+      <c r="AA21" s="60"/>
+      <c r="AB21" s="61"/>
+      <c r="AC21" s="48"/>
+      <c r="AD21" s="43"/>
+      <c r="AE21" s="44"/>
     </row>
     <row r="22" spans="1:31" ht="11.25" customHeight="1">
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="44"/>
-      <c r="H22" s="44"/>
-      <c r="I22" s="44"/>
-      <c r="J22" s="44"/>
-      <c r="K22" s="44"/>
-      <c r="L22" s="44"/>
-      <c r="M22" s="44"/>
-      <c r="N22" s="44"/>
-      <c r="O22" s="44"/>
-      <c r="P22" s="44"/>
-      <c r="Q22" s="44"/>
-      <c r="R22" s="44"/>
-      <c r="S22" s="44"/>
-      <c r="T22" s="44"/>
-      <c r="U22" s="44"/>
-      <c r="V22" s="59"/>
-      <c r="W22" s="60"/>
-      <c r="X22" s="60"/>
-      <c r="Y22" s="61"/>
-      <c r="Z22" s="86"/>
-      <c r="AA22" s="45"/>
+      <c r="F22" s="62"/>
+      <c r="G22" s="63"/>
+      <c r="H22" s="63"/>
+      <c r="I22" s="63"/>
+      <c r="J22" s="63"/>
+      <c r="K22" s="63"/>
+      <c r="L22" s="63"/>
+      <c r="M22" s="63"/>
+      <c r="N22" s="63"/>
+      <c r="O22" s="63"/>
+      <c r="P22" s="63"/>
+      <c r="Q22" s="63"/>
+      <c r="R22" s="63"/>
+      <c r="S22" s="63"/>
+      <c r="T22" s="63"/>
+      <c r="U22" s="63"/>
+      <c r="V22" s="63"/>
+      <c r="W22" s="63"/>
+      <c r="X22" s="63"/>
+      <c r="Y22" s="63"/>
+      <c r="Z22" s="63"/>
+      <c r="AA22" s="63"/>
       <c r="AB22" s="64"/>
-      <c r="AC22" s="64"/>
+      <c r="AC22" s="48"/>
       <c r="AD22" s="45"/>
-      <c r="AE22" s="45"/>
+      <c r="AE22" s="46"/>
     </row>
     <row r="23" spans="1:31" ht="11.25" customHeight="1">
-      <c r="A23" s="40" t="s">
+      <c r="A23" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="B23" s="40" t="s">
+      <c r="B23" s="39" t="s">
         <v>139</v>
       </c>
-      <c r="C23" s="40" t="s">
-        <v>173</v>
-      </c>
-      <c r="D23" s="40" t="s">
+      <c r="C23" s="39" t="s">
+        <v>167</v>
+      </c>
+      <c r="D23" s="39" t="s">
         <v>153</v>
       </c>
-      <c r="E23" s="40" t="s">
-        <v>172</v>
-      </c>
-      <c r="F23" s="40" t="s">
+      <c r="E23" s="39" t="s">
+        <v>166</v>
+      </c>
+      <c r="F23" s="39" t="s">
         <v>138</v>
       </c>
-      <c r="G23" s="40" t="s">
+      <c r="G23" s="39" t="s">
         <v>152</v>
       </c>
-      <c r="H23" s="40" t="s">
+      <c r="H23" s="39" t="s">
         <v>137</v>
       </c>
-      <c r="I23" s="40" t="s">
-        <v>402</v>
-      </c>
-      <c r="J23" s="50" t="s">
+      <c r="I23" s="39" t="s">
+        <v>393</v>
+      </c>
+      <c r="J23" s="53" t="s">
         <v>140</v>
       </c>
-      <c r="K23" s="40" t="s">
+      <c r="K23" s="39" t="s">
+        <v>144</v>
+      </c>
+      <c r="L23" s="39" t="s">
+        <v>427</v>
+      </c>
+      <c r="M23" s="39" t="s">
+        <v>428</v>
+      </c>
+      <c r="N23" s="39" t="s">
+        <v>430</v>
+      </c>
+      <c r="O23" s="53" t="s">
+        <v>433</v>
+      </c>
+      <c r="P23" s="39" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q23" s="39" t="s">
+        <v>145</v>
+      </c>
+      <c r="R23" s="39" t="s">
+        <v>150</v>
+      </c>
+      <c r="S23" s="39" t="s">
+        <v>434</v>
+      </c>
+      <c r="T23" s="39" t="s">
+        <v>435</v>
+      </c>
+      <c r="U23" s="39" t="s">
+        <v>436</v>
+      </c>
+      <c r="V23" s="39" t="s">
+        <v>146</v>
+      </c>
+      <c r="W23" s="39" t="s">
+        <v>412</v>
+      </c>
+      <c r="X23" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y23" s="53" t="s">
+        <v>426</v>
+      </c>
+      <c r="Z23" s="39" t="s">
+        <v>431</v>
+      </c>
+      <c r="AA23" s="65" t="s">
+        <v>432</v>
+      </c>
+      <c r="AB23" s="72" t="s">
+        <v>437</v>
+      </c>
+      <c r="AC23" s="85" t="s">
+        <v>165</v>
+      </c>
+      <c r="AD23" s="39" t="s">
         <v>142</v>
       </c>
-      <c r="L23" s="40" t="s">
+      <c r="AE23" s="39" t="s">
         <v>143</v>
       </c>
-      <c r="M23" s="40" t="s">
-        <v>144</v>
-      </c>
-      <c r="N23" s="40" t="s">
-        <v>421</v>
-      </c>
-      <c r="O23" s="40" t="s">
-        <v>422</v>
-      </c>
-      <c r="P23" s="40" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q23" s="40" t="s">
-        <v>145</v>
-      </c>
-      <c r="R23" s="40" t="s">
-        <v>150</v>
-      </c>
-      <c r="S23" s="40" t="s">
-        <v>146</v>
-      </c>
-      <c r="T23" s="40" t="s">
-        <v>423</v>
-      </c>
-      <c r="U23" s="40" t="s">
-        <v>151</v>
-      </c>
-      <c r="V23" s="50" t="s">
-        <v>443</v>
-      </c>
-      <c r="W23" s="40" t="s">
-        <v>437</v>
-      </c>
-      <c r="X23" s="40" t="s">
-        <v>438</v>
-      </c>
-      <c r="Y23" s="40" t="s">
-        <v>439</v>
-      </c>
-      <c r="Z23" s="50" t="s">
-        <v>442</v>
-      </c>
-      <c r="AA23" s="88" t="s">
-        <v>161</v>
-      </c>
-      <c r="AB23" s="40" t="s">
-        <v>162</v>
-      </c>
-      <c r="AC23" s="40" t="s">
-        <v>163</v>
-      </c>
-      <c r="AD23" s="40" t="s">
-        <v>166</v>
-      </c>
-      <c r="AE23" s="40" t="s">
-        <v>171</v>
-      </c>
     </row>
     <row r="24" spans="1:31">
-      <c r="A24" s="40"/>
-      <c r="B24" s="40"/>
-      <c r="C24" s="40"/>
-      <c r="D24" s="40"/>
-      <c r="E24" s="40"/>
-      <c r="F24" s="40"/>
-      <c r="G24" s="40"/>
-      <c r="H24" s="40"/>
-      <c r="I24" s="40"/>
-      <c r="J24" s="51"/>
-      <c r="K24" s="40"/>
-      <c r="L24" s="40"/>
-      <c r="M24" s="40"/>
-      <c r="N24" s="40"/>
-      <c r="O24" s="40"/>
-      <c r="P24" s="40"/>
-      <c r="Q24" s="40"/>
-      <c r="R24" s="40"/>
-      <c r="S24" s="40"/>
-      <c r="T24" s="40"/>
-      <c r="U24" s="40"/>
-      <c r="V24" s="51"/>
-      <c r="W24" s="40"/>
-      <c r="X24" s="40"/>
-      <c r="Y24" s="40"/>
-      <c r="Z24" s="51"/>
-      <c r="AA24" s="89"/>
-      <c r="AB24" s="40"/>
-      <c r="AC24" s="40"/>
-      <c r="AD24" s="40"/>
-      <c r="AE24" s="40"/>
+      <c r="A24" s="39"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="54"/>
+      <c r="K24" s="39"/>
+      <c r="L24" s="39"/>
+      <c r="M24" s="39"/>
+      <c r="N24" s="39"/>
+      <c r="O24" s="54"/>
+      <c r="P24" s="39"/>
+      <c r="Q24" s="39"/>
+      <c r="R24" s="39"/>
+      <c r="S24" s="39"/>
+      <c r="T24" s="39"/>
+      <c r="U24" s="39"/>
+      <c r="V24" s="39"/>
+      <c r="W24" s="39"/>
+      <c r="X24" s="39"/>
+      <c r="Y24" s="54"/>
+      <c r="Z24" s="39"/>
+      <c r="AA24" s="65"/>
+      <c r="AB24" s="73"/>
+      <c r="AC24" s="85"/>
+      <c r="AD24" s="39"/>
+      <c r="AE24" s="39"/>
     </row>
     <row r="25" spans="1:31">
-      <c r="A25" s="40"/>
-      <c r="B25" s="40"/>
-      <c r="C25" s="40"/>
-      <c r="D25" s="40"/>
-      <c r="E25" s="40"/>
-      <c r="F25" s="40"/>
-      <c r="G25" s="40"/>
-      <c r="H25" s="40"/>
-      <c r="I25" s="40"/>
-      <c r="J25" s="51"/>
-      <c r="K25" s="40"/>
-      <c r="L25" s="40"/>
-      <c r="M25" s="40"/>
-      <c r="N25" s="40"/>
-      <c r="O25" s="40"/>
-      <c r="P25" s="40"/>
-      <c r="Q25" s="40"/>
-      <c r="R25" s="40"/>
-      <c r="S25" s="40"/>
-      <c r="T25" s="40"/>
-      <c r="U25" s="40"/>
-      <c r="V25" s="51"/>
-      <c r="W25" s="40"/>
-      <c r="X25" s="40"/>
-      <c r="Y25" s="40"/>
-      <c r="Z25" s="51"/>
-      <c r="AA25" s="89"/>
-      <c r="AB25" s="40"/>
-      <c r="AC25" s="40"/>
-      <c r="AD25" s="40"/>
-      <c r="AE25" s="40"/>
+      <c r="A25" s="39"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="39"/>
+      <c r="I25" s="39"/>
+      <c r="J25" s="54"/>
+      <c r="K25" s="39"/>
+      <c r="L25" s="39"/>
+      <c r="M25" s="39"/>
+      <c r="N25" s="39"/>
+      <c r="O25" s="54"/>
+      <c r="P25" s="39"/>
+      <c r="Q25" s="39"/>
+      <c r="R25" s="39"/>
+      <c r="S25" s="39"/>
+      <c r="T25" s="39"/>
+      <c r="U25" s="39"/>
+      <c r="V25" s="39"/>
+      <c r="W25" s="39"/>
+      <c r="X25" s="39"/>
+      <c r="Y25" s="54"/>
+      <c r="Z25" s="39"/>
+      <c r="AA25" s="65"/>
+      <c r="AB25" s="73"/>
+      <c r="AC25" s="85"/>
+      <c r="AD25" s="39"/>
+      <c r="AE25" s="39"/>
     </row>
     <row r="26" spans="1:31">
-      <c r="A26" s="40"/>
-      <c r="B26" s="40"/>
-      <c r="C26" s="40"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="40"/>
-      <c r="F26" s="40"/>
-      <c r="G26" s="40"/>
-      <c r="H26" s="40"/>
-      <c r="I26" s="40"/>
-      <c r="J26" s="51"/>
-      <c r="K26" s="40"/>
-      <c r="L26" s="40"/>
-      <c r="M26" s="40"/>
-      <c r="N26" s="40"/>
-      <c r="O26" s="40"/>
-      <c r="P26" s="40"/>
-      <c r="Q26" s="40"/>
-      <c r="R26" s="40"/>
-      <c r="S26" s="40"/>
-      <c r="T26" s="40"/>
-      <c r="U26" s="40"/>
-      <c r="V26" s="51"/>
-      <c r="W26" s="40"/>
-      <c r="X26" s="40"/>
-      <c r="Y26" s="40"/>
-      <c r="Z26" s="51"/>
-      <c r="AA26" s="89"/>
-      <c r="AB26" s="40"/>
-      <c r="AC26" s="40"/>
-      <c r="AD26" s="40"/>
-      <c r="AE26" s="40"/>
+      <c r="A26" s="39"/>
+      <c r="B26" s="39"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="39"/>
+      <c r="G26" s="39"/>
+      <c r="H26" s="39"/>
+      <c r="I26" s="39"/>
+      <c r="J26" s="54"/>
+      <c r="K26" s="39"/>
+      <c r="L26" s="39"/>
+      <c r="M26" s="39"/>
+      <c r="N26" s="39"/>
+      <c r="O26" s="54"/>
+      <c r="P26" s="39"/>
+      <c r="Q26" s="39"/>
+      <c r="R26" s="39"/>
+      <c r="S26" s="39"/>
+      <c r="T26" s="39"/>
+      <c r="U26" s="39"/>
+      <c r="V26" s="39"/>
+      <c r="W26" s="39"/>
+      <c r="X26" s="39"/>
+      <c r="Y26" s="54"/>
+      <c r="Z26" s="39"/>
+      <c r="AA26" s="65"/>
+      <c r="AB26" s="73"/>
+      <c r="AC26" s="85"/>
+      <c r="AD26" s="39"/>
+      <c r="AE26" s="39"/>
     </row>
     <row r="27" spans="1:31">
-      <c r="A27" s="40"/>
-      <c r="B27" s="40"/>
-      <c r="C27" s="40"/>
-      <c r="D27" s="40"/>
-      <c r="E27" s="40"/>
-      <c r="F27" s="40"/>
-      <c r="G27" s="40"/>
-      <c r="H27" s="40"/>
-      <c r="I27" s="40"/>
-      <c r="J27" s="51"/>
-      <c r="K27" s="40"/>
-      <c r="L27" s="40"/>
-      <c r="M27" s="40"/>
-      <c r="N27" s="40"/>
-      <c r="O27" s="40"/>
-      <c r="P27" s="40"/>
-      <c r="Q27" s="40"/>
-      <c r="R27" s="40"/>
-      <c r="S27" s="40"/>
-      <c r="T27" s="40"/>
-      <c r="U27" s="40"/>
-      <c r="V27" s="51"/>
-      <c r="W27" s="40"/>
-      <c r="X27" s="40"/>
-      <c r="Y27" s="40"/>
-      <c r="Z27" s="51"/>
-      <c r="AA27" s="89"/>
-      <c r="AB27" s="40"/>
-      <c r="AC27" s="40"/>
-      <c r="AD27" s="40"/>
+      <c r="A27" s="39"/>
+      <c r="B27" s="39"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="39"/>
+      <c r="I27" s="39"/>
+      <c r="J27" s="54"/>
+      <c r="K27" s="39"/>
+      <c r="L27" s="39"/>
+      <c r="M27" s="39"/>
+      <c r="N27" s="39"/>
+      <c r="O27" s="54"/>
+      <c r="P27" s="39"/>
+      <c r="Q27" s="39"/>
+      <c r="R27" s="39"/>
+      <c r="S27" s="39"/>
+      <c r="T27" s="39"/>
+      <c r="U27" s="39"/>
+      <c r="V27" s="39"/>
+      <c r="W27" s="39"/>
+      <c r="X27" s="39"/>
+      <c r="Y27" s="54"/>
+      <c r="Z27" s="39"/>
+      <c r="AA27" s="65"/>
+      <c r="AB27" s="73"/>
+      <c r="AD27" s="39"/>
+      <c r="AE27" s="39"/>
     </row>
     <row r="28" spans="1:31">
-      <c r="A28" s="40"/>
-      <c r="B28" s="40"/>
-      <c r="C28" s="40"/>
-      <c r="D28" s="40"/>
-      <c r="E28" s="40"/>
-      <c r="F28" s="40"/>
-      <c r="G28" s="40"/>
-      <c r="H28" s="40"/>
-      <c r="I28" s="40"/>
-      <c r="J28" s="52"/>
-      <c r="K28" s="40"/>
-      <c r="L28" s="40"/>
-      <c r="M28" s="40"/>
-      <c r="N28" s="40"/>
-      <c r="O28" s="40"/>
-      <c r="P28" s="40"/>
-      <c r="Q28" s="40"/>
-      <c r="R28" s="40"/>
-      <c r="S28" s="40"/>
-      <c r="T28" s="40"/>
-      <c r="U28" s="40"/>
-      <c r="V28" s="52"/>
-      <c r="W28" s="40"/>
-      <c r="X28" s="40"/>
-      <c r="Y28" s="40"/>
-      <c r="Z28" s="52"/>
-      <c r="AA28" s="89"/>
-      <c r="AB28" s="40"/>
-      <c r="AC28" s="40"/>
-      <c r="AD28" s="63"/>
-      <c r="AE28" s="17" t="s">
+      <c r="A28" s="39"/>
+      <c r="B28" s="39"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="39"/>
+      <c r="H28" s="39"/>
+      <c r="I28" s="39"/>
+      <c r="J28" s="55"/>
+      <c r="K28" s="39"/>
+      <c r="L28" s="39"/>
+      <c r="M28" s="39"/>
+      <c r="N28" s="39"/>
+      <c r="O28" s="55"/>
+      <c r="P28" s="39"/>
+      <c r="Q28" s="39"/>
+      <c r="R28" s="39"/>
+      <c r="S28" s="39"/>
+      <c r="T28" s="39"/>
+      <c r="U28" s="65"/>
+      <c r="V28" s="39"/>
+      <c r="W28" s="39"/>
+      <c r="X28" s="39"/>
+      <c r="Y28" s="55"/>
+      <c r="Z28" s="39"/>
+      <c r="AA28" s="65"/>
+      <c r="AB28" s="73"/>
+      <c r="AC28" s="30" t="s">
         <v>135</v>
       </c>
+      <c r="AD28" s="39"/>
+      <c r="AE28" s="39"/>
     </row>
     <row r="29" spans="1:31">
       <c r="D29" s="1"/>
@@ -6069,159 +6035,168 @@
       <c r="P29" s="1"/>
       <c r="Q29" s="2"/>
       <c r="R29" s="1"/>
-      <c r="S29" s="2"/>
-      <c r="V29" s="21"/>
-      <c r="W29" s="2"/>
-      <c r="X29" s="2"/>
-      <c r="AA29" s="89"/>
-      <c r="AB29" s="22"/>
-      <c r="AC29" s="2"/>
-      <c r="AD29" s="2"/>
-      <c r="AE29" s="20"/>
+      <c r="S29" s="22"/>
+      <c r="T29" s="2"/>
+      <c r="U29" s="2"/>
+      <c r="V29" s="2"/>
+      <c r="Y29" s="21"/>
+      <c r="Z29" s="2"/>
+      <c r="AA29" s="2"/>
+      <c r="AB29" s="73"/>
+      <c r="AC29" s="86" t="s">
+        <v>298</v>
+      </c>
     </row>
     <row r="30" spans="1:31">
       <c r="J30" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="Z30" s="17" t="s">
+      <c r="O30" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="AA30" s="89"/>
-      <c r="AE30" s="1" t="s">
-        <v>307</v>
+      <c r="AB30" s="73"/>
+      <c r="AC30" s="87" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="31" spans="1:31">
-      <c r="J31" s="82" t="s">
+      <c r="J31" s="35" t="s">
+        <v>401</v>
+      </c>
+      <c r="O31" s="35" t="s">
+        <v>298</v>
+      </c>
+      <c r="AB31" s="73"/>
+      <c r="AC31" s="87" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="32" spans="1:31">
+      <c r="J32" s="35" t="s">
+        <v>402</v>
+      </c>
+      <c r="O32" s="35" t="s">
+        <v>394</v>
+      </c>
+      <c r="AB32" s="73"/>
+      <c r="AC32" s="87" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="33" spans="10:29">
+      <c r="J33" s="35" t="s">
+        <v>403</v>
+      </c>
+      <c r="O33" s="35" t="s">
+        <v>395</v>
+      </c>
+      <c r="AB33" s="73"/>
+      <c r="AC33" s="87" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="34" spans="10:29">
+      <c r="J34" s="35" t="s">
+        <v>404</v>
+      </c>
+      <c r="O34" s="35" t="s">
+        <v>396</v>
+      </c>
+      <c r="AB34" s="73"/>
+      <c r="AC34" s="87" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="35" spans="10:29">
+      <c r="J35" s="35" t="s">
+        <v>405</v>
+      </c>
+      <c r="O35" s="35" t="s">
+        <v>397</v>
+      </c>
+      <c r="AB35" s="73"/>
+      <c r="AC35" s="87" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="36" spans="10:29">
+      <c r="J36" s="35" t="s">
+        <v>406</v>
+      </c>
+      <c r="O36" s="35" t="s">
+        <v>398</v>
+      </c>
+      <c r="AB36" s="73"/>
+      <c r="AC36" s="87" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="37" spans="10:29">
+      <c r="J37" s="35" t="s">
+        <v>407</v>
+      </c>
+      <c r="O37" s="35" t="s">
+        <v>304</v>
+      </c>
+      <c r="AB37" s="73"/>
+      <c r="AC37" s="88" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="38" spans="10:29">
+      <c r="J38" s="35" t="s">
+        <v>408</v>
+      </c>
+      <c r="O38" s="35" t="s">
+        <v>399</v>
+      </c>
+      <c r="AB38" s="74"/>
+    </row>
+    <row r="39" spans="10:29">
+      <c r="J39" s="35" t="s">
+        <v>409</v>
+      </c>
+      <c r="O39" s="36" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="40" spans="10:29">
+      <c r="J40" s="35" t="s">
         <v>410</v>
       </c>
-      <c r="Z31" s="82" t="s">
-        <v>307</v>
-      </c>
-      <c r="AA31" s="89"/>
-      <c r="AE31" s="1" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="32" spans="1:31">
-      <c r="J32" s="82" t="s">
+    </row>
+    <row r="41" spans="10:29">
+      <c r="J41" s="36" t="s">
         <v>411</v>
       </c>
-      <c r="Z32" s="82" t="s">
-        <v>403</v>
-      </c>
-      <c r="AA32" s="89"/>
-      <c r="AE32" s="1" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="33" spans="10:31">
-      <c r="J33" s="82" t="s">
-        <v>412</v>
-      </c>
-      <c r="Z33" s="82" t="s">
-        <v>404</v>
-      </c>
-      <c r="AA33" s="89"/>
-      <c r="AE33" s="1" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="34" spans="10:31">
-      <c r="J34" s="82" t="s">
-        <v>413</v>
-      </c>
-      <c r="Z34" s="82" t="s">
-        <v>405</v>
-      </c>
-      <c r="AA34" s="89"/>
-      <c r="AE34" s="1" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="35" spans="10:31">
-      <c r="J35" s="82" t="s">
-        <v>414</v>
-      </c>
-      <c r="Z35" s="82" t="s">
-        <v>406</v>
-      </c>
-      <c r="AA35" s="89"/>
-      <c r="AE35" s="1" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="36" spans="10:31">
-      <c r="J36" s="82" t="s">
-        <v>415</v>
-      </c>
-      <c r="Z36" s="82" t="s">
-        <v>407</v>
-      </c>
-      <c r="AA36" s="89"/>
-      <c r="AE36" s="1" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="37" spans="10:31">
-      <c r="J37" s="82" t="s">
-        <v>416</v>
-      </c>
-      <c r="Z37" s="82" t="s">
-        <v>313</v>
-      </c>
-      <c r="AA37" s="89"/>
-      <c r="AE37" s="1" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="38" spans="10:31">
-      <c r="J38" s="82" t="s">
-        <v>417</v>
-      </c>
-      <c r="Z38" s="82" t="s">
-        <v>408</v>
-      </c>
-      <c r="AA38" s="89"/>
-      <c r="AE38" s="1" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="39" spans="10:31">
-      <c r="J39" s="82" t="s">
-        <v>418</v>
-      </c>
-      <c r="Z39" s="83" t="s">
-        <v>409</v>
-      </c>
-      <c r="AA39" s="89"/>
-    </row>
-    <row r="40" spans="10:31">
-      <c r="J40" s="82" t="s">
-        <v>419</v>
-      </c>
-      <c r="AA40" s="89"/>
-    </row>
-    <row r="41" spans="10:31">
-      <c r="J41" s="83" t="s">
-        <v>420</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="38">
-    <mergeCell ref="AA23:AA40"/>
-    <mergeCell ref="X23:X28"/>
-    <mergeCell ref="F20:U22"/>
-    <mergeCell ref="Z23:Z28"/>
-    <mergeCell ref="Y23:Y28"/>
-    <mergeCell ref="Z20:Z22"/>
-    <mergeCell ref="V23:V28"/>
-    <mergeCell ref="V20:Y22"/>
-    <mergeCell ref="R23:R28"/>
+  <mergeCells count="34">
+    <mergeCell ref="AD20:AE22"/>
+    <mergeCell ref="F20:AB22"/>
     <mergeCell ref="S23:S28"/>
     <mergeCell ref="T23:T28"/>
     <mergeCell ref="U23:U28"/>
+    <mergeCell ref="AC23:AC26"/>
+    <mergeCell ref="AB23:AB38"/>
+    <mergeCell ref="Y23:Y28"/>
+    <mergeCell ref="Z23:Z28"/>
+    <mergeCell ref="AA23:AA28"/>
+    <mergeCell ref="N23:N28"/>
+    <mergeCell ref="O23:O28"/>
+    <mergeCell ref="P23:P28"/>
+    <mergeCell ref="Q23:Q28"/>
+    <mergeCell ref="R23:R28"/>
+    <mergeCell ref="V23:V28"/>
     <mergeCell ref="W23:W28"/>
+    <mergeCell ref="X23:X28"/>
+    <mergeCell ref="J23:J28"/>
+    <mergeCell ref="AD23:AD28"/>
+    <mergeCell ref="AE23:AE28"/>
+    <mergeCell ref="K23:K28"/>
+    <mergeCell ref="L23:L28"/>
+    <mergeCell ref="M23:M28"/>
+    <mergeCell ref="AC20:AC22"/>
     <mergeCell ref="A23:A28"/>
     <mergeCell ref="B23:B28"/>
     <mergeCell ref="C23:C28"/>
@@ -6230,23 +6205,7 @@
     <mergeCell ref="F23:F28"/>
     <mergeCell ref="G23:G28"/>
     <mergeCell ref="H23:H28"/>
-    <mergeCell ref="AD23:AD28"/>
-    <mergeCell ref="AB20:AC22"/>
-    <mergeCell ref="AD20:AD22"/>
-    <mergeCell ref="AA20:AA22"/>
-    <mergeCell ref="AB23:AB28"/>
-    <mergeCell ref="AC23:AC28"/>
     <mergeCell ref="I23:I28"/>
-    <mergeCell ref="AE20:AE22"/>
-    <mergeCell ref="AE23:AE26"/>
-    <mergeCell ref="J23:J28"/>
-    <mergeCell ref="K23:K28"/>
-    <mergeCell ref="L23:L28"/>
-    <mergeCell ref="M23:M28"/>
-    <mergeCell ref="P23:P28"/>
-    <mergeCell ref="Q23:Q28"/>
-    <mergeCell ref="N23:N28"/>
-    <mergeCell ref="O23:O28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -6260,8 +6219,8 @@
   </sheetPr>
   <dimension ref="A2:AB66"/>
   <sheetViews>
-    <sheetView topLeftCell="V4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21:X23"/>
+    <sheetView topLeftCell="X4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:AB7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -6299,32 +6258,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:28" ht="21">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="41"/>
+      <c r="B2" s="37"/>
       <c r="C2" s="3" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:28" ht="21">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="41"/>
+      <c r="B3" s="37"/>
       <c r="C3" s="3" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
     </row>
     <row r="4" spans="1:28" ht="21">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="67" t="s">
         <v>147</v>
       </c>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
       <c r="G4" s="1"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="19"/>
@@ -6777,7 +6736,7 @@
         <v>9</v>
       </c>
       <c r="F12" s="23" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="G12" s="12" t="s">
         <v>109</v>
@@ -6813,7 +6772,7 @@
         <v>0</v>
       </c>
       <c r="R12" s="23" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="S12" s="23" t="s">
         <v>28</v>
@@ -6843,7 +6802,7 @@
         <v>9</v>
       </c>
       <c r="AB12" s="23" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
     </row>
     <row r="13" spans="1:28" s="13" customFormat="1">
@@ -6863,7 +6822,7 @@
         <v>9</v>
       </c>
       <c r="F13" s="23" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="G13" s="12" t="s">
         <v>109</v>
@@ -6899,7 +6858,7 @@
         <v>0</v>
       </c>
       <c r="R13" s="23" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="S13" s="23" t="s">
         <v>28</v>
@@ -6949,7 +6908,7 @@
         <v>9</v>
       </c>
       <c r="F14" s="23" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="G14" s="12" t="s">
         <v>109</v>
@@ -6985,7 +6944,7 @@
         <v>0</v>
       </c>
       <c r="R14" s="23" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="S14" s="23" t="s">
         <v>28</v>
@@ -7035,13 +6994,13 @@
         <v>9</v>
       </c>
       <c r="F15" s="23" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="I15" s="12" t="s">
         <v>71</v>
@@ -7083,13 +7042,13 @@
         <v>1</v>
       </c>
       <c r="V15" s="23" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="W15" s="23" t="s">
         <v>122</v>
       </c>
       <c r="X15" s="23" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="Y15" s="23" t="s">
         <v>119</v>
@@ -7101,7 +7060,7 @@
         <v>121</v>
       </c>
       <c r="AB15" s="23" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16" spans="1:28" s="13" customFormat="1">
@@ -7121,13 +7080,13 @@
         <v>9</v>
       </c>
       <c r="F16" s="23" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="I16" s="12" t="s">
         <v>71</v>
@@ -7169,13 +7128,13 @@
         <v>1</v>
       </c>
       <c r="V16" s="23" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="W16" s="23" t="s">
         <v>122</v>
       </c>
       <c r="X16" s="23" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="Y16" s="23" t="s">
         <v>119</v>
@@ -7187,7 +7146,7 @@
         <v>121</v>
       </c>
       <c r="AB16" s="23" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
     </row>
     <row r="17" spans="1:28" s="13" customFormat="1">
@@ -7207,13 +7166,13 @@
         <v>9</v>
       </c>
       <c r="F17" s="23" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="H17" s="12" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="I17" s="12" t="s">
         <v>71</v>
@@ -7234,7 +7193,7 @@
         <v>0</v>
       </c>
       <c r="O17" s="23" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="P17" s="12" t="s">
         <v>4</v>
@@ -7243,7 +7202,7 @@
         <v>2</v>
       </c>
       <c r="R17" s="23" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="S17" s="23" t="s">
         <v>27</v>
@@ -7255,13 +7214,13 @@
         <v>3</v>
       </c>
       <c r="V17" s="23" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="W17" s="23" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="X17" s="23" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="Y17" s="23" t="s">
         <v>9</v>
@@ -7273,7 +7232,7 @@
         <v>9</v>
       </c>
       <c r="AB17" s="23" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
     </row>
     <row r="18" spans="1:28" s="12" customFormat="1">
@@ -7293,13 +7252,13 @@
         <v>9</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="I18" s="12" t="s">
         <v>71</v>
@@ -7320,7 +7279,7 @@
         <v>0</v>
       </c>
       <c r="O18" s="12" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="P18" s="12" t="s">
         <v>5</v>
@@ -7329,7 +7288,7 @@
         <v>3</v>
       </c>
       <c r="R18" s="12" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="S18" s="12" t="s">
         <v>27</v>
@@ -7341,13 +7300,13 @@
         <v>3</v>
       </c>
       <c r="V18" s="12" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="W18" s="12" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="X18" s="12" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="Y18" s="12" t="s">
         <v>9</v>
@@ -7359,7 +7318,7 @@
         <v>9</v>
       </c>
       <c r="AB18" s="12" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
     </row>
     <row r="19" spans="1:28" s="2" customFormat="1"/>
@@ -7376,268 +7335,268 @@
       <c r="X20" s="2"/>
     </row>
     <row r="21" spans="1:28" ht="11.25" customHeight="1">
-      <c r="E21" s="53" t="s">
-        <v>154</v>
-      </c>
-      <c r="F21" s="54"/>
-      <c r="G21" s="54"/>
-      <c r="H21" s="54"/>
-      <c r="I21" s="54"/>
-      <c r="J21" s="54"/>
-      <c r="K21" s="54"/>
-      <c r="L21" s="54"/>
-      <c r="M21" s="54"/>
-      <c r="N21" s="54"/>
-      <c r="O21" s="54"/>
-      <c r="P21" s="54"/>
-      <c r="Q21" s="54"/>
-      <c r="R21" s="54"/>
-      <c r="S21" s="54"/>
-      <c r="T21" s="54"/>
-      <c r="U21" s="54"/>
-      <c r="V21" s="54"/>
-      <c r="W21" s="54"/>
-      <c r="X21" s="55"/>
-      <c r="Y21" s="45" t="s">
-        <v>164</v>
-      </c>
-      <c r="Z21" s="45"/>
-      <c r="AA21" s="45" t="s">
-        <v>165</v>
-      </c>
-      <c r="AB21" s="45" t="s">
-        <v>208</v>
+      <c r="E21" s="56" t="s">
+        <v>429</v>
+      </c>
+      <c r="F21" s="57"/>
+      <c r="G21" s="57"/>
+      <c r="H21" s="57"/>
+      <c r="I21" s="57"/>
+      <c r="J21" s="57"/>
+      <c r="K21" s="57"/>
+      <c r="L21" s="57"/>
+      <c r="M21" s="57"/>
+      <c r="N21" s="57"/>
+      <c r="O21" s="57"/>
+      <c r="P21" s="57"/>
+      <c r="Q21" s="57"/>
+      <c r="R21" s="57"/>
+      <c r="S21" s="57"/>
+      <c r="T21" s="57"/>
+      <c r="U21" s="57"/>
+      <c r="V21" s="57"/>
+      <c r="W21" s="57"/>
+      <c r="X21" s="58"/>
+      <c r="Y21" s="48" t="s">
+        <v>159</v>
+      </c>
+      <c r="Z21" s="48"/>
+      <c r="AA21" s="48" t="s">
+        <v>160</v>
+      </c>
+      <c r="AB21" s="48" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="22" spans="1:28">
-      <c r="E22" s="56"/>
-      <c r="F22" s="57"/>
-      <c r="G22" s="57"/>
-      <c r="H22" s="57"/>
-      <c r="I22" s="57"/>
-      <c r="J22" s="57"/>
-      <c r="K22" s="57"/>
-      <c r="L22" s="57"/>
-      <c r="M22" s="57"/>
-      <c r="N22" s="57"/>
-      <c r="O22" s="57"/>
-      <c r="P22" s="57"/>
-      <c r="Q22" s="57"/>
-      <c r="R22" s="57"/>
-      <c r="S22" s="57"/>
-      <c r="T22" s="57"/>
-      <c r="U22" s="57"/>
-      <c r="V22" s="57"/>
-      <c r="W22" s="57"/>
-      <c r="X22" s="58"/>
-      <c r="Y22" s="45"/>
-      <c r="Z22" s="45"/>
-      <c r="AA22" s="45"/>
-      <c r="AB22" s="45" t="s">
-        <v>207</v>
+      <c r="E22" s="59"/>
+      <c r="F22" s="60"/>
+      <c r="G22" s="60"/>
+      <c r="H22" s="60"/>
+      <c r="I22" s="60"/>
+      <c r="J22" s="60"/>
+      <c r="K22" s="60"/>
+      <c r="L22" s="60"/>
+      <c r="M22" s="60"/>
+      <c r="N22" s="60"/>
+      <c r="O22" s="60"/>
+      <c r="P22" s="60"/>
+      <c r="Q22" s="60"/>
+      <c r="R22" s="60"/>
+      <c r="S22" s="60"/>
+      <c r="T22" s="60"/>
+      <c r="U22" s="60"/>
+      <c r="V22" s="60"/>
+      <c r="W22" s="60"/>
+      <c r="X22" s="61"/>
+      <c r="Y22" s="48"/>
+      <c r="Z22" s="48"/>
+      <c r="AA22" s="48"/>
+      <c r="AB22" s="48" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="23" spans="1:28">
-      <c r="E23" s="59"/>
-      <c r="F23" s="60"/>
-      <c r="G23" s="60"/>
-      <c r="H23" s="60"/>
-      <c r="I23" s="60"/>
-      <c r="J23" s="60"/>
-      <c r="K23" s="60"/>
-      <c r="L23" s="60"/>
-      <c r="M23" s="60"/>
-      <c r="N23" s="60"/>
-      <c r="O23" s="60"/>
-      <c r="P23" s="60"/>
-      <c r="Q23" s="60"/>
-      <c r="R23" s="60"/>
-      <c r="S23" s="60"/>
-      <c r="T23" s="60"/>
-      <c r="U23" s="60"/>
-      <c r="V23" s="60"/>
-      <c r="W23" s="60"/>
-      <c r="X23" s="61"/>
-      <c r="Y23" s="45"/>
-      <c r="Z23" s="45"/>
-      <c r="AA23" s="45"/>
-      <c r="AB23" s="45"/>
+      <c r="E23" s="62"/>
+      <c r="F23" s="63"/>
+      <c r="G23" s="63"/>
+      <c r="H23" s="63"/>
+      <c r="I23" s="63"/>
+      <c r="J23" s="63"/>
+      <c r="K23" s="63"/>
+      <c r="L23" s="63"/>
+      <c r="M23" s="63"/>
+      <c r="N23" s="63"/>
+      <c r="O23" s="63"/>
+      <c r="P23" s="63"/>
+      <c r="Q23" s="63"/>
+      <c r="R23" s="63"/>
+      <c r="S23" s="63"/>
+      <c r="T23" s="63"/>
+      <c r="U23" s="63"/>
+      <c r="V23" s="63"/>
+      <c r="W23" s="63"/>
+      <c r="X23" s="64"/>
+      <c r="Y23" s="48"/>
+      <c r="Z23" s="48"/>
+      <c r="AA23" s="48"/>
+      <c r="AB23" s="48"/>
     </row>
     <row r="24" spans="1:28" ht="11.25" customHeight="1">
-      <c r="A24" s="50" t="s">
+      <c r="A24" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="B24" s="50" t="s">
-        <v>173</v>
-      </c>
-      <c r="C24" s="50" t="s">
+      <c r="B24" s="53" t="s">
+        <v>167</v>
+      </c>
+      <c r="C24" s="53" t="s">
         <v>139</v>
       </c>
-      <c r="D24" s="50" t="s">
+      <c r="D24" s="53" t="s">
         <v>139</v>
       </c>
-      <c r="E24" s="50" t="s">
-        <v>172</v>
-      </c>
-      <c r="F24" s="50" t="s">
+      <c r="E24" s="53" t="s">
+        <v>166</v>
+      </c>
+      <c r="F24" s="53" t="s">
         <v>153</v>
       </c>
-      <c r="G24" s="50" t="s">
+      <c r="G24" s="53" t="s">
         <v>137</v>
       </c>
-      <c r="H24" s="50" t="s">
+      <c r="H24" s="53" t="s">
         <v>138</v>
       </c>
-      <c r="I24" s="50" t="s">
+      <c r="I24" s="53" t="s">
         <v>152</v>
       </c>
-      <c r="J24" s="50" t="s">
+      <c r="J24" s="53" t="s">
         <v>140</v>
       </c>
-      <c r="K24" s="50" t="s">
+      <c r="K24" s="53" t="s">
+        <v>185</v>
+      </c>
+      <c r="L24" s="53" t="s">
+        <v>186</v>
+      </c>
+      <c r="M24" s="39" t="s">
+        <v>197</v>
+      </c>
+      <c r="N24" s="68" t="s">
+        <v>191</v>
+      </c>
+      <c r="O24" s="50" t="s">
+        <v>198</v>
+      </c>
+      <c r="P24" s="53" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q24" s="53" t="s">
+        <v>183</v>
+      </c>
+      <c r="R24" s="53" t="s">
+        <v>187</v>
+      </c>
+      <c r="S24" s="53" t="s">
+        <v>203</v>
+      </c>
+      <c r="T24" s="53" t="s">
+        <v>188</v>
+      </c>
+      <c r="U24" s="53" t="s">
+        <v>189</v>
+      </c>
+      <c r="V24" s="53" t="s">
         <v>192</v>
       </c>
-      <c r="L24" s="50" t="s">
+      <c r="W24" s="53" t="s">
         <v>193</v>
       </c>
-      <c r="M24" s="40" t="s">
-        <v>204</v>
-      </c>
-      <c r="N24" s="77" t="s">
-        <v>198</v>
-      </c>
-      <c r="O24" s="47" t="s">
-        <v>205</v>
-      </c>
-      <c r="P24" s="50" t="s">
-        <v>206</v>
-      </c>
-      <c r="Q24" s="50" t="s">
-        <v>190</v>
-      </c>
-      <c r="R24" s="50" t="s">
+      <c r="X24" s="53" t="s">
         <v>194</v>
       </c>
-      <c r="S24" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="T24" s="50" t="s">
+      <c r="Y24" s="72" t="s">
         <v>195</v>
       </c>
-      <c r="U24" s="50" t="s">
+      <c r="Z24" s="75" t="s">
         <v>196</v>
       </c>
-      <c r="V24" s="50" t="s">
-        <v>199</v>
-      </c>
-      <c r="W24" s="50" t="s">
-        <v>200</v>
-      </c>
-      <c r="X24" s="50" t="s">
-        <v>201</v>
-      </c>
-      <c r="Y24" s="71" t="s">
+      <c r="AA24" s="39" t="s">
+        <v>161</v>
+      </c>
+      <c r="AB24" s="69" t="s">
         <v>202</v>
       </c>
-      <c r="Z24" s="74" t="s">
-        <v>203</v>
-      </c>
-      <c r="AA24" s="40" t="s">
-        <v>166</v>
-      </c>
-      <c r="AB24" s="68" t="s">
-        <v>209</v>
-      </c>
     </row>
     <row r="25" spans="1:28">
-      <c r="A25" s="51"/>
-      <c r="B25" s="51"/>
-      <c r="C25" s="51"/>
-      <c r="D25" s="51"/>
-      <c r="E25" s="51"/>
-      <c r="F25" s="51"/>
-      <c r="G25" s="51"/>
-      <c r="H25" s="51"/>
-      <c r="I25" s="51"/>
-      <c r="J25" s="51"/>
-      <c r="K25" s="51"/>
-      <c r="L25" s="51"/>
-      <c r="M25" s="40"/>
-      <c r="N25" s="77"/>
-      <c r="O25" s="48"/>
-      <c r="P25" s="51"/>
-      <c r="Q25" s="51"/>
-      <c r="R25" s="51"/>
-      <c r="S25" s="51"/>
-      <c r="T25" s="51"/>
-      <c r="U25" s="51"/>
-      <c r="V25" s="51"/>
-      <c r="W25" s="51"/>
-      <c r="X25" s="51"/>
-      <c r="Y25" s="72"/>
-      <c r="Z25" s="75"/>
-      <c r="AA25" s="40"/>
-      <c r="AB25" s="69"/>
+      <c r="A25" s="54"/>
+      <c r="B25" s="54"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="54"/>
+      <c r="F25" s="54"/>
+      <c r="G25" s="54"/>
+      <c r="H25" s="54"/>
+      <c r="I25" s="54"/>
+      <c r="J25" s="54"/>
+      <c r="K25" s="54"/>
+      <c r="L25" s="54"/>
+      <c r="M25" s="39"/>
+      <c r="N25" s="68"/>
+      <c r="O25" s="51"/>
+      <c r="P25" s="54"/>
+      <c r="Q25" s="54"/>
+      <c r="R25" s="54"/>
+      <c r="S25" s="54"/>
+      <c r="T25" s="54"/>
+      <c r="U25" s="54"/>
+      <c r="V25" s="54"/>
+      <c r="W25" s="54"/>
+      <c r="X25" s="54"/>
+      <c r="Y25" s="73"/>
+      <c r="Z25" s="76"/>
+      <c r="AA25" s="39"/>
+      <c r="AB25" s="70"/>
     </row>
     <row r="26" spans="1:28">
-      <c r="A26" s="51"/>
-      <c r="B26" s="51"/>
-      <c r="C26" s="51"/>
-      <c r="D26" s="51"/>
-      <c r="E26" s="51"/>
-      <c r="F26" s="51"/>
-      <c r="G26" s="51"/>
-      <c r="H26" s="51"/>
-      <c r="I26" s="51"/>
-      <c r="J26" s="51"/>
-      <c r="K26" s="51"/>
-      <c r="L26" s="51"/>
-      <c r="M26" s="40"/>
-      <c r="N26" s="77"/>
-      <c r="O26" s="48"/>
-      <c r="P26" s="51"/>
-      <c r="Q26" s="51"/>
-      <c r="R26" s="51"/>
-      <c r="S26" s="51"/>
-      <c r="T26" s="51"/>
-      <c r="U26" s="51"/>
-      <c r="V26" s="51"/>
-      <c r="W26" s="51"/>
-      <c r="X26" s="51"/>
-      <c r="Y26" s="72"/>
-      <c r="Z26" s="75"/>
-      <c r="AA26" s="40"/>
-      <c r="AB26" s="69"/>
+      <c r="A26" s="54"/>
+      <c r="B26" s="54"/>
+      <c r="C26" s="54"/>
+      <c r="D26" s="54"/>
+      <c r="E26" s="54"/>
+      <c r="F26" s="54"/>
+      <c r="G26" s="54"/>
+      <c r="H26" s="54"/>
+      <c r="I26" s="54"/>
+      <c r="J26" s="54"/>
+      <c r="K26" s="54"/>
+      <c r="L26" s="54"/>
+      <c r="M26" s="39"/>
+      <c r="N26" s="68"/>
+      <c r="O26" s="51"/>
+      <c r="P26" s="54"/>
+      <c r="Q26" s="54"/>
+      <c r="R26" s="54"/>
+      <c r="S26" s="54"/>
+      <c r="T26" s="54"/>
+      <c r="U26" s="54"/>
+      <c r="V26" s="54"/>
+      <c r="W26" s="54"/>
+      <c r="X26" s="54"/>
+      <c r="Y26" s="73"/>
+      <c r="Z26" s="76"/>
+      <c r="AA26" s="39"/>
+      <c r="AB26" s="70"/>
     </row>
     <row r="27" spans="1:28">
-      <c r="A27" s="52"/>
-      <c r="B27" s="52"/>
-      <c r="C27" s="52"/>
-      <c r="D27" s="52"/>
-      <c r="E27" s="52"/>
-      <c r="F27" s="52"/>
-      <c r="G27" s="52"/>
-      <c r="H27" s="52"/>
-      <c r="I27" s="52"/>
-      <c r="J27" s="52"/>
-      <c r="K27" s="52"/>
-      <c r="L27" s="52"/>
-      <c r="M27" s="40"/>
-      <c r="N27" s="77"/>
-      <c r="O27" s="49"/>
-      <c r="P27" s="52"/>
-      <c r="Q27" s="52"/>
-      <c r="R27" s="52"/>
-      <c r="S27" s="52"/>
-      <c r="T27" s="52"/>
-      <c r="U27" s="52"/>
-      <c r="V27" s="52"/>
-      <c r="W27" s="52"/>
-      <c r="X27" s="52"/>
-      <c r="Y27" s="72"/>
-      <c r="Z27" s="75"/>
-      <c r="AA27" s="40"/>
-      <c r="AB27" s="69"/>
+      <c r="A27" s="55"/>
+      <c r="B27" s="55"/>
+      <c r="C27" s="55"/>
+      <c r="D27" s="55"/>
+      <c r="E27" s="55"/>
+      <c r="F27" s="55"/>
+      <c r="G27" s="55"/>
+      <c r="H27" s="55"/>
+      <c r="I27" s="55"/>
+      <c r="J27" s="55"/>
+      <c r="K27" s="55"/>
+      <c r="L27" s="55"/>
+      <c r="M27" s="39"/>
+      <c r="N27" s="68"/>
+      <c r="O27" s="52"/>
+      <c r="P27" s="55"/>
+      <c r="Q27" s="55"/>
+      <c r="R27" s="55"/>
+      <c r="S27" s="55"/>
+      <c r="T27" s="55"/>
+      <c r="U27" s="55"/>
+      <c r="V27" s="55"/>
+      <c r="W27" s="55"/>
+      <c r="X27" s="55"/>
+      <c r="Y27" s="73"/>
+      <c r="Z27" s="76"/>
+      <c r="AA27" s="39"/>
+      <c r="AB27" s="70"/>
     </row>
     <row r="28" spans="1:28">
       <c r="E28" s="1"/>
@@ -7645,16 +7604,16 @@
       <c r="K28" s="2"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
-      <c r="N28" s="77"/>
+      <c r="N28" s="68"/>
       <c r="R28" s="2"/>
       <c r="S28" s="2"/>
       <c r="T28" s="2"/>
       <c r="U28" s="1"/>
       <c r="X28" s="2"/>
-      <c r="Y28" s="72"/>
-      <c r="Z28" s="75"/>
-      <c r="AA28" s="40"/>
-      <c r="AB28" s="69"/>
+      <c r="Y28" s="73"/>
+      <c r="Z28" s="76"/>
+      <c r="AA28" s="39"/>
+      <c r="AB28" s="70"/>
     </row>
     <row r="29" spans="1:28">
       <c r="E29" s="1"/>
@@ -7667,19 +7626,19 @@
       </c>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
-      <c r="N29" s="77"/>
+      <c r="N29" s="68"/>
       <c r="R29" s="2"/>
       <c r="S29" s="17" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="U29" s="17" t="s">
         <v>135</v>
       </c>
       <c r="X29" s="2"/>
-      <c r="Y29" s="73"/>
-      <c r="Z29" s="76"/>
-      <c r="AA29" s="40"/>
-      <c r="AB29" s="70"/>
+      <c r="Y29" s="74"/>
+      <c r="Z29" s="77"/>
+      <c r="AA29" s="39"/>
+      <c r="AB29" s="71"/>
     </row>
     <row r="30" spans="1:28" ht="202.5">
       <c r="E30" s="1"/>
@@ -7688,17 +7647,17 @@
         <v>141</v>
       </c>
       <c r="K30" s="24" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
-      <c r="N30" s="77"/>
+      <c r="N30" s="68"/>
       <c r="R30" s="2"/>
       <c r="S30" s="25" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="U30" s="20" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="X30" s="2"/>
     </row>
@@ -7886,6 +7845,25 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="AB21:AB23"/>
+    <mergeCell ref="AB24:AB29"/>
+    <mergeCell ref="S24:S27"/>
+    <mergeCell ref="E21:X23"/>
+    <mergeCell ref="V24:V27"/>
+    <mergeCell ref="W24:W27"/>
+    <mergeCell ref="E24:E27"/>
+    <mergeCell ref="H24:H27"/>
+    <mergeCell ref="O24:O27"/>
+    <mergeCell ref="Y21:Z23"/>
+    <mergeCell ref="Y24:Y29"/>
+    <mergeCell ref="Z24:Z29"/>
+    <mergeCell ref="AA24:AA29"/>
+    <mergeCell ref="AA21:AA23"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="C24:C27"/>
     <mergeCell ref="D24:D27"/>
     <mergeCell ref="A4:F4"/>
     <mergeCell ref="X24:X27"/>
@@ -7902,25 +7880,6 @@
     <mergeCell ref="L24:L27"/>
     <mergeCell ref="R24:R27"/>
     <mergeCell ref="G24:G27"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="C24:C27"/>
-    <mergeCell ref="AB21:AB23"/>
-    <mergeCell ref="AB24:AB29"/>
-    <mergeCell ref="S24:S27"/>
-    <mergeCell ref="E21:X23"/>
-    <mergeCell ref="V24:V27"/>
-    <mergeCell ref="W24:W27"/>
-    <mergeCell ref="E24:E27"/>
-    <mergeCell ref="H24:H27"/>
-    <mergeCell ref="O24:O27"/>
-    <mergeCell ref="Y21:Z23"/>
-    <mergeCell ref="Y24:Y29"/>
-    <mergeCell ref="Z24:Z29"/>
-    <mergeCell ref="AA24:AA29"/>
-    <mergeCell ref="AA21:AA23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -7952,21 +7911,21 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="21">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="41"/>
+      <c r="B2" s="37"/>
       <c r="C2" s="3" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="21">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="41"/>
+      <c r="B3" s="37"/>
       <c r="C3" s="3" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="13" customFormat="1">
@@ -8256,95 +8215,95 @@
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="B19" s="45" t="s">
-        <v>220</v>
-      </c>
-      <c r="C19" s="45"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="45" t="s">
-        <v>223</v>
-      </c>
-      <c r="G19" s="45" t="s">
-        <v>221</v>
-      </c>
-      <c r="H19" s="45"/>
+      <c r="B19" s="48" t="s">
+        <v>213</v>
+      </c>
+      <c r="C19" s="48"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="48" t="s">
+        <v>216</v>
+      </c>
+      <c r="G19" s="48" t="s">
+        <v>214</v>
+      </c>
+      <c r="H19" s="48"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="B20" s="45"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="64"/>
-      <c r="G20" s="45"/>
-      <c r="H20" s="45"/>
+      <c r="B20" s="48"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="66"/>
+      <c r="G20" s="48"/>
+      <c r="H20" s="48"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="B21" s="45"/>
-      <c r="C21" s="45"/>
-      <c r="D21" s="45"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="64"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="45"/>
+      <c r="B21" s="48"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="66"/>
+      <c r="G21" s="48"/>
+      <c r="H21" s="48"/>
     </row>
     <row r="22" spans="1:8" ht="11.25" customHeight="1">
-      <c r="A22" s="65" t="s">
+      <c r="A22" s="81" t="s">
         <v>139</v>
       </c>
-      <c r="B22" s="50" t="s">
-        <v>216</v>
-      </c>
-      <c r="C22" s="50" t="s">
-        <v>214</v>
-      </c>
-      <c r="D22" s="50" t="s">
-        <v>215</v>
-      </c>
-      <c r="E22" s="50" t="s">
+      <c r="B22" s="53" t="s">
+        <v>209</v>
+      </c>
+      <c r="C22" s="53" t="s">
+        <v>207</v>
+      </c>
+      <c r="D22" s="53" t="s">
+        <v>208</v>
+      </c>
+      <c r="E22" s="53" t="s">
+        <v>210</v>
+      </c>
+      <c r="F22" s="78" t="s">
         <v>217</v>
       </c>
-      <c r="F22" s="78" t="s">
-        <v>224</v>
-      </c>
-      <c r="G22" s="50" t="s">
-        <v>218</v>
-      </c>
-      <c r="H22" s="50" t="s">
-        <v>219</v>
+      <c r="G22" s="53" t="s">
+        <v>211</v>
+      </c>
+      <c r="H22" s="53" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="66"/>
-      <c r="B23" s="51"/>
-      <c r="C23" s="51"/>
-      <c r="D23" s="51"/>
-      <c r="E23" s="51"/>
+      <c r="A23" s="82"/>
+      <c r="B23" s="54"/>
+      <c r="C23" s="54"/>
+      <c r="D23" s="54"/>
+      <c r="E23" s="54"/>
       <c r="F23" s="79"/>
-      <c r="G23" s="51"/>
-      <c r="H23" s="51"/>
+      <c r="G23" s="54"/>
+      <c r="H23" s="54"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="67"/>
-      <c r="B24" s="51"/>
-      <c r="C24" s="51"/>
-      <c r="D24" s="51"/>
-      <c r="E24" s="51"/>
+      <c r="A24" s="83"/>
+      <c r="B24" s="54"/>
+      <c r="C24" s="54"/>
+      <c r="D24" s="54"/>
+      <c r="E24" s="54"/>
       <c r="F24" s="79"/>
-      <c r="G24" s="51"/>
-      <c r="H24" s="51"/>
+      <c r="G24" s="54"/>
+      <c r="H24" s="54"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="B25" s="51"/>
-      <c r="C25" s="52"/>
-      <c r="D25" s="52"/>
-      <c r="E25" s="52"/>
+      <c r="B25" s="54"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="55"/>
+      <c r="E25" s="55"/>
       <c r="F25" s="80"/>
-      <c r="G25" s="52"/>
-      <c r="H25" s="52"/>
+      <c r="G25" s="55"/>
+      <c r="H25" s="55"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="B26" s="52"/>
+      <c r="B26" s="55"/>
     </row>
     <row r="27" spans="1:8">
       <c r="H27" s="17" t="s">
@@ -8353,7 +8312,7 @@
     </row>
     <row r="28" spans="1:8" ht="101.25">
       <c r="F28" s="27" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="G28" s="16"/>
       <c r="H28" s="18" t="s">
@@ -8362,6 +8321,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="F19:F21"/>
     <mergeCell ref="H22:H25"/>
     <mergeCell ref="B19:E21"/>
     <mergeCell ref="G19:H21"/>
@@ -8370,11 +8334,6 @@
     <mergeCell ref="D22:D25"/>
     <mergeCell ref="E22:E25"/>
     <mergeCell ref="G22:G25"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="B22:B26"/>
-    <mergeCell ref="F19:F21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -8383,10 +8342,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C2:E33"/>
+  <dimension ref="C2:K33"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E32"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18:F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8394,7 +8353,7 @@
     <col min="3" max="3" width="21.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:5">
+    <row r="2" spans="3:11">
       <c r="C2" s="14" t="s">
         <v>10</v>
       </c>
@@ -8402,35 +8361,63 @@
         <f>CONCATENATE(C2,", ")</f>
         <v xml:space="preserve">CD_CIA, </v>
       </c>
-    </row>
-    <row r="3" spans="3:5">
+      <c r="I2" s="29" t="s">
+        <v>342</v>
+      </c>
+      <c r="K2" t="str">
+        <f>CONCATENATE("'",I2,"',")</f>
+        <v>'DEV1',</v>
+      </c>
+    </row>
+    <row r="3" spans="3:11">
       <c r="C3" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E3" t="str">
         <f t="shared" ref="E3:E33" si="0">CONCATENATE(C3,", ")</f>
-        <v xml:space="preserve">CD_MODULO, </v>
-      </c>
-    </row>
-    <row r="4" spans="3:5">
+        <v xml:space="preserve">CD_FILIAL, </v>
+      </c>
+      <c r="I3" s="29" t="s">
+        <v>414</v>
+      </c>
+      <c r="K3" t="str">
+        <f t="shared" ref="K3:K11" si="1">CONCATENATE("'",I3,"',")</f>
+        <v>'FAT193',</v>
+      </c>
+    </row>
+    <row r="4" spans="3:11">
       <c r="C4" s="14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">CD_FILIAL, </v>
-      </c>
-    </row>
-    <row r="5" spans="3:5">
+        <v xml:space="preserve">CD_MODULO, </v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="K4" t="str">
+        <f t="shared" si="1"/>
+        <v>'FAT194',</v>
+      </c>
+    </row>
+    <row r="5" spans="3:11">
       <c r="C5" s="14" t="s">
-        <v>271</v>
+        <v>85</v>
       </c>
       <c r="E5" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">DT_ULT_ATUALIZACAO, </v>
-      </c>
-    </row>
-    <row r="6" spans="3:5">
+        <v xml:space="preserve">CD_MODULO_TITULO_REFERENCIA, </v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="K5" t="str">
+        <f t="shared" si="1"/>
+        <v>'DEV105',</v>
+      </c>
+    </row>
+    <row r="6" spans="3:11">
       <c r="C6" s="14" t="s">
         <v>59</v>
       </c>
@@ -8438,212 +8425,254 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">CD_UNIDADE_EMPRESARIAL, </v>
       </c>
-    </row>
-    <row r="7" spans="3:5">
+      <c r="I6" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="K6" t="str">
+        <f t="shared" si="1"/>
+        <v>'DEV107',</v>
+      </c>
+    </row>
+    <row r="7" spans="3:11">
       <c r="C7" s="14" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="E7" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">CD_TRANSACAO_TITULO, </v>
-      </c>
-    </row>
-    <row r="8" spans="3:5">
+        <v xml:space="preserve">DT_ATUALIZACAO, </v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="K7" t="str">
+        <f t="shared" si="1"/>
+        <v>'DEV108',</v>
+      </c>
+    </row>
+    <row r="8" spans="3:11">
       <c r="C8" s="14" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E8" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">NR_TITULO, </v>
-      </c>
-    </row>
-    <row r="9" spans="3:5">
+        <v xml:space="preserve">CD_CHAVE_PRIMARIA, </v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="K8" t="str">
+        <f t="shared" si="1"/>
+        <v>'DEV109',</v>
+      </c>
+    </row>
+    <row r="9" spans="3:11">
       <c r="C9" s="14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E9" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">CD_CHAVE_PRIMARIA, </v>
-      </c>
-    </row>
-    <row r="10" spans="3:5">
+        <v xml:space="preserve">CD_TRANSACAO_TITULO, </v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="K9" t="str">
+        <f t="shared" si="1"/>
+        <v>'DEV11',</v>
+      </c>
+    </row>
+    <row r="10" spans="3:11">
       <c r="C10" s="14" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="E10" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">CD_PARCEIRO, </v>
-      </c>
-    </row>
-    <row r="11" spans="3:5">
+        <v xml:space="preserve">NR_TITULO, </v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="K10" t="str">
+        <f t="shared" si="1"/>
+        <v>'DEV115',</v>
+      </c>
+    </row>
+    <row r="11" spans="3:11">
       <c r="C11" s="14" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="E11" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">SQ_DOCUMENTO, </v>
-      </c>
-    </row>
-    <row r="12" spans="3:5">
+        <v xml:space="preserve">CD_TIPO_NF, </v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="K11" t="str">
+        <f t="shared" si="1"/>
+        <v>'DEV116',</v>
+      </c>
+    </row>
+    <row r="12" spans="3:11">
       <c r="C12" s="14" t="s">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="E12" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">NR_NF, </v>
-      </c>
-    </row>
-    <row r="13" spans="3:5">
+        <v xml:space="preserve">CD_TIPO_DOCUMENTO, </v>
+      </c>
+    </row>
+    <row r="13" spans="3:11">
       <c r="C13" s="14" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="E13" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">NR_SERIE_NF, </v>
-      </c>
-    </row>
-    <row r="14" spans="3:5">
+        <v xml:space="preserve">DT_TRANSACAO, </v>
+      </c>
+    </row>
+    <row r="14" spans="3:11">
       <c r="C14" s="14" t="s">
-        <v>45</v>
+        <v>86</v>
       </c>
       <c r="E14" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">DT_EMISSAO_TITULO, </v>
-      </c>
-    </row>
-    <row r="15" spans="3:5">
+        <v xml:space="preserve">CD_TRANSACAO_DOCUMENTO, </v>
+      </c>
+    </row>
+    <row r="15" spans="3:11">
       <c r="C15" s="14" t="s">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="E15" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">VL_TITULO, </v>
-      </c>
-    </row>
-    <row r="16" spans="3:5">
+        <v xml:space="preserve">CD_TIPO_MOVIMENTO, </v>
+      </c>
+    </row>
+    <row r="16" spans="3:11">
       <c r="C16" s="14" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="E16" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">VL_SALDO, </v>
+        <v xml:space="preserve">NR_MOVIMENTO, </v>
       </c>
     </row>
     <row r="17" spans="3:5">
       <c r="C17" s="14" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="E17" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">DT_VENCIMENTO_ORIGINAL, </v>
+        <v xml:space="preserve">SQ_MOVIMENTO, </v>
       </c>
     </row>
     <row r="18" spans="3:5">
       <c r="C18" s="14" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="E18" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">DT_VENCIMENTO, </v>
+        <v xml:space="preserve">NR_PROGRAMACAO, </v>
       </c>
     </row>
     <row r="19" spans="3:5">
       <c r="C19" s="14" t="s">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="E19" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">NR_BANCARIO, </v>
+        <v xml:space="preserve">VL_TRANSACAO, </v>
       </c>
     </row>
     <row r="20" spans="3:5">
       <c r="C20" s="14" t="s">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="E20" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">CD_CENTRO_CUSTO, </v>
+        <v xml:space="preserve">DT_SITUACAO_MOVIMENTO, </v>
       </c>
     </row>
     <row r="21" spans="3:5">
       <c r="C21" s="14" t="s">
-        <v>347</v>
+        <v>79</v>
       </c>
       <c r="E21" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">CD_CONTA_CONTROLE, </v>
+        <v xml:space="preserve">IN_ENTRADA_SAIDA, </v>
       </c>
     </row>
     <row r="22" spans="3:5">
       <c r="C22" s="14" t="s">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="E22" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">VL_DESCONTO, </v>
+        <v xml:space="preserve">CD_PREPARADO_PAGAMENTO, </v>
       </c>
     </row>
     <row r="23" spans="3:5">
       <c r="C23" s="14" t="s">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="E23" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">DT_LIQUIDACAO_TITULO, </v>
+        <v xml:space="preserve">DT_VENCTO_PRORROGADO, </v>
       </c>
     </row>
     <row r="24" spans="3:5">
       <c r="C24" s="14" t="s">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="E24" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">DT_SITUACAO_TITULO, </v>
+        <v xml:space="preserve">DT_VENCTO_ORIGINAL_PRORROGADO, </v>
       </c>
     </row>
     <row r="25" spans="3:5">
       <c r="C25" s="14" t="s">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="E25" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">CD_SITUACAO_TITULO, </v>
+        <v xml:space="preserve">DT_LIQUIDEZ_PREVISTA, </v>
       </c>
     </row>
     <row r="26" spans="3:5">
       <c r="C26" s="14" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="E26" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">DS_OBSERVACAO_TITULO, </v>
+        <v xml:space="preserve">CD_BANCO, </v>
       </c>
     </row>
     <row r="27" spans="3:5">
       <c r="C27" s="14" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="E27" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">DS_USUARIO_GERACAO_TITULO, </v>
+        <v xml:space="preserve">NR_AGENCIA, </v>
       </c>
     </row>
     <row r="28" spans="3:5">
       <c r="C28" s="14" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="E28" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">NR_PEDIDO, </v>
+        <v xml:space="preserve">NR_CONTA_CORRENTE, </v>
       </c>
     </row>
     <row r="29" spans="3:5">
       <c r="C29" s="14" t="s">
-        <v>17</v>
+        <v>84</v>
       </c>
       <c r="E29" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">CD_BANCO, </v>
+        <v xml:space="preserve">NR_TITULO_REFERENCIA, </v>
       </c>
     </row>
     <row r="30" spans="3:5">
@@ -8673,14 +8702,8 @@
         <v xml:space="preserve">CD_SITUACAO_PAGAMENTO, </v>
       </c>
     </row>
-    <row r="33" spans="3:5">
-      <c r="C33" s="14" t="s">
-        <v>347</v>
-      </c>
-      <c r="E33" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">CD_CONTA_CONTROLE, </v>
-      </c>
+    <row r="33" spans="3:3">
+      <c r="C33" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/Documentação/Planilhas/Conferencia_CAR.xlsx
+++ b/Documentação/Planilhas/Conferencia_CAR.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" tabRatio="812" firstSheet="3" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" tabRatio="812" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Resumo" sheetId="93" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1376" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1629" uniqueCount="508">
   <si>
     <t>1</t>
   </si>
@@ -222,12 +222,6 @@
     <t>2014-06-14 00:00:00.000</t>
   </si>
   <si>
-    <t>2014-07-14 00:00:00.000</t>
-  </si>
-  <si>
-    <t>DEV12</t>
-  </si>
-  <si>
     <t>12</t>
   </si>
   <si>
@@ -351,18 +345,9 @@
     <t>DT_PREVISTA_RECEBIMENTO</t>
   </si>
   <si>
-    <t>RE114</t>
-  </si>
-  <si>
-    <t>COE</t>
-  </si>
-  <si>
     <t>RE13</t>
   </si>
   <si>
-    <t>2014-06-09 00:00:00.000</t>
-  </si>
-  <si>
     <t>RE425</t>
   </si>
   <si>
@@ -373,9 +358,6 @@
   </si>
   <si>
     <t>RE434</t>
-  </si>
-  <si>
-    <t>2014-07-20 00:00:00.000</t>
   </si>
   <si>
     <t>RE14</t>
@@ -556,27 +538,9 @@
     <t>selecionar o documento desejado e no menu Specific, selecionar "Programações de Recebimento". Pegar a informação da coluna Data Prevista de Recebto</t>
   </si>
   <si>
-    <t>tfacr2523m000</t>
-  </si>
-  <si>
-    <t>Sessão tfacr2523m000</t>
-  </si>
-  <si>
-    <t>Informar na primeira e segunda informação da coluna Nº Doc Recebimento os dados de CD_TRANSACAO_DOCUMENTO e NR_MOVIMENTO. Ir com a seta de navegação "Next Group"  para encontrar o Título de Referência [veremos a indicação do título de origem e também a informação do título de Referência]</t>
-  </si>
-  <si>
-    <t>selecionar o documento desejado e no menu Specific, selecionar "Documentos Relacionados ao Recebimento por Entrada Aberta". Pegar a informação da coluna Data de Recebto.</t>
-  </si>
-  <si>
     <t>Usar a seguinte regra para pegar a data:</t>
   </si>
   <si>
-    <t>Utilizar sempre CD_TRANSACAO_TITULO, NR_TITULO e NR_PROGRAMACAO
-Se Saldo = Saldo Previsto, então pegar a maior data da coluna Data do Recebto.
-Se Saldo = Valor, pegar a Data do Recebto
-Caso contrário, pegar a menor data da coluna Data de Recebto.</t>
-  </si>
-  <si>
     <t>tfacr2520m000, tfcmg0511m000, tfcmg0510m000 e tfacr2523m000</t>
   </si>
   <si>
@@ -598,18 +562,12 @@
     <t>no menu Specific, selecionar "Programações de Recebimentos". Pegar a informação da coluna "Status do Recebimento"</t>
   </si>
   <si>
-    <t>Sessão tfcmg4501m000</t>
-  </si>
-  <si>
     <t>Sessão tfacr2520m000 [No menu "Mostrar", selecionar "Incluir totalmente pago"]</t>
   </si>
   <si>
     <t>tfcmg4501m000, tfacr2520m000</t>
   </si>
   <si>
-    <t>Sessão tfcmg4521m000</t>
-  </si>
-  <si>
     <t>Não tenho permissão  de acesso</t>
   </si>
   <si>
@@ -631,84 +589,12 @@
     <t>NR_CONTRATO_B2B</t>
   </si>
   <si>
-    <t>42187013</t>
-  </si>
-  <si>
-    <t>V20004910</t>
-  </si>
-  <si>
-    <t>1969-12-31 21:00:00.000</t>
-  </si>
-  <si>
-    <t>FAT1167</t>
-  </si>
-  <si>
-    <t>50014024</t>
-  </si>
-  <si>
-    <t>V20001473</t>
-  </si>
-  <si>
-    <t>FAT2276</t>
-  </si>
-  <si>
-    <t>000000283</t>
-  </si>
-  <si>
-    <t>100000044</t>
-  </si>
-  <si>
-    <t>LPV100</t>
-  </si>
-  <si>
-    <t>050013574</t>
-  </si>
-  <si>
-    <t>V20006989</t>
-  </si>
-  <si>
     <t>32</t>
   </si>
   <si>
-    <t>LPV105</t>
-  </si>
-  <si>
-    <t>050013524</t>
-  </si>
-  <si>
-    <t>V20004406</t>
-  </si>
-  <si>
     <t>10</t>
   </si>
   <si>
-    <t>LPV109</t>
-  </si>
-  <si>
-    <t>050013530</t>
-  </si>
-  <si>
-    <t>V20006706</t>
-  </si>
-  <si>
-    <t>LPV110</t>
-  </si>
-  <si>
-    <t>050013531</t>
-  </si>
-  <si>
-    <t>V20006707</t>
-  </si>
-  <si>
-    <t>R20189</t>
-  </si>
-  <si>
-    <t>R7120</t>
-  </si>
-  <si>
-    <t>R20166</t>
-  </si>
-  <si>
     <t>Pegar a informação da coluna "Pedido do Cliente"</t>
   </si>
   <si>
@@ -722,12 +608,6 @@
   </si>
   <si>
     <t>Está com essa data antiga, pois o campo foi criado depois da inserção dos dados. Segundo o Fábio da Infor, isso não acontecerá no ambiente de produção</t>
-  </si>
-  <si>
-    <t>Sessão znslsc530m000 [Na lupinha, limpar todos os campos e informar o NR_PEDIDO no "Pedido Cliente". Se não aparecer na tela, navegar com a seta "Next Group" até encontrá-lo.]</t>
-  </si>
-  <si>
-    <t>Sessão znslsc500m000 [informar o NR_PEDIDO na coluna Pedido do cliente, detalhando o mesmo em seguida]</t>
   </si>
   <si>
     <t>Pegar a informação da coluna "Ordem de Venda LN"</t>
@@ -1483,13 +1363,265 @@
   </si>
   <si>
     <t>Selecionar o documento desejado e no menu Specific, selecionar "Programações de Recebimento". Fazer o detahamento da linha apresentada. Na aba superior "Geral", seção "Detalhes da Programação", pegar a informação de Conta existente em Rel Bancária</t>
+  </si>
+  <si>
+    <t>selecionar e detalhar o documento desejado. Utilizar como fonte de conferência os dados apresentados na aba superior "Detalhes da Fat." para: Saldo, Saldo Previsto e Valor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Se Saldo = Saldo Previsto, então pegar a maior data da coluna Data do Recebto (MAX)
+Se Saldo = Valor, pegar a Data do Recebto de cada um dos documentos.
+Caso contrário, pegar a menor data da coluna Data de Recebto. (MIN)
+A data do recebimento é obtida na sessão "tfacr2523m000" (Documentos relacionados ao recebimento por entrada em aberto). </t>
+  </si>
+  <si>
+    <t>2015-02-03 17:26:00.000</t>
+  </si>
+  <si>
+    <t>RB3108</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>RGL</t>
+  </si>
+  <si>
+    <t>177</t>
+  </si>
+  <si>
+    <t>2014-08-20 00:00:00.000</t>
+  </si>
+  <si>
+    <t>-9900.0000</t>
+  </si>
+  <si>
+    <t>RG324</t>
+  </si>
+  <si>
+    <t>2014-09-20 00:00:00.000</t>
+  </si>
+  <si>
+    <t>5952</t>
+  </si>
+  <si>
+    <t>2014-08-21 00:00:00.000</t>
+  </si>
+  <si>
+    <t>2014-10-20 00:00:00.000</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>-10200.0000</t>
+  </si>
+  <si>
+    <t>2014-11-20 00:00:00.000</t>
+  </si>
+  <si>
+    <t>178</t>
+  </si>
+  <si>
+    <t>9900.0000</t>
+  </si>
+  <si>
+    <t>RGN121</t>
+  </si>
+  <si>
+    <t>10200.0000</t>
+  </si>
+  <si>
+    <t>180</t>
+  </si>
+  <si>
+    <t>RG325</t>
+  </si>
+  <si>
+    <t>50233794</t>
+  </si>
+  <si>
+    <t>FAT11736</t>
+  </si>
+  <si>
+    <t>2015-01-09 15:17:22.000</t>
+  </si>
+  <si>
+    <t>V20052449</t>
+  </si>
+  <si>
+    <t>FAT11737</t>
+  </si>
+  <si>
+    <t>2015-01-09 15:19:53.000</t>
+  </si>
+  <si>
+    <t>50233812</t>
+  </si>
+  <si>
+    <t>FAT11755</t>
+  </si>
+  <si>
+    <t>2015-01-12 15:03:05.000</t>
+  </si>
+  <si>
+    <t>V40000204</t>
+  </si>
+  <si>
+    <t>000002045</t>
+  </si>
+  <si>
+    <t>FAT11782</t>
+  </si>
+  <si>
+    <t>2015-01-15 09:17:57.000</t>
+  </si>
+  <si>
+    <t>V20052510</t>
+  </si>
+  <si>
+    <t>2015-01-15 09:17:56.000</t>
+  </si>
+  <si>
+    <t>000002048</t>
+  </si>
+  <si>
+    <t>FAT11786</t>
+  </si>
+  <si>
+    <t>2015-01-15 17:22:43.000</t>
+  </si>
+  <si>
+    <t>V20052514</t>
+  </si>
+  <si>
+    <t>000002050</t>
+  </si>
+  <si>
+    <t>FAT11815</t>
+  </si>
+  <si>
+    <t>2015-01-16 17:18:34.000</t>
+  </si>
+  <si>
+    <t>V20052523</t>
+  </si>
+  <si>
+    <t>000002062</t>
+  </si>
+  <si>
+    <t>FAT11927</t>
+  </si>
+  <si>
+    <t>2015-01-27 14:05:09.000</t>
+  </si>
+  <si>
+    <t>V20052734</t>
+  </si>
+  <si>
+    <t>000002063</t>
+  </si>
+  <si>
+    <t>FAT11929</t>
+  </si>
+  <si>
+    <t>2015-01-27 14:15:12.000</t>
+  </si>
+  <si>
+    <t>V20052737</t>
+  </si>
+  <si>
+    <t>50234110</t>
+  </si>
+  <si>
+    <t>R20820</t>
+  </si>
+  <si>
+    <t>2015-01-31 11:42:17.000</t>
+  </si>
+  <si>
+    <t>V60000159</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>Sessão znslsc500m000 (Pedidos de Venda Integrados) [informar o NR_PEDIDO na coluna Pedido do cliente, detalhando o mesmo em seguida]</t>
+  </si>
+  <si>
+    <t>Sessão znslsc530m000 (Controle de Faturamento)  [Na lupinha, limpar todos os campos e informar o NR_PEDIDO no "Pedido Cliente". Se não aparecer na tela, navegar com a seta "Next Group" até encontrá-lo.]</t>
+  </si>
+  <si>
+    <t>147</t>
+  </si>
+  <si>
+    <t>PED</t>
+  </si>
+  <si>
+    <t>135</t>
+  </si>
+  <si>
+    <t>2015-01-15 00:00:00.000</t>
+  </si>
+  <si>
+    <t>FAT353</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>2014-04-11 00:00:00.000</t>
+  </si>
+  <si>
+    <t>127</t>
+  </si>
+  <si>
+    <t>FAT446</t>
+  </si>
+  <si>
+    <t>128</t>
+  </si>
+  <si>
+    <t>FAT465</t>
+  </si>
+  <si>
+    <t>129</t>
+  </si>
+  <si>
+    <t>2014-04-02 00:00:00.000</t>
+  </si>
+  <si>
+    <t>Sessão tfcmg4501m000 (Lote de Cobrança - Aconselhamentos)</t>
+  </si>
+  <si>
+    <t>Sessão tfcmg4521m000 (Número de Lote para o procedimento de cobrança)</t>
+  </si>
+  <si>
+    <t>stg_car_pedido_venda</t>
+  </si>
+  <si>
+    <t>Sessão znacrc506m000 (Títulos Agrupados)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Na seção "tfacr2523m000", pegar a indicação do "Parc. Negócios" para o documento que está sendo analisado. Na seção "znacrc506m000" informar o código do parceiro de negócios na coluna "Parceiro de Negócios" e o desmembramento do NR_TITULO_REFERENCIA nas colunas "Tipo de transação Agrupamento" e "Documento Agrupamento" 
+(Ex: RG324, ficaria RG3 como Tipo de Transação Agrupamento e 24 como Documento Agrupamento)
+Selecionar a linha apresentada e no menu Specific, selecionar "Mostrar Títulos Agrupados".  Verificar se as informações das colunas Tipo de Transação, Documento, Tipo de Transação Link e Documento Link, batem com os dados de 
+CD_TRANSACAO_TITULO, NR_TITULO, CD_TRANSACAO_DOCUMENTO e NR_MOVIMENTO, respectivamente
+Caso o NR_TITULO_REFERENCIA não seja encontrado na seção de Títulos Agrupados, retornar para a seção "tfacr2523m000" e na lupinha, informar o "Tipo Transação" e "Documento" de acordo com o NR_TITULO_REFERENCIA. Verificar se as informação da coluna "Nº Doc Recebimento" está batendo com o CD_TRANSACAO_DOCUMENTO e NR_MOVIMENTO apresentada na extração dos dados 
+</t>
+  </si>
+  <si>
+    <t>Importante: As informações de títulos agrupados são prioritárias.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1546,6 +1678,22 @@
     <font>
       <b/>
       <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1866,7 +2014,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1926,9 +2074,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1974,6 +2119,18 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="6" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1998,7 +2155,7 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2020,6 +2177,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2076,10 +2236,33 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2109,47 +2292,23 @@
     <xf numFmtId="49" fontId="1" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2453,10 +2612,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:C7"/>
+  <dimension ref="B1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2475,48 +2634,70 @@
     </row>
     <row r="2" spans="2:3">
       <c r="B2" s="8" t="s">
-        <v>29</v>
+        <v>504</v>
       </c>
       <c r="C2" s="7"/>
     </row>
     <row r="3" spans="2:3">
       <c r="B3" s="8" t="s">
-        <v>138</v>
+        <v>29</v>
       </c>
       <c r="C3" s="7"/>
     </row>
     <row r="4" spans="2:3">
       <c r="B4" s="8" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="C4" s="7"/>
     </row>
     <row r="5" spans="2:3">
       <c r="B5" s="8" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="C5" s="7"/>
     </row>
     <row r="6" spans="2:3">
       <c r="B6" s="8" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C6" s="7"/>
     </row>
     <row r="7" spans="2:3">
-      <c r="B7" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="C7" s="9"/>
+      <c r="B7" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="C7" s="7"/>
+    </row>
+    <row r="8" spans="2:3">
+      <c r="B8" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="C8" s="7"/>
+    </row>
+    <row r="9" spans="2:3">
+      <c r="B9" s="8"/>
+      <c r="C9" s="7"/>
+    </row>
+    <row r="10" spans="2:3">
+      <c r="B10" s="8"/>
+      <c r="C10" s="7"/>
+    </row>
+    <row r="11" spans="2:3">
+      <c r="B11" s="10"/>
+      <c r="C11" s="9"/>
     </row>
   </sheetData>
+  <sortState ref="B2:C8">
+    <sortCondition ref="B2"/>
+  </sortState>
   <hyperlinks>
-    <hyperlink ref="B2" location="stg_car_remessa!A1" display="stg_car_remessa"/>
-    <hyperlink ref="B3" location="stg_car_remessa_cobr_eletronica!A1" display="stg_car_remessa_cobanca_eletronica"/>
-    <hyperlink ref="B4" location="stg_car_retorno_cobr_eletronica!A1" display="stg_car_retorno_cobranca_eletronica"/>
-    <hyperlink ref="B5" location="stg_car_titulo!A1" display="stg_car_titulo"/>
-    <hyperlink ref="B6" location="stg_car_titulo_mvmto!A1" display="stg_car_titulo_mvmto"/>
-    <hyperlink ref="B7" location="stg_car_titulo_remessa!A1" display="stg_car_titulo_remessa"/>
+    <hyperlink ref="B3" location="stg_car_remessa!A1" display="stg_car_remessa"/>
+    <hyperlink ref="B4" location="stg_car_remessa_cobr_eletronica!A1" display="stg_car_remessa_cobanca_eletronica"/>
+    <hyperlink ref="B5" location="stg_car_retorno_cobr_eletronica!A1" display="stg_car_retorno_cobranca_eletronica"/>
+    <hyperlink ref="B6" location="stg_car_titulo!A1" display="stg_car_titulo"/>
+    <hyperlink ref="B7" location="stg_car_titulo_mvmto!A1" display="stg_car_titulo_mvmto"/>
+    <hyperlink ref="B8" location="stg_car_titulo_remessa!A1" display="stg_car_titulo_remessa"/>
+    <hyperlink ref="B2" location="stg_car_pedido_venda!A1" display="stg_car_pedido_venda"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -2525,13 +2706,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
-    <tabColor rgb="FF92D050"/>
+    <tabColor rgb="FF00B050"/>
   </sheetPr>
   <dimension ref="A2:R30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
@@ -2569,21 +2748,21 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" ht="21">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="48"/>
+      <c r="B2" s="51"/>
       <c r="C2" s="3" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="21">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="48"/>
+      <c r="B3" s="51"/>
       <c r="C3" s="3" t="s">
-        <v>219</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2600,30 +2779,30 @@
         <v>8</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="B7" s="2" t="s">
+      <c r="A7" s="28" t="s">
+        <v>450</v>
+      </c>
+      <c r="B7" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>188</v>
+      <c r="C7" s="28" t="s">
+        <v>451</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>190</v>
+        <v>452</v>
+      </c>
+      <c r="E7" s="28" t="s">
+        <v>453</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>9</v>
@@ -2633,20 +2812,20 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="B8" s="2" t="s">
+      <c r="A8" s="28" t="s">
+        <v>450</v>
+      </c>
+      <c r="B8" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>205</v>
+      <c r="C8" s="28" t="s">
+        <v>454</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>190</v>
+        <v>455</v>
+      </c>
+      <c r="E8" s="28" t="s">
+        <v>453</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>9</v>
@@ -2656,112 +2835,112 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="B9" s="2" t="s">
+      <c r="A9" s="28" t="s">
+        <v>481</v>
+      </c>
+      <c r="B9" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>195</v>
+      <c r="C9" s="28" t="s">
+        <v>482</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>198</v>
+        <v>483</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>484</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>485</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>486</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="2" t="s">
-        <v>200</v>
+        <v>456</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>199</v>
+        <v>457</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>184</v>
+        <v>458</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>201</v>
+        <v>459</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>198</v>
+        <v>9</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="2" t="s">
-        <v>203</v>
+        <v>460</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>202</v>
+        <v>461</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>184</v>
+        <v>462</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>204</v>
+        <v>463</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>68</v>
+        <v>9</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="2" t="s">
-        <v>192</v>
+        <v>460</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>191</v>
+        <v>461</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>184</v>
+        <v>464</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>193</v>
+        <v>463</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>194</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="2" t="s">
-        <v>182</v>
+        <v>465</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>67</v>
+        <v>466</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>184</v>
+        <v>467</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>183</v>
+        <v>468</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>9</v>
@@ -2772,19 +2951,19 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="2" t="s">
-        <v>182</v>
+        <v>469</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>206</v>
+        <v>470</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>184</v>
+        <v>471</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>183</v>
+        <v>472</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>9</v>
@@ -2795,19 +2974,19 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="2" t="s">
-        <v>186</v>
+        <v>473</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>185</v>
+        <v>474</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>184</v>
+        <v>475</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>187</v>
+        <v>476</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>9</v>
@@ -2818,19 +2997,19 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="2" t="s">
-        <v>186</v>
+        <v>477</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>207</v>
+        <v>478</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>184</v>
+        <v>479</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>187</v>
+        <v>480</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>9</v>
@@ -2840,109 +3019,109 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="11.25" customHeight="1">
-      <c r="A18" s="49" t="s">
-        <v>213</v>
-      </c>
-      <c r="B18" s="49"/>
-      <c r="C18" s="49"/>
-      <c r="D18" s="49"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="41" t="s">
-        <v>214</v>
-      </c>
-      <c r="G18" s="42"/>
+      <c r="A18" s="52" t="s">
+        <v>488</v>
+      </c>
+      <c r="B18" s="52"/>
+      <c r="C18" s="52"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="44" t="s">
+        <v>487</v>
+      </c>
+      <c r="G18" s="45"/>
     </row>
     <row r="19" spans="1:7" ht="11.25" customHeight="1">
-      <c r="A19" s="49"/>
-      <c r="B19" s="49"/>
-      <c r="C19" s="49"/>
-      <c r="D19" s="49"/>
-      <c r="E19" s="49"/>
-      <c r="F19" s="43"/>
-      <c r="G19" s="44"/>
+      <c r="A19" s="52"/>
+      <c r="B19" s="52"/>
+      <c r="C19" s="52"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="52"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="47"/>
     </row>
     <row r="20" spans="1:7" ht="11.25" customHeight="1">
-      <c r="A20" s="49"/>
-      <c r="B20" s="49"/>
-      <c r="C20" s="49"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="45"/>
-      <c r="G20" s="46"/>
+      <c r="A20" s="52"/>
+      <c r="B20" s="52"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="49"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="47" t="s">
-        <v>208</v>
-      </c>
-      <c r="B21" s="47" t="s">
-        <v>209</v>
-      </c>
-      <c r="C21" s="47" t="s">
-        <v>210</v>
-      </c>
-      <c r="D21" s="47" t="s">
-        <v>211</v>
-      </c>
-      <c r="E21" s="47" t="s">
-        <v>215</v>
-      </c>
-      <c r="F21" s="47" t="s">
-        <v>217</v>
-      </c>
-      <c r="G21" s="47" t="s">
-        <v>218</v>
+      <c r="A21" s="50" t="s">
+        <v>171</v>
+      </c>
+      <c r="B21" s="50" t="s">
+        <v>172</v>
+      </c>
+      <c r="C21" s="50" t="s">
+        <v>173</v>
+      </c>
+      <c r="D21" s="50" t="s">
+        <v>174</v>
+      </c>
+      <c r="E21" s="50" t="s">
+        <v>176</v>
+      </c>
+      <c r="F21" s="50" t="s">
+        <v>178</v>
+      </c>
+      <c r="G21" s="50" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="47"/>
-      <c r="B22" s="47"/>
-      <c r="C22" s="47"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="47"/>
+      <c r="A22" s="50"/>
+      <c r="B22" s="50"/>
+      <c r="C22" s="50"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="50"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="50"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="47"/>
-      <c r="B23" s="47"/>
-      <c r="C23" s="47"/>
-      <c r="D23" s="47"/>
-      <c r="E23" s="47"/>
-      <c r="F23" s="47"/>
-      <c r="G23" s="47"/>
+      <c r="A23" s="50"/>
+      <c r="B23" s="50"/>
+      <c r="C23" s="50"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="50"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="47"/>
-      <c r="B24" s="47"/>
-      <c r="C24" s="47"/>
-      <c r="D24" s="47"/>
-      <c r="E24" s="47"/>
-      <c r="F24" s="47"/>
-      <c r="G24" s="47"/>
+      <c r="A24" s="50"/>
+      <c r="B24" s="50"/>
+      <c r="C24" s="50"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="50"/>
+      <c r="F24" s="50"/>
+      <c r="G24" s="50"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="D26" s="47" t="s">
-        <v>212</v>
-      </c>
-      <c r="E26" s="50" t="s">
-        <v>216</v>
+      <c r="D26" s="50" t="s">
+        <v>175</v>
+      </c>
+      <c r="E26" s="53" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="D27" s="47"/>
-      <c r="E27" s="50"/>
+      <c r="D27" s="50"/>
+      <c r="E27" s="53"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="D28" s="47"/>
-      <c r="E28" s="50"/>
+      <c r="D28" s="50"/>
+      <c r="E28" s="53"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="D29" s="47"/>
-      <c r="E29" s="50"/>
+      <c r="D29" s="50"/>
+      <c r="E29" s="53"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="D30" s="47"/>
-      <c r="E30" s="50"/>
+      <c r="D30" s="50"/>
+      <c r="E30" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -2968,13 +3147,11 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
-    <tabColor rgb="FF92D050"/>
+    <tabColor theme="9" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="A2:AG39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
@@ -3015,70 +3192,70 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:33" ht="21">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="48"/>
+      <c r="B2" s="51"/>
       <c r="C2" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:33" ht="21">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="48"/>
+      <c r="B3" s="51"/>
       <c r="C3" s="3" t="s">
-        <v>280</v>
+        <v>241</v>
       </c>
     </row>
     <row r="6" spans="1:33" s="22" customFormat="1" ht="21" customHeight="1">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="28" t="s">
+      <c r="D6" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="28" t="s">
+      <c r="E6" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="28" t="s">
+      <c r="F6" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="28" t="s">
-        <v>226</v>
-      </c>
-      <c r="H6" s="28" t="s">
-        <v>224</v>
-      </c>
-      <c r="I6" s="28" t="s">
-        <v>225</v>
-      </c>
-      <c r="J6" s="28" t="s">
+      <c r="G6" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="H6" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="I6" s="27" t="s">
+        <v>186</v>
+      </c>
+      <c r="J6" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="K6" s="28" t="s">
-        <v>223</v>
-      </c>
-      <c r="L6" s="28" t="s">
+      <c r="K6" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="L6" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="M6" s="28" t="s">
-        <v>220</v>
-      </c>
-      <c r="N6" s="28" t="s">
-        <v>221</v>
-      </c>
-      <c r="O6" s="28" t="s">
-        <v>222</v>
-      </c>
-      <c r="P6" s="28" t="s">
+      <c r="M6" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="N6" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="O6" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="P6" s="27" t="s">
         <v>17</v>
       </c>
       <c r="Q6" s="16"/>
@@ -3104,19 +3281,19 @@
         <v>7</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>282</v>
+        <v>243</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>283</v>
+        <v>244</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>284</v>
+        <v>245</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G7" s="12" t="s">
         <v>0</v>
@@ -3125,16 +3302,16 @@
         <v>20</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>286</v>
+        <v>247</v>
       </c>
       <c r="J7" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K7" s="12" t="s">
         <v>63</v>
       </c>
       <c r="L7" s="12" t="s">
-        <v>285</v>
+        <v>246</v>
       </c>
       <c r="M7" s="12" t="s">
         <v>4</v>
@@ -3143,7 +3320,7 @@
         <v>4</v>
       </c>
       <c r="O7" s="12" t="s">
-        <v>287</v>
+        <v>248</v>
       </c>
       <c r="P7" s="12" t="s">
         <v>20</v>
@@ -3171,19 +3348,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>288</v>
+        <v>249</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>289</v>
+        <v>250</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>284</v>
+        <v>245</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>0</v>
@@ -3192,16 +3369,16 @@
         <v>20</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>290</v>
+        <v>251</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>63</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>285</v>
+        <v>246</v>
       </c>
       <c r="M8" s="2" t="s">
         <v>4</v>
@@ -3210,7 +3387,7 @@
         <v>4</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>291</v>
+        <v>252</v>
       </c>
       <c r="P8" s="2" t="s">
         <v>20</v>
@@ -3221,19 +3398,19 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>231</v>
+        <v>192</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>232</v>
+        <v>193</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>227</v>
+        <v>188</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>0</v>
@@ -3242,16 +3419,16 @@
         <v>20</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>230</v>
+        <v>191</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>63</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>228</v>
+        <v>189</v>
       </c>
       <c r="M9" s="2" t="s">
         <v>0</v>
@@ -3260,280 +3437,365 @@
         <v>15</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>229</v>
+        <v>190</v>
       </c>
       <c r="P9" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:33">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:33" s="13" customFormat="1">
+      <c r="A10" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="29" t="s">
-        <v>144</v>
-      </c>
-      <c r="C10" s="29" t="s">
+      <c r="B10" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="C10" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="29" t="s">
-        <v>234</v>
-      </c>
-      <c r="E10" s="29" t="s">
-        <v>233</v>
-      </c>
-      <c r="F10" s="29" t="s">
+      <c r="D10" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="F10" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="G10" s="29" t="s">
+      <c r="G10" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="H10" s="29" t="s">
+      <c r="H10" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="I10" s="29" t="s">
-        <v>145</v>
-      </c>
-      <c r="J10" s="29" t="s">
+      <c r="I10" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="K10" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="L10" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="M10" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="N10" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="O10" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="P10" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="12"/>
+      <c r="S10" s="12"/>
+      <c r="T10" s="12"/>
+      <c r="U10" s="12"/>
+      <c r="V10" s="12"/>
+      <c r="W10" s="12"/>
+      <c r="X10" s="12"/>
+      <c r="Y10" s="12"/>
+      <c r="Z10" s="12"/>
+      <c r="AA10" s="12"/>
+      <c r="AB10" s="12"/>
+      <c r="AC10" s="12"/>
+      <c r="AD10" s="12"/>
+      <c r="AE10" s="12"/>
+      <c r="AF10" s="12"/>
+      <c r="AG10" s="12"/>
+    </row>
+    <row r="11" spans="1:33" s="13" customFormat="1">
+      <c r="A11" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="K11" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="L11" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="M11" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="N11" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="O11" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="P11" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="12"/>
+      <c r="S11" s="12"/>
+      <c r="T11" s="12"/>
+      <c r="U11" s="12"/>
+      <c r="V11" s="12"/>
+      <c r="W11" s="12"/>
+      <c r="X11" s="12"/>
+      <c r="Y11" s="12"/>
+      <c r="Z11" s="12"/>
+      <c r="AA11" s="12"/>
+      <c r="AB11" s="12"/>
+      <c r="AC11" s="12"/>
+      <c r="AD11" s="12"/>
+      <c r="AE11" s="12"/>
+      <c r="AF11" s="12"/>
+      <c r="AG11" s="12"/>
+    </row>
+    <row r="12" spans="1:33" s="13" customFormat="1">
+      <c r="A12" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="J12" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="K12" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="L12" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="M12" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="N12" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="O12" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="P12" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="12"/>
+      <c r="S12" s="12"/>
+      <c r="T12" s="12"/>
+      <c r="U12" s="12"/>
+      <c r="V12" s="12"/>
+      <c r="W12" s="12"/>
+      <c r="X12" s="12"/>
+      <c r="Y12" s="12"/>
+      <c r="Z12" s="12"/>
+      <c r="AA12" s="12"/>
+      <c r="AB12" s="12"/>
+      <c r="AC12" s="12"/>
+      <c r="AD12" s="12"/>
+      <c r="AE12" s="12"/>
+      <c r="AF12" s="12"/>
+      <c r="AG12" s="12"/>
+    </row>
+    <row r="13" spans="1:33" s="13" customFormat="1">
+      <c r="A13" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="F13" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="K10" s="29" t="s">
+      <c r="G13" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="J13" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="K13" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="L10" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="M10" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="N10" s="29" t="s">
+      <c r="L13" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="M13" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="N13" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="O10" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="P10" s="26" t="s">
+      <c r="O13" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="P13" s="12" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="1:33">
-      <c r="A11" s="2" t="s">
+      <c r="Q13" s="12"/>
+      <c r="R13" s="12"/>
+      <c r="S13" s="12"/>
+      <c r="T13" s="12"/>
+      <c r="U13" s="12"/>
+      <c r="V13" s="12"/>
+      <c r="W13" s="12"/>
+      <c r="X13" s="12"/>
+      <c r="Y13" s="12"/>
+      <c r="Z13" s="12"/>
+      <c r="AA13" s="12"/>
+      <c r="AB13" s="12"/>
+      <c r="AC13" s="12"/>
+      <c r="AD13" s="12"/>
+      <c r="AE13" s="12"/>
+      <c r="AF13" s="12"/>
+      <c r="AG13" s="12"/>
+    </row>
+    <row r="14" spans="1:33" s="13" customFormat="1">
+      <c r="A14" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="29" t="s">
-        <v>144</v>
-      </c>
-      <c r="C11" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="29" t="s">
-        <v>234</v>
-      </c>
-      <c r="E11" s="29" t="s">
-        <v>233</v>
-      </c>
-      <c r="F11" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="H11" s="29" t="s">
+      <c r="B14" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="I11" s="29" t="s">
-        <v>95</v>
-      </c>
-      <c r="J11" s="29" t="s">
-        <v>103</v>
-      </c>
-      <c r="K11" s="29" t="s">
+      <c r="I14" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="J14" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="K14" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="L11" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="M11" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="N11" s="29" t="s">
+      <c r="L14" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="M14" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="N14" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="O11" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="P11" s="26" t="s">
+      <c r="O14" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="P14" s="12" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="12" spans="1:33">
-      <c r="A12" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="29" t="s">
-        <v>144</v>
-      </c>
-      <c r="C12" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="29" t="s">
-        <v>234</v>
-      </c>
-      <c r="E12" s="29" t="s">
-        <v>233</v>
-      </c>
-      <c r="F12" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="G12" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="H12" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="I12" s="29" t="s">
-        <v>235</v>
-      </c>
-      <c r="J12" s="29" t="s">
-        <v>103</v>
-      </c>
-      <c r="K12" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="L12" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="M12" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="N12" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="O12" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="P12" s="26" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:33">
-      <c r="A13" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="N13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="O13" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="P13" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:33">
-      <c r="A14" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="N14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="O14" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="P14" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="12"/>
+      <c r="S14" s="12"/>
+      <c r="T14" s="12"/>
+      <c r="U14" s="12"/>
+      <c r="V14" s="12"/>
+      <c r="W14" s="12"/>
+      <c r="X14" s="12"/>
+      <c r="Y14" s="12"/>
+      <c r="Z14" s="12"/>
+      <c r="AA14" s="12"/>
+      <c r="AB14" s="12"/>
+      <c r="AC14" s="12"/>
+      <c r="AD14" s="12"/>
+      <c r="AE14" s="12"/>
+      <c r="AF14" s="12"/>
+      <c r="AG14" s="12"/>
     </row>
     <row r="15" spans="1:33">
       <c r="A15" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>240</v>
+        <v>201</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>241</v>
+        <v>202</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>0</v>
@@ -3542,16 +3804,16 @@
         <v>20</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>239</v>
+        <v>200</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K15" s="2" t="s">
         <v>63</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>237</v>
+        <v>198</v>
       </c>
       <c r="M15" s="2" t="s">
         <v>1</v>
@@ -3560,7 +3822,7 @@
         <v>15</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>238</v>
+        <v>199</v>
       </c>
       <c r="P15" s="2" t="s">
         <v>20</v>
@@ -3571,19 +3833,19 @@
         <v>7</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>240</v>
+        <v>201</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>241</v>
+        <v>202</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>1</v>
@@ -3592,16 +3854,16 @@
         <v>20</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>242</v>
+        <v>203</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>63</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>237</v>
+        <v>198</v>
       </c>
       <c r="M16" s="2" t="s">
         <v>1</v>
@@ -3610,7 +3872,7 @@
         <v>15</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>238</v>
+        <v>199</v>
       </c>
       <c r="P16" s="2" t="s">
         <v>20</v>
@@ -3618,102 +3880,102 @@
     </row>
     <row r="18" spans="1:33" ht="11.25" customHeight="1">
       <c r="A18" s="1"/>
-      <c r="B18" s="52" t="s">
-        <v>246</v>
-      </c>
-      <c r="C18" s="52"/>
-      <c r="D18" s="52"/>
-      <c r="E18" s="52"/>
-      <c r="F18" s="52"/>
-      <c r="G18" s="51" t="s">
-        <v>265</v>
-      </c>
-      <c r="H18" s="51"/>
-      <c r="I18" s="51"/>
-      <c r="J18" s="51"/>
-      <c r="K18" s="51"/>
-      <c r="L18" s="51"/>
-      <c r="M18" s="51"/>
-      <c r="N18" s="51"/>
+      <c r="B18" s="55" t="s">
+        <v>207</v>
+      </c>
+      <c r="C18" s="55"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="55"/>
+      <c r="G18" s="54" t="s">
+        <v>226</v>
+      </c>
+      <c r="H18" s="54"/>
+      <c r="I18" s="54"/>
+      <c r="J18" s="54"/>
+      <c r="K18" s="54"/>
+      <c r="L18" s="54"/>
+      <c r="M18" s="54"/>
+      <c r="N18" s="54"/>
     </row>
     <row r="19" spans="1:33">
-      <c r="B19" s="52"/>
-      <c r="C19" s="52"/>
-      <c r="D19" s="52"/>
-      <c r="E19" s="52"/>
-      <c r="F19" s="52"/>
-      <c r="G19" s="51"/>
-      <c r="H19" s="51"/>
-      <c r="I19" s="51"/>
-      <c r="J19" s="51"/>
-      <c r="K19" s="51"/>
-      <c r="L19" s="51"/>
-      <c r="M19" s="51"/>
-      <c r="N19" s="51"/>
+      <c r="B19" s="55"/>
+      <c r="C19" s="55"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="54"/>
+      <c r="H19" s="54"/>
+      <c r="I19" s="54"/>
+      <c r="J19" s="54"/>
+      <c r="K19" s="54"/>
+      <c r="L19" s="54"/>
+      <c r="M19" s="54"/>
+      <c r="N19" s="54"/>
     </row>
     <row r="20" spans="1:33">
-      <c r="B20" s="52"/>
-      <c r="C20" s="52"/>
-      <c r="D20" s="52"/>
-      <c r="E20" s="52"/>
-      <c r="F20" s="52"/>
-      <c r="G20" s="51"/>
-      <c r="H20" s="51"/>
-      <c r="I20" s="51"/>
-      <c r="J20" s="51"/>
-      <c r="K20" s="51"/>
-      <c r="L20" s="51"/>
-      <c r="M20" s="51"/>
-      <c r="N20" s="51"/>
+      <c r="B20" s="55"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="55"/>
+      <c r="G20" s="54"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="54"/>
+      <c r="J20" s="54"/>
+      <c r="K20" s="54"/>
+      <c r="L20" s="54"/>
+      <c r="M20" s="54"/>
+      <c r="N20" s="54"/>
     </row>
     <row r="21" spans="1:33" ht="11.25" customHeight="1">
-      <c r="A21" s="47" t="s">
+      <c r="A21" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="47" t="s">
-        <v>248</v>
-      </c>
-      <c r="C21" s="47" t="s">
-        <v>249</v>
-      </c>
-      <c r="D21" s="47" t="s">
-        <v>245</v>
-      </c>
-      <c r="E21" s="47" t="s">
-        <v>247</v>
-      </c>
-      <c r="F21" s="47" t="s">
-        <v>294</v>
-      </c>
-      <c r="G21" s="47" t="s">
-        <v>266</v>
-      </c>
-      <c r="H21" s="47" t="s">
-        <v>250</v>
-      </c>
-      <c r="I21" s="47" t="s">
-        <v>251</v>
-      </c>
-      <c r="J21" s="47" t="s">
-        <v>292</v>
-      </c>
-      <c r="K21" s="47" t="s">
-        <v>252</v>
-      </c>
-      <c r="L21" s="47" t="s">
-        <v>293</v>
-      </c>
-      <c r="M21" s="47" t="s">
+      <c r="B21" s="50" t="s">
+        <v>209</v>
+      </c>
+      <c r="C21" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="D21" s="50" t="s">
+        <v>206</v>
+      </c>
+      <c r="E21" s="50" t="s">
+        <v>208</v>
+      </c>
+      <c r="F21" s="50" t="s">
+        <v>255</v>
+      </c>
+      <c r="G21" s="50" t="s">
+        <v>227</v>
+      </c>
+      <c r="H21" s="50" t="s">
+        <v>211</v>
+      </c>
+      <c r="I21" s="50" t="s">
+        <v>212</v>
+      </c>
+      <c r="J21" s="50" t="s">
         <v>253</v>
       </c>
-      <c r="N21" s="47" t="s">
+      <c r="K21" s="50" t="s">
+        <v>213</v>
+      </c>
+      <c r="L21" s="50" t="s">
         <v>254</v>
       </c>
-      <c r="O21" s="47" t="s">
-        <v>281</v>
-      </c>
-      <c r="P21" s="47" t="s">
-        <v>279</v>
+      <c r="M21" s="50" t="s">
+        <v>214</v>
+      </c>
+      <c r="N21" s="50" t="s">
+        <v>215</v>
+      </c>
+      <c r="O21" s="50" t="s">
+        <v>242</v>
+      </c>
+      <c r="P21" s="50" t="s">
+        <v>240</v>
       </c>
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
@@ -3734,22 +3996,22 @@
       <c r="AG21" s="1"/>
     </row>
     <row r="22" spans="1:33">
-      <c r="A22" s="47"/>
-      <c r="B22" s="47"/>
-      <c r="C22" s="47"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="47"/>
-      <c r="H22" s="47"/>
-      <c r="I22" s="47"/>
-      <c r="J22" s="47"/>
-      <c r="K22" s="47"/>
-      <c r="L22" s="47"/>
-      <c r="M22" s="47"/>
-      <c r="N22" s="47"/>
-      <c r="O22" s="47"/>
-      <c r="P22" s="47"/>
+      <c r="A22" s="50"/>
+      <c r="B22" s="50"/>
+      <c r="C22" s="50"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="50"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="50"/>
+      <c r="H22" s="50"/>
+      <c r="I22" s="50"/>
+      <c r="J22" s="50"/>
+      <c r="K22" s="50"/>
+      <c r="L22" s="50"/>
+      <c r="M22" s="50"/>
+      <c r="N22" s="50"/>
+      <c r="O22" s="50"/>
+      <c r="P22" s="50"/>
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
@@ -3769,22 +4031,22 @@
       <c r="AG22" s="1"/>
     </row>
     <row r="23" spans="1:33">
-      <c r="A23" s="47"/>
-      <c r="B23" s="47"/>
-      <c r="C23" s="47"/>
-      <c r="D23" s="47"/>
-      <c r="E23" s="47"/>
-      <c r="F23" s="47"/>
-      <c r="G23" s="47"/>
-      <c r="H23" s="47"/>
-      <c r="I23" s="47"/>
-      <c r="J23" s="47"/>
-      <c r="K23" s="47"/>
-      <c r="L23" s="47"/>
-      <c r="M23" s="47"/>
-      <c r="N23" s="47"/>
-      <c r="O23" s="47"/>
-      <c r="P23" s="47"/>
+      <c r="A23" s="50"/>
+      <c r="B23" s="50"/>
+      <c r="C23" s="50"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="50"/>
+      <c r="H23" s="50"/>
+      <c r="I23" s="50"/>
+      <c r="J23" s="50"/>
+      <c r="K23" s="50"/>
+      <c r="L23" s="50"/>
+      <c r="M23" s="50"/>
+      <c r="N23" s="50"/>
+      <c r="O23" s="50"/>
+      <c r="P23" s="50"/>
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
       <c r="S23" s="1"/>
@@ -3804,22 +4066,22 @@
       <c r="AG23" s="1"/>
     </row>
     <row r="24" spans="1:33">
-      <c r="A24" s="47"/>
-      <c r="B24" s="47"/>
-      <c r="C24" s="47"/>
-      <c r="D24" s="47"/>
-      <c r="E24" s="47"/>
-      <c r="F24" s="47"/>
-      <c r="G24" s="47"/>
-      <c r="H24" s="47"/>
-      <c r="I24" s="47"/>
-      <c r="J24" s="47"/>
-      <c r="K24" s="47"/>
-      <c r="L24" s="47"/>
-      <c r="M24" s="47"/>
-      <c r="N24" s="47"/>
-      <c r="O24" s="47"/>
-      <c r="P24" s="47"/>
+      <c r="A24" s="50"/>
+      <c r="B24" s="50"/>
+      <c r="C24" s="50"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="50"/>
+      <c r="F24" s="50"/>
+      <c r="G24" s="50"/>
+      <c r="H24" s="50"/>
+      <c r="I24" s="50"/>
+      <c r="J24" s="50"/>
+      <c r="K24" s="50"/>
+      <c r="L24" s="50"/>
+      <c r="M24" s="50"/>
+      <c r="N24" s="50"/>
+      <c r="O24" s="50"/>
+      <c r="P24" s="50"/>
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
       <c r="S24" s="1"/>
@@ -3839,22 +4101,22 @@
       <c r="AG24" s="1"/>
     </row>
     <row r="25" spans="1:33">
-      <c r="A25" s="47"/>
-      <c r="B25" s="47"/>
-      <c r="C25" s="47"/>
-      <c r="D25" s="47"/>
-      <c r="E25" s="47"/>
-      <c r="F25" s="47"/>
-      <c r="G25" s="47"/>
-      <c r="H25" s="47"/>
-      <c r="I25" s="47"/>
-      <c r="J25" s="47"/>
-      <c r="K25" s="47"/>
-      <c r="L25" s="47"/>
-      <c r="M25" s="47"/>
-      <c r="N25" s="47"/>
-      <c r="O25" s="47"/>
-      <c r="P25" s="47"/>
+      <c r="A25" s="50"/>
+      <c r="B25" s="50"/>
+      <c r="C25" s="50"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="50"/>
+      <c r="F25" s="50"/>
+      <c r="G25" s="50"/>
+      <c r="H25" s="50"/>
+      <c r="I25" s="50"/>
+      <c r="J25" s="50"/>
+      <c r="K25" s="50"/>
+      <c r="L25" s="50"/>
+      <c r="M25" s="50"/>
+      <c r="N25" s="50"/>
+      <c r="O25" s="50"/>
+      <c r="P25" s="50"/>
       <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
       <c r="S25" s="1"/>
@@ -3874,22 +4136,22 @@
       <c r="AG25" s="1"/>
     </row>
     <row r="26" spans="1:33">
-      <c r="A26" s="47"/>
-      <c r="B26" s="47"/>
-      <c r="C26" s="47"/>
-      <c r="D26" s="47"/>
-      <c r="E26" s="47"/>
-      <c r="F26" s="47"/>
-      <c r="G26" s="47"/>
-      <c r="H26" s="47"/>
-      <c r="I26" s="47"/>
-      <c r="J26" s="47"/>
-      <c r="K26" s="47"/>
-      <c r="L26" s="47"/>
-      <c r="M26" s="47"/>
-      <c r="N26" s="47"/>
-      <c r="O26" s="47"/>
-      <c r="P26" s="47"/>
+      <c r="A26" s="50"/>
+      <c r="B26" s="50"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="50"/>
+      <c r="G26" s="50"/>
+      <c r="H26" s="50"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="50"/>
+      <c r="K26" s="50"/>
+      <c r="L26" s="50"/>
+      <c r="M26" s="50"/>
+      <c r="N26" s="50"/>
+      <c r="O26" s="50"/>
+      <c r="P26" s="50"/>
       <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
       <c r="S26" s="1"/>
@@ -3909,22 +4171,22 @@
       <c r="AG26" s="1"/>
     </row>
     <row r="27" spans="1:33">
-      <c r="A27" s="47"/>
-      <c r="B27" s="47"/>
-      <c r="C27" s="47"/>
-      <c r="D27" s="47"/>
-      <c r="E27" s="47"/>
-      <c r="F27" s="47"/>
-      <c r="G27" s="47"/>
-      <c r="H27" s="47"/>
-      <c r="I27" s="47"/>
-      <c r="J27" s="47"/>
-      <c r="K27" s="47"/>
-      <c r="L27" s="47"/>
-      <c r="M27" s="47"/>
-      <c r="N27" s="47"/>
-      <c r="O27" s="47"/>
-      <c r="P27" s="47"/>
+      <c r="A27" s="50"/>
+      <c r="B27" s="50"/>
+      <c r="C27" s="50"/>
+      <c r="D27" s="50"/>
+      <c r="E27" s="50"/>
+      <c r="F27" s="50"/>
+      <c r="G27" s="50"/>
+      <c r="H27" s="50"/>
+      <c r="I27" s="50"/>
+      <c r="J27" s="50"/>
+      <c r="K27" s="50"/>
+      <c r="L27" s="50"/>
+      <c r="M27" s="50"/>
+      <c r="N27" s="50"/>
+      <c r="O27" s="50"/>
+      <c r="P27" s="50"/>
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
       <c r="S27" s="1"/>
@@ -3944,22 +4206,22 @@
       <c r="AG27" s="1"/>
     </row>
     <row r="28" spans="1:33">
-      <c r="A28" s="47"/>
-      <c r="B28" s="47"/>
-      <c r="C28" s="47"/>
-      <c r="D28" s="47"/>
-      <c r="E28" s="47"/>
-      <c r="F28" s="47"/>
-      <c r="G28" s="47"/>
-      <c r="H28" s="47"/>
-      <c r="I28" s="47"/>
-      <c r="J28" s="47"/>
-      <c r="K28" s="47"/>
-      <c r="L28" s="47"/>
-      <c r="M28" s="47"/>
-      <c r="N28" s="47"/>
-      <c r="O28" s="47"/>
-      <c r="P28" s="47"/>
+      <c r="A28" s="50"/>
+      <c r="B28" s="50"/>
+      <c r="C28" s="50"/>
+      <c r="D28" s="50"/>
+      <c r="E28" s="50"/>
+      <c r="F28" s="50"/>
+      <c r="G28" s="50"/>
+      <c r="H28" s="50"/>
+      <c r="I28" s="50"/>
+      <c r="J28" s="50"/>
+      <c r="K28" s="50"/>
+      <c r="L28" s="50"/>
+      <c r="M28" s="50"/>
+      <c r="N28" s="50"/>
+      <c r="O28" s="50"/>
+      <c r="P28" s="50"/>
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
       <c r="S28" s="1"/>
@@ -3979,64 +4241,64 @@
       <c r="AG28" s="1"/>
     </row>
     <row r="30" spans="1:33">
-      <c r="M30" s="53" t="s">
-        <v>255</v>
-      </c>
-      <c r="N30" s="53"/>
+      <c r="M30" s="56" t="s">
+        <v>216</v>
+      </c>
+      <c r="N30" s="56"/>
     </row>
     <row r="31" spans="1:33">
-      <c r="M31" s="53" t="s">
-        <v>256</v>
-      </c>
-      <c r="N31" s="53"/>
+      <c r="M31" s="56" t="s">
+        <v>217</v>
+      </c>
+      <c r="N31" s="56"/>
     </row>
     <row r="32" spans="1:33">
-      <c r="M32" s="53" t="s">
-        <v>257</v>
-      </c>
-      <c r="N32" s="53"/>
+      <c r="M32" s="56" t="s">
+        <v>218</v>
+      </c>
+      <c r="N32" s="56"/>
     </row>
     <row r="33" spans="13:14">
-      <c r="M33" s="53" t="s">
-        <v>258</v>
-      </c>
-      <c r="N33" s="53"/>
+      <c r="M33" s="56" t="s">
+        <v>219</v>
+      </c>
+      <c r="N33" s="56"/>
     </row>
     <row r="34" spans="13:14">
-      <c r="M34" s="53" t="s">
-        <v>259</v>
-      </c>
-      <c r="N34" s="53"/>
+      <c r="M34" s="56" t="s">
+        <v>220</v>
+      </c>
+      <c r="N34" s="56"/>
     </row>
     <row r="35" spans="13:14">
-      <c r="M35" s="53" t="s">
-        <v>260</v>
-      </c>
-      <c r="N35" s="53"/>
+      <c r="M35" s="56" t="s">
+        <v>221</v>
+      </c>
+      <c r="N35" s="56"/>
     </row>
     <row r="36" spans="13:14">
-      <c r="M36" s="53" t="s">
-        <v>261</v>
-      </c>
-      <c r="N36" s="53"/>
+      <c r="M36" s="56" t="s">
+        <v>222</v>
+      </c>
+      <c r="N36" s="56"/>
     </row>
     <row r="37" spans="13:14">
-      <c r="M37" s="53" t="s">
-        <v>262</v>
-      </c>
-      <c r="N37" s="53"/>
+      <c r="M37" s="56" t="s">
+        <v>223</v>
+      </c>
+      <c r="N37" s="56"/>
     </row>
     <row r="38" spans="13:14">
-      <c r="M38" s="53" t="s">
-        <v>263</v>
-      </c>
-      <c r="N38" s="53"/>
+      <c r="M38" s="56" t="s">
+        <v>224</v>
+      </c>
+      <c r="N38" s="56"/>
     </row>
     <row r="39" spans="13:14">
-      <c r="M39" s="53" t="s">
-        <v>264</v>
-      </c>
-      <c r="N39" s="53"/>
+      <c r="M39" s="56" t="s">
+        <v>225</v>
+      </c>
+      <c r="N39" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="30">
@@ -4079,13 +4341,11 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
-    <tabColor rgb="FF92D050"/>
+    <tabColor theme="9" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="A2:Q27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
@@ -4110,21 +4370,21 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" ht="21">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="48"/>
+      <c r="B2" s="51"/>
       <c r="C2" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="21">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="48"/>
+      <c r="B3" s="51"/>
       <c r="C3" s="3" t="s">
-        <v>280</v>
+        <v>241</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -4138,7 +4398,7 @@
         <v>22</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>19</v>
@@ -4147,30 +4407,30 @@
         <v>17</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>222</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="B7" s="29" t="s">
-        <v>111</v>
-      </c>
-      <c r="C7" s="29" t="s">
+      <c r="B7" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="C7" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="29" t="s">
+      <c r="D7" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="29" t="s">
+      <c r="E7" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="26" t="s">
+      <c r="F7" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="26" t="s">
-        <v>267</v>
+      <c r="G7" s="25" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4178,7 +4438,7 @@
         <v>61</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>4</v>
@@ -4193,7 +4453,7 @@
         <v>20</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>268</v>
+        <v>229</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -4201,7 +4461,7 @@
         <v>61</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>269</v>
+        <v>230</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>4</v>
@@ -4216,7 +4476,7 @@
         <v>20</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>268</v>
+        <v>229</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -4224,7 +4484,7 @@
         <v>61</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>4</v>
@@ -4239,7 +4499,7 @@
         <v>20</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>268</v>
+        <v>229</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -4247,7 +4507,7 @@
         <v>61</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>270</v>
+        <v>231</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>4</v>
@@ -4262,7 +4522,7 @@
         <v>20</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>268</v>
+        <v>229</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -4270,7 +4530,7 @@
         <v>61</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C12" s="12" t="s">
         <v>4</v>
@@ -4285,7 +4545,7 @@
         <v>20</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>268</v>
+        <v>229</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -4293,7 +4553,7 @@
         <v>61</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C13" s="12" t="s">
         <v>4</v>
@@ -4308,7 +4568,7 @@
         <v>20</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>268</v>
+        <v>229</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -4316,7 +4576,7 @@
         <v>61</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C14" s="12" t="s">
         <v>4</v>
@@ -4331,7 +4591,7 @@
         <v>20</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>268</v>
+        <v>229</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -4339,7 +4599,7 @@
         <v>61</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>4</v>
@@ -4354,7 +4614,7 @@
         <v>20</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>268</v>
+        <v>229</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -4362,13 +4622,13 @@
         <v>61</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>272</v>
+        <v>233</v>
       </c>
       <c r="C16" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>271</v>
+        <v>232</v>
       </c>
       <c r="E16" s="12" t="s">
         <v>2</v>
@@ -4377,7 +4637,7 @@
         <v>20</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>273</v>
+        <v>234</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -4391,101 +4651,101 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="12"/>
-      <c r="B18" s="49" t="s">
-        <v>274</v>
-      </c>
-      <c r="C18" s="49"/>
-      <c r="D18" s="49"/>
-      <c r="E18" s="49" t="s">
-        <v>277</v>
+      <c r="B18" s="60" t="s">
+        <v>235</v>
+      </c>
+      <c r="C18" s="60"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="60" t="s">
+        <v>238</v>
       </c>
       <c r="F18" s="12"/>
       <c r="G18" s="12"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="B19" s="49"/>
-      <c r="C19" s="49"/>
-      <c r="D19" s="49"/>
-      <c r="E19" s="49"/>
+      <c r="B19" s="60"/>
+      <c r="C19" s="60"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="60"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="B20" s="49"/>
-      <c r="C20" s="49"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="49"/>
+      <c r="B20" s="60"/>
+      <c r="C20" s="60"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="60"/>
     </row>
     <row r="21" spans="1:7" ht="11.25" customHeight="1">
-      <c r="A21" s="47" t="s">
-        <v>123</v>
-      </c>
-      <c r="B21" s="47" t="s">
-        <v>121</v>
-      </c>
-      <c r="C21" s="47" t="s">
-        <v>275</v>
-      </c>
-      <c r="D21" s="47" t="s">
-        <v>276</v>
-      </c>
-      <c r="E21" s="54" t="s">
-        <v>278</v>
-      </c>
-      <c r="F21" s="47" t="s">
-        <v>279</v>
-      </c>
-      <c r="G21" s="47" t="s">
-        <v>281</v>
+      <c r="A21" s="50" t="s">
+        <v>117</v>
+      </c>
+      <c r="B21" s="50" t="s">
+        <v>115</v>
+      </c>
+      <c r="C21" s="50" t="s">
+        <v>236</v>
+      </c>
+      <c r="D21" s="50" t="s">
+        <v>237</v>
+      </c>
+      <c r="E21" s="57" t="s">
+        <v>239</v>
+      </c>
+      <c r="F21" s="50" t="s">
+        <v>240</v>
+      </c>
+      <c r="G21" s="50" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="47"/>
-      <c r="B22" s="47"/>
-      <c r="C22" s="47"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="55"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="47"/>
+      <c r="A22" s="50"/>
+      <c r="B22" s="50"/>
+      <c r="C22" s="50"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="58"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="50"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="47"/>
-      <c r="B23" s="47"/>
-      <c r="C23" s="47"/>
-      <c r="D23" s="47"/>
-      <c r="E23" s="55"/>
-      <c r="F23" s="47"/>
-      <c r="G23" s="47"/>
+      <c r="A23" s="50"/>
+      <c r="B23" s="50"/>
+      <c r="C23" s="50"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="58"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="50"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="47"/>
-      <c r="B24" s="47"/>
-      <c r="C24" s="47"/>
-      <c r="D24" s="47"/>
-      <c r="E24" s="56"/>
-      <c r="F24" s="47"/>
-      <c r="G24" s="47"/>
+      <c r="A24" s="50"/>
+      <c r="B24" s="50"/>
+      <c r="C24" s="50"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="59"/>
+      <c r="F24" s="50"/>
+      <c r="G24" s="50"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="47"/>
-      <c r="B25" s="47"/>
-      <c r="C25" s="47"/>
-      <c r="D25" s="47"/>
-      <c r="F25" s="47"/>
-      <c r="G25" s="47"/>
+      <c r="A25" s="50"/>
+      <c r="B25" s="50"/>
+      <c r="C25" s="50"/>
+      <c r="D25" s="50"/>
+      <c r="F25" s="50"/>
+      <c r="G25" s="50"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="47"/>
-      <c r="B26" s="47"/>
-      <c r="C26" s="47"/>
-      <c r="D26" s="47"/>
-      <c r="E26" s="30" t="s">
-        <v>119</v>
-      </c>
-      <c r="F26" s="47"/>
-      <c r="G26" s="47"/>
+      <c r="A26" s="50"/>
+      <c r="B26" s="50"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="F26" s="50"/>
+      <c r="G26" s="50"/>
     </row>
     <row r="27" spans="1:7" ht="101.25">
       <c r="E27" s="18" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -4510,13 +4770,11 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
-    <tabColor rgb="FFFA7E7E"/>
+    <tabColor theme="9" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="A2:Q22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
@@ -4541,25 +4799,25 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:17" ht="21">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="48"/>
+      <c r="B2" s="51"/>
       <c r="C2" s="3" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="21">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="48"/>
+      <c r="B3" s="51"/>
       <c r="C3" s="3"/>
     </row>
     <row r="6" spans="1:17" s="13" customFormat="1" ht="21">
       <c r="A6" s="11"/>
-      <c r="B6" s="31" t="s">
-        <v>295</v>
+      <c r="B6" s="30" t="s">
+        <v>256</v>
       </c>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
@@ -4578,40 +4836,40 @@
       <c r="Q6" s="12"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="57"/>
-      <c r="B19" s="57"/>
-      <c r="C19" s="57"/>
-      <c r="D19" s="57"/>
-      <c r="E19" s="57"/>
-      <c r="F19" s="57"/>
-      <c r="G19" s="57"/>
+      <c r="A19" s="61"/>
+      <c r="B19" s="61"/>
+      <c r="C19" s="61"/>
+      <c r="D19" s="61"/>
+      <c r="E19" s="61"/>
+      <c r="F19" s="61"/>
+      <c r="G19" s="61"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="58"/>
-      <c r="B20" s="58"/>
-      <c r="C20" s="58"/>
-      <c r="D20" s="58"/>
-      <c r="E20" s="58"/>
-      <c r="F20" s="58"/>
-      <c r="G20" s="58"/>
+      <c r="A20" s="62"/>
+      <c r="B20" s="62"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="62"/>
+      <c r="E20" s="62"/>
+      <c r="F20" s="62"/>
+      <c r="G20" s="62"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="58"/>
-      <c r="B21" s="58"/>
-      <c r="C21" s="58"/>
-      <c r="D21" s="58"/>
-      <c r="E21" s="58"/>
-      <c r="F21" s="58"/>
-      <c r="G21" s="58"/>
+      <c r="A21" s="62"/>
+      <c r="B21" s="62"/>
+      <c r="C21" s="62"/>
+      <c r="D21" s="62"/>
+      <c r="E21" s="62"/>
+      <c r="F21" s="62"/>
+      <c r="G21" s="62"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="59"/>
-      <c r="B22" s="59"/>
-      <c r="C22" s="59"/>
-      <c r="D22" s="59"/>
-      <c r="E22" s="59"/>
-      <c r="F22" s="59"/>
-      <c r="G22" s="59"/>
+      <c r="A22" s="63"/>
+      <c r="B22" s="63"/>
+      <c r="C22" s="63"/>
+      <c r="D22" s="63"/>
+      <c r="E22" s="63"/>
+      <c r="F22" s="63"/>
+      <c r="G22" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -4637,9 +4895,7 @@
   </sheetPr>
   <dimension ref="A2:AE43"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
@@ -4678,7 +4934,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:31" ht="21">
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="31" t="s">
         <v>13</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -4686,28 +4942,28 @@
       </c>
     </row>
     <row r="3" spans="1:31" ht="21">
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="31" t="s">
         <v>14</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>349</v>
+        <v>310</v>
       </c>
     </row>
     <row r="4" spans="1:31" ht="21">
-      <c r="B4" s="37" t="s">
-        <v>131</v>
-      </c>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
+      <c r="B4" s="36" t="s">
+        <v>125</v>
+      </c>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
       <c r="F4" s="1"/>
-      <c r="H4" s="33"/>
+      <c r="H4" s="32"/>
       <c r="P4" s="19"/>
       <c r="S4" s="2"/>
     </row>
     <row r="5" spans="1:31">
       <c r="Y5" s="2" t="s">
-        <v>298</v>
+        <v>259</v>
       </c>
     </row>
     <row r="7" spans="1:31" s="13" customFormat="1">
@@ -4721,7 +4977,7 @@
         <v>38</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>222</v>
+        <v>183</v>
       </c>
       <c r="E7" s="14" t="s">
         <v>58</v>
@@ -4778,7 +5034,7 @@
         <v>49</v>
       </c>
       <c r="W7" s="14" t="s">
-        <v>296</v>
+        <v>257</v>
       </c>
       <c r="X7" s="14" t="s">
         <v>55</v>
@@ -4816,76 +5072,76 @@
         <v>1</v>
       </c>
       <c r="D8" s="23" t="s">
-        <v>351</v>
+        <v>312</v>
       </c>
       <c r="E8" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="29" t="s">
+      <c r="F8" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="34" t="s">
-        <v>352</v>
-      </c>
-      <c r="H8" s="29" t="s">
-        <v>353</v>
-      </c>
-      <c r="I8" s="29" t="s">
-        <v>354</v>
-      </c>
-      <c r="J8" s="29" t="s">
+      <c r="G8" s="33" t="s">
+        <v>313</v>
+      </c>
+      <c r="H8" s="28" t="s">
+        <v>314</v>
+      </c>
+      <c r="I8" s="28" t="s">
+        <v>315</v>
+      </c>
+      <c r="J8" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="K8" s="34" t="s">
-        <v>355</v>
-      </c>
-      <c r="L8" s="34" t="s">
-        <v>308</v>
-      </c>
-      <c r="M8" s="34" t="s">
+      <c r="K8" s="33" t="s">
+        <v>316</v>
+      </c>
+      <c r="L8" s="33" t="s">
+        <v>269</v>
+      </c>
+      <c r="M8" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="N8" s="34" t="s">
+      <c r="N8" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="O8" s="34" t="s">
+      <c r="O8" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="P8" s="98" t="s">
-        <v>356</v>
-      </c>
-      <c r="Q8" s="98" t="s">
-        <v>356</v>
-      </c>
-      <c r="R8" s="98" t="s">
+      <c r="P8" s="43" t="s">
+        <v>317</v>
+      </c>
+      <c r="Q8" s="43" t="s">
+        <v>317</v>
+      </c>
+      <c r="R8" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="S8" s="98" t="s">
-        <v>9</v>
-      </c>
-      <c r="T8" s="98" t="s">
-        <v>9</v>
-      </c>
-      <c r="U8" s="98" t="s">
-        <v>9</v>
-      </c>
-      <c r="V8" s="98" t="s">
+      <c r="S8" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="T8" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="U8" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="V8" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="W8" s="26" t="s">
-        <v>357</v>
-      </c>
-      <c r="X8" s="98" t="s">
+      <c r="W8" s="25" t="s">
+        <v>318</v>
+      </c>
+      <c r="X8" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="Y8" s="98" t="s">
-        <v>298</v>
-      </c>
-      <c r="Z8" s="34" t="s">
-        <v>355</v>
-      </c>
-      <c r="AA8" s="34" t="s">
-        <v>355</v>
+      <c r="Y8" s="43" t="s">
+        <v>259</v>
+      </c>
+      <c r="Z8" s="33" t="s">
+        <v>316</v>
+      </c>
+      <c r="AA8" s="33" t="s">
+        <v>316</v>
       </c>
       <c r="AB8" s="23" t="s">
         <v>9</v>
@@ -4911,88 +5167,88 @@
         <v>1</v>
       </c>
       <c r="D9" s="23" t="s">
-        <v>358</v>
+        <v>319</v>
       </c>
       <c r="E9" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="29" t="s">
-        <v>91</v>
-      </c>
-      <c r="G9" s="34" t="s">
-        <v>359</v>
-      </c>
-      <c r="H9" s="29" t="s">
-        <v>360</v>
-      </c>
-      <c r="I9" s="29" t="s">
-        <v>361</v>
-      </c>
-      <c r="J9" s="29" t="s">
+      <c r="F9" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="G9" s="33" t="s">
+        <v>320</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>321</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>322</v>
+      </c>
+      <c r="J9" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="K9" s="34" t="s">
-        <v>362</v>
-      </c>
-      <c r="L9" s="34" t="s">
-        <v>363</v>
-      </c>
-      <c r="M9" s="34" t="s">
+      <c r="K9" s="33" t="s">
+        <v>323</v>
+      </c>
+      <c r="L9" s="33" t="s">
+        <v>324</v>
+      </c>
+      <c r="M9" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="N9" s="34" t="s">
+      <c r="N9" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="O9" s="34" t="s">
+      <c r="O9" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="P9" s="34" t="s">
-        <v>364</v>
-      </c>
-      <c r="Q9" s="34" t="s">
-        <v>364</v>
-      </c>
-      <c r="R9" s="34" t="s">
+      <c r="P9" s="33" t="s">
+        <v>325</v>
+      </c>
+      <c r="Q9" s="33" t="s">
+        <v>325</v>
+      </c>
+      <c r="R9" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="S9" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="T9" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="U9" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="V9" s="34" t="s">
+      <c r="S9" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="T9" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="U9" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="V9" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="W9" s="29" t="s">
-        <v>301</v>
-      </c>
-      <c r="X9" s="34" t="s">
+      <c r="W9" s="28" t="s">
+        <v>262</v>
+      </c>
+      <c r="X9" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="Y9" s="34" t="s">
-        <v>365</v>
-      </c>
-      <c r="Z9" s="34" t="s">
-        <v>362</v>
-      </c>
-      <c r="AA9" s="34" t="s">
-        <v>362</v>
-      </c>
-      <c r="AB9" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC9" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD9" s="29" t="s">
-        <v>366</v>
-      </c>
-      <c r="AE9" s="29" t="s">
-        <v>367</v>
+      <c r="Y9" s="33" t="s">
+        <v>326</v>
+      </c>
+      <c r="Z9" s="33" t="s">
+        <v>323</v>
+      </c>
+      <c r="AA9" s="33" t="s">
+        <v>323</v>
+      </c>
+      <c r="AB9" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC9" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD9" s="28" t="s">
+        <v>327</v>
+      </c>
+      <c r="AE9" s="28" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="10" spans="1:31">
@@ -5006,31 +5262,31 @@
         <v>1</v>
       </c>
       <c r="D10" s="23" t="s">
-        <v>368</v>
+        <v>329</v>
       </c>
       <c r="E10" s="23" t="s">
         <v>9</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G10" s="23" t="s">
-        <v>369</v>
+        <v>330</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>370</v>
+        <v>331</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>297</v>
+        <v>258</v>
       </c>
       <c r="J10" s="12" t="s">
         <v>0</v>
       </c>
       <c r="K10" s="23" t="s">
-        <v>371</v>
+        <v>332</v>
       </c>
       <c r="L10" s="23" t="s">
-        <v>334</v>
+        <v>295</v>
       </c>
       <c r="M10" s="23" t="s">
         <v>64</v>
@@ -5042,10 +5298,10 @@
         <v>3</v>
       </c>
       <c r="P10" s="23" t="s">
-        <v>372</v>
+        <v>333</v>
       </c>
       <c r="Q10" s="23" t="s">
-        <v>372</v>
+        <v>333</v>
       </c>
       <c r="R10" s="23" t="s">
         <v>63</v>
@@ -5063,19 +5319,19 @@
         <v>63</v>
       </c>
       <c r="W10" s="12" t="s">
-        <v>301</v>
+        <v>262</v>
       </c>
       <c r="X10" s="23" t="s">
         <v>64</v>
       </c>
       <c r="Y10" s="23" t="s">
-        <v>300</v>
+        <v>261</v>
       </c>
       <c r="Z10" s="23" t="s">
-        <v>237</v>
+        <v>198</v>
       </c>
       <c r="AA10" s="23" t="s">
-        <v>373</v>
+        <v>334</v>
       </c>
       <c r="AB10" s="23" t="s">
         <v>9</v>
@@ -5084,7 +5340,7 @@
         <v>9</v>
       </c>
       <c r="AD10" s="12" t="s">
-        <v>374</v>
+        <v>335</v>
       </c>
       <c r="AE10" s="12" t="s">
         <v>0</v>
@@ -5101,31 +5357,31 @@
         <v>1</v>
       </c>
       <c r="D11" s="23" t="s">
-        <v>375</v>
+        <v>336</v>
       </c>
       <c r="E11" s="23" t="s">
         <v>9</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G11" s="23" t="s">
-        <v>376</v>
+        <v>337</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>377</v>
+        <v>338</v>
       </c>
       <c r="I11" s="12" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="J11" s="12" t="s">
         <v>1</v>
       </c>
       <c r="K11" s="23" t="s">
-        <v>378</v>
+        <v>339</v>
       </c>
       <c r="L11" s="23" t="s">
-        <v>379</v>
+        <v>340</v>
       </c>
       <c r="M11" s="23" t="s">
         <v>64</v>
@@ -5137,10 +5393,10 @@
         <v>3</v>
       </c>
       <c r="P11" s="23" t="s">
-        <v>380</v>
+        <v>341</v>
       </c>
       <c r="Q11" s="23" t="s">
-        <v>380</v>
+        <v>341</v>
       </c>
       <c r="R11" s="23" t="s">
         <v>63</v>
@@ -5158,19 +5414,19 @@
         <v>63</v>
       </c>
       <c r="W11" s="12" t="s">
-        <v>301</v>
+        <v>262</v>
       </c>
       <c r="X11" s="23" t="s">
         <v>64</v>
       </c>
       <c r="Y11" s="23" t="s">
-        <v>381</v>
+        <v>342</v>
       </c>
       <c r="Z11" s="23" t="s">
-        <v>382</v>
+        <v>343</v>
       </c>
       <c r="AA11" s="23" t="s">
-        <v>382</v>
+        <v>343</v>
       </c>
       <c r="AB11" s="23" t="s">
         <v>9</v>
@@ -5179,7 +5435,7 @@
         <v>9</v>
       </c>
       <c r="AD11" s="12" t="s">
-        <v>383</v>
+        <v>344</v>
       </c>
       <c r="AE11" s="12" t="s">
         <v>0</v>
@@ -5196,31 +5452,31 @@
         <v>1</v>
       </c>
       <c r="D12" s="23" t="s">
-        <v>384</v>
+        <v>345</v>
       </c>
       <c r="E12" s="23" t="s">
         <v>9</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G12" s="23" t="s">
-        <v>385</v>
+        <v>346</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>386</v>
+        <v>347</v>
       </c>
       <c r="I12" s="12" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="J12" s="12" t="s">
         <v>1</v>
       </c>
       <c r="K12" s="23" t="s">
-        <v>378</v>
+        <v>339</v>
       </c>
       <c r="L12" s="23" t="s">
-        <v>387</v>
+        <v>348</v>
       </c>
       <c r="M12" s="23" t="s">
         <v>64</v>
@@ -5232,10 +5488,10 @@
         <v>3</v>
       </c>
       <c r="P12" s="23" t="s">
-        <v>380</v>
+        <v>341</v>
       </c>
       <c r="Q12" s="23" t="s">
-        <v>380</v>
+        <v>341</v>
       </c>
       <c r="R12" s="23" t="s">
         <v>63</v>
@@ -5253,19 +5509,19 @@
         <v>63</v>
       </c>
       <c r="W12" s="12" t="s">
-        <v>301</v>
+        <v>262</v>
       </c>
       <c r="X12" s="23" t="s">
         <v>64</v>
       </c>
       <c r="Y12" s="23" t="s">
-        <v>381</v>
+        <v>342</v>
       </c>
       <c r="Z12" s="23" t="s">
-        <v>388</v>
+        <v>349</v>
       </c>
       <c r="AA12" s="23" t="s">
-        <v>388</v>
+        <v>349</v>
       </c>
       <c r="AB12" s="23" t="s">
         <v>9</v>
@@ -5274,7 +5530,7 @@
         <v>9</v>
       </c>
       <c r="AD12" s="12" t="s">
-        <v>389</v>
+        <v>350</v>
       </c>
       <c r="AE12" s="12" t="s">
         <v>0</v>
@@ -5291,31 +5547,31 @@
         <v>1</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>390</v>
+        <v>351</v>
       </c>
       <c r="E13" s="23" t="s">
         <v>9</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G13" s="23" t="s">
-        <v>391</v>
+        <v>352</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>392</v>
+        <v>353</v>
       </c>
       <c r="I13" s="12" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="J13" s="12" t="s">
         <v>1</v>
       </c>
       <c r="K13" s="23" t="s">
-        <v>393</v>
+        <v>354</v>
       </c>
       <c r="L13" s="23" t="s">
-        <v>394</v>
+        <v>355</v>
       </c>
       <c r="M13" s="23" t="s">
         <v>64</v>
@@ -5327,10 +5583,10 @@
         <v>3</v>
       </c>
       <c r="P13" s="23" t="s">
-        <v>395</v>
+        <v>356</v>
       </c>
       <c r="Q13" s="23" t="s">
-        <v>395</v>
+        <v>356</v>
       </c>
       <c r="R13" s="23" t="s">
         <v>63</v>
@@ -5348,19 +5604,19 @@
         <v>63</v>
       </c>
       <c r="W13" s="12" t="s">
-        <v>301</v>
+        <v>262</v>
       </c>
       <c r="X13" s="23" t="s">
         <v>64</v>
       </c>
       <c r="Y13" s="23" t="s">
-        <v>381</v>
+        <v>342</v>
       </c>
       <c r="Z13" s="23" t="s">
-        <v>382</v>
+        <v>343</v>
       </c>
       <c r="AA13" s="23" t="s">
-        <v>382</v>
+        <v>343</v>
       </c>
       <c r="AB13" s="23" t="s">
         <v>9</v>
@@ -5369,7 +5625,7 @@
         <v>9</v>
       </c>
       <c r="AD13" s="12" t="s">
-        <v>311</v>
+        <v>272</v>
       </c>
       <c r="AE13" s="12" t="s">
         <v>0</v>
@@ -5386,31 +5642,31 @@
         <v>1</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>396</v>
+        <v>357</v>
       </c>
       <c r="E14" s="23" t="s">
         <v>9</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G14" s="23" t="s">
-        <v>397</v>
+        <v>358</v>
       </c>
       <c r="H14" s="12" t="s">
-        <v>398</v>
+        <v>359</v>
       </c>
       <c r="I14" s="12" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="J14" s="12" t="s">
         <v>1</v>
       </c>
       <c r="K14" s="23" t="s">
-        <v>393</v>
+        <v>354</v>
       </c>
       <c r="L14" s="23" t="s">
-        <v>399</v>
+        <v>360</v>
       </c>
       <c r="M14" s="23" t="s">
         <v>64</v>
@@ -5422,10 +5678,10 @@
         <v>3</v>
       </c>
       <c r="P14" s="23" t="s">
-        <v>395</v>
+        <v>356</v>
       </c>
       <c r="Q14" s="23" t="s">
-        <v>395</v>
+        <v>356</v>
       </c>
       <c r="R14" s="23" t="s">
         <v>63</v>
@@ -5443,19 +5699,19 @@
         <v>63</v>
       </c>
       <c r="W14" s="12" t="s">
-        <v>301</v>
+        <v>262</v>
       </c>
       <c r="X14" s="23" t="s">
         <v>64</v>
       </c>
       <c r="Y14" s="23" t="s">
-        <v>381</v>
+        <v>342</v>
       </c>
       <c r="Z14" s="23" t="s">
-        <v>400</v>
+        <v>361</v>
       </c>
       <c r="AA14" s="23" t="s">
-        <v>400</v>
+        <v>361</v>
       </c>
       <c r="AB14" s="23" t="s">
         <v>9</v>
@@ -5464,7 +5720,7 @@
         <v>9</v>
       </c>
       <c r="AD14" s="12" t="s">
-        <v>401</v>
+        <v>362</v>
       </c>
       <c r="AE14" s="12" t="s">
         <v>0</v>
@@ -5481,31 +5737,31 @@
         <v>1</v>
       </c>
       <c r="D15" s="23" t="s">
-        <v>402</v>
+        <v>363</v>
       </c>
       <c r="E15" s="23" t="s">
         <v>9</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G15" s="23" t="s">
-        <v>403</v>
+        <v>364</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>404</v>
+        <v>365</v>
       </c>
       <c r="I15" s="12" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="J15" s="12" t="s">
         <v>1</v>
       </c>
       <c r="K15" s="23" t="s">
-        <v>405</v>
+        <v>366</v>
       </c>
       <c r="L15" s="23" t="s">
-        <v>334</v>
+        <v>295</v>
       </c>
       <c r="M15" s="23" t="s">
         <v>64</v>
@@ -5517,10 +5773,10 @@
         <v>3</v>
       </c>
       <c r="P15" s="23" t="s">
-        <v>406</v>
+        <v>367</v>
       </c>
       <c r="Q15" s="23" t="s">
-        <v>407</v>
+        <v>368</v>
       </c>
       <c r="R15" s="23" t="s">
         <v>63</v>
@@ -5538,19 +5794,19 @@
         <v>63</v>
       </c>
       <c r="W15" s="12" t="s">
-        <v>301</v>
+        <v>262</v>
       </c>
       <c r="X15" s="23" t="s">
         <v>64</v>
       </c>
       <c r="Y15" s="23" t="s">
-        <v>408</v>
+        <v>369</v>
       </c>
       <c r="Z15" s="23" t="s">
-        <v>382</v>
+        <v>343</v>
       </c>
       <c r="AA15" s="23" t="s">
-        <v>382</v>
+        <v>343</v>
       </c>
       <c r="AB15" s="23" t="s">
         <v>9</v>
@@ -5559,7 +5815,7 @@
         <v>9</v>
       </c>
       <c r="AD15" s="12" t="s">
-        <v>409</v>
+        <v>370</v>
       </c>
       <c r="AE15" s="12" t="s">
         <v>0</v>
@@ -5576,31 +5832,31 @@
         <v>1</v>
       </c>
       <c r="D16" s="23" t="s">
-        <v>410</v>
+        <v>371</v>
       </c>
       <c r="E16" s="23" t="s">
         <v>9</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G16" s="23" t="s">
-        <v>411</v>
+        <v>372</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>412</v>
+        <v>373</v>
       </c>
       <c r="I16" s="12" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="J16" s="12" t="s">
         <v>1</v>
       </c>
       <c r="K16" s="23" t="s">
-        <v>413</v>
+        <v>374</v>
       </c>
       <c r="L16" s="23" t="s">
-        <v>414</v>
+        <v>375</v>
       </c>
       <c r="M16" s="23" t="s">
         <v>64</v>
@@ -5612,10 +5868,10 @@
         <v>3</v>
       </c>
       <c r="P16" s="23" t="s">
-        <v>415</v>
+        <v>376</v>
       </c>
       <c r="Q16" s="23" t="s">
-        <v>416</v>
+        <v>377</v>
       </c>
       <c r="R16" s="23" t="s">
         <v>63</v>
@@ -5633,19 +5889,19 @@
         <v>63</v>
       </c>
       <c r="W16" s="12" t="s">
-        <v>301</v>
+        <v>262</v>
       </c>
       <c r="X16" s="23" t="s">
         <v>64</v>
       </c>
       <c r="Y16" s="23" t="s">
-        <v>417</v>
+        <v>378</v>
       </c>
       <c r="Z16" s="23" t="s">
-        <v>400</v>
+        <v>361</v>
       </c>
       <c r="AA16" s="23" t="s">
-        <v>400</v>
+        <v>361</v>
       </c>
       <c r="AB16" s="23" t="s">
         <v>9</v>
@@ -5654,7 +5910,7 @@
         <v>9</v>
       </c>
       <c r="AD16" s="12" t="s">
-        <v>418</v>
+        <v>379</v>
       </c>
       <c r="AE16" s="12" t="s">
         <v>0</v>
@@ -5671,31 +5927,31 @@
         <v>1</v>
       </c>
       <c r="D17" s="23" t="s">
-        <v>419</v>
+        <v>380</v>
       </c>
       <c r="E17" s="23" t="s">
         <v>9</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G17" s="23" t="s">
-        <v>420</v>
+        <v>381</v>
       </c>
       <c r="H17" s="12" t="s">
-        <v>421</v>
+        <v>382</v>
       </c>
       <c r="I17" s="12" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="J17" s="12" t="s">
         <v>1</v>
       </c>
       <c r="K17" s="23" t="s">
-        <v>395</v>
+        <v>356</v>
       </c>
       <c r="L17" s="23" t="s">
-        <v>334</v>
+        <v>295</v>
       </c>
       <c r="M17" s="23" t="s">
         <v>64</v>
@@ -5707,10 +5963,10 @@
         <v>3</v>
       </c>
       <c r="P17" s="23" t="s">
-        <v>395</v>
+        <v>356</v>
       </c>
       <c r="Q17" s="23" t="s">
-        <v>395</v>
+        <v>356</v>
       </c>
       <c r="R17" s="23" t="s">
         <v>63</v>
@@ -5728,19 +5984,19 @@
         <v>63</v>
       </c>
       <c r="W17" s="12" t="s">
-        <v>301</v>
+        <v>262</v>
       </c>
       <c r="X17" s="23" t="s">
         <v>64</v>
       </c>
       <c r="Y17" s="23" t="s">
-        <v>381</v>
+        <v>342</v>
       </c>
       <c r="Z17" s="23" t="s">
-        <v>422</v>
+        <v>383</v>
       </c>
       <c r="AA17" s="23" t="s">
-        <v>422</v>
+        <v>383</v>
       </c>
       <c r="AB17" s="23" t="s">
         <v>9</v>
@@ -5749,7 +6005,7 @@
         <v>9</v>
       </c>
       <c r="AD17" s="12" t="s">
-        <v>423</v>
+        <v>384</v>
       </c>
       <c r="AE17" s="12" t="s">
         <v>0</v>
@@ -5784,359 +6040,359 @@
     <row r="20" spans="1:31" ht="11.25" customHeight="1">
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
-      <c r="F20" s="60" t="s">
-        <v>339</v>
-      </c>
-      <c r="G20" s="61"/>
-      <c r="H20" s="61"/>
-      <c r="I20" s="61"/>
-      <c r="J20" s="61"/>
-      <c r="K20" s="61"/>
-      <c r="L20" s="61"/>
-      <c r="M20" s="61"/>
-      <c r="N20" s="61"/>
-      <c r="O20" s="61"/>
-      <c r="P20" s="61"/>
-      <c r="Q20" s="61"/>
-      <c r="R20" s="61"/>
-      <c r="S20" s="61"/>
-      <c r="T20" s="61"/>
-      <c r="U20" s="61"/>
-      <c r="V20" s="61"/>
-      <c r="W20" s="61"/>
-      <c r="X20" s="61"/>
-      <c r="Y20" s="61"/>
-      <c r="Z20" s="61"/>
-      <c r="AA20" s="61"/>
-      <c r="AB20" s="62"/>
-      <c r="AC20" s="52" t="s">
-        <v>348</v>
-      </c>
-      <c r="AD20" s="41" t="s">
-        <v>312</v>
-      </c>
-      <c r="AE20" s="42"/>
+      <c r="F20" s="64" t="s">
+        <v>300</v>
+      </c>
+      <c r="G20" s="65"/>
+      <c r="H20" s="65"/>
+      <c r="I20" s="65"/>
+      <c r="J20" s="65"/>
+      <c r="K20" s="65"/>
+      <c r="L20" s="65"/>
+      <c r="M20" s="65"/>
+      <c r="N20" s="65"/>
+      <c r="O20" s="65"/>
+      <c r="P20" s="65"/>
+      <c r="Q20" s="65"/>
+      <c r="R20" s="65"/>
+      <c r="S20" s="65"/>
+      <c r="T20" s="65"/>
+      <c r="U20" s="65"/>
+      <c r="V20" s="65"/>
+      <c r="W20" s="65"/>
+      <c r="X20" s="65"/>
+      <c r="Y20" s="65"/>
+      <c r="Z20" s="65"/>
+      <c r="AA20" s="65"/>
+      <c r="AB20" s="66"/>
+      <c r="AC20" s="55" t="s">
+        <v>309</v>
+      </c>
+      <c r="AD20" s="44" t="s">
+        <v>273</v>
+      </c>
+      <c r="AE20" s="45"/>
     </row>
     <row r="21" spans="1:31" ht="11.25" customHeight="1">
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
-      <c r="F21" s="63"/>
-      <c r="G21" s="64"/>
-      <c r="H21" s="64"/>
-      <c r="I21" s="64"/>
-      <c r="J21" s="64"/>
-      <c r="K21" s="64"/>
-      <c r="L21" s="64"/>
-      <c r="M21" s="64"/>
-      <c r="N21" s="64"/>
-      <c r="O21" s="64"/>
-      <c r="P21" s="64"/>
-      <c r="Q21" s="64"/>
-      <c r="R21" s="64"/>
-      <c r="S21" s="64"/>
-      <c r="T21" s="64"/>
-      <c r="U21" s="64"/>
-      <c r="V21" s="64"/>
-      <c r="W21" s="64"/>
-      <c r="X21" s="64"/>
-      <c r="Y21" s="64"/>
-      <c r="Z21" s="64"/>
-      <c r="AA21" s="64"/>
-      <c r="AB21" s="65"/>
-      <c r="AC21" s="52"/>
-      <c r="AD21" s="43"/>
-      <c r="AE21" s="44"/>
+      <c r="F21" s="67"/>
+      <c r="G21" s="68"/>
+      <c r="H21" s="68"/>
+      <c r="I21" s="68"/>
+      <c r="J21" s="68"/>
+      <c r="K21" s="68"/>
+      <c r="L21" s="68"/>
+      <c r="M21" s="68"/>
+      <c r="N21" s="68"/>
+      <c r="O21" s="68"/>
+      <c r="P21" s="68"/>
+      <c r="Q21" s="68"/>
+      <c r="R21" s="68"/>
+      <c r="S21" s="68"/>
+      <c r="T21" s="68"/>
+      <c r="U21" s="68"/>
+      <c r="V21" s="68"/>
+      <c r="W21" s="68"/>
+      <c r="X21" s="68"/>
+      <c r="Y21" s="68"/>
+      <c r="Z21" s="68"/>
+      <c r="AA21" s="68"/>
+      <c r="AB21" s="69"/>
+      <c r="AC21" s="55"/>
+      <c r="AD21" s="46"/>
+      <c r="AE21" s="47"/>
     </row>
     <row r="22" spans="1:31" ht="11.25" customHeight="1">
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
-      <c r="F22" s="66"/>
-      <c r="G22" s="67"/>
-      <c r="H22" s="67"/>
-      <c r="I22" s="67"/>
-      <c r="J22" s="67"/>
-      <c r="K22" s="67"/>
-      <c r="L22" s="67"/>
-      <c r="M22" s="67"/>
-      <c r="N22" s="67"/>
-      <c r="O22" s="67"/>
-      <c r="P22" s="67"/>
-      <c r="Q22" s="67"/>
-      <c r="R22" s="67"/>
-      <c r="S22" s="67"/>
-      <c r="T22" s="67"/>
-      <c r="U22" s="67"/>
-      <c r="V22" s="67"/>
-      <c r="W22" s="67"/>
-      <c r="X22" s="67"/>
-      <c r="Y22" s="67"/>
-      <c r="Z22" s="67"/>
-      <c r="AA22" s="67"/>
-      <c r="AB22" s="68"/>
-      <c r="AC22" s="52"/>
-      <c r="AD22" s="45"/>
-      <c r="AE22" s="46"/>
+      <c r="F22" s="70"/>
+      <c r="G22" s="71"/>
+      <c r="H22" s="71"/>
+      <c r="I22" s="71"/>
+      <c r="J22" s="71"/>
+      <c r="K22" s="71"/>
+      <c r="L22" s="71"/>
+      <c r="M22" s="71"/>
+      <c r="N22" s="71"/>
+      <c r="O22" s="71"/>
+      <c r="P22" s="71"/>
+      <c r="Q22" s="71"/>
+      <c r="R22" s="71"/>
+      <c r="S22" s="71"/>
+      <c r="T22" s="71"/>
+      <c r="U22" s="71"/>
+      <c r="V22" s="71"/>
+      <c r="W22" s="71"/>
+      <c r="X22" s="71"/>
+      <c r="Y22" s="71"/>
+      <c r="Z22" s="71"/>
+      <c r="AA22" s="71"/>
+      <c r="AB22" s="72"/>
+      <c r="AC22" s="55"/>
+      <c r="AD22" s="48"/>
+      <c r="AE22" s="49"/>
     </row>
     <row r="23" spans="1:31" ht="11.25" customHeight="1">
-      <c r="A23" s="47" t="s">
-        <v>350</v>
-      </c>
-      <c r="B23" s="47" t="s">
+      <c r="A23" s="50" t="s">
+        <v>311</v>
+      </c>
+      <c r="B23" s="50" t="s">
+        <v>117</v>
+      </c>
+      <c r="C23" s="50" t="s">
+        <v>142</v>
+      </c>
+      <c r="D23" s="50" t="s">
+        <v>131</v>
+      </c>
+      <c r="E23" s="50" t="s">
+        <v>141</v>
+      </c>
+      <c r="F23" s="50" t="s">
+        <v>116</v>
+      </c>
+      <c r="G23" s="50" t="s">
+        <v>130</v>
+      </c>
+      <c r="H23" s="50" t="s">
+        <v>115</v>
+      </c>
+      <c r="I23" s="50" t="s">
+        <v>274</v>
+      </c>
+      <c r="J23" s="61" t="s">
+        <v>118</v>
+      </c>
+      <c r="K23" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="L23" s="50" t="s">
+        <v>298</v>
+      </c>
+      <c r="M23" s="50" t="s">
+        <v>299</v>
+      </c>
+      <c r="N23" s="50" t="s">
+        <v>301</v>
+      </c>
+      <c r="O23" s="61" t="s">
+        <v>304</v>
+      </c>
+      <c r="P23" s="50" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q23" s="50" t="s">
         <v>123</v>
       </c>
-      <c r="C23" s="47" t="s">
-        <v>148</v>
-      </c>
-      <c r="D23" s="47" t="s">
-        <v>137</v>
-      </c>
-      <c r="E23" s="47" t="s">
-        <v>147</v>
-      </c>
-      <c r="F23" s="47" t="s">
-        <v>122</v>
-      </c>
-      <c r="G23" s="47" t="s">
-        <v>136</v>
-      </c>
-      <c r="H23" s="47" t="s">
+      <c r="R23" s="50" t="s">
+        <v>128</v>
+      </c>
+      <c r="S23" s="50" t="s">
+        <v>305</v>
+      </c>
+      <c r="T23" s="50" t="s">
+        <v>306</v>
+      </c>
+      <c r="U23" s="50" t="s">
+        <v>307</v>
+      </c>
+      <c r="V23" s="50" t="s">
+        <v>124</v>
+      </c>
+      <c r="W23" s="50" t="s">
+        <v>293</v>
+      </c>
+      <c r="X23" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y23" s="61" t="s">
+        <v>297</v>
+      </c>
+      <c r="Z23" s="50" t="s">
+        <v>302</v>
+      </c>
+      <c r="AA23" s="73" t="s">
+        <v>303</v>
+      </c>
+      <c r="AB23" s="75" t="s">
+        <v>308</v>
+      </c>
+      <c r="AC23" s="74" t="s">
+        <v>140</v>
+      </c>
+      <c r="AD23" s="50" t="s">
+        <v>120</v>
+      </c>
+      <c r="AE23" s="50" t="s">
         <v>121</v>
       </c>
-      <c r="I23" s="47" t="s">
-        <v>313</v>
-      </c>
-      <c r="J23" s="57" t="s">
-        <v>124</v>
-      </c>
-      <c r="K23" s="47" t="s">
-        <v>128</v>
-      </c>
-      <c r="L23" s="47" t="s">
-        <v>337</v>
-      </c>
-      <c r="M23" s="47" t="s">
-        <v>338</v>
-      </c>
-      <c r="N23" s="47" t="s">
-        <v>340</v>
-      </c>
-      <c r="O23" s="57" t="s">
-        <v>343</v>
-      </c>
-      <c r="P23" s="47" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q23" s="47" t="s">
-        <v>129</v>
-      </c>
-      <c r="R23" s="47" t="s">
-        <v>134</v>
-      </c>
-      <c r="S23" s="47" t="s">
-        <v>344</v>
-      </c>
-      <c r="T23" s="47" t="s">
-        <v>345</v>
-      </c>
-      <c r="U23" s="47" t="s">
-        <v>346</v>
-      </c>
-      <c r="V23" s="47" t="s">
-        <v>130</v>
-      </c>
-      <c r="W23" s="47" t="s">
-        <v>332</v>
-      </c>
-      <c r="X23" s="47" t="s">
-        <v>135</v>
-      </c>
-      <c r="Y23" s="57" t="s">
-        <v>336</v>
-      </c>
-      <c r="Z23" s="47" t="s">
-        <v>341</v>
-      </c>
-      <c r="AA23" s="69" t="s">
-        <v>342</v>
-      </c>
-      <c r="AB23" s="71" t="s">
-        <v>347</v>
-      </c>
-      <c r="AC23" s="70" t="s">
-        <v>146</v>
-      </c>
-      <c r="AD23" s="47" t="s">
-        <v>126</v>
-      </c>
-      <c r="AE23" s="47" t="s">
-        <v>127</v>
-      </c>
     </row>
     <row r="24" spans="1:31">
-      <c r="A24" s="47"/>
-      <c r="B24" s="47"/>
-      <c r="C24" s="47"/>
-      <c r="D24" s="47"/>
-      <c r="E24" s="47"/>
-      <c r="F24" s="47"/>
-      <c r="G24" s="47"/>
-      <c r="H24" s="47"/>
-      <c r="I24" s="47"/>
-      <c r="J24" s="58"/>
-      <c r="K24" s="47"/>
-      <c r="L24" s="47"/>
-      <c r="M24" s="47"/>
-      <c r="N24" s="47"/>
-      <c r="O24" s="58"/>
-      <c r="P24" s="47"/>
-      <c r="Q24" s="47"/>
-      <c r="R24" s="47"/>
-      <c r="S24" s="47"/>
-      <c r="T24" s="47"/>
-      <c r="U24" s="47"/>
-      <c r="V24" s="47"/>
-      <c r="W24" s="47"/>
-      <c r="X24" s="47"/>
-      <c r="Y24" s="58"/>
-      <c r="Z24" s="47"/>
-      <c r="AA24" s="69"/>
-      <c r="AB24" s="72"/>
-      <c r="AC24" s="70"/>
-      <c r="AD24" s="47"/>
-      <c r="AE24" s="47"/>
+      <c r="A24" s="50"/>
+      <c r="B24" s="50"/>
+      <c r="C24" s="50"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="50"/>
+      <c r="F24" s="50"/>
+      <c r="G24" s="50"/>
+      <c r="H24" s="50"/>
+      <c r="I24" s="50"/>
+      <c r="J24" s="62"/>
+      <c r="K24" s="50"/>
+      <c r="L24" s="50"/>
+      <c r="M24" s="50"/>
+      <c r="N24" s="50"/>
+      <c r="O24" s="62"/>
+      <c r="P24" s="50"/>
+      <c r="Q24" s="50"/>
+      <c r="R24" s="50"/>
+      <c r="S24" s="50"/>
+      <c r="T24" s="50"/>
+      <c r="U24" s="50"/>
+      <c r="V24" s="50"/>
+      <c r="W24" s="50"/>
+      <c r="X24" s="50"/>
+      <c r="Y24" s="62"/>
+      <c r="Z24" s="50"/>
+      <c r="AA24" s="73"/>
+      <c r="AB24" s="76"/>
+      <c r="AC24" s="74"/>
+      <c r="AD24" s="50"/>
+      <c r="AE24" s="50"/>
     </row>
     <row r="25" spans="1:31">
-      <c r="A25" s="47"/>
-      <c r="B25" s="47"/>
-      <c r="C25" s="47"/>
-      <c r="D25" s="47"/>
-      <c r="E25" s="47"/>
-      <c r="F25" s="47"/>
-      <c r="G25" s="47"/>
-      <c r="H25" s="47"/>
-      <c r="I25" s="47"/>
-      <c r="J25" s="58"/>
-      <c r="K25" s="47"/>
-      <c r="L25" s="47"/>
-      <c r="M25" s="47"/>
-      <c r="N25" s="47"/>
-      <c r="O25" s="58"/>
-      <c r="P25" s="47"/>
-      <c r="Q25" s="47"/>
-      <c r="R25" s="47"/>
-      <c r="S25" s="47"/>
-      <c r="T25" s="47"/>
-      <c r="U25" s="47"/>
-      <c r="V25" s="47"/>
-      <c r="W25" s="47"/>
-      <c r="X25" s="47"/>
-      <c r="Y25" s="58"/>
-      <c r="Z25" s="47"/>
-      <c r="AA25" s="69"/>
-      <c r="AB25" s="72"/>
-      <c r="AC25" s="70"/>
-      <c r="AD25" s="47"/>
-      <c r="AE25" s="47"/>
+      <c r="A25" s="50"/>
+      <c r="B25" s="50"/>
+      <c r="C25" s="50"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="50"/>
+      <c r="F25" s="50"/>
+      <c r="G25" s="50"/>
+      <c r="H25" s="50"/>
+      <c r="I25" s="50"/>
+      <c r="J25" s="62"/>
+      <c r="K25" s="50"/>
+      <c r="L25" s="50"/>
+      <c r="M25" s="50"/>
+      <c r="N25" s="50"/>
+      <c r="O25" s="62"/>
+      <c r="P25" s="50"/>
+      <c r="Q25" s="50"/>
+      <c r="R25" s="50"/>
+      <c r="S25" s="50"/>
+      <c r="T25" s="50"/>
+      <c r="U25" s="50"/>
+      <c r="V25" s="50"/>
+      <c r="W25" s="50"/>
+      <c r="X25" s="50"/>
+      <c r="Y25" s="62"/>
+      <c r="Z25" s="50"/>
+      <c r="AA25" s="73"/>
+      <c r="AB25" s="76"/>
+      <c r="AC25" s="74"/>
+      <c r="AD25" s="50"/>
+      <c r="AE25" s="50"/>
     </row>
     <row r="26" spans="1:31">
-      <c r="A26" s="47"/>
-      <c r="B26" s="47"/>
-      <c r="C26" s="47"/>
-      <c r="D26" s="47"/>
-      <c r="E26" s="47"/>
-      <c r="F26" s="47"/>
-      <c r="G26" s="47"/>
-      <c r="H26" s="47"/>
-      <c r="I26" s="47"/>
-      <c r="J26" s="58"/>
-      <c r="K26" s="47"/>
-      <c r="L26" s="47"/>
-      <c r="M26" s="47"/>
-      <c r="N26" s="47"/>
-      <c r="O26" s="58"/>
-      <c r="P26" s="47"/>
-      <c r="Q26" s="47"/>
-      <c r="R26" s="47"/>
-      <c r="S26" s="47"/>
-      <c r="T26" s="47"/>
-      <c r="U26" s="47"/>
-      <c r="V26" s="47"/>
-      <c r="W26" s="47"/>
-      <c r="X26" s="47"/>
-      <c r="Y26" s="58"/>
-      <c r="Z26" s="47"/>
-      <c r="AA26" s="69"/>
-      <c r="AB26" s="72"/>
-      <c r="AC26" s="70"/>
-      <c r="AD26" s="47"/>
-      <c r="AE26" s="47"/>
+      <c r="A26" s="50"/>
+      <c r="B26" s="50"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="50"/>
+      <c r="G26" s="50"/>
+      <c r="H26" s="50"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="62"/>
+      <c r="K26" s="50"/>
+      <c r="L26" s="50"/>
+      <c r="M26" s="50"/>
+      <c r="N26" s="50"/>
+      <c r="O26" s="62"/>
+      <c r="P26" s="50"/>
+      <c r="Q26" s="50"/>
+      <c r="R26" s="50"/>
+      <c r="S26" s="50"/>
+      <c r="T26" s="50"/>
+      <c r="U26" s="50"/>
+      <c r="V26" s="50"/>
+      <c r="W26" s="50"/>
+      <c r="X26" s="50"/>
+      <c r="Y26" s="62"/>
+      <c r="Z26" s="50"/>
+      <c r="AA26" s="73"/>
+      <c r="AB26" s="76"/>
+      <c r="AC26" s="74"/>
+      <c r="AD26" s="50"/>
+      <c r="AE26" s="50"/>
     </row>
     <row r="27" spans="1:31">
-      <c r="A27" s="47"/>
-      <c r="B27" s="47"/>
-      <c r="C27" s="47"/>
-      <c r="D27" s="47"/>
-      <c r="E27" s="47"/>
-      <c r="F27" s="47"/>
-      <c r="G27" s="47"/>
-      <c r="H27" s="47"/>
-      <c r="I27" s="47"/>
-      <c r="J27" s="58"/>
-      <c r="K27" s="47"/>
-      <c r="L27" s="47"/>
-      <c r="M27" s="47"/>
-      <c r="N27" s="47"/>
-      <c r="O27" s="58"/>
-      <c r="P27" s="47"/>
-      <c r="Q27" s="47"/>
-      <c r="R27" s="47"/>
-      <c r="S27" s="47"/>
-      <c r="T27" s="47"/>
-      <c r="U27" s="47"/>
-      <c r="V27" s="47"/>
-      <c r="W27" s="47"/>
-      <c r="X27" s="47"/>
-      <c r="Y27" s="58"/>
-      <c r="Z27" s="47"/>
-      <c r="AA27" s="69"/>
-      <c r="AB27" s="72"/>
-      <c r="AD27" s="47"/>
-      <c r="AE27" s="47"/>
+      <c r="A27" s="50"/>
+      <c r="B27" s="50"/>
+      <c r="C27" s="50"/>
+      <c r="D27" s="50"/>
+      <c r="E27" s="50"/>
+      <c r="F27" s="50"/>
+      <c r="G27" s="50"/>
+      <c r="H27" s="50"/>
+      <c r="I27" s="50"/>
+      <c r="J27" s="62"/>
+      <c r="K27" s="50"/>
+      <c r="L27" s="50"/>
+      <c r="M27" s="50"/>
+      <c r="N27" s="50"/>
+      <c r="O27" s="62"/>
+      <c r="P27" s="50"/>
+      <c r="Q27" s="50"/>
+      <c r="R27" s="50"/>
+      <c r="S27" s="50"/>
+      <c r="T27" s="50"/>
+      <c r="U27" s="50"/>
+      <c r="V27" s="50"/>
+      <c r="W27" s="50"/>
+      <c r="X27" s="50"/>
+      <c r="Y27" s="62"/>
+      <c r="Z27" s="50"/>
+      <c r="AA27" s="73"/>
+      <c r="AB27" s="76"/>
+      <c r="AD27" s="50"/>
+      <c r="AE27" s="50"/>
     </row>
     <row r="28" spans="1:31">
-      <c r="A28" s="47"/>
-      <c r="B28" s="47"/>
-      <c r="C28" s="47"/>
-      <c r="D28" s="47"/>
-      <c r="E28" s="47"/>
-      <c r="F28" s="47"/>
-      <c r="G28" s="47"/>
-      <c r="H28" s="47"/>
-      <c r="I28" s="47"/>
-      <c r="J28" s="59"/>
-      <c r="K28" s="47"/>
-      <c r="L28" s="47"/>
-      <c r="M28" s="47"/>
-      <c r="N28" s="47"/>
-      <c r="O28" s="59"/>
-      <c r="P28" s="47"/>
-      <c r="Q28" s="47"/>
-      <c r="R28" s="47"/>
-      <c r="S28" s="47"/>
-      <c r="T28" s="47"/>
-      <c r="U28" s="69"/>
-      <c r="V28" s="47"/>
-      <c r="W28" s="47"/>
-      <c r="X28" s="47"/>
-      <c r="Y28" s="59"/>
-      <c r="Z28" s="47"/>
-      <c r="AA28" s="69"/>
-      <c r="AB28" s="72"/>
-      <c r="AC28" s="30" t="s">
-        <v>119</v>
-      </c>
-      <c r="AD28" s="47"/>
-      <c r="AE28" s="47"/>
+      <c r="A28" s="50"/>
+      <c r="B28" s="50"/>
+      <c r="C28" s="50"/>
+      <c r="D28" s="50"/>
+      <c r="E28" s="50"/>
+      <c r="F28" s="50"/>
+      <c r="G28" s="50"/>
+      <c r="H28" s="50"/>
+      <c r="I28" s="50"/>
+      <c r="J28" s="63"/>
+      <c r="K28" s="50"/>
+      <c r="L28" s="50"/>
+      <c r="M28" s="50"/>
+      <c r="N28" s="50"/>
+      <c r="O28" s="63"/>
+      <c r="P28" s="50"/>
+      <c r="Q28" s="50"/>
+      <c r="R28" s="50"/>
+      <c r="S28" s="50"/>
+      <c r="T28" s="50"/>
+      <c r="U28" s="73"/>
+      <c r="V28" s="50"/>
+      <c r="W28" s="50"/>
+      <c r="X28" s="50"/>
+      <c r="Y28" s="63"/>
+      <c r="Z28" s="50"/>
+      <c r="AA28" s="73"/>
+      <c r="AB28" s="76"/>
+      <c r="AC28" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="AD28" s="50"/>
+      <c r="AE28" s="50"/>
     </row>
     <row r="29" spans="1:31">
       <c r="D29" s="1"/>
@@ -6152,148 +6408,148 @@
       <c r="Y29" s="21"/>
       <c r="Z29" s="2"/>
       <c r="AA29" s="2"/>
-      <c r="AB29" s="72"/>
-      <c r="AC29" s="38" t="s">
-        <v>256</v>
+      <c r="AB29" s="76"/>
+      <c r="AC29" s="37" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="30" spans="1:31">
       <c r="J30" s="17" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="O30" s="17" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="Y30" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="AB30" s="72"/>
-      <c r="AC30" s="39" t="s">
-        <v>257</v>
+        <v>387</v>
+      </c>
+      <c r="AB30" s="76"/>
+      <c r="AC30" s="38" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="31" spans="1:31">
-      <c r="J31" s="35" t="s">
-        <v>424</v>
-      </c>
-      <c r="O31" s="35" t="s">
-        <v>256</v>
-      </c>
-      <c r="AB31" s="72"/>
-      <c r="AC31" s="39" t="s">
-        <v>258</v>
+      <c r="J31" s="34" t="s">
+        <v>385</v>
+      </c>
+      <c r="O31" s="34" t="s">
+        <v>217</v>
+      </c>
+      <c r="AB31" s="76"/>
+      <c r="AC31" s="38" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="32" spans="1:31">
-      <c r="J32" s="35" t="s">
-        <v>321</v>
-      </c>
-      <c r="O32" s="35" t="s">
-        <v>314</v>
-      </c>
-      <c r="AB32" s="72"/>
-      <c r="AC32" s="39" t="s">
-        <v>259</v>
+      <c r="J32" s="34" t="s">
+        <v>282</v>
+      </c>
+      <c r="O32" s="34" t="s">
+        <v>275</v>
+      </c>
+      <c r="AB32" s="76"/>
+      <c r="AC32" s="38" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="33" spans="10:29">
-      <c r="J33" s="35" t="s">
-        <v>322</v>
-      </c>
-      <c r="O33" s="35" t="s">
-        <v>315</v>
-      </c>
-      <c r="AB33" s="72"/>
-      <c r="AC33" s="39" t="s">
-        <v>260</v>
+      <c r="J33" s="34" t="s">
+        <v>283</v>
+      </c>
+      <c r="O33" s="34" t="s">
+        <v>276</v>
+      </c>
+      <c r="AB33" s="76"/>
+      <c r="AC33" s="38" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="34" spans="10:29">
-      <c r="J34" s="35" t="s">
-        <v>323</v>
-      </c>
-      <c r="O34" s="35" t="s">
-        <v>316</v>
-      </c>
-      <c r="AB34" s="72"/>
-      <c r="AC34" s="39" t="s">
-        <v>261</v>
+      <c r="J34" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="O34" s="34" t="s">
+        <v>277</v>
+      </c>
+      <c r="AB34" s="76"/>
+      <c r="AC34" s="38" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="35" spans="10:29">
-      <c r="J35" s="35" t="s">
-        <v>324</v>
-      </c>
-      <c r="O35" s="35" t="s">
-        <v>317</v>
-      </c>
-      <c r="AB35" s="72"/>
-      <c r="AC35" s="39" t="s">
-        <v>262</v>
+      <c r="J35" s="34" t="s">
+        <v>285</v>
+      </c>
+      <c r="O35" s="34" t="s">
+        <v>278</v>
+      </c>
+      <c r="AB35" s="76"/>
+      <c r="AC35" s="38" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="36" spans="10:29">
-      <c r="J36" s="35" t="s">
-        <v>325</v>
-      </c>
-      <c r="O36" s="35" t="s">
-        <v>318</v>
-      </c>
-      <c r="AB36" s="72"/>
-      <c r="AC36" s="39" t="s">
-        <v>263</v>
+      <c r="J36" s="34" t="s">
+        <v>286</v>
+      </c>
+      <c r="O36" s="34" t="s">
+        <v>279</v>
+      </c>
+      <c r="AB36" s="76"/>
+      <c r="AC36" s="38" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="37" spans="10:29">
-      <c r="J37" s="35" t="s">
-        <v>326</v>
-      </c>
-      <c r="O37" s="35" t="s">
-        <v>262</v>
-      </c>
-      <c r="AB37" s="72"/>
-      <c r="AC37" s="40" t="s">
-        <v>264</v>
+      <c r="J37" s="34" t="s">
+        <v>287</v>
+      </c>
+      <c r="O37" s="34" t="s">
+        <v>223</v>
+      </c>
+      <c r="AB37" s="76"/>
+      <c r="AC37" s="39" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="38" spans="10:29">
-      <c r="J38" s="35" t="s">
-        <v>327</v>
-      </c>
-      <c r="O38" s="35" t="s">
-        <v>319</v>
-      </c>
-      <c r="AB38" s="73"/>
+      <c r="J38" s="34" t="s">
+        <v>288</v>
+      </c>
+      <c r="O38" s="34" t="s">
+        <v>280</v>
+      </c>
+      <c r="AB38" s="77"/>
     </row>
     <row r="39" spans="10:29">
-      <c r="J39" s="35" t="s">
-        <v>328</v>
-      </c>
-      <c r="O39" s="36" t="s">
-        <v>320</v>
+      <c r="J39" s="34" t="s">
+        <v>289</v>
+      </c>
+      <c r="O39" s="35" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="40" spans="10:29">
-      <c r="J40" s="35" t="s">
-        <v>329</v>
+      <c r="J40" s="34" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="41" spans="10:29">
-      <c r="J41" s="35" t="s">
-        <v>330</v>
-      </c>
-      <c r="O41" s="57" t="s">
-        <v>425</v>
+      <c r="J41" s="34" t="s">
+        <v>291</v>
+      </c>
+      <c r="O41" s="61" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="42" spans="10:29">
-      <c r="J42" s="36" t="s">
-        <v>331</v>
-      </c>
-      <c r="O42" s="58"/>
+      <c r="J42" s="35" t="s">
+        <v>292</v>
+      </c>
+      <c r="O42" s="62"/>
     </row>
     <row r="43" spans="10:29">
-      <c r="O43" s="59"/>
+      <c r="O43" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="35">
@@ -6343,10 +6599,10 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A2:AB66"/>
+  <dimension ref="A2:AB77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R12" sqref="R12"/>
+    <sheetView tabSelected="1" topLeftCell="U19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Y41" sqref="Y41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -6354,7 +6610,7 @@
     <col min="1" max="1" width="20.42578125" style="2" customWidth="1"/>
     <col min="2" max="2" width="22.5703125" style="2" customWidth="1"/>
     <col min="3" max="3" width="18.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="24" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24" style="2" customWidth="1"/>
     <col min="5" max="5" width="21.28515625" style="2" customWidth="1"/>
     <col min="6" max="6" width="21.5703125" style="2" customWidth="1"/>
     <col min="7" max="7" width="19" style="2" customWidth="1"/>
@@ -6368,7 +6624,7 @@
     <col min="15" max="15" width="19.5703125" style="1" customWidth="1"/>
     <col min="16" max="16" width="21.42578125" style="1" customWidth="1"/>
     <col min="17" max="17" width="21.140625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="41.42578125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="39.140625" style="1" customWidth="1"/>
     <col min="19" max="19" width="24.28515625" style="2" customWidth="1"/>
     <col min="20" max="20" width="39" style="2" customWidth="1"/>
     <col min="21" max="21" width="27.5703125" style="1" customWidth="1"/>
@@ -6384,32 +6640,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:28" ht="21">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="48"/>
+      <c r="B2" s="51"/>
       <c r="C2" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:28" ht="21">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="48"/>
+      <c r="B3" s="51"/>
       <c r="C3" s="3" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:28" ht="21">
-      <c r="A4" s="77" t="s">
-        <v>131</v>
-      </c>
-      <c r="B4" s="77"/>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
+      <c r="A4" s="90" t="s">
+        <v>125</v>
+      </c>
+      <c r="B4" s="90"/>
+      <c r="C4" s="90"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
       <c r="G4" s="1"/>
       <c r="L4" s="1"/>
       <c r="T4" s="19"/>
@@ -6429,13 +6685,13 @@
         <v>39</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E7" s="14" t="s">
         <v>58</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>222</v>
+        <v>183</v>
       </c>
       <c r="G7" s="14" t="s">
         <v>36</v>
@@ -6447,49 +6703,49 @@
         <v>31</v>
       </c>
       <c r="J7" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="K7" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="L7" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="M7" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="N7" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="O7" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="P7" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q7" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="R7" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="S7" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="T7" s="14" t="s">
+        <v>388</v>
+      </c>
+      <c r="U7" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="V7" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="K7" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="L7" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="M7" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="N7" s="14" t="s">
+      <c r="W7" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="X7" s="14" t="s">
         <v>76</v>
-      </c>
-      <c r="O7" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="P7" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q7" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="R7" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="S7" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="T7" s="14" t="s">
-        <v>427</v>
-      </c>
-      <c r="U7" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="V7" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="W7" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="X7" s="14" t="s">
-        <v>78</v>
       </c>
       <c r="Y7" s="14" t="s">
         <v>17</v>
@@ -6501,7 +6757,7 @@
         <v>48</v>
       </c>
       <c r="AB7" s="14" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:28" s="13" customFormat="1">
@@ -6521,73 +6777,73 @@
         <v>9</v>
       </c>
       <c r="F8" s="23" t="s">
-        <v>428</v>
-      </c>
-      <c r="G8" s="29" t="s">
+        <v>389</v>
+      </c>
+      <c r="G8" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="H8" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="I8" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="J8" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="L8" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="M8" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="N8" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="O8" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="P8" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q8" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="H8" s="29" t="s">
+      <c r="R8" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="S8" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="T8" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="U8" s="33" t="s">
+        <v>377</v>
+      </c>
+      <c r="V8" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="W8" s="33" t="s">
+        <v>377</v>
+      </c>
+      <c r="X8" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y8" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z8" s="33" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA8" s="33" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB8" s="33" t="s">
         <v>91</v>
-      </c>
-      <c r="I8" s="29" t="s">
-        <v>95</v>
-      </c>
-      <c r="J8" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="K8" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="L8" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="M8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="N8" s="34" t="s">
-        <v>93</v>
-      </c>
-      <c r="O8" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="P8" s="34" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q8" s="34" t="s">
-        <v>92</v>
-      </c>
-      <c r="R8" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="S8" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="T8" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="U8" s="34" t="s">
-        <v>416</v>
-      </c>
-      <c r="V8" s="34" t="s">
-        <v>96</v>
-      </c>
-      <c r="W8" s="34" t="s">
-        <v>416</v>
-      </c>
-      <c r="X8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y8" s="34" t="s">
-        <v>103</v>
-      </c>
-      <c r="Z8" s="34" t="s">
-        <v>104</v>
-      </c>
-      <c r="AA8" s="34" t="s">
-        <v>105</v>
-      </c>
-      <c r="AB8" s="98" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:28" s="13" customFormat="1">
@@ -6607,42 +6863,42 @@
         <v>9</v>
       </c>
       <c r="F9" s="23" t="s">
-        <v>428</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>429</v>
-      </c>
-      <c r="H9" s="12" t="s">
-        <v>430</v>
-      </c>
-      <c r="I9" s="12" t="s">
-        <v>431</v>
-      </c>
-      <c r="J9" s="23" t="s">
-        <v>432</v>
-      </c>
-      <c r="K9" s="23" t="s">
+        <v>389</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>390</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>391</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>392</v>
+      </c>
+      <c r="J9" s="33" t="s">
+        <v>393</v>
+      </c>
+      <c r="K9" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="L9" s="12" t="s">
+      <c r="L9" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="M9" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="N9" s="23" t="s">
+      <c r="M9" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="N9" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="O9" s="12" t="s">
+      <c r="O9" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="P9" s="23" t="s">
-        <v>433</v>
-      </c>
-      <c r="Q9" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="R9" s="23" t="s">
+      <c r="P9" s="33" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q9" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="R9" s="33" t="s">
         <v>9</v>
       </c>
       <c r="S9" s="12" t="s">
@@ -6652,27 +6908,27 @@
         <v>0</v>
       </c>
       <c r="U9" s="23" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="V9" s="23" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="W9" s="23" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="X9" s="23" t="s">
         <v>2</v>
       </c>
       <c r="Y9" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z9" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA9" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="Z9" s="23" t="s">
-        <v>104</v>
-      </c>
-      <c r="AA9" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="AB9" s="23" t="s">
+      <c r="AB9" s="33" t="s">
         <v>65</v>
       </c>
     </row>
@@ -6693,42 +6949,42 @@
         <v>9</v>
       </c>
       <c r="F10" s="23" t="s">
-        <v>428</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>429</v>
-      </c>
-      <c r="H10" s="12" t="s">
-        <v>430</v>
-      </c>
-      <c r="I10" s="12" t="s">
-        <v>431</v>
-      </c>
-      <c r="J10" s="23" t="s">
+        <v>389</v>
+      </c>
+      <c r="G10" s="28" t="s">
+        <v>390</v>
+      </c>
+      <c r="H10" s="28" t="s">
+        <v>391</v>
+      </c>
+      <c r="I10" s="28" t="s">
+        <v>392</v>
+      </c>
+      <c r="J10" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="K10" s="23" t="s">
-        <v>194</v>
-      </c>
-      <c r="L10" s="12" t="s">
+      <c r="K10" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="L10" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="M10" s="23" t="s">
+      <c r="M10" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="N10" s="23" t="s">
-        <v>448</v>
-      </c>
-      <c r="O10" s="12" t="s">
+      <c r="N10" s="33" t="s">
+        <v>409</v>
+      </c>
+      <c r="O10" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="P10" s="23" t="s">
-        <v>449</v>
-      </c>
-      <c r="Q10" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="R10" s="23" t="s">
+      <c r="P10" s="33" t="s">
+        <v>410</v>
+      </c>
+      <c r="Q10" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="R10" s="33" t="s">
         <v>9</v>
       </c>
       <c r="S10" s="12" t="s">
@@ -6738,27 +6994,27 @@
         <v>0</v>
       </c>
       <c r="U10" s="23" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="V10" s="23" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="W10" s="23" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="X10" s="23" t="s">
         <v>2</v>
       </c>
       <c r="Y10" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z10" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA10" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="Z10" s="23" t="s">
-        <v>104</v>
-      </c>
-      <c r="AA10" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="AB10" s="23" t="s">
+      <c r="AB10" s="33" t="s">
         <v>65</v>
       </c>
     </row>
@@ -6779,42 +7035,42 @@
         <v>9</v>
       </c>
       <c r="F11" s="23" t="s">
-        <v>428</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>429</v>
-      </c>
-      <c r="H11" s="12" t="s">
-        <v>430</v>
-      </c>
-      <c r="I11" s="12" t="s">
-        <v>431</v>
-      </c>
-      <c r="J11" s="23" t="s">
+        <v>389</v>
+      </c>
+      <c r="G11" s="28" t="s">
+        <v>390</v>
+      </c>
+      <c r="H11" s="28" t="s">
+        <v>391</v>
+      </c>
+      <c r="I11" s="28" t="s">
+        <v>392</v>
+      </c>
+      <c r="J11" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="K11" s="23" t="s">
-        <v>303</v>
-      </c>
-      <c r="L11" s="12" t="s">
-        <v>443</v>
-      </c>
-      <c r="M11" s="23" t="s">
+      <c r="K11" s="33" t="s">
+        <v>264</v>
+      </c>
+      <c r="L11" s="28" t="s">
+        <v>404</v>
+      </c>
+      <c r="M11" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="N11" s="23" t="s">
-        <v>450</v>
-      </c>
-      <c r="O11" s="12" t="s">
+      <c r="N11" s="33" t="s">
+        <v>411</v>
+      </c>
+      <c r="O11" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="P11" s="23" t="s">
-        <v>451</v>
-      </c>
-      <c r="Q11" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="R11" s="23" t="s">
+      <c r="P11" s="33" t="s">
+        <v>412</v>
+      </c>
+      <c r="Q11" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="R11" s="33" t="s">
         <v>9</v>
       </c>
       <c r="S11" s="12" t="s">
@@ -6824,27 +7080,27 @@
         <v>0</v>
       </c>
       <c r="U11" s="23" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="V11" s="23" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="W11" s="23" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="X11" s="23" t="s">
         <v>2</v>
       </c>
       <c r="Y11" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z11" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA11" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="Z11" s="23" t="s">
-        <v>104</v>
-      </c>
-      <c r="AA11" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="AB11" s="23" t="s">
+      <c r="AB11" s="33" t="s">
         <v>65</v>
       </c>
     </row>
@@ -6865,73 +7121,73 @@
         <v>9</v>
       </c>
       <c r="F12" s="23" t="s">
-        <v>434</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="H12" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="I12" s="12" t="s">
-        <v>438</v>
-      </c>
-      <c r="J12" s="23" t="s">
-        <v>101</v>
-      </c>
-      <c r="K12" s="23" t="s">
+        <v>395</v>
+      </c>
+      <c r="G12" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="H12" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="I12" s="28" t="s">
+        <v>399</v>
+      </c>
+      <c r="J12" s="33" t="s">
+        <v>405</v>
+      </c>
+      <c r="K12" s="33" t="s">
+        <v>406</v>
+      </c>
+      <c r="L12" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="L12" s="12" t="s">
+      <c r="M12" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="N12" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="O12" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="M12" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="N12" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="O12" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="P12" s="23" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q12" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="R12" s="23" t="s">
-        <v>98</v>
+      <c r="P12" s="33" t="s">
+        <v>402</v>
+      </c>
+      <c r="Q12" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="R12" s="33" t="s">
+        <v>9</v>
       </c>
       <c r="S12" s="12" t="s">
         <v>1</v>
       </c>
       <c r="T12" s="12" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U12" s="23" t="s">
-        <v>439</v>
+        <v>401</v>
       </c>
       <c r="V12" s="23" t="s">
-        <v>439</v>
+        <v>401</v>
       </c>
       <c r="W12" s="23" t="s">
-        <v>439</v>
+        <v>401</v>
       </c>
       <c r="X12" s="23" t="s">
         <v>3</v>
       </c>
       <c r="Y12" s="23" t="s">
-        <v>435</v>
+        <v>396</v>
       </c>
       <c r="Z12" s="23" t="s">
-        <v>436</v>
+        <v>397</v>
       </c>
       <c r="AA12" s="23" t="s">
-        <v>437</v>
-      </c>
-      <c r="AB12" s="23" t="s">
-        <v>89</v>
+        <v>398</v>
+      </c>
+      <c r="AB12" s="33" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:28" s="13" customFormat="1">
@@ -6951,73 +7207,73 @@
         <v>9</v>
       </c>
       <c r="F13" s="23" t="s">
-        <v>434</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="H13" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="I13" s="12" t="s">
-        <v>438</v>
-      </c>
-      <c r="J13" s="23" t="s">
-        <v>101</v>
-      </c>
-      <c r="K13" s="23" t="s">
+        <v>395</v>
+      </c>
+      <c r="G13" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="H13" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="I13" s="28" t="s">
+        <v>399</v>
+      </c>
+      <c r="J13" s="33" t="s">
+        <v>405</v>
+      </c>
+      <c r="K13" s="33" t="s">
+        <v>407</v>
+      </c>
+      <c r="L13" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="L13" s="12" t="s">
+      <c r="M13" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="M13" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="N13" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="O13" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="P13" s="23" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q13" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="R13" s="23" t="s">
-        <v>98</v>
+      <c r="N13" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="O13" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="P13" s="33" t="s">
+        <v>402</v>
+      </c>
+      <c r="Q13" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="R13" s="33" t="s">
+        <v>9</v>
       </c>
       <c r="S13" s="12" t="s">
         <v>1</v>
       </c>
       <c r="T13" s="12" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U13" s="23" t="s">
-        <v>440</v>
+        <v>400</v>
       </c>
       <c r="V13" s="23" t="s">
-        <v>440</v>
+        <v>400</v>
       </c>
       <c r="W13" s="23" t="s">
-        <v>440</v>
+        <v>400</v>
       </c>
       <c r="X13" s="23" t="s">
         <v>3</v>
       </c>
       <c r="Y13" s="23" t="s">
-        <v>435</v>
+        <v>396</v>
       </c>
       <c r="Z13" s="23" t="s">
-        <v>436</v>
+        <v>397</v>
       </c>
       <c r="AA13" s="23" t="s">
-        <v>437</v>
-      </c>
-      <c r="AB13" s="23" t="s">
-        <v>89</v>
+        <v>398</v>
+      </c>
+      <c r="AB13" s="33" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:28" s="13" customFormat="1">
@@ -7037,159 +7293,159 @@
         <v>9</v>
       </c>
       <c r="F14" s="23" t="s">
-        <v>434</v>
-      </c>
-      <c r="G14" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="H14" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="I14" s="12" t="s">
-        <v>438</v>
-      </c>
-      <c r="J14" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="K14" s="23" t="s">
+        <v>395</v>
+      </c>
+      <c r="G14" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="H14" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="I14" s="28" t="s">
+        <v>399</v>
+      </c>
+      <c r="J14" s="33" t="s">
+        <v>405</v>
+      </c>
+      <c r="K14" s="33" t="s">
+        <v>335</v>
+      </c>
+      <c r="L14" s="28" t="s">
+        <v>404</v>
+      </c>
+      <c r="M14" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="L14" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="M14" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="N14" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="O14" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="P14" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q14" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="R14" s="23" t="s">
-        <v>98</v>
+      <c r="N14" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="O14" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="P14" s="33" t="s">
+        <v>403</v>
+      </c>
+      <c r="Q14" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="R14" s="33" t="s">
+        <v>9</v>
       </c>
       <c r="S14" s="12" t="s">
         <v>1</v>
       </c>
       <c r="T14" s="12" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U14" s="23" t="s">
-        <v>440</v>
+        <v>400</v>
       </c>
       <c r="V14" s="23" t="s">
-        <v>440</v>
+        <v>400</v>
       </c>
       <c r="W14" s="23" t="s">
-        <v>440</v>
+        <v>400</v>
       </c>
       <c r="X14" s="23" t="s">
         <v>3</v>
       </c>
       <c r="Y14" s="23" t="s">
-        <v>435</v>
+        <v>396</v>
       </c>
       <c r="Z14" s="23" t="s">
-        <v>436</v>
+        <v>397</v>
       </c>
       <c r="AA14" s="23" t="s">
-        <v>437</v>
-      </c>
-      <c r="AB14" s="23" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" s="13" customFormat="1">
-      <c r="A15" s="12" t="s">
+        <v>398</v>
+      </c>
+      <c r="AB14" s="33" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" s="2" customFormat="1">
+      <c r="A15" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E15" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15" s="23" t="s">
-        <v>434</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="H15" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="I15" s="12" t="s">
-        <v>438</v>
-      </c>
-      <c r="J15" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="K15" s="23" t="s">
+      <c r="E15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="G15" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="H15" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="I15" s="28" t="s">
+        <v>399</v>
+      </c>
+      <c r="J15" s="28" t="s">
+        <v>405</v>
+      </c>
+      <c r="K15" s="28" t="s">
+        <v>408</v>
+      </c>
+      <c r="L15" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="M15" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="L15" s="12" t="s">
+      <c r="N15" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="O15" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="P15" s="28" t="s">
+        <v>402</v>
+      </c>
+      <c r="Q15" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="R15" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="S15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="T15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="U15" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="V15" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="W15" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="X15" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M15" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="N15" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="O15" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="P15" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q15" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="R15" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="S15" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="T15" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="U15" s="23" t="s">
-        <v>439</v>
-      </c>
-      <c r="V15" s="23" t="s">
-        <v>439</v>
-      </c>
-      <c r="W15" s="23" t="s">
-        <v>439</v>
-      </c>
-      <c r="X15" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y15" s="23" t="s">
-        <v>435</v>
-      </c>
-      <c r="Z15" s="23" t="s">
-        <v>436</v>
-      </c>
-      <c r="AA15" s="23" t="s">
-        <v>437</v>
-      </c>
-      <c r="AB15" s="23" t="s">
-        <v>89</v>
+      <c r="Y15" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="Z15" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="AA15" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="AB15" s="28" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:28" s="13" customFormat="1">
@@ -7209,43 +7465,43 @@
         <v>9</v>
       </c>
       <c r="F16" s="23" t="s">
-        <v>434</v>
-      </c>
-      <c r="G16" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="H16" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="I16" s="12" t="s">
-        <v>438</v>
-      </c>
-      <c r="J16" s="23" t="s">
-        <v>444</v>
-      </c>
-      <c r="K16" s="23" t="s">
-        <v>445</v>
-      </c>
-      <c r="L16" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="M16" s="23" t="s">
+        <v>395</v>
+      </c>
+      <c r="G16" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="H16" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="I16" s="28" t="s">
+        <v>399</v>
+      </c>
+      <c r="J16" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="K16" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="N16" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="O16" s="12" t="s">
+      <c r="L16" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="P16" s="23" t="s">
-        <v>441</v>
-      </c>
-      <c r="Q16" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="R16" s="23" t="s">
-        <v>9</v>
+      <c r="M16" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="N16" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="O16" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="P16" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q16" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="R16" s="33" t="s">
+        <v>96</v>
       </c>
       <c r="S16" s="12" t="s">
         <v>1</v>
@@ -7254,28 +7510,28 @@
         <v>0</v>
       </c>
       <c r="U16" s="23" t="s">
-        <v>440</v>
+        <v>401</v>
       </c>
       <c r="V16" s="23" t="s">
-        <v>440</v>
+        <v>401</v>
       </c>
       <c r="W16" s="23" t="s">
-        <v>440</v>
+        <v>401</v>
       </c>
       <c r="X16" s="23" t="s">
         <v>3</v>
       </c>
       <c r="Y16" s="23" t="s">
-        <v>435</v>
+        <v>396</v>
       </c>
       <c r="Z16" s="23" t="s">
-        <v>436</v>
+        <v>397</v>
       </c>
       <c r="AA16" s="23" t="s">
-        <v>437</v>
-      </c>
-      <c r="AB16" s="23" t="s">
-        <v>89</v>
+        <v>398</v>
+      </c>
+      <c r="AB16" s="33" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:28" s="13" customFormat="1">
@@ -7295,43 +7551,43 @@
         <v>9</v>
       </c>
       <c r="F17" s="23" t="s">
-        <v>434</v>
-      </c>
-      <c r="G17" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="H17" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="I17" s="12" t="s">
-        <v>438</v>
-      </c>
-      <c r="J17" s="23" t="s">
-        <v>444</v>
-      </c>
-      <c r="K17" s="23" t="s">
-        <v>446</v>
-      </c>
-      <c r="L17" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="M17" s="23" t="s">
+        <v>395</v>
+      </c>
+      <c r="G17" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="H17" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="I17" s="28" t="s">
+        <v>399</v>
+      </c>
+      <c r="J17" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="K17" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="N17" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="O17" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="P17" s="23" t="s">
-        <v>441</v>
-      </c>
-      <c r="Q17" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="R17" s="23" t="s">
-        <v>9</v>
+      <c r="L17" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="M17" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="N17" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="O17" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="P17" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q17" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="R17" s="33" t="s">
+        <v>96</v>
       </c>
       <c r="S17" s="12" t="s">
         <v>1</v>
@@ -7340,28 +7596,28 @@
         <v>1</v>
       </c>
       <c r="U17" s="23" t="s">
-        <v>439</v>
+        <v>400</v>
       </c>
       <c r="V17" s="23" t="s">
-        <v>439</v>
+        <v>400</v>
       </c>
       <c r="W17" s="23" t="s">
-        <v>439</v>
+        <v>400</v>
       </c>
       <c r="X17" s="23" t="s">
         <v>3</v>
       </c>
       <c r="Y17" s="23" t="s">
-        <v>435</v>
+        <v>396</v>
       </c>
       <c r="Z17" s="23" t="s">
-        <v>436</v>
+        <v>397</v>
       </c>
       <c r="AA17" s="23" t="s">
-        <v>437</v>
-      </c>
-      <c r="AB17" s="23" t="s">
-        <v>89</v>
+        <v>398</v>
+      </c>
+      <c r="AB17" s="33" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:28" s="13" customFormat="1">
@@ -7381,43 +7637,43 @@
         <v>9</v>
       </c>
       <c r="F18" s="23" t="s">
-        <v>434</v>
-      </c>
-      <c r="G18" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="H18" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="I18" s="12" t="s">
-        <v>438</v>
-      </c>
-      <c r="J18" s="23" t="s">
-        <v>444</v>
-      </c>
-      <c r="K18" s="23" t="s">
-        <v>374</v>
-      </c>
-      <c r="L18" s="12" t="s">
-        <v>443</v>
-      </c>
-      <c r="M18" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="N18" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="O18" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="P18" s="23" t="s">
-        <v>442</v>
-      </c>
-      <c r="Q18" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="R18" s="23" t="s">
-        <v>9</v>
+        <v>395</v>
+      </c>
+      <c r="G18" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="H18" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="I18" s="28" t="s">
+        <v>399</v>
+      </c>
+      <c r="J18" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="K18" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="L18" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="M18" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="N18" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="O18" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="P18" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q18" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="R18" s="33" t="s">
+        <v>96</v>
       </c>
       <c r="S18" s="12" t="s">
         <v>1</v>
@@ -7426,536 +7682,1322 @@
         <v>1</v>
       </c>
       <c r="U18" s="23" t="s">
-        <v>439</v>
+        <v>400</v>
       </c>
       <c r="V18" s="23" t="s">
-        <v>439</v>
+        <v>400</v>
       </c>
       <c r="W18" s="23" t="s">
-        <v>439</v>
+        <v>400</v>
       </c>
       <c r="X18" s="23" t="s">
         <v>3</v>
       </c>
       <c r="Y18" s="23" t="s">
+        <v>396</v>
+      </c>
+      <c r="Z18" s="23" t="s">
+        <v>397</v>
+      </c>
+      <c r="AA18" s="23" t="s">
+        <v>398</v>
+      </c>
+      <c r="AB18" s="33" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" s="13" customFormat="1">
+      <c r="A19" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="E19" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="23" t="s">
+        <v>395</v>
+      </c>
+      <c r="G19" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="H19" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="I19" s="28" t="s">
+        <v>399</v>
+      </c>
+      <c r="J19" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="K19" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="L19" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="M19" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="N19" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="O19" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="P19" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q19" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="R19" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="S19" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="T19" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="U19" s="23" t="s">
+        <v>401</v>
+      </c>
+      <c r="V19" s="23" t="s">
+        <v>401</v>
+      </c>
+      <c r="W19" s="23" t="s">
+        <v>401</v>
+      </c>
+      <c r="X19" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y19" s="23" t="s">
+        <v>396</v>
+      </c>
+      <c r="Z19" s="23" t="s">
+        <v>397</v>
+      </c>
+      <c r="AA19" s="23" t="s">
+        <v>398</v>
+      </c>
+      <c r="AB19" s="33" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" s="13" customFormat="1">
+      <c r="A20" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="E20" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" s="23" t="s">
+        <v>429</v>
+      </c>
+      <c r="G20" s="28" t="s">
+        <v>430</v>
+      </c>
+      <c r="H20" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="I20" s="28" t="s">
+        <v>431</v>
+      </c>
+      <c r="J20" s="33" t="s">
+        <v>432</v>
+      </c>
+      <c r="K20" s="33" t="s">
+        <v>433</v>
+      </c>
+      <c r="L20" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="M20" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="N20" s="33" t="s">
+        <v>434</v>
+      </c>
+      <c r="O20" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="P20" s="33" t="s">
         <v>435</v>
       </c>
-      <c r="Z18" s="23" t="s">
+      <c r="Q20" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="R20" s="33" t="s">
         <v>436</v>
       </c>
-      <c r="AA18" s="23" t="s">
+      <c r="S20" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="T20" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="U20" s="23" t="s">
         <v>437</v>
       </c>
-      <c r="AB18" s="23" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="19" spans="1:28" s="2" customFormat="1">
-      <c r="A19" s="2" t="s">
+      <c r="V20" s="23" t="s">
+        <v>437</v>
+      </c>
+      <c r="W20" s="23" t="s">
+        <v>437</v>
+      </c>
+      <c r="X20" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y20" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z20" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA20" s="23" t="s">
+        <v>438</v>
+      </c>
+      <c r="AB20" s="23" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" s="13" customFormat="1">
+      <c r="A21" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B21" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C21" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D21" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="E19" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F19" s="2" t="s">
+      <c r="E21" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" s="23" t="s">
+        <v>429</v>
+      </c>
+      <c r="G21" s="28" t="s">
+        <v>430</v>
+      </c>
+      <c r="H21" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="I21" s="28" t="s">
+        <v>431</v>
+      </c>
+      <c r="J21" s="33" t="s">
+        <v>432</v>
+      </c>
+      <c r="K21" s="33" t="s">
+        <v>433</v>
+      </c>
+      <c r="L21" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="M21" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="N21" s="33" t="s">
         <v>434</v>
       </c>
-      <c r="G19" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="I19" s="2" t="s">
+      <c r="O21" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="P21" s="33" t="s">
+        <v>435</v>
+      </c>
+      <c r="Q21" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="R21" s="33" t="s">
+        <v>436</v>
+      </c>
+      <c r="S21" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="T21" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="U21" s="23" t="s">
+        <v>440</v>
+      </c>
+      <c r="V21" s="23" t="s">
+        <v>440</v>
+      </c>
+      <c r="W21" s="23" t="s">
+        <v>440</v>
+      </c>
+      <c r="X21" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y21" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z21" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA21" s="23" t="s">
         <v>438</v>
       </c>
-      <c r="J19" s="2" t="s">
+      <c r="AB21" s="23" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" s="13" customFormat="1">
+      <c r="A22" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="E22" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="23" t="s">
+        <v>429</v>
+      </c>
+      <c r="G22" s="28" t="s">
+        <v>430</v>
+      </c>
+      <c r="H22" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="I22" s="28" t="s">
+        <v>431</v>
+      </c>
+      <c r="J22" s="33" t="s">
+        <v>432</v>
+      </c>
+      <c r="K22" s="33" t="s">
+        <v>433</v>
+      </c>
+      <c r="L22" s="28" t="s">
+        <v>441</v>
+      </c>
+      <c r="M22" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="N22" s="33" t="s">
+        <v>434</v>
+      </c>
+      <c r="O22" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="P22" s="33" t="s">
+        <v>442</v>
+      </c>
+      <c r="Q22" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="R22" s="33" t="s">
+        <v>436</v>
+      </c>
+      <c r="S22" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="T22" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="U22" s="23" t="s">
+        <v>443</v>
+      </c>
+      <c r="V22" s="23" t="s">
+        <v>443</v>
+      </c>
+      <c r="W22" s="23" t="s">
+        <v>443</v>
+      </c>
+      <c r="X22" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y22" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z22" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA22" s="23" t="s">
+        <v>438</v>
+      </c>
+      <c r="AB22" s="23" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" s="13" customFormat="1">
+      <c r="A23" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="E23" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" s="23" t="s">
+        <v>429</v>
+      </c>
+      <c r="G23" s="28" t="s">
+        <v>430</v>
+      </c>
+      <c r="H23" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="I23" s="28" t="s">
+        <v>431</v>
+      </c>
+      <c r="J23" s="33" t="s">
+        <v>432</v>
+      </c>
+      <c r="K23" s="33" t="s">
         <v>444</v>
       </c>
-      <c r="K19" s="2" t="s">
+      <c r="L23" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="M23" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="N23" s="33" t="s">
+        <v>434</v>
+      </c>
+      <c r="O23" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="P23" s="33" t="s">
+        <v>445</v>
+      </c>
+      <c r="Q23" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="R23" s="33" t="s">
+        <v>446</v>
+      </c>
+      <c r="S23" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="T23" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="U23" s="23" t="s">
+        <v>437</v>
+      </c>
+      <c r="V23" s="23" t="s">
+        <v>437</v>
+      </c>
+      <c r="W23" s="23" t="s">
+        <v>437</v>
+      </c>
+      <c r="X23" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y23" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z23" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA23" s="23" t="s">
+        <v>438</v>
+      </c>
+      <c r="AB23" s="23" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" s="13" customFormat="1">
+      <c r="A24" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="E24" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" s="23" t="s">
+        <v>429</v>
+      </c>
+      <c r="G24" s="28" t="s">
+        <v>430</v>
+      </c>
+      <c r="H24" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="I24" s="28" t="s">
+        <v>431</v>
+      </c>
+      <c r="J24" s="33" t="s">
+        <v>432</v>
+      </c>
+      <c r="K24" s="33" t="s">
+        <v>444</v>
+      </c>
+      <c r="L24" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="M24" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="N24" s="33" t="s">
+        <v>434</v>
+      </c>
+      <c r="O24" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="P24" s="33" t="s">
+        <v>445</v>
+      </c>
+      <c r="Q24" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="R24" s="33" t="s">
+        <v>446</v>
+      </c>
+      <c r="S24" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="T24" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="U24" s="23" t="s">
+        <v>440</v>
+      </c>
+      <c r="V24" s="23" t="s">
+        <v>440</v>
+      </c>
+      <c r="W24" s="23" t="s">
+        <v>440</v>
+      </c>
+      <c r="X24" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y24" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z24" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA24" s="23" t="s">
+        <v>438</v>
+      </c>
+      <c r="AB24" s="23" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" s="13" customFormat="1">
+      <c r="A25" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="E25" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" s="23" t="s">
+        <v>429</v>
+      </c>
+      <c r="G25" s="28" t="s">
+        <v>430</v>
+      </c>
+      <c r="H25" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="I25" s="28" t="s">
+        <v>431</v>
+      </c>
+      <c r="J25" s="33" t="s">
+        <v>432</v>
+      </c>
+      <c r="K25" s="33" t="s">
+        <v>444</v>
+      </c>
+      <c r="L25" s="28" t="s">
+        <v>441</v>
+      </c>
+      <c r="M25" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="N25" s="33" t="s">
+        <v>434</v>
+      </c>
+      <c r="O25" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="P25" s="33" t="s">
         <v>447</v>
       </c>
-      <c r="L19" s="2" t="s">
+      <c r="Q25" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="R25" s="33" t="s">
+        <v>446</v>
+      </c>
+      <c r="S25" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="T25" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="U25" s="23" t="s">
+        <v>443</v>
+      </c>
+      <c r="V25" s="23" t="s">
+        <v>443</v>
+      </c>
+      <c r="W25" s="23" t="s">
+        <v>443</v>
+      </c>
+      <c r="X25" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y25" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z25" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA25" s="23" t="s">
+        <v>438</v>
+      </c>
+      <c r="AB25" s="23" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28" s="13" customFormat="1">
+      <c r="A26" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="M19" s="2" t="s">
+      <c r="B26" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="E26" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" s="23" t="s">
+        <v>429</v>
+      </c>
+      <c r="G26" s="28" t="s">
+        <v>430</v>
+      </c>
+      <c r="H26" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="I26" s="28" t="s">
+        <v>431</v>
+      </c>
+      <c r="J26" s="33" t="s">
+        <v>432</v>
+      </c>
+      <c r="K26" s="33" t="s">
+        <v>448</v>
+      </c>
+      <c r="L26" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="M26" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="N26" s="33" t="s">
+        <v>439</v>
+      </c>
+      <c r="O26" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="P26" s="33" t="s">
+        <v>435</v>
+      </c>
+      <c r="Q26" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="R26" s="33" t="s">
+        <v>449</v>
+      </c>
+      <c r="S26" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="T26" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="U26" s="23" t="s">
+        <v>437</v>
+      </c>
+      <c r="V26" s="23" t="s">
+        <v>437</v>
+      </c>
+      <c r="W26" s="23" t="s">
+        <v>437</v>
+      </c>
+      <c r="X26" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y26" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z26" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA26" s="23" t="s">
+        <v>438</v>
+      </c>
+      <c r="AB26" s="23" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28" s="13" customFormat="1">
+      <c r="A27" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="E27" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" s="23" t="s">
+        <v>429</v>
+      </c>
+      <c r="G27" s="28" t="s">
+        <v>430</v>
+      </c>
+      <c r="H27" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="I27" s="28" t="s">
+        <v>431</v>
+      </c>
+      <c r="J27" s="33" t="s">
+        <v>432</v>
+      </c>
+      <c r="K27" s="33" t="s">
+        <v>448</v>
+      </c>
+      <c r="L27" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="M27" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="N27" s="33" t="s">
+        <v>439</v>
+      </c>
+      <c r="O27" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="P27" s="33" t="s">
+        <v>435</v>
+      </c>
+      <c r="Q27" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="R27" s="33" t="s">
+        <v>449</v>
+      </c>
+      <c r="S27" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="T27" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="U27" s="23" t="s">
+        <v>440</v>
+      </c>
+      <c r="V27" s="23" t="s">
+        <v>440</v>
+      </c>
+      <c r="W27" s="23" t="s">
+        <v>440</v>
+      </c>
+      <c r="X27" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y27" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z27" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA27" s="23" t="s">
+        <v>438</v>
+      </c>
+      <c r="AB27" s="23" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28" s="13" customFormat="1">
+      <c r="A28" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="E28" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" s="23" t="s">
+        <v>429</v>
+      </c>
+      <c r="G28" s="28" t="s">
+        <v>430</v>
+      </c>
+      <c r="H28" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="I28" s="28" t="s">
+        <v>431</v>
+      </c>
+      <c r="J28" s="33" t="s">
+        <v>432</v>
+      </c>
+      <c r="K28" s="33" t="s">
+        <v>448</v>
+      </c>
+      <c r="L28" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="M28" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="N28" s="33" t="s">
+        <v>439</v>
+      </c>
+      <c r="O28" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="P28" s="33" t="s">
+        <v>442</v>
+      </c>
+      <c r="Q28" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="R28" s="33" t="s">
+        <v>449</v>
+      </c>
+      <c r="S28" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="T28" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="N19" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="O19" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="P19" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="Q19" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="R19" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="S19" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="T19" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="U19" s="2" t="s">
+      <c r="U28" s="23" t="s">
+        <v>443</v>
+      </c>
+      <c r="V28" s="23" t="s">
+        <v>443</v>
+      </c>
+      <c r="W28" s="23" t="s">
+        <v>443</v>
+      </c>
+      <c r="X28" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y28" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z28" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA28" s="23" t="s">
+        <v>438</v>
+      </c>
+      <c r="AB28" s="23" t="s">
         <v>439</v>
       </c>
-      <c r="V19" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="W19" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="X19" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y19" s="2" t="s">
-        <v>435</v>
-      </c>
-      <c r="Z19" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="AA19" s="2" t="s">
-        <v>437</v>
-      </c>
-      <c r="AB19" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="20" spans="1:28">
-      <c r="E20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="2"/>
-      <c r="Q20" s="2"/>
-      <c r="W20" s="2"/>
-      <c r="X20" s="1"/>
-      <c r="AB20" s="2"/>
-    </row>
-    <row r="21" spans="1:28" ht="11.25" customHeight="1">
-      <c r="G21" s="89" t="s">
-        <v>452</v>
-      </c>
-      <c r="H21" s="90"/>
-      <c r="I21" s="90"/>
-      <c r="J21" s="90"/>
-      <c r="K21" s="90"/>
-      <c r="L21" s="90"/>
-      <c r="M21" s="90"/>
-      <c r="N21" s="90"/>
-      <c r="O21" s="90"/>
-      <c r="P21" s="90"/>
-      <c r="Q21" s="91"/>
-      <c r="R21" s="52" t="s">
-        <v>159</v>
-      </c>
-      <c r="S21" s="89" t="s">
-        <v>339</v>
-      </c>
-      <c r="T21" s="90"/>
-      <c r="U21" s="90"/>
-      <c r="V21" s="90"/>
-      <c r="W21" s="90"/>
-      <c r="X21" s="90"/>
-      <c r="Y21" s="90"/>
-      <c r="Z21" s="90"/>
-      <c r="AA21" s="91"/>
-      <c r="AB21" s="86"/>
-    </row>
-    <row r="22" spans="1:28" ht="11.25" customHeight="1">
-      <c r="G22" s="92"/>
-      <c r="H22" s="93"/>
-      <c r="I22" s="93"/>
-      <c r="J22" s="93"/>
-      <c r="K22" s="93"/>
-      <c r="L22" s="93"/>
-      <c r="M22" s="93"/>
-      <c r="N22" s="93"/>
-      <c r="O22" s="93"/>
-      <c r="P22" s="93"/>
-      <c r="Q22" s="94"/>
-      <c r="R22" s="52" t="s">
-        <v>158</v>
-      </c>
-      <c r="S22" s="92"/>
-      <c r="T22" s="93"/>
-      <c r="U22" s="93"/>
-      <c r="V22" s="93"/>
-      <c r="W22" s="93"/>
-      <c r="X22" s="93"/>
-      <c r="Y22" s="93"/>
-      <c r="Z22" s="93"/>
-      <c r="AA22" s="94"/>
-      <c r="AB22" s="87"/>
-    </row>
-    <row r="23" spans="1:28" ht="18" customHeight="1">
-      <c r="G23" s="95"/>
-      <c r="H23" s="96"/>
-      <c r="I23" s="96"/>
-      <c r="J23" s="96"/>
-      <c r="K23" s="96"/>
-      <c r="L23" s="96"/>
-      <c r="M23" s="96"/>
-      <c r="N23" s="96"/>
-      <c r="O23" s="96"/>
-      <c r="P23" s="96"/>
-      <c r="Q23" s="97"/>
-      <c r="R23" s="52"/>
-      <c r="S23" s="95"/>
-      <c r="T23" s="96"/>
-      <c r="U23" s="96"/>
-      <c r="V23" s="96"/>
-      <c r="W23" s="96"/>
-      <c r="X23" s="96"/>
-      <c r="Y23" s="96"/>
-      <c r="Z23" s="96"/>
-      <c r="AA23" s="97"/>
-      <c r="AB23" s="88"/>
-    </row>
-    <row r="24" spans="1:28" ht="11.25" customHeight="1">
-      <c r="A24" s="57" t="s">
-        <v>350</v>
-      </c>
-      <c r="B24" s="57" t="s">
-        <v>148</v>
-      </c>
-      <c r="C24" s="57" t="s">
-        <v>123</v>
-      </c>
-      <c r="D24" s="57" t="s">
-        <v>123</v>
-      </c>
-      <c r="E24" s="57" t="s">
-        <v>147</v>
-      </c>
-      <c r="F24" s="57" t="s">
-        <v>137</v>
-      </c>
-      <c r="G24" s="57" t="s">
-        <v>453</v>
-      </c>
-      <c r="H24" s="57" t="s">
-        <v>454</v>
-      </c>
-      <c r="I24" s="57" t="s">
-        <v>455</v>
-      </c>
-      <c r="J24" s="47" t="s">
-        <v>458</v>
-      </c>
-      <c r="K24" s="47" t="s">
-        <v>459</v>
-      </c>
-      <c r="L24" s="47" t="s">
-        <v>460</v>
-      </c>
-      <c r="M24" s="78" t="s">
-        <v>154</v>
-      </c>
-      <c r="N24" s="57" t="s">
-        <v>457</v>
-      </c>
-      <c r="O24" s="57" t="s">
-        <v>456</v>
-      </c>
-      <c r="P24" s="57" t="s">
-        <v>461</v>
-      </c>
-      <c r="Q24" s="57" t="s">
-        <v>151</v>
-      </c>
-      <c r="R24" s="74" t="s">
-        <v>160</v>
-      </c>
-      <c r="S24" s="57" t="s">
-        <v>124</v>
-      </c>
-      <c r="T24" s="57" t="s">
-        <v>462</v>
-      </c>
-      <c r="U24" s="57" t="s">
-        <v>155</v>
-      </c>
-      <c r="V24" s="57" t="s">
-        <v>156</v>
-      </c>
-      <c r="W24" s="57" t="s">
-        <v>157</v>
-      </c>
-      <c r="X24" s="57" t="s">
-        <v>152</v>
-      </c>
-      <c r="Y24" s="74" t="s">
-        <v>463</v>
-      </c>
-      <c r="Z24" s="74" t="s">
-        <v>464</v>
-      </c>
-      <c r="AA24" s="57" t="s">
-        <v>465</v>
-      </c>
-      <c r="AB24" s="57" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="25" spans="1:28">
-      <c r="A25" s="58"/>
-      <c r="B25" s="58"/>
-      <c r="C25" s="58"/>
-      <c r="D25" s="58"/>
-      <c r="E25" s="58"/>
-      <c r="F25" s="58"/>
-      <c r="G25" s="58"/>
-      <c r="H25" s="58"/>
-      <c r="I25" s="58"/>
-      <c r="J25" s="47"/>
-      <c r="K25" s="47"/>
-      <c r="L25" s="47"/>
-      <c r="M25" s="78"/>
-      <c r="N25" s="58"/>
-      <c r="O25" s="58"/>
-      <c r="P25" s="58"/>
-      <c r="Q25" s="58"/>
-      <c r="R25" s="75"/>
-      <c r="S25" s="99"/>
-      <c r="T25" s="99"/>
-      <c r="U25" s="99"/>
-      <c r="V25" s="99"/>
-      <c r="W25" s="99"/>
-      <c r="X25" s="99"/>
-      <c r="Y25" s="99"/>
-      <c r="Z25" s="99"/>
-      <c r="AA25" s="99"/>
-      <c r="AB25" s="58"/>
-    </row>
-    <row r="26" spans="1:28">
-      <c r="A26" s="58"/>
-      <c r="B26" s="58"/>
-      <c r="C26" s="58"/>
-      <c r="D26" s="58"/>
-      <c r="E26" s="58"/>
-      <c r="F26" s="58"/>
-      <c r="G26" s="58"/>
-      <c r="H26" s="58"/>
-      <c r="I26" s="58"/>
-      <c r="J26" s="47"/>
-      <c r="K26" s="47"/>
-      <c r="L26" s="47"/>
-      <c r="M26" s="78"/>
-      <c r="N26" s="58"/>
-      <c r="O26" s="58"/>
-      <c r="P26" s="58"/>
-      <c r="Q26" s="58"/>
-      <c r="R26" s="75"/>
-      <c r="S26" s="99"/>
-      <c r="T26" s="99"/>
-      <c r="U26" s="99"/>
-      <c r="V26" s="99"/>
-      <c r="W26" s="99"/>
-      <c r="X26" s="99"/>
-      <c r="Y26" s="99"/>
-      <c r="Z26" s="99"/>
-      <c r="AA26" s="99"/>
-      <c r="AB26" s="58"/>
-    </row>
-    <row r="27" spans="1:28">
-      <c r="A27" s="59"/>
-      <c r="B27" s="59"/>
-      <c r="C27" s="59"/>
-      <c r="D27" s="59"/>
-      <c r="E27" s="59"/>
-      <c r="F27" s="59"/>
-      <c r="G27" s="59"/>
-      <c r="H27" s="59"/>
-      <c r="I27" s="59"/>
-      <c r="J27" s="47"/>
-      <c r="K27" s="47"/>
-      <c r="L27" s="47"/>
-      <c r="M27" s="78"/>
-      <c r="N27" s="59"/>
-      <c r="O27" s="59"/>
-      <c r="P27" s="59"/>
-      <c r="Q27" s="59"/>
-      <c r="R27" s="75"/>
-      <c r="S27" s="100"/>
-      <c r="T27" s="100"/>
-      <c r="U27" s="100"/>
-      <c r="V27" s="100"/>
-      <c r="W27" s="100"/>
-      <c r="X27" s="100"/>
-      <c r="Y27" s="99"/>
-      <c r="Z27" s="99"/>
-      <c r="AA27" s="99"/>
-      <c r="AB27" s="59"/>
-    </row>
-    <row r="28" spans="1:28">
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="M28" s="78"/>
-      <c r="N28" s="1"/>
-      <c r="O28" s="2"/>
-      <c r="P28" s="2"/>
-      <c r="Q28" s="2"/>
-      <c r="R28" s="75"/>
-      <c r="W28" s="2"/>
-      <c r="X28" s="1"/>
-      <c r="Y28" s="99"/>
-      <c r="Z28" s="99"/>
-      <c r="AA28" s="99"/>
-      <c r="AB28" s="2"/>
-    </row>
-    <row r="29" spans="1:28">
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="M29" s="78"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="P29" s="2"/>
-      <c r="R29" s="76"/>
-      <c r="S29" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="W29" s="2"/>
-      <c r="X29" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="Y29" s="100"/>
-      <c r="Z29" s="100"/>
-      <c r="AA29" s="100"/>
-      <c r="AB29" s="17" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="30" spans="1:28" ht="202.5">
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="M30" s="78"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="24" t="s">
-        <v>150</v>
-      </c>
-      <c r="P30" s="2"/>
-      <c r="S30" s="20" t="s">
-        <v>125</v>
-      </c>
-      <c r="W30" s="2"/>
-      <c r="X30" s="20" t="s">
-        <v>153</v>
-      </c>
-      <c r="AB30" s="25" t="s">
-        <v>163</v>
-      </c>
+    </row>
+    <row r="29" spans="1:28" s="13" customFormat="1">
+      <c r="A29" s="12"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="23"/>
+      <c r="K29" s="23"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="23"/>
+      <c r="N29" s="23"/>
+      <c r="O29" s="12"/>
+      <c r="P29" s="23"/>
+      <c r="Q29" s="23"/>
+      <c r="R29" s="23"/>
+      <c r="S29" s="12"/>
+      <c r="T29" s="12"/>
+      <c r="U29" s="23"/>
+      <c r="V29" s="23"/>
+      <c r="W29" s="23"/>
+      <c r="X29" s="23"/>
+      <c r="Y29" s="23"/>
+      <c r="Z29" s="23"/>
+      <c r="AA29" s="23"/>
+      <c r="AB29" s="23"/>
+    </row>
+    <row r="30" spans="1:28" s="13" customFormat="1">
+      <c r="A30" s="12"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="23"/>
+      <c r="K30" s="23"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="23"/>
+      <c r="N30" s="23"/>
+      <c r="O30" s="12"/>
+      <c r="P30" s="23"/>
+      <c r="Q30" s="23"/>
+      <c r="R30" s="23"/>
+      <c r="S30" s="12"/>
+      <c r="T30" s="12"/>
+      <c r="U30" s="23"/>
+      <c r="V30" s="23"/>
+      <c r="W30" s="23"/>
+      <c r="X30" s="23"/>
+      <c r="Y30" s="23"/>
+      <c r="Z30" s="23"/>
+      <c r="AA30" s="23"/>
+      <c r="AB30" s="23"/>
     </row>
     <row r="31" spans="1:28">
       <c r="E31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="J31" s="1"/>
       <c r="N31" s="1"/>
       <c r="O31" s="2"/>
-      <c r="U31" s="2"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
+      <c r="W31" s="2"/>
       <c r="X31" s="1"/>
-    </row>
-    <row r="32" spans="1:28">
-      <c r="E32" s="1"/>
-      <c r="N32" s="1"/>
-      <c r="O32" s="2"/>
-    </row>
-    <row r="33" spans="17:24">
-      <c r="Q33" s="2"/>
-      <c r="T33" s="1"/>
-      <c r="X33" s="1"/>
-    </row>
-    <row r="34" spans="17:24">
-      <c r="Q34" s="2"/>
-      <c r="T34" s="1"/>
-      <c r="X34" s="1"/>
-    </row>
-    <row r="35" spans="17:24">
-      <c r="Q35" s="2"/>
-      <c r="T35" s="1"/>
-      <c r="X35" s="1"/>
-    </row>
-    <row r="36" spans="17:24">
-      <c r="Q36" s="2"/>
-      <c r="T36" s="1"/>
-      <c r="X36" s="1"/>
-    </row>
-    <row r="37" spans="17:24">
-      <c r="Q37" s="2"/>
-      <c r="T37" s="1"/>
-      <c r="X37" s="1"/>
-    </row>
-    <row r="38" spans="17:24">
-      <c r="Q38" s="2"/>
-      <c r="T38" s="1"/>
-      <c r="X38" s="1"/>
-    </row>
-    <row r="39" spans="17:24">
+      <c r="AB31" s="2"/>
+    </row>
+    <row r="32" spans="1:28" ht="11.25" customHeight="1">
+      <c r="G32" s="81" t="s">
+        <v>413</v>
+      </c>
+      <c r="H32" s="82"/>
+      <c r="I32" s="82"/>
+      <c r="J32" s="82"/>
+      <c r="K32" s="82"/>
+      <c r="L32" s="82"/>
+      <c r="M32" s="82"/>
+      <c r="N32" s="82"/>
+      <c r="O32" s="82"/>
+      <c r="P32" s="82"/>
+      <c r="Q32" s="83"/>
+      <c r="R32" s="99" t="s">
+        <v>505</v>
+      </c>
+      <c r="S32" s="81" t="s">
+        <v>300</v>
+      </c>
+      <c r="T32" s="82"/>
+      <c r="U32" s="82"/>
+      <c r="V32" s="82"/>
+      <c r="W32" s="82"/>
+      <c r="X32" s="82"/>
+      <c r="Y32" s="82"/>
+      <c r="Z32" s="82"/>
+      <c r="AA32" s="83"/>
+      <c r="AB32" s="40"/>
+    </row>
+    <row r="33" spans="1:28" ht="11.25" customHeight="1">
+      <c r="G33" s="84"/>
+      <c r="H33" s="85"/>
+      <c r="I33" s="85"/>
+      <c r="J33" s="85"/>
+      <c r="K33" s="85"/>
+      <c r="L33" s="85"/>
+      <c r="M33" s="85"/>
+      <c r="N33" s="85"/>
+      <c r="O33" s="85"/>
+      <c r="P33" s="85"/>
+      <c r="Q33" s="86"/>
+      <c r="R33" s="100"/>
+      <c r="S33" s="84"/>
+      <c r="T33" s="85"/>
+      <c r="U33" s="85"/>
+      <c r="V33" s="85"/>
+      <c r="W33" s="85"/>
+      <c r="X33" s="85"/>
+      <c r="Y33" s="85"/>
+      <c r="Z33" s="85"/>
+      <c r="AA33" s="86"/>
+      <c r="AB33" s="41"/>
+    </row>
+    <row r="34" spans="1:28" ht="18" customHeight="1">
+      <c r="G34" s="87"/>
+      <c r="H34" s="88"/>
+      <c r="I34" s="88"/>
+      <c r="J34" s="88"/>
+      <c r="K34" s="88"/>
+      <c r="L34" s="88"/>
+      <c r="M34" s="88"/>
+      <c r="N34" s="88"/>
+      <c r="O34" s="88"/>
+      <c r="P34" s="88"/>
+      <c r="Q34" s="89"/>
+      <c r="R34" s="101"/>
+      <c r="S34" s="87"/>
+      <c r="T34" s="88"/>
+      <c r="U34" s="88"/>
+      <c r="V34" s="88"/>
+      <c r="W34" s="88"/>
+      <c r="X34" s="88"/>
+      <c r="Y34" s="88"/>
+      <c r="Z34" s="88"/>
+      <c r="AA34" s="89"/>
+      <c r="AB34" s="42"/>
+    </row>
+    <row r="35" spans="1:28" ht="11.25" customHeight="1">
+      <c r="A35" s="61" t="s">
+        <v>311</v>
+      </c>
+      <c r="B35" s="61" t="s">
+        <v>142</v>
+      </c>
+      <c r="C35" s="61" t="s">
+        <v>117</v>
+      </c>
+      <c r="D35" s="61" t="s">
+        <v>117</v>
+      </c>
+      <c r="E35" s="61" t="s">
+        <v>141</v>
+      </c>
+      <c r="F35" s="61" t="s">
+        <v>131</v>
+      </c>
+      <c r="G35" s="61" t="s">
+        <v>414</v>
+      </c>
+      <c r="H35" s="61" t="s">
+        <v>415</v>
+      </c>
+      <c r="I35" s="61" t="s">
+        <v>416</v>
+      </c>
+      <c r="J35" s="50" t="s">
+        <v>419</v>
+      </c>
+      <c r="K35" s="50" t="s">
+        <v>420</v>
+      </c>
+      <c r="L35" s="50" t="s">
+        <v>421</v>
+      </c>
+      <c r="M35" s="91" t="s">
+        <v>148</v>
+      </c>
+      <c r="N35" s="61" t="s">
+        <v>418</v>
+      </c>
+      <c r="O35" s="61" t="s">
+        <v>417</v>
+      </c>
+      <c r="P35" s="61" t="s">
+        <v>422</v>
+      </c>
+      <c r="Q35" s="92" t="s">
+        <v>145</v>
+      </c>
+      <c r="R35" s="75" t="s">
+        <v>506</v>
+      </c>
+      <c r="S35" s="57" t="s">
+        <v>118</v>
+      </c>
+      <c r="T35" s="61" t="s">
+        <v>423</v>
+      </c>
+      <c r="U35" s="61" t="s">
+        <v>149</v>
+      </c>
+      <c r="V35" s="61" t="s">
+        <v>150</v>
+      </c>
+      <c r="W35" s="61" t="s">
+        <v>151</v>
+      </c>
+      <c r="X35" s="61" t="s">
+        <v>146</v>
+      </c>
+      <c r="Y35" s="78" t="s">
+        <v>424</v>
+      </c>
+      <c r="Z35" s="78" t="s">
+        <v>425</v>
+      </c>
+      <c r="AA35" s="61" t="s">
+        <v>426</v>
+      </c>
+      <c r="AB35" s="61" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28">
+      <c r="A36" s="62"/>
+      <c r="B36" s="62"/>
+      <c r="C36" s="62"/>
+      <c r="D36" s="62"/>
+      <c r="E36" s="62"/>
+      <c r="F36" s="62"/>
+      <c r="G36" s="62"/>
+      <c r="H36" s="62"/>
+      <c r="I36" s="62"/>
+      <c r="J36" s="50"/>
+      <c r="K36" s="50"/>
+      <c r="L36" s="50"/>
+      <c r="M36" s="91"/>
+      <c r="N36" s="62"/>
+      <c r="O36" s="62"/>
+      <c r="P36" s="62"/>
+      <c r="Q36" s="93"/>
+      <c r="R36" s="76"/>
+      <c r="S36" s="102"/>
+      <c r="T36" s="79"/>
+      <c r="U36" s="79"/>
+      <c r="V36" s="79"/>
+      <c r="W36" s="79"/>
+      <c r="X36" s="79"/>
+      <c r="Y36" s="79"/>
+      <c r="Z36" s="79"/>
+      <c r="AA36" s="79"/>
+      <c r="AB36" s="62"/>
+    </row>
+    <row r="37" spans="1:28">
+      <c r="A37" s="62"/>
+      <c r="B37" s="62"/>
+      <c r="C37" s="62"/>
+      <c r="D37" s="62"/>
+      <c r="E37" s="62"/>
+      <c r="F37" s="62"/>
+      <c r="G37" s="62"/>
+      <c r="H37" s="62"/>
+      <c r="I37" s="62"/>
+      <c r="J37" s="50"/>
+      <c r="K37" s="50"/>
+      <c r="L37" s="50"/>
+      <c r="M37" s="91"/>
+      <c r="N37" s="62"/>
+      <c r="O37" s="62"/>
+      <c r="P37" s="62"/>
+      <c r="Q37" s="93"/>
+      <c r="R37" s="76"/>
+      <c r="S37" s="102"/>
+      <c r="T37" s="79"/>
+      <c r="U37" s="79"/>
+      <c r="V37" s="79"/>
+      <c r="W37" s="79"/>
+      <c r="X37" s="79"/>
+      <c r="Y37" s="79"/>
+      <c r="Z37" s="79"/>
+      <c r="AA37" s="79"/>
+      <c r="AB37" s="62"/>
+    </row>
+    <row r="38" spans="1:28">
+      <c r="A38" s="63"/>
+      <c r="B38" s="63"/>
+      <c r="C38" s="63"/>
+      <c r="D38" s="63"/>
+      <c r="E38" s="63"/>
+      <c r="F38" s="63"/>
+      <c r="G38" s="63"/>
+      <c r="H38" s="63"/>
+      <c r="I38" s="63"/>
+      <c r="J38" s="50"/>
+      <c r="K38" s="50"/>
+      <c r="L38" s="50"/>
+      <c r="M38" s="91"/>
+      <c r="N38" s="63"/>
+      <c r="O38" s="63"/>
+      <c r="P38" s="63"/>
+      <c r="Q38" s="94"/>
+      <c r="R38" s="76"/>
+      <c r="S38" s="103"/>
+      <c r="T38" s="80"/>
+      <c r="U38" s="80"/>
+      <c r="V38" s="80"/>
+      <c r="W38" s="80"/>
+      <c r="X38" s="80"/>
+      <c r="Y38" s="79"/>
+      <c r="Z38" s="79"/>
+      <c r="AA38" s="79"/>
+      <c r="AB38" s="63"/>
+    </row>
+    <row r="39" spans="1:28">
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="M39" s="91"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="2"/>
+      <c r="P39" s="2"/>
       <c r="Q39" s="2"/>
-      <c r="T39" s="1"/>
+      <c r="R39" s="76"/>
+      <c r="W39" s="2"/>
       <c r="X39" s="1"/>
-    </row>
-    <row r="40" spans="17:24">
-      <c r="Q40" s="2"/>
-      <c r="T40" s="1"/>
-      <c r="X40" s="1"/>
-    </row>
-    <row r="41" spans="17:24">
-      <c r="Q41" s="2"/>
-      <c r="T41" s="1"/>
-      <c r="X41" s="1"/>
-    </row>
-    <row r="42" spans="17:24">
-      <c r="Q42" s="2"/>
-      <c r="T42" s="1"/>
+      <c r="Y39" s="79"/>
+      <c r="Z39" s="79"/>
+      <c r="AA39" s="79"/>
+      <c r="AB39" s="2"/>
+    </row>
+    <row r="40" spans="1:28">
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="M40" s="91"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="P40" s="2"/>
+      <c r="R40" s="76"/>
+      <c r="S40" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="W40" s="2"/>
+      <c r="X40" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y40" s="80"/>
+      <c r="Z40" s="80"/>
+      <c r="AA40" s="80"/>
+      <c r="AB40" s="17" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28" ht="202.5">
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="M41" s="91"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="P41" s="2"/>
+      <c r="R41" s="76"/>
+      <c r="S41" s="104" t="s">
+        <v>119</v>
+      </c>
+      <c r="W41" s="2"/>
+      <c r="X41" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="AB41" s="24" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="42" spans="1:28">
+      <c r="E42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="2"/>
+      <c r="R42" s="76"/>
+      <c r="U42" s="2"/>
       <c r="X42" s="1"/>
     </row>
-    <row r="43" spans="17:24">
-      <c r="Q43" s="2"/>
-      <c r="T43" s="1"/>
-      <c r="X43" s="1"/>
-    </row>
-    <row r="44" spans="17:24">
+    <row r="43" spans="1:28">
+      <c r="E43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="2"/>
+      <c r="R43" s="76"/>
+    </row>
+    <row r="44" spans="1:28">
       <c r="Q44" s="2"/>
+      <c r="R44" s="76"/>
       <c r="T44" s="1"/>
       <c r="X44" s="1"/>
     </row>
-    <row r="45" spans="17:24">
+    <row r="45" spans="1:28">
       <c r="Q45" s="2"/>
+      <c r="R45" s="77"/>
       <c r="T45" s="1"/>
       <c r="X45" s="1"/>
     </row>
-    <row r="46" spans="17:24">
+    <row r="46" spans="1:28">
       <c r="Q46" s="2"/>
       <c r="T46" s="1"/>
       <c r="X46" s="1"/>
     </row>
-    <row r="47" spans="17:24">
+    <row r="47" spans="1:28">
       <c r="Q47" s="2"/>
+      <c r="R47" s="105" t="s">
+        <v>507</v>
+      </c>
       <c r="T47" s="1"/>
       <c r="X47" s="1"/>
     </row>
-    <row r="48" spans="17:24">
+    <row r="48" spans="1:28">
       <c r="Q48" s="2"/>
+      <c r="R48" s="105"/>
       <c r="T48" s="1"/>
       <c r="X48" s="1"/>
     </row>
@@ -8049,42 +9091,98 @@
       <c r="T66" s="1"/>
       <c r="X66" s="1"/>
     </row>
+    <row r="67" spans="17:24">
+      <c r="Q67" s="2"/>
+      <c r="T67" s="1"/>
+      <c r="X67" s="1"/>
+    </row>
+    <row r="68" spans="17:24">
+      <c r="Q68" s="2"/>
+      <c r="T68" s="1"/>
+      <c r="X68" s="1"/>
+    </row>
+    <row r="69" spans="17:24">
+      <c r="Q69" s="2"/>
+      <c r="T69" s="1"/>
+      <c r="X69" s="1"/>
+    </row>
+    <row r="70" spans="17:24">
+      <c r="Q70" s="2"/>
+      <c r="T70" s="1"/>
+      <c r="X70" s="1"/>
+    </row>
+    <row r="71" spans="17:24">
+      <c r="Q71" s="2"/>
+      <c r="T71" s="1"/>
+      <c r="X71" s="1"/>
+    </row>
+    <row r="72" spans="17:24">
+      <c r="Q72" s="2"/>
+      <c r="T72" s="1"/>
+      <c r="X72" s="1"/>
+    </row>
+    <row r="73" spans="17:24">
+      <c r="Q73" s="2"/>
+      <c r="T73" s="1"/>
+      <c r="X73" s="1"/>
+    </row>
+    <row r="74" spans="17:24">
+      <c r="Q74" s="2"/>
+      <c r="T74" s="1"/>
+      <c r="X74" s="1"/>
+    </row>
+    <row r="75" spans="17:24">
+      <c r="Q75" s="2"/>
+      <c r="T75" s="1"/>
+      <c r="X75" s="1"/>
+    </row>
+    <row r="76" spans="17:24">
+      <c r="Q76" s="2"/>
+      <c r="T76" s="1"/>
+      <c r="X76" s="1"/>
+    </row>
+    <row r="77" spans="17:24">
+      <c r="Q77" s="2"/>
+      <c r="T77" s="1"/>
+      <c r="X77" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="34">
-    <mergeCell ref="G21:Q23"/>
-    <mergeCell ref="S21:AA23"/>
-    <mergeCell ref="D24:D27"/>
+  <mergeCells count="35">
+    <mergeCell ref="R47:R48"/>
+    <mergeCell ref="S32:AA34"/>
+    <mergeCell ref="D35:D38"/>
     <mergeCell ref="A4:F4"/>
-    <mergeCell ref="W24:W27"/>
-    <mergeCell ref="F24:F27"/>
-    <mergeCell ref="I24:I27"/>
-    <mergeCell ref="M24:M30"/>
-    <mergeCell ref="Q24:Q27"/>
-    <mergeCell ref="X24:X27"/>
-    <mergeCell ref="J24:J27"/>
-    <mergeCell ref="L24:L27"/>
-    <mergeCell ref="T24:T27"/>
-    <mergeCell ref="S24:S27"/>
-    <mergeCell ref="O24:O27"/>
-    <mergeCell ref="N24:N27"/>
-    <mergeCell ref="P24:P27"/>
-    <mergeCell ref="G24:G27"/>
+    <mergeCell ref="W35:W38"/>
+    <mergeCell ref="F35:F38"/>
+    <mergeCell ref="I35:I38"/>
+    <mergeCell ref="M35:M41"/>
+    <mergeCell ref="Q35:Q38"/>
+    <mergeCell ref="X35:X38"/>
+    <mergeCell ref="J35:J38"/>
+    <mergeCell ref="L35:L38"/>
+    <mergeCell ref="T35:T38"/>
+    <mergeCell ref="S35:S38"/>
+    <mergeCell ref="O35:O38"/>
+    <mergeCell ref="N35:N38"/>
+    <mergeCell ref="P35:P38"/>
+    <mergeCell ref="G35:G38"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="C24:C27"/>
-    <mergeCell ref="R21:R23"/>
-    <mergeCell ref="R24:R29"/>
-    <mergeCell ref="AB24:AB27"/>
-    <mergeCell ref="U24:U27"/>
-    <mergeCell ref="V24:V27"/>
-    <mergeCell ref="E24:E27"/>
-    <mergeCell ref="H24:H27"/>
-    <mergeCell ref="K24:K27"/>
-    <mergeCell ref="Y24:Y29"/>
-    <mergeCell ref="Z24:Z29"/>
-    <mergeCell ref="AA24:AA29"/>
+    <mergeCell ref="A35:A38"/>
+    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="C35:C38"/>
+    <mergeCell ref="E35:E38"/>
+    <mergeCell ref="H35:H38"/>
+    <mergeCell ref="K35:K38"/>
+    <mergeCell ref="G32:Q34"/>
+    <mergeCell ref="R32:R34"/>
+    <mergeCell ref="AB35:AB38"/>
+    <mergeCell ref="U35:U38"/>
+    <mergeCell ref="V35:V38"/>
+    <mergeCell ref="Y35:Y40"/>
+    <mergeCell ref="Z35:Z40"/>
+    <mergeCell ref="AA35:AA40"/>
+    <mergeCell ref="R35:R45"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -8094,12 +9192,12 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
-    <tabColor rgb="FF92D050"/>
+    <tabColor rgb="FF00B050"/>
   </sheetPr>
   <dimension ref="A2:H28"/>
   <sheetViews>
-    <sheetView topLeftCell="C4" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView topLeftCell="C7" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -8109,28 +9207,28 @@
     <col min="3" max="3" width="21.5703125" style="2" customWidth="1"/>
     <col min="4" max="4" width="22.5703125" style="2" customWidth="1"/>
     <col min="5" max="5" width="23.28515625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="21.5703125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="30.140625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="25.28515625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="30.140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="25.28515625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="39.7109375" style="2" customWidth="1"/>
     <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="21">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="48"/>
+      <c r="B2" s="51"/>
       <c r="C2" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="21">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="48"/>
+      <c r="B3" s="51"/>
       <c r="C3" s="3" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="13" customFormat="1">
@@ -8144,45 +9242,45 @@
         <v>22</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>72</v>
+        <v>388</v>
       </c>
       <c r="E6" s="14" t="s">
         <v>60</v>
       </c>
       <c r="F6" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="H6" s="14" t="s">
         <v>23</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="H6" s="14" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="2" t="s">
+      <c r="B7" s="28" t="s">
+        <v>338</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>489</v>
+      </c>
+      <c r="D7" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>106</v>
+      <c r="E7" s="28" t="s">
+        <v>490</v>
+      </c>
+      <c r="F7" s="28" t="s">
+        <v>341</v>
+      </c>
+      <c r="G7" s="28" t="s">
+        <v>3</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>1</v>
+        <v>343</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -8190,25 +9288,25 @@
         <v>61</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>111</v>
+        <v>347</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>3</v>
+        <v>491</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>110</v>
+        <v>490</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>112</v>
+        <v>341</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>106</v>
+        <v>3</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>1</v>
+        <v>492</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -8216,25 +9314,25 @@
         <v>61</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>102</v>
+        <v>353</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>4</v>
+        <v>489</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>110</v>
+        <v>490</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>65</v>
+        <v>356</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>66</v>
+        <v>3</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>1</v>
+        <v>343</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -8242,25 +9340,25 @@
         <v>61</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>113</v>
+        <v>359</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>4</v>
+        <v>200</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>110</v>
+        <v>490</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>65</v>
+        <v>356</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>89</v>
+        <v>3</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>1</v>
+        <v>361</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -8268,25 +9366,25 @@
         <v>61</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>114</v>
+        <v>365</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>4</v>
+        <v>489</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>110</v>
+        <v>490</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>65</v>
+        <v>368</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>89</v>
+        <v>3</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>1</v>
+        <v>343</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -8294,25 +9392,25 @@
         <v>61</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>115</v>
+        <v>373</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>4</v>
+        <v>370</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>110</v>
+        <v>490</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>65</v>
+        <v>377</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>89</v>
+        <v>3</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>1</v>
+        <v>361</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -8320,25 +9418,25 @@
         <v>61</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>115</v>
+        <v>493</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>4</v>
+        <v>494</v>
       </c>
       <c r="D13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="G13" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="H13" s="2" t="s">
-        <v>1</v>
+        <v>383</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -8346,25 +9444,25 @@
         <v>61</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>116</v>
+        <v>382</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>4</v>
+        <v>496</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>110</v>
+        <v>490</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>65</v>
+        <v>356</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>117</v>
+        <v>3</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>1</v>
+        <v>383</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -8372,25 +9470,25 @@
         <v>61</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>115</v>
+        <v>497</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>4</v>
+        <v>498</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>110</v>
+        <v>490</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>65</v>
+        <v>368</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>89</v>
+        <v>1</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>1</v>
+        <v>383</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -8398,147 +9496,147 @@
         <v>61</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>118</v>
+        <v>499</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>4</v>
+        <v>500</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>87</v>
+        <v>0</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>110</v>
+        <v>490</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>65</v>
+        <v>501</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>89</v>
+        <v>1</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>1</v>
+        <v>383</v>
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="B19" s="52" t="s">
-        <v>171</v>
-      </c>
-      <c r="C19" s="52"/>
-      <c r="D19" s="52"/>
-      <c r="E19" s="52"/>
-      <c r="F19" s="52" t="s">
-        <v>174</v>
-      </c>
-      <c r="G19" s="52" t="s">
-        <v>172</v>
-      </c>
-      <c r="H19" s="52"/>
+      <c r="B19" s="55" t="s">
+        <v>502</v>
+      </c>
+      <c r="C19" s="55"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="55" t="s">
+        <v>160</v>
+      </c>
+      <c r="G19" s="55"/>
+      <c r="H19" s="55" t="s">
+        <v>503</v>
+      </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="B20" s="52"/>
-      <c r="C20" s="52"/>
-      <c r="D20" s="52"/>
-      <c r="E20" s="52"/>
-      <c r="F20" s="82"/>
-      <c r="G20" s="52"/>
-      <c r="H20" s="52"/>
+      <c r="B20" s="55"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="55"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="95"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="B21" s="52"/>
-      <c r="C21" s="52"/>
-      <c r="D21" s="52"/>
-      <c r="E21" s="52"/>
-      <c r="F21" s="82"/>
-      <c r="G21" s="52"/>
-      <c r="H21" s="52"/>
+      <c r="B21" s="55"/>
+      <c r="C21" s="55"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="55"/>
+      <c r="G21" s="55"/>
+      <c r="H21" s="95"/>
     </row>
     <row r="22" spans="1:8" ht="11.25" customHeight="1">
-      <c r="A22" s="79" t="s">
-        <v>123</v>
-      </c>
-      <c r="B22" s="57" t="s">
-        <v>167</v>
-      </c>
-      <c r="C22" s="57" t="s">
-        <v>165</v>
-      </c>
-      <c r="D22" s="57" t="s">
-        <v>166</v>
-      </c>
-      <c r="E22" s="57" t="s">
-        <v>168</v>
-      </c>
-      <c r="F22" s="83" t="s">
-        <v>175</v>
-      </c>
-      <c r="G22" s="57" t="s">
-        <v>169</v>
-      </c>
-      <c r="H22" s="57" t="s">
-        <v>170</v>
+      <c r="A22" s="92" t="s">
+        <v>117</v>
+      </c>
+      <c r="B22" s="61" t="s">
+        <v>156</v>
+      </c>
+      <c r="C22" s="61" t="s">
+        <v>154</v>
+      </c>
+      <c r="D22" s="61" t="s">
+        <v>155</v>
+      </c>
+      <c r="E22" s="61" t="s">
+        <v>157</v>
+      </c>
+      <c r="F22" s="61" t="s">
+        <v>158</v>
+      </c>
+      <c r="G22" s="61" t="s">
+        <v>159</v>
+      </c>
+      <c r="H22" s="96" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="80"/>
-      <c r="B23" s="58"/>
-      <c r="C23" s="58"/>
-      <c r="D23" s="58"/>
-      <c r="E23" s="58"/>
-      <c r="F23" s="84"/>
-      <c r="G23" s="58"/>
-      <c r="H23" s="58"/>
+      <c r="A23" s="93"/>
+      <c r="B23" s="62"/>
+      <c r="C23" s="62"/>
+      <c r="D23" s="62"/>
+      <c r="E23" s="62"/>
+      <c r="F23" s="62"/>
+      <c r="G23" s="62"/>
+      <c r="H23" s="97"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="81"/>
-      <c r="B24" s="58"/>
-      <c r="C24" s="58"/>
-      <c r="D24" s="58"/>
-      <c r="E24" s="58"/>
-      <c r="F24" s="84"/>
-      <c r="G24" s="58"/>
-      <c r="H24" s="58"/>
+      <c r="A24" s="94"/>
+      <c r="B24" s="62"/>
+      <c r="C24" s="62"/>
+      <c r="D24" s="62"/>
+      <c r="E24" s="62"/>
+      <c r="F24" s="62"/>
+      <c r="G24" s="62"/>
+      <c r="H24" s="97"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="B25" s="58"/>
-      <c r="C25" s="59"/>
-      <c r="D25" s="59"/>
-      <c r="E25" s="59"/>
-      <c r="F25" s="85"/>
-      <c r="G25" s="59"/>
-      <c r="H25" s="59"/>
+      <c r="B25" s="62"/>
+      <c r="C25" s="63"/>
+      <c r="D25" s="63"/>
+      <c r="E25" s="63"/>
+      <c r="F25" s="63"/>
+      <c r="G25" s="63"/>
+      <c r="H25" s="98"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="B26" s="59"/>
+      <c r="B26" s="63"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="H27" s="17" t="s">
-        <v>119</v>
+      <c r="G27" s="17" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="101.25">
-      <c r="F28" s="27" t="s">
-        <v>176</v>
-      </c>
-      <c r="G28" s="16"/>
-      <c r="H28" s="18" t="s">
-        <v>132</v>
+      <c r="F28" s="16"/>
+      <c r="G28" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="H28" s="26" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="H22:H25"/>
-    <mergeCell ref="B19:E21"/>
-    <mergeCell ref="G19:H21"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="F22:F25"/>
-    <mergeCell ref="D22:D25"/>
-    <mergeCell ref="E22:E25"/>
-    <mergeCell ref="G22:G25"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A22:A24"/>
     <mergeCell ref="B22:B26"/>
-    <mergeCell ref="F19:F21"/>
+    <mergeCell ref="H19:H21"/>
+    <mergeCell ref="G22:G25"/>
+    <mergeCell ref="B19:E21"/>
+    <mergeCell ref="F19:G21"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="H22:H25"/>
+    <mergeCell ref="D22:D25"/>
+    <mergeCell ref="E22:E25"/>
+    <mergeCell ref="F22:F25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -8550,7 +9648,7 @@
   <dimension ref="C2:K33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E29" sqref="E2:E29"/>
+      <selection activeCell="E9" sqref="E2:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8560,14 +9658,14 @@
   <sheetData>
     <row r="2" spans="3:11">
       <c r="C2" s="14" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="E2" t="str">
         <f>CONCATENATE(C2,", ")</f>
-        <v xml:space="preserve">CD_CIA, </v>
-      </c>
-      <c r="I2" s="29" t="s">
-        <v>299</v>
+        <v xml:space="preserve">CD_MODULO, </v>
+      </c>
+      <c r="I2" s="28" t="s">
+        <v>260</v>
       </c>
       <c r="K2" t="str">
         <f>CONCATENATE("'",I2,"',")</f>
@@ -8576,14 +9674,14 @@
     </row>
     <row r="3" spans="3:11">
       <c r="C3" s="14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E3" t="str">
         <f t="shared" ref="E3:E32" si="0">CONCATENATE(C3,", ")</f>
-        <v xml:space="preserve">CD_FILIAL, </v>
-      </c>
-      <c r="I3" s="29" t="s">
-        <v>333</v>
+        <v xml:space="preserve">CD_CHAVE_PRIMARIA, </v>
+      </c>
+      <c r="I3" s="28" t="s">
+        <v>294</v>
       </c>
       <c r="K3" t="str">
         <f t="shared" ref="K3:K11" si="1">CONCATENATE("'",I3,"',")</f>
@@ -8592,14 +9690,14 @@
     </row>
     <row r="4" spans="3:11">
       <c r="C4" s="14" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="E4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">CD_MODULO, </v>
+        <v xml:space="preserve">NR_REMESSA, </v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>335</v>
+        <v>296</v>
       </c>
       <c r="K4" t="str">
         <f t="shared" si="1"/>
@@ -8608,14 +9706,14 @@
     </row>
     <row r="5" spans="3:11">
       <c r="C5" s="14" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="E5" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">CD_MODULO_TITULO_REFERENCIA, </v>
+        <v xml:space="preserve">NR_PROGRAMACAO, </v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>302</v>
+        <v>263</v>
       </c>
       <c r="K5" t="str">
         <f t="shared" si="1"/>
@@ -8624,14 +9722,14 @@
     </row>
     <row r="6" spans="3:11">
       <c r="C6" s="14" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E6" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">CD_UNIDADE_EMPRESARIAL, </v>
+        <v xml:space="preserve">CD_METODO_RECEBIMENTO, </v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>304</v>
+        <v>265</v>
       </c>
       <c r="K6" t="str">
         <f t="shared" si="1"/>
@@ -8640,14 +9738,14 @@
     </row>
     <row r="7" spans="3:11">
       <c r="C7" s="14" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="E7" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">DT_ATUALIZACAO, </v>
+        <v xml:space="preserve">DT_REMESSA, </v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>305</v>
+        <v>266</v>
       </c>
       <c r="K7" t="str">
         <f t="shared" si="1"/>
@@ -8656,14 +9754,14 @@
     </row>
     <row r="8" spans="3:11">
       <c r="C8" s="14" t="s">
-        <v>36</v>
+        <v>106</v>
       </c>
       <c r="E8" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">CD_CHAVE_PRIMARIA, </v>
+        <v xml:space="preserve">DT_PREVISTA_RECEBIMENTO, </v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>306</v>
+        <v>267</v>
       </c>
       <c r="K8" t="str">
         <f t="shared" si="1"/>
@@ -8672,14 +9770,14 @@
     </row>
     <row r="9" spans="3:11">
       <c r="C9" s="14" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="E9" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">CD_TRANSACAO_TITULO, </v>
+        <v xml:space="preserve">CD_SITUACAO_TITULO, </v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>307</v>
+        <v>268</v>
       </c>
       <c r="K9" t="str">
         <f t="shared" si="1"/>
@@ -8688,14 +9786,14 @@
     </row>
     <row r="10" spans="3:11">
       <c r="C10" s="14" t="s">
-        <v>31</v>
+        <v>186</v>
       </c>
       <c r="E10" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">NR_TITULO, </v>
+        <v xml:space="preserve">NR_DOC_MOVIMENTO, </v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>309</v>
+        <v>270</v>
       </c>
       <c r="K10" t="str">
         <f t="shared" si="1"/>
@@ -8704,14 +9802,14 @@
     </row>
     <row r="11" spans="3:11">
       <c r="C11" s="14" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="E11" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">CD_TIPO_NF, </v>
+        <v xml:space="preserve">NR_AGENCIA, </v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>310</v>
+        <v>271</v>
       </c>
       <c r="K11" t="str">
         <f t="shared" si="1"/>
@@ -8720,128 +9818,128 @@
     </row>
     <row r="12" spans="3:11">
       <c r="C12" s="14" t="s">
-        <v>74</v>
+        <v>184</v>
       </c>
       <c r="E12" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">CD_TIPO_DOCUMENTO, </v>
+        <v xml:space="preserve">NR_BANCO, </v>
       </c>
     </row>
     <row r="13" spans="3:11">
       <c r="C13" s="14" t="s">
-        <v>76</v>
+        <v>23</v>
       </c>
       <c r="E13" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">DT_TRANSACAO, </v>
+        <v xml:space="preserve">DT_REMESSA, </v>
       </c>
     </row>
     <row r="14" spans="3:11">
       <c r="C14" s="14" t="s">
-        <v>82</v>
+        <v>181</v>
       </c>
       <c r="E14" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">CD_TRANSACAO_DOCUMENTO, </v>
+        <v xml:space="preserve">CD_STATUS_ARQUIVO, </v>
       </c>
     </row>
     <row r="15" spans="3:11">
       <c r="C15" s="14" t="s">
-        <v>86</v>
+        <v>182</v>
       </c>
       <c r="E15" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">CD_TIPO_MOVIMENTO, </v>
+        <v xml:space="preserve">CD_STATUS_ENVIO, </v>
       </c>
     </row>
     <row r="16" spans="3:11">
       <c r="C16" s="14" t="s">
-        <v>70</v>
+        <v>183</v>
       </c>
       <c r="E16" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">NR_MOVIMENTO, </v>
+        <v xml:space="preserve">DT_ULT_ATUALIZACAO, </v>
       </c>
     </row>
     <row r="17" spans="3:5">
       <c r="C17" s="14" t="s">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="E17" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">SQ_MOVIMENTO, </v>
+        <v xml:space="preserve">CD_BANCO, </v>
       </c>
     </row>
     <row r="18" spans="3:5">
       <c r="C18" s="14" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E18" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">NR_PROGRAMACAO, </v>
+        <v xml:space="preserve">IN_ENTRADA_SAIDA, </v>
       </c>
     </row>
     <row r="19" spans="3:5">
       <c r="C19" s="14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E19" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">VL_TRANSACAO, </v>
+        <v xml:space="preserve">NR_TITULO_REFERENCIA, </v>
       </c>
     </row>
     <row r="20" spans="3:5">
       <c r="C20" s="14" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="E20" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">DT_SITUACAO_MOVIMENTO, </v>
+        <v xml:space="preserve">CD_TIPO_NF, </v>
       </c>
     </row>
     <row r="21" spans="3:5">
       <c r="C21" s="14" t="s">
-        <v>75</v>
+        <v>388</v>
       </c>
       <c r="E21" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">IN_ENTRADA_SAIDA, </v>
+        <v xml:space="preserve">NR_PARCELA, </v>
       </c>
     </row>
     <row r="22" spans="3:5">
       <c r="C22" s="14" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E22" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">CD_PREPARADO_PAGAMENTO, </v>
+        <v xml:space="preserve">DT_VENCTO_PRORROGADO, </v>
       </c>
     </row>
     <row r="23" spans="3:5">
       <c r="C23" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E23" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">DT_VENCTO_PRORROGADO, </v>
+        <v xml:space="preserve">DT_VENCTO_ORIGINAL_PRORROGADO, </v>
       </c>
     </row>
     <row r="24" spans="3:5">
       <c r="C24" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E24" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">DT_VENCTO_ORIGINAL_PRORROGADO, </v>
+        <v xml:space="preserve">DT_LIQUIDEZ_PREVISTA, </v>
       </c>
     </row>
     <row r="25" spans="3:5">
       <c r="C25" s="14" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="E25" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">DT_LIQUIDEZ_PREVISTA, </v>
+        <v xml:space="preserve">CD_PREPARADO_PAGAMENTO, </v>
       </c>
     </row>
     <row r="26" spans="3:5">
@@ -8873,11 +9971,11 @@
     </row>
     <row r="29" spans="3:5">
       <c r="C29" s="14" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E29" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">NR_TITULO_REFERENCIA, </v>
+        <v xml:space="preserve">DT_SITUACAO_MOVIMENTO, </v>
       </c>
     </row>
     <row r="30" spans="3:5">
